--- a/forms/app/hbc_followup.xlsx
+++ b/forms/app/hbc_followup.xlsx
@@ -761,9 +761,6 @@
     <t>condition</t>
   </si>
   <si>
-    <t>select_one life_conditions_patient</t>
-  </si>
-  <si>
     <t>patient_outcome</t>
   </si>
   <si>
@@ -1705,6 +1702,9 @@
   </si>
   <si>
     <t>Would you like to refer  ${patient_name} for additional testing?</t>
+  </si>
+  <si>
+    <t>select_one patient_outcome</t>
   </si>
 </sst>
 </file>
@@ -2279,10 +2279,10 @@
   <dimension ref="A1:AJ191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C73" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A87" sqref="A87"/>
+      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2566,7 +2566,7 @@
         <v>63</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
@@ -2670,10 +2670,10 @@
         <v>50</v>
       </c>
       <c r="B9" s="26" t="s">
+        <v>511</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>512</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>513</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -2705,10 +2705,10 @@
         <v>50</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>462</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>463</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>464</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -2858,7 +2858,7 @@
       <c r="R14" s="21"/>
       <c r="S14" s="22"/>
       <c r="T14" s="21" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
@@ -2947,7 +2947,7 @@
         <v>78</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>45</v>
@@ -2969,7 +2969,7 @@
       <c r="R17" s="21"/>
       <c r="S17" s="22"/>
       <c r="T17" s="21" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="U17" s="22"/>
       <c r="V17" s="22"/>
@@ -2994,7 +2994,7 @@
         <v>239</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
@@ -3032,13 +3032,13 @@
     </row>
     <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
+        <v>553</v>
+      </c>
+      <c r="B20" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="C20" s="34" t="s">
         <v>241</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>242</v>
       </c>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
@@ -3159,10 +3159,10 @@
         <v>42</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
@@ -3171,7 +3171,7 @@
       <c r="H23" s="35"/>
       <c r="I23" s="35"/>
       <c r="J23" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K23" s="35" t="s">
         <v>47</v>
@@ -3254,7 +3254,7 @@
         <v>207</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -3301,7 +3301,7 @@
         <v>118</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
@@ -3348,7 +3348,7 @@
         <v>208</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
@@ -3395,7 +3395,7 @@
         <v>209</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
@@ -3439,10 +3439,10 @@
         <v>110</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
@@ -3486,10 +3486,10 @@
         <v>110</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -3815,10 +3815,10 @@
         <v>110</v>
       </c>
       <c r="B37" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="C37" s="35" t="s">
         <v>474</v>
-      </c>
-      <c r="C37" s="35" t="s">
-        <v>475</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
@@ -3862,10 +3862,10 @@
         <v>110</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
@@ -4126,10 +4126,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="37" t="s">
+        <v>481</v>
+      </c>
+      <c r="C44" s="35" t="s">
         <v>482</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>483</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -4171,10 +4171,10 @@
         <v>117</v>
       </c>
       <c r="B45" s="37" t="s">
+        <v>483</v>
+      </c>
+      <c r="C45" s="34" t="s">
         <v>484</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>485</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -4214,10 +4214,10 @@
         <v>117</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -4257,10 +4257,10 @@
         <v>110</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -4300,10 +4300,10 @@
         <v>110</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -4343,10 +4343,10 @@
         <v>110</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -4386,10 +4386,10 @@
         <v>110</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
@@ -4429,10 +4429,10 @@
         <v>110</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -4472,10 +4472,10 @@
         <v>110</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -4515,10 +4515,10 @@
         <v>110</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -4527,7 +4527,7 @@
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
       <c r="J53" s="35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K53" s="35"/>
       <c r="L53" s="35"/>
@@ -4560,10 +4560,10 @@
         <v>110</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -4603,10 +4603,10 @@
         <v>110</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -4646,10 +4646,10 @@
         <v>110</v>
       </c>
       <c r="B56" s="37" t="s">
+        <v>505</v>
+      </c>
+      <c r="C56" s="34" t="s">
         <v>506</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>507</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
@@ -4689,10 +4689,10 @@
         <v>110</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
@@ -4732,10 +4732,10 @@
         <v>110</v>
       </c>
       <c r="B58" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="C58" s="34" t="s">
         <v>510</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>511</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
@@ -4744,7 +4744,7 @@
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
       <c r="J58" s="35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K58" s="35"/>
       <c r="L58" s="35"/>
@@ -4850,13 +4850,13 @@
     </row>
     <row r="61" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="B61" s="37" t="s">
         <v>515</v>
       </c>
-      <c r="B61" s="37" t="s">
+      <c r="C61" s="35" t="s">
         <v>516</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>517</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -4895,13 +4895,13 @@
     </row>
     <row r="62" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -4938,13 +4938,13 @@
     </row>
     <row r="63" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B63" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="C63" s="35" t="s">
         <v>519</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>520</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
@@ -4981,13 +4981,13 @@
     </row>
     <row r="64" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B64" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="C64" s="35" t="s">
         <v>521</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>522</v>
       </c>
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
@@ -5024,13 +5024,13 @@
     </row>
     <row r="65" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -5067,13 +5067,13 @@
     </row>
     <row r="66" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B66" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="C66" s="35" t="s">
         <v>525</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>526</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -5189,10 +5189,10 @@
         <v>42</v>
       </c>
       <c r="B69" s="37" t="s">
+        <v>526</v>
+      </c>
+      <c r="C69" s="35" t="s">
         <v>527</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>528</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -5231,11 +5231,11 @@
     </row>
     <row r="70" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B70" s="37"/>
       <c r="C70" s="35" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -5272,11 +5272,11 @@
     </row>
     <row r="71" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B71" s="37"/>
       <c r="C71" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -5313,11 +5313,11 @@
     </row>
     <row r="72" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B72" s="37"/>
       <c r="C72" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D72" s="35"/>
       <c r="E72" s="35"/>
@@ -5354,11 +5354,11 @@
     </row>
     <row r="73" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B73" s="37"/>
       <c r="C73" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -5395,11 +5395,11 @@
     </row>
     <row r="74" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B74" s="37"/>
       <c r="C74" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -5408,7 +5408,7 @@
       <c r="H74" s="35"/>
       <c r="I74" s="35"/>
       <c r="J74" s="35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="K74" s="35"/>
       <c r="L74" s="35"/>
@@ -5517,7 +5517,7 @@
         <v>42</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C77" s="35" t="s">
         <v>45</v>
@@ -5562,10 +5562,10 @@
         <v>110</v>
       </c>
       <c r="B78" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="C78" s="35" t="s">
         <v>539</v>
-      </c>
-      <c r="C78" s="35" t="s">
-        <v>540</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
@@ -5604,13 +5604,13 @@
     </row>
     <row r="79" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
+        <v>547</v>
+      </c>
+      <c r="B79" s="37" t="s">
         <v>548</v>
       </c>
-      <c r="B79" s="37" t="s">
+      <c r="C79" s="35" t="s">
         <v>549</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>550</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="35"/>
@@ -5619,7 +5619,7 @@
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
       <c r="J79" s="35" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K79" s="35"/>
       <c r="L79" s="35"/>
@@ -5649,13 +5649,13 @@
     </row>
     <row r="80" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B80" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="C80" s="35" t="s">
         <v>541</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>542</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="35"/>
@@ -5664,7 +5664,7 @@
       <c r="H80" s="35"/>
       <c r="I80" s="35"/>
       <c r="J80" s="35" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K80" s="35"/>
       <c r="L80" s="35"/>
@@ -5694,13 +5694,13 @@
     </row>
     <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="37" t="s">
+        <v>543</v>
+      </c>
+      <c r="B81" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="C81" s="35" t="s">
         <v>544</v>
-      </c>
-      <c r="B81" s="37" t="s">
-        <v>546</v>
-      </c>
-      <c r="C81" s="35" t="s">
-        <v>545</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="35"/>
@@ -5709,7 +5709,7 @@
       <c r="H81" s="35"/>
       <c r="I81" s="35"/>
       <c r="J81" s="35" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K81" s="35"/>
       <c r="L81" s="35"/>
@@ -5818,7 +5818,7 @@
         <v>42</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C84" s="35" t="s">
         <v>45</v>
@@ -5861,10 +5861,10 @@
         <v>110</v>
       </c>
       <c r="B85" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="C85" s="35" t="s">
         <v>552</v>
-      </c>
-      <c r="C85" s="35" t="s">
-        <v>553</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="35"/>
@@ -6066,10 +6066,10 @@
         <v>42</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C91" s="34" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="35"/>
@@ -6078,7 +6078,7 @@
       <c r="H91" s="35"/>
       <c r="I91" s="36"/>
       <c r="J91" s="36" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K91" s="36" t="s">
         <v>47</v>
@@ -6110,13 +6110,13 @@
     </row>
     <row r="92" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C92" s="34" t="s">
         <v>287</v>
-      </c>
-      <c r="B92" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="C92" s="34" t="s">
-        <v>288</v>
       </c>
       <c r="D92" s="35"/>
       <c r="E92" s="35"/>
@@ -6129,10 +6129,10 @@
       <c r="J92" s="36"/>
       <c r="K92" s="36"/>
       <c r="L92" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="M92" s="34" t="s">
         <v>289</v>
-      </c>
-      <c r="M92" s="34" t="s">
-        <v>290</v>
       </c>
       <c r="N92" s="34"/>
       <c r="O92" s="34"/>
@@ -6159,13 +6159,13 @@
     </row>
     <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C93" s="34" t="s">
         <v>291</v>
-      </c>
-      <c r="B93" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="C93" s="34" t="s">
-        <v>292</v>
       </c>
       <c r="D93" s="35"/>
       <c r="E93" s="35"/>
@@ -6204,13 +6204,13 @@
     </row>
     <row r="94" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="C94" s="34" t="s">
         <v>293</v>
-      </c>
-      <c r="B94" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="C94" s="34" t="s">
-        <v>294</v>
       </c>
       <c r="D94" s="35"/>
       <c r="E94" s="35"/>
@@ -6223,10 +6223,10 @@
       <c r="J94" s="36"/>
       <c r="K94" s="36"/>
       <c r="L94" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="M94" s="34" t="s">
         <v>295</v>
-      </c>
-      <c r="M94" s="34" t="s">
-        <v>296</v>
       </c>
       <c r="N94" s="34"/>
       <c r="O94" s="34"/>
@@ -6256,10 +6256,10 @@
         <v>117</v>
       </c>
       <c r="B95" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C95" s="34" t="s">
         <v>297</v>
-      </c>
-      <c r="C95" s="34" t="s">
-        <v>298</v>
       </c>
       <c r="D95" s="35"/>
       <c r="E95" s="35"/>
@@ -6268,7 +6268,7 @@
       <c r="H95" s="35"/>
       <c r="I95" s="36"/>
       <c r="J95" s="36" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="K95" s="36"/>
       <c r="L95" s="36"/>
@@ -6301,10 +6301,10 @@
         <v>117</v>
       </c>
       <c r="B96" s="33" t="s">
+        <v>298</v>
+      </c>
+      <c r="C96" s="34" t="s">
         <v>299</v>
-      </c>
-      <c r="C96" s="34" t="s">
-        <v>300</v>
       </c>
       <c r="D96" s="35"/>
       <c r="E96" s="35"/>
@@ -6313,7 +6313,7 @@
       <c r="H96" s="35"/>
       <c r="I96" s="36"/>
       <c r="J96" s="36" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K96" s="36"/>
       <c r="L96" s="36"/>
@@ -6348,7 +6348,7 @@
         <v>42</v>
       </c>
       <c r="B97" s="38" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C97" s="39" t="s">
         <v>45</v>
@@ -6386,7 +6386,7 @@
       <c r="AF97" s="36"/>
       <c r="AG97" s="36"/>
       <c r="AH97" s="40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="AI97" s="36"/>
     </row>
@@ -6395,7 +6395,7 @@
         <v>78</v>
       </c>
       <c r="B98" s="38" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C98" s="39" t="s">
         <v>45</v>
@@ -6417,7 +6417,7 @@
       <c r="R98" s="36"/>
       <c r="S98" s="36"/>
       <c r="T98" s="39" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="U98" s="39"/>
       <c r="V98" s="39"/>
@@ -6443,7 +6443,7 @@
         <v>3</v>
       </c>
       <c r="C99" s="39" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D99" s="36"/>
       <c r="E99" s="36"/>
@@ -6462,7 +6462,7 @@
       <c r="R99" s="36"/>
       <c r="S99" s="36"/>
       <c r="T99" s="39" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="U99" s="36"/>
       <c r="V99" s="36"/>
@@ -6485,7 +6485,7 @@
         <v>78</v>
       </c>
       <c r="B100" s="38" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C100" s="39" t="s">
         <v>45</v>
@@ -6507,7 +6507,7 @@
       <c r="R100" s="36"/>
       <c r="S100" s="36"/>
       <c r="T100" s="39" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="U100" s="39"/>
       <c r="V100" s="39"/>
@@ -6530,7 +6530,7 @@
         <v>78</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C101" s="39" t="s">
         <v>45</v>
@@ -6552,7 +6552,7 @@
       <c r="R101" s="39"/>
       <c r="S101" s="39"/>
       <c r="T101" s="39" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="U101" s="39"/>
       <c r="V101" s="39"/>
@@ -6575,7 +6575,7 @@
         <v>42</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C102" s="39" t="s">
         <v>45</v>
@@ -6640,7 +6640,7 @@
       <c r="R103" s="39"/>
       <c r="S103" s="39"/>
       <c r="T103" s="39" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="U103" s="39"/>
       <c r="V103" s="39"/>
@@ -6685,7 +6685,7 @@
       <c r="R104" s="39"/>
       <c r="S104" s="39"/>
       <c r="T104" s="39" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="U104" s="39"/>
       <c r="V104" s="39"/>
@@ -6708,7 +6708,7 @@
         <v>42</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C105" s="39" t="s">
         <v>45</v>
@@ -6751,7 +6751,7 @@
         <v>78</v>
       </c>
       <c r="B106" s="38" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>45</v>
@@ -6773,7 +6773,7 @@
       <c r="R106" s="36"/>
       <c r="S106" s="36"/>
       <c r="T106" s="39" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="U106" s="36"/>
       <c r="V106" s="36"/>
@@ -6796,7 +6796,7 @@
         <v>78</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C107" s="39" t="s">
         <v>45</v>
@@ -6818,7 +6818,7 @@
       <c r="R107" s="36"/>
       <c r="S107" s="36"/>
       <c r="T107" s="39" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="U107" s="36"/>
       <c r="V107" s="36"/>
@@ -6841,7 +6841,7 @@
         <v>78</v>
       </c>
       <c r="B108" s="38" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C108" s="39" t="s">
         <v>45</v>
@@ -6863,7 +6863,7 @@
       <c r="R108" s="36"/>
       <c r="S108" s="36"/>
       <c r="T108" s="39" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="U108" s="36"/>
       <c r="V108" s="36"/>
@@ -6886,7 +6886,7 @@
         <v>78</v>
       </c>
       <c r="B109" s="38" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C109" s="39" t="s">
         <v>45</v>
@@ -6908,7 +6908,7 @@
       <c r="R109" s="39"/>
       <c r="S109" s="39"/>
       <c r="T109" s="39" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="U109" s="39"/>
       <c r="V109" s="39"/>
@@ -7009,7 +7009,7 @@
         <v>78</v>
       </c>
       <c r="B112" s="41" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C112" s="36" t="s">
         <v>45</v>
@@ -7031,7 +7031,7 @@
       <c r="R112" s="36"/>
       <c r="S112" s="36"/>
       <c r="T112" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="U112" s="36"/>
       <c r="V112" s="36"/>
@@ -7048,7 +7048,7 @@
       <c r="AG112" s="36"/>
       <c r="AH112" s="36"/>
       <c r="AI112" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="113" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7095,7 +7095,7 @@
         <v>78</v>
       </c>
       <c r="B114" s="41" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C114" s="36" t="s">
         <v>45</v>
@@ -7117,7 +7117,7 @@
       <c r="R114" s="36"/>
       <c r="S114" s="36"/>
       <c r="T114" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="U114" s="36"/>
       <c r="V114" s="36"/>
@@ -7134,7 +7134,7 @@
       <c r="AG114" s="36"/>
       <c r="AH114" s="36"/>
       <c r="AI114" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="115" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7193,10 +7193,10 @@
         <v>42</v>
       </c>
       <c r="B117" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C117" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D117" s="35"/>
       <c r="E117" s="35"/>
@@ -7205,7 +7205,7 @@
       <c r="H117" s="35"/>
       <c r="I117" s="36"/>
       <c r="J117" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K117" s="36" t="s">
         <v>47</v>
@@ -7237,13 +7237,13 @@
     </row>
     <row r="118" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="33" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B118" s="33" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C118" s="34" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D118" s="35"/>
       <c r="E118" s="35"/>
@@ -7256,10 +7256,10 @@
       <c r="J118" s="34"/>
       <c r="K118" s="34"/>
       <c r="L118" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="M118" s="34" t="s">
         <v>289</v>
-      </c>
-      <c r="M118" s="34" t="s">
-        <v>290</v>
       </c>
       <c r="N118" s="34"/>
       <c r="O118" s="34"/>
@@ -7286,13 +7286,13 @@
     </row>
     <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="33" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B119" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C119" s="34" t="s">
         <v>344</v>
-      </c>
-      <c r="C119" s="34" t="s">
-        <v>345</v>
       </c>
       <c r="D119" s="35"/>
       <c r="E119" s="35"/>
@@ -7331,13 +7331,13 @@
     </row>
     <row r="120" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="35"/>
@@ -7348,14 +7348,14 @@
         <v>57</v>
       </c>
       <c r="J120" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="K120" s="34"/>
       <c r="L120" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="M120" s="34" t="s">
         <v>337</v>
-      </c>
-      <c r="M120" s="34" t="s">
-        <v>338</v>
       </c>
       <c r="N120" s="34"/>
       <c r="O120" s="34"/>
@@ -7436,10 +7436,10 @@
         <v>42</v>
       </c>
       <c r="B123" s="33" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C123" s="34" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D123" s="35"/>
       <c r="E123" s="35"/>
@@ -7448,10 +7448,10 @@
       <c r="H123" s="35"/>
       <c r="I123" s="36"/>
       <c r="J123" s="36" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="K123" s="36" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L123" s="36"/>
       <c r="M123" s="34"/>
@@ -7485,10 +7485,10 @@
         <v>117</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D124" s="35"/>
       <c r="E124" s="35"/>
@@ -7528,10 +7528,10 @@
         <v>117</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D125" s="35"/>
       <c r="E125" s="35"/>
@@ -7571,10 +7571,10 @@
         <v>117</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D126" s="35"/>
       <c r="E126" s="35"/>
@@ -7614,10 +7614,10 @@
         <v>117</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C127" s="34" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D127" s="35"/>
       <c r="E127" s="35"/>
@@ -7657,10 +7657,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C128" s="34" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D128" s="35"/>
       <c r="E128" s="35"/>
@@ -7776,10 +7776,10 @@
         <v>42</v>
       </c>
       <c r="B131" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="C131" s="34" t="s">
         <v>412</v>
-      </c>
-      <c r="C131" s="34" t="s">
-        <v>413</v>
       </c>
       <c r="D131" s="35"/>
       <c r="E131" s="35"/>
@@ -7788,7 +7788,7 @@
       <c r="H131" s="35"/>
       <c r="I131" s="36"/>
       <c r="J131" s="34" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K131" s="36" t="s">
         <v>47</v>
@@ -7823,10 +7823,10 @@
         <v>117</v>
       </c>
       <c r="B132" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="C132" s="34" t="s">
         <v>349</v>
-      </c>
-      <c r="C132" s="34" t="s">
-        <v>350</v>
       </c>
       <c r="D132" s="35"/>
       <c r="E132" s="35"/>
@@ -7865,13 +7865,13 @@
     </row>
     <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="B133" s="33" t="s">
         <v>351</v>
       </c>
-      <c r="B133" s="33" t="s">
+      <c r="C133" s="34" t="s">
         <v>352</v>
-      </c>
-      <c r="C133" s="34" t="s">
-        <v>353</v>
       </c>
       <c r="D133" s="35"/>
       <c r="E133" s="35"/>
@@ -7884,7 +7884,7 @@
       <c r="J133" s="36"/>
       <c r="K133" s="36"/>
       <c r="L133" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M133" s="35"/>
       <c r="N133" s="34"/>
@@ -7895,7 +7895,7 @@
       <c r="S133" s="34"/>
       <c r="T133" s="34"/>
       <c r="U133" s="34" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="V133" s="34"/>
       <c r="W133" s="36"/>
@@ -7914,13 +7914,13 @@
     </row>
     <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="33" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B134" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="C134" s="34" t="s">
         <v>356</v>
-      </c>
-      <c r="C134" s="34" t="s">
-        <v>357</v>
       </c>
       <c r="D134" s="36"/>
       <c r="E134" s="36"/>
@@ -7933,10 +7933,10 @@
       <c r="J134" s="36"/>
       <c r="K134" s="34"/>
       <c r="L134" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="M134" s="34" t="s">
         <v>358</v>
-      </c>
-      <c r="M134" s="34" t="s">
-        <v>359</v>
       </c>
       <c r="N134" s="36"/>
       <c r="O134" s="36"/>
@@ -7966,7 +7966,7 @@
         <v>78</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C135" s="34" t="s">
         <v>45</v>
@@ -7988,7 +7988,7 @@
       <c r="R135" s="36"/>
       <c r="S135" s="36"/>
       <c r="T135" s="36" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="U135" s="36"/>
       <c r="V135" s="36"/>
@@ -8089,7 +8089,7 @@
         <v>42</v>
       </c>
       <c r="B138" s="44" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C138" s="45" t="s">
         <v>45</v>
@@ -8102,7 +8102,7 @@
       <c r="I138" s="47"/>
       <c r="J138" s="47"/>
       <c r="K138" s="47" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="L138" s="47"/>
       <c r="M138" s="45"/>
@@ -8136,10 +8136,10 @@
         <v>117</v>
       </c>
       <c r="B139" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="C139" s="45" t="s">
         <v>362</v>
-      </c>
-      <c r="C139" s="45" t="s">
-        <v>363</v>
       </c>
       <c r="D139" s="47"/>
       <c r="E139" s="47"/>
@@ -8179,10 +8179,10 @@
         <v>117</v>
       </c>
       <c r="B140" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="C140" s="45" t="s">
         <v>364</v>
-      </c>
-      <c r="C140" s="45" t="s">
-        <v>365</v>
       </c>
       <c r="D140" s="47"/>
       <c r="E140" s="47"/>
@@ -8192,7 +8192,7 @@
       <c r="I140" s="47"/>
       <c r="J140" s="47"/>
       <c r="K140" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L140" s="47"/>
       <c r="M140" s="47"/>
@@ -8224,10 +8224,10 @@
         <v>117</v>
       </c>
       <c r="B141" s="44" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C141" s="45" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D141" s="47"/>
       <c r="E141" s="47"/>
@@ -8267,10 +8267,10 @@
         <v>117</v>
       </c>
       <c r="B142" s="44" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C142" s="45" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D142" s="47"/>
       <c r="E142" s="47"/>
@@ -8280,7 +8280,7 @@
       <c r="I142" s="47"/>
       <c r="J142" s="47"/>
       <c r="K142" s="45" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="L142" s="47"/>
       <c r="M142" s="47"/>
@@ -8312,10 +8312,10 @@
         <v>117</v>
       </c>
       <c r="B143" s="44" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C143" s="47" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D143" s="47"/>
       <c r="E143" s="47"/>
@@ -8325,7 +8325,7 @@
       <c r="I143" s="47"/>
       <c r="J143" s="46"/>
       <c r="K143" s="45" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L143" s="47"/>
       <c r="M143" s="47"/>
@@ -8357,10 +8357,10 @@
         <v>117</v>
       </c>
       <c r="B144" s="44" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C144" s="45" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D144" s="46"/>
       <c r="E144" s="46"/>
@@ -8369,10 +8369,10 @@
       <c r="H144" s="46"/>
       <c r="I144" s="47"/>
       <c r="J144" s="45" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K144" s="47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L144" s="47"/>
       <c r="M144" s="45"/>
@@ -8404,10 +8404,10 @@
         <v>117</v>
       </c>
       <c r="B145" s="44" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C145" s="45" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D145" s="46"/>
       <c r="E145" s="46"/>
@@ -8416,10 +8416,10 @@
       <c r="H145" s="46"/>
       <c r="I145" s="47"/>
       <c r="J145" s="45" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K145" s="47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L145" s="47"/>
       <c r="M145" s="45"/>
@@ -8451,10 +8451,10 @@
         <v>117</v>
       </c>
       <c r="B146" s="44" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C146" s="45" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D146" s="46"/>
       <c r="E146" s="46"/>
@@ -8463,10 +8463,10 @@
       <c r="H146" s="46"/>
       <c r="I146" s="47"/>
       <c r="J146" s="45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K146" s="47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L146" s="47"/>
       <c r="M146" s="45"/>
@@ -8498,10 +8498,10 @@
         <v>117</v>
       </c>
       <c r="B147" s="44" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C147" s="47" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D147" s="47"/>
       <c r="E147" s="47"/>
@@ -8510,10 +8510,10 @@
       <c r="H147" s="47"/>
       <c r="I147" s="47"/>
       <c r="J147" s="45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K147" s="45" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L147" s="47"/>
       <c r="M147" s="47"/>
@@ -8545,10 +8545,10 @@
         <v>117</v>
       </c>
       <c r="B148" s="44" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C148" s="45" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D148" s="46"/>
       <c r="E148" s="46"/>
@@ -8557,10 +8557,10 @@
       <c r="H148" s="46"/>
       <c r="I148" s="47"/>
       <c r="J148" s="45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K148" s="47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L148" s="47"/>
       <c r="M148" s="45"/>
@@ -8592,10 +8592,10 @@
         <v>117</v>
       </c>
       <c r="B149" s="44" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C149" s="45" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D149" s="46"/>
       <c r="E149" s="46"/>
@@ -8604,10 +8604,10 @@
       <c r="H149" s="46"/>
       <c r="I149" s="47"/>
       <c r="J149" s="45" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K149" s="47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L149" s="47"/>
       <c r="M149" s="45"/>
@@ -8639,10 +8639,10 @@
         <v>117</v>
       </c>
       <c r="B150" s="44" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C150" s="45" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D150" s="46"/>
       <c r="E150" s="46"/>
@@ -8651,10 +8651,10 @@
       <c r="H150" s="46"/>
       <c r="I150" s="47"/>
       <c r="J150" s="45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K150" s="45" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L150" s="47"/>
       <c r="M150" s="45"/>
@@ -8686,10 +8686,10 @@
         <v>117</v>
       </c>
       <c r="B151" s="44" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C151" s="45" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D151" s="47"/>
       <c r="E151" s="47"/>
@@ -8698,10 +8698,10 @@
       <c r="H151" s="47"/>
       <c r="I151" s="47"/>
       <c r="J151" s="45" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K151" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L151" s="47"/>
       <c r="M151" s="47"/>
@@ -8733,10 +8733,10 @@
         <v>117</v>
       </c>
       <c r="B152" s="44" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C152" s="45" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D152" s="47"/>
       <c r="E152" s="47"/>
@@ -8745,10 +8745,10 @@
       <c r="H152" s="47"/>
       <c r="I152" s="47"/>
       <c r="J152" s="45" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K152" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L152" s="47"/>
       <c r="M152" s="47"/>
@@ -8780,10 +8780,10 @@
         <v>117</v>
       </c>
       <c r="B153" s="44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C153" s="45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="D153" s="47"/>
       <c r="E153" s="47"/>
@@ -8792,10 +8792,10 @@
       <c r="H153" s="47"/>
       <c r="I153" s="47"/>
       <c r="J153" s="45" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K153" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L153" s="47"/>
       <c r="M153" s="47"/>
@@ -8827,7 +8827,7 @@
         <v>117</v>
       </c>
       <c r="B154" s="44" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C154" s="45" t="s">
         <v>210</v>
@@ -8839,10 +8839,10 @@
       <c r="H154" s="47"/>
       <c r="I154" s="47"/>
       <c r="J154" s="45" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K154" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L154" s="47"/>
       <c r="M154" s="47"/>
@@ -8874,7 +8874,7 @@
         <v>117</v>
       </c>
       <c r="B155" s="44" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C155" s="45" t="s">
         <v>211</v>
@@ -8886,10 +8886,10 @@
       <c r="H155" s="47"/>
       <c r="I155" s="47"/>
       <c r="J155" s="45" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K155" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L155" s="47"/>
       <c r="M155" s="47"/>
@@ -8921,7 +8921,7 @@
         <v>117</v>
       </c>
       <c r="B156" s="44" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C156" s="45" t="s">
         <v>212</v>
@@ -8933,10 +8933,10 @@
       <c r="H156" s="47"/>
       <c r="I156" s="47"/>
       <c r="J156" s="45" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K156" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L156" s="47"/>
       <c r="M156" s="47"/>
@@ -8968,7 +8968,7 @@
         <v>117</v>
       </c>
       <c r="B157" s="44" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C157" s="45" t="s">
         <v>213</v>
@@ -8980,10 +8980,10 @@
       <c r="H157" s="47"/>
       <c r="I157" s="47"/>
       <c r="J157" s="45" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K157" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L157" s="47"/>
       <c r="M157" s="47"/>
@@ -9015,7 +9015,7 @@
         <v>117</v>
       </c>
       <c r="B158" s="44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C158" s="45" t="s">
         <v>214</v>
@@ -9027,10 +9027,10 @@
       <c r="H158" s="47"/>
       <c r="I158" s="47"/>
       <c r="J158" s="45" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K158" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L158" s="47"/>
       <c r="M158" s="47"/>
@@ -9062,7 +9062,7 @@
         <v>117</v>
       </c>
       <c r="B159" s="44" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C159" s="45" t="s">
         <v>215</v>
@@ -9074,10 +9074,10 @@
       <c r="H159" s="47"/>
       <c r="I159" s="47"/>
       <c r="J159" s="45" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K159" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L159" s="47"/>
       <c r="M159" s="47"/>
@@ -9109,10 +9109,10 @@
         <v>117</v>
       </c>
       <c r="B160" s="44" t="s">
+        <v>377</v>
+      </c>
+      <c r="C160" s="45" t="s">
         <v>378</v>
-      </c>
-      <c r="C160" s="45" t="s">
-        <v>379</v>
       </c>
       <c r="D160" s="47"/>
       <c r="E160" s="47"/>
@@ -9121,10 +9121,10 @@
       <c r="H160" s="47"/>
       <c r="I160" s="47"/>
       <c r="J160" s="47" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K160" s="45" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="L160" s="47"/>
       <c r="M160" s="47"/>
@@ -9156,10 +9156,10 @@
         <v>117</v>
       </c>
       <c r="B161" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="C161" s="45" t="s">
         <v>381</v>
-      </c>
-      <c r="C161" s="45" t="s">
-        <v>382</v>
       </c>
       <c r="D161" s="47"/>
       <c r="E161" s="47"/>
@@ -9168,7 +9168,7 @@
       <c r="H161" s="47"/>
       <c r="I161" s="47"/>
       <c r="J161" s="45" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K161" s="45"/>
       <c r="L161" s="47"/>
@@ -9201,10 +9201,10 @@
         <v>117</v>
       </c>
       <c r="B162" s="44" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C162" s="45" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D162" s="47"/>
       <c r="E162" s="47"/>
@@ -9213,10 +9213,10 @@
       <c r="H162" s="47"/>
       <c r="I162" s="47"/>
       <c r="J162" s="45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K162" s="45" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L162" s="47"/>
       <c r="M162" s="47"/>
@@ -9248,10 +9248,10 @@
         <v>117</v>
       </c>
       <c r="B163" s="44" t="s">
+        <v>384</v>
+      </c>
+      <c r="C163" s="45" t="s">
         <v>385</v>
-      </c>
-      <c r="C163" s="45" t="s">
-        <v>386</v>
       </c>
       <c r="D163" s="46"/>
       <c r="E163" s="46"/>
@@ -9260,10 +9260,10 @@
       <c r="H163" s="46"/>
       <c r="I163" s="47"/>
       <c r="J163" s="45" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K163" s="47" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="L163" s="47"/>
       <c r="M163" s="45"/>
@@ -9295,10 +9295,10 @@
         <v>117</v>
       </c>
       <c r="B164" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="C164" s="45" t="s">
         <v>387</v>
-      </c>
-      <c r="C164" s="45" t="s">
-        <v>388</v>
       </c>
       <c r="D164" s="46"/>
       <c r="E164" s="46"/>
@@ -9307,7 +9307,7 @@
       <c r="H164" s="46"/>
       <c r="I164" s="47"/>
       <c r="J164" s="47" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K164" s="47"/>
       <c r="L164" s="47"/>
@@ -9340,10 +9340,10 @@
         <v>117</v>
       </c>
       <c r="B165" s="44" t="s">
+        <v>388</v>
+      </c>
+      <c r="C165" s="45" t="s">
         <v>389</v>
-      </c>
-      <c r="C165" s="45" t="s">
-        <v>390</v>
       </c>
       <c r="D165" s="46"/>
       <c r="E165" s="46"/>
@@ -9352,7 +9352,7 @@
       <c r="H165" s="46"/>
       <c r="I165" s="47"/>
       <c r="J165" s="47" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K165" s="47"/>
       <c r="L165" s="47"/>
@@ -9385,10 +9385,10 @@
         <v>117</v>
       </c>
       <c r="B166" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="C166" s="45" t="s">
         <v>391</v>
-      </c>
-      <c r="C166" s="45" t="s">
-        <v>392</v>
       </c>
       <c r="D166" s="47"/>
       <c r="E166" s="47"/>
@@ -9397,10 +9397,10 @@
       <c r="H166" s="47"/>
       <c r="I166" s="47"/>
       <c r="J166" s="45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K166" s="45" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="L166" s="47"/>
       <c r="M166" s="47"/>
@@ -9432,10 +9432,10 @@
         <v>117</v>
       </c>
       <c r="B167" s="44" t="s">
+        <v>393</v>
+      </c>
+      <c r="C167" s="45" t="s">
         <v>394</v>
-      </c>
-      <c r="C167" s="45" t="s">
-        <v>395</v>
       </c>
       <c r="D167" s="47"/>
       <c r="E167" s="47"/>
@@ -9444,7 +9444,7 @@
       <c r="H167" s="47"/>
       <c r="I167" s="47"/>
       <c r="J167" s="45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K167" s="45"/>
       <c r="L167" s="47"/>
@@ -9477,10 +9477,10 @@
         <v>117</v>
       </c>
       <c r="B168" s="44" t="s">
+        <v>395</v>
+      </c>
+      <c r="C168" s="45" t="s">
         <v>396</v>
-      </c>
-      <c r="C168" s="45" t="s">
-        <v>397</v>
       </c>
       <c r="D168" s="47"/>
       <c r="E168" s="47"/>
@@ -9489,7 +9489,7 @@
       <c r="H168" s="47"/>
       <c r="I168" s="47"/>
       <c r="J168" s="45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K168" s="45"/>
       <c r="L168" s="47"/>
@@ -9522,10 +9522,10 @@
         <v>117</v>
       </c>
       <c r="B169" s="44" t="s">
+        <v>397</v>
+      </c>
+      <c r="C169" s="45" t="s">
         <v>398</v>
-      </c>
-      <c r="C169" s="45" t="s">
-        <v>399</v>
       </c>
       <c r="D169" s="47"/>
       <c r="E169" s="47"/>
@@ -9534,7 +9534,7 @@
       <c r="H169" s="47"/>
       <c r="I169" s="47"/>
       <c r="J169" s="45" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K169" s="45"/>
       <c r="L169" s="47"/>
@@ -9687,7 +9687,7 @@
       <c r="R173" s="50"/>
       <c r="S173" s="50"/>
       <c r="T173" s="50" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="U173" s="50"/>
       <c r="V173" s="50"/>
@@ -9781,7 +9781,7 @@
       <c r="R175" s="50"/>
       <c r="S175" s="50"/>
       <c r="T175" s="50" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="U175" s="50"/>
       <c r="V175" s="50"/>
@@ -9828,7 +9828,7 @@
       <c r="R176" s="50"/>
       <c r="S176" s="50"/>
       <c r="T176" s="50" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="U176" s="50"/>
       <c r="V176" s="50"/>
@@ -9875,7 +9875,7 @@
       <c r="R177" s="50"/>
       <c r="S177" s="50"/>
       <c r="T177" s="50" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="U177" s="50"/>
       <c r="V177" s="50"/>
@@ -9922,7 +9922,7 @@
       <c r="R178" s="50"/>
       <c r="S178" s="50"/>
       <c r="T178" s="50" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="U178" s="50"/>
       <c r="V178" s="50"/>
@@ -9969,7 +9969,7 @@
       <c r="R179" s="50"/>
       <c r="S179" s="50"/>
       <c r="T179" s="50" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="U179" s="50"/>
       <c r="V179" s="50"/>
@@ -10016,7 +10016,7 @@
       <c r="R180" s="50"/>
       <c r="S180" s="50"/>
       <c r="T180" s="50" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="U180" s="50"/>
       <c r="V180" s="50"/>
@@ -10063,7 +10063,7 @@
       <c r="R181" s="50"/>
       <c r="S181" s="50"/>
       <c r="T181" s="50" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="U181" s="50"/>
       <c r="V181" s="50"/>
@@ -10110,7 +10110,7 @@
       <c r="R182" s="50"/>
       <c r="S182" s="50"/>
       <c r="T182" s="50" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="U182" s="50"/>
       <c r="V182" s="50"/>
@@ -10157,7 +10157,7 @@
       <c r="R183" s="50"/>
       <c r="S183" s="50"/>
       <c r="T183" s="50" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="U183" s="50"/>
       <c r="V183" s="50"/>
@@ -10558,7 +10558,7 @@
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14:A17"/>
     </sheetView>
   </sheetViews>
@@ -10639,13 +10639,13 @@
     </row>
     <row r="4" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>248</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>249</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -10663,13 +10663,13 @@
     </row>
     <row r="5" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B5" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>250</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>251</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -10687,13 +10687,13 @@
     </row>
     <row r="6" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>252</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>253</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -10711,13 +10711,13 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>255</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>256</v>
       </c>
       <c r="D7" s="18"/>
       <c r="E7" s="18"/>
@@ -10735,13 +10735,13 @@
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>257</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>258</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -10759,7 +10759,7 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" s="18" t="s">
         <v>111</v>
@@ -10783,13 +10783,13 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -10807,13 +10807,13 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -10831,13 +10831,13 @@
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -10855,13 +10855,13 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B13" s="18" t="s">
         <v>177</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -10879,7 +10879,7 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>180</v>
@@ -10903,7 +10903,7 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>182</v>
@@ -10927,13 +10927,13 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -10951,13 +10951,13 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -10975,13 +10975,13 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="B18" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="19" t="s">
         <v>244</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>245</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="19"/>
@@ -10999,13 +10999,13 @@
     </row>
     <row r="19" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B19" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C19" s="19" t="s">
         <v>246</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>247</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -11023,7 +11023,7 @@
     </row>
     <row r="20" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B20" s="18" t="s">
         <v>111</v>
@@ -11047,13 +11047,13 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="C21" s="19" t="s">
         <v>269</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>270</v>
       </c>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -11071,13 +11071,13 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>271</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="C22" s="19" t="s">
         <v>272</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>273</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -11095,13 +11095,13 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B23" s="18" t="s">
         <v>259</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="C23" s="18" t="s">
         <v>260</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>261</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -11119,13 +11119,13 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B24" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C24" s="19" t="s">
         <v>262</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>263</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -11143,13 +11143,13 @@
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B25" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C25" s="19" t="s">
         <v>264</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>265</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -11167,13 +11167,13 @@
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B26" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="C26" s="19" t="s">
         <v>266</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>267</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -11191,7 +11191,7 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B27" s="18" t="s">
         <v>177</v>
@@ -11312,14 +11312,14 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>467</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>468</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44122.854021296298</v>
+        <v>44123.366700347222</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/hbc_followup.xlsx
+++ b/forms/app/hbc_followup.xlsx
@@ -2276,13 +2276,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ191"/>
+  <dimension ref="A1:AJ188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="A188" sqref="A188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5939,152 +5939,184 @@
       <c r="AI86" s="35"/>
     </row>
     <row r="87" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="37"/>
-      <c r="B87" s="37"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="35"/>
-      <c r="N87" s="35"/>
-      <c r="O87" s="35"/>
-      <c r="P87" s="35"/>
-      <c r="Q87" s="35"/>
-      <c r="R87" s="35"/>
-      <c r="S87" s="35"/>
-      <c r="T87" s="35"/>
-      <c r="U87" s="35"/>
-      <c r="V87" s="35"/>
-      <c r="W87" s="35"/>
-      <c r="X87" s="35"/>
-      <c r="Y87" s="35"/>
-      <c r="Z87" s="35"/>
-      <c r="AA87" s="35"/>
-      <c r="AB87" s="35"/>
-      <c r="AC87" s="35"/>
-      <c r="AD87" s="35"/>
-      <c r="AE87" s="35"/>
-      <c r="AF87" s="35"/>
-      <c r="AG87" s="35"/>
-      <c r="AH87" s="35"/>
-      <c r="AI87" s="35"/>
+      <c r="A87" s="31"/>
+      <c r="B87" s="31"/>
+      <c r="C87" s="31"/>
+      <c r="E87" s="31"/>
+      <c r="F87" s="31"/>
+      <c r="AE87" s="31"/>
+      <c r="AF87" s="31"/>
+      <c r="AG87" s="31"/>
+      <c r="AH87" s="31"/>
+      <c r="AI87" s="31"/>
     </row>
     <row r="88" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="37"/>
-      <c r="B88" s="37"/>
-      <c r="C88" s="35"/>
+      <c r="A88" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C88" s="34" t="s">
+        <v>333</v>
+      </c>
       <c r="D88" s="35"/>
       <c r="E88" s="35"/>
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="35"/>
-      <c r="N88" s="35"/>
-      <c r="O88" s="35"/>
-      <c r="P88" s="35"/>
-      <c r="Q88" s="35"/>
-      <c r="R88" s="35"/>
-      <c r="S88" s="35"/>
-      <c r="T88" s="35"/>
-      <c r="U88" s="35"/>
-      <c r="V88" s="35"/>
-      <c r="W88" s="35"/>
-      <c r="X88" s="35"/>
-      <c r="Y88" s="35"/>
-      <c r="Z88" s="35"/>
-      <c r="AA88" s="35"/>
-      <c r="AB88" s="35"/>
-      <c r="AC88" s="35"/>
-      <c r="AD88" s="35"/>
-      <c r="AE88" s="35"/>
-      <c r="AF88" s="35"/>
-      <c r="AG88" s="35"/>
-      <c r="AH88" s="35"/>
-      <c r="AI88" s="35"/>
+      <c r="I88" s="36"/>
+      <c r="J88" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="K88" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L88" s="34"/>
+      <c r="M88" s="34"/>
+      <c r="N88" s="34"/>
+      <c r="O88" s="34"/>
+      <c r="P88" s="34"/>
+      <c r="Q88" s="34"/>
+      <c r="R88" s="34"/>
+      <c r="S88" s="34"/>
+      <c r="T88" s="34"/>
+      <c r="U88" s="36"/>
+      <c r="V88" s="34"/>
+      <c r="W88" s="36"/>
+      <c r="X88" s="36"/>
+      <c r="Y88" s="36"/>
+      <c r="Z88" s="36"/>
+      <c r="AA88" s="36"/>
+      <c r="AB88" s="36"/>
+      <c r="AC88" s="36"/>
+      <c r="AD88" s="36"/>
+      <c r="AE88" s="36"/>
+      <c r="AF88" s="36"/>
+      <c r="AG88" s="36"/>
+      <c r="AH88" s="36"/>
+      <c r="AI88" s="36"/>
     </row>
     <row r="89" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="37"/>
-      <c r="B89" s="37"/>
-      <c r="C89" s="35"/>
+      <c r="A89" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>324</v>
+      </c>
+      <c r="C89" s="34" t="s">
+        <v>287</v>
+      </c>
       <c r="D89" s="35"/>
       <c r="E89" s="35"/>
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
-      <c r="I89" s="35"/>
-      <c r="J89" s="35"/>
-      <c r="K89" s="35"/>
-      <c r="L89" s="35"/>
-      <c r="M89" s="35"/>
-      <c r="N89" s="35"/>
-      <c r="O89" s="35"/>
-      <c r="P89" s="35"/>
-      <c r="Q89" s="35"/>
-      <c r="R89" s="35"/>
-      <c r="S89" s="35"/>
-      <c r="T89" s="35"/>
-      <c r="U89" s="35"/>
-      <c r="V89" s="35"/>
-      <c r="W89" s="35"/>
-      <c r="X89" s="35"/>
-      <c r="Y89" s="35"/>
-      <c r="Z89" s="35"/>
-      <c r="AA89" s="35"/>
-      <c r="AB89" s="35"/>
-      <c r="AC89" s="35"/>
-      <c r="AD89" s="35"/>
-      <c r="AE89" s="35"/>
-      <c r="AF89" s="35"/>
-      <c r="AG89" s="35"/>
-      <c r="AH89" s="35"/>
-      <c r="AI89" s="35"/>
+      <c r="I89" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
+      <c r="L89" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="M89" s="34" t="s">
+        <v>289</v>
+      </c>
+      <c r="N89" s="34"/>
+      <c r="O89" s="34"/>
+      <c r="P89" s="34"/>
+      <c r="Q89" s="34"/>
+      <c r="R89" s="34"/>
+      <c r="S89" s="34"/>
+      <c r="T89" s="34"/>
+      <c r="U89" s="36"/>
+      <c r="V89" s="34"/>
+      <c r="W89" s="36"/>
+      <c r="X89" s="36"/>
+      <c r="Y89" s="36"/>
+      <c r="Z89" s="36"/>
+      <c r="AA89" s="36"/>
+      <c r="AB89" s="36"/>
+      <c r="AC89" s="36"/>
+      <c r="AD89" s="36"/>
+      <c r="AE89" s="36"/>
+      <c r="AF89" s="36"/>
+      <c r="AG89" s="36"/>
+      <c r="AH89" s="36"/>
+      <c r="AI89" s="36"/>
     </row>
     <row r="90" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="31"/>
-      <c r="B90" s="31"/>
-      <c r="C90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="AE90" s="31"/>
-      <c r="AF90" s="31"/>
-      <c r="AG90" s="31"/>
-      <c r="AH90" s="31"/>
-      <c r="AI90" s="31"/>
+      <c r="A90" s="33" t="s">
+        <v>290</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>325</v>
+      </c>
+      <c r="C90" s="34" t="s">
+        <v>291</v>
+      </c>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
+      <c r="L90" s="36"/>
+      <c r="M90" s="34"/>
+      <c r="N90" s="34"/>
+      <c r="O90" s="34"/>
+      <c r="P90" s="34"/>
+      <c r="Q90" s="34"/>
+      <c r="R90" s="34"/>
+      <c r="S90" s="34"/>
+      <c r="T90" s="34"/>
+      <c r="U90" s="36"/>
+      <c r="V90" s="34"/>
+      <c r="W90" s="36"/>
+      <c r="X90" s="36"/>
+      <c r="Y90" s="36"/>
+      <c r="Z90" s="36"/>
+      <c r="AA90" s="36"/>
+      <c r="AB90" s="36"/>
+      <c r="AC90" s="36"/>
+      <c r="AD90" s="36"/>
+      <c r="AE90" s="36"/>
+      <c r="AF90" s="36"/>
+      <c r="AG90" s="36"/>
+      <c r="AH90" s="36"/>
+      <c r="AI90" s="36"/>
     </row>
     <row r="91" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="33" t="s">
-        <v>42</v>
+        <v>292</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="C91" s="34" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="35"/>
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="K91" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L91" s="34"/>
-      <c r="M91" s="34"/>
+      <c r="I91" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
+      <c r="L91" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="M91" s="34" t="s">
+        <v>295</v>
+      </c>
       <c r="N91" s="34"/>
       <c r="O91" s="34"/>
       <c r="P91" s="34"/>
@@ -6110,30 +6142,26 @@
     </row>
     <row r="92" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
-        <v>286</v>
+        <v>117</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>324</v>
+        <v>296</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="D92" s="35"/>
       <c r="E92" s="35"/>
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
-      <c r="I92" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="J92" s="36"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36" t="s">
+        <v>328</v>
+      </c>
       <c r="K92" s="36"/>
-      <c r="L92" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="M92" s="34" t="s">
-        <v>289</v>
-      </c>
+      <c r="L92" s="36"/>
+      <c r="M92" s="34"/>
       <c r="N92" s="34"/>
       <c r="O92" s="34"/>
       <c r="P92" s="34"/>
@@ -6159,23 +6187,23 @@
     </row>
     <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
-        <v>290</v>
+        <v>117</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="D93" s="35"/>
       <c r="E93" s="35"/>
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
-      <c r="I93" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="J93" s="36"/>
+      <c r="I93" s="36"/>
+      <c r="J93" s="36" t="s">
+        <v>447</v>
+      </c>
       <c r="K93" s="36"/>
       <c r="L93" s="36"/>
       <c r="M93" s="34"/>
@@ -6196,47 +6224,43 @@
       <c r="AB93" s="36"/>
       <c r="AC93" s="36"/>
       <c r="AD93" s="36"/>
-      <c r="AE93" s="36"/>
+      <c r="AE93" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AF93" s="36"/>
       <c r="AG93" s="36"/>
       <c r="AH93" s="36"/>
       <c r="AI93" s="36"/>
     </row>
     <row r="94" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="B94" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="C94" s="34" t="s">
-        <v>293</v>
-      </c>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
-      <c r="I94" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J94" s="36"/>
+      <c r="A94" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B94" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="C94" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D94" s="36"/>
+      <c r="E94" s="39"/>
+      <c r="F94" s="39"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="36"/>
+      <c r="J94" s="39"/>
       <c r="K94" s="36"/>
-      <c r="L94" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="M94" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="N94" s="34"/>
-      <c r="O94" s="34"/>
-      <c r="P94" s="34"/>
-      <c r="Q94" s="34"/>
-      <c r="R94" s="34"/>
-      <c r="S94" s="34"/>
-      <c r="T94" s="34"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="39"/>
+      <c r="P94" s="36"/>
+      <c r="Q94" s="36"/>
+      <c r="R94" s="36"/>
+      <c r="S94" s="36"/>
+      <c r="T94" s="36"/>
       <c r="U94" s="36"/>
-      <c r="V94" s="34"/>
+      <c r="V94" s="36"/>
       <c r="W94" s="36"/>
       <c r="X94" s="36"/>
       <c r="Y94" s="36"/>
@@ -6245,88 +6269,92 @@
       <c r="AB94" s="36"/>
       <c r="AC94" s="36"/>
       <c r="AD94" s="36"/>
-      <c r="AE94" s="36"/>
+      <c r="AE94" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AF94" s="36"/>
       <c r="AG94" s="36"/>
-      <c r="AH94" s="36"/>
+      <c r="AH94" s="40" t="s">
+        <v>301</v>
+      </c>
       <c r="AI94" s="36"/>
     </row>
     <row r="95" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B95" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="C95" s="34" t="s">
-        <v>297</v>
-      </c>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
-      <c r="I95" s="36"/>
-      <c r="J95" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="K95" s="36"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="34"/>
-      <c r="N95" s="34"/>
-      <c r="O95" s="34"/>
-      <c r="P95" s="34"/>
-      <c r="Q95" s="34"/>
-      <c r="R95" s="34"/>
-      <c r="S95" s="34"/>
-      <c r="T95" s="34"/>
-      <c r="U95" s="36"/>
-      <c r="V95" s="34"/>
-      <c r="W95" s="36"/>
-      <c r="X95" s="36"/>
-      <c r="Y95" s="36"/>
-      <c r="Z95" s="36"/>
-      <c r="AA95" s="36"/>
-      <c r="AB95" s="36"/>
-      <c r="AC95" s="36"/>
-      <c r="AD95" s="36"/>
-      <c r="AE95" s="36"/>
-      <c r="AF95" s="36"/>
-      <c r="AG95" s="36"/>
-      <c r="AH95" s="36"/>
-      <c r="AI95" s="36"/>
+      <c r="A95" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B95" s="38" t="s">
+        <v>302</v>
+      </c>
+      <c r="C95" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D95" s="36"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="39"/>
+      <c r="J95" s="39"/>
+      <c r="K95" s="39"/>
+      <c r="L95" s="39"/>
+      <c r="M95" s="39"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="36"/>
+      <c r="Q95" s="36"/>
+      <c r="R95" s="36"/>
+      <c r="S95" s="36"/>
+      <c r="T95" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="U95" s="39"/>
+      <c r="V95" s="39"/>
+      <c r="W95" s="39"/>
+      <c r="X95" s="39"/>
+      <c r="Y95" s="39"/>
+      <c r="Z95" s="39"/>
+      <c r="AA95" s="39"/>
+      <c r="AB95" s="39"/>
+      <c r="AC95" s="39"/>
+      <c r="AD95" s="39"/>
+      <c r="AE95" s="39"/>
+      <c r="AF95" s="39"/>
+      <c r="AG95" s="39"/>
+      <c r="AH95" s="39"/>
+      <c r="AI95" s="39"/>
     </row>
     <row r="96" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B96" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="C96" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D96" s="35"/>
-      <c r="E96" s="35"/>
-      <c r="F96" s="35"/>
-      <c r="G96" s="35"/>
-      <c r="H96" s="35"/>
+      <c r="A96" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B96" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="39" t="s">
+        <v>304</v>
+      </c>
+      <c r="D96" s="36"/>
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
       <c r="I96" s="36"/>
-      <c r="J96" s="36" t="s">
-        <v>447</v>
-      </c>
+      <c r="J96" s="36"/>
       <c r="K96" s="36"/>
       <c r="L96" s="36"/>
-      <c r="M96" s="34"/>
-      <c r="N96" s="34"/>
-      <c r="O96" s="34"/>
-      <c r="P96" s="34"/>
-      <c r="Q96" s="34"/>
-      <c r="R96" s="34"/>
-      <c r="S96" s="34"/>
-      <c r="T96" s="34"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="36"/>
+      <c r="Q96" s="36"/>
+      <c r="R96" s="36"/>
+      <c r="S96" s="36"/>
+      <c r="T96" s="39" t="s">
+        <v>305</v>
+      </c>
       <c r="U96" s="36"/>
-      <c r="V96" s="34"/>
+      <c r="V96" s="36"/>
       <c r="W96" s="36"/>
       <c r="X96" s="36"/>
       <c r="Y96" s="36"/>
@@ -6335,9 +6363,7 @@
       <c r="AB96" s="36"/>
       <c r="AC96" s="36"/>
       <c r="AD96" s="36"/>
-      <c r="AE96" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE96" s="36"/>
       <c r="AF96" s="36"/>
       <c r="AG96" s="36"/>
       <c r="AH96" s="36"/>
@@ -6345,57 +6371,55 @@
     </row>
     <row r="97" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="38" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B97" s="38" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C97" s="39" t="s">
         <v>45</v>
       </c>
       <c r="D97" s="36"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
+      <c r="E97" s="36"/>
+      <c r="F97" s="36"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
       <c r="I97" s="36"/>
-      <c r="J97" s="39"/>
+      <c r="J97" s="36"/>
       <c r="K97" s="36"/>
       <c r="L97" s="36"/>
       <c r="M97" s="36"/>
       <c r="N97" s="36"/>
-      <c r="O97" s="39"/>
+      <c r="O97" s="36"/>
       <c r="P97" s="36"/>
       <c r="Q97" s="36"/>
       <c r="R97" s="36"/>
       <c r="S97" s="36"/>
-      <c r="T97" s="36"/>
-      <c r="U97" s="36"/>
-      <c r="V97" s="36"/>
-      <c r="W97" s="36"/>
-      <c r="X97" s="36"/>
-      <c r="Y97" s="36"/>
-      <c r="Z97" s="36"/>
-      <c r="AA97" s="36"/>
-      <c r="AB97" s="36"/>
-      <c r="AC97" s="36"/>
-      <c r="AD97" s="36"/>
-      <c r="AE97" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF97" s="36"/>
-      <c r="AG97" s="36"/>
-      <c r="AH97" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI97" s="36"/>
+      <c r="T97" s="39" t="s">
+        <v>307</v>
+      </c>
+      <c r="U97" s="39"/>
+      <c r="V97" s="39"/>
+      <c r="W97" s="39"/>
+      <c r="X97" s="39"/>
+      <c r="Y97" s="39"/>
+      <c r="Z97" s="39"/>
+      <c r="AA97" s="39"/>
+      <c r="AB97" s="39"/>
+      <c r="AC97" s="39"/>
+      <c r="AD97" s="39"/>
+      <c r="AE97" s="39"/>
+      <c r="AF97" s="39"/>
+      <c r="AG97" s="39"/>
+      <c r="AH97" s="39"/>
+      <c r="AI97" s="39"/>
     </row>
     <row r="98" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B98" s="38" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C98" s="39" t="s">
         <v>45</v>
@@ -6410,14 +6434,14 @@
       <c r="K98" s="39"/>
       <c r="L98" s="39"/>
       <c r="M98" s="39"/>
-      <c r="N98" s="36"/>
-      <c r="O98" s="36"/>
-      <c r="P98" s="36"/>
-      <c r="Q98" s="36"/>
-      <c r="R98" s="36"/>
-      <c r="S98" s="36"/>
+      <c r="N98" s="39"/>
+      <c r="O98" s="39"/>
+      <c r="P98" s="39"/>
+      <c r="Q98" s="39"/>
+      <c r="R98" s="39"/>
+      <c r="S98" s="39"/>
       <c r="T98" s="39" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="U98" s="39"/>
       <c r="V98" s="39"/>
@@ -6437,13 +6461,13 @@
     </row>
     <row r="99" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="38" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B99" s="38" t="s">
-        <v>3</v>
+        <v>310</v>
       </c>
       <c r="C99" s="39" t="s">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="D99" s="36"/>
       <c r="E99" s="36"/>
@@ -6461,9 +6485,7 @@
       <c r="Q99" s="36"/>
       <c r="R99" s="36"/>
       <c r="S99" s="36"/>
-      <c r="T99" s="39" t="s">
-        <v>305</v>
-      </c>
+      <c r="T99" s="36"/>
       <c r="U99" s="36"/>
       <c r="V99" s="36"/>
       <c r="W99" s="36"/>
@@ -6485,29 +6507,29 @@
         <v>78</v>
       </c>
       <c r="B100" s="38" t="s">
-        <v>306</v>
+        <v>66</v>
       </c>
       <c r="C100" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D100" s="36"/>
-      <c r="E100" s="36"/>
-      <c r="F100" s="36"/>
-      <c r="G100" s="36"/>
-      <c r="H100" s="36"/>
-      <c r="I100" s="36"/>
-      <c r="J100" s="36"/>
-      <c r="K100" s="36"/>
-      <c r="L100" s="36"/>
-      <c r="M100" s="36"/>
-      <c r="N100" s="36"/>
-      <c r="O100" s="36"/>
-      <c r="P100" s="36"/>
-      <c r="Q100" s="36"/>
-      <c r="R100" s="36"/>
-      <c r="S100" s="36"/>
+      <c r="D100" s="39"/>
+      <c r="E100" s="39"/>
+      <c r="F100" s="39"/>
+      <c r="G100" s="39"/>
+      <c r="H100" s="39"/>
+      <c r="I100" s="39"/>
+      <c r="J100" s="39"/>
+      <c r="K100" s="39"/>
+      <c r="L100" s="39"/>
+      <c r="M100" s="39"/>
+      <c r="N100" s="39"/>
+      <c r="O100" s="39"/>
+      <c r="P100" s="39"/>
+      <c r="Q100" s="39"/>
+      <c r="R100" s="39"/>
+      <c r="S100" s="39"/>
       <c r="T100" s="39" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="U100" s="39"/>
       <c r="V100" s="39"/>
@@ -6530,16 +6552,16 @@
         <v>78</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>308</v>
+        <v>84</v>
       </c>
       <c r="C101" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D101" s="36"/>
-      <c r="E101" s="36"/>
-      <c r="F101" s="36"/>
-      <c r="G101" s="36"/>
-      <c r="H101" s="36"/>
+      <c r="D101" s="39"/>
+      <c r="E101" s="39"/>
+      <c r="F101" s="39"/>
+      <c r="G101" s="39"/>
+      <c r="H101" s="39"/>
       <c r="I101" s="39"/>
       <c r="J101" s="39"/>
       <c r="K101" s="39"/>
@@ -6552,7 +6574,7 @@
       <c r="R101" s="39"/>
       <c r="S101" s="39"/>
       <c r="T101" s="39" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="U101" s="39"/>
       <c r="V101" s="39"/>
@@ -6575,7 +6597,7 @@
         <v>42</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C102" s="39" t="s">
         <v>45</v>
@@ -6618,97 +6640,97 @@
         <v>78</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>66</v>
+        <v>314</v>
       </c>
       <c r="C103" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="39"/>
-      <c r="J103" s="39"/>
-      <c r="K103" s="39"/>
-      <c r="L103" s="39"/>
-      <c r="M103" s="39"/>
-      <c r="N103" s="39"/>
-      <c r="O103" s="39"/>
-      <c r="P103" s="39"/>
-      <c r="Q103" s="39"/>
-      <c r="R103" s="39"/>
-      <c r="S103" s="39"/>
+      <c r="D103" s="36"/>
+      <c r="E103" s="36"/>
+      <c r="F103" s="36"/>
+      <c r="G103" s="36"/>
+      <c r="H103" s="36"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="36"/>
+      <c r="S103" s="36"/>
       <c r="T103" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="U103" s="39"/>
-      <c r="V103" s="39"/>
-      <c r="W103" s="39"/>
-      <c r="X103" s="39"/>
-      <c r="Y103" s="39"/>
-      <c r="Z103" s="39"/>
-      <c r="AA103" s="39"/>
-      <c r="AB103" s="39"/>
-      <c r="AC103" s="39"/>
-      <c r="AD103" s="39"/>
-      <c r="AE103" s="39"/>
-      <c r="AF103" s="39"/>
-      <c r="AG103" s="39"/>
-      <c r="AH103" s="39"/>
-      <c r="AI103" s="39"/>
+        <v>329</v>
+      </c>
+      <c r="U103" s="36"/>
+      <c r="V103" s="36"/>
+      <c r="W103" s="36"/>
+      <c r="X103" s="36"/>
+      <c r="Y103" s="36"/>
+      <c r="Z103" s="36"/>
+      <c r="AA103" s="36"/>
+      <c r="AB103" s="36"/>
+      <c r="AC103" s="36"/>
+      <c r="AD103" s="36"/>
+      <c r="AE103" s="36"/>
+      <c r="AF103" s="36"/>
+      <c r="AG103" s="36"/>
+      <c r="AH103" s="36"/>
+      <c r="AI103" s="36"/>
     </row>
     <row r="104" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B104" s="38" t="s">
-        <v>84</v>
+        <v>315</v>
       </c>
       <c r="C104" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="39"/>
-      <c r="J104" s="39"/>
-      <c r="K104" s="39"/>
-      <c r="L104" s="39"/>
-      <c r="M104" s="39"/>
-      <c r="N104" s="39"/>
-      <c r="O104" s="39"/>
-      <c r="P104" s="39"/>
-      <c r="Q104" s="39"/>
-      <c r="R104" s="39"/>
-      <c r="S104" s="39"/>
+      <c r="D104" s="36"/>
+      <c r="E104" s="36"/>
+      <c r="F104" s="36"/>
+      <c r="G104" s="36"/>
+      <c r="H104" s="36"/>
+      <c r="I104" s="36"/>
+      <c r="J104" s="36"/>
+      <c r="K104" s="36"/>
+      <c r="L104" s="36"/>
+      <c r="M104" s="36"/>
+      <c r="N104" s="36"/>
+      <c r="O104" s="36"/>
+      <c r="P104" s="36"/>
+      <c r="Q104" s="36"/>
+      <c r="R104" s="36"/>
+      <c r="S104" s="36"/>
       <c r="T104" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="U104" s="39"/>
-      <c r="V104" s="39"/>
-      <c r="W104" s="39"/>
-      <c r="X104" s="39"/>
-      <c r="Y104" s="39"/>
-      <c r="Z104" s="39"/>
-      <c r="AA104" s="39"/>
-      <c r="AB104" s="39"/>
-      <c r="AC104" s="39"/>
-      <c r="AD104" s="39"/>
-      <c r="AE104" s="39"/>
-      <c r="AF104" s="39"/>
-      <c r="AG104" s="39"/>
-      <c r="AH104" s="39"/>
-      <c r="AI104" s="39"/>
+        <v>330</v>
+      </c>
+      <c r="U104" s="36"/>
+      <c r="V104" s="36"/>
+      <c r="W104" s="36"/>
+      <c r="X104" s="36"/>
+      <c r="Y104" s="36"/>
+      <c r="Z104" s="36"/>
+      <c r="AA104" s="36"/>
+      <c r="AB104" s="36"/>
+      <c r="AC104" s="36"/>
+      <c r="AD104" s="36"/>
+      <c r="AE104" s="36"/>
+      <c r="AF104" s="36"/>
+      <c r="AG104" s="36"/>
+      <c r="AH104" s="36"/>
+      <c r="AI104" s="36"/>
     </row>
     <row r="105" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="38" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="C105" s="39" t="s">
         <v>45</v>
@@ -6729,7 +6751,9 @@
       <c r="Q105" s="36"/>
       <c r="R105" s="36"/>
       <c r="S105" s="36"/>
-      <c r="T105" s="36"/>
+      <c r="T105" s="39" t="s">
+        <v>317</v>
+      </c>
       <c r="U105" s="36"/>
       <c r="V105" s="36"/>
       <c r="W105" s="36"/>
@@ -6751,7 +6775,7 @@
         <v>78</v>
       </c>
       <c r="B106" s="38" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>45</v>
@@ -6761,46 +6785,42 @@
       <c r="F106" s="36"/>
       <c r="G106" s="36"/>
       <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="36"/>
-      <c r="L106" s="36"/>
-      <c r="M106" s="36"/>
-      <c r="N106" s="36"/>
-      <c r="O106" s="36"/>
-      <c r="P106" s="36"/>
-      <c r="Q106" s="36"/>
-      <c r="R106" s="36"/>
-      <c r="S106" s="36"/>
+      <c r="I106" s="39"/>
+      <c r="J106" s="39"/>
+      <c r="K106" s="39"/>
+      <c r="L106" s="39"/>
+      <c r="M106" s="39"/>
+      <c r="N106" s="39"/>
+      <c r="O106" s="39"/>
+      <c r="P106" s="39"/>
+      <c r="Q106" s="39"/>
+      <c r="R106" s="39"/>
+      <c r="S106" s="39"/>
       <c r="T106" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="U106" s="36"/>
-      <c r="V106" s="36"/>
-      <c r="W106" s="36"/>
-      <c r="X106" s="36"/>
-      <c r="Y106" s="36"/>
-      <c r="Z106" s="36"/>
-      <c r="AA106" s="36"/>
-      <c r="AB106" s="36"/>
-      <c r="AC106" s="36"/>
-      <c r="AD106" s="36"/>
-      <c r="AE106" s="36"/>
-      <c r="AF106" s="36"/>
-      <c r="AG106" s="36"/>
-      <c r="AH106" s="36"/>
-      <c r="AI106" s="36"/>
+        <v>331</v>
+      </c>
+      <c r="U106" s="39"/>
+      <c r="V106" s="39"/>
+      <c r="W106" s="39"/>
+      <c r="X106" s="39"/>
+      <c r="Y106" s="39"/>
+      <c r="Z106" s="39"/>
+      <c r="AA106" s="39"/>
+      <c r="AB106" s="39"/>
+      <c r="AC106" s="39"/>
+      <c r="AD106" s="39"/>
+      <c r="AE106" s="39"/>
+      <c r="AF106" s="39"/>
+      <c r="AG106" s="39"/>
+      <c r="AH106" s="39"/>
+      <c r="AI106" s="39"/>
     </row>
     <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B107" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="C107" s="39" t="s">
-        <v>45</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B107" s="38"/>
+      <c r="C107" s="36"/>
       <c r="D107" s="36"/>
       <c r="E107" s="36"/>
       <c r="F107" s="36"/>
@@ -6817,9 +6837,7 @@
       <c r="Q107" s="36"/>
       <c r="R107" s="36"/>
       <c r="S107" s="36"/>
-      <c r="T107" s="39" t="s">
-        <v>330</v>
-      </c>
+      <c r="T107" s="36"/>
       <c r="U107" s="36"/>
       <c r="V107" s="36"/>
       <c r="W107" s="36"/>
@@ -6838,14 +6856,10 @@
     </row>
     <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B108" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="C108" s="39" t="s">
-        <v>45</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B108" s="38"/>
+      <c r="C108" s="36"/>
       <c r="D108" s="36"/>
       <c r="E108" s="36"/>
       <c r="F108" s="36"/>
@@ -6862,9 +6876,7 @@
       <c r="Q108" s="36"/>
       <c r="R108" s="36"/>
       <c r="S108" s="36"/>
-      <c r="T108" s="39" t="s">
-        <v>317</v>
-      </c>
+      <c r="T108" s="36"/>
       <c r="U108" s="36"/>
       <c r="V108" s="36"/>
       <c r="W108" s="36"/>
@@ -6882,13 +6894,13 @@
       <c r="AI108" s="36"/>
     </row>
     <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="38" t="s">
+      <c r="A109" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B109" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="C109" s="39" t="s">
+      <c r="B109" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="C109" s="36" t="s">
         <v>45</v>
       </c>
       <c r="D109" s="36"/>
@@ -6896,35 +6908,37 @@
       <c r="F109" s="36"/>
       <c r="G109" s="36"/>
       <c r="H109" s="36"/>
-      <c r="I109" s="39"/>
-      <c r="J109" s="39"/>
-      <c r="K109" s="39"/>
-      <c r="L109" s="39"/>
-      <c r="M109" s="39"/>
-      <c r="N109" s="39"/>
-      <c r="O109" s="39"/>
-      <c r="P109" s="39"/>
-      <c r="Q109" s="39"/>
-      <c r="R109" s="39"/>
-      <c r="S109" s="39"/>
-      <c r="T109" s="39" t="s">
-        <v>331</v>
-      </c>
-      <c r="U109" s="39"/>
-      <c r="V109" s="39"/>
-      <c r="W109" s="39"/>
-      <c r="X109" s="39"/>
-      <c r="Y109" s="39"/>
-      <c r="Z109" s="39"/>
-      <c r="AA109" s="39"/>
-      <c r="AB109" s="39"/>
-      <c r="AC109" s="39"/>
-      <c r="AD109" s="39"/>
-      <c r="AE109" s="39"/>
-      <c r="AF109" s="39"/>
-      <c r="AG109" s="39"/>
-      <c r="AH109" s="39"/>
-      <c r="AI109" s="39"/>
+      <c r="I109" s="36"/>
+      <c r="J109" s="36"/>
+      <c r="K109" s="36"/>
+      <c r="L109" s="36"/>
+      <c r="M109" s="36"/>
+      <c r="N109" s="36"/>
+      <c r="O109" s="36"/>
+      <c r="P109" s="36"/>
+      <c r="Q109" s="36"/>
+      <c r="R109" s="36"/>
+      <c r="S109" s="36"/>
+      <c r="T109" s="36" t="s">
+        <v>320</v>
+      </c>
+      <c r="U109" s="36"/>
+      <c r="V109" s="36"/>
+      <c r="W109" s="36"/>
+      <c r="X109" s="36"/>
+      <c r="Y109" s="36"/>
+      <c r="Z109" s="36"/>
+      <c r="AA109" s="36"/>
+      <c r="AB109" s="36"/>
+      <c r="AC109" s="36"/>
+      <c r="AD109" s="36"/>
+      <c r="AE109" s="36"/>
+      <c r="AF109" s="36"/>
+      <c r="AG109" s="36"/>
+      <c r="AH109" s="36"/>
+      <c r="AI109" s="36" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="110" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="38" t="s">
@@ -6966,11 +6980,15 @@
       <c r="AI110" s="36"/>
     </row>
     <row r="111" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B111" s="38"/>
-      <c r="C111" s="36"/>
+      <c r="A111" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="C111" s="36" t="s">
+        <v>45</v>
+      </c>
       <c r="D111" s="36"/>
       <c r="E111" s="36"/>
       <c r="F111" s="36"/>
@@ -6987,7 +7005,9 @@
       <c r="Q111" s="36"/>
       <c r="R111" s="36"/>
       <c r="S111" s="36"/>
-      <c r="T111" s="36"/>
+      <c r="T111" s="36" t="s">
+        <v>322</v>
+      </c>
       <c r="U111" s="36"/>
       <c r="V111" s="36"/>
       <c r="W111" s="36"/>
@@ -7002,39 +7022,35 @@
       <c r="AF111" s="36"/>
       <c r="AG111" s="36"/>
       <c r="AH111" s="36"/>
-      <c r="AI111" s="36"/>
+      <c r="AI111" s="36" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="112" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B112" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="C112" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D112" s="36"/>
-      <c r="E112" s="36"/>
-      <c r="F112" s="36"/>
-      <c r="G112" s="36"/>
-      <c r="H112" s="36"/>
+      <c r="A112" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B112" s="33"/>
+      <c r="C112" s="34"/>
+      <c r="D112" s="35"/>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
       <c r="I112" s="36"/>
       <c r="J112" s="36"/>
       <c r="K112" s="36"/>
       <c r="L112" s="36"/>
-      <c r="M112" s="36"/>
-      <c r="N112" s="36"/>
-      <c r="O112" s="36"/>
-      <c r="P112" s="36"/>
-      <c r="Q112" s="36"/>
-      <c r="R112" s="36"/>
-      <c r="S112" s="36"/>
-      <c r="T112" s="36" t="s">
-        <v>320</v>
-      </c>
+      <c r="M112" s="34"/>
+      <c r="N112" s="34"/>
+      <c r="O112" s="34"/>
+      <c r="P112" s="34"/>
+      <c r="Q112" s="34"/>
+      <c r="R112" s="34"/>
+      <c r="S112" s="34"/>
+      <c r="T112" s="34"/>
       <c r="U112" s="36"/>
-      <c r="V112" s="36"/>
+      <c r="V112" s="34"/>
       <c r="W112" s="36"/>
       <c r="X112" s="36"/>
       <c r="Y112" s="36"/>
@@ -7047,80 +7063,53 @@
       <c r="AF112" s="36"/>
       <c r="AG112" s="36"/>
       <c r="AH112" s="36"/>
-      <c r="AI112" s="36" t="s">
-        <v>321</v>
-      </c>
+      <c r="AI112" s="36"/>
     </row>
     <row r="113" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B113" s="38"/>
-      <c r="C113" s="36"/>
-      <c r="D113" s="36"/>
-      <c r="E113" s="36"/>
-      <c r="F113" s="36"/>
-      <c r="G113" s="36"/>
-      <c r="H113" s="36"/>
-      <c r="I113" s="36"/>
-      <c r="J113" s="36"/>
-      <c r="K113" s="36"/>
-      <c r="L113" s="36"/>
-      <c r="M113" s="36"/>
-      <c r="N113" s="36"/>
-      <c r="O113" s="36"/>
-      <c r="P113" s="36"/>
-      <c r="Q113" s="36"/>
-      <c r="R113" s="36"/>
-      <c r="S113" s="36"/>
-      <c r="T113" s="36"/>
-      <c r="U113" s="36"/>
-      <c r="V113" s="36"/>
-      <c r="W113" s="36"/>
-      <c r="X113" s="36"/>
-      <c r="Y113" s="36"/>
-      <c r="Z113" s="36"/>
-      <c r="AA113" s="36"/>
-      <c r="AB113" s="36"/>
-      <c r="AC113" s="36"/>
-      <c r="AD113" s="36"/>
-      <c r="AE113" s="36"/>
-      <c r="AF113" s="36"/>
-      <c r="AG113" s="36"/>
-      <c r="AH113" s="36"/>
-      <c r="AI113" s="36"/>
+      <c r="A113" s="31"/>
+      <c r="B113" s="31"/>
+      <c r="C113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
+      <c r="AE113" s="31"/>
+      <c r="AF113" s="31"/>
+      <c r="AG113" s="31"/>
+      <c r="AH113" s="31"/>
+      <c r="AI113" s="31"/>
     </row>
     <row r="114" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B114" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="C114" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D114" s="36"/>
-      <c r="E114" s="36"/>
-      <c r="F114" s="36"/>
-      <c r="G114" s="36"/>
-      <c r="H114" s="36"/>
+      <c r="A114" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C114" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="D114" s="35"/>
+      <c r="E114" s="35"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="35"/>
       <c r="I114" s="36"/>
-      <c r="J114" s="36"/>
-      <c r="K114" s="36"/>
+      <c r="J114" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="K114" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="L114" s="36"/>
-      <c r="M114" s="36"/>
-      <c r="N114" s="36"/>
-      <c r="O114" s="36"/>
-      <c r="P114" s="36"/>
-      <c r="Q114" s="36"/>
-      <c r="R114" s="36"/>
-      <c r="S114" s="36"/>
-      <c r="T114" s="36" t="s">
-        <v>322</v>
-      </c>
+      <c r="M114" s="34"/>
+      <c r="N114" s="34"/>
+      <c r="O114" s="34"/>
+      <c r="P114" s="34"/>
+      <c r="Q114" s="34"/>
+      <c r="R114" s="34"/>
+      <c r="S114" s="34"/>
+      <c r="T114" s="34"/>
       <c r="U114" s="36"/>
-      <c r="V114" s="36"/>
+      <c r="V114" s="34"/>
       <c r="W114" s="36"/>
       <c r="X114" s="36"/>
       <c r="Y114" s="36"/>
@@ -7133,26 +7122,34 @@
       <c r="AF114" s="36"/>
       <c r="AG114" s="36"/>
       <c r="AH114" s="36"/>
-      <c r="AI114" s="36" t="s">
-        <v>322</v>
-      </c>
+      <c r="AI114" s="36"/>
     </row>
     <row r="115" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B115" s="33"/>
-      <c r="C115" s="34"/>
+        <v>286</v>
+      </c>
+      <c r="B115" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="C115" s="34" t="s">
+        <v>341</v>
+      </c>
       <c r="D115" s="35"/>
       <c r="E115" s="35"/>
       <c r="F115" s="35"/>
       <c r="G115" s="35"/>
       <c r="H115" s="35"/>
-      <c r="I115" s="36"/>
-      <c r="J115" s="36"/>
-      <c r="K115" s="36"/>
-      <c r="L115" s="36"/>
-      <c r="M115" s="34"/>
+      <c r="I115" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J115" s="34"/>
+      <c r="K115" s="34"/>
+      <c r="L115" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="M115" s="34" t="s">
+        <v>289</v>
+      </c>
       <c r="N115" s="34"/>
       <c r="O115" s="34"/>
       <c r="P115" s="34"/>
@@ -7160,58 +7157,95 @@
       <c r="R115" s="34"/>
       <c r="S115" s="34"/>
       <c r="T115" s="34"/>
-      <c r="U115" s="36"/>
+      <c r="U115" s="34"/>
       <c r="V115" s="34"/>
-      <c r="W115" s="36"/>
-      <c r="X115" s="36"/>
-      <c r="Y115" s="36"/>
-      <c r="Z115" s="36"/>
-      <c r="AA115" s="36"/>
-      <c r="AB115" s="36"/>
-      <c r="AC115" s="36"/>
-      <c r="AD115" s="36"/>
-      <c r="AE115" s="36"/>
-      <c r="AF115" s="36"/>
-      <c r="AG115" s="36"/>
-      <c r="AH115" s="36"/>
-      <c r="AI115" s="36"/>
+      <c r="W115" s="34"/>
+      <c r="X115" s="34"/>
+      <c r="Y115" s="34"/>
+      <c r="Z115" s="34"/>
+      <c r="AA115" s="34"/>
+      <c r="AB115" s="34"/>
+      <c r="AC115" s="34"/>
+      <c r="AD115" s="34"/>
+      <c r="AE115" s="34"/>
+      <c r="AF115" s="34"/>
+      <c r="AG115" s="34"/>
+      <c r="AH115" s="34"/>
+      <c r="AI115" s="34"/>
     </row>
     <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="31"/>
-      <c r="B116" s="31"/>
-      <c r="C116" s="31"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
-      <c r="AE116" s="31"/>
-      <c r="AF116" s="31"/>
-      <c r="AG116" s="31"/>
-      <c r="AH116" s="31"/>
-      <c r="AI116" s="31"/>
+      <c r="A116" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="B116" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C116" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="D116" s="35"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="35"/>
+      <c r="I116" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J116" s="34"/>
+      <c r="K116" s="34"/>
+      <c r="L116" s="34"/>
+      <c r="M116" s="34"/>
+      <c r="N116" s="34"/>
+      <c r="O116" s="34"/>
+      <c r="P116" s="34"/>
+      <c r="Q116" s="34"/>
+      <c r="R116" s="34"/>
+      <c r="S116" s="34"/>
+      <c r="T116" s="34"/>
+      <c r="U116" s="34"/>
+      <c r="V116" s="34"/>
+      <c r="W116" s="34"/>
+      <c r="X116" s="34"/>
+      <c r="Y116" s="34"/>
+      <c r="Z116" s="34"/>
+      <c r="AA116" s="34"/>
+      <c r="AB116" s="34"/>
+      <c r="AC116" s="34"/>
+      <c r="AD116" s="34"/>
+      <c r="AE116" s="34"/>
+      <c r="AF116" s="34"/>
+      <c r="AG116" s="34"/>
+      <c r="AH116" s="34"/>
+      <c r="AI116" s="34"/>
     </row>
     <row r="117" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
-        <v>42</v>
+        <v>292</v>
       </c>
       <c r="B117" s="33" t="s">
-        <v>240</v>
+        <v>345</v>
       </c>
       <c r="C117" s="34" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D117" s="35"/>
       <c r="E117" s="35"/>
       <c r="F117" s="35"/>
       <c r="G117" s="35"/>
       <c r="H117" s="35"/>
-      <c r="I117" s="36"/>
-      <c r="J117" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="K117" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L117" s="36"/>
-      <c r="M117" s="34"/>
+      <c r="I117" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J117" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="K117" s="34"/>
+      <c r="L117" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="M117" s="34" t="s">
+        <v>337</v>
+      </c>
       <c r="N117" s="34"/>
       <c r="O117" s="34"/>
       <c r="P117" s="34"/>
@@ -7219,48 +7253,38 @@
       <c r="R117" s="34"/>
       <c r="S117" s="34"/>
       <c r="T117" s="34"/>
-      <c r="U117" s="36"/>
+      <c r="U117" s="34"/>
       <c r="V117" s="34"/>
-      <c r="W117" s="36"/>
-      <c r="X117" s="36"/>
-      <c r="Y117" s="36"/>
-      <c r="Z117" s="36"/>
-      <c r="AA117" s="36"/>
-      <c r="AB117" s="36"/>
-      <c r="AC117" s="36"/>
-      <c r="AD117" s="36"/>
-      <c r="AE117" s="36"/>
-      <c r="AF117" s="36"/>
-      <c r="AG117" s="36"/>
-      <c r="AH117" s="36"/>
-      <c r="AI117" s="36"/>
+      <c r="W117" s="34"/>
+      <c r="X117" s="34"/>
+      <c r="Y117" s="34"/>
+      <c r="Z117" s="34"/>
+      <c r="AA117" s="34"/>
+      <c r="AB117" s="34"/>
+      <c r="AC117" s="34"/>
+      <c r="AD117" s="34"/>
+      <c r="AE117" s="34"/>
+      <c r="AF117" s="34"/>
+      <c r="AG117" s="34"/>
+      <c r="AH117" s="34"/>
+      <c r="AI117" s="34"/>
     </row>
     <row r="118" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="B118" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="C118" s="34" t="s">
-        <v>341</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B118" s="33"/>
+      <c r="C118" s="34"/>
       <c r="D118" s="35"/>
       <c r="E118" s="35"/>
       <c r="F118" s="35"/>
       <c r="G118" s="35"/>
       <c r="H118" s="35"/>
-      <c r="I118" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J118" s="34"/>
-      <c r="K118" s="34"/>
-      <c r="L118" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="M118" s="34" t="s">
-        <v>289</v>
-      </c>
+      <c r="I118" s="36"/>
+      <c r="J118" s="36"/>
+      <c r="K118" s="36"/>
+      <c r="L118" s="36"/>
+      <c r="M118" s="34"/>
       <c r="N118" s="34"/>
       <c r="O118" s="34"/>
       <c r="P118" s="34"/>
@@ -7268,95 +7292,58 @@
       <c r="R118" s="34"/>
       <c r="S118" s="34"/>
       <c r="T118" s="34"/>
-      <c r="U118" s="34"/>
+      <c r="U118" s="36"/>
       <c r="V118" s="34"/>
-      <c r="W118" s="34"/>
-      <c r="X118" s="34"/>
-      <c r="Y118" s="34"/>
-      <c r="Z118" s="34"/>
-      <c r="AA118" s="34"/>
-      <c r="AB118" s="34"/>
-      <c r="AC118" s="34"/>
-      <c r="AD118" s="34"/>
-      <c r="AE118" s="34"/>
-      <c r="AF118" s="34"/>
-      <c r="AG118" s="34"/>
-      <c r="AH118" s="34"/>
-      <c r="AI118" s="34"/>
+      <c r="W118" s="36"/>
+      <c r="X118" s="36"/>
+      <c r="Y118" s="36"/>
+      <c r="Z118" s="36"/>
+      <c r="AA118" s="36"/>
+      <c r="AB118" s="36"/>
+      <c r="AC118" s="36"/>
+      <c r="AD118" s="36"/>
+      <c r="AE118" s="36"/>
+      <c r="AF118" s="36"/>
+      <c r="AG118" s="36"/>
+      <c r="AH118" s="36"/>
+      <c r="AI118" s="36"/>
     </row>
     <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="B119" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="C119" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="D119" s="35"/>
-      <c r="E119" s="35"/>
-      <c r="F119" s="35"/>
-      <c r="G119" s="35"/>
-      <c r="H119" s="35"/>
-      <c r="I119" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J119" s="34"/>
-      <c r="K119" s="34"/>
-      <c r="L119" s="34"/>
-      <c r="M119" s="34"/>
-      <c r="N119" s="34"/>
-      <c r="O119" s="34"/>
-      <c r="P119" s="34"/>
-      <c r="Q119" s="34"/>
-      <c r="R119" s="34"/>
-      <c r="S119" s="34"/>
-      <c r="T119" s="34"/>
-      <c r="U119" s="34"/>
-      <c r="V119" s="34"/>
-      <c r="W119" s="34"/>
-      <c r="X119" s="34"/>
-      <c r="Y119" s="34"/>
-      <c r="Z119" s="34"/>
-      <c r="AA119" s="34"/>
-      <c r="AB119" s="34"/>
-      <c r="AC119" s="34"/>
-      <c r="AD119" s="34"/>
-      <c r="AE119" s="34"/>
-      <c r="AF119" s="34"/>
-      <c r="AG119" s="34"/>
-      <c r="AH119" s="34"/>
-      <c r="AI119" s="34"/>
+      <c r="A119" s="31"/>
+      <c r="B119" s="31"/>
+      <c r="C119" s="31"/>
+      <c r="E119" s="31"/>
+      <c r="F119" s="31"/>
+      <c r="AE119" s="31"/>
+      <c r="AF119" s="31"/>
+      <c r="AG119" s="31"/>
+      <c r="AH119" s="31"/>
+      <c r="AI119" s="31"/>
     </row>
     <row r="120" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
-        <v>292</v>
+        <v>42</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>345</v>
+        <v>410</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>335</v>
+        <v>399</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="35"/>
       <c r="F120" s="35"/>
       <c r="G120" s="35"/>
       <c r="H120" s="35"/>
-      <c r="I120" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J120" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="K120" s="34"/>
-      <c r="L120" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="M120" s="34" t="s">
-        <v>337</v>
-      </c>
+      <c r="I120" s="36"/>
+      <c r="J120" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="K120" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="L120" s="36"/>
+      <c r="M120" s="34"/>
       <c r="N120" s="34"/>
       <c r="O120" s="34"/>
       <c r="P120" s="34"/>
@@ -7364,28 +7351,34 @@
       <c r="R120" s="34"/>
       <c r="S120" s="34"/>
       <c r="T120" s="34"/>
-      <c r="U120" s="34"/>
+      <c r="U120" s="36"/>
       <c r="V120" s="34"/>
-      <c r="W120" s="34"/>
-      <c r="X120" s="34"/>
-      <c r="Y120" s="34"/>
-      <c r="Z120" s="34"/>
-      <c r="AA120" s="34"/>
-      <c r="AB120" s="34"/>
-      <c r="AC120" s="34"/>
-      <c r="AD120" s="34"/>
-      <c r="AE120" s="34"/>
-      <c r="AF120" s="34"/>
-      <c r="AG120" s="34"/>
-      <c r="AH120" s="34"/>
-      <c r="AI120" s="34"/>
+      <c r="W120" s="36"/>
+      <c r="X120" s="36"/>
+      <c r="Y120" s="36"/>
+      <c r="Z120" s="36"/>
+      <c r="AA120" s="36"/>
+      <c r="AB120" s="36"/>
+      <c r="AC120" s="36"/>
+      <c r="AD120" s="36"/>
+      <c r="AE120" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF120" s="36"/>
+      <c r="AG120" s="36"/>
+      <c r="AH120" s="36"/>
+      <c r="AI120" s="36"/>
     </row>
     <row r="121" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B121" s="33"/>
-      <c r="C121" s="34"/>
+        <v>117</v>
+      </c>
+      <c r="B121" s="33" t="s">
+        <v>400</v>
+      </c>
+      <c r="C121" s="34" t="s">
+        <v>405</v>
+      </c>
       <c r="D121" s="35"/>
       <c r="E121" s="35"/>
       <c r="F121" s="35"/>
@@ -7420,26 +7413,57 @@
       <c r="AI121" s="36"/>
     </row>
     <row r="122" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="31"/>
-      <c r="B122" s="31"/>
-      <c r="C122" s="31"/>
-      <c r="E122" s="31"/>
-      <c r="F122" s="31"/>
-      <c r="AE122" s="31"/>
-      <c r="AF122" s="31"/>
-      <c r="AG122" s="31"/>
-      <c r="AH122" s="31"/>
-      <c r="AI122" s="31"/>
+      <c r="A122" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B122" s="33" t="s">
+        <v>401</v>
+      </c>
+      <c r="C122" s="34" t="s">
+        <v>406</v>
+      </c>
+      <c r="D122" s="35"/>
+      <c r="E122" s="35"/>
+      <c r="F122" s="35"/>
+      <c r="G122" s="35"/>
+      <c r="H122" s="35"/>
+      <c r="I122" s="36"/>
+      <c r="J122" s="36"/>
+      <c r="K122" s="36"/>
+      <c r="L122" s="36"/>
+      <c r="M122" s="34"/>
+      <c r="N122" s="34"/>
+      <c r="O122" s="34"/>
+      <c r="P122" s="34"/>
+      <c r="Q122" s="34"/>
+      <c r="R122" s="34"/>
+      <c r="S122" s="34"/>
+      <c r="T122" s="34"/>
+      <c r="U122" s="36"/>
+      <c r="V122" s="34"/>
+      <c r="W122" s="36"/>
+      <c r="X122" s="36"/>
+      <c r="Y122" s="36"/>
+      <c r="Z122" s="36"/>
+      <c r="AA122" s="36"/>
+      <c r="AB122" s="36"/>
+      <c r="AC122" s="36"/>
+      <c r="AD122" s="36"/>
+      <c r="AE122" s="36"/>
+      <c r="AF122" s="36"/>
+      <c r="AG122" s="36"/>
+      <c r="AH122" s="36"/>
+      <c r="AI122" s="36"/>
     </row>
     <row r="123" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="33" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B123" s="33" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C123" s="34" t="s">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="D123" s="35"/>
       <c r="E123" s="35"/>
@@ -7447,12 +7471,8 @@
       <c r="G123" s="35"/>
       <c r="H123" s="35"/>
       <c r="I123" s="36"/>
-      <c r="J123" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="K123" s="36" t="s">
-        <v>347</v>
-      </c>
+      <c r="J123" s="36"/>
+      <c r="K123" s="36"/>
       <c r="L123" s="36"/>
       <c r="M123" s="34"/>
       <c r="N123" s="34"/>
@@ -7472,9 +7492,7 @@
       <c r="AB123" s="36"/>
       <c r="AC123" s="36"/>
       <c r="AD123" s="36"/>
-      <c r="AE123" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE123" s="36"/>
       <c r="AF123" s="36"/>
       <c r="AG123" s="36"/>
       <c r="AH123" s="36"/>
@@ -7485,10 +7503,10 @@
         <v>117</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D124" s="35"/>
       <c r="E124" s="35"/>
@@ -7528,10 +7546,10 @@
         <v>117</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D125" s="35"/>
       <c r="E125" s="35"/>
@@ -7568,30 +7586,26 @@
     </row>
     <row r="126" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B126" s="33" t="s">
-        <v>402</v>
-      </c>
-      <c r="C126" s="34" t="s">
-        <v>407</v>
-      </c>
-      <c r="D126" s="35"/>
-      <c r="E126" s="35"/>
-      <c r="F126" s="35"/>
-      <c r="G126" s="35"/>
-      <c r="H126" s="35"/>
+        <v>68</v>
+      </c>
+      <c r="B126" s="33"/>
+      <c r="C126" s="34"/>
+      <c r="D126" s="36"/>
+      <c r="E126" s="36"/>
+      <c r="F126" s="36"/>
+      <c r="G126" s="36"/>
+      <c r="H126" s="36"/>
       <c r="I126" s="36"/>
       <c r="J126" s="36"/>
       <c r="K126" s="36"/>
       <c r="L126" s="36"/>
       <c r="M126" s="34"/>
-      <c r="N126" s="34"/>
-      <c r="O126" s="34"/>
-      <c r="P126" s="34"/>
-      <c r="Q126" s="34"/>
-      <c r="R126" s="34"/>
-      <c r="S126" s="34"/>
+      <c r="N126" s="36"/>
+      <c r="O126" s="36"/>
+      <c r="P126" s="36"/>
+      <c r="Q126" s="36"/>
+      <c r="R126" s="36"/>
+      <c r="S126" s="36"/>
       <c r="T126" s="34"/>
       <c r="U126" s="36"/>
       <c r="V126" s="34"/>
@@ -7610,57 +7624,51 @@
       <c r="AI126" s="36"/>
     </row>
     <row r="127" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B127" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="C127" s="34" t="s">
-        <v>408</v>
-      </c>
-      <c r="D127" s="35"/>
-      <c r="E127" s="35"/>
-      <c r="F127" s="35"/>
-      <c r="G127" s="35"/>
-      <c r="H127" s="35"/>
-      <c r="I127" s="36"/>
-      <c r="J127" s="36"/>
-      <c r="K127" s="36"/>
-      <c r="L127" s="36"/>
-      <c r="M127" s="34"/>
-      <c r="N127" s="34"/>
-      <c r="O127" s="34"/>
-      <c r="P127" s="34"/>
-      <c r="Q127" s="34"/>
-      <c r="R127" s="34"/>
-      <c r="S127" s="34"/>
-      <c r="T127" s="34"/>
-      <c r="U127" s="36"/>
-      <c r="V127" s="34"/>
-      <c r="W127" s="36"/>
-      <c r="X127" s="36"/>
-      <c r="Y127" s="36"/>
-      <c r="Z127" s="36"/>
-      <c r="AA127" s="36"/>
-      <c r="AB127" s="36"/>
-      <c r="AC127" s="36"/>
-      <c r="AD127" s="36"/>
-      <c r="AE127" s="36"/>
-      <c r="AF127" s="36"/>
-      <c r="AG127" s="36"/>
-      <c r="AH127" s="36"/>
-      <c r="AI127" s="36"/>
+      <c r="A127" s="42"/>
+      <c r="B127" s="42"/>
+      <c r="C127" s="42"/>
+      <c r="D127" s="31"/>
+      <c r="E127" s="31"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="31"/>
+      <c r="I127" s="43"/>
+      <c r="J127" s="43"/>
+      <c r="K127" s="43"/>
+      <c r="L127" s="43"/>
+      <c r="M127" s="42"/>
+      <c r="N127" s="42"/>
+      <c r="O127" s="42"/>
+      <c r="P127" s="42"/>
+      <c r="Q127" s="42"/>
+      <c r="R127" s="42"/>
+      <c r="S127" s="42"/>
+      <c r="T127" s="42"/>
+      <c r="U127" s="43"/>
+      <c r="V127" s="42"/>
+      <c r="W127" s="43"/>
+      <c r="X127" s="43"/>
+      <c r="Y127" s="43"/>
+      <c r="Z127" s="43"/>
+      <c r="AA127" s="43"/>
+      <c r="AB127" s="43"/>
+      <c r="AC127" s="43"/>
+      <c r="AD127" s="43"/>
+      <c r="AE127" s="43"/>
+      <c r="AF127" s="43"/>
+      <c r="AG127" s="43"/>
+      <c r="AH127" s="43"/>
+      <c r="AI127" s="43"/>
     </row>
     <row r="128" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="33" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C128" s="34" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D128" s="35"/>
       <c r="E128" s="35"/>
@@ -7668,8 +7676,12 @@
       <c r="G128" s="35"/>
       <c r="H128" s="35"/>
       <c r="I128" s="36"/>
-      <c r="J128" s="36"/>
-      <c r="K128" s="36"/>
+      <c r="J128" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="K128" s="36" t="s">
+        <v>47</v>
+      </c>
       <c r="L128" s="36"/>
       <c r="M128" s="34"/>
       <c r="N128" s="34"/>
@@ -7697,26 +7709,30 @@
     </row>
     <row r="129" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B129" s="33"/>
-      <c r="C129" s="34"/>
-      <c r="D129" s="36"/>
-      <c r="E129" s="36"/>
-      <c r="F129" s="36"/>
-      <c r="G129" s="36"/>
-      <c r="H129" s="36"/>
+        <v>117</v>
+      </c>
+      <c r="B129" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="C129" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="D129" s="35"/>
+      <c r="E129" s="35"/>
+      <c r="F129" s="35"/>
+      <c r="G129" s="35"/>
+      <c r="H129" s="35"/>
       <c r="I129" s="36"/>
       <c r="J129" s="36"/>
       <c r="K129" s="36"/>
       <c r="L129" s="36"/>
       <c r="M129" s="34"/>
-      <c r="N129" s="36"/>
-      <c r="O129" s="36"/>
-      <c r="P129" s="36"/>
-      <c r="Q129" s="36"/>
-      <c r="R129" s="36"/>
-      <c r="S129" s="36"/>
+      <c r="N129" s="34"/>
+      <c r="O129" s="34"/>
+      <c r="P129" s="34"/>
+      <c r="Q129" s="34"/>
+      <c r="R129" s="34"/>
+      <c r="S129" s="34"/>
       <c r="T129" s="34"/>
       <c r="U129" s="36"/>
       <c r="V129" s="34"/>
@@ -7728,82 +7744,98 @@
       <c r="AB129" s="36"/>
       <c r="AC129" s="36"/>
       <c r="AD129" s="36"/>
-      <c r="AE129" s="36"/>
+      <c r="AE129" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AF129" s="36"/>
       <c r="AG129" s="36"/>
       <c r="AH129" s="36"/>
       <c r="AI129" s="36"/>
     </row>
     <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="42"/>
-      <c r="B130" s="42"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="31"/>
-      <c r="E130" s="31"/>
-      <c r="F130" s="31"/>
-      <c r="G130" s="31"/>
-      <c r="H130" s="31"/>
-      <c r="I130" s="43"/>
-      <c r="J130" s="43"/>
-      <c r="K130" s="43"/>
-      <c r="L130" s="43"/>
-      <c r="M130" s="42"/>
-      <c r="N130" s="42"/>
-      <c r="O130" s="42"/>
-      <c r="P130" s="42"/>
-      <c r="Q130" s="42"/>
-      <c r="R130" s="42"/>
-      <c r="S130" s="42"/>
-      <c r="T130" s="42"/>
-      <c r="U130" s="43"/>
-      <c r="V130" s="42"/>
-      <c r="W130" s="43"/>
-      <c r="X130" s="43"/>
-      <c r="Y130" s="43"/>
-      <c r="Z130" s="43"/>
-      <c r="AA130" s="43"/>
-      <c r="AB130" s="43"/>
-      <c r="AC130" s="43"/>
-      <c r="AD130" s="43"/>
-      <c r="AE130" s="43"/>
-      <c r="AF130" s="43"/>
-      <c r="AG130" s="43"/>
-      <c r="AH130" s="43"/>
-      <c r="AI130" s="43"/>
+      <c r="A130" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="B130" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="C130" s="34" t="s">
+        <v>352</v>
+      </c>
+      <c r="D130" s="35"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="35"/>
+      <c r="G130" s="35"/>
+      <c r="H130" s="35"/>
+      <c r="I130" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J130" s="36"/>
+      <c r="K130" s="36"/>
+      <c r="L130" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="M130" s="35"/>
+      <c r="N130" s="34"/>
+      <c r="O130" s="34"/>
+      <c r="P130" s="34"/>
+      <c r="Q130" s="34"/>
+      <c r="R130" s="34"/>
+      <c r="S130" s="34"/>
+      <c r="T130" s="34"/>
+      <c r="U130" s="34" t="s">
+        <v>354</v>
+      </c>
+      <c r="V130" s="34"/>
+      <c r="W130" s="36"/>
+      <c r="X130" s="36"/>
+      <c r="Y130" s="36"/>
+      <c r="Z130" s="36"/>
+      <c r="AA130" s="36"/>
+      <c r="AB130" s="36"/>
+      <c r="AC130" s="36"/>
+      <c r="AD130" s="36"/>
+      <c r="AE130" s="36"/>
+      <c r="AF130" s="36"/>
+      <c r="AG130" s="36"/>
+      <c r="AH130" s="36"/>
+      <c r="AI130" s="36"/>
     </row>
     <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>411</v>
+        <v>355</v>
       </c>
       <c r="C131" s="34" t="s">
-        <v>412</v>
-      </c>
-      <c r="D131" s="35"/>
-      <c r="E131" s="35"/>
-      <c r="F131" s="35"/>
-      <c r="G131" s="35"/>
-      <c r="H131" s="35"/>
-      <c r="I131" s="36"/>
-      <c r="J131" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="K131" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L131" s="36"/>
-      <c r="M131" s="34"/>
-      <c r="N131" s="34"/>
-      <c r="O131" s="34"/>
-      <c r="P131" s="34"/>
-      <c r="Q131" s="34"/>
-      <c r="R131" s="34"/>
-      <c r="S131" s="34"/>
-      <c r="T131" s="34"/>
+        <v>356</v>
+      </c>
+      <c r="D131" s="36"/>
+      <c r="E131" s="36"/>
+      <c r="F131" s="36"/>
+      <c r="G131" s="36"/>
+      <c r="H131" s="36"/>
+      <c r="I131" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J131" s="36"/>
+      <c r="K131" s="34"/>
+      <c r="L131" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="M131" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="N131" s="36"/>
+      <c r="O131" s="36"/>
+      <c r="P131" s="36"/>
+      <c r="Q131" s="36"/>
+      <c r="R131" s="36"/>
+      <c r="S131" s="36"/>
+      <c r="T131" s="36"/>
       <c r="U131" s="36"/>
-      <c r="V131" s="34"/>
+      <c r="V131" s="36"/>
       <c r="W131" s="36"/>
       <c r="X131" s="36"/>
       <c r="Y131" s="36"/>
@@ -7820,33 +7852,35 @@
     </row>
     <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="33" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>348</v>
+        <v>359</v>
       </c>
       <c r="C132" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="D132" s="35"/>
-      <c r="E132" s="35"/>
-      <c r="F132" s="35"/>
-      <c r="G132" s="35"/>
-      <c r="H132" s="35"/>
+        <v>45</v>
+      </c>
+      <c r="D132" s="36"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="36"/>
+      <c r="H132" s="36"/>
       <c r="I132" s="36"/>
-      <c r="J132" s="36"/>
-      <c r="K132" s="36"/>
+      <c r="J132" s="34"/>
+      <c r="K132" s="34"/>
       <c r="L132" s="36"/>
-      <c r="M132" s="34"/>
-      <c r="N132" s="34"/>
-      <c r="O132" s="34"/>
-      <c r="P132" s="34"/>
-      <c r="Q132" s="34"/>
-      <c r="R132" s="34"/>
-      <c r="S132" s="34"/>
-      <c r="T132" s="34"/>
+      <c r="M132" s="36"/>
+      <c r="N132" s="36"/>
+      <c r="O132" s="36"/>
+      <c r="P132" s="36"/>
+      <c r="Q132" s="36"/>
+      <c r="R132" s="36"/>
+      <c r="S132" s="36"/>
+      <c r="T132" s="36" t="s">
+        <v>460</v>
+      </c>
       <c r="U132" s="36"/>
-      <c r="V132" s="34"/>
+      <c r="V132" s="36"/>
       <c r="W132" s="36"/>
       <c r="X132" s="36"/>
       <c r="Y132" s="36"/>
@@ -7865,28 +7899,20 @@
     </row>
     <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="B133" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="C133" s="34" t="s">
-        <v>352</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B133" s="33"/>
+      <c r="C133" s="34"/>
       <c r="D133" s="35"/>
       <c r="E133" s="35"/>
       <c r="F133" s="35"/>
       <c r="G133" s="35"/>
       <c r="H133" s="35"/>
-      <c r="I133" s="36" t="s">
-        <v>57</v>
-      </c>
+      <c r="I133" s="36"/>
       <c r="J133" s="36"/>
       <c r="K133" s="36"/>
-      <c r="L133" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="M133" s="35"/>
+      <c r="L133" s="36"/>
+      <c r="M133" s="34"/>
       <c r="N133" s="34"/>
       <c r="O133" s="34"/>
       <c r="P133" s="34"/>
@@ -7894,9 +7920,7 @@
       <c r="R133" s="34"/>
       <c r="S133" s="34"/>
       <c r="T133" s="34"/>
-      <c r="U133" s="34" t="s">
-        <v>354</v>
-      </c>
+      <c r="U133" s="36"/>
       <c r="V133" s="34"/>
       <c r="W133" s="36"/>
       <c r="X133" s="36"/>
@@ -7913,208 +7937,206 @@
       <c r="AI133" s="36"/>
     </row>
     <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="33" t="s">
-        <v>334</v>
-      </c>
-      <c r="B134" s="33" t="s">
-        <v>355</v>
-      </c>
-      <c r="C134" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="D134" s="36"/>
-      <c r="E134" s="36"/>
-      <c r="F134" s="36"/>
-      <c r="G134" s="36"/>
-      <c r="H134" s="36"/>
-      <c r="I134" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J134" s="36"/>
-      <c r="K134" s="34"/>
-      <c r="L134" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="M134" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="N134" s="36"/>
-      <c r="O134" s="36"/>
-      <c r="P134" s="36"/>
-      <c r="Q134" s="36"/>
-      <c r="R134" s="36"/>
-      <c r="S134" s="36"/>
-      <c r="T134" s="36"/>
-      <c r="U134" s="36"/>
-      <c r="V134" s="36"/>
-      <c r="W134" s="36"/>
-      <c r="X134" s="36"/>
-      <c r="Y134" s="36"/>
-      <c r="Z134" s="36"/>
-      <c r="AA134" s="36"/>
-      <c r="AB134" s="36"/>
-      <c r="AC134" s="36"/>
-      <c r="AD134" s="36"/>
-      <c r="AE134" s="36"/>
-      <c r="AF134" s="36"/>
-      <c r="AG134" s="36"/>
-      <c r="AH134" s="36"/>
-      <c r="AI134" s="36"/>
+      <c r="A134" s="42"/>
+      <c r="B134" s="42"/>
+      <c r="C134" s="42"/>
+      <c r="D134" s="31"/>
+      <c r="E134" s="31"/>
+      <c r="F134" s="31"/>
+      <c r="G134" s="31"/>
+      <c r="H134" s="31"/>
+      <c r="I134" s="43"/>
+      <c r="J134" s="43"/>
+      <c r="K134" s="43"/>
+      <c r="L134" s="43"/>
+      <c r="M134" s="42"/>
+      <c r="N134" s="42"/>
+      <c r="O134" s="42"/>
+      <c r="P134" s="42"/>
+      <c r="Q134" s="42"/>
+      <c r="R134" s="42"/>
+      <c r="S134" s="42"/>
+      <c r="T134" s="42"/>
+      <c r="U134" s="43"/>
+      <c r="V134" s="42"/>
+      <c r="W134" s="43"/>
+      <c r="X134" s="43"/>
+      <c r="Y134" s="43"/>
+      <c r="Z134" s="43"/>
+      <c r="AA134" s="43"/>
+      <c r="AB134" s="43"/>
+      <c r="AC134" s="43"/>
+      <c r="AD134" s="43"/>
+      <c r="AE134" s="43"/>
+      <c r="AF134" s="43"/>
+      <c r="AG134" s="43"/>
+      <c r="AH134" s="43"/>
+      <c r="AI134" s="43"/>
     </row>
     <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B135" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="C135" s="34" t="s">
+      <c r="A135" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B135" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="C135" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D135" s="36"/>
-      <c r="E135" s="36"/>
-      <c r="F135" s="36"/>
-      <c r="G135" s="36"/>
-      <c r="H135" s="36"/>
-      <c r="I135" s="36"/>
-      <c r="J135" s="34"/>
-      <c r="K135" s="34"/>
-      <c r="L135" s="36"/>
-      <c r="M135" s="36"/>
-      <c r="N135" s="36"/>
-      <c r="O135" s="36"/>
-      <c r="P135" s="36"/>
-      <c r="Q135" s="36"/>
-      <c r="R135" s="36"/>
-      <c r="S135" s="36"/>
-      <c r="T135" s="36" t="s">
-        <v>460</v>
-      </c>
-      <c r="U135" s="36"/>
-      <c r="V135" s="36"/>
-      <c r="W135" s="36"/>
-      <c r="X135" s="36"/>
-      <c r="Y135" s="36"/>
-      <c r="Z135" s="36"/>
-      <c r="AA135" s="36"/>
-      <c r="AB135" s="36"/>
-      <c r="AC135" s="36"/>
-      <c r="AD135" s="36"/>
-      <c r="AE135" s="36" t="s">
+      <c r="D135" s="46"/>
+      <c r="E135" s="46"/>
+      <c r="F135" s="46"/>
+      <c r="G135" s="46"/>
+      <c r="H135" s="46"/>
+      <c r="I135" s="47"/>
+      <c r="J135" s="47"/>
+      <c r="K135" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="L135" s="47"/>
+      <c r="M135" s="45"/>
+      <c r="N135" s="45"/>
+      <c r="O135" s="45"/>
+      <c r="P135" s="45"/>
+      <c r="Q135" s="45"/>
+      <c r="R135" s="45"/>
+      <c r="S135" s="45"/>
+      <c r="T135" s="45"/>
+      <c r="U135" s="47"/>
+      <c r="V135" s="45"/>
+      <c r="W135" s="47"/>
+      <c r="X135" s="47"/>
+      <c r="Y135" s="47"/>
+      <c r="Z135" s="47"/>
+      <c r="AA135" s="47"/>
+      <c r="AB135" s="47"/>
+      <c r="AC135" s="47"/>
+      <c r="AD135" s="47"/>
+      <c r="AE135" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="AF135" s="36"/>
-      <c r="AG135" s="36"/>
-      <c r="AH135" s="36"/>
-      <c r="AI135" s="36"/>
+      <c r="AF135" s="47"/>
+      <c r="AG135" s="47"/>
+      <c r="AH135" s="47"/>
+      <c r="AI135" s="47"/>
     </row>
     <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B136" s="33"/>
-      <c r="C136" s="34"/>
-      <c r="D136" s="35"/>
-      <c r="E136" s="35"/>
-      <c r="F136" s="35"/>
-      <c r="G136" s="35"/>
-      <c r="H136" s="35"/>
-      <c r="I136" s="36"/>
-      <c r="J136" s="36"/>
-      <c r="K136" s="36"/>
-      <c r="L136" s="36"/>
-      <c r="M136" s="34"/>
-      <c r="N136" s="34"/>
-      <c r="O136" s="34"/>
-      <c r="P136" s="34"/>
-      <c r="Q136" s="34"/>
-      <c r="R136" s="34"/>
-      <c r="S136" s="34"/>
-      <c r="T136" s="34"/>
-      <c r="U136" s="36"/>
-      <c r="V136" s="34"/>
-      <c r="W136" s="36"/>
-      <c r="X136" s="36"/>
-      <c r="Y136" s="36"/>
-      <c r="Z136" s="36"/>
-      <c r="AA136" s="36"/>
-      <c r="AB136" s="36"/>
-      <c r="AC136" s="36"/>
-      <c r="AD136" s="36"/>
-      <c r="AE136" s="36"/>
-      <c r="AF136" s="36"/>
-      <c r="AG136" s="36"/>
-      <c r="AH136" s="36"/>
-      <c r="AI136" s="36"/>
+      <c r="A136" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B136" s="48" t="s">
+        <v>361</v>
+      </c>
+      <c r="C136" s="45" t="s">
+        <v>362</v>
+      </c>
+      <c r="D136" s="47"/>
+      <c r="E136" s="47"/>
+      <c r="F136" s="47"/>
+      <c r="G136" s="47"/>
+      <c r="H136" s="47"/>
+      <c r="I136" s="47"/>
+      <c r="J136" s="47"/>
+      <c r="K136" s="47"/>
+      <c r="L136" s="47"/>
+      <c r="M136" s="47"/>
+      <c r="N136" s="47"/>
+      <c r="O136" s="47"/>
+      <c r="P136" s="47"/>
+      <c r="Q136" s="47"/>
+      <c r="R136" s="47"/>
+      <c r="S136" s="47"/>
+      <c r="T136" s="47"/>
+      <c r="U136" s="47"/>
+      <c r="V136" s="47"/>
+      <c r="W136" s="47"/>
+      <c r="X136" s="47"/>
+      <c r="Y136" s="47"/>
+      <c r="Z136" s="47"/>
+      <c r="AA136" s="47"/>
+      <c r="AB136" s="47"/>
+      <c r="AC136" s="47"/>
+      <c r="AD136" s="47"/>
+      <c r="AE136" s="47"/>
+      <c r="AF136" s="47"/>
+      <c r="AG136" s="47"/>
+      <c r="AH136" s="47"/>
+      <c r="AI136" s="47"/>
     </row>
     <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="42"/>
-      <c r="B137" s="42"/>
-      <c r="C137" s="42"/>
-      <c r="D137" s="31"/>
-      <c r="E137" s="31"/>
-      <c r="F137" s="31"/>
-      <c r="G137" s="31"/>
-      <c r="H137" s="31"/>
-      <c r="I137" s="43"/>
-      <c r="J137" s="43"/>
-      <c r="K137" s="43"/>
-      <c r="L137" s="43"/>
-      <c r="M137" s="42"/>
-      <c r="N137" s="42"/>
-      <c r="O137" s="42"/>
-      <c r="P137" s="42"/>
-      <c r="Q137" s="42"/>
-      <c r="R137" s="42"/>
-      <c r="S137" s="42"/>
-      <c r="T137" s="42"/>
-      <c r="U137" s="43"/>
-      <c r="V137" s="42"/>
-      <c r="W137" s="43"/>
-      <c r="X137" s="43"/>
-      <c r="Y137" s="43"/>
-      <c r="Z137" s="43"/>
-      <c r="AA137" s="43"/>
-      <c r="AB137" s="43"/>
-      <c r="AC137" s="43"/>
-      <c r="AD137" s="43"/>
-      <c r="AE137" s="43"/>
-      <c r="AF137" s="43"/>
-      <c r="AG137" s="43"/>
-      <c r="AH137" s="43"/>
-      <c r="AI137" s="43"/>
+      <c r="A137" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B137" s="44" t="s">
+        <v>363</v>
+      </c>
+      <c r="C137" s="45" t="s">
+        <v>364</v>
+      </c>
+      <c r="D137" s="47"/>
+      <c r="E137" s="47"/>
+      <c r="F137" s="47"/>
+      <c r="G137" s="47"/>
+      <c r="H137" s="47"/>
+      <c r="I137" s="47"/>
+      <c r="J137" s="47"/>
+      <c r="K137" s="45" t="s">
+        <v>365</v>
+      </c>
+      <c r="L137" s="47"/>
+      <c r="M137" s="47"/>
+      <c r="N137" s="47"/>
+      <c r="O137" s="47"/>
+      <c r="P137" s="47"/>
+      <c r="Q137" s="47"/>
+      <c r="R137" s="47"/>
+      <c r="S137" s="47"/>
+      <c r="T137" s="47"/>
+      <c r="U137" s="47"/>
+      <c r="V137" s="47"/>
+      <c r="W137" s="47"/>
+      <c r="X137" s="47"/>
+      <c r="Y137" s="47"/>
+      <c r="Z137" s="47"/>
+      <c r="AA137" s="47"/>
+      <c r="AB137" s="47"/>
+      <c r="AC137" s="47"/>
+      <c r="AD137" s="47"/>
+      <c r="AE137" s="47"/>
+      <c r="AF137" s="47"/>
+      <c r="AG137" s="47"/>
+      <c r="AH137" s="47"/>
+      <c r="AI137" s="47"/>
     </row>
     <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="44" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B138" s="44" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="C138" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D138" s="46"/>
-      <c r="E138" s="46"/>
-      <c r="F138" s="46"/>
-      <c r="G138" s="46"/>
-      <c r="H138" s="46"/>
+        <v>465</v>
+      </c>
+      <c r="D138" s="47"/>
+      <c r="E138" s="47"/>
+      <c r="F138" s="47"/>
+      <c r="G138" s="47"/>
+      <c r="H138" s="47"/>
       <c r="I138" s="47"/>
       <c r="J138" s="47"/>
-      <c r="K138" s="47" t="s">
-        <v>347</v>
-      </c>
+      <c r="K138" s="45"/>
       <c r="L138" s="47"/>
-      <c r="M138" s="45"/>
-      <c r="N138" s="45"/>
-      <c r="O138" s="45"/>
-      <c r="P138" s="45"/>
-      <c r="Q138" s="45"/>
-      <c r="R138" s="45"/>
-      <c r="S138" s="45"/>
-      <c r="T138" s="45"/>
+      <c r="M138" s="47"/>
+      <c r="N138" s="47"/>
+      <c r="O138" s="47"/>
+      <c r="P138" s="47"/>
+      <c r="Q138" s="47"/>
+      <c r="R138" s="47"/>
+      <c r="S138" s="47"/>
+      <c r="T138" s="47"/>
       <c r="U138" s="47"/>
-      <c r="V138" s="45"/>
+      <c r="V138" s="47"/>
       <c r="W138" s="47"/>
       <c r="X138" s="47"/>
       <c r="Y138" s="47"/>
@@ -8123,23 +8145,21 @@
       <c r="AB138" s="47"/>
       <c r="AC138" s="47"/>
       <c r="AD138" s="47"/>
-      <c r="AE138" s="47" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE138" s="47"/>
       <c r="AF138" s="47"/>
       <c r="AG138" s="47"/>
       <c r="AH138" s="47"/>
       <c r="AI138" s="47"/>
     </row>
     <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="48" t="s">
+      <c r="A139" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B139" s="48" t="s">
-        <v>361</v>
+      <c r="B139" s="44" t="s">
+        <v>417</v>
       </c>
       <c r="C139" s="45" t="s">
-        <v>362</v>
+        <v>413</v>
       </c>
       <c r="D139" s="47"/>
       <c r="E139" s="47"/>
@@ -8148,7 +8168,9 @@
       <c r="H139" s="47"/>
       <c r="I139" s="47"/>
       <c r="J139" s="47"/>
-      <c r="K139" s="47"/>
+      <c r="K139" s="45" t="s">
+        <v>365</v>
+      </c>
       <c r="L139" s="47"/>
       <c r="M139" s="47"/>
       <c r="N139" s="47"/>
@@ -8179,10 +8201,10 @@
         <v>117</v>
       </c>
       <c r="B140" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="C140" s="45" t="s">
-        <v>364</v>
+        <v>367</v>
+      </c>
+      <c r="C140" s="47" t="s">
+        <v>414</v>
       </c>
       <c r="D140" s="47"/>
       <c r="E140" s="47"/>
@@ -8190,9 +8212,9 @@
       <c r="G140" s="47"/>
       <c r="H140" s="47"/>
       <c r="I140" s="47"/>
-      <c r="J140" s="47"/>
+      <c r="J140" s="46"/>
       <c r="K140" s="45" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L140" s="47"/>
       <c r="M140" s="47"/>
@@ -8224,30 +8246,34 @@
         <v>117</v>
       </c>
       <c r="B141" s="44" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C141" s="45" t="s">
-        <v>465</v>
-      </c>
-      <c r="D141" s="47"/>
-      <c r="E141" s="47"/>
-      <c r="F141" s="47"/>
-      <c r="G141" s="47"/>
-      <c r="H141" s="47"/>
+        <v>248</v>
+      </c>
+      <c r="D141" s="46"/>
+      <c r="E141" s="46"/>
+      <c r="F141" s="46"/>
+      <c r="G141" s="46"/>
+      <c r="H141" s="46"/>
       <c r="I141" s="47"/>
-      <c r="J141" s="47"/>
-      <c r="K141" s="45"/>
+      <c r="J141" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="K141" s="47" t="s">
+        <v>370</v>
+      </c>
       <c r="L141" s="47"/>
-      <c r="M141" s="47"/>
-      <c r="N141" s="47"/>
-      <c r="O141" s="47"/>
-      <c r="P141" s="47"/>
-      <c r="Q141" s="47"/>
-      <c r="R141" s="47"/>
-      <c r="S141" s="47"/>
-      <c r="T141" s="47"/>
+      <c r="M141" s="45"/>
+      <c r="N141" s="45"/>
+      <c r="O141" s="45"/>
+      <c r="P141" s="45"/>
+      <c r="Q141" s="45"/>
+      <c r="R141" s="45"/>
+      <c r="S141" s="45"/>
+      <c r="T141" s="45"/>
       <c r="U141" s="47"/>
-      <c r="V141" s="47"/>
+      <c r="V141" s="45"/>
       <c r="W141" s="47"/>
       <c r="X141" s="47"/>
       <c r="Y141" s="47"/>
@@ -8267,32 +8293,34 @@
         <v>117</v>
       </c>
       <c r="B142" s="44" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="C142" s="45" t="s">
-        <v>413</v>
-      </c>
-      <c r="D142" s="47"/>
-      <c r="E142" s="47"/>
-      <c r="F142" s="47"/>
-      <c r="G142" s="47"/>
-      <c r="H142" s="47"/>
+        <v>250</v>
+      </c>
+      <c r="D142" s="46"/>
+      <c r="E142" s="46"/>
+      <c r="F142" s="46"/>
+      <c r="G142" s="46"/>
+      <c r="H142" s="46"/>
       <c r="I142" s="47"/>
-      <c r="J142" s="47"/>
-      <c r="K142" s="45" t="s">
-        <v>365</v>
+      <c r="J142" s="45" t="s">
+        <v>419</v>
+      </c>
+      <c r="K142" s="47" t="s">
+        <v>370</v>
       </c>
       <c r="L142" s="47"/>
-      <c r="M142" s="47"/>
-      <c r="N142" s="47"/>
-      <c r="O142" s="47"/>
-      <c r="P142" s="47"/>
-      <c r="Q142" s="47"/>
-      <c r="R142" s="47"/>
-      <c r="S142" s="47"/>
-      <c r="T142" s="47"/>
+      <c r="M142" s="45"/>
+      <c r="N142" s="45"/>
+      <c r="O142" s="45"/>
+      <c r="P142" s="45"/>
+      <c r="Q142" s="45"/>
+      <c r="R142" s="45"/>
+      <c r="S142" s="45"/>
+      <c r="T142" s="45"/>
       <c r="U142" s="47"/>
-      <c r="V142" s="47"/>
+      <c r="V142" s="45"/>
       <c r="W142" s="47"/>
       <c r="X142" s="47"/>
       <c r="Y142" s="47"/>
@@ -8312,32 +8340,34 @@
         <v>117</v>
       </c>
       <c r="B143" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="C143" s="47" t="s">
-        <v>414</v>
-      </c>
-      <c r="D143" s="47"/>
-      <c r="E143" s="47"/>
-      <c r="F143" s="47"/>
-      <c r="G143" s="47"/>
-      <c r="H143" s="47"/>
+        <v>372</v>
+      </c>
+      <c r="C143" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="D143" s="46"/>
+      <c r="E143" s="46"/>
+      <c r="F143" s="46"/>
+      <c r="G143" s="46"/>
+      <c r="H143" s="46"/>
       <c r="I143" s="47"/>
-      <c r="J143" s="46"/>
-      <c r="K143" s="45" t="s">
-        <v>368</v>
+      <c r="J143" s="45" t="s">
+        <v>420</v>
+      </c>
+      <c r="K143" s="47" t="s">
+        <v>370</v>
       </c>
       <c r="L143" s="47"/>
-      <c r="M143" s="47"/>
-      <c r="N143" s="47"/>
-      <c r="O143" s="47"/>
-      <c r="P143" s="47"/>
-      <c r="Q143" s="47"/>
-      <c r="R143" s="47"/>
-      <c r="S143" s="47"/>
-      <c r="T143" s="47"/>
+      <c r="M143" s="45"/>
+      <c r="N143" s="45"/>
+      <c r="O143" s="45"/>
+      <c r="P143" s="45"/>
+      <c r="Q143" s="45"/>
+      <c r="R143" s="45"/>
+      <c r="S143" s="45"/>
+      <c r="T143" s="45"/>
       <c r="U143" s="47"/>
-      <c r="V143" s="47"/>
+      <c r="V143" s="45"/>
       <c r="W143" s="47"/>
       <c r="X143" s="47"/>
       <c r="Y143" s="47"/>
@@ -8357,34 +8387,34 @@
         <v>117</v>
       </c>
       <c r="B144" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="C144" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="D144" s="46"/>
-      <c r="E144" s="46"/>
-      <c r="F144" s="46"/>
-      <c r="G144" s="46"/>
-      <c r="H144" s="46"/>
+        <v>416</v>
+      </c>
+      <c r="C144" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="D144" s="47"/>
+      <c r="E144" s="47"/>
+      <c r="F144" s="47"/>
+      <c r="G144" s="47"/>
+      <c r="H144" s="47"/>
       <c r="I144" s="47"/>
       <c r="J144" s="45" t="s">
-        <v>418</v>
-      </c>
-      <c r="K144" s="47" t="s">
-        <v>370</v>
+        <v>420</v>
+      </c>
+      <c r="K144" s="45" t="s">
+        <v>368</v>
       </c>
       <c r="L144" s="47"/>
-      <c r="M144" s="45"/>
-      <c r="N144" s="45"/>
-      <c r="O144" s="45"/>
-      <c r="P144" s="45"/>
-      <c r="Q144" s="45"/>
-      <c r="R144" s="45"/>
-      <c r="S144" s="45"/>
-      <c r="T144" s="45"/>
+      <c r="M144" s="47"/>
+      <c r="N144" s="47"/>
+      <c r="O144" s="47"/>
+      <c r="P144" s="47"/>
+      <c r="Q144" s="47"/>
+      <c r="R144" s="47"/>
+      <c r="S144" s="47"/>
+      <c r="T144" s="47"/>
       <c r="U144" s="47"/>
-      <c r="V144" s="45"/>
+      <c r="V144" s="47"/>
       <c r="W144" s="47"/>
       <c r="X144" s="47"/>
       <c r="Y144" s="47"/>
@@ -8404,10 +8434,10 @@
         <v>117</v>
       </c>
       <c r="B145" s="44" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C145" s="45" t="s">
-        <v>250</v>
+        <v>415</v>
       </c>
       <c r="D145" s="46"/>
       <c r="E145" s="46"/>
@@ -8416,7 +8446,7 @@
       <c r="H145" s="46"/>
       <c r="I145" s="47"/>
       <c r="J145" s="45" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K145" s="47" t="s">
         <v>370</v>
@@ -8451,10 +8481,10 @@
         <v>117</v>
       </c>
       <c r="B146" s="44" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C146" s="45" t="s">
-        <v>252</v>
+        <v>459</v>
       </c>
       <c r="D146" s="46"/>
       <c r="E146" s="46"/>
@@ -8498,34 +8528,34 @@
         <v>117</v>
       </c>
       <c r="B147" s="44" t="s">
-        <v>416</v>
-      </c>
-      <c r="C147" s="47" t="s">
-        <v>373</v>
-      </c>
-      <c r="D147" s="47"/>
-      <c r="E147" s="47"/>
-      <c r="F147" s="47"/>
-      <c r="G147" s="47"/>
-      <c r="H147" s="47"/>
+        <v>422</v>
+      </c>
+      <c r="C147" s="45" t="s">
+        <v>432</v>
+      </c>
+      <c r="D147" s="46"/>
+      <c r="E147" s="46"/>
+      <c r="F147" s="46"/>
+      <c r="G147" s="46"/>
+      <c r="H147" s="46"/>
       <c r="I147" s="47"/>
       <c r="J147" s="45" t="s">
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="K147" s="45" t="s">
         <v>368</v>
       </c>
       <c r="L147" s="47"/>
-      <c r="M147" s="47"/>
-      <c r="N147" s="47"/>
-      <c r="O147" s="47"/>
-      <c r="P147" s="47"/>
-      <c r="Q147" s="47"/>
-      <c r="R147" s="47"/>
-      <c r="S147" s="47"/>
-      <c r="T147" s="47"/>
+      <c r="M147" s="45"/>
+      <c r="N147" s="45"/>
+      <c r="O147" s="45"/>
+      <c r="P147" s="45"/>
+      <c r="Q147" s="45"/>
+      <c r="R147" s="45"/>
+      <c r="S147" s="45"/>
+      <c r="T147" s="45"/>
       <c r="U147" s="47"/>
-      <c r="V147" s="47"/>
+      <c r="V147" s="45"/>
       <c r="W147" s="47"/>
       <c r="X147" s="47"/>
       <c r="Y147" s="47"/>
@@ -8545,34 +8575,34 @@
         <v>117</v>
       </c>
       <c r="B148" s="44" t="s">
-        <v>374</v>
+        <v>423</v>
       </c>
       <c r="C148" s="45" t="s">
-        <v>415</v>
-      </c>
-      <c r="D148" s="46"/>
-      <c r="E148" s="46"/>
-      <c r="F148" s="46"/>
-      <c r="G148" s="46"/>
-      <c r="H148" s="46"/>
+        <v>443</v>
+      </c>
+      <c r="D148" s="47"/>
+      <c r="E148" s="47"/>
+      <c r="F148" s="47"/>
+      <c r="G148" s="47"/>
+      <c r="H148" s="47"/>
       <c r="I148" s="47"/>
       <c r="J148" s="45" t="s">
-        <v>420</v>
-      </c>
-      <c r="K148" s="47" t="s">
+        <v>434</v>
+      </c>
+      <c r="K148" s="45" t="s">
         <v>370</v>
       </c>
       <c r="L148" s="47"/>
-      <c r="M148" s="45"/>
-      <c r="N148" s="45"/>
-      <c r="O148" s="45"/>
-      <c r="P148" s="45"/>
-      <c r="Q148" s="45"/>
-      <c r="R148" s="45"/>
-      <c r="S148" s="45"/>
-      <c r="T148" s="45"/>
+      <c r="M148" s="47"/>
+      <c r="N148" s="47"/>
+      <c r="O148" s="47"/>
+      <c r="P148" s="47"/>
+      <c r="Q148" s="47"/>
+      <c r="R148" s="47"/>
+      <c r="S148" s="47"/>
+      <c r="T148" s="47"/>
       <c r="U148" s="47"/>
-      <c r="V148" s="45"/>
+      <c r="V148" s="47"/>
       <c r="W148" s="47"/>
       <c r="X148" s="47"/>
       <c r="Y148" s="47"/>
@@ -8592,34 +8622,34 @@
         <v>117</v>
       </c>
       <c r="B149" s="44" t="s">
-        <v>375</v>
+        <v>424</v>
       </c>
       <c r="C149" s="45" t="s">
-        <v>459</v>
-      </c>
-      <c r="D149" s="46"/>
-      <c r="E149" s="46"/>
-      <c r="F149" s="46"/>
-      <c r="G149" s="46"/>
-      <c r="H149" s="46"/>
+        <v>444</v>
+      </c>
+      <c r="D149" s="47"/>
+      <c r="E149" s="47"/>
+      <c r="F149" s="47"/>
+      <c r="G149" s="47"/>
+      <c r="H149" s="47"/>
       <c r="I149" s="47"/>
       <c r="J149" s="45" t="s">
-        <v>420</v>
-      </c>
-      <c r="K149" s="47" t="s">
+        <v>435</v>
+      </c>
+      <c r="K149" s="45" t="s">
         <v>370</v>
       </c>
       <c r="L149" s="47"/>
-      <c r="M149" s="45"/>
-      <c r="N149" s="45"/>
-      <c r="O149" s="45"/>
-      <c r="P149" s="45"/>
-      <c r="Q149" s="45"/>
-      <c r="R149" s="45"/>
-      <c r="S149" s="45"/>
-      <c r="T149" s="45"/>
+      <c r="M149" s="47"/>
+      <c r="N149" s="47"/>
+      <c r="O149" s="47"/>
+      <c r="P149" s="47"/>
+      <c r="Q149" s="47"/>
+      <c r="R149" s="47"/>
+      <c r="S149" s="47"/>
+      <c r="T149" s="47"/>
       <c r="U149" s="47"/>
-      <c r="V149" s="45"/>
+      <c r="V149" s="47"/>
       <c r="W149" s="47"/>
       <c r="X149" s="47"/>
       <c r="Y149" s="47"/>
@@ -8639,34 +8669,34 @@
         <v>117</v>
       </c>
       <c r="B150" s="44" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="C150" s="45" t="s">
-        <v>432</v>
-      </c>
-      <c r="D150" s="46"/>
-      <c r="E150" s="46"/>
-      <c r="F150" s="46"/>
-      <c r="G150" s="46"/>
-      <c r="H150" s="46"/>
+        <v>445</v>
+      </c>
+      <c r="D150" s="47"/>
+      <c r="E150" s="47"/>
+      <c r="F150" s="47"/>
+      <c r="G150" s="47"/>
+      <c r="H150" s="47"/>
       <c r="I150" s="47"/>
       <c r="J150" s="45" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K150" s="45" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L150" s="47"/>
-      <c r="M150" s="45"/>
-      <c r="N150" s="45"/>
-      <c r="O150" s="45"/>
-      <c r="P150" s="45"/>
-      <c r="Q150" s="45"/>
-      <c r="R150" s="45"/>
-      <c r="S150" s="45"/>
-      <c r="T150" s="45"/>
+      <c r="M150" s="47"/>
+      <c r="N150" s="47"/>
+      <c r="O150" s="47"/>
+      <c r="P150" s="47"/>
+      <c r="Q150" s="47"/>
+      <c r="R150" s="47"/>
+      <c r="S150" s="47"/>
+      <c r="T150" s="47"/>
       <c r="U150" s="47"/>
-      <c r="V150" s="45"/>
+      <c r="V150" s="47"/>
       <c r="W150" s="47"/>
       <c r="X150" s="47"/>
       <c r="Y150" s="47"/>
@@ -8686,10 +8716,10 @@
         <v>117</v>
       </c>
       <c r="B151" s="44" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="C151" s="45" t="s">
-        <v>443</v>
+        <v>210</v>
       </c>
       <c r="D151" s="47"/>
       <c r="E151" s="47"/>
@@ -8698,7 +8728,7 @@
       <c r="H151" s="47"/>
       <c r="I151" s="47"/>
       <c r="J151" s="45" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="K151" s="45" t="s">
         <v>370</v>
@@ -8733,10 +8763,10 @@
         <v>117</v>
       </c>
       <c r="B152" s="44" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="C152" s="45" t="s">
-        <v>444</v>
+        <v>211</v>
       </c>
       <c r="D152" s="47"/>
       <c r="E152" s="47"/>
@@ -8745,7 +8775,7 @@
       <c r="H152" s="47"/>
       <c r="I152" s="47"/>
       <c r="J152" s="45" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="K152" s="45" t="s">
         <v>370</v>
@@ -8780,10 +8810,10 @@
         <v>117</v>
       </c>
       <c r="B153" s="44" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="C153" s="45" t="s">
-        <v>445</v>
+        <v>212</v>
       </c>
       <c r="D153" s="47"/>
       <c r="E153" s="47"/>
@@ -8792,7 +8822,7 @@
       <c r="H153" s="47"/>
       <c r="I153" s="47"/>
       <c r="J153" s="45" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K153" s="45" t="s">
         <v>370</v>
@@ -8827,10 +8857,10 @@
         <v>117</v>
       </c>
       <c r="B154" s="44" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D154" s="47"/>
       <c r="E154" s="47"/>
@@ -8839,7 +8869,7 @@
       <c r="H154" s="47"/>
       <c r="I154" s="47"/>
       <c r="J154" s="45" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="K154" s="45" t="s">
         <v>370</v>
@@ -8874,10 +8904,10 @@
         <v>117</v>
       </c>
       <c r="B155" s="44" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="C155" s="45" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="D155" s="47"/>
       <c r="E155" s="47"/>
@@ -8886,7 +8916,7 @@
       <c r="H155" s="47"/>
       <c r="I155" s="47"/>
       <c r="J155" s="45" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="K155" s="45" t="s">
         <v>370</v>
@@ -8921,10 +8951,10 @@
         <v>117</v>
       </c>
       <c r="B156" s="44" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="C156" s="45" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D156" s="47"/>
       <c r="E156" s="47"/>
@@ -8933,7 +8963,7 @@
       <c r="H156" s="47"/>
       <c r="I156" s="47"/>
       <c r="J156" s="45" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K156" s="45" t="s">
         <v>370</v>
@@ -8968,10 +8998,10 @@
         <v>117</v>
       </c>
       <c r="B157" s="44" t="s">
-        <v>429</v>
+        <v>377</v>
       </c>
       <c r="C157" s="45" t="s">
-        <v>213</v>
+        <v>378</v>
       </c>
       <c r="D157" s="47"/>
       <c r="E157" s="47"/>
@@ -8979,11 +9009,11 @@
       <c r="G157" s="47"/>
       <c r="H157" s="47"/>
       <c r="I157" s="47"/>
-      <c r="J157" s="45" t="s">
-        <v>440</v>
+      <c r="J157" s="47" t="s">
+        <v>446</v>
       </c>
       <c r="K157" s="45" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="L157" s="47"/>
       <c r="M157" s="47"/>
@@ -9015,10 +9045,10 @@
         <v>117</v>
       </c>
       <c r="B158" s="44" t="s">
-        <v>430</v>
+        <v>380</v>
       </c>
       <c r="C158" s="45" t="s">
-        <v>214</v>
+        <v>381</v>
       </c>
       <c r="D158" s="47"/>
       <c r="E158" s="47"/>
@@ -9027,11 +9057,9 @@
       <c r="H158" s="47"/>
       <c r="I158" s="47"/>
       <c r="J158" s="45" t="s">
-        <v>441</v>
-      </c>
-      <c r="K158" s="45" t="s">
-        <v>370</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="K158" s="45"/>
       <c r="L158" s="47"/>
       <c r="M158" s="47"/>
       <c r="N158" s="47"/>
@@ -9062,10 +9090,10 @@
         <v>117</v>
       </c>
       <c r="B159" s="44" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>215</v>
+        <v>376</v>
       </c>
       <c r="D159" s="47"/>
       <c r="E159" s="47"/>
@@ -9074,7 +9102,7 @@
       <c r="H159" s="47"/>
       <c r="I159" s="47"/>
       <c r="J159" s="45" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="K159" s="45" t="s">
         <v>370</v>
@@ -9109,34 +9137,34 @@
         <v>117</v>
       </c>
       <c r="B160" s="44" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C160" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="D160" s="47"/>
-      <c r="E160" s="47"/>
-      <c r="F160" s="47"/>
-      <c r="G160" s="47"/>
-      <c r="H160" s="47"/>
+        <v>385</v>
+      </c>
+      <c r="D160" s="46"/>
+      <c r="E160" s="46"/>
+      <c r="F160" s="46"/>
+      <c r="G160" s="46"/>
+      <c r="H160" s="46"/>
       <c r="I160" s="47"/>
-      <c r="J160" s="47" t="s">
-        <v>446</v>
-      </c>
-      <c r="K160" s="45" t="s">
-        <v>379</v>
+      <c r="J160" s="45" t="s">
+        <v>419</v>
+      </c>
+      <c r="K160" s="47" t="s">
+        <v>370</v>
       </c>
       <c r="L160" s="47"/>
-      <c r="M160" s="47"/>
-      <c r="N160" s="47"/>
-      <c r="O160" s="47"/>
-      <c r="P160" s="47"/>
-      <c r="Q160" s="47"/>
-      <c r="R160" s="47"/>
-      <c r="S160" s="47"/>
-      <c r="T160" s="47"/>
+      <c r="M160" s="45"/>
+      <c r="N160" s="45"/>
+      <c r="O160" s="45"/>
+      <c r="P160" s="45"/>
+      <c r="Q160" s="45"/>
+      <c r="R160" s="45"/>
+      <c r="S160" s="45"/>
+      <c r="T160" s="45"/>
       <c r="U160" s="47"/>
-      <c r="V160" s="47"/>
+      <c r="V160" s="45"/>
       <c r="W160" s="47"/>
       <c r="X160" s="47"/>
       <c r="Y160" s="47"/>
@@ -9156,32 +9184,32 @@
         <v>117</v>
       </c>
       <c r="B161" s="44" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>381</v>
-      </c>
-      <c r="D161" s="47"/>
-      <c r="E161" s="47"/>
-      <c r="F161" s="47"/>
-      <c r="G161" s="47"/>
-      <c r="H161" s="47"/>
+        <v>387</v>
+      </c>
+      <c r="D161" s="46"/>
+      <c r="E161" s="46"/>
+      <c r="F161" s="46"/>
+      <c r="G161" s="46"/>
+      <c r="H161" s="46"/>
       <c r="I161" s="47"/>
-      <c r="J161" s="45" t="s">
-        <v>382</v>
-      </c>
-      <c r="K161" s="45"/>
+      <c r="J161" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="K161" s="47"/>
       <c r="L161" s="47"/>
-      <c r="M161" s="47"/>
-      <c r="N161" s="47"/>
-      <c r="O161" s="47"/>
-      <c r="P161" s="47"/>
-      <c r="Q161" s="47"/>
-      <c r="R161" s="47"/>
-      <c r="S161" s="47"/>
-      <c r="T161" s="47"/>
+      <c r="M161" s="45"/>
+      <c r="N161" s="45"/>
+      <c r="O161" s="45"/>
+      <c r="P161" s="45"/>
+      <c r="Q161" s="45"/>
+      <c r="R161" s="45"/>
+      <c r="S161" s="45"/>
+      <c r="T161" s="45"/>
       <c r="U161" s="47"/>
-      <c r="V161" s="47"/>
+      <c r="V161" s="45"/>
       <c r="W161" s="47"/>
       <c r="X161" s="47"/>
       <c r="Y161" s="47"/>
@@ -9201,34 +9229,32 @@
         <v>117</v>
       </c>
       <c r="B162" s="44" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="C162" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D162" s="47"/>
-      <c r="E162" s="47"/>
-      <c r="F162" s="47"/>
-      <c r="G162" s="47"/>
-      <c r="H162" s="47"/>
+        <v>389</v>
+      </c>
+      <c r="D162" s="46"/>
+      <c r="E162" s="46"/>
+      <c r="F162" s="46"/>
+      <c r="G162" s="46"/>
+      <c r="H162" s="46"/>
       <c r="I162" s="47"/>
-      <c r="J162" s="45" t="s">
-        <v>433</v>
-      </c>
-      <c r="K162" s="45" t="s">
-        <v>370</v>
-      </c>
+      <c r="J162" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="K162" s="47"/>
       <c r="L162" s="47"/>
-      <c r="M162" s="47"/>
-      <c r="N162" s="47"/>
-      <c r="O162" s="47"/>
-      <c r="P162" s="47"/>
-      <c r="Q162" s="47"/>
-      <c r="R162" s="47"/>
-      <c r="S162" s="47"/>
-      <c r="T162" s="47"/>
+      <c r="M162" s="45"/>
+      <c r="N162" s="45"/>
+      <c r="O162" s="45"/>
+      <c r="P162" s="45"/>
+      <c r="Q162" s="45"/>
+      <c r="R162" s="45"/>
+      <c r="S162" s="45"/>
+      <c r="T162" s="45"/>
       <c r="U162" s="47"/>
-      <c r="V162" s="47"/>
+      <c r="V162" s="45"/>
       <c r="W162" s="47"/>
       <c r="X162" s="47"/>
       <c r="Y162" s="47"/>
@@ -9248,34 +9274,34 @@
         <v>117</v>
       </c>
       <c r="B163" s="44" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="C163" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="D163" s="46"/>
-      <c r="E163" s="46"/>
-      <c r="F163" s="46"/>
-      <c r="G163" s="46"/>
-      <c r="H163" s="46"/>
+        <v>391</v>
+      </c>
+      <c r="D163" s="47"/>
+      <c r="E163" s="47"/>
+      <c r="F163" s="47"/>
+      <c r="G163" s="47"/>
+      <c r="H163" s="47"/>
       <c r="I163" s="47"/>
       <c r="J163" s="45" t="s">
-        <v>419</v>
-      </c>
-      <c r="K163" s="47" t="s">
-        <v>370</v>
+        <v>433</v>
+      </c>
+      <c r="K163" s="45" t="s">
+        <v>392</v>
       </c>
       <c r="L163" s="47"/>
-      <c r="M163" s="45"/>
-      <c r="N163" s="45"/>
-      <c r="O163" s="45"/>
-      <c r="P163" s="45"/>
-      <c r="Q163" s="45"/>
-      <c r="R163" s="45"/>
-      <c r="S163" s="45"/>
-      <c r="T163" s="45"/>
+      <c r="M163" s="47"/>
+      <c r="N163" s="47"/>
+      <c r="O163" s="47"/>
+      <c r="P163" s="47"/>
+      <c r="Q163" s="47"/>
+      <c r="R163" s="47"/>
+      <c r="S163" s="47"/>
+      <c r="T163" s="47"/>
       <c r="U163" s="47"/>
-      <c r="V163" s="45"/>
+      <c r="V163" s="47"/>
       <c r="W163" s="47"/>
       <c r="X163" s="47"/>
       <c r="Y163" s="47"/>
@@ -9295,32 +9321,32 @@
         <v>117</v>
       </c>
       <c r="B164" s="44" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="C164" s="45" t="s">
-        <v>387</v>
-      </c>
-      <c r="D164" s="46"/>
-      <c r="E164" s="46"/>
-      <c r="F164" s="46"/>
-      <c r="G164" s="46"/>
-      <c r="H164" s="46"/>
+        <v>394</v>
+      </c>
+      <c r="D164" s="47"/>
+      <c r="E164" s="47"/>
+      <c r="F164" s="47"/>
+      <c r="G164" s="47"/>
+      <c r="H164" s="47"/>
       <c r="I164" s="47"/>
-      <c r="J164" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="K164" s="47"/>
+      <c r="J164" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="K164" s="45"/>
       <c r="L164" s="47"/>
-      <c r="M164" s="45"/>
-      <c r="N164" s="45"/>
-      <c r="O164" s="45"/>
-      <c r="P164" s="45"/>
-      <c r="Q164" s="45"/>
-      <c r="R164" s="45"/>
-      <c r="S164" s="45"/>
-      <c r="T164" s="45"/>
+      <c r="M164" s="47"/>
+      <c r="N164" s="47"/>
+      <c r="O164" s="47"/>
+      <c r="P164" s="47"/>
+      <c r="Q164" s="47"/>
+      <c r="R164" s="47"/>
+      <c r="S164" s="47"/>
+      <c r="T164" s="47"/>
       <c r="U164" s="47"/>
-      <c r="V164" s="45"/>
+      <c r="V164" s="47"/>
       <c r="W164" s="47"/>
       <c r="X164" s="47"/>
       <c r="Y164" s="47"/>
@@ -9340,32 +9366,32 @@
         <v>117</v>
       </c>
       <c r="B165" s="44" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="C165" s="45" t="s">
-        <v>389</v>
-      </c>
-      <c r="D165" s="46"/>
-      <c r="E165" s="46"/>
-      <c r="F165" s="46"/>
-      <c r="G165" s="46"/>
-      <c r="H165" s="46"/>
+        <v>396</v>
+      </c>
+      <c r="D165" s="47"/>
+      <c r="E165" s="47"/>
+      <c r="F165" s="47"/>
+      <c r="G165" s="47"/>
+      <c r="H165" s="47"/>
       <c r="I165" s="47"/>
-      <c r="J165" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="K165" s="47"/>
+      <c r="J165" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="K165" s="45"/>
       <c r="L165" s="47"/>
-      <c r="M165" s="45"/>
-      <c r="N165" s="45"/>
-      <c r="O165" s="45"/>
-      <c r="P165" s="45"/>
-      <c r="Q165" s="45"/>
-      <c r="R165" s="45"/>
-      <c r="S165" s="45"/>
-      <c r="T165" s="45"/>
+      <c r="M165" s="47"/>
+      <c r="N165" s="47"/>
+      <c r="O165" s="47"/>
+      <c r="P165" s="47"/>
+      <c r="Q165" s="47"/>
+      <c r="R165" s="47"/>
+      <c r="S165" s="47"/>
+      <c r="T165" s="47"/>
       <c r="U165" s="47"/>
-      <c r="V165" s="45"/>
+      <c r="V165" s="47"/>
       <c r="W165" s="47"/>
       <c r="X165" s="47"/>
       <c r="Y165" s="47"/>
@@ -9385,10 +9411,10 @@
         <v>117</v>
       </c>
       <c r="B166" s="44" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C166" s="45" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="D166" s="47"/>
       <c r="E166" s="47"/>
@@ -9399,9 +9425,7 @@
       <c r="J166" s="45" t="s">
         <v>433</v>
       </c>
-      <c r="K166" s="45" t="s">
-        <v>392</v>
-      </c>
+      <c r="K166" s="45"/>
       <c r="L166" s="47"/>
       <c r="M166" s="47"/>
       <c r="N166" s="47"/>
@@ -9429,35 +9453,29 @@
     </row>
     <row r="167" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B167" s="44" t="s">
-        <v>393</v>
-      </c>
-      <c r="C167" s="45" t="s">
-        <v>394</v>
-      </c>
-      <c r="D167" s="47"/>
-      <c r="E167" s="47"/>
-      <c r="F167" s="47"/>
-      <c r="G167" s="47"/>
-      <c r="H167" s="47"/>
+        <v>68</v>
+      </c>
+      <c r="B167" s="44"/>
+      <c r="C167" s="45"/>
+      <c r="D167" s="46"/>
+      <c r="E167" s="46"/>
+      <c r="F167" s="46"/>
+      <c r="G167" s="46"/>
+      <c r="H167" s="46"/>
       <c r="I167" s="47"/>
-      <c r="J167" s="45" t="s">
-        <v>433</v>
-      </c>
-      <c r="K167" s="45"/>
+      <c r="J167" s="47"/>
+      <c r="K167" s="47"/>
       <c r="L167" s="47"/>
-      <c r="M167" s="47"/>
-      <c r="N167" s="47"/>
-      <c r="O167" s="47"/>
-      <c r="P167" s="47"/>
-      <c r="Q167" s="47"/>
-      <c r="R167" s="47"/>
-      <c r="S167" s="47"/>
-      <c r="T167" s="47"/>
+      <c r="M167" s="45"/>
+      <c r="N167" s="45"/>
+      <c r="O167" s="45"/>
+      <c r="P167" s="45"/>
+      <c r="Q167" s="45"/>
+      <c r="R167" s="45"/>
+      <c r="S167" s="45"/>
+      <c r="T167" s="45"/>
       <c r="U167" s="47"/>
-      <c r="V167" s="47"/>
+      <c r="V167" s="45"/>
       <c r="W167" s="47"/>
       <c r="X167" s="47"/>
       <c r="Y167" s="47"/>
@@ -9473,152 +9491,164 @@
       <c r="AI167" s="47"/>
     </row>
     <row r="168" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B168" s="44" t="s">
-        <v>395</v>
-      </c>
-      <c r="C168" s="45" t="s">
-        <v>396</v>
-      </c>
-      <c r="D168" s="47"/>
-      <c r="E168" s="47"/>
-      <c r="F168" s="47"/>
-      <c r="G168" s="47"/>
-      <c r="H168" s="47"/>
-      <c r="I168" s="47"/>
-      <c r="J168" s="45" t="s">
-        <v>433</v>
-      </c>
-      <c r="K168" s="45"/>
-      <c r="L168" s="47"/>
-      <c r="M168" s="47"/>
-      <c r="N168" s="47"/>
-      <c r="O168" s="47"/>
-      <c r="P168" s="47"/>
-      <c r="Q168" s="47"/>
-      <c r="R168" s="47"/>
-      <c r="S168" s="47"/>
-      <c r="T168" s="47"/>
-      <c r="U168" s="47"/>
-      <c r="V168" s="47"/>
-      <c r="W168" s="47"/>
-      <c r="X168" s="47"/>
-      <c r="Y168" s="47"/>
-      <c r="Z168" s="47"/>
-      <c r="AA168" s="47"/>
-      <c r="AB168" s="47"/>
-      <c r="AC168" s="47"/>
-      <c r="AD168" s="47"/>
-      <c r="AE168" s="47"/>
-      <c r="AF168" s="47"/>
-      <c r="AG168" s="47"/>
-      <c r="AH168" s="47"/>
-      <c r="AI168" s="47"/>
+      <c r="A168" s="31"/>
+      <c r="B168" s="31"/>
+      <c r="C168" s="31"/>
+      <c r="E168" s="31"/>
+      <c r="F168" s="31"/>
+      <c r="AE168" s="31"/>
+      <c r="AF168" s="31"/>
+      <c r="AG168" s="31"/>
+      <c r="AH168" s="31"/>
+      <c r="AI168" s="31"/>
     </row>
     <row r="169" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B169" s="44" t="s">
-        <v>397</v>
-      </c>
-      <c r="C169" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="D169" s="47"/>
-      <c r="E169" s="47"/>
-      <c r="F169" s="47"/>
-      <c r="G169" s="47"/>
-      <c r="H169" s="47"/>
-      <c r="I169" s="47"/>
-      <c r="J169" s="45" t="s">
-        <v>433</v>
-      </c>
-      <c r="K169" s="45"/>
-      <c r="L169" s="47"/>
-      <c r="M169" s="47"/>
-      <c r="N169" s="47"/>
-      <c r="O169" s="47"/>
-      <c r="P169" s="47"/>
-      <c r="Q169" s="47"/>
-      <c r="R169" s="47"/>
-      <c r="S169" s="47"/>
-      <c r="T169" s="47"/>
-      <c r="U169" s="47"/>
-      <c r="V169" s="47"/>
-      <c r="W169" s="47"/>
-      <c r="X169" s="47"/>
-      <c r="Y169" s="47"/>
-      <c r="Z169" s="47"/>
-      <c r="AA169" s="47"/>
-      <c r="AB169" s="47"/>
-      <c r="AC169" s="47"/>
-      <c r="AD169" s="47"/>
-      <c r="AE169" s="47"/>
-      <c r="AF169" s="47"/>
-      <c r="AG169" s="47"/>
-      <c r="AH169" s="47"/>
-      <c r="AI169" s="47"/>
+      <c r="A169" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B169" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C169" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D169" s="50"/>
+      <c r="E169" s="50"/>
+      <c r="F169" s="50"/>
+      <c r="G169" s="50"/>
+      <c r="H169" s="50"/>
+      <c r="I169" s="50"/>
+      <c r="J169" s="50"/>
+      <c r="K169" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="L169" s="50"/>
+      <c r="M169" s="50"/>
+      <c r="N169" s="50"/>
+      <c r="O169" s="50"/>
+      <c r="P169" s="50"/>
+      <c r="Q169" s="50"/>
+      <c r="R169" s="50"/>
+      <c r="S169" s="50"/>
+      <c r="T169" s="50"/>
+      <c r="U169" s="50"/>
+      <c r="V169" s="50"/>
+      <c r="W169" s="50"/>
+      <c r="X169" s="50"/>
+      <c r="Y169" s="50"/>
+      <c r="Z169" s="50"/>
+      <c r="AA169" s="50"/>
+      <c r="AB169" s="50"/>
+      <c r="AC169" s="50"/>
+      <c r="AD169" s="50"/>
+      <c r="AE169" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF169" s="50"/>
+      <c r="AG169" s="50"/>
+      <c r="AH169" s="50"/>
+      <c r="AI169" s="50"/>
     </row>
     <row r="170" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B170" s="44"/>
-      <c r="C170" s="45"/>
-      <c r="D170" s="46"/>
-      <c r="E170" s="46"/>
-      <c r="F170" s="46"/>
-      <c r="G170" s="46"/>
-      <c r="H170" s="46"/>
-      <c r="I170" s="47"/>
-      <c r="J170" s="47"/>
-      <c r="K170" s="47"/>
-      <c r="L170" s="47"/>
-      <c r="M170" s="45"/>
-      <c r="N170" s="45"/>
-      <c r="O170" s="45"/>
-      <c r="P170" s="45"/>
-      <c r="Q170" s="45"/>
-      <c r="R170" s="45"/>
-      <c r="S170" s="45"/>
-      <c r="T170" s="45"/>
-      <c r="U170" s="47"/>
-      <c r="V170" s="45"/>
-      <c r="W170" s="47"/>
-      <c r="X170" s="47"/>
-      <c r="Y170" s="47"/>
-      <c r="Z170" s="47"/>
-      <c r="AA170" s="47"/>
-      <c r="AB170" s="47"/>
-      <c r="AC170" s="47"/>
-      <c r="AD170" s="47"/>
-      <c r="AE170" s="47"/>
-      <c r="AF170" s="47"/>
-      <c r="AG170" s="47"/>
-      <c r="AH170" s="47"/>
-      <c r="AI170" s="47"/>
+      <c r="A170" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B170" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="C170" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D170" s="50"/>
+      <c r="E170" s="50"/>
+      <c r="F170" s="50"/>
+      <c r="G170" s="50"/>
+      <c r="H170" s="50"/>
+      <c r="I170" s="50"/>
+      <c r="J170" s="50"/>
+      <c r="K170" s="50"/>
+      <c r="L170" s="50"/>
+      <c r="M170" s="50"/>
+      <c r="N170" s="50"/>
+      <c r="O170" s="50"/>
+      <c r="P170" s="50"/>
+      <c r="Q170" s="50"/>
+      <c r="R170" s="50"/>
+      <c r="S170" s="50"/>
+      <c r="T170" s="50" t="s">
+        <v>448</v>
+      </c>
+      <c r="U170" s="50"/>
+      <c r="V170" s="50"/>
+      <c r="W170" s="50"/>
+      <c r="X170" s="50"/>
+      <c r="Y170" s="50"/>
+      <c r="Z170" s="50"/>
+      <c r="AA170" s="50"/>
+      <c r="AB170" s="50"/>
+      <c r="AC170" s="50"/>
+      <c r="AD170" s="50"/>
+      <c r="AE170" s="50"/>
+      <c r="AF170" s="50"/>
+      <c r="AG170" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH170" s="50"/>
+      <c r="AI170" s="50"/>
     </row>
     <row r="171" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="31"/>
-      <c r="B171" s="31"/>
-      <c r="C171" s="31"/>
-      <c r="E171" s="31"/>
-      <c r="F171" s="31"/>
-      <c r="AE171" s="31"/>
-      <c r="AF171" s="31"/>
-      <c r="AG171" s="31"/>
-      <c r="AH171" s="31"/>
-      <c r="AI171" s="31"/>
+      <c r="A171" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B171" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C171" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D171" s="50"/>
+      <c r="E171" s="50"/>
+      <c r="F171" s="50"/>
+      <c r="G171" s="50"/>
+      <c r="H171" s="50"/>
+      <c r="I171" s="50"/>
+      <c r="J171" s="50"/>
+      <c r="K171" s="50"/>
+      <c r="L171" s="50"/>
+      <c r="M171" s="50"/>
+      <c r="N171" s="50"/>
+      <c r="O171" s="50"/>
+      <c r="P171" s="50"/>
+      <c r="Q171" s="50"/>
+      <c r="R171" s="50"/>
+      <c r="S171" s="50"/>
+      <c r="T171" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="U171" s="50"/>
+      <c r="V171" s="50"/>
+      <c r="W171" s="50"/>
+      <c r="X171" s="50"/>
+      <c r="Y171" s="50"/>
+      <c r="Z171" s="50"/>
+      <c r="AA171" s="50"/>
+      <c r="AB171" s="50"/>
+      <c r="AC171" s="50"/>
+      <c r="AD171" s="50"/>
+      <c r="AE171" s="50"/>
+      <c r="AF171" s="50"/>
+      <c r="AG171" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH171" s="50"/>
+      <c r="AI171" s="50"/>
     </row>
     <row r="172" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B172" s="49" t="s">
-        <v>48</v>
+        <v>78</v>
+      </c>
+      <c r="B172" s="52" t="s">
+        <v>230</v>
       </c>
       <c r="C172" s="50" t="s">
         <v>45</v>
@@ -9630,9 +9660,7 @@
       <c r="H172" s="50"/>
       <c r="I172" s="50"/>
       <c r="J172" s="50"/>
-      <c r="K172" s="51" t="s">
-        <v>50</v>
-      </c>
+      <c r="K172" s="50"/>
       <c r="L172" s="50"/>
       <c r="M172" s="50"/>
       <c r="N172" s="50"/>
@@ -9641,7 +9669,9 @@
       <c r="Q172" s="50"/>
       <c r="R172" s="50"/>
       <c r="S172" s="50"/>
-      <c r="T172" s="50"/>
+      <c r="T172" s="50" t="s">
+        <v>449</v>
+      </c>
       <c r="U172" s="50"/>
       <c r="V172" s="50"/>
       <c r="W172" s="50"/>
@@ -9652,11 +9682,11 @@
       <c r="AB172" s="50"/>
       <c r="AC172" s="50"/>
       <c r="AD172" s="50"/>
-      <c r="AE172" s="51" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE172" s="50"/>
       <c r="AF172" s="50"/>
-      <c r="AG172" s="50"/>
+      <c r="AG172" s="51" t="s">
+        <v>134</v>
+      </c>
       <c r="AH172" s="50"/>
       <c r="AI172" s="50"/>
     </row>
@@ -9665,7 +9695,7 @@
         <v>78</v>
       </c>
       <c r="B173" s="52" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C173" s="50" t="s">
         <v>45</v>
@@ -9687,7 +9717,7 @@
       <c r="R173" s="50"/>
       <c r="S173" s="50"/>
       <c r="T173" s="50" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="U173" s="50"/>
       <c r="V173" s="50"/>
@@ -9702,7 +9732,7 @@
       <c r="AE173" s="50"/>
       <c r="AF173" s="50"/>
       <c r="AG173" s="51" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="AH173" s="50"/>
       <c r="AI173" s="50"/>
@@ -9712,7 +9742,7 @@
         <v>78</v>
       </c>
       <c r="B174" s="52" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C174" s="50" t="s">
         <v>45</v>
@@ -9734,7 +9764,7 @@
       <c r="R174" s="50"/>
       <c r="S174" s="50"/>
       <c r="T174" s="50" t="s">
-        <v>161</v>
+        <v>451</v>
       </c>
       <c r="U174" s="50"/>
       <c r="V174" s="50"/>
@@ -9749,7 +9779,7 @@
       <c r="AE174" s="50"/>
       <c r="AF174" s="50"/>
       <c r="AG174" s="51" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AH174" s="50"/>
       <c r="AI174" s="50"/>
@@ -9759,7 +9789,7 @@
         <v>78</v>
       </c>
       <c r="B175" s="52" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C175" s="50" t="s">
         <v>45</v>
@@ -9781,7 +9811,7 @@
       <c r="R175" s="50"/>
       <c r="S175" s="50"/>
       <c r="T175" s="50" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="U175" s="50"/>
       <c r="V175" s="50"/>
@@ -9796,7 +9826,7 @@
       <c r="AE175" s="50"/>
       <c r="AF175" s="50"/>
       <c r="AG175" s="51" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="AH175" s="50"/>
       <c r="AI175" s="50"/>
@@ -9806,7 +9836,7 @@
         <v>78</v>
       </c>
       <c r="B176" s="52" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C176" s="50" t="s">
         <v>45</v>
@@ -9828,7 +9858,7 @@
       <c r="R176" s="50"/>
       <c r="S176" s="50"/>
       <c r="T176" s="50" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="U176" s="50"/>
       <c r="V176" s="50"/>
@@ -9843,7 +9873,7 @@
       <c r="AE176" s="50"/>
       <c r="AF176" s="50"/>
       <c r="AG176" s="51" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="AH176" s="50"/>
       <c r="AI176" s="50"/>
@@ -9853,7 +9883,7 @@
         <v>78</v>
       </c>
       <c r="B177" s="52" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C177" s="50" t="s">
         <v>45</v>
@@ -9875,7 +9905,7 @@
       <c r="R177" s="50"/>
       <c r="S177" s="50"/>
       <c r="T177" s="50" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="U177" s="50"/>
       <c r="V177" s="50"/>
@@ -9890,7 +9920,7 @@
       <c r="AE177" s="50"/>
       <c r="AF177" s="50"/>
       <c r="AG177" s="51" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="AH177" s="50"/>
       <c r="AI177" s="50"/>
@@ -9900,7 +9930,7 @@
         <v>78</v>
       </c>
       <c r="B178" s="52" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C178" s="50" t="s">
         <v>45</v>
@@ -9922,7 +9952,7 @@
       <c r="R178" s="50"/>
       <c r="S178" s="50"/>
       <c r="T178" s="50" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="U178" s="50"/>
       <c r="V178" s="50"/>
@@ -9937,7 +9967,7 @@
       <c r="AE178" s="50"/>
       <c r="AF178" s="50"/>
       <c r="AG178" s="51" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="AH178" s="50"/>
       <c r="AI178" s="50"/>
@@ -9947,7 +9977,7 @@
         <v>78</v>
       </c>
       <c r="B179" s="52" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C179" s="50" t="s">
         <v>45</v>
@@ -9969,7 +9999,7 @@
       <c r="R179" s="50"/>
       <c r="S179" s="50"/>
       <c r="T179" s="50" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="U179" s="50"/>
       <c r="V179" s="50"/>
@@ -9984,7 +10014,7 @@
       <c r="AE179" s="50"/>
       <c r="AF179" s="50"/>
       <c r="AG179" s="51" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="AH179" s="50"/>
       <c r="AI179" s="50"/>
@@ -9994,7 +10024,7 @@
         <v>78</v>
       </c>
       <c r="B180" s="52" t="s">
-        <v>235</v>
+        <v>170</v>
       </c>
       <c r="C180" s="50" t="s">
         <v>45</v>
@@ -10016,7 +10046,7 @@
       <c r="R180" s="50"/>
       <c r="S180" s="50"/>
       <c r="T180" s="50" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="U180" s="50"/>
       <c r="V180" s="50"/>
@@ -10031,64 +10061,60 @@
       <c r="AE180" s="50"/>
       <c r="AF180" s="50"/>
       <c r="AG180" s="51" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="AH180" s="50"/>
       <c r="AI180" s="50"/>
     </row>
     <row r="181" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B181" s="52" t="s">
-        <v>236</v>
+      <c r="A181" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B181" s="53" t="s">
+        <v>186</v>
       </c>
       <c r="C181" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D181" s="50"/>
-      <c r="E181" s="50"/>
-      <c r="F181" s="50"/>
-      <c r="G181" s="50"/>
-      <c r="H181" s="50"/>
-      <c r="I181" s="50"/>
-      <c r="J181" s="50"/>
-      <c r="K181" s="50"/>
-      <c r="L181" s="50"/>
-      <c r="M181" s="50"/>
-      <c r="N181" s="50"/>
-      <c r="O181" s="50"/>
-      <c r="P181" s="50"/>
-      <c r="Q181" s="50"/>
-      <c r="R181" s="50"/>
-      <c r="S181" s="50"/>
-      <c r="T181" s="50" t="s">
-        <v>455</v>
-      </c>
-      <c r="U181" s="50"/>
-      <c r="V181" s="50"/>
-      <c r="W181" s="50"/>
-      <c r="X181" s="50"/>
-      <c r="Y181" s="50"/>
-      <c r="Z181" s="50"/>
-      <c r="AA181" s="50"/>
-      <c r="AB181" s="50"/>
-      <c r="AC181" s="50"/>
-      <c r="AD181" s="50"/>
-      <c r="AE181" s="50"/>
-      <c r="AF181" s="50"/>
-      <c r="AG181" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="AH181" s="50"/>
-      <c r="AI181" s="50"/>
+      <c r="D181" s="51"/>
+      <c r="E181" s="51"/>
+      <c r="F181" s="51"/>
+      <c r="G181" s="51"/>
+      <c r="H181" s="51"/>
+      <c r="I181" s="51"/>
+      <c r="J181" s="51"/>
+      <c r="K181" s="51"/>
+      <c r="L181" s="51"/>
+      <c r="M181" s="51"/>
+      <c r="N181" s="51"/>
+      <c r="O181" s="51"/>
+      <c r="P181" s="51"/>
+      <c r="Q181" s="51"/>
+      <c r="R181" s="51"/>
+      <c r="S181" s="51"/>
+      <c r="T181" s="51"/>
+      <c r="U181" s="51"/>
+      <c r="V181" s="51"/>
+      <c r="W181" s="51"/>
+      <c r="X181" s="51"/>
+      <c r="Y181" s="51"/>
+      <c r="Z181" s="51"/>
+      <c r="AA181" s="51"/>
+      <c r="AB181" s="51"/>
+      <c r="AC181" s="51"/>
+      <c r="AD181" s="51"/>
+      <c r="AE181" s="51"/>
+      <c r="AF181" s="51"/>
+      <c r="AG181" s="51"/>
+      <c r="AH181" s="51"/>
+      <c r="AI181" s="51"/>
     </row>
     <row r="182" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="49" t="s">
         <v>78</v>
       </c>
       <c r="B182" s="52" t="s">
-        <v>237</v>
+        <v>189</v>
       </c>
       <c r="C182" s="50" t="s">
         <v>45</v>
@@ -10109,8 +10135,8 @@
       <c r="Q182" s="50"/>
       <c r="R182" s="50"/>
       <c r="S182" s="50"/>
-      <c r="T182" s="50" t="s">
-        <v>456</v>
+      <c r="T182" s="51" t="s">
+        <v>190</v>
       </c>
       <c r="U182" s="50"/>
       <c r="V182" s="50"/>
@@ -10125,7 +10151,7 @@
       <c r="AE182" s="50"/>
       <c r="AF182" s="50"/>
       <c r="AG182" s="51" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="AH182" s="50"/>
       <c r="AI182" s="50"/>
@@ -10135,7 +10161,7 @@
         <v>78</v>
       </c>
       <c r="B183" s="52" t="s">
-        <v>170</v>
+        <v>192</v>
       </c>
       <c r="C183" s="50" t="s">
         <v>45</v>
@@ -10156,8 +10182,8 @@
       <c r="Q183" s="50"/>
       <c r="R183" s="50"/>
       <c r="S183" s="50"/>
-      <c r="T183" s="50" t="s">
-        <v>457</v>
+      <c r="T183" s="51" t="s">
+        <v>193</v>
       </c>
       <c r="U183" s="50"/>
       <c r="V183" s="50"/>
@@ -10172,60 +10198,64 @@
       <c r="AE183" s="50"/>
       <c r="AF183" s="50"/>
       <c r="AG183" s="51" t="s">
-        <v>176</v>
+        <v>67</v>
       </c>
       <c r="AH183" s="50"/>
       <c r="AI183" s="50"/>
     </row>
     <row r="184" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B184" s="53" t="s">
-        <v>186</v>
+      <c r="A184" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B184" s="52" t="s">
+        <v>194</v>
       </c>
       <c r="C184" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D184" s="51"/>
-      <c r="E184" s="51"/>
-      <c r="F184" s="51"/>
-      <c r="G184" s="51"/>
-      <c r="H184" s="51"/>
-      <c r="I184" s="51"/>
-      <c r="J184" s="51"/>
-      <c r="K184" s="51"/>
-      <c r="L184" s="51"/>
-      <c r="M184" s="51"/>
-      <c r="N184" s="51"/>
-      <c r="O184" s="51"/>
-      <c r="P184" s="51"/>
-      <c r="Q184" s="51"/>
-      <c r="R184" s="51"/>
-      <c r="S184" s="51"/>
-      <c r="T184" s="51"/>
-      <c r="U184" s="51"/>
-      <c r="V184" s="51"/>
-      <c r="W184" s="51"/>
-      <c r="X184" s="51"/>
-      <c r="Y184" s="51"/>
-      <c r="Z184" s="51"/>
-      <c r="AA184" s="51"/>
-      <c r="AB184" s="51"/>
-      <c r="AC184" s="51"/>
-      <c r="AD184" s="51"/>
-      <c r="AE184" s="51"/>
-      <c r="AF184" s="51"/>
-      <c r="AG184" s="51"/>
-      <c r="AH184" s="51"/>
-      <c r="AI184" s="51"/>
+      <c r="D184" s="50"/>
+      <c r="E184" s="50"/>
+      <c r="F184" s="50"/>
+      <c r="G184" s="50"/>
+      <c r="H184" s="50"/>
+      <c r="I184" s="50"/>
+      <c r="J184" s="50"/>
+      <c r="K184" s="50"/>
+      <c r="L184" s="50"/>
+      <c r="M184" s="50"/>
+      <c r="N184" s="50"/>
+      <c r="O184" s="50"/>
+      <c r="P184" s="50"/>
+      <c r="Q184" s="50"/>
+      <c r="R184" s="50"/>
+      <c r="S184" s="50"/>
+      <c r="T184" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="U184" s="50"/>
+      <c r="V184" s="50"/>
+      <c r="W184" s="50"/>
+      <c r="X184" s="50"/>
+      <c r="Y184" s="50"/>
+      <c r="Z184" s="50"/>
+      <c r="AA184" s="50"/>
+      <c r="AB184" s="50"/>
+      <c r="AC184" s="50"/>
+      <c r="AD184" s="50"/>
+      <c r="AE184" s="50"/>
+      <c r="AF184" s="50"/>
+      <c r="AG184" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH184" s="50"/>
+      <c r="AI184" s="50"/>
     </row>
     <row r="185" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="49" t="s">
         <v>78</v>
       </c>
       <c r="B185" s="52" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="C185" s="50" t="s">
         <v>45</v>
@@ -10247,7 +10277,7 @@
       <c r="R185" s="50"/>
       <c r="S185" s="50"/>
       <c r="T185" s="51" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="U185" s="50"/>
       <c r="V185" s="50"/>
@@ -10262,7 +10292,7 @@
       <c r="AE185" s="50"/>
       <c r="AF185" s="50"/>
       <c r="AG185" s="51" t="s">
-        <v>191</v>
+        <v>52</v>
       </c>
       <c r="AH185" s="50"/>
       <c r="AI185" s="50"/>
@@ -10272,7 +10302,7 @@
         <v>78</v>
       </c>
       <c r="B186" s="52" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C186" s="50" t="s">
         <v>45</v>
@@ -10294,7 +10324,7 @@
       <c r="R186" s="50"/>
       <c r="S186" s="50"/>
       <c r="T186" s="51" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="U186" s="50"/>
       <c r="V186" s="50"/>
@@ -10309,240 +10339,99 @@
       <c r="AE186" s="50"/>
       <c r="AF186" s="50"/>
       <c r="AG186" s="51" t="s">
-        <v>67</v>
+        <v>201</v>
       </c>
       <c r="AH186" s="50"/>
       <c r="AI186" s="50"/>
     </row>
     <row r="187" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B187" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="C187" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D187" s="50"/>
-      <c r="E187" s="50"/>
-      <c r="F187" s="50"/>
-      <c r="G187" s="50"/>
-      <c r="H187" s="50"/>
-      <c r="I187" s="50"/>
-      <c r="J187" s="50"/>
-      <c r="K187" s="50"/>
-      <c r="L187" s="50"/>
-      <c r="M187" s="50"/>
-      <c r="N187" s="50"/>
-      <c r="O187" s="50"/>
-      <c r="P187" s="50"/>
-      <c r="Q187" s="50"/>
-      <c r="R187" s="50"/>
-      <c r="S187" s="50"/>
-      <c r="T187" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="U187" s="50"/>
-      <c r="V187" s="50"/>
-      <c r="W187" s="50"/>
-      <c r="X187" s="50"/>
-      <c r="Y187" s="50"/>
-      <c r="Z187" s="50"/>
-      <c r="AA187" s="50"/>
-      <c r="AB187" s="50"/>
-      <c r="AC187" s="50"/>
-      <c r="AD187" s="50"/>
-      <c r="AE187" s="50"/>
-      <c r="AF187" s="50"/>
-      <c r="AG187" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH187" s="50"/>
-      <c r="AI187" s="50"/>
+      <c r="A187" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B187" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C187" s="51"/>
+      <c r="D187" s="51"/>
+      <c r="E187" s="51"/>
+      <c r="F187" s="51"/>
+      <c r="G187" s="51"/>
+      <c r="H187" s="51"/>
+      <c r="I187" s="51"/>
+      <c r="J187" s="51"/>
+      <c r="K187" s="51"/>
+      <c r="L187" s="51"/>
+      <c r="M187" s="51"/>
+      <c r="N187" s="51"/>
+      <c r="O187" s="51"/>
+      <c r="P187" s="51"/>
+      <c r="Q187" s="51"/>
+      <c r="R187" s="51"/>
+      <c r="S187" s="51"/>
+      <c r="T187" s="51"/>
+      <c r="U187" s="51"/>
+      <c r="V187" s="51"/>
+      <c r="W187" s="51"/>
+      <c r="X187" s="51"/>
+      <c r="Y187" s="51"/>
+      <c r="Z187" s="51"/>
+      <c r="AA187" s="51"/>
+      <c r="AB187" s="51"/>
+      <c r="AC187" s="51"/>
+      <c r="AD187" s="51"/>
+      <c r="AE187" s="51"/>
+      <c r="AF187" s="51"/>
+      <c r="AG187" s="51"/>
+      <c r="AH187" s="51"/>
+      <c r="AI187" s="51"/>
     </row>
     <row r="188" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B188" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C188" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D188" s="50"/>
-      <c r="E188" s="50"/>
-      <c r="F188" s="50"/>
-      <c r="G188" s="50"/>
-      <c r="H188" s="50"/>
-      <c r="I188" s="50"/>
-      <c r="J188" s="50"/>
-      <c r="K188" s="50"/>
-      <c r="L188" s="50"/>
-      <c r="M188" s="50"/>
-      <c r="N188" s="50"/>
-      <c r="O188" s="50"/>
-      <c r="P188" s="50"/>
-      <c r="Q188" s="50"/>
-      <c r="R188" s="50"/>
-      <c r="S188" s="50"/>
-      <c r="T188" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="U188" s="50"/>
-      <c r="V188" s="50"/>
-      <c r="W188" s="50"/>
-      <c r="X188" s="50"/>
-      <c r="Y188" s="50"/>
-      <c r="Z188" s="50"/>
-      <c r="AA188" s="50"/>
-      <c r="AB188" s="50"/>
-      <c r="AC188" s="50"/>
-      <c r="AD188" s="50"/>
-      <c r="AE188" s="50"/>
-      <c r="AF188" s="50"/>
-      <c r="AG188" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH188" s="50"/>
-      <c r="AI188" s="50"/>
-    </row>
-    <row r="189" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B189" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="C189" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D189" s="50"/>
-      <c r="E189" s="50"/>
-      <c r="F189" s="50"/>
-      <c r="G189" s="50"/>
-      <c r="H189" s="50"/>
-      <c r="I189" s="50"/>
-      <c r="J189" s="50"/>
-      <c r="K189" s="50"/>
-      <c r="L189" s="50"/>
-      <c r="M189" s="50"/>
-      <c r="N189" s="50"/>
-      <c r="O189" s="50"/>
-      <c r="P189" s="50"/>
-      <c r="Q189" s="50"/>
-      <c r="R189" s="50"/>
-      <c r="S189" s="50"/>
-      <c r="T189" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="U189" s="50"/>
-      <c r="V189" s="50"/>
-      <c r="W189" s="50"/>
-      <c r="X189" s="50"/>
-      <c r="Y189" s="50"/>
-      <c r="Z189" s="50"/>
-      <c r="AA189" s="50"/>
-      <c r="AB189" s="50"/>
-      <c r="AC189" s="50"/>
-      <c r="AD189" s="50"/>
-      <c r="AE189" s="50"/>
-      <c r="AF189" s="50"/>
-      <c r="AG189" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH189" s="50"/>
-      <c r="AI189" s="50"/>
-    </row>
-    <row r="190" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="53" t="s">
+      <c r="A188" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B190" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="C190" s="51"/>
-      <c r="D190" s="51"/>
-      <c r="E190" s="51"/>
-      <c r="F190" s="51"/>
-      <c r="G190" s="51"/>
-      <c r="H190" s="51"/>
-      <c r="I190" s="51"/>
-      <c r="J190" s="51"/>
-      <c r="K190" s="51"/>
-      <c r="L190" s="51"/>
-      <c r="M190" s="51"/>
-      <c r="N190" s="51"/>
-      <c r="O190" s="51"/>
-      <c r="P190" s="51"/>
-      <c r="Q190" s="51"/>
-      <c r="R190" s="51"/>
-      <c r="S190" s="51"/>
-      <c r="T190" s="51"/>
-      <c r="U190" s="51"/>
-      <c r="V190" s="51"/>
-      <c r="W190" s="51"/>
-      <c r="X190" s="51"/>
-      <c r="Y190" s="51"/>
-      <c r="Z190" s="51"/>
-      <c r="AA190" s="51"/>
-      <c r="AB190" s="51"/>
-      <c r="AC190" s="51"/>
-      <c r="AD190" s="51"/>
-      <c r="AE190" s="51"/>
-      <c r="AF190" s="51"/>
-      <c r="AG190" s="51"/>
-      <c r="AH190" s="51"/>
-      <c r="AI190" s="51"/>
-    </row>
-    <row r="191" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B191" s="53" t="s">
+      <c r="B188" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C191" s="51"/>
-      <c r="D191" s="51"/>
-      <c r="E191" s="51"/>
-      <c r="F191" s="51"/>
-      <c r="G191" s="51"/>
-      <c r="H191" s="51"/>
-      <c r="I191" s="51"/>
-      <c r="J191" s="51"/>
-      <c r="K191" s="51"/>
-      <c r="L191" s="51"/>
-      <c r="M191" s="51"/>
-      <c r="N191" s="51"/>
-      <c r="O191" s="51"/>
-      <c r="P191" s="51"/>
-      <c r="Q191" s="51"/>
-      <c r="R191" s="51"/>
-      <c r="S191" s="51"/>
-      <c r="T191" s="51"/>
-      <c r="U191" s="51"/>
-      <c r="V191" s="51"/>
-      <c r="W191" s="51"/>
-      <c r="X191" s="51"/>
-      <c r="Y191" s="51"/>
-      <c r="Z191" s="51"/>
-      <c r="AA191" s="51"/>
-      <c r="AB191" s="51"/>
-      <c r="AC191" s="51"/>
-      <c r="AD191" s="51"/>
-      <c r="AE191" s="51"/>
-      <c r="AF191" s="51"/>
-      <c r="AG191" s="51"/>
-      <c r="AH191" s="51"/>
-      <c r="AI191" s="51"/>
+      <c r="C188" s="51"/>
+      <c r="D188" s="51"/>
+      <c r="E188" s="51"/>
+      <c r="F188" s="51"/>
+      <c r="G188" s="51"/>
+      <c r="H188" s="51"/>
+      <c r="I188" s="51"/>
+      <c r="J188" s="51"/>
+      <c r="K188" s="51"/>
+      <c r="L188" s="51"/>
+      <c r="M188" s="51"/>
+      <c r="N188" s="51"/>
+      <c r="O188" s="51"/>
+      <c r="P188" s="51"/>
+      <c r="Q188" s="51"/>
+      <c r="R188" s="51"/>
+      <c r="S188" s="51"/>
+      <c r="T188" s="51"/>
+      <c r="U188" s="51"/>
+      <c r="V188" s="51"/>
+      <c r="W188" s="51"/>
+      <c r="X188" s="51"/>
+      <c r="Y188" s="51"/>
+      <c r="Z188" s="51"/>
+      <c r="AA188" s="51"/>
+      <c r="AB188" s="51"/>
+      <c r="AC188" s="51"/>
+      <c r="AD188" s="51"/>
+      <c r="AE188" s="51"/>
+      <c r="AF188" s="51"/>
+      <c r="AG188" s="51"/>
+      <c r="AH188" s="51"/>
+      <c r="AI188" s="51"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="A91:A115 A117:A121 A123:A170 A19:A22">
+    <dataValidation type="list" allowBlank="1" sqref="A88:A112 A114:A118 A120:A167 A19:A22">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:F17 I18 I23:I191 J19:J22">
+    <dataValidation type="list" allowBlank="1" sqref="E2:F17 I18 J19:J22 I23:I188">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11319,7 +11208,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44123.366700347222</v>
+        <v>44123.372071180558</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/hbc_followup.xlsx
+++ b/forms/app/hbc_followup.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="553">
   <si>
     <t>form_title</t>
   </si>
@@ -1585,9 +1585,6 @@
   </si>
   <si>
     <t>../inputs/contact/sex</t>
-  </si>
-  <si>
-    <t>beging group</t>
   </si>
   <si>
     <t>clinical_conditions</t>
@@ -2279,10 +2276,10 @@
   <dimension ref="A1:AJ188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C122" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A188" sqref="A188"/>
+      <selection pane="bottomRight" activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3032,7 +3029,7 @@
     </row>
     <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>240</v>
@@ -3254,7 +3251,7 @@
         <v>207</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -4527,7 +4524,7 @@
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
       <c r="J53" s="35" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="K53" s="35"/>
       <c r="L53" s="35"/>
@@ -4744,7 +4741,7 @@
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
       <c r="J58" s="35" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K58" s="35"/>
       <c r="L58" s="35"/>
@@ -4850,13 +4847,13 @@
     </row>
     <row r="61" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" s="37" t="s">
         <v>514</v>
       </c>
-      <c r="B61" s="37" t="s">
+      <c r="C61" s="35" t="s">
         <v>515</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>516</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -4898,10 +4895,10 @@
         <v>334</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -4941,10 +4938,10 @@
         <v>334</v>
       </c>
       <c r="B63" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="C63" s="35" t="s">
         <v>518</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>519</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
@@ -4984,10 +4981,10 @@
         <v>334</v>
       </c>
       <c r="B64" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="C64" s="35" t="s">
         <v>520</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>521</v>
       </c>
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
@@ -5027,10 +5024,10 @@
         <v>334</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -5070,10 +5067,10 @@
         <v>334</v>
       </c>
       <c r="B66" s="37" t="s">
+        <v>523</v>
+      </c>
+      <c r="C66" s="35" t="s">
         <v>524</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>525</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -5189,10 +5186,10 @@
         <v>42</v>
       </c>
       <c r="B69" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="C69" s="35" t="s">
         <v>526</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>527</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -5235,7 +5232,7 @@
       </c>
       <c r="B70" s="37"/>
       <c r="C70" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -5276,7 +5273,7 @@
       </c>
       <c r="B71" s="37"/>
       <c r="C71" s="35" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -5317,7 +5314,7 @@
       </c>
       <c r="B72" s="37"/>
       <c r="C72" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D72" s="35"/>
       <c r="E72" s="35"/>
@@ -5358,7 +5355,7 @@
       </c>
       <c r="B73" s="37"/>
       <c r="C73" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -5399,7 +5396,7 @@
       </c>
       <c r="B74" s="37"/>
       <c r="C74" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -5408,7 +5405,7 @@
       <c r="H74" s="35"/>
       <c r="I74" s="35"/>
       <c r="J74" s="35" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="K74" s="35"/>
       <c r="L74" s="35"/>
@@ -5517,7 +5514,7 @@
         <v>42</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C77" s="35" t="s">
         <v>45</v>
@@ -5562,10 +5559,10 @@
         <v>110</v>
       </c>
       <c r="B78" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="C78" s="35" t="s">
         <v>538</v>
-      </c>
-      <c r="C78" s="35" t="s">
-        <v>539</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
@@ -5604,13 +5601,13 @@
     </row>
     <row r="79" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="B79" s="37" t="s">
         <v>547</v>
       </c>
-      <c r="B79" s="37" t="s">
+      <c r="C79" s="35" t="s">
         <v>548</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>549</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="35"/>
@@ -5619,7 +5616,7 @@
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
       <c r="J79" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K79" s="35"/>
       <c r="L79" s="35"/>
@@ -5652,10 +5649,10 @@
         <v>286</v>
       </c>
       <c r="B80" s="37" t="s">
+        <v>539</v>
+      </c>
+      <c r="C80" s="35" t="s">
         <v>540</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>541</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="35"/>
@@ -5664,7 +5661,7 @@
       <c r="H80" s="35"/>
       <c r="I80" s="35"/>
       <c r="J80" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K80" s="35"/>
       <c r="L80" s="35"/>
@@ -5694,13 +5691,13 @@
     </row>
     <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="B81" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="C81" s="35" t="s">
         <v>543</v>
-      </c>
-      <c r="B81" s="37" t="s">
-        <v>545</v>
-      </c>
-      <c r="C81" s="35" t="s">
-        <v>544</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="35"/>
@@ -5709,7 +5706,7 @@
       <c r="H81" s="35"/>
       <c r="I81" s="35"/>
       <c r="J81" s="35" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K81" s="35"/>
       <c r="L81" s="35"/>
@@ -5818,7 +5815,7 @@
         <v>42</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C84" s="35" t="s">
         <v>45</v>
@@ -5861,10 +5858,10 @@
         <v>110</v>
       </c>
       <c r="B85" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="C85" s="35" t="s">
         <v>551</v>
-      </c>
-      <c r="C85" s="35" t="s">
-        <v>552</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="35"/>
@@ -10768,7 +10765,7 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>180</v>
@@ -10792,7 +10789,7 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>182</v>
@@ -10816,7 +10813,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>281</v>
@@ -10840,7 +10837,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>282</v>
@@ -11208,7 +11205,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44123.372071180558</v>
+        <v>44123.373788425924</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/hbc_followup.xlsx
+++ b/forms/app/hbc_followup.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="558">
   <si>
     <t>form_title</t>
   </si>
@@ -1702,6 +1702,21 @@
   </si>
   <si>
     <t>select_one patient_outcome</t>
+  </si>
+  <si>
+    <t>ddimer</t>
+  </si>
+  <si>
+    <t>ferritin</t>
+  </si>
+  <si>
+    <t>lc</t>
+  </si>
+  <si>
+    <t>plt_count</t>
+  </si>
+  <si>
+    <t>cd4_count</t>
   </si>
 </sst>
 </file>
@@ -2276,10 +2291,10 @@
   <dimension ref="A1:AJ188"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A61" sqref="A61"/>
+      <selection pane="bottomRight" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5230,7 +5245,9 @@
       <c r="A70" s="37" t="s">
         <v>334</v>
       </c>
-      <c r="B70" s="37"/>
+      <c r="B70" s="37" t="s">
+        <v>553</v>
+      </c>
       <c r="C70" s="35" t="s">
         <v>527</v>
       </c>
@@ -5271,7 +5288,9 @@
       <c r="A71" s="37" t="s">
         <v>334</v>
       </c>
-      <c r="B71" s="37"/>
+      <c r="B71" s="37" t="s">
+        <v>554</v>
+      </c>
       <c r="C71" s="35" t="s">
         <v>528</v>
       </c>
@@ -5312,7 +5331,9 @@
       <c r="A72" s="37" t="s">
         <v>334</v>
       </c>
-      <c r="B72" s="37"/>
+      <c r="B72" s="37" t="s">
+        <v>555</v>
+      </c>
       <c r="C72" s="35" t="s">
         <v>529</v>
       </c>
@@ -5353,7 +5374,9 @@
       <c r="A73" s="37" t="s">
         <v>334</v>
       </c>
-      <c r="B73" s="37"/>
+      <c r="B73" s="37" t="s">
+        <v>556</v>
+      </c>
       <c r="C73" s="35" t="s">
         <v>530</v>
       </c>
@@ -5394,7 +5417,9 @@
       <c r="A74" s="37" t="s">
         <v>334</v>
       </c>
-      <c r="B74" s="37"/>
+      <c r="B74" s="37" t="s">
+        <v>557</v>
+      </c>
       <c r="C74" s="35" t="s">
         <v>531</v>
       </c>
@@ -11205,7 +11230,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44123.373788425924</v>
+        <v>44123.375013888886</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/hbc_followup.xlsx
+++ b/forms/app/hbc_followup.xlsx
@@ -2294,7 +2294,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B74" sqref="B74"/>
+      <selection pane="bottomRight" activeCell="B70" sqref="B70:B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11230,7 +11230,7 @@
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44123.375013888886</v>
+        <v>44123.376075578701</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/hbc_followup.xlsx
+++ b/forms/app/hbc_followup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1441,12 +1441,6 @@
     <t>&lt;h2 style="text-align:center;margin-bottom:0px;"&gt;${patient_name}&lt;/h2&gt;</t>
   </si>
   <si>
-    <t>Home Based Care Registration</t>
-  </si>
-  <si>
-    <t>hbc_registration</t>
-  </si>
-  <si>
     <t>Symptom Assessment</t>
   </si>
   <si>
@@ -1717,6 +1711,12 @@
   </si>
   <si>
     <t>cd4_count</t>
+  </si>
+  <si>
+    <t>Home Based Care Follow Up</t>
+  </si>
+  <si>
+    <t>hbc_follow</t>
   </si>
 </sst>
 </file>
@@ -2290,8 +2290,8 @@
   </sheetPr>
   <dimension ref="A1:AJ188"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C56" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="B70" sqref="B70:B74"/>
@@ -2682,10 +2682,10 @@
         <v>50</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -2959,7 +2959,7 @@
         <v>78</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C17" s="21" t="s">
         <v>45</v>
@@ -2981,7 +2981,7 @@
       <c r="R17" s="21"/>
       <c r="S17" s="22"/>
       <c r="T17" s="21" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="U17" s="22"/>
       <c r="V17" s="22"/>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>240</v>
@@ -3171,10 +3171,10 @@
         <v>42</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
@@ -3266,7 +3266,7 @@
         <v>207</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -3313,7 +3313,7 @@
         <v>118</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
@@ -3360,7 +3360,7 @@
         <v>208</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
@@ -3407,7 +3407,7 @@
         <v>209</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
@@ -3451,10 +3451,10 @@
         <v>110</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
@@ -3498,10 +3498,10 @@
         <v>110</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C30" s="34" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -3827,10 +3827,10 @@
         <v>110</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
@@ -3874,10 +3874,10 @@
         <v>110</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
@@ -4138,10 +4138,10 @@
         <v>42</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -4183,10 +4183,10 @@
         <v>117</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -4226,10 +4226,10 @@
         <v>117</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="C46" s="34" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -4269,10 +4269,10 @@
         <v>110</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -4312,10 +4312,10 @@
         <v>110</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -4355,10 +4355,10 @@
         <v>110</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -4398,10 +4398,10 @@
         <v>110</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
@@ -4441,10 +4441,10 @@
         <v>110</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -4484,10 +4484,10 @@
         <v>110</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -4527,10 +4527,10 @@
         <v>110</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -4539,7 +4539,7 @@
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
       <c r="J53" s="35" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="K53" s="35"/>
       <c r="L53" s="35"/>
@@ -4572,10 +4572,10 @@
         <v>110</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -4615,10 +4615,10 @@
         <v>110</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -4658,10 +4658,10 @@
         <v>110</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
@@ -4701,10 +4701,10 @@
         <v>110</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
@@ -4744,10 +4744,10 @@
         <v>110</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
@@ -4756,7 +4756,7 @@
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
       <c r="J58" s="35" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K58" s="35"/>
       <c r="L58" s="35"/>
@@ -4865,10 +4865,10 @@
         <v>42</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -4910,10 +4910,10 @@
         <v>334</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -4953,10 +4953,10 @@
         <v>334</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
@@ -4996,10 +4996,10 @@
         <v>334</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
@@ -5039,10 +5039,10 @@
         <v>334</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -5082,10 +5082,10 @@
         <v>334</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -5201,10 +5201,10 @@
         <v>42</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -5246,10 +5246,10 @@
         <v>334</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -5289,10 +5289,10 @@
         <v>334</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -5332,10 +5332,10 @@
         <v>334</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D72" s="35"/>
       <c r="E72" s="35"/>
@@ -5375,10 +5375,10 @@
         <v>334</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -5418,10 +5418,10 @@
         <v>334</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -5430,7 +5430,7 @@
       <c r="H74" s="35"/>
       <c r="I74" s="35"/>
       <c r="J74" s="35" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="K74" s="35"/>
       <c r="L74" s="35"/>
@@ -5539,7 +5539,7 @@
         <v>42</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C77" s="35" t="s">
         <v>45</v>
@@ -5584,10 +5584,10 @@
         <v>110</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
@@ -5626,13 +5626,13 @@
     </row>
     <row r="79" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
+        <v>544</v>
+      </c>
+      <c r="B79" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="C79" s="35" t="s">
         <v>546</v>
-      </c>
-      <c r="B79" s="37" t="s">
-        <v>547</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>548</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="35"/>
@@ -5641,7 +5641,7 @@
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
       <c r="J79" s="35" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K79" s="35"/>
       <c r="L79" s="35"/>
@@ -5674,10 +5674,10 @@
         <v>286</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="35"/>
@@ -5686,7 +5686,7 @@
       <c r="H80" s="35"/>
       <c r="I80" s="35"/>
       <c r="J80" s="35" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K80" s="35"/>
       <c r="L80" s="35"/>
@@ -5716,13 +5716,13 @@
     </row>
     <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="B81" s="37" t="s">
         <v>542</v>
       </c>
-      <c r="B81" s="37" t="s">
-        <v>544</v>
-      </c>
       <c r="C81" s="35" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D81" s="35"/>
       <c r="E81" s="35"/>
@@ -5731,7 +5731,7 @@
       <c r="H81" s="35"/>
       <c r="I81" s="35"/>
       <c r="J81" s="35" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="K81" s="35"/>
       <c r="L81" s="35"/>
@@ -5840,7 +5840,7 @@
         <v>42</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C84" s="35" t="s">
         <v>45</v>
@@ -5883,10 +5883,10 @@
         <v>110</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C85" s="35" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="35"/>
@@ -10790,7 +10790,7 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>180</v>
@@ -10814,7 +10814,7 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>182</v>
@@ -10838,7 +10838,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>281</v>
@@ -10862,7 +10862,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>282</v>
@@ -11166,9 +11166,9 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11223,14 +11223,14 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>466</v>
+        <v>556</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>467</v>
+        <v>557</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44123.376075578701</v>
+        <v>44125.801324074077</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/hbc_followup.xlsx
+++ b/forms/app/hbc_followup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="557">
   <si>
     <t>form_title</t>
   </si>
@@ -1576,9 +1576,6 @@
   </si>
   <si>
     <t>Sex</t>
-  </si>
-  <si>
-    <t>../inputs/contact/sex</t>
   </si>
   <si>
     <t>clinical_conditions</t>
@@ -2288,13 +2285,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ188"/>
+  <dimension ref="A1:AJ187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B70" sqref="B70:B74"/>
+      <selection pane="bottomRight" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2955,58 +2952,65 @@
       <c r="AA16" s="22"/>
     </row>
     <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="21" t="s">
-        <v>511</v>
-      </c>
-      <c r="U17" s="22"/>
-      <c r="V17" s="22"/>
-      <c r="W17" s="22"/>
-      <c r="X17" s="22"/>
-      <c r="Y17" s="22"/>
-      <c r="Z17" s="22"/>
-      <c r="AA17" s="22"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
     </row>
     <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
+      <c r="A18" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C18" s="34" t="s">
+        <v>458</v>
+      </c>
+      <c r="D18" s="35"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="35"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="36"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="36"/>
+      <c r="Y18" s="36"/>
+      <c r="Z18" s="36"/>
+      <c r="AA18" s="36"/>
+      <c r="AB18" s="36"/>
+      <c r="AC18" s="36"/>
+      <c r="AD18" s="36"/>
+      <c r="AE18" s="36"/>
+      <c r="AF18" s="36"/>
+      <c r="AG18" s="36"/>
+      <c r="AH18" s="36"/>
+      <c r="AI18" s="36"/>
+      <c r="AJ18" s="36"/>
     </row>
     <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>42</v>
+        <v>549</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C19" s="34" t="s">
-        <v>458</v>
+        <v>241</v>
       </c>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
@@ -3014,7 +3018,9 @@
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
+      <c r="J19" s="36" t="s">
+        <v>57</v>
+      </c>
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
       <c r="M19" s="36"/>
@@ -3044,23 +3050,17 @@
     </row>
     <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="33" t="s">
-        <v>550</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="C20" s="34" t="s">
-        <v>241</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B20" s="33"/>
+      <c r="C20" s="34"/>
       <c r="D20" s="35"/>
       <c r="E20" s="35"/>
       <c r="F20" s="35"/>
       <c r="G20" s="35"/>
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
-      <c r="J20" s="36" t="s">
-        <v>57</v>
-      </c>
+      <c r="J20" s="36"/>
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
       <c r="M20" s="36"/>
@@ -3088,106 +3088,111 @@
       <c r="AI20" s="36"/>
       <c r="AJ20" s="36"/>
     </row>
-    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="36"/>
-      <c r="Y21" s="36"/>
-      <c r="Z21" s="36"/>
-      <c r="AA21" s="36"/>
-      <c r="AB21" s="36"/>
-      <c r="AC21" s="36"/>
-      <c r="AD21" s="36"/>
-      <c r="AE21" s="36"/>
-      <c r="AF21" s="36"/>
-      <c r="AG21" s="36"/>
-      <c r="AH21" s="36"/>
-      <c r="AI21" s="36"/>
-      <c r="AJ21" s="36"/>
-    </row>
-    <row r="22" spans="1:36" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="56"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="57"/>
-      <c r="K22" s="57"/>
-      <c r="L22" s="57"/>
-      <c r="M22" s="57"/>
-      <c r="N22" s="56"/>
-      <c r="O22" s="56"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="56"/>
-      <c r="R22" s="56"/>
-      <c r="S22" s="56"/>
-      <c r="T22" s="56"/>
-      <c r="U22" s="56"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="57"/>
-      <c r="Y22" s="57"/>
-      <c r="Z22" s="57"/>
-      <c r="AA22" s="57"/>
-      <c r="AB22" s="57"/>
-      <c r="AC22" s="57"/>
-      <c r="AD22" s="57"/>
-      <c r="AE22" s="57"/>
-      <c r="AF22" s="57"/>
-      <c r="AG22" s="57"/>
-      <c r="AH22" s="57"/>
-      <c r="AI22" s="57"/>
-      <c r="AJ22" s="57"/>
+    <row r="21" spans="1:36" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="56"/>
+      <c r="B21" s="56"/>
+      <c r="C21" s="56"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="56"/>
+      <c r="O21" s="56"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="56"/>
+      <c r="R21" s="56"/>
+      <c r="S21" s="56"/>
+      <c r="T21" s="56"/>
+      <c r="U21" s="56"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="56"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="57"/>
+      <c r="AA21" s="57"/>
+      <c r="AB21" s="57"/>
+      <c r="AC21" s="57"/>
+      <c r="AD21" s="57"/>
+      <c r="AE21" s="57"/>
+      <c r="AF21" s="57"/>
+      <c r="AG21" s="57"/>
+      <c r="AH21" s="57"/>
+      <c r="AI21" s="57"/>
+      <c r="AJ21" s="57"/>
+    </row>
+    <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>467</v>
+      </c>
+      <c r="C22" s="35" t="s">
+        <v>466</v>
+      </c>
+      <c r="D22" s="35"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L22" s="35"/>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="35"/>
+      <c r="AB22" s="35"/>
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="35"/>
+      <c r="AE22" s="35"/>
+      <c r="AF22" s="35"/>
+      <c r="AG22" s="35"/>
+      <c r="AH22" s="35"/>
+      <c r="AI22" s="35"/>
     </row>
     <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="37" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>467</v>
+        <v>202</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>466</v>
+        <v>203</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="I23" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J23" s="35"/>
+      <c r="K23" s="35"/>
       <c r="L23" s="35"/>
       <c r="M23" s="35"/>
       <c r="N23" s="35"/>
@@ -3215,23 +3220,23 @@
     </row>
     <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="37" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>203</v>
+        <v>532</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
-      <c r="I24" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J24" s="35"/>
+      <c r="I24" s="35"/>
+      <c r="J24" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="K24" s="35"/>
       <c r="L24" s="35"/>
       <c r="M24" s="35"/>
@@ -3252,7 +3257,9 @@
       <c r="AB24" s="35"/>
       <c r="AC24" s="35"/>
       <c r="AD24" s="35"/>
-      <c r="AE24" s="35"/>
+      <c r="AE24" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="AF24" s="35"/>
       <c r="AG24" s="35"/>
       <c r="AH24" s="35"/>
@@ -3260,20 +3267,22 @@
     </row>
     <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="37" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>533</v>
+        <v>469</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
       <c r="F25" s="35"/>
       <c r="G25" s="35"/>
       <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
+      <c r="I25" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="J25" s="35" t="s">
         <v>204</v>
       </c>
@@ -3297,9 +3306,7 @@
       <c r="AB25" s="35"/>
       <c r="AC25" s="35"/>
       <c r="AD25" s="35"/>
-      <c r="AE25" s="35" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE25" s="35"/>
       <c r="AF25" s="35"/>
       <c r="AG25" s="35"/>
       <c r="AH25" s="35"/>
@@ -3310,10 +3317,10 @@
         <v>110</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>118</v>
+        <v>208</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
@@ -3357,10 +3364,10 @@
         <v>110</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="C27" s="35" t="s">
-        <v>468</v>
+        <v>209</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>470</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
@@ -3371,7 +3378,7 @@
         <v>57</v>
       </c>
       <c r="J27" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
@@ -3404,10 +3411,10 @@
         <v>110</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>209</v>
+        <v>476</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
@@ -3451,10 +3458,10 @@
         <v>110</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
@@ -3498,10 +3505,10 @@
         <v>110</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="C30" s="34" t="s">
-        <v>477</v>
+        <v>216</v>
+      </c>
+      <c r="C30" s="35" t="s">
+        <v>210</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -3512,7 +3519,7 @@
         <v>57</v>
       </c>
       <c r="J30" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
@@ -3545,10 +3552,10 @@
         <v>110</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -3559,7 +3566,7 @@
         <v>57</v>
       </c>
       <c r="J31" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K31" s="35"/>
       <c r="L31" s="35"/>
@@ -3592,10 +3599,10 @@
         <v>110</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
@@ -3639,10 +3646,10 @@
         <v>110</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -3653,7 +3660,7 @@
         <v>57</v>
       </c>
       <c r="J33" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K33" s="35"/>
       <c r="L33" s="35"/>
@@ -3686,10 +3693,10 @@
         <v>110</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -3733,10 +3740,10 @@
         <v>110</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
@@ -3747,7 +3754,7 @@
         <v>57</v>
       </c>
       <c r="J35" s="35" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K35" s="35"/>
       <c r="L35" s="35"/>
@@ -3780,10 +3787,10 @@
         <v>110</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>221</v>
+        <v>471</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>215</v>
+        <v>472</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -3827,10 +3834,10 @@
         <v>110</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
@@ -3871,25 +3878,21 @@
     </row>
     <row r="38" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>474</v>
+        <v>225</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>473</v>
+        <v>45</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
-      <c r="I38" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J38" s="35" t="s">
-        <v>206</v>
-      </c>
+      <c r="I38" s="35"/>
+      <c r="J38" s="35"/>
       <c r="K38" s="35"/>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
@@ -3899,7 +3902,9 @@
       <c r="Q38" s="35"/>
       <c r="R38" s="35"/>
       <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
+      <c r="T38" s="34" t="s">
+        <v>228</v>
+      </c>
       <c r="U38" s="35"/>
       <c r="V38" s="35"/>
       <c r="W38" s="35"/>
@@ -3910,7 +3915,9 @@
       <c r="AB38" s="35"/>
       <c r="AC38" s="35"/>
       <c r="AD38" s="35"/>
-      <c r="AE38" s="35"/>
+      <c r="AE38" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="AF38" s="35"/>
       <c r="AG38" s="35"/>
       <c r="AH38" s="35"/>
@@ -3918,13 +3925,13 @@
     </row>
     <row r="39" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
@@ -3932,7 +3939,9 @@
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
       <c r="I39" s="35"/>
-      <c r="J39" s="35"/>
+      <c r="J39" s="35" t="s">
+        <v>226</v>
+      </c>
       <c r="K39" s="35"/>
       <c r="L39" s="35"/>
       <c r="M39" s="35"/>
@@ -3942,9 +3951,7 @@
       <c r="Q39" s="35"/>
       <c r="R39" s="35"/>
       <c r="S39" s="35"/>
-      <c r="T39" s="34" t="s">
-        <v>228</v>
-      </c>
+      <c r="T39" s="35"/>
       <c r="U39" s="35"/>
       <c r="V39" s="35"/>
       <c r="W39" s="35"/>
@@ -3968,10 +3975,10 @@
         <v>117</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
@@ -3980,7 +3987,7 @@
       <c r="H40" s="35"/>
       <c r="I40" s="35"/>
       <c r="J40" s="35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K40" s="35"/>
       <c r="L40" s="35"/>
@@ -4012,23 +4019,17 @@
     </row>
     <row r="41" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>224</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B41" s="37"/>
+      <c r="C41" s="35"/>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
       <c r="I41" s="35"/>
-      <c r="J41" s="35" t="s">
-        <v>227</v>
-      </c>
+      <c r="J41" s="35"/>
       <c r="K41" s="35"/>
       <c r="L41" s="35"/>
       <c r="M41" s="35"/>
@@ -4049,99 +4050,103 @@
       <c r="AB41" s="35"/>
       <c r="AC41" s="35"/>
       <c r="AD41" s="35"/>
-      <c r="AE41" s="35" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE41" s="35"/>
       <c r="AF41" s="35"/>
       <c r="AG41" s="35"/>
       <c r="AH41" s="35"/>
       <c r="AI41" s="35"/>
     </row>
-    <row r="42" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="37"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="35"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="35"/>
-      <c r="Z42" s="35"/>
-      <c r="AA42" s="35"/>
-      <c r="AB42" s="35"/>
-      <c r="AC42" s="35"/>
-      <c r="AD42" s="35"/>
-      <c r="AE42" s="35"/>
-      <c r="AF42" s="35"/>
-      <c r="AG42" s="35"/>
-      <c r="AH42" s="35"/>
-      <c r="AI42" s="35"/>
-    </row>
-    <row r="43" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="54"/>
-      <c r="B43" s="54"/>
-      <c r="C43" s="54"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="54"/>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="54"/>
-      <c r="K43" s="54"/>
-      <c r="L43" s="54"/>
-      <c r="M43" s="54"/>
-      <c r="N43" s="54"/>
-      <c r="O43" s="54"/>
-      <c r="P43" s="54"/>
-      <c r="Q43" s="54"/>
-      <c r="R43" s="54"/>
-      <c r="S43" s="54"/>
-      <c r="T43" s="54"/>
-      <c r="U43" s="54"/>
-      <c r="V43" s="54"/>
-      <c r="W43" s="54"/>
-      <c r="X43" s="54"/>
-      <c r="Y43" s="54"/>
-      <c r="Z43" s="54"/>
-      <c r="AA43" s="54"/>
-      <c r="AB43" s="54"/>
-      <c r="AC43" s="54"/>
-      <c r="AD43" s="54"/>
-      <c r="AE43" s="54"/>
-      <c r="AF43" s="54"/>
-      <c r="AG43" s="54"/>
-      <c r="AH43" s="54"/>
-      <c r="AI43" s="54"/>
+    <row r="42" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="54"/>
+      <c r="B42" s="54"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="54"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="54"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="54"/>
+      <c r="P42" s="54"/>
+      <c r="Q42" s="54"/>
+      <c r="R42" s="54"/>
+      <c r="S42" s="54"/>
+      <c r="T42" s="54"/>
+      <c r="U42" s="54"/>
+      <c r="V42" s="54"/>
+      <c r="W42" s="54"/>
+      <c r="X42" s="54"/>
+      <c r="Y42" s="54"/>
+      <c r="Z42" s="54"/>
+      <c r="AA42" s="54"/>
+      <c r="AB42" s="54"/>
+      <c r="AC42" s="54"/>
+      <c r="AD42" s="54"/>
+      <c r="AE42" s="54"/>
+      <c r="AF42" s="54"/>
+      <c r="AG42" s="54"/>
+      <c r="AH42" s="54"/>
+      <c r="AI42" s="54"/>
+    </row>
+    <row r="43" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>479</v>
+      </c>
+      <c r="C43" s="35" t="s">
+        <v>480</v>
+      </c>
+      <c r="D43" s="35"/>
+      <c r="E43" s="35"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="35"/>
+      <c r="I43" s="35"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L43" s="35"/>
+      <c r="M43" s="35"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="35"/>
+      <c r="P43" s="35"/>
+      <c r="Q43" s="35"/>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+      <c r="Z43" s="35"/>
+      <c r="AA43" s="35"/>
+      <c r="AB43" s="35"/>
+      <c r="AC43" s="35"/>
+      <c r="AD43" s="35"/>
+      <c r="AE43" s="35"/>
+      <c r="AF43" s="35"/>
+      <c r="AG43" s="35"/>
+      <c r="AH43" s="35"/>
+      <c r="AI43" s="35"/>
     </row>
     <row r="44" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="37" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>479</v>
-      </c>
-      <c r="C44" s="35" t="s">
-        <v>480</v>
+        <v>481</v>
+      </c>
+      <c r="C44" s="34" t="s">
+        <v>482</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -4150,9 +4155,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
       <c r="J44" s="35"/>
-      <c r="K44" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K44" s="35"/>
       <c r="L44" s="35"/>
       <c r="M44" s="35"/>
       <c r="N44" s="35"/>
@@ -4183,10 +4186,10 @@
         <v>117</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -4223,13 +4226,13 @@
     </row>
     <row r="46" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>483</v>
-      </c>
-      <c r="C46" s="34" t="s">
-        <v>500</v>
+        <v>492</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>491</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -4269,10 +4272,10 @@
         <v>110</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -4312,10 +4315,10 @@
         <v>110</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -4355,10 +4358,10 @@
         <v>110</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -4398,10 +4401,10 @@
         <v>110</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
@@ -4441,10 +4444,10 @@
         <v>110</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -4484,10 +4487,10 @@
         <v>110</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -4495,7 +4498,9 @@
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
-      <c r="J52" s="35"/>
+      <c r="J52" s="35" t="s">
+        <v>530</v>
+      </c>
       <c r="K52" s="35"/>
       <c r="L52" s="35"/>
       <c r="M52" s="35"/>
@@ -4527,10 +4532,10 @@
         <v>110</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -4538,9 +4543,7 @@
       <c r="G53" s="35"/>
       <c r="H53" s="35"/>
       <c r="I53" s="35"/>
-      <c r="J53" s="35" t="s">
-        <v>531</v>
-      </c>
+      <c r="J53" s="35"/>
       <c r="K53" s="35"/>
       <c r="L53" s="35"/>
       <c r="M53" s="35"/>
@@ -4572,10 +4575,10 @@
         <v>110</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -4615,10 +4618,10 @@
         <v>110</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>502</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>501</v>
+        <v>503</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>504</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -4658,10 +4661,10 @@
         <v>110</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>503</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>504</v>
+        <v>506</v>
+      </c>
+      <c r="C56" s="35" t="s">
+        <v>505</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
@@ -4701,10 +4704,10 @@
         <v>110</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>506</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>505</v>
+        <v>507</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>508</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
@@ -4712,7 +4715,9 @@
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
-      <c r="J57" s="35"/>
+      <c r="J57" s="35" t="s">
+        <v>529</v>
+      </c>
       <c r="K57" s="35"/>
       <c r="L57" s="35"/>
       <c r="M57" s="35"/>
@@ -4741,23 +4746,17 @@
     </row>
     <row r="58" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B58" s="37" t="s">
-        <v>507</v>
-      </c>
-      <c r="C58" s="34" t="s">
-        <v>508</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B58" s="37"/>
+      <c r="C58" s="35"/>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
       <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
-      <c r="J58" s="35" t="s">
-        <v>530</v>
-      </c>
+      <c r="J58" s="35"/>
       <c r="K58" s="35"/>
       <c r="L58" s="35"/>
       <c r="M58" s="35"/>
@@ -4784,88 +4783,94 @@
       <c r="AH58" s="35"/>
       <c r="AI58" s="35"/>
     </row>
-    <row r="59" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B59" s="37"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
-      <c r="E59" s="35"/>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
-      <c r="H59" s="35"/>
-      <c r="I59" s="35"/>
-      <c r="J59" s="35"/>
-      <c r="K59" s="35"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="35"/>
-      <c r="N59" s="35"/>
-      <c r="O59" s="35"/>
-      <c r="P59" s="35"/>
-      <c r="Q59" s="35"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35"/>
-      <c r="Z59" s="35"/>
-      <c r="AA59" s="35"/>
-      <c r="AB59" s="35"/>
-      <c r="AC59" s="35"/>
-      <c r="AD59" s="35"/>
-      <c r="AE59" s="35"/>
-      <c r="AF59" s="35"/>
-      <c r="AG59" s="35"/>
-      <c r="AH59" s="35"/>
-      <c r="AI59" s="35"/>
-    </row>
-    <row r="60" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="54"/>
-      <c r="B60" s="54"/>
-      <c r="C60" s="54"/>
-      <c r="D60" s="54"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="54"/>
-      <c r="O60" s="54"/>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="54"/>
-      <c r="R60" s="54"/>
-      <c r="S60" s="54"/>
-      <c r="T60" s="54"/>
-      <c r="U60" s="54"/>
-      <c r="V60" s="54"/>
-      <c r="W60" s="54"/>
-      <c r="X60" s="54"/>
-      <c r="Y60" s="54"/>
-      <c r="Z60" s="54"/>
-      <c r="AA60" s="54"/>
-      <c r="AB60" s="54"/>
-      <c r="AC60" s="54"/>
-      <c r="AD60" s="54"/>
-      <c r="AE60" s="54"/>
-      <c r="AF60" s="54"/>
-      <c r="AG60" s="54"/>
-      <c r="AH60" s="54"/>
-      <c r="AI60" s="54"/>
+    <row r="59" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="54"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="54"/>
+      <c r="H59" s="54"/>
+      <c r="I59" s="54"/>
+      <c r="J59" s="54"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="54"/>
+      <c r="N59" s="54"/>
+      <c r="O59" s="54"/>
+      <c r="P59" s="54"/>
+      <c r="Q59" s="54"/>
+      <c r="R59" s="54"/>
+      <c r="S59" s="54"/>
+      <c r="T59" s="54"/>
+      <c r="U59" s="54"/>
+      <c r="V59" s="54"/>
+      <c r="W59" s="54"/>
+      <c r="X59" s="54"/>
+      <c r="Y59" s="54"/>
+      <c r="Z59" s="54"/>
+      <c r="AA59" s="54"/>
+      <c r="AB59" s="54"/>
+      <c r="AC59" s="54"/>
+      <c r="AD59" s="54"/>
+      <c r="AE59" s="54"/>
+      <c r="AF59" s="54"/>
+      <c r="AG59" s="54"/>
+      <c r="AH59" s="54"/>
+      <c r="AI59" s="54"/>
+    </row>
+    <row r="60" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="37" t="s">
+        <v>511</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>512</v>
+      </c>
+      <c r="D60" s="35"/>
+      <c r="E60" s="35"/>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" s="35"/>
+      <c r="K60" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L60" s="35"/>
+      <c r="M60" s="35"/>
+      <c r="N60" s="35"/>
+      <c r="O60" s="35"/>
+      <c r="P60" s="35"/>
+      <c r="Q60" s="35"/>
+      <c r="R60" s="35"/>
+      <c r="S60" s="35"/>
+      <c r="T60" s="35"/>
+      <c r="U60" s="35"/>
+      <c r="V60" s="35"/>
+      <c r="W60" s="35"/>
+      <c r="X60" s="35"/>
+      <c r="Y60" s="35"/>
+      <c r="Z60" s="35"/>
+      <c r="AA60" s="35"/>
+      <c r="AB60" s="35"/>
+      <c r="AC60" s="35"/>
+      <c r="AD60" s="35"/>
+      <c r="AE60" s="35"/>
+      <c r="AF60" s="35"/>
+      <c r="AG60" s="35"/>
+      <c r="AH60" s="35"/>
+      <c r="AI60" s="35"/>
     </row>
     <row r="61" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="37" t="s">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C61" s="35" t="s">
         <v>513</v>
@@ -4877,9 +4882,7 @@
       <c r="H61" s="35"/>
       <c r="I61" s="35"/>
       <c r="J61" s="35"/>
-      <c r="K61" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K61" s="35"/>
       <c r="L61" s="35"/>
       <c r="M61" s="35"/>
       <c r="N61" s="35"/>
@@ -4913,7 +4916,7 @@
         <v>514</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -4953,10 +4956,10 @@
         <v>334</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
@@ -4996,7 +4999,7 @@
         <v>334</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C64" s="35" t="s">
         <v>518</v>
@@ -5042,7 +5045,7 @@
         <v>520</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -5079,14 +5082,10 @@
     </row>
     <row r="66" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="B66" s="37" t="s">
-        <v>521</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>522</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B66" s="37"/>
+      <c r="C66" s="35"/>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
       <c r="F66" s="35"/>
@@ -5120,88 +5119,94 @@
       <c r="AH66" s="35"/>
       <c r="AI66" s="35"/>
     </row>
-    <row r="67" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="37"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
-      <c r="J67" s="35"/>
-      <c r="K67" s="35"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="35"/>
-      <c r="N67" s="35"/>
-      <c r="O67" s="35"/>
-      <c r="P67" s="35"/>
-      <c r="Q67" s="35"/>
-      <c r="R67" s="35"/>
-      <c r="S67" s="35"/>
-      <c r="T67" s="35"/>
-      <c r="U67" s="35"/>
-      <c r="V67" s="35"/>
-      <c r="W67" s="35"/>
-      <c r="X67" s="35"/>
-      <c r="Y67" s="35"/>
-      <c r="Z67" s="35"/>
-      <c r="AA67" s="35"/>
-      <c r="AB67" s="35"/>
-      <c r="AC67" s="35"/>
-      <c r="AD67" s="35"/>
-      <c r="AE67" s="35"/>
-      <c r="AF67" s="35"/>
-      <c r="AG67" s="35"/>
-      <c r="AH67" s="35"/>
-      <c r="AI67" s="35"/>
-    </row>
-    <row r="68" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="54"/>
-      <c r="B68" s="54"/>
-      <c r="C68" s="54"/>
-      <c r="D68" s="54"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="54"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="54"/>
-      <c r="T68" s="54"/>
-      <c r="U68" s="54"/>
-      <c r="V68" s="54"/>
-      <c r="W68" s="54"/>
-      <c r="X68" s="54"/>
-      <c r="Y68" s="54"/>
-      <c r="Z68" s="54"/>
-      <c r="AA68" s="54"/>
-      <c r="AB68" s="54"/>
-      <c r="AC68" s="54"/>
-      <c r="AD68" s="54"/>
-      <c r="AE68" s="54"/>
-      <c r="AF68" s="54"/>
-      <c r="AG68" s="54"/>
-      <c r="AH68" s="54"/>
-      <c r="AI68" s="54"/>
+    <row r="67" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="54"/>
+      <c r="B67" s="54"/>
+      <c r="C67" s="54"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="54"/>
+      <c r="P67" s="54"/>
+      <c r="Q67" s="54"/>
+      <c r="R67" s="54"/>
+      <c r="S67" s="54"/>
+      <c r="T67" s="54"/>
+      <c r="U67" s="54"/>
+      <c r="V67" s="54"/>
+      <c r="W67" s="54"/>
+      <c r="X67" s="54"/>
+      <c r="Y67" s="54"/>
+      <c r="Z67" s="54"/>
+      <c r="AA67" s="54"/>
+      <c r="AB67" s="54"/>
+      <c r="AC67" s="54"/>
+      <c r="AD67" s="54"/>
+      <c r="AE67" s="54"/>
+      <c r="AF67" s="54"/>
+      <c r="AG67" s="54"/>
+      <c r="AH67" s="54"/>
+      <c r="AI67" s="54"/>
+    </row>
+    <row r="68" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B68" s="37" t="s">
+        <v>522</v>
+      </c>
+      <c r="C68" s="35" t="s">
+        <v>523</v>
+      </c>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L68" s="35"/>
+      <c r="M68" s="35"/>
+      <c r="N68" s="35"/>
+      <c r="O68" s="35"/>
+      <c r="P68" s="35"/>
+      <c r="Q68" s="35"/>
+      <c r="R68" s="35"/>
+      <c r="S68" s="35"/>
+      <c r="T68" s="35"/>
+      <c r="U68" s="35"/>
+      <c r="V68" s="35"/>
+      <c r="W68" s="35"/>
+      <c r="X68" s="35"/>
+      <c r="Y68" s="35"/>
+      <c r="Z68" s="35"/>
+      <c r="AA68" s="35"/>
+      <c r="AB68" s="35"/>
+      <c r="AC68" s="35"/>
+      <c r="AD68" s="35"/>
+      <c r="AE68" s="35"/>
+      <c r="AF68" s="35"/>
+      <c r="AG68" s="35"/>
+      <c r="AH68" s="35"/>
+      <c r="AI68" s="35"/>
     </row>
     <row r="69" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="37" t="s">
-        <v>42</v>
+        <v>334</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>523</v>
+        <v>550</v>
       </c>
       <c r="C69" s="35" t="s">
         <v>524</v>
@@ -5213,9 +5218,7 @@
       <c r="H69" s="35"/>
       <c r="I69" s="35"/>
       <c r="J69" s="35"/>
-      <c r="K69" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K69" s="35"/>
       <c r="L69" s="35"/>
       <c r="M69" s="35"/>
       <c r="N69" s="35"/>
@@ -5386,7 +5389,9 @@
       <c r="G73" s="35"/>
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
-      <c r="J73" s="35"/>
+      <c r="J73" s="35" t="s">
+        <v>531</v>
+      </c>
       <c r="K73" s="35"/>
       <c r="L73" s="35"/>
       <c r="M73" s="35"/>
@@ -5415,23 +5420,17 @@
     </row>
     <row r="74" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="B74" s="37" t="s">
-        <v>555</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>529</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B74" s="37"/>
+      <c r="C74" s="35"/>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
       <c r="F74" s="35"/>
       <c r="G74" s="35"/>
       <c r="H74" s="35"/>
       <c r="I74" s="35"/>
-      <c r="J74" s="35" t="s">
-        <v>532</v>
-      </c>
+      <c r="J74" s="35"/>
       <c r="K74" s="35"/>
       <c r="L74" s="35"/>
       <c r="M74" s="35"/>
@@ -5458,102 +5457,108 @@
       <c r="AH74" s="35"/>
       <c r="AI74" s="35"/>
     </row>
-    <row r="75" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B75" s="37"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="35"/>
-      <c r="N75" s="35"/>
-      <c r="O75" s="35"/>
-      <c r="P75" s="35"/>
-      <c r="Q75" s="35"/>
-      <c r="R75" s="35"/>
-      <c r="S75" s="35"/>
-      <c r="T75" s="35"/>
-      <c r="U75" s="35"/>
-      <c r="V75" s="35"/>
-      <c r="W75" s="35"/>
-      <c r="X75" s="35"/>
-      <c r="Y75" s="35"/>
-      <c r="Z75" s="35"/>
-      <c r="AA75" s="35"/>
-      <c r="AB75" s="35"/>
-      <c r="AC75" s="35"/>
-      <c r="AD75" s="35"/>
-      <c r="AE75" s="35"/>
-      <c r="AF75" s="35"/>
-      <c r="AG75" s="35"/>
-      <c r="AH75" s="35"/>
-      <c r="AI75" s="35"/>
-    </row>
-    <row r="76" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="54"/>
-      <c r="B76" s="54"/>
-      <c r="C76" s="54"/>
-      <c r="D76" s="54"/>
-      <c r="E76" s="54"/>
-      <c r="F76" s="54"/>
-      <c r="G76" s="54"/>
-      <c r="H76" s="54"/>
-      <c r="I76" s="54"/>
-      <c r="J76" s="54"/>
-      <c r="K76" s="54"/>
-      <c r="L76" s="54"/>
-      <c r="M76" s="54"/>
-      <c r="N76" s="54"/>
-      <c r="O76" s="54"/>
-      <c r="P76" s="54"/>
-      <c r="Q76" s="54"/>
-      <c r="R76" s="54"/>
-      <c r="S76" s="54"/>
-      <c r="T76" s="54"/>
-      <c r="U76" s="54"/>
-      <c r="V76" s="54"/>
-      <c r="W76" s="54"/>
-      <c r="X76" s="54"/>
-      <c r="Y76" s="54"/>
-      <c r="Z76" s="54"/>
-      <c r="AA76" s="54"/>
-      <c r="AB76" s="54"/>
-      <c r="AC76" s="54"/>
-      <c r="AD76" s="54"/>
-      <c r="AE76" s="54"/>
-      <c r="AF76" s="54"/>
-      <c r="AG76" s="54"/>
-      <c r="AH76" s="54"/>
-      <c r="AI76" s="54"/>
+    <row r="75" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="54"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="54"/>
+      <c r="D75" s="54"/>
+      <c r="E75" s="54"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
+      <c r="H75" s="54"/>
+      <c r="I75" s="54"/>
+      <c r="J75" s="54"/>
+      <c r="K75" s="54"/>
+      <c r="L75" s="54"/>
+      <c r="M75" s="54"/>
+      <c r="N75" s="54"/>
+      <c r="O75" s="54"/>
+      <c r="P75" s="54"/>
+      <c r="Q75" s="54"/>
+      <c r="R75" s="54"/>
+      <c r="S75" s="54"/>
+      <c r="T75" s="54"/>
+      <c r="U75" s="54"/>
+      <c r="V75" s="54"/>
+      <c r="W75" s="54"/>
+      <c r="X75" s="54"/>
+      <c r="Y75" s="54"/>
+      <c r="Z75" s="54"/>
+      <c r="AA75" s="54"/>
+      <c r="AB75" s="54"/>
+      <c r="AC75" s="54"/>
+      <c r="AD75" s="54"/>
+      <c r="AE75" s="54"/>
+      <c r="AF75" s="54"/>
+      <c r="AG75" s="54"/>
+      <c r="AH75" s="54"/>
+      <c r="AI75" s="54"/>
+    </row>
+    <row r="76" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="35"/>
+      <c r="I76" s="35"/>
+      <c r="J76" s="35"/>
+      <c r="K76" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L76" s="35"/>
+      <c r="M76" s="35"/>
+      <c r="N76" s="35"/>
+      <c r="O76" s="35"/>
+      <c r="P76" s="35"/>
+      <c r="Q76" s="35"/>
+      <c r="R76" s="35"/>
+      <c r="S76" s="35"/>
+      <c r="T76" s="35"/>
+      <c r="U76" s="35"/>
+      <c r="V76" s="35"/>
+      <c r="W76" s="35"/>
+      <c r="X76" s="35"/>
+      <c r="Y76" s="35"/>
+      <c r="Z76" s="35"/>
+      <c r="AA76" s="35"/>
+      <c r="AB76" s="35"/>
+      <c r="AC76" s="35"/>
+      <c r="AD76" s="35"/>
+      <c r="AE76" s="35"/>
+      <c r="AF76" s="35"/>
+      <c r="AG76" s="35"/>
+      <c r="AH76" s="35"/>
+      <c r="AI76" s="35"/>
     </row>
     <row r="77" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="37" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B77" s="37" t="s">
         <v>534</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>45</v>
+        <v>535</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
+      <c r="I77" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="J77" s="35"/>
-      <c r="K77" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K77" s="35"/>
       <c r="L77" s="35"/>
       <c r="M77" s="35"/>
       <c r="N77" s="35"/>
@@ -5581,23 +5586,23 @@
     </row>
     <row r="78" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="37" t="s">
-        <v>110</v>
+        <v>543</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>536</v>
+        <v>545</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
       <c r="F78" s="35"/>
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
-      <c r="I78" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35" t="s">
+        <v>538</v>
+      </c>
       <c r="K78" s="35"/>
       <c r="L78" s="35"/>
       <c r="M78" s="35"/>
@@ -5626,13 +5631,13 @@
     </row>
     <row r="79" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
-        <v>544</v>
+        <v>286</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="C79" s="35" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="35"/>
@@ -5641,7 +5646,7 @@
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
       <c r="J79" s="35" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K79" s="35"/>
       <c r="L79" s="35"/>
@@ -5671,13 +5676,13 @@
     </row>
     <row r="80" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="37" t="s">
-        <v>286</v>
+        <v>539</v>
       </c>
       <c r="B80" s="37" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="C80" s="35" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="35"/>
@@ -5686,7 +5691,7 @@
       <c r="H80" s="35"/>
       <c r="I80" s="35"/>
       <c r="J80" s="35" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="K80" s="35"/>
       <c r="L80" s="35"/>
@@ -5716,23 +5721,17 @@
     </row>
     <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="37" t="s">
-        <v>540</v>
-      </c>
-      <c r="B81" s="37" t="s">
-        <v>542</v>
-      </c>
-      <c r="C81" s="35" t="s">
-        <v>541</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B81" s="37"/>
+      <c r="C81" s="35"/>
       <c r="D81" s="35"/>
       <c r="E81" s="35"/>
       <c r="F81" s="35"/>
       <c r="G81" s="35"/>
       <c r="H81" s="35"/>
       <c r="I81" s="35"/>
-      <c r="J81" s="35" t="s">
-        <v>539</v>
-      </c>
+      <c r="J81" s="35"/>
       <c r="K81" s="35"/>
       <c r="L81" s="35"/>
       <c r="M81" s="35"/>
@@ -5759,91 +5758,95 @@
       <c r="AH81" s="35"/>
       <c r="AI81" s="35"/>
     </row>
-    <row r="82" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B82" s="37"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
-      <c r="J82" s="35"/>
-      <c r="K82" s="35"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="35"/>
-      <c r="N82" s="35"/>
-      <c r="O82" s="35"/>
-      <c r="P82" s="35"/>
-      <c r="Q82" s="35"/>
-      <c r="R82" s="35"/>
-      <c r="S82" s="35"/>
-      <c r="T82" s="35"/>
-      <c r="U82" s="35"/>
-      <c r="V82" s="35"/>
-      <c r="W82" s="35"/>
-      <c r="X82" s="35"/>
-      <c r="Y82" s="35"/>
-      <c r="Z82" s="35"/>
-      <c r="AA82" s="35"/>
-      <c r="AB82" s="35"/>
-      <c r="AC82" s="35"/>
-      <c r="AD82" s="35"/>
-      <c r="AE82" s="35"/>
-      <c r="AF82" s="35"/>
-      <c r="AG82" s="35"/>
-      <c r="AH82" s="35"/>
-      <c r="AI82" s="35"/>
-    </row>
-    <row r="83" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="54"/>
-      <c r="B83" s="54"/>
-      <c r="C83" s="54"/>
-      <c r="D83" s="54"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="54"/>
-      <c r="G83" s="54"/>
-      <c r="H83" s="54"/>
-      <c r="I83" s="54"/>
-      <c r="J83" s="54"/>
-      <c r="K83" s="54"/>
-      <c r="L83" s="54"/>
-      <c r="M83" s="54"/>
-      <c r="N83" s="54"/>
-      <c r="O83" s="54"/>
-      <c r="P83" s="54"/>
-      <c r="Q83" s="54"/>
-      <c r="R83" s="54"/>
-      <c r="S83" s="54"/>
-      <c r="T83" s="54"/>
-      <c r="U83" s="54"/>
-      <c r="V83" s="54"/>
-      <c r="W83" s="54"/>
-      <c r="X83" s="54"/>
-      <c r="Y83" s="54"/>
-      <c r="Z83" s="54"/>
-      <c r="AA83" s="54"/>
-      <c r="AB83" s="54"/>
-      <c r="AC83" s="54"/>
-      <c r="AD83" s="54"/>
-      <c r="AE83" s="54"/>
-      <c r="AF83" s="54"/>
-      <c r="AG83" s="54"/>
-      <c r="AH83" s="54"/>
-      <c r="AI83" s="54"/>
+    <row r="82" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="54"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="54"/>
+      <c r="D82" s="54"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="54"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="54"/>
+      <c r="K82" s="54"/>
+      <c r="L82" s="54"/>
+      <c r="M82" s="54"/>
+      <c r="N82" s="54"/>
+      <c r="O82" s="54"/>
+      <c r="P82" s="54"/>
+      <c r="Q82" s="54"/>
+      <c r="R82" s="54"/>
+      <c r="S82" s="54"/>
+      <c r="T82" s="54"/>
+      <c r="U82" s="54"/>
+      <c r="V82" s="54"/>
+      <c r="W82" s="54"/>
+      <c r="X82" s="54"/>
+      <c r="Y82" s="54"/>
+      <c r="Z82" s="54"/>
+      <c r="AA82" s="54"/>
+      <c r="AB82" s="54"/>
+      <c r="AC82" s="54"/>
+      <c r="AD82" s="54"/>
+      <c r="AE82" s="54"/>
+      <c r="AF82" s="54"/>
+      <c r="AG82" s="54"/>
+      <c r="AH82" s="54"/>
+      <c r="AI82" s="54"/>
+    </row>
+    <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B83" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="C83" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="35"/>
+      <c r="O83" s="35"/>
+      <c r="P83" s="35"/>
+      <c r="Q83" s="35"/>
+      <c r="R83" s="35"/>
+      <c r="S83" s="35"/>
+      <c r="T83" s="35"/>
+      <c r="U83" s="35"/>
+      <c r="V83" s="35"/>
+      <c r="W83" s="35"/>
+      <c r="X83" s="35"/>
+      <c r="Y83" s="35"/>
+      <c r="Z83" s="35"/>
+      <c r="AA83" s="35"/>
+      <c r="AB83" s="35"/>
+      <c r="AC83" s="35"/>
+      <c r="AD83" s="35"/>
+      <c r="AE83" s="35"/>
+      <c r="AF83" s="35"/>
+      <c r="AG83" s="35"/>
+      <c r="AH83" s="35"/>
+      <c r="AI83" s="35"/>
     </row>
     <row r="84" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B84" s="37" t="s">
         <v>547</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>45</v>
+        <v>548</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
@@ -5880,14 +5883,10 @@
     </row>
     <row r="85" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B85" s="37" t="s">
-        <v>548</v>
-      </c>
-      <c r="C85" s="35" t="s">
-        <v>549</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B85" s="37"/>
+      <c r="C85" s="35"/>
       <c r="D85" s="35"/>
       <c r="E85" s="35"/>
       <c r="F85" s="35"/>
@@ -5922,80 +5921,90 @@
       <c r="AI85" s="35"/>
     </row>
     <row r="86" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B86" s="37"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="35"/>
-      <c r="N86" s="35"/>
-      <c r="O86" s="35"/>
-      <c r="P86" s="35"/>
-      <c r="Q86" s="35"/>
-      <c r="R86" s="35"/>
-      <c r="S86" s="35"/>
-      <c r="T86" s="35"/>
-      <c r="U86" s="35"/>
-      <c r="V86" s="35"/>
-      <c r="W86" s="35"/>
-      <c r="X86" s="35"/>
-      <c r="Y86" s="35"/>
-      <c r="Z86" s="35"/>
-      <c r="AA86" s="35"/>
-      <c r="AB86" s="35"/>
-      <c r="AC86" s="35"/>
-      <c r="AD86" s="35"/>
-      <c r="AE86" s="35"/>
-      <c r="AF86" s="35"/>
-      <c r="AG86" s="35"/>
-      <c r="AH86" s="35"/>
-      <c r="AI86" s="35"/>
+      <c r="A86" s="31"/>
+      <c r="B86" s="31"/>
+      <c r="C86" s="31"/>
+      <c r="E86" s="31"/>
+      <c r="F86" s="31"/>
+      <c r="AE86" s="31"/>
+      <c r="AF86" s="31"/>
+      <c r="AG86" s="31"/>
+      <c r="AH86" s="31"/>
+      <c r="AI86" s="31"/>
     </row>
     <row r="87" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="31"/>
-      <c r="B87" s="31"/>
-      <c r="C87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="AE87" s="31"/>
-      <c r="AF87" s="31"/>
-      <c r="AG87" s="31"/>
-      <c r="AH87" s="31"/>
-      <c r="AI87" s="31"/>
+      <c r="A87" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C87" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="36"/>
+      <c r="J87" s="36" t="s">
+        <v>327</v>
+      </c>
+      <c r="K87" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L87" s="34"/>
+      <c r="M87" s="34"/>
+      <c r="N87" s="34"/>
+      <c r="O87" s="34"/>
+      <c r="P87" s="34"/>
+      <c r="Q87" s="34"/>
+      <c r="R87" s="34"/>
+      <c r="S87" s="34"/>
+      <c r="T87" s="34"/>
+      <c r="U87" s="36"/>
+      <c r="V87" s="34"/>
+      <c r="W87" s="36"/>
+      <c r="X87" s="36"/>
+      <c r="Y87" s="36"/>
+      <c r="Z87" s="36"/>
+      <c r="AA87" s="36"/>
+      <c r="AB87" s="36"/>
+      <c r="AC87" s="36"/>
+      <c r="AD87" s="36"/>
+      <c r="AE87" s="36"/>
+      <c r="AF87" s="36"/>
+      <c r="AG87" s="36"/>
+      <c r="AH87" s="36"/>
+      <c r="AI87" s="36"/>
     </row>
     <row r="88" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="33" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="B88" s="33" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C88" s="34" t="s">
-        <v>333</v>
+        <v>287</v>
       </c>
       <c r="D88" s="35"/>
       <c r="E88" s="35"/>
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
-      <c r="I88" s="36"/>
-      <c r="J88" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="K88" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L88" s="34"/>
-      <c r="M88" s="34"/>
+      <c r="I88" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
+      <c r="L88" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="M88" s="34" t="s">
+        <v>289</v>
+      </c>
       <c r="N88" s="34"/>
       <c r="O88" s="34"/>
       <c r="P88" s="34"/>
@@ -6021,13 +6030,13 @@
     </row>
     <row r="89" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B89" s="33" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C89" s="34" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="D89" s="35"/>
       <c r="E89" s="35"/>
@@ -6039,12 +6048,8 @@
       </c>
       <c r="J89" s="36"/>
       <c r="K89" s="36"/>
-      <c r="L89" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="M89" s="34" t="s">
-        <v>289</v>
-      </c>
+      <c r="L89" s="36"/>
+      <c r="M89" s="34"/>
       <c r="N89" s="34"/>
       <c r="O89" s="34"/>
       <c r="P89" s="34"/>
@@ -6070,13 +6075,13 @@
     </row>
     <row r="90" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="33" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B90" s="33" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C90" s="34" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D90" s="35"/>
       <c r="E90" s="35"/>
@@ -6084,12 +6089,16 @@
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
       <c r="I90" s="36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J90" s="36"/>
       <c r="K90" s="36"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="34"/>
+      <c r="L90" s="36" t="s">
+        <v>294</v>
+      </c>
+      <c r="M90" s="34" t="s">
+        <v>295</v>
+      </c>
       <c r="N90" s="34"/>
       <c r="O90" s="34"/>
       <c r="P90" s="34"/>
@@ -6115,30 +6124,26 @@
     </row>
     <row r="91" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="33" t="s">
-        <v>292</v>
+        <v>117</v>
       </c>
       <c r="B91" s="33" t="s">
-        <v>326</v>
+        <v>296</v>
       </c>
       <c r="C91" s="34" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D91" s="35"/>
       <c r="E91" s="35"/>
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
-      <c r="I91" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J91" s="36"/>
+      <c r="I91" s="36"/>
+      <c r="J91" s="36" t="s">
+        <v>328</v>
+      </c>
       <c r="K91" s="36"/>
-      <c r="L91" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="M91" s="34" t="s">
-        <v>295</v>
-      </c>
+      <c r="L91" s="36"/>
+      <c r="M91" s="34"/>
       <c r="N91" s="34"/>
       <c r="O91" s="34"/>
       <c r="P91" s="34"/>
@@ -6167,10 +6172,10 @@
         <v>117</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D92" s="35"/>
       <c r="E92" s="35"/>
@@ -6179,7 +6184,7 @@
       <c r="H92" s="35"/>
       <c r="I92" s="36"/>
       <c r="J92" s="36" t="s">
-        <v>328</v>
+        <v>447</v>
       </c>
       <c r="K92" s="36"/>
       <c r="L92" s="36"/>
@@ -6201,43 +6206,43 @@
       <c r="AB92" s="36"/>
       <c r="AC92" s="36"/>
       <c r="AD92" s="36"/>
-      <c r="AE92" s="36"/>
+      <c r="AE92" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AF92" s="36"/>
       <c r="AG92" s="36"/>
       <c r="AH92" s="36"/>
       <c r="AI92" s="36"/>
     </row>
     <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B93" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="C93" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
+      <c r="A93" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>300</v>
+      </c>
+      <c r="C93" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D93" s="36"/>
+      <c r="E93" s="39"/>
+      <c r="F93" s="39"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
       <c r="I93" s="36"/>
-      <c r="J93" s="36" t="s">
-        <v>447</v>
-      </c>
+      <c r="J93" s="39"/>
       <c r="K93" s="36"/>
       <c r="L93" s="36"/>
-      <c r="M93" s="34"/>
-      <c r="N93" s="34"/>
-      <c r="O93" s="34"/>
-      <c r="P93" s="34"/>
-      <c r="Q93" s="34"/>
-      <c r="R93" s="34"/>
-      <c r="S93" s="34"/>
-      <c r="T93" s="34"/>
+      <c r="M93" s="36"/>
+      <c r="N93" s="36"/>
+      <c r="O93" s="39"/>
+      <c r="P93" s="36"/>
+      <c r="Q93" s="36"/>
+      <c r="R93" s="36"/>
+      <c r="S93" s="36"/>
+      <c r="T93" s="36"/>
       <c r="U93" s="36"/>
-      <c r="V93" s="34"/>
+      <c r="V93" s="36"/>
       <c r="W93" s="36"/>
       <c r="X93" s="36"/>
       <c r="Y93" s="36"/>
@@ -6251,76 +6256,76 @@
       </c>
       <c r="AF93" s="36"/>
       <c r="AG93" s="36"/>
-      <c r="AH93" s="36"/>
+      <c r="AH93" s="40" t="s">
+        <v>301</v>
+      </c>
       <c r="AI93" s="36"/>
     </row>
     <row r="94" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="38" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B94" s="38" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C94" s="39" t="s">
         <v>45</v>
       </c>
       <c r="D94" s="36"/>
-      <c r="E94" s="39"/>
-      <c r="F94" s="39"/>
+      <c r="E94" s="36"/>
+      <c r="F94" s="36"/>
       <c r="G94" s="36"/>
       <c r="H94" s="36"/>
-      <c r="I94" s="36"/>
+      <c r="I94" s="39"/>
       <c r="J94" s="39"/>
-      <c r="K94" s="36"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="36"/>
+      <c r="K94" s="39"/>
+      <c r="L94" s="39"/>
+      <c r="M94" s="39"/>
       <c r="N94" s="36"/>
-      <c r="O94" s="39"/>
+      <c r="O94" s="36"/>
       <c r="P94" s="36"/>
       <c r="Q94" s="36"/>
       <c r="R94" s="36"/>
       <c r="S94" s="36"/>
-      <c r="T94" s="36"/>
-      <c r="U94" s="36"/>
-      <c r="V94" s="36"/>
-      <c r="W94" s="36"/>
-      <c r="X94" s="36"/>
-      <c r="Y94" s="36"/>
-      <c r="Z94" s="36"/>
-      <c r="AA94" s="36"/>
-      <c r="AB94" s="36"/>
-      <c r="AC94" s="36"/>
-      <c r="AD94" s="36"/>
-      <c r="AE94" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF94" s="36"/>
-      <c r="AG94" s="36"/>
-      <c r="AH94" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="AI94" s="36"/>
+      <c r="T94" s="39" t="s">
+        <v>303</v>
+      </c>
+      <c r="U94" s="39"/>
+      <c r="V94" s="39"/>
+      <c r="W94" s="39"/>
+      <c r="X94" s="39"/>
+      <c r="Y94" s="39"/>
+      <c r="Z94" s="39"/>
+      <c r="AA94" s="39"/>
+      <c r="AB94" s="39"/>
+      <c r="AC94" s="39"/>
+      <c r="AD94" s="39"/>
+      <c r="AE94" s="39"/>
+      <c r="AF94" s="39"/>
+      <c r="AG94" s="39"/>
+      <c r="AH94" s="39"/>
+      <c r="AI94" s="39"/>
     </row>
     <row r="95" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B95" s="38" t="s">
-        <v>302</v>
+        <v>3</v>
       </c>
       <c r="C95" s="39" t="s">
-        <v>45</v>
+        <v>304</v>
       </c>
       <c r="D95" s="36"/>
       <c r="E95" s="36"/>
       <c r="F95" s="36"/>
       <c r="G95" s="36"/>
       <c r="H95" s="36"/>
-      <c r="I95" s="39"/>
-      <c r="J95" s="39"/>
-      <c r="K95" s="39"/>
-      <c r="L95" s="39"/>
-      <c r="M95" s="39"/>
+      <c r="I95" s="36"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
       <c r="N95" s="36"/>
       <c r="O95" s="36"/>
       <c r="P95" s="36"/>
@@ -6328,33 +6333,33 @@
       <c r="R95" s="36"/>
       <c r="S95" s="36"/>
       <c r="T95" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="U95" s="39"/>
-      <c r="V95" s="39"/>
-      <c r="W95" s="39"/>
-      <c r="X95" s="39"/>
-      <c r="Y95" s="39"/>
-      <c r="Z95" s="39"/>
-      <c r="AA95" s="39"/>
-      <c r="AB95" s="39"/>
-      <c r="AC95" s="39"/>
-      <c r="AD95" s="39"/>
-      <c r="AE95" s="39"/>
-      <c r="AF95" s="39"/>
-      <c r="AG95" s="39"/>
-      <c r="AH95" s="39"/>
-      <c r="AI95" s="39"/>
+        <v>305</v>
+      </c>
+      <c r="U95" s="36"/>
+      <c r="V95" s="36"/>
+      <c r="W95" s="36"/>
+      <c r="X95" s="36"/>
+      <c r="Y95" s="36"/>
+      <c r="Z95" s="36"/>
+      <c r="AA95" s="36"/>
+      <c r="AB95" s="36"/>
+      <c r="AC95" s="36"/>
+      <c r="AD95" s="36"/>
+      <c r="AE95" s="36"/>
+      <c r="AF95" s="36"/>
+      <c r="AG95" s="36"/>
+      <c r="AH95" s="36"/>
+      <c r="AI95" s="36"/>
     </row>
     <row r="96" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B96" s="38" t="s">
-        <v>3</v>
+        <v>306</v>
       </c>
       <c r="C96" s="39" t="s">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="D96" s="36"/>
       <c r="E96" s="36"/>
@@ -6373,30 +6378,30 @@
       <c r="R96" s="36"/>
       <c r="S96" s="36"/>
       <c r="T96" s="39" t="s">
-        <v>305</v>
-      </c>
-      <c r="U96" s="36"/>
-      <c r="V96" s="36"/>
-      <c r="W96" s="36"/>
-      <c r="X96" s="36"/>
-      <c r="Y96" s="36"/>
-      <c r="Z96" s="36"/>
-      <c r="AA96" s="36"/>
-      <c r="AB96" s="36"/>
-      <c r="AC96" s="36"/>
-      <c r="AD96" s="36"/>
-      <c r="AE96" s="36"/>
-      <c r="AF96" s="36"/>
-      <c r="AG96" s="36"/>
-      <c r="AH96" s="36"/>
-      <c r="AI96" s="36"/>
+        <v>307</v>
+      </c>
+      <c r="U96" s="39"/>
+      <c r="V96" s="39"/>
+      <c r="W96" s="39"/>
+      <c r="X96" s="39"/>
+      <c r="Y96" s="39"/>
+      <c r="Z96" s="39"/>
+      <c r="AA96" s="39"/>
+      <c r="AB96" s="39"/>
+      <c r="AC96" s="39"/>
+      <c r="AD96" s="39"/>
+      <c r="AE96" s="39"/>
+      <c r="AF96" s="39"/>
+      <c r="AG96" s="39"/>
+      <c r="AH96" s="39"/>
+      <c r="AI96" s="39"/>
     </row>
     <row r="97" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B97" s="38" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C97" s="39" t="s">
         <v>45</v>
@@ -6406,19 +6411,19 @@
       <c r="F97" s="36"/>
       <c r="G97" s="36"/>
       <c r="H97" s="36"/>
-      <c r="I97" s="36"/>
-      <c r="J97" s="36"/>
-      <c r="K97" s="36"/>
-      <c r="L97" s="36"/>
-      <c r="M97" s="36"/>
-      <c r="N97" s="36"/>
-      <c r="O97" s="36"/>
-      <c r="P97" s="36"/>
-      <c r="Q97" s="36"/>
-      <c r="R97" s="36"/>
-      <c r="S97" s="36"/>
+      <c r="I97" s="39"/>
+      <c r="J97" s="39"/>
+      <c r="K97" s="39"/>
+      <c r="L97" s="39"/>
+      <c r="M97" s="39"/>
+      <c r="N97" s="39"/>
+      <c r="O97" s="39"/>
+      <c r="P97" s="39"/>
+      <c r="Q97" s="39"/>
+      <c r="R97" s="39"/>
+      <c r="S97" s="39"/>
       <c r="T97" s="39" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="U97" s="39"/>
       <c r="V97" s="39"/>
@@ -6438,10 +6443,10 @@
     </row>
     <row r="98" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="38" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B98" s="38" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C98" s="39" t="s">
         <v>45</v>
@@ -6451,85 +6456,85 @@
       <c r="F98" s="36"/>
       <c r="G98" s="36"/>
       <c r="H98" s="36"/>
-      <c r="I98" s="39"/>
-      <c r="J98" s="39"/>
-      <c r="K98" s="39"/>
-      <c r="L98" s="39"/>
-      <c r="M98" s="39"/>
-      <c r="N98" s="39"/>
-      <c r="O98" s="39"/>
-      <c r="P98" s="39"/>
-      <c r="Q98" s="39"/>
-      <c r="R98" s="39"/>
-      <c r="S98" s="39"/>
-      <c r="T98" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="U98" s="39"/>
-      <c r="V98" s="39"/>
-      <c r="W98" s="39"/>
-      <c r="X98" s="39"/>
-      <c r="Y98" s="39"/>
-      <c r="Z98" s="39"/>
-      <c r="AA98" s="39"/>
-      <c r="AB98" s="39"/>
-      <c r="AC98" s="39"/>
-      <c r="AD98" s="39"/>
-      <c r="AE98" s="39"/>
-      <c r="AF98" s="39"/>
-      <c r="AG98" s="39"/>
-      <c r="AH98" s="39"/>
-      <c r="AI98" s="39"/>
+      <c r="I98" s="36"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36"/>
+      <c r="P98" s="36"/>
+      <c r="Q98" s="36"/>
+      <c r="R98" s="36"/>
+      <c r="S98" s="36"/>
+      <c r="T98" s="36"/>
+      <c r="U98" s="36"/>
+      <c r="V98" s="36"/>
+      <c r="W98" s="36"/>
+      <c r="X98" s="36"/>
+      <c r="Y98" s="36"/>
+      <c r="Z98" s="36"/>
+      <c r="AA98" s="36"/>
+      <c r="AB98" s="36"/>
+      <c r="AC98" s="36"/>
+      <c r="AD98" s="36"/>
+      <c r="AE98" s="36"/>
+      <c r="AF98" s="36"/>
+      <c r="AG98" s="36"/>
+      <c r="AH98" s="36"/>
+      <c r="AI98" s="36"/>
     </row>
     <row r="99" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="38" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B99" s="38" t="s">
-        <v>310</v>
+        <v>66</v>
       </c>
       <c r="C99" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D99" s="36"/>
-      <c r="E99" s="36"/>
-      <c r="F99" s="36"/>
-      <c r="G99" s="36"/>
-      <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
-      <c r="J99" s="36"/>
-      <c r="K99" s="36"/>
-      <c r="L99" s="36"/>
-      <c r="M99" s="36"/>
-      <c r="N99" s="36"/>
-      <c r="O99" s="36"/>
-      <c r="P99" s="36"/>
-      <c r="Q99" s="36"/>
-      <c r="R99" s="36"/>
-      <c r="S99" s="36"/>
-      <c r="T99" s="36"/>
-      <c r="U99" s="36"/>
-      <c r="V99" s="36"/>
-      <c r="W99" s="36"/>
-      <c r="X99" s="36"/>
-      <c r="Y99" s="36"/>
-      <c r="Z99" s="36"/>
-      <c r="AA99" s="36"/>
-      <c r="AB99" s="36"/>
-      <c r="AC99" s="36"/>
-      <c r="AD99" s="36"/>
-      <c r="AE99" s="36"/>
-      <c r="AF99" s="36"/>
-      <c r="AG99" s="36"/>
-      <c r="AH99" s="36"/>
-      <c r="AI99" s="36"/>
+      <c r="D99" s="39"/>
+      <c r="E99" s="39"/>
+      <c r="F99" s="39"/>
+      <c r="G99" s="39"/>
+      <c r="H99" s="39"/>
+      <c r="I99" s="39"/>
+      <c r="J99" s="39"/>
+      <c r="K99" s="39"/>
+      <c r="L99" s="39"/>
+      <c r="M99" s="39"/>
+      <c r="N99" s="39"/>
+      <c r="O99" s="39"/>
+      <c r="P99" s="39"/>
+      <c r="Q99" s="39"/>
+      <c r="R99" s="39"/>
+      <c r="S99" s="39"/>
+      <c r="T99" s="39" t="s">
+        <v>311</v>
+      </c>
+      <c r="U99" s="39"/>
+      <c r="V99" s="39"/>
+      <c r="W99" s="39"/>
+      <c r="X99" s="39"/>
+      <c r="Y99" s="39"/>
+      <c r="Z99" s="39"/>
+      <c r="AA99" s="39"/>
+      <c r="AB99" s="39"/>
+      <c r="AC99" s="39"/>
+      <c r="AD99" s="39"/>
+      <c r="AE99" s="39"/>
+      <c r="AF99" s="39"/>
+      <c r="AG99" s="39"/>
+      <c r="AH99" s="39"/>
+      <c r="AI99" s="39"/>
     </row>
     <row r="100" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B100" s="38" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C100" s="39" t="s">
         <v>45</v>
@@ -6551,7 +6556,7 @@
       <c r="R100" s="39"/>
       <c r="S100" s="39"/>
       <c r="T100" s="39" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="U100" s="39"/>
       <c r="V100" s="39"/>
@@ -6571,55 +6576,53 @@
     </row>
     <row r="101" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="38" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>84</v>
+        <v>313</v>
       </c>
       <c r="C101" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D101" s="39"/>
-      <c r="E101" s="39"/>
-      <c r="F101" s="39"/>
-      <c r="G101" s="39"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="39"/>
-      <c r="J101" s="39"/>
-      <c r="K101" s="39"/>
-      <c r="L101" s="39"/>
-      <c r="M101" s="39"/>
-      <c r="N101" s="39"/>
-      <c r="O101" s="39"/>
-      <c r="P101" s="39"/>
-      <c r="Q101" s="39"/>
-      <c r="R101" s="39"/>
-      <c r="S101" s="39"/>
-      <c r="T101" s="39" t="s">
-        <v>312</v>
-      </c>
-      <c r="U101" s="39"/>
-      <c r="V101" s="39"/>
-      <c r="W101" s="39"/>
-      <c r="X101" s="39"/>
-      <c r="Y101" s="39"/>
-      <c r="Z101" s="39"/>
-      <c r="AA101" s="39"/>
-      <c r="AB101" s="39"/>
-      <c r="AC101" s="39"/>
-      <c r="AD101" s="39"/>
-      <c r="AE101" s="39"/>
-      <c r="AF101" s="39"/>
-      <c r="AG101" s="39"/>
-      <c r="AH101" s="39"/>
-      <c r="AI101" s="39"/>
+      <c r="D101" s="36"/>
+      <c r="E101" s="36"/>
+      <c r="F101" s="36"/>
+      <c r="G101" s="36"/>
+      <c r="H101" s="36"/>
+      <c r="I101" s="36"/>
+      <c r="J101" s="36"/>
+      <c r="K101" s="36"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="36"/>
+      <c r="O101" s="36"/>
+      <c r="P101" s="36"/>
+      <c r="Q101" s="36"/>
+      <c r="R101" s="36"/>
+      <c r="S101" s="36"/>
+      <c r="T101" s="36"/>
+      <c r="U101" s="36"/>
+      <c r="V101" s="36"/>
+      <c r="W101" s="36"/>
+      <c r="X101" s="36"/>
+      <c r="Y101" s="36"/>
+      <c r="Z101" s="36"/>
+      <c r="AA101" s="36"/>
+      <c r="AB101" s="36"/>
+      <c r="AC101" s="36"/>
+      <c r="AD101" s="36"/>
+      <c r="AE101" s="36"/>
+      <c r="AF101" s="36"/>
+      <c r="AG101" s="36"/>
+      <c r="AH101" s="36"/>
+      <c r="AI101" s="36"/>
     </row>
     <row r="102" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="38" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C102" s="39" t="s">
         <v>45</v>
@@ -6640,7 +6643,9 @@
       <c r="Q102" s="36"/>
       <c r="R102" s="36"/>
       <c r="S102" s="36"/>
-      <c r="T102" s="36"/>
+      <c r="T102" s="39" t="s">
+        <v>329</v>
+      </c>
       <c r="U102" s="36"/>
       <c r="V102" s="36"/>
       <c r="W102" s="36"/>
@@ -6662,7 +6667,7 @@
         <v>78</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C103" s="39" t="s">
         <v>45</v>
@@ -6684,7 +6689,7 @@
       <c r="R103" s="36"/>
       <c r="S103" s="36"/>
       <c r="T103" s="39" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="U103" s="36"/>
       <c r="V103" s="36"/>
@@ -6707,7 +6712,7 @@
         <v>78</v>
       </c>
       <c r="B104" s="38" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C104" s="39" t="s">
         <v>45</v>
@@ -6729,7 +6734,7 @@
       <c r="R104" s="36"/>
       <c r="S104" s="36"/>
       <c r="T104" s="39" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="U104" s="36"/>
       <c r="V104" s="36"/>
@@ -6752,7 +6757,7 @@
         <v>78</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C105" s="39" t="s">
         <v>45</v>
@@ -6762,80 +6767,74 @@
       <c r="F105" s="36"/>
       <c r="G105" s="36"/>
       <c r="H105" s="36"/>
-      <c r="I105" s="36"/>
-      <c r="J105" s="36"/>
-      <c r="K105" s="36"/>
-      <c r="L105" s="36"/>
-      <c r="M105" s="36"/>
-      <c r="N105" s="36"/>
-      <c r="O105" s="36"/>
-      <c r="P105" s="36"/>
-      <c r="Q105" s="36"/>
-      <c r="R105" s="36"/>
-      <c r="S105" s="36"/>
+      <c r="I105" s="39"/>
+      <c r="J105" s="39"/>
+      <c r="K105" s="39"/>
+      <c r="L105" s="39"/>
+      <c r="M105" s="39"/>
+      <c r="N105" s="39"/>
+      <c r="O105" s="39"/>
+      <c r="P105" s="39"/>
+      <c r="Q105" s="39"/>
+      <c r="R105" s="39"/>
+      <c r="S105" s="39"/>
       <c r="T105" s="39" t="s">
-        <v>317</v>
-      </c>
-      <c r="U105" s="36"/>
-      <c r="V105" s="36"/>
-      <c r="W105" s="36"/>
-      <c r="X105" s="36"/>
-      <c r="Y105" s="36"/>
-      <c r="Z105" s="36"/>
-      <c r="AA105" s="36"/>
-      <c r="AB105" s="36"/>
-      <c r="AC105" s="36"/>
-      <c r="AD105" s="36"/>
-      <c r="AE105" s="36"/>
-      <c r="AF105" s="36"/>
-      <c r="AG105" s="36"/>
-      <c r="AH105" s="36"/>
-      <c r="AI105" s="36"/>
+        <v>331</v>
+      </c>
+      <c r="U105" s="39"/>
+      <c r="V105" s="39"/>
+      <c r="W105" s="39"/>
+      <c r="X105" s="39"/>
+      <c r="Y105" s="39"/>
+      <c r="Z105" s="39"/>
+      <c r="AA105" s="39"/>
+      <c r="AB105" s="39"/>
+      <c r="AC105" s="39"/>
+      <c r="AD105" s="39"/>
+      <c r="AE105" s="39"/>
+      <c r="AF105" s="39"/>
+      <c r="AG105" s="39"/>
+      <c r="AH105" s="39"/>
+      <c r="AI105" s="39"/>
     </row>
     <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B106" s="38" t="s">
-        <v>318</v>
-      </c>
-      <c r="C106" s="39" t="s">
-        <v>45</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B106" s="38"/>
+      <c r="C106" s="36"/>
       <c r="D106" s="36"/>
       <c r="E106" s="36"/>
       <c r="F106" s="36"/>
       <c r="G106" s="36"/>
       <c r="H106" s="36"/>
-      <c r="I106" s="39"/>
-      <c r="J106" s="39"/>
-      <c r="K106" s="39"/>
-      <c r="L106" s="39"/>
-      <c r="M106" s="39"/>
-      <c r="N106" s="39"/>
-      <c r="O106" s="39"/>
-      <c r="P106" s="39"/>
-      <c r="Q106" s="39"/>
-      <c r="R106" s="39"/>
-      <c r="S106" s="39"/>
-      <c r="T106" s="39" t="s">
-        <v>331</v>
-      </c>
-      <c r="U106" s="39"/>
-      <c r="V106" s="39"/>
-      <c r="W106" s="39"/>
-      <c r="X106" s="39"/>
-      <c r="Y106" s="39"/>
-      <c r="Z106" s="39"/>
-      <c r="AA106" s="39"/>
-      <c r="AB106" s="39"/>
-      <c r="AC106" s="39"/>
-      <c r="AD106" s="39"/>
-      <c r="AE106" s="39"/>
-      <c r="AF106" s="39"/>
-      <c r="AG106" s="39"/>
-      <c r="AH106" s="39"/>
-      <c r="AI106" s="39"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="36"/>
+      <c r="L106" s="36"/>
+      <c r="M106" s="36"/>
+      <c r="N106" s="36"/>
+      <c r="O106" s="36"/>
+      <c r="P106" s="36"/>
+      <c r="Q106" s="36"/>
+      <c r="R106" s="36"/>
+      <c r="S106" s="36"/>
+      <c r="T106" s="36"/>
+      <c r="U106" s="36"/>
+      <c r="V106" s="36"/>
+      <c r="W106" s="36"/>
+      <c r="X106" s="36"/>
+      <c r="Y106" s="36"/>
+      <c r="Z106" s="36"/>
+      <c r="AA106" s="36"/>
+      <c r="AB106" s="36"/>
+      <c r="AC106" s="36"/>
+      <c r="AD106" s="36"/>
+      <c r="AE106" s="36"/>
+      <c r="AF106" s="36"/>
+      <c r="AG106" s="36"/>
+      <c r="AH106" s="36"/>
+      <c r="AI106" s="36"/>
     </row>
     <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="38" t="s">
@@ -6877,11 +6876,15 @@
       <c r="AI107" s="36"/>
     </row>
     <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B108" s="38"/>
-      <c r="C108" s="36"/>
+      <c r="A108" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108" s="41" t="s">
+        <v>319</v>
+      </c>
+      <c r="C108" s="36" t="s">
+        <v>45</v>
+      </c>
       <c r="D108" s="36"/>
       <c r="E108" s="36"/>
       <c r="F108" s="36"/>
@@ -6898,7 +6901,9 @@
       <c r="Q108" s="36"/>
       <c r="R108" s="36"/>
       <c r="S108" s="36"/>
-      <c r="T108" s="36"/>
+      <c r="T108" s="36" t="s">
+        <v>320</v>
+      </c>
       <c r="U108" s="36"/>
       <c r="V108" s="36"/>
       <c r="W108" s="36"/>
@@ -6913,18 +6918,16 @@
       <c r="AF108" s="36"/>
       <c r="AG108" s="36"/>
       <c r="AH108" s="36"/>
-      <c r="AI108" s="36"/>
+      <c r="AI108" s="36" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B109" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="C109" s="36" t="s">
-        <v>45</v>
-      </c>
+      <c r="A109" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B109" s="38"/>
+      <c r="C109" s="36"/>
       <c r="D109" s="36"/>
       <c r="E109" s="36"/>
       <c r="F109" s="36"/>
@@ -6941,9 +6944,7 @@
       <c r="Q109" s="36"/>
       <c r="R109" s="36"/>
       <c r="S109" s="36"/>
-      <c r="T109" s="36" t="s">
-        <v>320</v>
-      </c>
+      <c r="T109" s="36"/>
       <c r="U109" s="36"/>
       <c r="V109" s="36"/>
       <c r="W109" s="36"/>
@@ -6958,16 +6959,18 @@
       <c r="AF109" s="36"/>
       <c r="AG109" s="36"/>
       <c r="AH109" s="36"/>
-      <c r="AI109" s="36" t="s">
-        <v>321</v>
-      </c>
+      <c r="AI109" s="36"/>
     </row>
     <row r="110" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B110" s="38"/>
-      <c r="C110" s="36"/>
+      <c r="A110" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B110" s="41" t="s">
+        <v>332</v>
+      </c>
+      <c r="C110" s="36" t="s">
+        <v>45</v>
+      </c>
       <c r="D110" s="36"/>
       <c r="E110" s="36"/>
       <c r="F110" s="36"/>
@@ -6984,7 +6987,9 @@
       <c r="Q110" s="36"/>
       <c r="R110" s="36"/>
       <c r="S110" s="36"/>
-      <c r="T110" s="36"/>
+      <c r="T110" s="36" t="s">
+        <v>322</v>
+      </c>
       <c r="U110" s="36"/>
       <c r="V110" s="36"/>
       <c r="W110" s="36"/>
@@ -6999,39 +7004,35 @@
       <c r="AF110" s="36"/>
       <c r="AG110" s="36"/>
       <c r="AH110" s="36"/>
-      <c r="AI110" s="36"/>
+      <c r="AI110" s="36" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="111" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B111" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="C111" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D111" s="36"/>
-      <c r="E111" s="36"/>
-      <c r="F111" s="36"/>
-      <c r="G111" s="36"/>
-      <c r="H111" s="36"/>
+      <c r="A111" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B111" s="33"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="35"/>
+      <c r="E111" s="35"/>
+      <c r="F111" s="35"/>
+      <c r="G111" s="35"/>
+      <c r="H111" s="35"/>
       <c r="I111" s="36"/>
       <c r="J111" s="36"/>
       <c r="K111" s="36"/>
       <c r="L111" s="36"/>
-      <c r="M111" s="36"/>
-      <c r="N111" s="36"/>
-      <c r="O111" s="36"/>
-      <c r="P111" s="36"/>
-      <c r="Q111" s="36"/>
-      <c r="R111" s="36"/>
-      <c r="S111" s="36"/>
-      <c r="T111" s="36" t="s">
-        <v>322</v>
-      </c>
+      <c r="M111" s="34"/>
+      <c r="N111" s="34"/>
+      <c r="O111" s="34"/>
+      <c r="P111" s="34"/>
+      <c r="Q111" s="34"/>
+      <c r="R111" s="34"/>
+      <c r="S111" s="34"/>
+      <c r="T111" s="34"/>
       <c r="U111" s="36"/>
-      <c r="V111" s="36"/>
+      <c r="V111" s="34"/>
       <c r="W111" s="36"/>
       <c r="X111" s="36"/>
       <c r="Y111" s="36"/>
@@ -7044,85 +7045,93 @@
       <c r="AF111" s="36"/>
       <c r="AG111" s="36"/>
       <c r="AH111" s="36"/>
-      <c r="AI111" s="36" t="s">
-        <v>322</v>
-      </c>
+      <c r="AI111" s="36"/>
     </row>
     <row r="112" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B112" s="33"/>
-      <c r="C112" s="34"/>
-      <c r="D112" s="35"/>
-      <c r="E112" s="35"/>
-      <c r="F112" s="35"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="35"/>
-      <c r="I112" s="36"/>
-      <c r="J112" s="36"/>
-      <c r="K112" s="36"/>
-      <c r="L112" s="36"/>
-      <c r="M112" s="34"/>
-      <c r="N112" s="34"/>
-      <c r="O112" s="34"/>
-      <c r="P112" s="34"/>
-      <c r="Q112" s="34"/>
-      <c r="R112" s="34"/>
-      <c r="S112" s="34"/>
-      <c r="T112" s="34"/>
-      <c r="U112" s="36"/>
-      <c r="V112" s="34"/>
-      <c r="W112" s="36"/>
-      <c r="X112" s="36"/>
-      <c r="Y112" s="36"/>
-      <c r="Z112" s="36"/>
-      <c r="AA112" s="36"/>
-      <c r="AB112" s="36"/>
-      <c r="AC112" s="36"/>
-      <c r="AD112" s="36"/>
-      <c r="AE112" s="36"/>
-      <c r="AF112" s="36"/>
-      <c r="AG112" s="36"/>
-      <c r="AH112" s="36"/>
-      <c r="AI112" s="36"/>
+      <c r="A112" s="31"/>
+      <c r="B112" s="31"/>
+      <c r="C112" s="31"/>
+      <c r="E112" s="31"/>
+      <c r="F112" s="31"/>
+      <c r="AE112" s="31"/>
+      <c r="AF112" s="31"/>
+      <c r="AG112" s="31"/>
+      <c r="AH112" s="31"/>
+      <c r="AI112" s="31"/>
     </row>
     <row r="113" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="31"/>
-      <c r="B113" s="31"/>
-      <c r="C113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="AE113" s="31"/>
-      <c r="AF113" s="31"/>
-      <c r="AG113" s="31"/>
-      <c r="AH113" s="31"/>
-      <c r="AI113" s="31"/>
+      <c r="A113" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B113" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C113" s="34" t="s">
+        <v>339</v>
+      </c>
+      <c r="D113" s="35"/>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="36"/>
+      <c r="J113" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="K113" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L113" s="36"/>
+      <c r="M113" s="34"/>
+      <c r="N113" s="34"/>
+      <c r="O113" s="34"/>
+      <c r="P113" s="34"/>
+      <c r="Q113" s="34"/>
+      <c r="R113" s="34"/>
+      <c r="S113" s="34"/>
+      <c r="T113" s="34"/>
+      <c r="U113" s="36"/>
+      <c r="V113" s="34"/>
+      <c r="W113" s="36"/>
+      <c r="X113" s="36"/>
+      <c r="Y113" s="36"/>
+      <c r="Z113" s="36"/>
+      <c r="AA113" s="36"/>
+      <c r="AB113" s="36"/>
+      <c r="AC113" s="36"/>
+      <c r="AD113" s="36"/>
+      <c r="AE113" s="36"/>
+      <c r="AF113" s="36"/>
+      <c r="AG113" s="36"/>
+      <c r="AH113" s="36"/>
+      <c r="AI113" s="36"/>
     </row>
     <row r="114" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="33" t="s">
-        <v>42</v>
+        <v>286</v>
       </c>
       <c r="B114" s="33" t="s">
-        <v>240</v>
+        <v>342</v>
       </c>
       <c r="C114" s="34" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D114" s="35"/>
       <c r="E114" s="35"/>
       <c r="F114" s="35"/>
       <c r="G114" s="35"/>
       <c r="H114" s="35"/>
-      <c r="I114" s="36"/>
-      <c r="J114" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="K114" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L114" s="36"/>
-      <c r="M114" s="34"/>
+      <c r="I114" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J114" s="34"/>
+      <c r="K114" s="34"/>
+      <c r="L114" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="M114" s="34" t="s">
+        <v>289</v>
+      </c>
       <c r="N114" s="34"/>
       <c r="O114" s="34"/>
       <c r="P114" s="34"/>
@@ -7130,31 +7139,31 @@
       <c r="R114" s="34"/>
       <c r="S114" s="34"/>
       <c r="T114" s="34"/>
-      <c r="U114" s="36"/>
+      <c r="U114" s="34"/>
       <c r="V114" s="34"/>
-      <c r="W114" s="36"/>
-      <c r="X114" s="36"/>
-      <c r="Y114" s="36"/>
-      <c r="Z114" s="36"/>
-      <c r="AA114" s="36"/>
-      <c r="AB114" s="36"/>
-      <c r="AC114" s="36"/>
-      <c r="AD114" s="36"/>
-      <c r="AE114" s="36"/>
-      <c r="AF114" s="36"/>
-      <c r="AG114" s="36"/>
-      <c r="AH114" s="36"/>
-      <c r="AI114" s="36"/>
+      <c r="W114" s="34"/>
+      <c r="X114" s="34"/>
+      <c r="Y114" s="34"/>
+      <c r="Z114" s="34"/>
+      <c r="AA114" s="34"/>
+      <c r="AB114" s="34"/>
+      <c r="AC114" s="34"/>
+      <c r="AD114" s="34"/>
+      <c r="AE114" s="34"/>
+      <c r="AF114" s="34"/>
+      <c r="AG114" s="34"/>
+      <c r="AH114" s="34"/>
+      <c r="AI114" s="34"/>
     </row>
     <row r="115" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="33" t="s">
-        <v>286</v>
+        <v>338</v>
       </c>
       <c r="B115" s="33" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C115" s="34" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D115" s="35"/>
       <c r="E115" s="35"/>
@@ -7166,12 +7175,8 @@
       </c>
       <c r="J115" s="34"/>
       <c r="K115" s="34"/>
-      <c r="L115" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="M115" s="34" t="s">
-        <v>289</v>
-      </c>
+      <c r="L115" s="34"/>
+      <c r="M115" s="34"/>
       <c r="N115" s="34"/>
       <c r="O115" s="34"/>
       <c r="P115" s="34"/>
@@ -7197,13 +7202,13 @@
     </row>
     <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="33" t="s">
-        <v>338</v>
+        <v>292</v>
       </c>
       <c r="B116" s="33" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C116" s="34" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="D116" s="35"/>
       <c r="E116" s="35"/>
@@ -7213,10 +7218,16 @@
       <c r="I116" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="J116" s="34"/>
+      <c r="J116" s="34" t="s">
+        <v>346</v>
+      </c>
       <c r="K116" s="34"/>
-      <c r="L116" s="34"/>
-      <c r="M116" s="34"/>
+      <c r="L116" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="M116" s="34" t="s">
+        <v>337</v>
+      </c>
       <c r="N116" s="34"/>
       <c r="O116" s="34"/>
       <c r="P116" s="34"/>
@@ -7242,32 +7253,20 @@
     </row>
     <row r="117" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="B117" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="C117" s="34" t="s">
-        <v>335</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B117" s="33"/>
+      <c r="C117" s="34"/>
       <c r="D117" s="35"/>
       <c r="E117" s="35"/>
       <c r="F117" s="35"/>
       <c r="G117" s="35"/>
       <c r="H117" s="35"/>
-      <c r="I117" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J117" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="K117" s="34"/>
-      <c r="L117" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="M117" s="34" t="s">
-        <v>337</v>
-      </c>
+      <c r="I117" s="36"/>
+      <c r="J117" s="36"/>
+      <c r="K117" s="36"/>
+      <c r="L117" s="36"/>
+      <c r="M117" s="34"/>
       <c r="N117" s="34"/>
       <c r="O117" s="34"/>
       <c r="P117" s="34"/>
@@ -7275,82 +7274,92 @@
       <c r="R117" s="34"/>
       <c r="S117" s="34"/>
       <c r="T117" s="34"/>
-      <c r="U117" s="34"/>
+      <c r="U117" s="36"/>
       <c r="V117" s="34"/>
-      <c r="W117" s="34"/>
-      <c r="X117" s="34"/>
-      <c r="Y117" s="34"/>
-      <c r="Z117" s="34"/>
-      <c r="AA117" s="34"/>
-      <c r="AB117" s="34"/>
-      <c r="AC117" s="34"/>
-      <c r="AD117" s="34"/>
-      <c r="AE117" s="34"/>
-      <c r="AF117" s="34"/>
-      <c r="AG117" s="34"/>
-      <c r="AH117" s="34"/>
-      <c r="AI117" s="34"/>
+      <c r="W117" s="36"/>
+      <c r="X117" s="36"/>
+      <c r="Y117" s="36"/>
+      <c r="Z117" s="36"/>
+      <c r="AA117" s="36"/>
+      <c r="AB117" s="36"/>
+      <c r="AC117" s="36"/>
+      <c r="AD117" s="36"/>
+      <c r="AE117" s="36"/>
+      <c r="AF117" s="36"/>
+      <c r="AG117" s="36"/>
+      <c r="AH117" s="36"/>
+      <c r="AI117" s="36"/>
     </row>
     <row r="118" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B118" s="33"/>
-      <c r="C118" s="34"/>
-      <c r="D118" s="35"/>
-      <c r="E118" s="35"/>
-      <c r="F118" s="35"/>
-      <c r="G118" s="35"/>
-      <c r="H118" s="35"/>
-      <c r="I118" s="36"/>
-      <c r="J118" s="36"/>
-      <c r="K118" s="36"/>
-      <c r="L118" s="36"/>
-      <c r="M118" s="34"/>
-      <c r="N118" s="34"/>
-      <c r="O118" s="34"/>
-      <c r="P118" s="34"/>
-      <c r="Q118" s="34"/>
-      <c r="R118" s="34"/>
-      <c r="S118" s="34"/>
-      <c r="T118" s="34"/>
-      <c r="U118" s="36"/>
-      <c r="V118" s="34"/>
-      <c r="W118" s="36"/>
-      <c r="X118" s="36"/>
-      <c r="Y118" s="36"/>
-      <c r="Z118" s="36"/>
-      <c r="AA118" s="36"/>
-      <c r="AB118" s="36"/>
-      <c r="AC118" s="36"/>
-      <c r="AD118" s="36"/>
-      <c r="AE118" s="36"/>
-      <c r="AF118" s="36"/>
-      <c r="AG118" s="36"/>
-      <c r="AH118" s="36"/>
-      <c r="AI118" s="36"/>
+      <c r="A118" s="31"/>
+      <c r="B118" s="31"/>
+      <c r="C118" s="31"/>
+      <c r="E118" s="31"/>
+      <c r="F118" s="31"/>
+      <c r="AE118" s="31"/>
+      <c r="AF118" s="31"/>
+      <c r="AG118" s="31"/>
+      <c r="AH118" s="31"/>
+      <c r="AI118" s="31"/>
     </row>
     <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="31"/>
-      <c r="B119" s="31"/>
-      <c r="C119" s="31"/>
-      <c r="E119" s="31"/>
-      <c r="F119" s="31"/>
-      <c r="AE119" s="31"/>
-      <c r="AF119" s="31"/>
-      <c r="AG119" s="31"/>
-      <c r="AH119" s="31"/>
-      <c r="AI119" s="31"/>
+      <c r="A119" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B119" s="33" t="s">
+        <v>410</v>
+      </c>
+      <c r="C119" s="34" t="s">
+        <v>399</v>
+      </c>
+      <c r="D119" s="35"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35"/>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="36"/>
+      <c r="J119" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="K119" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="L119" s="36"/>
+      <c r="M119" s="34"/>
+      <c r="N119" s="34"/>
+      <c r="O119" s="34"/>
+      <c r="P119" s="34"/>
+      <c r="Q119" s="34"/>
+      <c r="R119" s="34"/>
+      <c r="S119" s="34"/>
+      <c r="T119" s="34"/>
+      <c r="U119" s="36"/>
+      <c r="V119" s="34"/>
+      <c r="W119" s="36"/>
+      <c r="X119" s="36"/>
+      <c r="Y119" s="36"/>
+      <c r="Z119" s="36"/>
+      <c r="AA119" s="36"/>
+      <c r="AB119" s="36"/>
+      <c r="AC119" s="36"/>
+      <c r="AD119" s="36"/>
+      <c r="AE119" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF119" s="36"/>
+      <c r="AG119" s="36"/>
+      <c r="AH119" s="36"/>
+      <c r="AI119" s="36"/>
     </row>
     <row r="120" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="35"/>
@@ -7358,12 +7367,8 @@
       <c r="G120" s="35"/>
       <c r="H120" s="35"/>
       <c r="I120" s="36"/>
-      <c r="J120" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="K120" s="36" t="s">
-        <v>347</v>
-      </c>
+      <c r="J120" s="36"/>
+      <c r="K120" s="36"/>
       <c r="L120" s="36"/>
       <c r="M120" s="34"/>
       <c r="N120" s="34"/>
@@ -7383,9 +7388,7 @@
       <c r="AB120" s="36"/>
       <c r="AC120" s="36"/>
       <c r="AD120" s="36"/>
-      <c r="AE120" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE120" s="36"/>
       <c r="AF120" s="36"/>
       <c r="AG120" s="36"/>
       <c r="AH120" s="36"/>
@@ -7396,10 +7399,10 @@
         <v>117</v>
       </c>
       <c r="B121" s="33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C121" s="34" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D121" s="35"/>
       <c r="E121" s="35"/>
@@ -7439,10 +7442,10 @@
         <v>117</v>
       </c>
       <c r="B122" s="33" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D122" s="35"/>
       <c r="E122" s="35"/>
@@ -7482,10 +7485,10 @@
         <v>117</v>
       </c>
       <c r="B123" s="33" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C123" s="34" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D123" s="35"/>
       <c r="E123" s="35"/>
@@ -7525,10 +7528,10 @@
         <v>117</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D124" s="35"/>
       <c r="E124" s="35"/>
@@ -7565,30 +7568,26 @@
     </row>
     <row r="125" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B125" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="C125" s="34" t="s">
-        <v>409</v>
-      </c>
-      <c r="D125" s="35"/>
-      <c r="E125" s="35"/>
-      <c r="F125" s="35"/>
-      <c r="G125" s="35"/>
-      <c r="H125" s="35"/>
+        <v>68</v>
+      </c>
+      <c r="B125" s="33"/>
+      <c r="C125" s="34"/>
+      <c r="D125" s="36"/>
+      <c r="E125" s="36"/>
+      <c r="F125" s="36"/>
+      <c r="G125" s="36"/>
+      <c r="H125" s="36"/>
       <c r="I125" s="36"/>
       <c r="J125" s="36"/>
       <c r="K125" s="36"/>
       <c r="L125" s="36"/>
       <c r="M125" s="34"/>
-      <c r="N125" s="34"/>
-      <c r="O125" s="34"/>
-      <c r="P125" s="34"/>
-      <c r="Q125" s="34"/>
-      <c r="R125" s="34"/>
-      <c r="S125" s="34"/>
+      <c r="N125" s="36"/>
+      <c r="O125" s="36"/>
+      <c r="P125" s="36"/>
+      <c r="Q125" s="36"/>
+      <c r="R125" s="36"/>
+      <c r="S125" s="36"/>
       <c r="T125" s="34"/>
       <c r="U125" s="36"/>
       <c r="V125" s="34"/>
@@ -7607,90 +7606,98 @@
       <c r="AI125" s="36"/>
     </row>
     <row r="126" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B126" s="33"/>
-      <c r="C126" s="34"/>
-      <c r="D126" s="36"/>
-      <c r="E126" s="36"/>
-      <c r="F126" s="36"/>
-      <c r="G126" s="36"/>
-      <c r="H126" s="36"/>
-      <c r="I126" s="36"/>
-      <c r="J126" s="36"/>
-      <c r="K126" s="36"/>
-      <c r="L126" s="36"/>
-      <c r="M126" s="34"/>
-      <c r="N126" s="36"/>
-      <c r="O126" s="36"/>
-      <c r="P126" s="36"/>
-      <c r="Q126" s="36"/>
-      <c r="R126" s="36"/>
-      <c r="S126" s="36"/>
-      <c r="T126" s="34"/>
-      <c r="U126" s="36"/>
-      <c r="V126" s="34"/>
-      <c r="W126" s="36"/>
-      <c r="X126" s="36"/>
-      <c r="Y126" s="36"/>
-      <c r="Z126" s="36"/>
-      <c r="AA126" s="36"/>
-      <c r="AB126" s="36"/>
-      <c r="AC126" s="36"/>
-      <c r="AD126" s="36"/>
-      <c r="AE126" s="36"/>
-      <c r="AF126" s="36"/>
-      <c r="AG126" s="36"/>
-      <c r="AH126" s="36"/>
-      <c r="AI126" s="36"/>
+      <c r="A126" s="42"/>
+      <c r="B126" s="42"/>
+      <c r="C126" s="42"/>
+      <c r="D126" s="31"/>
+      <c r="E126" s="31"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="31"/>
+      <c r="I126" s="43"/>
+      <c r="J126" s="43"/>
+      <c r="K126" s="43"/>
+      <c r="L126" s="43"/>
+      <c r="M126" s="42"/>
+      <c r="N126" s="42"/>
+      <c r="O126" s="42"/>
+      <c r="P126" s="42"/>
+      <c r="Q126" s="42"/>
+      <c r="R126" s="42"/>
+      <c r="S126" s="42"/>
+      <c r="T126" s="42"/>
+      <c r="U126" s="43"/>
+      <c r="V126" s="42"/>
+      <c r="W126" s="43"/>
+      <c r="X126" s="43"/>
+      <c r="Y126" s="43"/>
+      <c r="Z126" s="43"/>
+      <c r="AA126" s="43"/>
+      <c r="AB126" s="43"/>
+      <c r="AC126" s="43"/>
+      <c r="AD126" s="43"/>
+      <c r="AE126" s="43"/>
+      <c r="AF126" s="43"/>
+      <c r="AG126" s="43"/>
+      <c r="AH126" s="43"/>
+      <c r="AI126" s="43"/>
     </row>
     <row r="127" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="42"/>
-      <c r="B127" s="42"/>
-      <c r="C127" s="42"/>
-      <c r="D127" s="31"/>
-      <c r="E127" s="31"/>
-      <c r="F127" s="31"/>
-      <c r="G127" s="31"/>
-      <c r="H127" s="31"/>
-      <c r="I127" s="43"/>
-      <c r="J127" s="43"/>
-      <c r="K127" s="43"/>
-      <c r="L127" s="43"/>
-      <c r="M127" s="42"/>
-      <c r="N127" s="42"/>
-      <c r="O127" s="42"/>
-      <c r="P127" s="42"/>
-      <c r="Q127" s="42"/>
-      <c r="R127" s="42"/>
-      <c r="S127" s="42"/>
-      <c r="T127" s="42"/>
-      <c r="U127" s="43"/>
-      <c r="V127" s="42"/>
-      <c r="W127" s="43"/>
-      <c r="X127" s="43"/>
-      <c r="Y127" s="43"/>
-      <c r="Z127" s="43"/>
-      <c r="AA127" s="43"/>
-      <c r="AB127" s="43"/>
-      <c r="AC127" s="43"/>
-      <c r="AD127" s="43"/>
-      <c r="AE127" s="43"/>
-      <c r="AF127" s="43"/>
-      <c r="AG127" s="43"/>
-      <c r="AH127" s="43"/>
-      <c r="AI127" s="43"/>
+      <c r="A127" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B127" s="33" t="s">
+        <v>411</v>
+      </c>
+      <c r="C127" s="34" t="s">
+        <v>412</v>
+      </c>
+      <c r="D127" s="35"/>
+      <c r="E127" s="35"/>
+      <c r="F127" s="35"/>
+      <c r="G127" s="35"/>
+      <c r="H127" s="35"/>
+      <c r="I127" s="36"/>
+      <c r="J127" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="K127" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L127" s="36"/>
+      <c r="M127" s="34"/>
+      <c r="N127" s="34"/>
+      <c r="O127" s="34"/>
+      <c r="P127" s="34"/>
+      <c r="Q127" s="34"/>
+      <c r="R127" s="34"/>
+      <c r="S127" s="34"/>
+      <c r="T127" s="34"/>
+      <c r="U127" s="36"/>
+      <c r="V127" s="34"/>
+      <c r="W127" s="36"/>
+      <c r="X127" s="36"/>
+      <c r="Y127" s="36"/>
+      <c r="Z127" s="36"/>
+      <c r="AA127" s="36"/>
+      <c r="AB127" s="36"/>
+      <c r="AC127" s="36"/>
+      <c r="AD127" s="36"/>
+      <c r="AE127" s="36"/>
+      <c r="AF127" s="36"/>
+      <c r="AG127" s="36"/>
+      <c r="AH127" s="36"/>
+      <c r="AI127" s="36"/>
     </row>
     <row r="128" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="33" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>411</v>
+        <v>348</v>
       </c>
       <c r="C128" s="34" t="s">
-        <v>412</v>
+        <v>349</v>
       </c>
       <c r="D128" s="35"/>
       <c r="E128" s="35"/>
@@ -7698,12 +7705,8 @@
       <c r="G128" s="35"/>
       <c r="H128" s="35"/>
       <c r="I128" s="36"/>
-      <c r="J128" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="K128" s="36" t="s">
-        <v>47</v>
-      </c>
+      <c r="J128" s="36"/>
+      <c r="K128" s="36"/>
       <c r="L128" s="36"/>
       <c r="M128" s="34"/>
       <c r="N128" s="34"/>
@@ -7723,7 +7726,9 @@
       <c r="AB128" s="36"/>
       <c r="AC128" s="36"/>
       <c r="AD128" s="36"/>
-      <c r="AE128" s="36"/>
+      <c r="AE128" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AF128" s="36"/>
       <c r="AG128" s="36"/>
       <c r="AH128" s="36"/>
@@ -7731,24 +7736,28 @@
     </row>
     <row r="129" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="33" t="s">
-        <v>117</v>
+        <v>350</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C129" s="34" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D129" s="35"/>
       <c r="E129" s="35"/>
       <c r="F129" s="35"/>
       <c r="G129" s="35"/>
       <c r="H129" s="35"/>
-      <c r="I129" s="36"/>
+      <c r="I129" s="36" t="s">
+        <v>57</v>
+      </c>
       <c r="J129" s="36"/>
       <c r="K129" s="36"/>
-      <c r="L129" s="36"/>
-      <c r="M129" s="34"/>
+      <c r="L129" s="36" t="s">
+        <v>353</v>
+      </c>
+      <c r="M129" s="35"/>
       <c r="N129" s="34"/>
       <c r="O129" s="34"/>
       <c r="P129" s="34"/>
@@ -7756,7 +7765,9 @@
       <c r="R129" s="34"/>
       <c r="S129" s="34"/>
       <c r="T129" s="34"/>
-      <c r="U129" s="36"/>
+      <c r="U129" s="34" t="s">
+        <v>354</v>
+      </c>
       <c r="V129" s="34"/>
       <c r="W129" s="36"/>
       <c r="X129" s="36"/>
@@ -7766,9 +7777,7 @@
       <c r="AB129" s="36"/>
       <c r="AC129" s="36"/>
       <c r="AD129" s="36"/>
-      <c r="AE129" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE129" s="36"/>
       <c r="AF129" s="36"/>
       <c r="AG129" s="36"/>
       <c r="AH129" s="36"/>
@@ -7776,39 +7785,39 @@
     </row>
     <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="33" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="B130" s="33" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C130" s="34" t="s">
-        <v>352</v>
-      </c>
-      <c r="D130" s="35"/>
-      <c r="E130" s="35"/>
-      <c r="F130" s="35"/>
-      <c r="G130" s="35"/>
-      <c r="H130" s="35"/>
+        <v>356</v>
+      </c>
+      <c r="D130" s="36"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="36"/>
+      <c r="H130" s="36"/>
       <c r="I130" s="36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J130" s="36"/>
-      <c r="K130" s="36"/>
+      <c r="K130" s="34"/>
       <c r="L130" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="M130" s="35"/>
-      <c r="N130" s="34"/>
-      <c r="O130" s="34"/>
-      <c r="P130" s="34"/>
-      <c r="Q130" s="34"/>
-      <c r="R130" s="34"/>
-      <c r="S130" s="34"/>
-      <c r="T130" s="34"/>
-      <c r="U130" s="34" t="s">
-        <v>354</v>
-      </c>
-      <c r="V130" s="34"/>
+        <v>357</v>
+      </c>
+      <c r="M130" s="34" t="s">
+        <v>358</v>
+      </c>
+      <c r="N130" s="36"/>
+      <c r="O130" s="36"/>
+      <c r="P130" s="36"/>
+      <c r="Q130" s="36"/>
+      <c r="R130" s="36"/>
+      <c r="S130" s="36"/>
+      <c r="T130" s="36"/>
+      <c r="U130" s="36"/>
+      <c r="V130" s="36"/>
       <c r="W130" s="36"/>
       <c r="X130" s="36"/>
       <c r="Y130" s="36"/>
@@ -7825,37 +7834,33 @@
     </row>
     <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
-        <v>334</v>
+        <v>78</v>
       </c>
       <c r="B131" s="33" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C131" s="34" t="s">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="D131" s="36"/>
       <c r="E131" s="36"/>
       <c r="F131" s="36"/>
       <c r="G131" s="36"/>
       <c r="H131" s="36"/>
-      <c r="I131" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J131" s="36"/>
+      <c r="I131" s="36"/>
+      <c r="J131" s="34"/>
       <c r="K131" s="34"/>
-      <c r="L131" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="M131" s="34" t="s">
-        <v>358</v>
-      </c>
+      <c r="L131" s="36"/>
+      <c r="M131" s="36"/>
       <c r="N131" s="36"/>
       <c r="O131" s="36"/>
       <c r="P131" s="36"/>
       <c r="Q131" s="36"/>
       <c r="R131" s="36"/>
       <c r="S131" s="36"/>
-      <c r="T131" s="36"/>
+      <c r="T131" s="36" t="s">
+        <v>460</v>
+      </c>
       <c r="U131" s="36"/>
       <c r="V131" s="36"/>
       <c r="W131" s="36"/>
@@ -7866,7 +7871,9 @@
       <c r="AB131" s="36"/>
       <c r="AC131" s="36"/>
       <c r="AD131" s="36"/>
-      <c r="AE131" s="36"/>
+      <c r="AE131" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AF131" s="36"/>
       <c r="AG131" s="36"/>
       <c r="AH131" s="36"/>
@@ -7874,35 +7881,29 @@
     </row>
     <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B132" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="C132" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D132" s="36"/>
-      <c r="E132" s="36"/>
-      <c r="F132" s="36"/>
-      <c r="G132" s="36"/>
-      <c r="H132" s="36"/>
+        <v>68</v>
+      </c>
+      <c r="B132" s="33"/>
+      <c r="C132" s="34"/>
+      <c r="D132" s="35"/>
+      <c r="E132" s="35"/>
+      <c r="F132" s="35"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="35"/>
       <c r="I132" s="36"/>
-      <c r="J132" s="34"/>
-      <c r="K132" s="34"/>
+      <c r="J132" s="36"/>
+      <c r="K132" s="36"/>
       <c r="L132" s="36"/>
-      <c r="M132" s="36"/>
-      <c r="N132" s="36"/>
-      <c r="O132" s="36"/>
-      <c r="P132" s="36"/>
-      <c r="Q132" s="36"/>
-      <c r="R132" s="36"/>
-      <c r="S132" s="36"/>
-      <c r="T132" s="36" t="s">
-        <v>460</v>
-      </c>
+      <c r="M132" s="34"/>
+      <c r="N132" s="34"/>
+      <c r="O132" s="34"/>
+      <c r="P132" s="34"/>
+      <c r="Q132" s="34"/>
+      <c r="R132" s="34"/>
+      <c r="S132" s="34"/>
+      <c r="T132" s="34"/>
       <c r="U132" s="36"/>
-      <c r="V132" s="36"/>
+      <c r="V132" s="34"/>
       <c r="W132" s="36"/>
       <c r="X132" s="36"/>
       <c r="Y132" s="36"/>
@@ -7911,121 +7912,125 @@
       <c r="AB132" s="36"/>
       <c r="AC132" s="36"/>
       <c r="AD132" s="36"/>
-      <c r="AE132" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE132" s="36"/>
       <c r="AF132" s="36"/>
       <c r="AG132" s="36"/>
       <c r="AH132" s="36"/>
       <c r="AI132" s="36"/>
     </row>
     <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B133" s="33"/>
-      <c r="C133" s="34"/>
-      <c r="D133" s="35"/>
-      <c r="E133" s="35"/>
-      <c r="F133" s="35"/>
-      <c r="G133" s="35"/>
-      <c r="H133" s="35"/>
-      <c r="I133" s="36"/>
-      <c r="J133" s="36"/>
-      <c r="K133" s="36"/>
-      <c r="L133" s="36"/>
-      <c r="M133" s="34"/>
-      <c r="N133" s="34"/>
-      <c r="O133" s="34"/>
-      <c r="P133" s="34"/>
-      <c r="Q133" s="34"/>
-      <c r="R133" s="34"/>
-      <c r="S133" s="34"/>
-      <c r="T133" s="34"/>
-      <c r="U133" s="36"/>
-      <c r="V133" s="34"/>
-      <c r="W133" s="36"/>
-      <c r="X133" s="36"/>
-      <c r="Y133" s="36"/>
-      <c r="Z133" s="36"/>
-      <c r="AA133" s="36"/>
-      <c r="AB133" s="36"/>
-      <c r="AC133" s="36"/>
-      <c r="AD133" s="36"/>
-      <c r="AE133" s="36"/>
-      <c r="AF133" s="36"/>
-      <c r="AG133" s="36"/>
-      <c r="AH133" s="36"/>
-      <c r="AI133" s="36"/>
+      <c r="A133" s="42"/>
+      <c r="B133" s="42"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="31"/>
+      <c r="E133" s="31"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="31"/>
+      <c r="H133" s="31"/>
+      <c r="I133" s="43"/>
+      <c r="J133" s="43"/>
+      <c r="K133" s="43"/>
+      <c r="L133" s="43"/>
+      <c r="M133" s="42"/>
+      <c r="N133" s="42"/>
+      <c r="O133" s="42"/>
+      <c r="P133" s="42"/>
+      <c r="Q133" s="42"/>
+      <c r="R133" s="42"/>
+      <c r="S133" s="42"/>
+      <c r="T133" s="42"/>
+      <c r="U133" s="43"/>
+      <c r="V133" s="42"/>
+      <c r="W133" s="43"/>
+      <c r="X133" s="43"/>
+      <c r="Y133" s="43"/>
+      <c r="Z133" s="43"/>
+      <c r="AA133" s="43"/>
+      <c r="AB133" s="43"/>
+      <c r="AC133" s="43"/>
+      <c r="AD133" s="43"/>
+      <c r="AE133" s="43"/>
+      <c r="AF133" s="43"/>
+      <c r="AG133" s="43"/>
+      <c r="AH133" s="43"/>
+      <c r="AI133" s="43"/>
     </row>
     <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="42"/>
-      <c r="B134" s="42"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="31"/>
-      <c r="E134" s="31"/>
-      <c r="F134" s="31"/>
-      <c r="G134" s="31"/>
-      <c r="H134" s="31"/>
-      <c r="I134" s="43"/>
-      <c r="J134" s="43"/>
-      <c r="K134" s="43"/>
-      <c r="L134" s="43"/>
-      <c r="M134" s="42"/>
-      <c r="N134" s="42"/>
-      <c r="O134" s="42"/>
-      <c r="P134" s="42"/>
-      <c r="Q134" s="42"/>
-      <c r="R134" s="42"/>
-      <c r="S134" s="42"/>
-      <c r="T134" s="42"/>
-      <c r="U134" s="43"/>
-      <c r="V134" s="42"/>
-      <c r="W134" s="43"/>
-      <c r="X134" s="43"/>
-      <c r="Y134" s="43"/>
-      <c r="Z134" s="43"/>
-      <c r="AA134" s="43"/>
-      <c r="AB134" s="43"/>
-      <c r="AC134" s="43"/>
-      <c r="AD134" s="43"/>
-      <c r="AE134" s="43"/>
-      <c r="AF134" s="43"/>
-      <c r="AG134" s="43"/>
-      <c r="AH134" s="43"/>
-      <c r="AI134" s="43"/>
+      <c r="A134" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B134" s="44" t="s">
+        <v>360</v>
+      </c>
+      <c r="C134" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D134" s="46"/>
+      <c r="E134" s="46"/>
+      <c r="F134" s="46"/>
+      <c r="G134" s="46"/>
+      <c r="H134" s="46"/>
+      <c r="I134" s="47"/>
+      <c r="J134" s="47"/>
+      <c r="K134" s="47" t="s">
+        <v>347</v>
+      </c>
+      <c r="L134" s="47"/>
+      <c r="M134" s="45"/>
+      <c r="N134" s="45"/>
+      <c r="O134" s="45"/>
+      <c r="P134" s="45"/>
+      <c r="Q134" s="45"/>
+      <c r="R134" s="45"/>
+      <c r="S134" s="45"/>
+      <c r="T134" s="45"/>
+      <c r="U134" s="47"/>
+      <c r="V134" s="45"/>
+      <c r="W134" s="47"/>
+      <c r="X134" s="47"/>
+      <c r="Y134" s="47"/>
+      <c r="Z134" s="47"/>
+      <c r="AA134" s="47"/>
+      <c r="AB134" s="47"/>
+      <c r="AC134" s="47"/>
+      <c r="AD134" s="47"/>
+      <c r="AE134" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF134" s="47"/>
+      <c r="AG134" s="47"/>
+      <c r="AH134" s="47"/>
+      <c r="AI134" s="47"/>
     </row>
     <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B135" s="44" t="s">
-        <v>360</v>
+      <c r="A135" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B135" s="48" t="s">
+        <v>361</v>
       </c>
       <c r="C135" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D135" s="46"/>
-      <c r="E135" s="46"/>
-      <c r="F135" s="46"/>
-      <c r="G135" s="46"/>
-      <c r="H135" s="46"/>
+        <v>362</v>
+      </c>
+      <c r="D135" s="47"/>
+      <c r="E135" s="47"/>
+      <c r="F135" s="47"/>
+      <c r="G135" s="47"/>
+      <c r="H135" s="47"/>
       <c r="I135" s="47"/>
       <c r="J135" s="47"/>
-      <c r="K135" s="47" t="s">
-        <v>347</v>
-      </c>
+      <c r="K135" s="47"/>
       <c r="L135" s="47"/>
-      <c r="M135" s="45"/>
-      <c r="N135" s="45"/>
-      <c r="O135" s="45"/>
-      <c r="P135" s="45"/>
-      <c r="Q135" s="45"/>
-      <c r="R135" s="45"/>
-      <c r="S135" s="45"/>
-      <c r="T135" s="45"/>
+      <c r="M135" s="47"/>
+      <c r="N135" s="47"/>
+      <c r="O135" s="47"/>
+      <c r="P135" s="47"/>
+      <c r="Q135" s="47"/>
+      <c r="R135" s="47"/>
+      <c r="S135" s="47"/>
+      <c r="T135" s="47"/>
       <c r="U135" s="47"/>
-      <c r="V135" s="45"/>
+      <c r="V135" s="47"/>
       <c r="W135" s="47"/>
       <c r="X135" s="47"/>
       <c r="Y135" s="47"/>
@@ -8034,23 +8039,21 @@
       <c r="AB135" s="47"/>
       <c r="AC135" s="47"/>
       <c r="AD135" s="47"/>
-      <c r="AE135" s="47" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE135" s="47"/>
       <c r="AF135" s="47"/>
       <c r="AG135" s="47"/>
       <c r="AH135" s="47"/>
       <c r="AI135" s="47"/>
     </row>
     <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="48" t="s">
+      <c r="A136" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B136" s="48" t="s">
-        <v>361</v>
+      <c r="B136" s="44" t="s">
+        <v>363</v>
       </c>
       <c r="C136" s="45" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D136" s="47"/>
       <c r="E136" s="47"/>
@@ -8059,7 +8062,9 @@
       <c r="H136" s="47"/>
       <c r="I136" s="47"/>
       <c r="J136" s="47"/>
-      <c r="K136" s="47"/>
+      <c r="K136" s="45" t="s">
+        <v>365</v>
+      </c>
       <c r="L136" s="47"/>
       <c r="M136" s="47"/>
       <c r="N136" s="47"/>
@@ -8090,10 +8095,10 @@
         <v>117</v>
       </c>
       <c r="B137" s="44" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C137" s="45" t="s">
-        <v>364</v>
+        <v>465</v>
       </c>
       <c r="D137" s="47"/>
       <c r="E137" s="47"/>
@@ -8102,9 +8107,7 @@
       <c r="H137" s="47"/>
       <c r="I137" s="47"/>
       <c r="J137" s="47"/>
-      <c r="K137" s="45" t="s">
-        <v>365</v>
-      </c>
+      <c r="K137" s="45"/>
       <c r="L137" s="47"/>
       <c r="M137" s="47"/>
       <c r="N137" s="47"/>
@@ -8135,10 +8138,10 @@
         <v>117</v>
       </c>
       <c r="B138" s="44" t="s">
-        <v>366</v>
+        <v>417</v>
       </c>
       <c r="C138" s="45" t="s">
-        <v>465</v>
+        <v>413</v>
       </c>
       <c r="D138" s="47"/>
       <c r="E138" s="47"/>
@@ -8147,7 +8150,9 @@
       <c r="H138" s="47"/>
       <c r="I138" s="47"/>
       <c r="J138" s="47"/>
-      <c r="K138" s="45"/>
+      <c r="K138" s="45" t="s">
+        <v>365</v>
+      </c>
       <c r="L138" s="47"/>
       <c r="M138" s="47"/>
       <c r="N138" s="47"/>
@@ -8178,10 +8183,10 @@
         <v>117</v>
       </c>
       <c r="B139" s="44" t="s">
-        <v>417</v>
-      </c>
-      <c r="C139" s="45" t="s">
-        <v>413</v>
+        <v>367</v>
+      </c>
+      <c r="C139" s="47" t="s">
+        <v>414</v>
       </c>
       <c r="D139" s="47"/>
       <c r="E139" s="47"/>
@@ -8189,9 +8194,9 @@
       <c r="G139" s="47"/>
       <c r="H139" s="47"/>
       <c r="I139" s="47"/>
-      <c r="J139" s="47"/>
+      <c r="J139" s="46"/>
       <c r="K139" s="45" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="L139" s="47"/>
       <c r="M139" s="47"/>
@@ -8223,32 +8228,34 @@
         <v>117</v>
       </c>
       <c r="B140" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="C140" s="47" t="s">
-        <v>414</v>
-      </c>
-      <c r="D140" s="47"/>
-      <c r="E140" s="47"/>
-      <c r="F140" s="47"/>
-      <c r="G140" s="47"/>
-      <c r="H140" s="47"/>
+        <v>369</v>
+      </c>
+      <c r="C140" s="45" t="s">
+        <v>248</v>
+      </c>
+      <c r="D140" s="46"/>
+      <c r="E140" s="46"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="46"/>
+      <c r="H140" s="46"/>
       <c r="I140" s="47"/>
-      <c r="J140" s="46"/>
-      <c r="K140" s="45" t="s">
-        <v>368</v>
+      <c r="J140" s="45" t="s">
+        <v>418</v>
+      </c>
+      <c r="K140" s="47" t="s">
+        <v>370</v>
       </c>
       <c r="L140" s="47"/>
-      <c r="M140" s="47"/>
-      <c r="N140" s="47"/>
-      <c r="O140" s="47"/>
-      <c r="P140" s="47"/>
-      <c r="Q140" s="47"/>
-      <c r="R140" s="47"/>
-      <c r="S140" s="47"/>
-      <c r="T140" s="47"/>
+      <c r="M140" s="45"/>
+      <c r="N140" s="45"/>
+      <c r="O140" s="45"/>
+      <c r="P140" s="45"/>
+      <c r="Q140" s="45"/>
+      <c r="R140" s="45"/>
+      <c r="S140" s="45"/>
+      <c r="T140" s="45"/>
       <c r="U140" s="47"/>
-      <c r="V140" s="47"/>
+      <c r="V140" s="45"/>
       <c r="W140" s="47"/>
       <c r="X140" s="47"/>
       <c r="Y140" s="47"/>
@@ -8268,10 +8275,10 @@
         <v>117</v>
       </c>
       <c r="B141" s="44" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C141" s="45" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D141" s="46"/>
       <c r="E141" s="46"/>
@@ -8280,7 +8287,7 @@
       <c r="H141" s="46"/>
       <c r="I141" s="47"/>
       <c r="J141" s="45" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K141" s="47" t="s">
         <v>370</v>
@@ -8315,10 +8322,10 @@
         <v>117</v>
       </c>
       <c r="B142" s="44" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C142" s="45" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D142" s="46"/>
       <c r="E142" s="46"/>
@@ -8327,7 +8334,7 @@
       <c r="H142" s="46"/>
       <c r="I142" s="47"/>
       <c r="J142" s="45" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="K142" s="47" t="s">
         <v>370</v>
@@ -8362,34 +8369,34 @@
         <v>117</v>
       </c>
       <c r="B143" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="C143" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="D143" s="46"/>
-      <c r="E143" s="46"/>
-      <c r="F143" s="46"/>
-      <c r="G143" s="46"/>
-      <c r="H143" s="46"/>
+        <v>416</v>
+      </c>
+      <c r="C143" s="47" t="s">
+        <v>373</v>
+      </c>
+      <c r="D143" s="47"/>
+      <c r="E143" s="47"/>
+      <c r="F143" s="47"/>
+      <c r="G143" s="47"/>
+      <c r="H143" s="47"/>
       <c r="I143" s="47"/>
       <c r="J143" s="45" t="s">
         <v>420</v>
       </c>
-      <c r="K143" s="47" t="s">
-        <v>370</v>
+      <c r="K143" s="45" t="s">
+        <v>368</v>
       </c>
       <c r="L143" s="47"/>
-      <c r="M143" s="45"/>
-      <c r="N143" s="45"/>
-      <c r="O143" s="45"/>
-      <c r="P143" s="45"/>
-      <c r="Q143" s="45"/>
-      <c r="R143" s="45"/>
-      <c r="S143" s="45"/>
-      <c r="T143" s="45"/>
+      <c r="M143" s="47"/>
+      <c r="N143" s="47"/>
+      <c r="O143" s="47"/>
+      <c r="P143" s="47"/>
+      <c r="Q143" s="47"/>
+      <c r="R143" s="47"/>
+      <c r="S143" s="47"/>
+      <c r="T143" s="47"/>
       <c r="U143" s="47"/>
-      <c r="V143" s="45"/>
+      <c r="V143" s="47"/>
       <c r="W143" s="47"/>
       <c r="X143" s="47"/>
       <c r="Y143" s="47"/>
@@ -8409,34 +8416,34 @@
         <v>117</v>
       </c>
       <c r="B144" s="44" t="s">
-        <v>416</v>
-      </c>
-      <c r="C144" s="47" t="s">
-        <v>373</v>
-      </c>
-      <c r="D144" s="47"/>
-      <c r="E144" s="47"/>
-      <c r="F144" s="47"/>
-      <c r="G144" s="47"/>
-      <c r="H144" s="47"/>
+        <v>374</v>
+      </c>
+      <c r="C144" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="D144" s="46"/>
+      <c r="E144" s="46"/>
+      <c r="F144" s="46"/>
+      <c r="G144" s="46"/>
+      <c r="H144" s="46"/>
       <c r="I144" s="47"/>
       <c r="J144" s="45" t="s">
         <v>420</v>
       </c>
-      <c r="K144" s="45" t="s">
-        <v>368</v>
+      <c r="K144" s="47" t="s">
+        <v>370</v>
       </c>
       <c r="L144" s="47"/>
-      <c r="M144" s="47"/>
-      <c r="N144" s="47"/>
-      <c r="O144" s="47"/>
-      <c r="P144" s="47"/>
-      <c r="Q144" s="47"/>
-      <c r="R144" s="47"/>
-      <c r="S144" s="47"/>
-      <c r="T144" s="47"/>
+      <c r="M144" s="45"/>
+      <c r="N144" s="45"/>
+      <c r="O144" s="45"/>
+      <c r="P144" s="45"/>
+      <c r="Q144" s="45"/>
+      <c r="R144" s="45"/>
+      <c r="S144" s="45"/>
+      <c r="T144" s="45"/>
       <c r="U144" s="47"/>
-      <c r="V144" s="47"/>
+      <c r="V144" s="45"/>
       <c r="W144" s="47"/>
       <c r="X144" s="47"/>
       <c r="Y144" s="47"/>
@@ -8456,10 +8463,10 @@
         <v>117</v>
       </c>
       <c r="B145" s="44" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C145" s="45" t="s">
-        <v>415</v>
+        <v>459</v>
       </c>
       <c r="D145" s="46"/>
       <c r="E145" s="46"/>
@@ -8503,10 +8510,10 @@
         <v>117</v>
       </c>
       <c r="B146" s="44" t="s">
-        <v>375</v>
+        <v>422</v>
       </c>
       <c r="C146" s="45" t="s">
-        <v>459</v>
+        <v>432</v>
       </c>
       <c r="D146" s="46"/>
       <c r="E146" s="46"/>
@@ -8515,10 +8522,10 @@
       <c r="H146" s="46"/>
       <c r="I146" s="47"/>
       <c r="J146" s="45" t="s">
-        <v>420</v>
-      </c>
-      <c r="K146" s="47" t="s">
-        <v>370</v>
+        <v>433</v>
+      </c>
+      <c r="K146" s="45" t="s">
+        <v>368</v>
       </c>
       <c r="L146" s="47"/>
       <c r="M146" s="45"/>
@@ -8550,34 +8557,34 @@
         <v>117</v>
       </c>
       <c r="B147" s="44" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C147" s="45" t="s">
-        <v>432</v>
-      </c>
-      <c r="D147" s="46"/>
-      <c r="E147" s="46"/>
-      <c r="F147" s="46"/>
-      <c r="G147" s="46"/>
-      <c r="H147" s="46"/>
+        <v>443</v>
+      </c>
+      <c r="D147" s="47"/>
+      <c r="E147" s="47"/>
+      <c r="F147" s="47"/>
+      <c r="G147" s="47"/>
+      <c r="H147" s="47"/>
       <c r="I147" s="47"/>
       <c r="J147" s="45" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K147" s="45" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L147" s="47"/>
-      <c r="M147" s="45"/>
-      <c r="N147" s="45"/>
-      <c r="O147" s="45"/>
-      <c r="P147" s="45"/>
-      <c r="Q147" s="45"/>
-      <c r="R147" s="45"/>
-      <c r="S147" s="45"/>
-      <c r="T147" s="45"/>
+      <c r="M147" s="47"/>
+      <c r="N147" s="47"/>
+      <c r="O147" s="47"/>
+      <c r="P147" s="47"/>
+      <c r="Q147" s="47"/>
+      <c r="R147" s="47"/>
+      <c r="S147" s="47"/>
+      <c r="T147" s="47"/>
       <c r="U147" s="47"/>
-      <c r="V147" s="45"/>
+      <c r="V147" s="47"/>
       <c r="W147" s="47"/>
       <c r="X147" s="47"/>
       <c r="Y147" s="47"/>
@@ -8597,10 +8604,10 @@
         <v>117</v>
       </c>
       <c r="B148" s="44" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C148" s="45" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D148" s="47"/>
       <c r="E148" s="47"/>
@@ -8609,7 +8616,7 @@
       <c r="H148" s="47"/>
       <c r="I148" s="47"/>
       <c r="J148" s="45" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K148" s="45" t="s">
         <v>370</v>
@@ -8644,10 +8651,10 @@
         <v>117</v>
       </c>
       <c r="B149" s="44" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C149" s="45" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D149" s="47"/>
       <c r="E149" s="47"/>
@@ -8656,7 +8663,7 @@
       <c r="H149" s="47"/>
       <c r="I149" s="47"/>
       <c r="J149" s="45" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K149" s="45" t="s">
         <v>370</v>
@@ -8691,10 +8698,10 @@
         <v>117</v>
       </c>
       <c r="B150" s="44" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C150" s="45" t="s">
-        <v>445</v>
+        <v>210</v>
       </c>
       <c r="D150" s="47"/>
       <c r="E150" s="47"/>
@@ -8703,7 +8710,7 @@
       <c r="H150" s="47"/>
       <c r="I150" s="47"/>
       <c r="J150" s="45" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K150" s="45" t="s">
         <v>370</v>
@@ -8738,10 +8745,10 @@
         <v>117</v>
       </c>
       <c r="B151" s="44" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C151" s="45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D151" s="47"/>
       <c r="E151" s="47"/>
@@ -8750,7 +8757,7 @@
       <c r="H151" s="47"/>
       <c r="I151" s="47"/>
       <c r="J151" s="45" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K151" s="45" t="s">
         <v>370</v>
@@ -8785,10 +8792,10 @@
         <v>117</v>
       </c>
       <c r="B152" s="44" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C152" s="45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D152" s="47"/>
       <c r="E152" s="47"/>
@@ -8797,7 +8804,7 @@
       <c r="H152" s="47"/>
       <c r="I152" s="47"/>
       <c r="J152" s="45" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="K152" s="45" t="s">
         <v>370</v>
@@ -8832,10 +8839,10 @@
         <v>117</v>
       </c>
       <c r="B153" s="44" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C153" s="45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D153" s="47"/>
       <c r="E153" s="47"/>
@@ -8844,7 +8851,7 @@
       <c r="H153" s="47"/>
       <c r="I153" s="47"/>
       <c r="J153" s="45" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="K153" s="45" t="s">
         <v>370</v>
@@ -8879,10 +8886,10 @@
         <v>117</v>
       </c>
       <c r="B154" s="44" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D154" s="47"/>
       <c r="E154" s="47"/>
@@ -8891,7 +8898,7 @@
       <c r="H154" s="47"/>
       <c r="I154" s="47"/>
       <c r="J154" s="45" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K154" s="45" t="s">
         <v>370</v>
@@ -8926,10 +8933,10 @@
         <v>117</v>
       </c>
       <c r="B155" s="44" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C155" s="45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D155" s="47"/>
       <c r="E155" s="47"/>
@@ -8938,7 +8945,7 @@
       <c r="H155" s="47"/>
       <c r="I155" s="47"/>
       <c r="J155" s="45" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="K155" s="45" t="s">
         <v>370</v>
@@ -8973,10 +8980,10 @@
         <v>117</v>
       </c>
       <c r="B156" s="44" t="s">
-        <v>431</v>
+        <v>377</v>
       </c>
       <c r="C156" s="45" t="s">
-        <v>215</v>
+        <v>378</v>
       </c>
       <c r="D156" s="47"/>
       <c r="E156" s="47"/>
@@ -8984,11 +8991,11 @@
       <c r="G156" s="47"/>
       <c r="H156" s="47"/>
       <c r="I156" s="47"/>
-      <c r="J156" s="45" t="s">
-        <v>442</v>
+      <c r="J156" s="47" t="s">
+        <v>446</v>
       </c>
       <c r="K156" s="45" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="L156" s="47"/>
       <c r="M156" s="47"/>
@@ -9020,10 +9027,10 @@
         <v>117</v>
       </c>
       <c r="B157" s="44" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C157" s="45" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="D157" s="47"/>
       <c r="E157" s="47"/>
@@ -9031,12 +9038,10 @@
       <c r="G157" s="47"/>
       <c r="H157" s="47"/>
       <c r="I157" s="47"/>
-      <c r="J157" s="47" t="s">
-        <v>446</v>
-      </c>
-      <c r="K157" s="45" t="s">
-        <v>379</v>
-      </c>
+      <c r="J157" s="45" t="s">
+        <v>382</v>
+      </c>
+      <c r="K157" s="45"/>
       <c r="L157" s="47"/>
       <c r="M157" s="47"/>
       <c r="N157" s="47"/>
@@ -9067,10 +9072,10 @@
         <v>117</v>
       </c>
       <c r="B158" s="44" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C158" s="45" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D158" s="47"/>
       <c r="E158" s="47"/>
@@ -9079,9 +9084,11 @@
       <c r="H158" s="47"/>
       <c r="I158" s="47"/>
       <c r="J158" s="45" t="s">
-        <v>382</v>
-      </c>
-      <c r="K158" s="45"/>
+        <v>433</v>
+      </c>
+      <c r="K158" s="45" t="s">
+        <v>370</v>
+      </c>
       <c r="L158" s="47"/>
       <c r="M158" s="47"/>
       <c r="N158" s="47"/>
@@ -9112,34 +9119,34 @@
         <v>117</v>
       </c>
       <c r="B159" s="44" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D159" s="47"/>
-      <c r="E159" s="47"/>
-      <c r="F159" s="47"/>
-      <c r="G159" s="47"/>
-      <c r="H159" s="47"/>
+        <v>385</v>
+      </c>
+      <c r="D159" s="46"/>
+      <c r="E159" s="46"/>
+      <c r="F159" s="46"/>
+      <c r="G159" s="46"/>
+      <c r="H159" s="46"/>
       <c r="I159" s="47"/>
       <c r="J159" s="45" t="s">
-        <v>433</v>
-      </c>
-      <c r="K159" s="45" t="s">
+        <v>419</v>
+      </c>
+      <c r="K159" s="47" t="s">
         <v>370</v>
       </c>
       <c r="L159" s="47"/>
-      <c r="M159" s="47"/>
-      <c r="N159" s="47"/>
-      <c r="O159" s="47"/>
-      <c r="P159" s="47"/>
-      <c r="Q159" s="47"/>
-      <c r="R159" s="47"/>
-      <c r="S159" s="47"/>
-      <c r="T159" s="47"/>
+      <c r="M159" s="45"/>
+      <c r="N159" s="45"/>
+      <c r="O159" s="45"/>
+      <c r="P159" s="45"/>
+      <c r="Q159" s="45"/>
+      <c r="R159" s="45"/>
+      <c r="S159" s="45"/>
+      <c r="T159" s="45"/>
       <c r="U159" s="47"/>
-      <c r="V159" s="47"/>
+      <c r="V159" s="45"/>
       <c r="W159" s="47"/>
       <c r="X159" s="47"/>
       <c r="Y159" s="47"/>
@@ -9159,10 +9166,10 @@
         <v>117</v>
       </c>
       <c r="B160" s="44" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C160" s="45" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D160" s="46"/>
       <c r="E160" s="46"/>
@@ -9170,12 +9177,10 @@
       <c r="G160" s="46"/>
       <c r="H160" s="46"/>
       <c r="I160" s="47"/>
-      <c r="J160" s="45" t="s">
-        <v>419</v>
-      </c>
-      <c r="K160" s="47" t="s">
-        <v>370</v>
-      </c>
+      <c r="J160" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="K160" s="47"/>
       <c r="L160" s="47"/>
       <c r="M160" s="45"/>
       <c r="N160" s="45"/>
@@ -9206,10 +9211,10 @@
         <v>117</v>
       </c>
       <c r="B161" s="44" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D161" s="46"/>
       <c r="E161" s="46"/>
@@ -9251,32 +9256,34 @@
         <v>117</v>
       </c>
       <c r="B162" s="44" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C162" s="45" t="s">
-        <v>389</v>
-      </c>
-      <c r="D162" s="46"/>
-      <c r="E162" s="46"/>
-      <c r="F162" s="46"/>
-      <c r="G162" s="46"/>
-      <c r="H162" s="46"/>
+        <v>391</v>
+      </c>
+      <c r="D162" s="47"/>
+      <c r="E162" s="47"/>
+      <c r="F162" s="47"/>
+      <c r="G162" s="47"/>
+      <c r="H162" s="47"/>
       <c r="I162" s="47"/>
-      <c r="J162" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="K162" s="47"/>
+      <c r="J162" s="45" t="s">
+        <v>433</v>
+      </c>
+      <c r="K162" s="45" t="s">
+        <v>392</v>
+      </c>
       <c r="L162" s="47"/>
-      <c r="M162" s="45"/>
-      <c r="N162" s="45"/>
-      <c r="O162" s="45"/>
-      <c r="P162" s="45"/>
-      <c r="Q162" s="45"/>
-      <c r="R162" s="45"/>
-      <c r="S162" s="45"/>
-      <c r="T162" s="45"/>
+      <c r="M162" s="47"/>
+      <c r="N162" s="47"/>
+      <c r="O162" s="47"/>
+      <c r="P162" s="47"/>
+      <c r="Q162" s="47"/>
+      <c r="R162" s="47"/>
+      <c r="S162" s="47"/>
+      <c r="T162" s="47"/>
       <c r="U162" s="47"/>
-      <c r="V162" s="45"/>
+      <c r="V162" s="47"/>
       <c r="W162" s="47"/>
       <c r="X162" s="47"/>
       <c r="Y162" s="47"/>
@@ -9296,10 +9303,10 @@
         <v>117</v>
       </c>
       <c r="B163" s="44" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C163" s="45" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D163" s="47"/>
       <c r="E163" s="47"/>
@@ -9310,9 +9317,7 @@
       <c r="J163" s="45" t="s">
         <v>433</v>
       </c>
-      <c r="K163" s="45" t="s">
-        <v>392</v>
-      </c>
+      <c r="K163" s="45"/>
       <c r="L163" s="47"/>
       <c r="M163" s="47"/>
       <c r="N163" s="47"/>
@@ -9343,10 +9348,10 @@
         <v>117</v>
       </c>
       <c r="B164" s="44" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C164" s="45" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D164" s="47"/>
       <c r="E164" s="47"/>
@@ -9388,10 +9393,10 @@
         <v>117</v>
       </c>
       <c r="B165" s="44" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C165" s="45" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="D165" s="47"/>
       <c r="E165" s="47"/>
@@ -9430,35 +9435,29 @@
     </row>
     <row r="166" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B166" s="44" t="s">
-        <v>397</v>
-      </c>
-      <c r="C166" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="D166" s="47"/>
-      <c r="E166" s="47"/>
-      <c r="F166" s="47"/>
-      <c r="G166" s="47"/>
-      <c r="H166" s="47"/>
+        <v>68</v>
+      </c>
+      <c r="B166" s="44"/>
+      <c r="C166" s="45"/>
+      <c r="D166" s="46"/>
+      <c r="E166" s="46"/>
+      <c r="F166" s="46"/>
+      <c r="G166" s="46"/>
+      <c r="H166" s="46"/>
       <c r="I166" s="47"/>
-      <c r="J166" s="45" t="s">
-        <v>433</v>
-      </c>
-      <c r="K166" s="45"/>
+      <c r="J166" s="47"/>
+      <c r="K166" s="47"/>
       <c r="L166" s="47"/>
-      <c r="M166" s="47"/>
-      <c r="N166" s="47"/>
-      <c r="O166" s="47"/>
-      <c r="P166" s="47"/>
-      <c r="Q166" s="47"/>
-      <c r="R166" s="47"/>
-      <c r="S166" s="47"/>
-      <c r="T166" s="47"/>
+      <c r="M166" s="45"/>
+      <c r="N166" s="45"/>
+      <c r="O166" s="45"/>
+      <c r="P166" s="45"/>
+      <c r="Q166" s="45"/>
+      <c r="R166" s="45"/>
+      <c r="S166" s="45"/>
+      <c r="T166" s="45"/>
       <c r="U166" s="47"/>
-      <c r="V166" s="47"/>
+      <c r="V166" s="45"/>
       <c r="W166" s="47"/>
       <c r="X166" s="47"/>
       <c r="Y166" s="47"/>
@@ -9474,62 +9473,70 @@
       <c r="AI166" s="47"/>
     </row>
     <row r="167" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B167" s="44"/>
-      <c r="C167" s="45"/>
-      <c r="D167" s="46"/>
-      <c r="E167" s="46"/>
-      <c r="F167" s="46"/>
-      <c r="G167" s="46"/>
-      <c r="H167" s="46"/>
-      <c r="I167" s="47"/>
-      <c r="J167" s="47"/>
-      <c r="K167" s="47"/>
-      <c r="L167" s="47"/>
-      <c r="M167" s="45"/>
-      <c r="N167" s="45"/>
-      <c r="O167" s="45"/>
-      <c r="P167" s="45"/>
-      <c r="Q167" s="45"/>
-      <c r="R167" s="45"/>
-      <c r="S167" s="45"/>
-      <c r="T167" s="45"/>
-      <c r="U167" s="47"/>
-      <c r="V167" s="45"/>
-      <c r="W167" s="47"/>
-      <c r="X167" s="47"/>
-      <c r="Y167" s="47"/>
-      <c r="Z167" s="47"/>
-      <c r="AA167" s="47"/>
-      <c r="AB167" s="47"/>
-      <c r="AC167" s="47"/>
-      <c r="AD167" s="47"/>
-      <c r="AE167" s="47"/>
-      <c r="AF167" s="47"/>
-      <c r="AG167" s="47"/>
-      <c r="AH167" s="47"/>
-      <c r="AI167" s="47"/>
+      <c r="A167" s="31"/>
+      <c r="B167" s="31"/>
+      <c r="C167" s="31"/>
+      <c r="E167" s="31"/>
+      <c r="F167" s="31"/>
+      <c r="AE167" s="31"/>
+      <c r="AF167" s="31"/>
+      <c r="AG167" s="31"/>
+      <c r="AH167" s="31"/>
+      <c r="AI167" s="31"/>
     </row>
     <row r="168" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="31"/>
-      <c r="B168" s="31"/>
-      <c r="C168" s="31"/>
-      <c r="E168" s="31"/>
-      <c r="F168" s="31"/>
-      <c r="AE168" s="31"/>
-      <c r="AF168" s="31"/>
-      <c r="AG168" s="31"/>
-      <c r="AH168" s="31"/>
-      <c r="AI168" s="31"/>
+      <c r="A168" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B168" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C168" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D168" s="50"/>
+      <c r="E168" s="50"/>
+      <c r="F168" s="50"/>
+      <c r="G168" s="50"/>
+      <c r="H168" s="50"/>
+      <c r="I168" s="50"/>
+      <c r="J168" s="50"/>
+      <c r="K168" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="L168" s="50"/>
+      <c r="M168" s="50"/>
+      <c r="N168" s="50"/>
+      <c r="O168" s="50"/>
+      <c r="P168" s="50"/>
+      <c r="Q168" s="50"/>
+      <c r="R168" s="50"/>
+      <c r="S168" s="50"/>
+      <c r="T168" s="50"/>
+      <c r="U168" s="50"/>
+      <c r="V168" s="50"/>
+      <c r="W168" s="50"/>
+      <c r="X168" s="50"/>
+      <c r="Y168" s="50"/>
+      <c r="Z168" s="50"/>
+      <c r="AA168" s="50"/>
+      <c r="AB168" s="50"/>
+      <c r="AC168" s="50"/>
+      <c r="AD168" s="50"/>
+      <c r="AE168" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF168" s="50"/>
+      <c r="AG168" s="50"/>
+      <c r="AH168" s="50"/>
+      <c r="AI168" s="50"/>
     </row>
     <row r="169" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B169" s="49" t="s">
-        <v>48</v>
+        <v>78</v>
+      </c>
+      <c r="B169" s="52" t="s">
+        <v>238</v>
       </c>
       <c r="C169" s="50" t="s">
         <v>45</v>
@@ -9541,9 +9548,7 @@
       <c r="H169" s="50"/>
       <c r="I169" s="50"/>
       <c r="J169" s="50"/>
-      <c r="K169" s="51" t="s">
-        <v>50</v>
-      </c>
+      <c r="K169" s="50"/>
       <c r="L169" s="50"/>
       <c r="M169" s="50"/>
       <c r="N169" s="50"/>
@@ -9552,7 +9557,9 @@
       <c r="Q169" s="50"/>
       <c r="R169" s="50"/>
       <c r="S169" s="50"/>
-      <c r="T169" s="50"/>
+      <c r="T169" s="50" t="s">
+        <v>448</v>
+      </c>
       <c r="U169" s="50"/>
       <c r="V169" s="50"/>
       <c r="W169" s="50"/>
@@ -9563,11 +9570,11 @@
       <c r="AB169" s="50"/>
       <c r="AC169" s="50"/>
       <c r="AD169" s="50"/>
-      <c r="AE169" s="51" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE169" s="50"/>
       <c r="AF169" s="50"/>
-      <c r="AG169" s="50"/>
+      <c r="AG169" s="51" t="s">
+        <v>129</v>
+      </c>
       <c r="AH169" s="50"/>
       <c r="AI169" s="50"/>
     </row>
@@ -9576,7 +9583,7 @@
         <v>78</v>
       </c>
       <c r="B170" s="52" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C170" s="50" t="s">
         <v>45</v>
@@ -9598,7 +9605,7 @@
       <c r="R170" s="50"/>
       <c r="S170" s="50"/>
       <c r="T170" s="50" t="s">
-        <v>448</v>
+        <v>161</v>
       </c>
       <c r="U170" s="50"/>
       <c r="V170" s="50"/>
@@ -9613,7 +9620,7 @@
       <c r="AE170" s="50"/>
       <c r="AF170" s="50"/>
       <c r="AG170" s="51" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AH170" s="50"/>
       <c r="AI170" s="50"/>
@@ -9623,7 +9630,7 @@
         <v>78</v>
       </c>
       <c r="B171" s="52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C171" s="50" t="s">
         <v>45</v>
@@ -9645,7 +9652,7 @@
       <c r="R171" s="50"/>
       <c r="S171" s="50"/>
       <c r="T171" s="50" t="s">
-        <v>161</v>
+        <v>449</v>
       </c>
       <c r="U171" s="50"/>
       <c r="V171" s="50"/>
@@ -9660,7 +9667,7 @@
       <c r="AE171" s="50"/>
       <c r="AF171" s="50"/>
       <c r="AG171" s="51" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AH171" s="50"/>
       <c r="AI171" s="50"/>
@@ -9670,7 +9677,7 @@
         <v>78</v>
       </c>
       <c r="B172" s="52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C172" s="50" t="s">
         <v>45</v>
@@ -9692,7 +9699,7 @@
       <c r="R172" s="50"/>
       <c r="S172" s="50"/>
       <c r="T172" s="50" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="U172" s="50"/>
       <c r="V172" s="50"/>
@@ -9707,7 +9714,7 @@
       <c r="AE172" s="50"/>
       <c r="AF172" s="50"/>
       <c r="AG172" s="51" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH172" s="50"/>
       <c r="AI172" s="50"/>
@@ -9717,7 +9724,7 @@
         <v>78</v>
       </c>
       <c r="B173" s="52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C173" s="50" t="s">
         <v>45</v>
@@ -9739,7 +9746,7 @@
       <c r="R173" s="50"/>
       <c r="S173" s="50"/>
       <c r="T173" s="50" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="U173" s="50"/>
       <c r="V173" s="50"/>
@@ -9754,7 +9761,7 @@
       <c r="AE173" s="50"/>
       <c r="AF173" s="50"/>
       <c r="AG173" s="51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH173" s="50"/>
       <c r="AI173" s="50"/>
@@ -9764,7 +9771,7 @@
         <v>78</v>
       </c>
       <c r="B174" s="52" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C174" s="50" t="s">
         <v>45</v>
@@ -9786,7 +9793,7 @@
       <c r="R174" s="50"/>
       <c r="S174" s="50"/>
       <c r="T174" s="50" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="U174" s="50"/>
       <c r="V174" s="50"/>
@@ -9801,7 +9808,7 @@
       <c r="AE174" s="50"/>
       <c r="AF174" s="50"/>
       <c r="AG174" s="51" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AH174" s="50"/>
       <c r="AI174" s="50"/>
@@ -9811,7 +9818,7 @@
         <v>78</v>
       </c>
       <c r="B175" s="52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C175" s="50" t="s">
         <v>45</v>
@@ -9833,7 +9840,7 @@
       <c r="R175" s="50"/>
       <c r="S175" s="50"/>
       <c r="T175" s="50" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="U175" s="50"/>
       <c r="V175" s="50"/>
@@ -9848,7 +9855,7 @@
       <c r="AE175" s="50"/>
       <c r="AF175" s="50"/>
       <c r="AG175" s="51" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AH175" s="50"/>
       <c r="AI175" s="50"/>
@@ -9858,7 +9865,7 @@
         <v>78</v>
       </c>
       <c r="B176" s="52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C176" s="50" t="s">
         <v>45</v>
@@ -9880,7 +9887,7 @@
       <c r="R176" s="50"/>
       <c r="S176" s="50"/>
       <c r="T176" s="50" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="U176" s="50"/>
       <c r="V176" s="50"/>
@@ -9895,7 +9902,7 @@
       <c r="AE176" s="50"/>
       <c r="AF176" s="50"/>
       <c r="AG176" s="51" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AH176" s="50"/>
       <c r="AI176" s="50"/>
@@ -9905,7 +9912,7 @@
         <v>78</v>
       </c>
       <c r="B177" s="52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C177" s="50" t="s">
         <v>45</v>
@@ -9927,7 +9934,7 @@
       <c r="R177" s="50"/>
       <c r="S177" s="50"/>
       <c r="T177" s="50" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="U177" s="50"/>
       <c r="V177" s="50"/>
@@ -9942,7 +9949,7 @@
       <c r="AE177" s="50"/>
       <c r="AF177" s="50"/>
       <c r="AG177" s="51" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="AH177" s="50"/>
       <c r="AI177" s="50"/>
@@ -9952,7 +9959,7 @@
         <v>78</v>
       </c>
       <c r="B178" s="52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C178" s="50" t="s">
         <v>45</v>
@@ -9974,7 +9981,7 @@
       <c r="R178" s="50"/>
       <c r="S178" s="50"/>
       <c r="T178" s="50" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="U178" s="50"/>
       <c r="V178" s="50"/>
@@ -9989,7 +9996,7 @@
       <c r="AE178" s="50"/>
       <c r="AF178" s="50"/>
       <c r="AG178" s="51" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AH178" s="50"/>
       <c r="AI178" s="50"/>
@@ -9999,7 +10006,7 @@
         <v>78</v>
       </c>
       <c r="B179" s="52" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="C179" s="50" t="s">
         <v>45</v>
@@ -10021,7 +10028,7 @@
       <c r="R179" s="50"/>
       <c r="S179" s="50"/>
       <c r="T179" s="50" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="U179" s="50"/>
       <c r="V179" s="50"/>
@@ -10036,107 +10043,107 @@
       <c r="AE179" s="50"/>
       <c r="AF179" s="50"/>
       <c r="AG179" s="51" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AH179" s="50"/>
       <c r="AI179" s="50"/>
     </row>
     <row r="180" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B180" s="52" t="s">
-        <v>170</v>
+      <c r="A180" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B180" s="53" t="s">
+        <v>186</v>
       </c>
       <c r="C180" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D180" s="50"/>
-      <c r="E180" s="50"/>
-      <c r="F180" s="50"/>
-      <c r="G180" s="50"/>
-      <c r="H180" s="50"/>
-      <c r="I180" s="50"/>
-      <c r="J180" s="50"/>
-      <c r="K180" s="50"/>
-      <c r="L180" s="50"/>
-      <c r="M180" s="50"/>
-      <c r="N180" s="50"/>
-      <c r="O180" s="50"/>
-      <c r="P180" s="50"/>
-      <c r="Q180" s="50"/>
-      <c r="R180" s="50"/>
-      <c r="S180" s="50"/>
-      <c r="T180" s="50" t="s">
-        <v>457</v>
-      </c>
-      <c r="U180" s="50"/>
-      <c r="V180" s="50"/>
-      <c r="W180" s="50"/>
-      <c r="X180" s="50"/>
-      <c r="Y180" s="50"/>
-      <c r="Z180" s="50"/>
-      <c r="AA180" s="50"/>
-      <c r="AB180" s="50"/>
-      <c r="AC180" s="50"/>
-      <c r="AD180" s="50"/>
-      <c r="AE180" s="50"/>
-      <c r="AF180" s="50"/>
-      <c r="AG180" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH180" s="50"/>
-      <c r="AI180" s="50"/>
+      <c r="D180" s="51"/>
+      <c r="E180" s="51"/>
+      <c r="F180" s="51"/>
+      <c r="G180" s="51"/>
+      <c r="H180" s="51"/>
+      <c r="I180" s="51"/>
+      <c r="J180" s="51"/>
+      <c r="K180" s="51"/>
+      <c r="L180" s="51"/>
+      <c r="M180" s="51"/>
+      <c r="N180" s="51"/>
+      <c r="O180" s="51"/>
+      <c r="P180" s="51"/>
+      <c r="Q180" s="51"/>
+      <c r="R180" s="51"/>
+      <c r="S180" s="51"/>
+      <c r="T180" s="51"/>
+      <c r="U180" s="51"/>
+      <c r="V180" s="51"/>
+      <c r="W180" s="51"/>
+      <c r="X180" s="51"/>
+      <c r="Y180" s="51"/>
+      <c r="Z180" s="51"/>
+      <c r="AA180" s="51"/>
+      <c r="AB180" s="51"/>
+      <c r="AC180" s="51"/>
+      <c r="AD180" s="51"/>
+      <c r="AE180" s="51"/>
+      <c r="AF180" s="51"/>
+      <c r="AG180" s="51"/>
+      <c r="AH180" s="51"/>
+      <c r="AI180" s="51"/>
     </row>
     <row r="181" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B181" s="53" t="s">
-        <v>186</v>
+      <c r="A181" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B181" s="52" t="s">
+        <v>189</v>
       </c>
       <c r="C181" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D181" s="51"/>
-      <c r="E181" s="51"/>
-      <c r="F181" s="51"/>
-      <c r="G181" s="51"/>
-      <c r="H181" s="51"/>
-      <c r="I181" s="51"/>
-      <c r="J181" s="51"/>
-      <c r="K181" s="51"/>
-      <c r="L181" s="51"/>
-      <c r="M181" s="51"/>
-      <c r="N181" s="51"/>
-      <c r="O181" s="51"/>
-      <c r="P181" s="51"/>
-      <c r="Q181" s="51"/>
-      <c r="R181" s="51"/>
-      <c r="S181" s="51"/>
-      <c r="T181" s="51"/>
-      <c r="U181" s="51"/>
-      <c r="V181" s="51"/>
-      <c r="W181" s="51"/>
-      <c r="X181" s="51"/>
-      <c r="Y181" s="51"/>
-      <c r="Z181" s="51"/>
-      <c r="AA181" s="51"/>
-      <c r="AB181" s="51"/>
-      <c r="AC181" s="51"/>
-      <c r="AD181" s="51"/>
-      <c r="AE181" s="51"/>
-      <c r="AF181" s="51"/>
-      <c r="AG181" s="51"/>
-      <c r="AH181" s="51"/>
-      <c r="AI181" s="51"/>
+      <c r="D181" s="50"/>
+      <c r="E181" s="50"/>
+      <c r="F181" s="50"/>
+      <c r="G181" s="50"/>
+      <c r="H181" s="50"/>
+      <c r="I181" s="50"/>
+      <c r="J181" s="50"/>
+      <c r="K181" s="50"/>
+      <c r="L181" s="50"/>
+      <c r="M181" s="50"/>
+      <c r="N181" s="50"/>
+      <c r="O181" s="50"/>
+      <c r="P181" s="50"/>
+      <c r="Q181" s="50"/>
+      <c r="R181" s="50"/>
+      <c r="S181" s="50"/>
+      <c r="T181" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="U181" s="50"/>
+      <c r="V181" s="50"/>
+      <c r="W181" s="50"/>
+      <c r="X181" s="50"/>
+      <c r="Y181" s="50"/>
+      <c r="Z181" s="50"/>
+      <c r="AA181" s="50"/>
+      <c r="AB181" s="50"/>
+      <c r="AC181" s="50"/>
+      <c r="AD181" s="50"/>
+      <c r="AE181" s="50"/>
+      <c r="AF181" s="50"/>
+      <c r="AG181" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH181" s="50"/>
+      <c r="AI181" s="50"/>
     </row>
     <row r="182" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="49" t="s">
         <v>78</v>
       </c>
       <c r="B182" s="52" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C182" s="50" t="s">
         <v>45</v>
@@ -10158,7 +10165,7 @@
       <c r="R182" s="50"/>
       <c r="S182" s="50"/>
       <c r="T182" s="51" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="U182" s="50"/>
       <c r="V182" s="50"/>
@@ -10173,7 +10180,7 @@
       <c r="AE182" s="50"/>
       <c r="AF182" s="50"/>
       <c r="AG182" s="51" t="s">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="AH182" s="50"/>
       <c r="AI182" s="50"/>
@@ -10183,7 +10190,7 @@
         <v>78</v>
       </c>
       <c r="B183" s="52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C183" s="50" t="s">
         <v>45</v>
@@ -10205,7 +10212,7 @@
       <c r="R183" s="50"/>
       <c r="S183" s="50"/>
       <c r="T183" s="51" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U183" s="50"/>
       <c r="V183" s="50"/>
@@ -10220,7 +10227,7 @@
       <c r="AE183" s="50"/>
       <c r="AF183" s="50"/>
       <c r="AG183" s="51" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="AH183" s="50"/>
       <c r="AI183" s="50"/>
@@ -10230,7 +10237,7 @@
         <v>78</v>
       </c>
       <c r="B184" s="52" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C184" s="50" t="s">
         <v>45</v>
@@ -10252,7 +10259,7 @@
       <c r="R184" s="50"/>
       <c r="S184" s="50"/>
       <c r="T184" s="51" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="U184" s="50"/>
       <c r="V184" s="50"/>
@@ -10267,7 +10274,7 @@
       <c r="AE184" s="50"/>
       <c r="AF184" s="50"/>
       <c r="AG184" s="51" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="AH184" s="50"/>
       <c r="AI184" s="50"/>
@@ -10277,7 +10284,7 @@
         <v>78</v>
       </c>
       <c r="B185" s="52" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C185" s="50" t="s">
         <v>45</v>
@@ -10299,7 +10306,7 @@
       <c r="R185" s="50"/>
       <c r="S185" s="50"/>
       <c r="T185" s="51" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="U185" s="50"/>
       <c r="V185" s="50"/>
@@ -10314,64 +10321,58 @@
       <c r="AE185" s="50"/>
       <c r="AF185" s="50"/>
       <c r="AG185" s="51" t="s">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="AH185" s="50"/>
       <c r="AI185" s="50"/>
     </row>
     <row r="186" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B186" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="C186" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D186" s="50"/>
-      <c r="E186" s="50"/>
-      <c r="F186" s="50"/>
-      <c r="G186" s="50"/>
-      <c r="H186" s="50"/>
-      <c r="I186" s="50"/>
-      <c r="J186" s="50"/>
-      <c r="K186" s="50"/>
-      <c r="L186" s="50"/>
-      <c r="M186" s="50"/>
-      <c r="N186" s="50"/>
-      <c r="O186" s="50"/>
-      <c r="P186" s="50"/>
-      <c r="Q186" s="50"/>
-      <c r="R186" s="50"/>
-      <c r="S186" s="50"/>
-      <c r="T186" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="U186" s="50"/>
-      <c r="V186" s="50"/>
-      <c r="W186" s="50"/>
-      <c r="X186" s="50"/>
-      <c r="Y186" s="50"/>
-      <c r="Z186" s="50"/>
-      <c r="AA186" s="50"/>
-      <c r="AB186" s="50"/>
-      <c r="AC186" s="50"/>
-      <c r="AD186" s="50"/>
-      <c r="AE186" s="50"/>
-      <c r="AF186" s="50"/>
-      <c r="AG186" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH186" s="50"/>
-      <c r="AI186" s="50"/>
+      <c r="A186" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B186" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C186" s="51"/>
+      <c r="D186" s="51"/>
+      <c r="E186" s="51"/>
+      <c r="F186" s="51"/>
+      <c r="G186" s="51"/>
+      <c r="H186" s="51"/>
+      <c r="I186" s="51"/>
+      <c r="J186" s="51"/>
+      <c r="K186" s="51"/>
+      <c r="L186" s="51"/>
+      <c r="M186" s="51"/>
+      <c r="N186" s="51"/>
+      <c r="O186" s="51"/>
+      <c r="P186" s="51"/>
+      <c r="Q186" s="51"/>
+      <c r="R186" s="51"/>
+      <c r="S186" s="51"/>
+      <c r="T186" s="51"/>
+      <c r="U186" s="51"/>
+      <c r="V186" s="51"/>
+      <c r="W186" s="51"/>
+      <c r="X186" s="51"/>
+      <c r="Y186" s="51"/>
+      <c r="Z186" s="51"/>
+      <c r="AA186" s="51"/>
+      <c r="AB186" s="51"/>
+      <c r="AC186" s="51"/>
+      <c r="AD186" s="51"/>
+      <c r="AE186" s="51"/>
+      <c r="AF186" s="51"/>
+      <c r="AG186" s="51"/>
+      <c r="AH186" s="51"/>
+      <c r="AI186" s="51"/>
     </row>
     <row r="187" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="53" t="s">
         <v>68</v>
       </c>
       <c r="B187" s="53" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="C187" s="51"/>
       <c r="D187" s="51"/>
@@ -10407,53 +10408,12 @@
       <c r="AH187" s="51"/>
       <c r="AI187" s="51"/>
     </row>
-    <row r="188" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B188" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C188" s="51"/>
-      <c r="D188" s="51"/>
-      <c r="E188" s="51"/>
-      <c r="F188" s="51"/>
-      <c r="G188" s="51"/>
-      <c r="H188" s="51"/>
-      <c r="I188" s="51"/>
-      <c r="J188" s="51"/>
-      <c r="K188" s="51"/>
-      <c r="L188" s="51"/>
-      <c r="M188" s="51"/>
-      <c r="N188" s="51"/>
-      <c r="O188" s="51"/>
-      <c r="P188" s="51"/>
-      <c r="Q188" s="51"/>
-      <c r="R188" s="51"/>
-      <c r="S188" s="51"/>
-      <c r="T188" s="51"/>
-      <c r="U188" s="51"/>
-      <c r="V188" s="51"/>
-      <c r="W188" s="51"/>
-      <c r="X188" s="51"/>
-      <c r="Y188" s="51"/>
-      <c r="Z188" s="51"/>
-      <c r="AA188" s="51"/>
-      <c r="AB188" s="51"/>
-      <c r="AC188" s="51"/>
-      <c r="AD188" s="51"/>
-      <c r="AE188" s="51"/>
-      <c r="AF188" s="51"/>
-      <c r="AG188" s="51"/>
-      <c r="AH188" s="51"/>
-      <c r="AI188" s="51"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="A88:A112 A114:A118 A120:A167 A19:A22">
+    <dataValidation type="list" allowBlank="1" sqref="A87:A111 A113:A117 A119:A166 A18:A21">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:F17 I18 J19:J22 I23:I188">
+    <dataValidation type="list" allowBlank="1" sqref="E2:F16 I17 J18:J21 I22:I187">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10790,7 +10750,7 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>180</v>
@@ -10814,7 +10774,7 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>182</v>
@@ -10838,7 +10798,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>281</v>
@@ -10862,7 +10822,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>282</v>
@@ -11166,7 +11126,7 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
@@ -11223,14 +11183,14 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>556</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>557</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44125.801324074077</v>
+        <v>44125.841781134259</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/hbc_followup.xlsx
+++ b/forms/app/hbc_followup.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="556">
   <si>
     <t>form_title</t>
   </si>
@@ -1424,9 +1424,6 @@
   </si>
   <si>
     <t>floor(decimal-date-time(today())) - decimal-date-time(${discharge_date})</t>
-  </si>
-  <si>
-    <t>What is the passenger's name?</t>
   </si>
   <si>
     <t>form_date</t>
@@ -2288,10 +2285,10 @@
   <dimension ref="A1:AJ187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="K2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A17" sqref="A17:XFD17"/>
+      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2575,7 +2572,7 @@
         <v>63</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>461</v>
+        <v>45</v>
       </c>
       <c r="D6" s="27"/>
       <c r="E6" s="28"/>
@@ -2679,10 +2676,10 @@
         <v>50</v>
       </c>
       <c r="B9" s="26" t="s">
+        <v>508</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>509</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>510</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -2714,10 +2711,10 @@
         <v>50</v>
       </c>
       <c r="B10" s="30" t="s">
+        <v>461</v>
+      </c>
+      <c r="C10" s="27" t="s">
         <v>462</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>463</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -2867,7 +2864,7 @@
       <c r="R14" s="21"/>
       <c r="S14" s="22"/>
       <c r="T14" s="21" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
@@ -3004,7 +3001,7 @@
     </row>
     <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>240</v>
@@ -3017,10 +3014,10 @@
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36" t="s">
+      <c r="I19" s="35" t="s">
         <v>57</v>
       </c>
+      <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
       <c r="M19" s="36"/>
@@ -3131,10 +3128,10 @@
         <v>42</v>
       </c>
       <c r="B22" s="37" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
@@ -3226,7 +3223,7 @@
         <v>207</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
@@ -3273,7 +3270,7 @@
         <v>118</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -3320,7 +3317,7 @@
         <v>208</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
@@ -3367,7 +3364,7 @@
         <v>209</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
@@ -3411,10 +3408,10 @@
         <v>110</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C28" s="34" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
@@ -3458,10 +3455,10 @@
         <v>110</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C29" s="34" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
@@ -3787,10 +3784,10 @@
         <v>110</v>
       </c>
       <c r="B36" s="37" t="s">
+        <v>470</v>
+      </c>
+      <c r="C36" s="35" t="s">
         <v>471</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>472</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -3834,10 +3831,10 @@
         <v>110</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
@@ -4098,10 +4095,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="C43" s="35" t="s">
         <v>479</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>480</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -4143,10 +4140,10 @@
         <v>117</v>
       </c>
       <c r="B44" s="37" t="s">
+        <v>480</v>
+      </c>
+      <c r="C44" s="34" t="s">
         <v>481</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>482</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -4186,10 +4183,10 @@
         <v>117</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -4229,10 +4226,10 @@
         <v>110</v>
       </c>
       <c r="B46" s="37" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
@@ -4272,10 +4269,10 @@
         <v>110</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -4315,10 +4312,10 @@
         <v>110</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -4358,10 +4355,10 @@
         <v>110</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -4401,10 +4398,10 @@
         <v>110</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
@@ -4444,10 +4441,10 @@
         <v>110</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -4487,10 +4484,10 @@
         <v>110</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -4499,7 +4496,7 @@
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
       <c r="J52" s="35" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="K52" s="35"/>
       <c r="L52" s="35"/>
@@ -4532,10 +4529,10 @@
         <v>110</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -4575,10 +4572,10 @@
         <v>110</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -4618,10 +4615,10 @@
         <v>110</v>
       </c>
       <c r="B55" s="37" t="s">
+        <v>502</v>
+      </c>
+      <c r="C55" s="34" t="s">
         <v>503</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>504</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -4661,10 +4658,10 @@
         <v>110</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
@@ -4704,10 +4701,10 @@
         <v>110</v>
       </c>
       <c r="B57" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="C57" s="34" t="s">
         <v>507</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>508</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
@@ -4716,7 +4713,7 @@
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
       <c r="J57" s="35" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K57" s="35"/>
       <c r="L57" s="35"/>
@@ -4825,10 +4822,10 @@
         <v>42</v>
       </c>
       <c r="B60" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="C60" s="35" t="s">
         <v>511</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>512</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -4870,10 +4867,10 @@
         <v>334</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -4913,10 +4910,10 @@
         <v>334</v>
       </c>
       <c r="B62" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="C62" s="35" t="s">
         <v>514</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>515</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -4956,10 +4953,10 @@
         <v>334</v>
       </c>
       <c r="B63" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="C63" s="35" t="s">
         <v>516</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>517</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
@@ -4999,10 +4996,10 @@
         <v>334</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
@@ -5042,10 +5039,10 @@
         <v>334</v>
       </c>
       <c r="B65" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="C65" s="35" t="s">
         <v>520</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>521</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -5161,10 +5158,10 @@
         <v>42</v>
       </c>
       <c r="B68" s="37" t="s">
+        <v>521</v>
+      </c>
+      <c r="C68" s="35" t="s">
         <v>522</v>
-      </c>
-      <c r="C68" s="35" t="s">
-        <v>523</v>
       </c>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -5206,10 +5203,10 @@
         <v>334</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -5249,10 +5246,10 @@
         <v>334</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -5292,10 +5289,10 @@
         <v>334</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -5335,10 +5332,10 @@
         <v>334</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C72" s="35" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D72" s="35"/>
       <c r="E72" s="35"/>
@@ -5378,10 +5375,10 @@
         <v>334</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -5390,7 +5387,7 @@
       <c r="H73" s="35"/>
       <c r="I73" s="35"/>
       <c r="J73" s="35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="K73" s="35"/>
       <c r="L73" s="35"/>
@@ -5499,7 +5496,7 @@
         <v>42</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C76" s="35" t="s">
         <v>45</v>
@@ -5544,10 +5541,10 @@
         <v>110</v>
       </c>
       <c r="B77" s="37" t="s">
+        <v>533</v>
+      </c>
+      <c r="C77" s="35" t="s">
         <v>534</v>
-      </c>
-      <c r="C77" s="35" t="s">
-        <v>535</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -5586,13 +5583,13 @@
     </row>
     <row r="78" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="B78" s="37" t="s">
         <v>543</v>
       </c>
-      <c r="B78" s="37" t="s">
+      <c r="C78" s="35" t="s">
         <v>544</v>
-      </c>
-      <c r="C78" s="35" t="s">
-        <v>545</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
@@ -5601,7 +5598,7 @@
       <c r="H78" s="35"/>
       <c r="I78" s="35"/>
       <c r="J78" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K78" s="35"/>
       <c r="L78" s="35"/>
@@ -5634,10 +5631,10 @@
         <v>286</v>
       </c>
       <c r="B79" s="37" t="s">
+        <v>535</v>
+      </c>
+      <c r="C79" s="35" t="s">
         <v>536</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>537</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="35"/>
@@ -5646,7 +5643,7 @@
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
       <c r="J79" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K79" s="35"/>
       <c r="L79" s="35"/>
@@ -5676,13 +5673,13 @@
     </row>
     <row r="80" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="37" t="s">
+        <v>538</v>
+      </c>
+      <c r="B80" s="37" t="s">
+        <v>540</v>
+      </c>
+      <c r="C80" s="35" t="s">
         <v>539</v>
-      </c>
-      <c r="B80" s="37" t="s">
-        <v>541</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>540</v>
       </c>
       <c r="D80" s="35"/>
       <c r="E80" s="35"/>
@@ -5691,7 +5688,7 @@
       <c r="H80" s="35"/>
       <c r="I80" s="35"/>
       <c r="J80" s="35" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="K80" s="35"/>
       <c r="L80" s="35"/>
@@ -5800,7 +5797,7 @@
         <v>42</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C83" s="35" t="s">
         <v>45</v>
@@ -5843,10 +5840,10 @@
         <v>110</v>
       </c>
       <c r="B84" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="C84" s="35" t="s">
         <v>547</v>
-      </c>
-      <c r="C84" s="35" t="s">
-        <v>548</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
@@ -8098,7 +8095,7 @@
         <v>366</v>
       </c>
       <c r="C137" s="45" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D137" s="47"/>
       <c r="E137" s="47"/>
@@ -10750,7 +10747,7 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>180</v>
@@ -10774,7 +10771,7 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>182</v>
@@ -10798,7 +10795,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>281</v>
@@ -10822,7 +10819,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>282</v>
@@ -11183,14 +11180,14 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>555</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>556</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44125.841781134259</v>
+        <v>44125.854735069443</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/hbc_followup.xlsx
+++ b/forms/app/hbc_followup.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="588">
   <si>
     <t>form_title</t>
   </si>
@@ -782,15 +782,9 @@
     <t>Traditional birth attendant</t>
   </si>
   <si>
-    <t>alive_well</t>
-  </si>
-  <si>
     <t>Alive and well</t>
   </si>
   <si>
-    <t>alive_unwell</t>
-  </si>
-  <si>
     <t>Alive and unwell</t>
   </si>
   <si>
@@ -894,10 +888,6 @@
   </si>
   <si>
     <t>Never Reported</t>
-  </si>
-  <si>
-    <t>selected(../condition/patient_outcome, 'alive_well') or
-selected(../condition/patient_outcome, 'alive_unwell')</t>
   </si>
   <si>
     <t>date</t>
@@ -1297,9 +1287,6 @@
     <t>r_patient_outcome</t>
   </si>
   <si>
-    <t>selected(../../condition/patient_outcome, 'alive_well')</t>
-  </si>
-  <si>
     <t>selected(../../condition/patient_outcome, 'alive_unwell')</t>
   </si>
   <si>
@@ -1711,6 +1698,114 @@
   </si>
   <si>
     <t>hbc_follow</t>
+  </si>
+  <si>
+    <t>Unknown/lost to follow-up</t>
+  </si>
+  <si>
+    <t>ltf</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>case_classification</t>
+  </si>
+  <si>
+    <t>select_one case_class</t>
+  </si>
+  <si>
+    <t>Further case classification</t>
+  </si>
+  <si>
+    <t>case_class</t>
+  </si>
+  <si>
+    <t>primary</t>
+  </si>
+  <si>
+    <t>secondary</t>
+  </si>
+  <si>
+    <t>imported</t>
+  </si>
+  <si>
+    <t>Primary</t>
+  </si>
+  <si>
+    <t>Secondary</t>
+  </si>
+  <si>
+    <t>Imported</t>
+  </si>
+  <si>
+    <t>selected(../patient_symptoms/fever, 'yes'</t>
+  </si>
+  <si>
+    <t>Specify maximum temperature: °C</t>
+  </si>
+  <si>
+    <t>selected(../symptom_assessment/fever, 'yes')</t>
+  </si>
+  <si>
+    <t>trimester</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>First</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>Second</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>Third</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>select_one trimester</t>
+  </si>
+  <si>
+    <t>pregnant_trimester</t>
+  </si>
+  <si>
+    <t>Specify trimester</t>
+  </si>
+  <si>
+    <t>selected(../existing_conditions/pregnant, 'yes'</t>
+  </si>
+  <si>
+    <t>selected(../existing_condition/pregnant, 'yes')</t>
+  </si>
+  <si>
+    <t>ill</t>
+  </si>
+  <si>
+    <t>Still ill</t>
+  </si>
+  <si>
+    <t>recovered</t>
+  </si>
+  <si>
+    <t>selected(../condition/patient_outcome, 'ill')</t>
+  </si>
+  <si>
+    <t>selected(../condition/patient_outcome, 'recovered')</t>
+  </si>
+  <si>
+    <t>selected(../../condition/patient_outcome, 'recovered')</t>
+  </si>
+  <si>
+    <t>selected(../../condition/patient_outcome, 'ill')</t>
   </si>
 </sst>
 </file>
@@ -1720,7 +1815,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd\-mm\-yyyy\ hh\-mm\-ss"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1770,6 +1865,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF76A5AF"/>
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
@@ -1884,7 +1985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1999,6 +2100,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2282,13 +2391,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ187"/>
+  <dimension ref="A1:AJ193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J19" sqref="J19"/>
+      <selection pane="bottomRight" activeCell="J169" sqref="J169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2676,10 +2785,10 @@
         <v>50</v>
       </c>
       <c r="B9" s="26" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="D9" s="28"/>
       <c r="E9" s="28"/>
@@ -2711,10 +2820,10 @@
         <v>50</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D10" s="27"/>
       <c r="E10" s="27"/>
@@ -2864,7 +2973,7 @@
       <c r="R14" s="21"/>
       <c r="S14" s="22"/>
       <c r="T14" s="21" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
@@ -2963,7 +3072,7 @@
         <v>239</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
@@ -3001,7 +3110,7 @@
     </row>
     <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>240</v>
@@ -3124,14 +3233,14 @@
       <c r="AJ21" s="57"/>
     </row>
     <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="37" t="s">
-        <v>466</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>465</v>
+      <c r="B22" s="33" t="s">
+        <v>554</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>45</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
@@ -3139,198 +3248,178 @@
       <c r="G22" s="35"/>
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
-      <c r="J22" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="35"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="35"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="35"/>
-      <c r="AE22" s="35"/>
-      <c r="AF22" s="35"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="35"/>
-      <c r="AI22" s="35"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="36"/>
+      <c r="N22" s="34"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
+      <c r="R22" s="34"/>
+      <c r="S22" s="34"/>
+      <c r="T22" s="34"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="36"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="36"/>
+      <c r="Y22" s="36"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="36"/>
+      <c r="AB22" s="36"/>
+      <c r="AC22" s="36"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="36"/>
+      <c r="AH22" s="36"/>
+      <c r="AI22" s="36"/>
+      <c r="AJ22" s="36"/>
     </row>
     <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>203</v>
+      <c r="A23" s="33" t="s">
+        <v>556</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>555</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>557</v>
       </c>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
       <c r="G23" s="35"/>
       <c r="H23" s="35"/>
-      <c r="I23" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J23" s="35"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="35"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-      <c r="Z23" s="35"/>
-      <c r="AA23" s="35"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="35"/>
-      <c r="AE23" s="35"/>
-      <c r="AF23" s="35"/>
-      <c r="AG23" s="35"/>
-      <c r="AH23" s="35"/>
-      <c r="AI23" s="35"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="36"/>
+      <c r="M23" s="36"/>
+      <c r="N23" s="34"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
+      <c r="R23" s="34"/>
+      <c r="S23" s="34"/>
+      <c r="T23" s="34"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="36"/>
+      <c r="W23" s="34"/>
+      <c r="X23" s="36"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="36"/>
+      <c r="AC23" s="36"/>
+      <c r="AD23" s="36"/>
+      <c r="AE23" s="36"/>
+      <c r="AF23" s="36"/>
+      <c r="AG23" s="36"/>
+      <c r="AH23" s="36"/>
+      <c r="AI23" s="36"/>
+      <c r="AJ23" s="36"/>
     </row>
     <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>531</v>
-      </c>
+      <c r="A24" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
       <c r="D24" s="35"/>
       <c r="E24" s="35"/>
       <c r="F24" s="35"/>
       <c r="G24" s="35"/>
       <c r="H24" s="35"/>
       <c r="I24" s="35"/>
-      <c r="J24" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="35"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-      <c r="Z24" s="35"/>
-      <c r="AA24" s="35"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="35"/>
-      <c r="AD24" s="35"/>
-      <c r="AE24" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF24" s="35"/>
-      <c r="AG24" s="35"/>
-      <c r="AH24" s="35"/>
-      <c r="AI24" s="35"/>
-    </row>
-    <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>468</v>
-      </c>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J25" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="35"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="35"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="35"/>
-      <c r="AD25" s="35"/>
-      <c r="AE25" s="35"/>
-      <c r="AF25" s="35"/>
-      <c r="AG25" s="35"/>
-      <c r="AH25" s="35"/>
-      <c r="AI25" s="35"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="36"/>
+      <c r="N24" s="34"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="34"/>
+      <c r="T24" s="34"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="36"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="36"/>
+      <c r="Y24" s="36"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="36"/>
+      <c r="AB24" s="36"/>
+      <c r="AC24" s="36"/>
+      <c r="AD24" s="36"/>
+      <c r="AE24" s="36"/>
+      <c r="AF24" s="36"/>
+      <c r="AG24" s="36"/>
+      <c r="AH24" s="36"/>
+      <c r="AI24" s="36"/>
+      <c r="AJ24" s="36"/>
+    </row>
+    <row r="25" spans="1:36" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="56"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="56"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="56"/>
+      <c r="R25" s="56"/>
+      <c r="S25" s="56"/>
+      <c r="T25" s="56"/>
+      <c r="U25" s="56"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="56"/>
+      <c r="X25" s="57"/>
+      <c r="Y25" s="57"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="57"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="57"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="57"/>
+      <c r="AJ25" s="57"/>
     </row>
     <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>208</v>
+        <v>462</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
-      <c r="I26" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="K26" s="35"/>
+      <c r="I26" s="35"/>
+      <c r="J26" s="34" t="s">
+        <v>584</v>
+      </c>
+      <c r="K26" s="35" t="s">
+        <v>47</v>
+      </c>
       <c r="L26" s="35"/>
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
@@ -3361,10 +3450,10 @@
         <v>110</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="C27" s="34" t="s">
-        <v>469</v>
+        <v>202</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>203</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
@@ -3374,9 +3463,7 @@
       <c r="I27" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="J27" s="35" t="s">
-        <v>205</v>
-      </c>
+      <c r="J27" s="35"/>
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
       <c r="M27" s="35"/>
@@ -3405,24 +3492,22 @@
     </row>
     <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>475</v>
-      </c>
-      <c r="C28" s="34" t="s">
-        <v>474</v>
+        <v>207</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>527</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
-      <c r="I28" s="35" t="s">
-        <v>57</v>
-      </c>
+      <c r="I28" s="35"/>
       <c r="J28" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K28" s="35"/>
       <c r="L28" s="35"/>
@@ -3444,7 +3529,9 @@
       <c r="AB28" s="35"/>
       <c r="AC28" s="35"/>
       <c r="AD28" s="35"/>
-      <c r="AE28" s="35"/>
+      <c r="AE28" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="AF28" s="35"/>
       <c r="AG28" s="35"/>
       <c r="AH28" s="35"/>
@@ -3455,10 +3542,10 @@
         <v>110</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>477</v>
-      </c>
-      <c r="C29" s="34" t="s">
-        <v>476</v>
+        <v>118</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>464</v>
       </c>
       <c r="D29" s="35"/>
       <c r="E29" s="35"/>
@@ -3469,7 +3556,7 @@
         <v>57</v>
       </c>
       <c r="J29" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
@@ -3499,24 +3586,28 @@
     </row>
     <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>110</v>
+        <v>331</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>216</v>
+        <v>509</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="D30" s="35"/>
+        <v>566</v>
+      </c>
+      <c r="D30" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
+      <c r="F30" s="35" t="s">
+        <v>565</v>
+      </c>
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="35" t="s">
-        <v>204</v>
+      <c r="J30" s="34" t="s">
+        <v>567</v>
       </c>
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
@@ -3526,33 +3617,25 @@
       <c r="P30" s="35"/>
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="35"/>
-      <c r="AD30" s="35"/>
-      <c r="AE30" s="35"/>
-      <c r="AF30" s="35"/>
-      <c r="AG30" s="35"/>
-      <c r="AH30" s="35"/>
-      <c r="AI30" s="35"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="58"/>
+      <c r="U30" s="58"/>
+      <c r="V30" s="58"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="58"/>
+      <c r="Y30" s="58"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="58"/>
     </row>
     <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
         <v>110</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>211</v>
+        <v>463</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -3563,7 +3646,7 @@
         <v>57</v>
       </c>
       <c r="J31" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K31" s="35"/>
       <c r="L31" s="35"/>
@@ -3596,10 +3679,10 @@
         <v>110</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>212</v>
+        <v>209</v>
+      </c>
+      <c r="C32" s="34" t="s">
+        <v>465</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
@@ -3643,10 +3726,10 @@
         <v>110</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>213</v>
+        <v>471</v>
+      </c>
+      <c r="C33" s="34" t="s">
+        <v>470</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -3657,7 +3740,7 @@
         <v>57</v>
       </c>
       <c r="J33" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K33" s="35"/>
       <c r="L33" s="35"/>
@@ -3690,10 +3773,10 @@
         <v>110</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="C34" s="35" t="s">
-        <v>214</v>
+        <v>473</v>
+      </c>
+      <c r="C34" s="34" t="s">
+        <v>472</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -3704,7 +3787,7 @@
         <v>57</v>
       </c>
       <c r="J34" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K34" s="35"/>
       <c r="L34" s="35"/>
@@ -3737,10 +3820,10 @@
         <v>110</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
@@ -3751,7 +3834,7 @@
         <v>57</v>
       </c>
       <c r="J35" s="35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K35" s="35"/>
       <c r="L35" s="35"/>
@@ -3784,10 +3867,10 @@
         <v>110</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>470</v>
+        <v>217</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>471</v>
+        <v>211</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -3798,7 +3881,7 @@
         <v>57</v>
       </c>
       <c r="J36" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K36" s="35"/>
       <c r="L36" s="35"/>
@@ -3831,10 +3914,10 @@
         <v>110</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>473</v>
+        <v>218</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>472</v>
+        <v>212</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
@@ -3845,7 +3928,7 @@
         <v>57</v>
       </c>
       <c r="J37" s="35" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K37" s="35"/>
       <c r="L37" s="35"/>
@@ -3875,21 +3958,25 @@
     </row>
     <row r="38" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
-        <v>78</v>
+        <v>110</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
       <c r="F38" s="35"/>
       <c r="G38" s="35"/>
       <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="35"/>
+      <c r="I38" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J38" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="K38" s="35"/>
       <c r="L38" s="35"/>
       <c r="M38" s="35"/>
@@ -3899,9 +3986,7 @@
       <c r="Q38" s="35"/>
       <c r="R38" s="35"/>
       <c r="S38" s="35"/>
-      <c r="T38" s="34" t="s">
-        <v>228</v>
-      </c>
+      <c r="T38" s="35"/>
       <c r="U38" s="35"/>
       <c r="V38" s="35"/>
       <c r="W38" s="35"/>
@@ -3912,9 +3997,7 @@
       <c r="AB38" s="35"/>
       <c r="AC38" s="35"/>
       <c r="AD38" s="35"/>
-      <c r="AE38" s="35" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE38" s="35"/>
       <c r="AF38" s="35"/>
       <c r="AG38" s="35"/>
       <c r="AH38" s="35"/>
@@ -3922,22 +4005,24 @@
     </row>
     <row r="39" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>120</v>
+        <v>220</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
       <c r="F39" s="35"/>
       <c r="G39" s="35"/>
       <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
+      <c r="I39" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="J39" s="35" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
       <c r="K39" s="35"/>
       <c r="L39" s="35"/>
@@ -3959,9 +4044,7 @@
       <c r="AB39" s="35"/>
       <c r="AC39" s="35"/>
       <c r="AD39" s="35"/>
-      <c r="AE39" s="35" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE39" s="35"/>
       <c r="AF39" s="35"/>
       <c r="AG39" s="35"/>
       <c r="AH39" s="35"/>
@@ -3969,22 +4052,24 @@
     </row>
     <row r="40" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="37" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
       <c r="G40" s="35"/>
       <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
+      <c r="I40" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="J40" s="35" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
       <c r="K40" s="35"/>
       <c r="L40" s="35"/>
@@ -4006,9 +4091,7 @@
       <c r="AB40" s="35"/>
       <c r="AC40" s="35"/>
       <c r="AD40" s="35"/>
-      <c r="AE40" s="35" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE40" s="35"/>
       <c r="AF40" s="35"/>
       <c r="AG40" s="35"/>
       <c r="AH40" s="35"/>
@@ -4016,17 +4099,25 @@
     </row>
     <row r="41" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="37"/>
-      <c r="C41" s="35"/>
+        <v>110</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>466</v>
+      </c>
+      <c r="C41" s="35" t="s">
+        <v>467</v>
+      </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
       <c r="F41" s="35"/>
       <c r="G41" s="35"/>
       <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
+      <c r="I41" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J41" s="35" t="s">
+        <v>206</v>
+      </c>
       <c r="K41" s="35"/>
       <c r="L41" s="35"/>
       <c r="M41" s="35"/>
@@ -4053,52 +4144,62 @@
       <c r="AH41" s="35"/>
       <c r="AI41" s="35"/>
     </row>
-    <row r="42" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="54"/>
-      <c r="B42" s="54"/>
-      <c r="C42" s="54"/>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="G42" s="54"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="54"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="54"/>
-      <c r="N42" s="54"/>
-      <c r="O42" s="54"/>
-      <c r="P42" s="54"/>
-      <c r="Q42" s="54"/>
-      <c r="R42" s="54"/>
-      <c r="S42" s="54"/>
-      <c r="T42" s="54"/>
-      <c r="U42" s="54"/>
-      <c r="V42" s="54"/>
-      <c r="W42" s="54"/>
-      <c r="X42" s="54"/>
-      <c r="Y42" s="54"/>
-      <c r="Z42" s="54"/>
-      <c r="AA42" s="54"/>
-      <c r="AB42" s="54"/>
-      <c r="AC42" s="54"/>
-      <c r="AD42" s="54"/>
-      <c r="AE42" s="54"/>
-      <c r="AF42" s="54"/>
-      <c r="AG42" s="54"/>
-      <c r="AH42" s="54"/>
-      <c r="AI42" s="54"/>
+    <row r="42" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>469</v>
+      </c>
+      <c r="C42" s="35" t="s">
+        <v>468</v>
+      </c>
+      <c r="D42" s="35"/>
+      <c r="E42" s="35"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J42" s="35" t="s">
+        <v>206</v>
+      </c>
+      <c r="K42" s="35"/>
+      <c r="L42" s="35"/>
+      <c r="M42" s="35"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="35"/>
+      <c r="P42" s="35"/>
+      <c r="Q42" s="35"/>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+      <c r="Z42" s="35"/>
+      <c r="AA42" s="35"/>
+      <c r="AB42" s="35"/>
+      <c r="AC42" s="35"/>
+      <c r="AD42" s="35"/>
+      <c r="AE42" s="35"/>
+      <c r="AF42" s="35"/>
+      <c r="AG42" s="35"/>
+      <c r="AH42" s="35"/>
+      <c r="AI42" s="35"/>
     </row>
     <row r="43" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>478</v>
+        <v>225</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>479</v>
+        <v>45</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -4107,9 +4208,7 @@
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
       <c r="J43" s="35"/>
-      <c r="K43" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K43" s="35"/>
       <c r="L43" s="35"/>
       <c r="M43" s="35"/>
       <c r="N43" s="35"/>
@@ -4118,7 +4217,9 @@
       <c r="Q43" s="35"/>
       <c r="R43" s="35"/>
       <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
+      <c r="T43" s="34" t="s">
+        <v>228</v>
+      </c>
       <c r="U43" s="35"/>
       <c r="V43" s="35"/>
       <c r="W43" s="35"/>
@@ -4129,7 +4230,9 @@
       <c r="AB43" s="35"/>
       <c r="AC43" s="35"/>
       <c r="AD43" s="35"/>
-      <c r="AE43" s="35"/>
+      <c r="AE43" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="AF43" s="35"/>
       <c r="AG43" s="35"/>
       <c r="AH43" s="35"/>
@@ -4140,10 +4243,10 @@
         <v>117</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>480</v>
-      </c>
-      <c r="C44" s="34" t="s">
-        <v>481</v>
+        <v>120</v>
+      </c>
+      <c r="C44" s="35" t="s">
+        <v>222</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -4151,7 +4254,9 @@
       <c r="G44" s="35"/>
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
+      <c r="J44" s="35" t="s">
+        <v>226</v>
+      </c>
       <c r="K44" s="35"/>
       <c r="L44" s="35"/>
       <c r="M44" s="35"/>
@@ -4172,7 +4277,9 @@
       <c r="AB44" s="35"/>
       <c r="AC44" s="35"/>
       <c r="AD44" s="35"/>
-      <c r="AE44" s="35"/>
+      <c r="AE44" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="AF44" s="35"/>
       <c r="AG44" s="35"/>
       <c r="AH44" s="35"/>
@@ -4183,10 +4290,10 @@
         <v>117</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>482</v>
-      </c>
-      <c r="C45" s="34" t="s">
-        <v>499</v>
+        <v>223</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>224</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
@@ -4194,7 +4301,9 @@
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
+      <c r="J45" s="35" t="s">
+        <v>227</v>
+      </c>
       <c r="K45" s="35"/>
       <c r="L45" s="35"/>
       <c r="M45" s="35"/>
@@ -4215,7 +4324,9 @@
       <c r="AB45" s="35"/>
       <c r="AC45" s="35"/>
       <c r="AD45" s="35"/>
-      <c r="AE45" s="35"/>
+      <c r="AE45" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="AF45" s="35"/>
       <c r="AG45" s="35"/>
       <c r="AH45" s="35"/>
@@ -4223,14 +4334,10 @@
     </row>
     <row r="46" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="37" t="s">
-        <v>491</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>490</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B46" s="37"/>
+      <c r="C46" s="35"/>
       <c r="D46" s="35"/>
       <c r="E46" s="35"/>
       <c r="F46" s="35"/>
@@ -4264,58 +4371,52 @@
       <c r="AH46" s="35"/>
       <c r="AI46" s="35"/>
     </row>
-    <row r="47" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>492</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>483</v>
-      </c>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="35"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="35"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="35"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
-      <c r="R47" s="35"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="35"/>
-      <c r="W47" s="35"/>
-      <c r="X47" s="35"/>
-      <c r="Y47" s="35"/>
-      <c r="Z47" s="35"/>
-      <c r="AA47" s="35"/>
-      <c r="AB47" s="35"/>
-      <c r="AC47" s="35"/>
-      <c r="AD47" s="35"/>
-      <c r="AE47" s="35"/>
-      <c r="AF47" s="35"/>
-      <c r="AG47" s="35"/>
-      <c r="AH47" s="35"/>
-      <c r="AI47" s="35"/>
+    <row r="47" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="54"/>
+      <c r="B47" s="54"/>
+      <c r="C47" s="54"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="54"/>
+      <c r="H47" s="54"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="54"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="54"/>
+      <c r="M47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="54"/>
+      <c r="P47" s="54"/>
+      <c r="Q47" s="54"/>
+      <c r="R47" s="54"/>
+      <c r="S47" s="54"/>
+      <c r="T47" s="54"/>
+      <c r="U47" s="54"/>
+      <c r="V47" s="54"/>
+      <c r="W47" s="54"/>
+      <c r="X47" s="54"/>
+      <c r="Y47" s="54"/>
+      <c r="Z47" s="54"/>
+      <c r="AA47" s="54"/>
+      <c r="AB47" s="54"/>
+      <c r="AC47" s="54"/>
+      <c r="AD47" s="54"/>
+      <c r="AE47" s="54"/>
+      <c r="AF47" s="54"/>
+      <c r="AG47" s="54"/>
+      <c r="AH47" s="54"/>
+      <c r="AI47" s="54"/>
     </row>
     <row r="48" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="37" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>493</v>
+        <v>474</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -4324,7 +4425,9 @@
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
       <c r="J48" s="35"/>
-      <c r="K48" s="35"/>
+      <c r="K48" s="35" t="s">
+        <v>47</v>
+      </c>
       <c r="L48" s="35"/>
       <c r="M48" s="35"/>
       <c r="N48" s="35"/>
@@ -4352,13 +4455,13 @@
     </row>
     <row r="49" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="37" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>494</v>
-      </c>
-      <c r="C49" s="35" t="s">
-        <v>485</v>
+        <v>476</v>
+      </c>
+      <c r="C49" s="34" t="s">
+        <v>477</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -4395,13 +4498,13 @@
     </row>
     <row r="50" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="37" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B50" s="37" t="s">
+        <v>478</v>
+      </c>
+      <c r="C50" s="34" t="s">
         <v>495</v>
-      </c>
-      <c r="C50" s="35" t="s">
-        <v>486</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
@@ -4441,10 +4544,10 @@
         <v>110</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -4484,10 +4587,10 @@
         <v>110</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -4495,9 +4598,7 @@
       <c r="G52" s="35"/>
       <c r="H52" s="35"/>
       <c r="I52" s="35"/>
-      <c r="J52" s="35" t="s">
-        <v>529</v>
-      </c>
+      <c r="J52" s="35"/>
       <c r="K52" s="35"/>
       <c r="L52" s="35"/>
       <c r="M52" s="35"/>
@@ -4529,10 +4630,10 @@
         <v>110</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -4572,10 +4673,10 @@
         <v>110</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>500</v>
+        <v>481</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -4615,10 +4716,10 @@
         <v>110</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>502</v>
-      </c>
-      <c r="C55" s="34" t="s">
-        <v>503</v>
+        <v>491</v>
+      </c>
+      <c r="C55" s="35" t="s">
+        <v>482</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -4658,10 +4759,10 @@
         <v>110</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>505</v>
+        <v>492</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>504</v>
+        <v>483</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
@@ -4701,10 +4802,10 @@
         <v>110</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>506</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>507</v>
+        <v>493</v>
+      </c>
+      <c r="C57" s="35" t="s">
+        <v>484</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
@@ -4713,7 +4814,7 @@
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
       <c r="J57" s="35" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="K57" s="35"/>
       <c r="L57" s="35"/>
@@ -4743,17 +4844,25 @@
     </row>
     <row r="58" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" s="37"/>
-      <c r="C58" s="35"/>
+        <v>576</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>577</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>578</v>
+      </c>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
-      <c r="F58" s="35"/>
+      <c r="F58" s="35" t="s">
+        <v>579</v>
+      </c>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
-      <c r="J58" s="35"/>
+      <c r="J58" s="35" t="s">
+        <v>580</v>
+      </c>
       <c r="K58" s="35"/>
       <c r="L58" s="35"/>
       <c r="M58" s="35"/>
@@ -4780,52 +4889,58 @@
       <c r="AH58" s="35"/>
       <c r="AI58" s="35"/>
     </row>
-    <row r="59" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="54"/>
-      <c r="T59" s="54"/>
-      <c r="U59" s="54"/>
-      <c r="V59" s="54"/>
-      <c r="W59" s="54"/>
-      <c r="X59" s="54"/>
-      <c r="Y59" s="54"/>
-      <c r="Z59" s="54"/>
-      <c r="AA59" s="54"/>
-      <c r="AB59" s="54"/>
-      <c r="AC59" s="54"/>
-      <c r="AD59" s="54"/>
-      <c r="AE59" s="54"/>
-      <c r="AF59" s="54"/>
-      <c r="AG59" s="54"/>
-      <c r="AH59" s="54"/>
-      <c r="AI59" s="54"/>
+    <row r="59" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B59" s="37" t="s">
+        <v>494</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>485</v>
+      </c>
+      <c r="D59" s="35"/>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="35"/>
+      <c r="N59" s="35"/>
+      <c r="O59" s="35"/>
+      <c r="P59" s="35"/>
+      <c r="Q59" s="35"/>
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="35"/>
+      <c r="AB59" s="35"/>
+      <c r="AC59" s="35"/>
+      <c r="AD59" s="35"/>
+      <c r="AE59" s="35"/>
+      <c r="AF59" s="35"/>
+      <c r="AG59" s="35"/>
+      <c r="AH59" s="35"/>
+      <c r="AI59" s="35"/>
     </row>
     <row r="60" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="37" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="C60" s="35" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -4834,9 +4949,7 @@
       <c r="H60" s="35"/>
       <c r="I60" s="35"/>
       <c r="J60" s="35"/>
-      <c r="K60" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K60" s="35"/>
       <c r="L60" s="35"/>
       <c r="M60" s="35"/>
       <c r="N60" s="35"/>
@@ -4864,13 +4977,13 @@
     </row>
     <row r="61" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="37" t="s">
-        <v>334</v>
+        <v>110</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>512</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>512</v>
+        <v>498</v>
+      </c>
+      <c r="C61" s="34" t="s">
+        <v>499</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -4907,13 +5020,13 @@
     </row>
     <row r="62" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="37" t="s">
-        <v>334</v>
+        <v>110</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C62" s="35" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -4950,13 +5063,13 @@
     </row>
     <row r="63" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="37" t="s">
-        <v>334</v>
+        <v>110</v>
       </c>
       <c r="B63" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="C63" s="35" t="s">
-        <v>516</v>
+        <v>502</v>
+      </c>
+      <c r="C63" s="34" t="s">
+        <v>503</v>
       </c>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
@@ -4964,7 +5077,9 @@
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
       <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
+      <c r="J63" s="35" t="s">
+        <v>524</v>
+      </c>
       <c r="K63" s="35"/>
       <c r="L63" s="35"/>
       <c r="M63" s="35"/>
@@ -4993,14 +5108,10 @@
     </row>
     <row r="64" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="B64" s="37" t="s">
-        <v>518</v>
-      </c>
-      <c r="C64" s="35" t="s">
-        <v>517</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B64" s="37"/>
+      <c r="C64" s="35"/>
       <c r="D64" s="35"/>
       <c r="E64" s="35"/>
       <c r="F64" s="35"/>
@@ -5034,55 +5145,53 @@
       <c r="AH64" s="35"/>
       <c r="AI64" s="35"/>
     </row>
-    <row r="65" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="B65" s="37" t="s">
-        <v>519</v>
-      </c>
-      <c r="C65" s="35" t="s">
-        <v>520</v>
-      </c>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="35"/>
-      <c r="O65" s="35"/>
-      <c r="P65" s="35"/>
-      <c r="Q65" s="35"/>
-      <c r="R65" s="35"/>
-      <c r="S65" s="35"/>
-      <c r="T65" s="35"/>
-      <c r="U65" s="35"/>
-      <c r="V65" s="35"/>
-      <c r="W65" s="35"/>
-      <c r="X65" s="35"/>
-      <c r="Y65" s="35"/>
-      <c r="Z65" s="35"/>
-      <c r="AA65" s="35"/>
-      <c r="AB65" s="35"/>
-      <c r="AC65" s="35"/>
-      <c r="AD65" s="35"/>
-      <c r="AE65" s="35"/>
-      <c r="AF65" s="35"/>
-      <c r="AG65" s="35"/>
-      <c r="AH65" s="35"/>
-      <c r="AI65" s="35"/>
+    <row r="65" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="54"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="54"/>
+      <c r="D65" s="54"/>
+      <c r="E65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="54"/>
+      <c r="H65" s="54"/>
+      <c r="I65" s="54"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="54"/>
+      <c r="L65" s="54"/>
+      <c r="M65" s="54"/>
+      <c r="N65" s="54"/>
+      <c r="O65" s="54"/>
+      <c r="P65" s="54"/>
+      <c r="Q65" s="54"/>
+      <c r="R65" s="54"/>
+      <c r="S65" s="54"/>
+      <c r="T65" s="54"/>
+      <c r="U65" s="54"/>
+      <c r="V65" s="54"/>
+      <c r="W65" s="54"/>
+      <c r="X65" s="54"/>
+      <c r="Y65" s="54"/>
+      <c r="Z65" s="54"/>
+      <c r="AA65" s="54"/>
+      <c r="AB65" s="54"/>
+      <c r="AC65" s="54"/>
+      <c r="AD65" s="54"/>
+      <c r="AE65" s="54"/>
+      <c r="AF65" s="54"/>
+      <c r="AG65" s="54"/>
+      <c r="AH65" s="54"/>
+      <c r="AI65" s="54"/>
     </row>
     <row r="66" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" s="37"/>
-      <c r="C66" s="35"/>
+        <v>42</v>
+      </c>
+      <c r="B66" s="37" t="s">
+        <v>506</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>507</v>
+      </c>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
       <c r="F66" s="35"/>
@@ -5090,7 +5199,9 @@
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
       <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
+      <c r="K66" s="35" t="s">
+        <v>47</v>
+      </c>
       <c r="L66" s="35"/>
       <c r="M66" s="35"/>
       <c r="N66" s="35"/>
@@ -5116,52 +5227,58 @@
       <c r="AH66" s="35"/>
       <c r="AI66" s="35"/>
     </row>
-    <row r="67" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="54"/>
-      <c r="B67" s="54"/>
-      <c r="C67" s="54"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="54"/>
-      <c r="R67" s="54"/>
-      <c r="S67" s="54"/>
-      <c r="T67" s="54"/>
-      <c r="U67" s="54"/>
-      <c r="V67" s="54"/>
-      <c r="W67" s="54"/>
-      <c r="X67" s="54"/>
-      <c r="Y67" s="54"/>
-      <c r="Z67" s="54"/>
-      <c r="AA67" s="54"/>
-      <c r="AB67" s="54"/>
-      <c r="AC67" s="54"/>
-      <c r="AD67" s="54"/>
-      <c r="AE67" s="54"/>
-      <c r="AF67" s="54"/>
-      <c r="AG67" s="54"/>
-      <c r="AH67" s="54"/>
-      <c r="AI67" s="54"/>
+    <row r="67" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="B67" s="37" t="s">
+        <v>508</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>508</v>
+      </c>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
+      <c r="I67" s="35"/>
+      <c r="J67" s="35"/>
+      <c r="K67" s="35"/>
+      <c r="L67" s="35"/>
+      <c r="M67" s="35"/>
+      <c r="N67" s="35"/>
+      <c r="O67" s="35"/>
+      <c r="P67" s="35"/>
+      <c r="Q67" s="35"/>
+      <c r="R67" s="35"/>
+      <c r="S67" s="35"/>
+      <c r="T67" s="35"/>
+      <c r="U67" s="35"/>
+      <c r="V67" s="35"/>
+      <c r="W67" s="35"/>
+      <c r="X67" s="35"/>
+      <c r="Y67" s="35"/>
+      <c r="Z67" s="35"/>
+      <c r="AA67" s="35"/>
+      <c r="AB67" s="35"/>
+      <c r="AC67" s="35"/>
+      <c r="AD67" s="35"/>
+      <c r="AE67" s="35"/>
+      <c r="AF67" s="35"/>
+      <c r="AG67" s="35"/>
+      <c r="AH67" s="35"/>
+      <c r="AI67" s="35"/>
     </row>
     <row r="68" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="37" t="s">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -5170,9 +5287,7 @@
       <c r="H68" s="35"/>
       <c r="I68" s="35"/>
       <c r="J68" s="35"/>
-      <c r="K68" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K68" s="35"/>
       <c r="L68" s="35"/>
       <c r="M68" s="35"/>
       <c r="N68" s="35"/>
@@ -5200,13 +5315,13 @@
     </row>
     <row r="69" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="37" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>549</v>
+        <v>511</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>523</v>
+        <v>512</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -5243,13 +5358,13 @@
     </row>
     <row r="70" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="37" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>550</v>
+        <v>514</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>524</v>
+        <v>513</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -5286,13 +5401,13 @@
     </row>
     <row r="71" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="37" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B71" s="37" t="s">
-        <v>551</v>
+        <v>515</v>
       </c>
       <c r="C71" s="35" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
@@ -5329,14 +5444,10 @@
     </row>
     <row r="72" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="B72" s="37" t="s">
-        <v>552</v>
-      </c>
-      <c r="C72" s="35" t="s">
-        <v>526</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B72" s="37"/>
+      <c r="C72" s="35"/>
       <c r="D72" s="35"/>
       <c r="E72" s="35"/>
       <c r="F72" s="35"/>
@@ -5370,57 +5481,53 @@
       <c r="AH72" s="35"/>
       <c r="AI72" s="35"/>
     </row>
-    <row r="73" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="37" t="s">
-        <v>334</v>
-      </c>
-      <c r="B73" s="37" t="s">
-        <v>553</v>
-      </c>
-      <c r="C73" s="35" t="s">
-        <v>527</v>
-      </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
-      <c r="I73" s="35"/>
-      <c r="J73" s="35" t="s">
-        <v>530</v>
-      </c>
-      <c r="K73" s="35"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="35"/>
-      <c r="N73" s="35"/>
-      <c r="O73" s="35"/>
-      <c r="P73" s="35"/>
-      <c r="Q73" s="35"/>
-      <c r="R73" s="35"/>
-      <c r="S73" s="35"/>
-      <c r="T73" s="35"/>
-      <c r="U73" s="35"/>
-      <c r="V73" s="35"/>
-      <c r="W73" s="35"/>
-      <c r="X73" s="35"/>
-      <c r="Y73" s="35"/>
-      <c r="Z73" s="35"/>
-      <c r="AA73" s="35"/>
-      <c r="AB73" s="35"/>
-      <c r="AC73" s="35"/>
-      <c r="AD73" s="35"/>
-      <c r="AE73" s="35"/>
-      <c r="AF73" s="35"/>
-      <c r="AG73" s="35"/>
-      <c r="AH73" s="35"/>
-      <c r="AI73" s="35"/>
+    <row r="73" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="54"/>
+      <c r="B73" s="54"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="54"/>
+      <c r="E73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
+      <c r="H73" s="54"/>
+      <c r="I73" s="54"/>
+      <c r="J73" s="54"/>
+      <c r="K73" s="54"/>
+      <c r="L73" s="54"/>
+      <c r="M73" s="54"/>
+      <c r="N73" s="54"/>
+      <c r="O73" s="54"/>
+      <c r="P73" s="54"/>
+      <c r="Q73" s="54"/>
+      <c r="R73" s="54"/>
+      <c r="S73" s="54"/>
+      <c r="T73" s="54"/>
+      <c r="U73" s="54"/>
+      <c r="V73" s="54"/>
+      <c r="W73" s="54"/>
+      <c r="X73" s="54"/>
+      <c r="Y73" s="54"/>
+      <c r="Z73" s="54"/>
+      <c r="AA73" s="54"/>
+      <c r="AB73" s="54"/>
+      <c r="AC73" s="54"/>
+      <c r="AD73" s="54"/>
+      <c r="AE73" s="54"/>
+      <c r="AF73" s="54"/>
+      <c r="AG73" s="54"/>
+      <c r="AH73" s="54"/>
+      <c r="AI73" s="54"/>
     </row>
     <row r="74" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B74" s="37"/>
-      <c r="C74" s="35"/>
+        <v>42</v>
+      </c>
+      <c r="B74" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="C74" s="35" t="s">
+        <v>518</v>
+      </c>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
       <c r="F74" s="35"/>
@@ -5428,7 +5535,9 @@
       <c r="H74" s="35"/>
       <c r="I74" s="35"/>
       <c r="J74" s="35"/>
-      <c r="K74" s="35"/>
+      <c r="K74" s="35" t="s">
+        <v>47</v>
+      </c>
       <c r="L74" s="35"/>
       <c r="M74" s="35"/>
       <c r="N74" s="35"/>
@@ -5454,52 +5563,58 @@
       <c r="AH74" s="35"/>
       <c r="AI74" s="35"/>
     </row>
-    <row r="75" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="54"/>
-      <c r="B75" s="54"/>
-      <c r="C75" s="54"/>
-      <c r="D75" s="54"/>
-      <c r="E75" s="54"/>
-      <c r="F75" s="54"/>
-      <c r="G75" s="54"/>
-      <c r="H75" s="54"/>
-      <c r="I75" s="54"/>
-      <c r="J75" s="54"/>
-      <c r="K75" s="54"/>
-      <c r="L75" s="54"/>
-      <c r="M75" s="54"/>
-      <c r="N75" s="54"/>
-      <c r="O75" s="54"/>
-      <c r="P75" s="54"/>
-      <c r="Q75" s="54"/>
-      <c r="R75" s="54"/>
-      <c r="S75" s="54"/>
-      <c r="T75" s="54"/>
-      <c r="U75" s="54"/>
-      <c r="V75" s="54"/>
-      <c r="W75" s="54"/>
-      <c r="X75" s="54"/>
-      <c r="Y75" s="54"/>
-      <c r="Z75" s="54"/>
-      <c r="AA75" s="54"/>
-      <c r="AB75" s="54"/>
-      <c r="AC75" s="54"/>
-      <c r="AD75" s="54"/>
-      <c r="AE75" s="54"/>
-      <c r="AF75" s="54"/>
-      <c r="AG75" s="54"/>
-      <c r="AH75" s="54"/>
-      <c r="AI75" s="54"/>
+    <row r="75" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="B75" s="37" t="s">
+        <v>545</v>
+      </c>
+      <c r="C75" s="35" t="s">
+        <v>519</v>
+      </c>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
+      <c r="I75" s="35"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="35"/>
+      <c r="L75" s="35"/>
+      <c r="M75" s="35"/>
+      <c r="N75" s="35"/>
+      <c r="O75" s="35"/>
+      <c r="P75" s="35"/>
+      <c r="Q75" s="35"/>
+      <c r="R75" s="35"/>
+      <c r="S75" s="35"/>
+      <c r="T75" s="35"/>
+      <c r="U75" s="35"/>
+      <c r="V75" s="35"/>
+      <c r="W75" s="35"/>
+      <c r="X75" s="35"/>
+      <c r="Y75" s="35"/>
+      <c r="Z75" s="35"/>
+      <c r="AA75" s="35"/>
+      <c r="AB75" s="35"/>
+      <c r="AC75" s="35"/>
+      <c r="AD75" s="35"/>
+      <c r="AE75" s="35"/>
+      <c r="AF75" s="35"/>
+      <c r="AG75" s="35"/>
+      <c r="AH75" s="35"/>
+      <c r="AI75" s="35"/>
     </row>
     <row r="76" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="37" t="s">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>45</v>
+        <v>520</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="35"/>
@@ -5508,9 +5623,7 @@
       <c r="H76" s="35"/>
       <c r="I76" s="35"/>
       <c r="J76" s="35"/>
-      <c r="K76" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K76" s="35"/>
       <c r="L76" s="35"/>
       <c r="M76" s="35"/>
       <c r="N76" s="35"/>
@@ -5538,22 +5651,20 @@
     </row>
     <row r="77" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="37" t="s">
-        <v>110</v>
+        <v>331</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
       <c r="F77" s="35"/>
       <c r="G77" s="35"/>
       <c r="H77" s="35"/>
-      <c r="I77" s="35" t="s">
-        <v>57</v>
-      </c>
+      <c r="I77" s="35"/>
       <c r="J77" s="35"/>
       <c r="K77" s="35"/>
       <c r="L77" s="35"/>
@@ -5583,13 +5694,13 @@
     </row>
     <row r="78" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="37" t="s">
-        <v>542</v>
+        <v>331</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>544</v>
+        <v>522</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
@@ -5597,9 +5708,7 @@
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
       <c r="I78" s="35"/>
-      <c r="J78" s="35" t="s">
-        <v>537</v>
-      </c>
+      <c r="J78" s="35"/>
       <c r="K78" s="35"/>
       <c r="L78" s="35"/>
       <c r="M78" s="35"/>
@@ -5628,13 +5737,13 @@
     </row>
     <row r="79" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="C79" s="35" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="D79" s="35"/>
       <c r="E79" s="35"/>
@@ -5643,7 +5752,7 @@
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
       <c r="J79" s="35" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="K79" s="35"/>
       <c r="L79" s="35"/>
@@ -5673,23 +5782,17 @@
     </row>
     <row r="80" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="37" t="s">
-        <v>538</v>
-      </c>
-      <c r="B80" s="37" t="s">
-        <v>540</v>
-      </c>
-      <c r="C80" s="35" t="s">
-        <v>539</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B80" s="37"/>
+      <c r="C80" s="35"/>
       <c r="D80" s="35"/>
       <c r="E80" s="35"/>
       <c r="F80" s="35"/>
       <c r="G80" s="35"/>
       <c r="H80" s="35"/>
       <c r="I80" s="35"/>
-      <c r="J80" s="35" t="s">
-        <v>537</v>
-      </c>
+      <c r="J80" s="35"/>
       <c r="K80" s="35"/>
       <c r="L80" s="35"/>
       <c r="M80" s="35"/>
@@ -5716,98 +5819,106 @@
       <c r="AH80" s="35"/>
       <c r="AI80" s="35"/>
     </row>
-    <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B81" s="37"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
-      <c r="I81" s="35"/>
-      <c r="J81" s="35"/>
-      <c r="K81" s="35"/>
-      <c r="L81" s="35"/>
-      <c r="M81" s="35"/>
-      <c r="N81" s="35"/>
-      <c r="O81" s="35"/>
-      <c r="P81" s="35"/>
-      <c r="Q81" s="35"/>
-      <c r="R81" s="35"/>
-      <c r="S81" s="35"/>
-      <c r="T81" s="35"/>
-      <c r="U81" s="35"/>
-      <c r="V81" s="35"/>
-      <c r="W81" s="35"/>
-      <c r="X81" s="35"/>
-      <c r="Y81" s="35"/>
-      <c r="Z81" s="35"/>
-      <c r="AA81" s="35"/>
-      <c r="AB81" s="35"/>
-      <c r="AC81" s="35"/>
-      <c r="AD81" s="35"/>
-      <c r="AE81" s="35"/>
-      <c r="AF81" s="35"/>
-      <c r="AG81" s="35"/>
-      <c r="AH81" s="35"/>
-      <c r="AI81" s="35"/>
-    </row>
-    <row r="82" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="54"/>
-      <c r="B82" s="54"/>
-      <c r="C82" s="54"/>
-      <c r="D82" s="54"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="54"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="54"/>
-      <c r="J82" s="54"/>
-      <c r="K82" s="54"/>
-      <c r="L82" s="54"/>
-      <c r="M82" s="54"/>
-      <c r="N82" s="54"/>
-      <c r="O82" s="54"/>
-      <c r="P82" s="54"/>
-      <c r="Q82" s="54"/>
-      <c r="R82" s="54"/>
-      <c r="S82" s="54"/>
-      <c r="T82" s="54"/>
-      <c r="U82" s="54"/>
-      <c r="V82" s="54"/>
-      <c r="W82" s="54"/>
-      <c r="X82" s="54"/>
-      <c r="Y82" s="54"/>
-      <c r="Z82" s="54"/>
-      <c r="AA82" s="54"/>
-      <c r="AB82" s="54"/>
-      <c r="AC82" s="54"/>
-      <c r="AD82" s="54"/>
-      <c r="AE82" s="54"/>
-      <c r="AF82" s="54"/>
-      <c r="AG82" s="54"/>
-      <c r="AH82" s="54"/>
-      <c r="AI82" s="54"/>
+    <row r="81" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="54"/>
+      <c r="B81" s="54"/>
+      <c r="C81" s="54"/>
+      <c r="D81" s="54"/>
+      <c r="E81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="54"/>
+      <c r="H81" s="54"/>
+      <c r="I81" s="54"/>
+      <c r="J81" s="54"/>
+      <c r="K81" s="54"/>
+      <c r="L81" s="54"/>
+      <c r="M81" s="54"/>
+      <c r="N81" s="54"/>
+      <c r="O81" s="54"/>
+      <c r="P81" s="54"/>
+      <c r="Q81" s="54"/>
+      <c r="R81" s="54"/>
+      <c r="S81" s="54"/>
+      <c r="T81" s="54"/>
+      <c r="U81" s="54"/>
+      <c r="V81" s="54"/>
+      <c r="W81" s="54"/>
+      <c r="X81" s="54"/>
+      <c r="Y81" s="54"/>
+      <c r="Z81" s="54"/>
+      <c r="AA81" s="54"/>
+      <c r="AB81" s="54"/>
+      <c r="AC81" s="54"/>
+      <c r="AD81" s="54"/>
+      <c r="AE81" s="54"/>
+      <c r="AF81" s="54"/>
+      <c r="AG81" s="54"/>
+      <c r="AH81" s="54"/>
+      <c r="AI81" s="54"/>
+    </row>
+    <row r="82" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B82" s="37" t="s">
+        <v>528</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="35"/>
+      <c r="O82" s="35"/>
+      <c r="P82" s="35"/>
+      <c r="Q82" s="35"/>
+      <c r="R82" s="35"/>
+      <c r="S82" s="35"/>
+      <c r="T82" s="35"/>
+      <c r="U82" s="35"/>
+      <c r="V82" s="35"/>
+      <c r="W82" s="35"/>
+      <c r="X82" s="35"/>
+      <c r="Y82" s="35"/>
+      <c r="Z82" s="35"/>
+      <c r="AA82" s="35"/>
+      <c r="AB82" s="35"/>
+      <c r="AC82" s="35"/>
+      <c r="AD82" s="35"/>
+      <c r="AE82" s="35"/>
+      <c r="AF82" s="35"/>
+      <c r="AG82" s="35"/>
+      <c r="AH82" s="35"/>
+      <c r="AI82" s="35"/>
     </row>
     <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="37" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>45</v>
+        <v>530</v>
       </c>
       <c r="D83" s="35"/>
       <c r="E83" s="35"/>
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35"/>
-      <c r="I83" s="35"/>
+      <c r="I83" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="J83" s="35"/>
       <c r="K83" s="35"/>
       <c r="L83" s="35"/>
@@ -5837,13 +5948,13 @@
     </row>
     <row r="84" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
-        <v>110</v>
+        <v>538</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
@@ -5851,7 +5962,9 @@
       <c r="G84" s="35"/>
       <c r="H84" s="35"/>
       <c r="I84" s="35"/>
-      <c r="J84" s="35"/>
+      <c r="J84" s="35" t="s">
+        <v>533</v>
+      </c>
       <c r="K84" s="35"/>
       <c r="L84" s="35"/>
       <c r="M84" s="35"/>
@@ -5880,17 +5993,23 @@
     </row>
     <row r="85" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B85" s="37"/>
-      <c r="C85" s="35"/>
+        <v>283</v>
+      </c>
+      <c r="B85" s="37" t="s">
+        <v>531</v>
+      </c>
+      <c r="C85" s="35" t="s">
+        <v>532</v>
+      </c>
       <c r="D85" s="35"/>
       <c r="E85" s="35"/>
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
       <c r="I85" s="35"/>
-      <c r="J85" s="35"/>
+      <c r="J85" s="35" t="s">
+        <v>533</v>
+      </c>
       <c r="K85" s="35"/>
       <c r="L85" s="35"/>
       <c r="M85" s="35"/>
@@ -5918,328 +6037,296 @@
       <c r="AI85" s="35"/>
     </row>
     <row r="86" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="31"/>
-      <c r="B86" s="31"/>
-      <c r="C86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="AE86" s="31"/>
-      <c r="AF86" s="31"/>
-      <c r="AG86" s="31"/>
-      <c r="AH86" s="31"/>
-      <c r="AI86" s="31"/>
+      <c r="A86" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="B86" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="C86" s="35" t="s">
+        <v>535</v>
+      </c>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" s="35" t="s">
+        <v>533</v>
+      </c>
+      <c r="K86" s="35"/>
+      <c r="L86" s="35"/>
+      <c r="M86" s="35"/>
+      <c r="N86" s="35"/>
+      <c r="O86" s="35"/>
+      <c r="P86" s="35"/>
+      <c r="Q86" s="35"/>
+      <c r="R86" s="35"/>
+      <c r="S86" s="35"/>
+      <c r="T86" s="35"/>
+      <c r="U86" s="35"/>
+      <c r="V86" s="35"/>
+      <c r="W86" s="35"/>
+      <c r="X86" s="35"/>
+      <c r="Y86" s="35"/>
+      <c r="Z86" s="35"/>
+      <c r="AA86" s="35"/>
+      <c r="AB86" s="35"/>
+      <c r="AC86" s="35"/>
+      <c r="AD86" s="35"/>
+      <c r="AE86" s="35"/>
+      <c r="AF86" s="35"/>
+      <c r="AG86" s="35"/>
+      <c r="AH86" s="35"/>
+      <c r="AI86" s="35"/>
     </row>
     <row r="87" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B87" s="33" t="s">
-        <v>323</v>
-      </c>
-      <c r="C87" s="34" t="s">
-        <v>333</v>
-      </c>
+      <c r="A87" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B87" s="37"/>
+      <c r="C87" s="35"/>
       <c r="D87" s="35"/>
       <c r="E87" s="35"/>
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
-      <c r="I87" s="36"/>
-      <c r="J87" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="K87" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L87" s="34"/>
-      <c r="M87" s="34"/>
-      <c r="N87" s="34"/>
-      <c r="O87" s="34"/>
-      <c r="P87" s="34"/>
-      <c r="Q87" s="34"/>
-      <c r="R87" s="34"/>
-      <c r="S87" s="34"/>
-      <c r="T87" s="34"/>
-      <c r="U87" s="36"/>
-      <c r="V87" s="34"/>
-      <c r="W87" s="36"/>
-      <c r="X87" s="36"/>
-      <c r="Y87" s="36"/>
-      <c r="Z87" s="36"/>
-      <c r="AA87" s="36"/>
-      <c r="AB87" s="36"/>
-      <c r="AC87" s="36"/>
-      <c r="AD87" s="36"/>
-      <c r="AE87" s="36"/>
-      <c r="AF87" s="36"/>
-      <c r="AG87" s="36"/>
-      <c r="AH87" s="36"/>
-      <c r="AI87" s="36"/>
-    </row>
-    <row r="88" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="B88" s="33" t="s">
-        <v>324</v>
-      </c>
-      <c r="C88" s="34" t="s">
-        <v>287</v>
-      </c>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="J88" s="36"/>
-      <c r="K88" s="36"/>
-      <c r="L88" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="M88" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="N88" s="34"/>
-      <c r="O88" s="34"/>
-      <c r="P88" s="34"/>
-      <c r="Q88" s="34"/>
-      <c r="R88" s="34"/>
-      <c r="S88" s="34"/>
-      <c r="T88" s="34"/>
-      <c r="U88" s="36"/>
-      <c r="V88" s="34"/>
-      <c r="W88" s="36"/>
-      <c r="X88" s="36"/>
-      <c r="Y88" s="36"/>
-      <c r="Z88" s="36"/>
-      <c r="AA88" s="36"/>
-      <c r="AB88" s="36"/>
-      <c r="AC88" s="36"/>
-      <c r="AD88" s="36"/>
-      <c r="AE88" s="36"/>
-      <c r="AF88" s="36"/>
-      <c r="AG88" s="36"/>
-      <c r="AH88" s="36"/>
-      <c r="AI88" s="36"/>
+      <c r="I87" s="35"/>
+      <c r="J87" s="35"/>
+      <c r="K87" s="35"/>
+      <c r="L87" s="35"/>
+      <c r="M87" s="35"/>
+      <c r="N87" s="35"/>
+      <c r="O87" s="35"/>
+      <c r="P87" s="35"/>
+      <c r="Q87" s="35"/>
+      <c r="R87" s="35"/>
+      <c r="S87" s="35"/>
+      <c r="T87" s="35"/>
+      <c r="U87" s="35"/>
+      <c r="V87" s="35"/>
+      <c r="W87" s="35"/>
+      <c r="X87" s="35"/>
+      <c r="Y87" s="35"/>
+      <c r="Z87" s="35"/>
+      <c r="AA87" s="35"/>
+      <c r="AB87" s="35"/>
+      <c r="AC87" s="35"/>
+      <c r="AD87" s="35"/>
+      <c r="AE87" s="35"/>
+      <c r="AF87" s="35"/>
+      <c r="AG87" s="35"/>
+      <c r="AH87" s="35"/>
+      <c r="AI87" s="35"/>
+    </row>
+    <row r="88" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="54"/>
+      <c r="B88" s="54"/>
+      <c r="C88" s="54"/>
+      <c r="D88" s="54"/>
+      <c r="E88" s="54"/>
+      <c r="F88" s="54"/>
+      <c r="G88" s="54"/>
+      <c r="H88" s="54"/>
+      <c r="I88" s="54"/>
+      <c r="J88" s="54"/>
+      <c r="K88" s="54"/>
+      <c r="L88" s="54"/>
+      <c r="M88" s="54"/>
+      <c r="N88" s="54"/>
+      <c r="O88" s="54"/>
+      <c r="P88" s="54"/>
+      <c r="Q88" s="54"/>
+      <c r="R88" s="54"/>
+      <c r="S88" s="54"/>
+      <c r="T88" s="54"/>
+      <c r="U88" s="54"/>
+      <c r="V88" s="54"/>
+      <c r="W88" s="54"/>
+      <c r="X88" s="54"/>
+      <c r="Y88" s="54"/>
+      <c r="Z88" s="54"/>
+      <c r="AA88" s="54"/>
+      <c r="AB88" s="54"/>
+      <c r="AC88" s="54"/>
+      <c r="AD88" s="54"/>
+      <c r="AE88" s="54"/>
+      <c r="AF88" s="54"/>
+      <c r="AG88" s="54"/>
+      <c r="AH88" s="54"/>
+      <c r="AI88" s="54"/>
     </row>
     <row r="89" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="B89" s="33" t="s">
-        <v>325</v>
-      </c>
-      <c r="C89" s="34" t="s">
-        <v>291</v>
+      <c r="A89" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B89" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>45</v>
       </c>
       <c r="D89" s="35"/>
       <c r="E89" s="35"/>
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
-      <c r="I89" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="J89" s="36"/>
-      <c r="K89" s="36"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="34"/>
-      <c r="N89" s="34"/>
-      <c r="O89" s="34"/>
-      <c r="P89" s="34"/>
-      <c r="Q89" s="34"/>
-      <c r="R89" s="34"/>
-      <c r="S89" s="34"/>
-      <c r="T89" s="34"/>
-      <c r="U89" s="36"/>
-      <c r="V89" s="34"/>
-      <c r="W89" s="36"/>
-      <c r="X89" s="36"/>
-      <c r="Y89" s="36"/>
-      <c r="Z89" s="36"/>
-      <c r="AA89" s="36"/>
-      <c r="AB89" s="36"/>
-      <c r="AC89" s="36"/>
-      <c r="AD89" s="36"/>
-      <c r="AE89" s="36"/>
-      <c r="AF89" s="36"/>
-      <c r="AG89" s="36"/>
-      <c r="AH89" s="36"/>
-      <c r="AI89" s="36"/>
+      <c r="I89" s="35"/>
+      <c r="J89" s="35"/>
+      <c r="K89" s="35"/>
+      <c r="L89" s="35"/>
+      <c r="M89" s="35"/>
+      <c r="N89" s="35"/>
+      <c r="O89" s="35"/>
+      <c r="P89" s="35"/>
+      <c r="Q89" s="35"/>
+      <c r="R89" s="35"/>
+      <c r="S89" s="35"/>
+      <c r="T89" s="35"/>
+      <c r="U89" s="35"/>
+      <c r="V89" s="35"/>
+      <c r="W89" s="35"/>
+      <c r="X89" s="35"/>
+      <c r="Y89" s="35"/>
+      <c r="Z89" s="35"/>
+      <c r="AA89" s="35"/>
+      <c r="AB89" s="35"/>
+      <c r="AC89" s="35"/>
+      <c r="AD89" s="35"/>
+      <c r="AE89" s="35"/>
+      <c r="AF89" s="35"/>
+      <c r="AG89" s="35"/>
+      <c r="AH89" s="35"/>
+      <c r="AI89" s="35"/>
     </row>
     <row r="90" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="B90" s="33" t="s">
-        <v>326</v>
-      </c>
-      <c r="C90" s="34" t="s">
-        <v>293</v>
+      <c r="A90" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B90" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="C90" s="35" t="s">
+        <v>543</v>
       </c>
       <c r="D90" s="35"/>
       <c r="E90" s="35"/>
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
-      <c r="I90" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J90" s="36"/>
-      <c r="K90" s="36"/>
-      <c r="L90" s="36" t="s">
-        <v>294</v>
-      </c>
-      <c r="M90" s="34" t="s">
-        <v>295</v>
-      </c>
-      <c r="N90" s="34"/>
-      <c r="O90" s="34"/>
-      <c r="P90" s="34"/>
-      <c r="Q90" s="34"/>
-      <c r="R90" s="34"/>
-      <c r="S90" s="34"/>
-      <c r="T90" s="34"/>
-      <c r="U90" s="36"/>
-      <c r="V90" s="34"/>
-      <c r="W90" s="36"/>
-      <c r="X90" s="36"/>
-      <c r="Y90" s="36"/>
-      <c r="Z90" s="36"/>
-      <c r="AA90" s="36"/>
-      <c r="AB90" s="36"/>
-      <c r="AC90" s="36"/>
-      <c r="AD90" s="36"/>
-      <c r="AE90" s="36"/>
-      <c r="AF90" s="36"/>
-      <c r="AG90" s="36"/>
-      <c r="AH90" s="36"/>
-      <c r="AI90" s="36"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="35"/>
+      <c r="N90" s="35"/>
+      <c r="O90" s="35"/>
+      <c r="P90" s="35"/>
+      <c r="Q90" s="35"/>
+      <c r="R90" s="35"/>
+      <c r="S90" s="35"/>
+      <c r="T90" s="35"/>
+      <c r="U90" s="35"/>
+      <c r="V90" s="35"/>
+      <c r="W90" s="35"/>
+      <c r="X90" s="35"/>
+      <c r="Y90" s="35"/>
+      <c r="Z90" s="35"/>
+      <c r="AA90" s="35"/>
+      <c r="AB90" s="35"/>
+      <c r="AC90" s="35"/>
+      <c r="AD90" s="35"/>
+      <c r="AE90" s="35"/>
+      <c r="AF90" s="35"/>
+      <c r="AG90" s="35"/>
+      <c r="AH90" s="35"/>
+      <c r="AI90" s="35"/>
     </row>
     <row r="91" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B91" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="C91" s="34" t="s">
-        <v>297</v>
-      </c>
+      <c r="A91" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="B91" s="37"/>
+      <c r="C91" s="35"/>
       <c r="D91" s="35"/>
       <c r="E91" s="35"/>
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
-      <c r="I91" s="36"/>
-      <c r="J91" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="K91" s="36"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="34"/>
-      <c r="N91" s="34"/>
-      <c r="O91" s="34"/>
-      <c r="P91" s="34"/>
-      <c r="Q91" s="34"/>
-      <c r="R91" s="34"/>
-      <c r="S91" s="34"/>
-      <c r="T91" s="34"/>
-      <c r="U91" s="36"/>
-      <c r="V91" s="34"/>
-      <c r="W91" s="36"/>
-      <c r="X91" s="36"/>
-      <c r="Y91" s="36"/>
-      <c r="Z91" s="36"/>
-      <c r="AA91" s="36"/>
-      <c r="AB91" s="36"/>
-      <c r="AC91" s="36"/>
-      <c r="AD91" s="36"/>
-      <c r="AE91" s="36"/>
-      <c r="AF91" s="36"/>
-      <c r="AG91" s="36"/>
-      <c r="AH91" s="36"/>
-      <c r="AI91" s="36"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="35"/>
+      <c r="N91" s="35"/>
+      <c r="O91" s="35"/>
+      <c r="P91" s="35"/>
+      <c r="Q91" s="35"/>
+      <c r="R91" s="35"/>
+      <c r="S91" s="35"/>
+      <c r="T91" s="35"/>
+      <c r="U91" s="35"/>
+      <c r="V91" s="35"/>
+      <c r="W91" s="35"/>
+      <c r="X91" s="35"/>
+      <c r="Y91" s="35"/>
+      <c r="Z91" s="35"/>
+      <c r="AA91" s="35"/>
+      <c r="AB91" s="35"/>
+      <c r="AC91" s="35"/>
+      <c r="AD91" s="35"/>
+      <c r="AE91" s="35"/>
+      <c r="AF91" s="35"/>
+      <c r="AG91" s="35"/>
+      <c r="AH91" s="35"/>
+      <c r="AI91" s="35"/>
     </row>
     <row r="92" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B92" s="33" t="s">
-        <v>298</v>
-      </c>
-      <c r="C92" s="34" t="s">
-        <v>299</v>
-      </c>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
-      <c r="I92" s="36"/>
-      <c r="J92" s="36" t="s">
-        <v>447</v>
-      </c>
-      <c r="K92" s="36"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="34"/>
-      <c r="N92" s="34"/>
-      <c r="O92" s="34"/>
-      <c r="P92" s="34"/>
-      <c r="Q92" s="34"/>
-      <c r="R92" s="34"/>
-      <c r="S92" s="34"/>
-      <c r="T92" s="34"/>
-      <c r="U92" s="36"/>
-      <c r="V92" s="34"/>
-      <c r="W92" s="36"/>
-      <c r="X92" s="36"/>
-      <c r="Y92" s="36"/>
-      <c r="Z92" s="36"/>
-      <c r="AA92" s="36"/>
-      <c r="AB92" s="36"/>
-      <c r="AC92" s="36"/>
-      <c r="AD92" s="36"/>
-      <c r="AE92" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF92" s="36"/>
-      <c r="AG92" s="36"/>
-      <c r="AH92" s="36"/>
-      <c r="AI92" s="36"/>
+      <c r="A92" s="31"/>
+      <c r="B92" s="31"/>
+      <c r="C92" s="31"/>
+      <c r="E92" s="31"/>
+      <c r="F92" s="31"/>
+      <c r="AE92" s="31"/>
+      <c r="AF92" s="31"/>
+      <c r="AG92" s="31"/>
+      <c r="AH92" s="31"/>
+      <c r="AI92" s="31"/>
     </row>
     <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="B93" s="38" t="s">
-        <v>300</v>
-      </c>
-      <c r="C93" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D93" s="36"/>
-      <c r="E93" s="39"/>
-      <c r="F93" s="39"/>
-      <c r="G93" s="36"/>
-      <c r="H93" s="36"/>
+      <c r="B93" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="C93" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
       <c r="I93" s="36"/>
-      <c r="J93" s="39"/>
-      <c r="K93" s="36"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="36"/>
-      <c r="N93" s="36"/>
-      <c r="O93" s="39"/>
-      <c r="P93" s="36"/>
-      <c r="Q93" s="36"/>
-      <c r="R93" s="36"/>
-      <c r="S93" s="36"/>
-      <c r="T93" s="36"/>
+      <c r="J93" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="K93" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L93" s="34"/>
+      <c r="M93" s="34"/>
+      <c r="N93" s="34"/>
+      <c r="O93" s="34"/>
+      <c r="P93" s="34"/>
+      <c r="Q93" s="34"/>
+      <c r="R93" s="34"/>
+      <c r="S93" s="34"/>
+      <c r="T93" s="34"/>
       <c r="U93" s="36"/>
-      <c r="V93" s="36"/>
+      <c r="V93" s="34"/>
       <c r="W93" s="36"/>
       <c r="X93" s="36"/>
       <c r="Y93" s="36"/>
@@ -6248,92 +6335,92 @@
       <c r="AB93" s="36"/>
       <c r="AC93" s="36"/>
       <c r="AD93" s="36"/>
-      <c r="AE93" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE93" s="36"/>
       <c r="AF93" s="36"/>
       <c r="AG93" s="36"/>
-      <c r="AH93" s="40" t="s">
-        <v>301</v>
-      </c>
+      <c r="AH93" s="36"/>
       <c r="AI93" s="36"/>
     </row>
     <row r="94" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B94" s="38" t="s">
-        <v>302</v>
-      </c>
-      <c r="C94" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D94" s="36"/>
-      <c r="E94" s="36"/>
-      <c r="F94" s="36"/>
-      <c r="G94" s="36"/>
-      <c r="H94" s="36"/>
-      <c r="I94" s="39"/>
-      <c r="J94" s="39"/>
-      <c r="K94" s="39"/>
-      <c r="L94" s="39"/>
-      <c r="M94" s="39"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="36"/>
-      <c r="P94" s="36"/>
-      <c r="Q94" s="36"/>
-      <c r="R94" s="36"/>
-      <c r="S94" s="36"/>
-      <c r="T94" s="39" t="s">
-        <v>303</v>
-      </c>
-      <c r="U94" s="39"/>
-      <c r="V94" s="39"/>
-      <c r="W94" s="39"/>
-      <c r="X94" s="39"/>
-      <c r="Y94" s="39"/>
-      <c r="Z94" s="39"/>
-      <c r="AA94" s="39"/>
-      <c r="AB94" s="39"/>
-      <c r="AC94" s="39"/>
-      <c r="AD94" s="39"/>
-      <c r="AE94" s="39"/>
-      <c r="AF94" s="39"/>
-      <c r="AG94" s="39"/>
-      <c r="AH94" s="39"/>
-      <c r="AI94" s="39"/>
+      <c r="A94" s="33" t="s">
+        <v>283</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="C94" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
+      <c r="L94" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="M94" s="34" t="s">
+        <v>286</v>
+      </c>
+      <c r="N94" s="34"/>
+      <c r="O94" s="34"/>
+      <c r="P94" s="34"/>
+      <c r="Q94" s="34"/>
+      <c r="R94" s="34"/>
+      <c r="S94" s="34"/>
+      <c r="T94" s="34"/>
+      <c r="U94" s="36"/>
+      <c r="V94" s="34"/>
+      <c r="W94" s="36"/>
+      <c r="X94" s="36"/>
+      <c r="Y94" s="36"/>
+      <c r="Z94" s="36"/>
+      <c r="AA94" s="36"/>
+      <c r="AB94" s="36"/>
+      <c r="AC94" s="36"/>
+      <c r="AD94" s="36"/>
+      <c r="AE94" s="36"/>
+      <c r="AF94" s="36"/>
+      <c r="AG94" s="36"/>
+      <c r="AH94" s="36"/>
+      <c r="AI94" s="36"/>
     </row>
     <row r="95" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B95" s="38" t="s">
-        <v>3</v>
-      </c>
-      <c r="C95" s="39" t="s">
-        <v>304</v>
-      </c>
-      <c r="D95" s="36"/>
-      <c r="E95" s="36"/>
-      <c r="F95" s="36"/>
-      <c r="G95" s="36"/>
-      <c r="H95" s="36"/>
-      <c r="I95" s="36"/>
+      <c r="A95" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="C95" s="34" t="s">
+        <v>288</v>
+      </c>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="36" t="s">
+        <v>57</v>
+      </c>
       <c r="J95" s="36"/>
       <c r="K95" s="36"/>
       <c r="L95" s="36"/>
-      <c r="M95" s="36"/>
-      <c r="N95" s="36"/>
-      <c r="O95" s="36"/>
-      <c r="P95" s="36"/>
-      <c r="Q95" s="36"/>
-      <c r="R95" s="36"/>
-      <c r="S95" s="36"/>
-      <c r="T95" s="39" t="s">
-        <v>305</v>
-      </c>
+      <c r="M95" s="34"/>
+      <c r="N95" s="34"/>
+      <c r="O95" s="34"/>
+      <c r="P95" s="34"/>
+      <c r="Q95" s="34"/>
+      <c r="R95" s="34"/>
+      <c r="S95" s="34"/>
+      <c r="T95" s="34"/>
       <c r="U95" s="36"/>
-      <c r="V95" s="36"/>
+      <c r="V95" s="34"/>
       <c r="W95" s="36"/>
       <c r="X95" s="36"/>
       <c r="Y95" s="36"/>
@@ -6349,124 +6436,130 @@
       <c r="AI95" s="36"/>
     </row>
     <row r="96" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B96" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="C96" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D96" s="36"/>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36"/>
-      <c r="H96" s="36"/>
-      <c r="I96" s="36"/>
+      <c r="A96" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="C96" s="34" t="s">
+        <v>290</v>
+      </c>
+      <c r="D96" s="35"/>
+      <c r="E96" s="35"/>
+      <c r="F96" s="35"/>
+      <c r="G96" s="35"/>
+      <c r="H96" s="35"/>
+      <c r="I96" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="J96" s="36"/>
       <c r="K96" s="36"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="36"/>
-      <c r="N96" s="36"/>
-      <c r="O96" s="36"/>
-      <c r="P96" s="36"/>
-      <c r="Q96" s="36"/>
-      <c r="R96" s="36"/>
-      <c r="S96" s="36"/>
-      <c r="T96" s="39" t="s">
-        <v>307</v>
-      </c>
-      <c r="U96" s="39"/>
-      <c r="V96" s="39"/>
-      <c r="W96" s="39"/>
-      <c r="X96" s="39"/>
-      <c r="Y96" s="39"/>
-      <c r="Z96" s="39"/>
-      <c r="AA96" s="39"/>
-      <c r="AB96" s="39"/>
-      <c r="AC96" s="39"/>
-      <c r="AD96" s="39"/>
-      <c r="AE96" s="39"/>
-      <c r="AF96" s="39"/>
-      <c r="AG96" s="39"/>
-      <c r="AH96" s="39"/>
-      <c r="AI96" s="39"/>
+      <c r="L96" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="M96" s="34" t="s">
+        <v>292</v>
+      </c>
+      <c r="N96" s="34"/>
+      <c r="O96" s="34"/>
+      <c r="P96" s="34"/>
+      <c r="Q96" s="34"/>
+      <c r="R96" s="34"/>
+      <c r="S96" s="34"/>
+      <c r="T96" s="34"/>
+      <c r="U96" s="36"/>
+      <c r="V96" s="34"/>
+      <c r="W96" s="36"/>
+      <c r="X96" s="36"/>
+      <c r="Y96" s="36"/>
+      <c r="Z96" s="36"/>
+      <c r="AA96" s="36"/>
+      <c r="AB96" s="36"/>
+      <c r="AC96" s="36"/>
+      <c r="AD96" s="36"/>
+      <c r="AE96" s="36"/>
+      <c r="AF96" s="36"/>
+      <c r="AG96" s="36"/>
+      <c r="AH96" s="36"/>
+      <c r="AI96" s="36"/>
     </row>
     <row r="97" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B97" s="38" t="s">
-        <v>308</v>
-      </c>
-      <c r="C97" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D97" s="36"/>
-      <c r="E97" s="36"/>
-      <c r="F97" s="36"/>
-      <c r="G97" s="36"/>
-      <c r="H97" s="36"/>
-      <c r="I97" s="39"/>
-      <c r="J97" s="39"/>
-      <c r="K97" s="39"/>
-      <c r="L97" s="39"/>
-      <c r="M97" s="39"/>
-      <c r="N97" s="39"/>
-      <c r="O97" s="39"/>
-      <c r="P97" s="39"/>
-      <c r="Q97" s="39"/>
-      <c r="R97" s="39"/>
-      <c r="S97" s="39"/>
-      <c r="T97" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="U97" s="39"/>
-      <c r="V97" s="39"/>
-      <c r="W97" s="39"/>
-      <c r="X97" s="39"/>
-      <c r="Y97" s="39"/>
-      <c r="Z97" s="39"/>
-      <c r="AA97" s="39"/>
-      <c r="AB97" s="39"/>
-      <c r="AC97" s="39"/>
-      <c r="AD97" s="39"/>
-      <c r="AE97" s="39"/>
-      <c r="AF97" s="39"/>
-      <c r="AG97" s="39"/>
-      <c r="AH97" s="39"/>
-      <c r="AI97" s="39"/>
+      <c r="A97" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="C97" s="34" t="s">
+        <v>294</v>
+      </c>
+      <c r="D97" s="35"/>
+      <c r="E97" s="35"/>
+      <c r="F97" s="35"/>
+      <c r="G97" s="35"/>
+      <c r="H97" s="35"/>
+      <c r="I97" s="36"/>
+      <c r="J97" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="K97" s="36"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="34"/>
+      <c r="N97" s="34"/>
+      <c r="O97" s="34"/>
+      <c r="P97" s="34"/>
+      <c r="Q97" s="34"/>
+      <c r="R97" s="34"/>
+      <c r="S97" s="34"/>
+      <c r="T97" s="34"/>
+      <c r="U97" s="36"/>
+      <c r="V97" s="34"/>
+      <c r="W97" s="36"/>
+      <c r="X97" s="36"/>
+      <c r="Y97" s="36"/>
+      <c r="Z97" s="36"/>
+      <c r="AA97" s="36"/>
+      <c r="AB97" s="36"/>
+      <c r="AC97" s="36"/>
+      <c r="AD97" s="36"/>
+      <c r="AE97" s="36"/>
+      <c r="AF97" s="36"/>
+      <c r="AG97" s="36"/>
+      <c r="AH97" s="36"/>
+      <c r="AI97" s="36"/>
     </row>
     <row r="98" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B98" s="38" t="s">
-        <v>310</v>
-      </c>
-      <c r="C98" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D98" s="36"/>
-      <c r="E98" s="36"/>
-      <c r="F98" s="36"/>
-      <c r="G98" s="36"/>
-      <c r="H98" s="36"/>
+      <c r="A98" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="C98" s="34" t="s">
+        <v>296</v>
+      </c>
+      <c r="D98" s="35"/>
+      <c r="E98" s="35"/>
+      <c r="F98" s="35"/>
+      <c r="G98" s="35"/>
+      <c r="H98" s="35"/>
       <c r="I98" s="36"/>
-      <c r="J98" s="36"/>
+      <c r="J98" s="36" t="s">
+        <v>443</v>
+      </c>
       <c r="K98" s="36"/>
       <c r="L98" s="36"/>
-      <c r="M98" s="36"/>
-      <c r="N98" s="36"/>
-      <c r="O98" s="36"/>
-      <c r="P98" s="36"/>
-      <c r="Q98" s="36"/>
-      <c r="R98" s="36"/>
-      <c r="S98" s="36"/>
-      <c r="T98" s="36"/>
+      <c r="M98" s="34"/>
+      <c r="N98" s="34"/>
+      <c r="O98" s="34"/>
+      <c r="P98" s="34"/>
+      <c r="Q98" s="34"/>
+      <c r="R98" s="34"/>
+      <c r="S98" s="34"/>
+      <c r="T98" s="34"/>
       <c r="U98" s="36"/>
-      <c r="V98" s="36"/>
+      <c r="V98" s="34"/>
       <c r="W98" s="36"/>
       <c r="X98" s="36"/>
       <c r="Y98" s="36"/>
@@ -6475,7 +6568,9 @@
       <c r="AB98" s="36"/>
       <c r="AC98" s="36"/>
       <c r="AD98" s="36"/>
-      <c r="AE98" s="36"/>
+      <c r="AE98" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AF98" s="36"/>
       <c r="AG98" s="36"/>
       <c r="AH98" s="36"/>
@@ -6483,77 +6578,79 @@
     </row>
     <row r="99" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="38" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B99" s="38" t="s">
-        <v>66</v>
+        <v>297</v>
       </c>
       <c r="C99" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D99" s="39"/>
+      <c r="D99" s="36"/>
       <c r="E99" s="39"/>
       <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="39"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="36"/>
       <c r="J99" s="39"/>
-      <c r="K99" s="39"/>
-      <c r="L99" s="39"/>
-      <c r="M99" s="39"/>
-      <c r="N99" s="39"/>
+      <c r="K99" s="36"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="36"/>
       <c r="O99" s="39"/>
-      <c r="P99" s="39"/>
-      <c r="Q99" s="39"/>
-      <c r="R99" s="39"/>
-      <c r="S99" s="39"/>
-      <c r="T99" s="39" t="s">
-        <v>311</v>
-      </c>
-      <c r="U99" s="39"/>
-      <c r="V99" s="39"/>
-      <c r="W99" s="39"/>
-      <c r="X99" s="39"/>
-      <c r="Y99" s="39"/>
-      <c r="Z99" s="39"/>
-      <c r="AA99" s="39"/>
-      <c r="AB99" s="39"/>
-      <c r="AC99" s="39"/>
-      <c r="AD99" s="39"/>
-      <c r="AE99" s="39"/>
-      <c r="AF99" s="39"/>
-      <c r="AG99" s="39"/>
-      <c r="AH99" s="39"/>
-      <c r="AI99" s="39"/>
+      <c r="P99" s="36"/>
+      <c r="Q99" s="36"/>
+      <c r="R99" s="36"/>
+      <c r="S99" s="36"/>
+      <c r="T99" s="36"/>
+      <c r="U99" s="36"/>
+      <c r="V99" s="36"/>
+      <c r="W99" s="36"/>
+      <c r="X99" s="36"/>
+      <c r="Y99" s="36"/>
+      <c r="Z99" s="36"/>
+      <c r="AA99" s="36"/>
+      <c r="AB99" s="36"/>
+      <c r="AC99" s="36"/>
+      <c r="AD99" s="36"/>
+      <c r="AE99" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF99" s="36"/>
+      <c r="AG99" s="36"/>
+      <c r="AH99" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI99" s="36"/>
     </row>
     <row r="100" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B100" s="38" t="s">
-        <v>84</v>
+        <v>299</v>
       </c>
       <c r="C100" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D100" s="39"/>
-      <c r="E100" s="39"/>
-      <c r="F100" s="39"/>
-      <c r="G100" s="39"/>
-      <c r="H100" s="39"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="36"/>
+      <c r="F100" s="36"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
       <c r="I100" s="39"/>
       <c r="J100" s="39"/>
       <c r="K100" s="39"/>
       <c r="L100" s="39"/>
       <c r="M100" s="39"/>
-      <c r="N100" s="39"/>
-      <c r="O100" s="39"/>
-      <c r="P100" s="39"/>
-      <c r="Q100" s="39"/>
-      <c r="R100" s="39"/>
-      <c r="S100" s="39"/>
+      <c r="N100" s="36"/>
+      <c r="O100" s="36"/>
+      <c r="P100" s="36"/>
+      <c r="Q100" s="36"/>
+      <c r="R100" s="36"/>
+      <c r="S100" s="36"/>
       <c r="T100" s="39" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="U100" s="39"/>
       <c r="V100" s="39"/>
@@ -6573,13 +6670,13 @@
     </row>
     <row r="101" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="38" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>313</v>
+        <v>3</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="D101" s="36"/>
       <c r="E101" s="36"/>
@@ -6597,7 +6694,9 @@
       <c r="Q101" s="36"/>
       <c r="R101" s="36"/>
       <c r="S101" s="36"/>
-      <c r="T101" s="36"/>
+      <c r="T101" s="39" t="s">
+        <v>302</v>
+      </c>
       <c r="U101" s="36"/>
       <c r="V101" s="36"/>
       <c r="W101" s="36"/>
@@ -6619,7 +6718,7 @@
         <v>78</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="C102" s="39" t="s">
         <v>45</v>
@@ -6641,30 +6740,30 @@
       <c r="R102" s="36"/>
       <c r="S102" s="36"/>
       <c r="T102" s="39" t="s">
-        <v>329</v>
-      </c>
-      <c r="U102" s="36"/>
-      <c r="V102" s="36"/>
-      <c r="W102" s="36"/>
-      <c r="X102" s="36"/>
-      <c r="Y102" s="36"/>
-      <c r="Z102" s="36"/>
-      <c r="AA102" s="36"/>
-      <c r="AB102" s="36"/>
-      <c r="AC102" s="36"/>
-      <c r="AD102" s="36"/>
-      <c r="AE102" s="36"/>
-      <c r="AF102" s="36"/>
-      <c r="AG102" s="36"/>
-      <c r="AH102" s="36"/>
-      <c r="AI102" s="36"/>
+        <v>304</v>
+      </c>
+      <c r="U102" s="39"/>
+      <c r="V102" s="39"/>
+      <c r="W102" s="39"/>
+      <c r="X102" s="39"/>
+      <c r="Y102" s="39"/>
+      <c r="Z102" s="39"/>
+      <c r="AA102" s="39"/>
+      <c r="AB102" s="39"/>
+      <c r="AC102" s="39"/>
+      <c r="AD102" s="39"/>
+      <c r="AE102" s="39"/>
+      <c r="AF102" s="39"/>
+      <c r="AG102" s="39"/>
+      <c r="AH102" s="39"/>
+      <c r="AI102" s="39"/>
     </row>
     <row r="103" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="C103" s="39" t="s">
         <v>45</v>
@@ -6674,42 +6773,42 @@
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
       <c r="H103" s="36"/>
-      <c r="I103" s="36"/>
-      <c r="J103" s="36"/>
-      <c r="K103" s="36"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="36"/>
-      <c r="N103" s="36"/>
-      <c r="O103" s="36"/>
-      <c r="P103" s="36"/>
-      <c r="Q103" s="36"/>
-      <c r="R103" s="36"/>
-      <c r="S103" s="36"/>
+      <c r="I103" s="39"/>
+      <c r="J103" s="39"/>
+      <c r="K103" s="39"/>
+      <c r="L103" s="39"/>
+      <c r="M103" s="39"/>
+      <c r="N103" s="39"/>
+      <c r="O103" s="39"/>
+      <c r="P103" s="39"/>
+      <c r="Q103" s="39"/>
+      <c r="R103" s="39"/>
+      <c r="S103" s="39"/>
       <c r="T103" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="U103" s="36"/>
-      <c r="V103" s="36"/>
-      <c r="W103" s="36"/>
-      <c r="X103" s="36"/>
-      <c r="Y103" s="36"/>
-      <c r="Z103" s="36"/>
-      <c r="AA103" s="36"/>
-      <c r="AB103" s="36"/>
-      <c r="AC103" s="36"/>
-      <c r="AD103" s="36"/>
-      <c r="AE103" s="36"/>
-      <c r="AF103" s="36"/>
-      <c r="AG103" s="36"/>
-      <c r="AH103" s="36"/>
-      <c r="AI103" s="36"/>
+        <v>306</v>
+      </c>
+      <c r="U103" s="39"/>
+      <c r="V103" s="39"/>
+      <c r="W103" s="39"/>
+      <c r="X103" s="39"/>
+      <c r="Y103" s="39"/>
+      <c r="Z103" s="39"/>
+      <c r="AA103" s="39"/>
+      <c r="AB103" s="39"/>
+      <c r="AC103" s="39"/>
+      <c r="AD103" s="39"/>
+      <c r="AE103" s="39"/>
+      <c r="AF103" s="39"/>
+      <c r="AG103" s="39"/>
+      <c r="AH103" s="39"/>
+      <c r="AI103" s="39"/>
     </row>
     <row r="104" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="38" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B104" s="38" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="C104" s="39" t="s">
         <v>45</v>
@@ -6730,9 +6829,7 @@
       <c r="Q104" s="36"/>
       <c r="R104" s="36"/>
       <c r="S104" s="36"/>
-      <c r="T104" s="39" t="s">
-        <v>317</v>
-      </c>
+      <c r="T104" s="36"/>
       <c r="U104" s="36"/>
       <c r="V104" s="36"/>
       <c r="W104" s="36"/>
@@ -6754,16 +6851,16 @@
         <v>78</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>318</v>
+        <v>66</v>
       </c>
       <c r="C105" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D105" s="36"/>
-      <c r="E105" s="36"/>
-      <c r="F105" s="36"/>
-      <c r="G105" s="36"/>
-      <c r="H105" s="36"/>
+      <c r="D105" s="39"/>
+      <c r="E105" s="39"/>
+      <c r="F105" s="39"/>
+      <c r="G105" s="39"/>
+      <c r="H105" s="39"/>
       <c r="I105" s="39"/>
       <c r="J105" s="39"/>
       <c r="K105" s="39"/>
@@ -6776,7 +6873,7 @@
       <c r="R105" s="39"/>
       <c r="S105" s="39"/>
       <c r="T105" s="39" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="U105" s="39"/>
       <c r="V105" s="39"/>
@@ -6796,49 +6893,59 @@
     </row>
     <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B106" s="38"/>
-      <c r="C106" s="36"/>
-      <c r="D106" s="36"/>
-      <c r="E106" s="36"/>
-      <c r="F106" s="36"/>
-      <c r="G106" s="36"/>
-      <c r="H106" s="36"/>
-      <c r="I106" s="36"/>
-      <c r="J106" s="36"/>
-      <c r="K106" s="36"/>
-      <c r="L106" s="36"/>
-      <c r="M106" s="36"/>
-      <c r="N106" s="36"/>
-      <c r="O106" s="36"/>
-      <c r="P106" s="36"/>
-      <c r="Q106" s="36"/>
-      <c r="R106" s="36"/>
-      <c r="S106" s="36"/>
-      <c r="T106" s="36"/>
-      <c r="U106" s="36"/>
-      <c r="V106" s="36"/>
-      <c r="W106" s="36"/>
-      <c r="X106" s="36"/>
-      <c r="Y106" s="36"/>
-      <c r="Z106" s="36"/>
-      <c r="AA106" s="36"/>
-      <c r="AB106" s="36"/>
-      <c r="AC106" s="36"/>
-      <c r="AD106" s="36"/>
-      <c r="AE106" s="36"/>
-      <c r="AF106" s="36"/>
-      <c r="AG106" s="36"/>
-      <c r="AH106" s="36"/>
-      <c r="AI106" s="36"/>
+        <v>78</v>
+      </c>
+      <c r="B106" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D106" s="39"/>
+      <c r="E106" s="39"/>
+      <c r="F106" s="39"/>
+      <c r="G106" s="39"/>
+      <c r="H106" s="39"/>
+      <c r="I106" s="39"/>
+      <c r="J106" s="39"/>
+      <c r="K106" s="39"/>
+      <c r="L106" s="39"/>
+      <c r="M106" s="39"/>
+      <c r="N106" s="39"/>
+      <c r="O106" s="39"/>
+      <c r="P106" s="39"/>
+      <c r="Q106" s="39"/>
+      <c r="R106" s="39"/>
+      <c r="S106" s="39"/>
+      <c r="T106" s="39" t="s">
+        <v>309</v>
+      </c>
+      <c r="U106" s="39"/>
+      <c r="V106" s="39"/>
+      <c r="W106" s="39"/>
+      <c r="X106" s="39"/>
+      <c r="Y106" s="39"/>
+      <c r="Z106" s="39"/>
+      <c r="AA106" s="39"/>
+      <c r="AB106" s="39"/>
+      <c r="AC106" s="39"/>
+      <c r="AD106" s="39"/>
+      <c r="AE106" s="39"/>
+      <c r="AF106" s="39"/>
+      <c r="AG106" s="39"/>
+      <c r="AH106" s="39"/>
+      <c r="AI106" s="39"/>
     </row>
     <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B107" s="38"/>
-      <c r="C107" s="36"/>
+        <v>42</v>
+      </c>
+      <c r="B107" s="38" t="s">
+        <v>310</v>
+      </c>
+      <c r="C107" s="39" t="s">
+        <v>45</v>
+      </c>
       <c r="D107" s="36"/>
       <c r="E107" s="36"/>
       <c r="F107" s="36"/>
@@ -6873,13 +6980,13 @@
       <c r="AI107" s="36"/>
     </row>
     <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="41" t="s">
+      <c r="A108" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B108" s="41" t="s">
-        <v>319</v>
-      </c>
-      <c r="C108" s="36" t="s">
+      <c r="B108" s="38" t="s">
+        <v>311</v>
+      </c>
+      <c r="C108" s="39" t="s">
         <v>45</v>
       </c>
       <c r="D108" s="36"/>
@@ -6898,8 +7005,8 @@
       <c r="Q108" s="36"/>
       <c r="R108" s="36"/>
       <c r="S108" s="36"/>
-      <c r="T108" s="36" t="s">
-        <v>320</v>
+      <c r="T108" s="39" t="s">
+        <v>326</v>
       </c>
       <c r="U108" s="36"/>
       <c r="V108" s="36"/>
@@ -6915,16 +7022,18 @@
       <c r="AF108" s="36"/>
       <c r="AG108" s="36"/>
       <c r="AH108" s="36"/>
-      <c r="AI108" s="36" t="s">
-        <v>321</v>
-      </c>
+      <c r="AI108" s="36"/>
     </row>
     <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B109" s="38"/>
-      <c r="C109" s="36"/>
+        <v>78</v>
+      </c>
+      <c r="B109" s="38" t="s">
+        <v>312</v>
+      </c>
+      <c r="C109" s="39" t="s">
+        <v>45</v>
+      </c>
       <c r="D109" s="36"/>
       <c r="E109" s="36"/>
       <c r="F109" s="36"/>
@@ -6941,7 +7050,9 @@
       <c r="Q109" s="36"/>
       <c r="R109" s="36"/>
       <c r="S109" s="36"/>
-      <c r="T109" s="36"/>
+      <c r="T109" s="39" t="s">
+        <v>327</v>
+      </c>
       <c r="U109" s="36"/>
       <c r="V109" s="36"/>
       <c r="W109" s="36"/>
@@ -6959,13 +7070,13 @@
       <c r="AI109" s="36"/>
     </row>
     <row r="110" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="41" t="s">
+      <c r="A110" s="38" t="s">
         <v>78</v>
       </c>
-      <c r="B110" s="41" t="s">
-        <v>332</v>
-      </c>
-      <c r="C110" s="36" t="s">
+      <c r="B110" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="C110" s="39" t="s">
         <v>45</v>
       </c>
       <c r="D110" s="36"/>
@@ -6984,8 +7095,8 @@
       <c r="Q110" s="36"/>
       <c r="R110" s="36"/>
       <c r="S110" s="36"/>
-      <c r="T110" s="36" t="s">
-        <v>322</v>
+      <c r="T110" s="39" t="s">
+        <v>314</v>
       </c>
       <c r="U110" s="36"/>
       <c r="V110" s="36"/>
@@ -7001,94 +7112,117 @@
       <c r="AF110" s="36"/>
       <c r="AG110" s="36"/>
       <c r="AH110" s="36"/>
-      <c r="AI110" s="36" t="s">
-        <v>322</v>
-      </c>
+      <c r="AI110" s="36"/>
     </row>
     <row r="111" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="33" t="s">
+      <c r="A111" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="C111" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D111" s="36"/>
+      <c r="E111" s="36"/>
+      <c r="F111" s="36"/>
+      <c r="G111" s="36"/>
+      <c r="H111" s="36"/>
+      <c r="I111" s="39"/>
+      <c r="J111" s="39"/>
+      <c r="K111" s="39"/>
+      <c r="L111" s="39"/>
+      <c r="M111" s="39"/>
+      <c r="N111" s="39"/>
+      <c r="O111" s="39"/>
+      <c r="P111" s="39"/>
+      <c r="Q111" s="39"/>
+      <c r="R111" s="39"/>
+      <c r="S111" s="39"/>
+      <c r="T111" s="39" t="s">
+        <v>328</v>
+      </c>
+      <c r="U111" s="39"/>
+      <c r="V111" s="39"/>
+      <c r="W111" s="39"/>
+      <c r="X111" s="39"/>
+      <c r="Y111" s="39"/>
+      <c r="Z111" s="39"/>
+      <c r="AA111" s="39"/>
+      <c r="AB111" s="39"/>
+      <c r="AC111" s="39"/>
+      <c r="AD111" s="39"/>
+      <c r="AE111" s="39"/>
+      <c r="AF111" s="39"/>
+      <c r="AG111" s="39"/>
+      <c r="AH111" s="39"/>
+      <c r="AI111" s="39"/>
+    </row>
+    <row r="112" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="B111" s="33"/>
-      <c r="C111" s="34"/>
-      <c r="D111" s="35"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="35"/>
-      <c r="G111" s="35"/>
-      <c r="H111" s="35"/>
-      <c r="I111" s="36"/>
-      <c r="J111" s="36"/>
-      <c r="K111" s="36"/>
-      <c r="L111" s="36"/>
-      <c r="M111" s="34"/>
-      <c r="N111" s="34"/>
-      <c r="O111" s="34"/>
-      <c r="P111" s="34"/>
-      <c r="Q111" s="34"/>
-      <c r="R111" s="34"/>
-      <c r="S111" s="34"/>
-      <c r="T111" s="34"/>
-      <c r="U111" s="36"/>
-      <c r="V111" s="34"/>
-      <c r="W111" s="36"/>
-      <c r="X111" s="36"/>
-      <c r="Y111" s="36"/>
-      <c r="Z111" s="36"/>
-      <c r="AA111" s="36"/>
-      <c r="AB111" s="36"/>
-      <c r="AC111" s="36"/>
-      <c r="AD111" s="36"/>
-      <c r="AE111" s="36"/>
-      <c r="AF111" s="36"/>
-      <c r="AG111" s="36"/>
-      <c r="AH111" s="36"/>
-      <c r="AI111" s="36"/>
-    </row>
-    <row r="112" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="31"/>
-      <c r="B112" s="31"/>
-      <c r="C112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="AE112" s="31"/>
-      <c r="AF112" s="31"/>
-      <c r="AG112" s="31"/>
-      <c r="AH112" s="31"/>
-      <c r="AI112" s="31"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="36"/>
+      <c r="D112" s="36"/>
+      <c r="E112" s="36"/>
+      <c r="F112" s="36"/>
+      <c r="G112" s="36"/>
+      <c r="H112" s="36"/>
+      <c r="I112" s="36"/>
+      <c r="J112" s="36"/>
+      <c r="K112" s="36"/>
+      <c r="L112" s="36"/>
+      <c r="M112" s="36"/>
+      <c r="N112" s="36"/>
+      <c r="O112" s="36"/>
+      <c r="P112" s="36"/>
+      <c r="Q112" s="36"/>
+      <c r="R112" s="36"/>
+      <c r="S112" s="36"/>
+      <c r="T112" s="36"/>
+      <c r="U112" s="36"/>
+      <c r="V112" s="36"/>
+      <c r="W112" s="36"/>
+      <c r="X112" s="36"/>
+      <c r="Y112" s="36"/>
+      <c r="Z112" s="36"/>
+      <c r="AA112" s="36"/>
+      <c r="AB112" s="36"/>
+      <c r="AC112" s="36"/>
+      <c r="AD112" s="36"/>
+      <c r="AE112" s="36"/>
+      <c r="AF112" s="36"/>
+      <c r="AG112" s="36"/>
+      <c r="AH112" s="36"/>
+      <c r="AI112" s="36"/>
     </row>
     <row r="113" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="B113" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="C113" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="D113" s="35"/>
-      <c r="E113" s="35"/>
-      <c r="F113" s="35"/>
-      <c r="G113" s="35"/>
-      <c r="H113" s="35"/>
+      <c r="A113" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B113" s="38"/>
+      <c r="C113" s="36"/>
+      <c r="D113" s="36"/>
+      <c r="E113" s="36"/>
+      <c r="F113" s="36"/>
+      <c r="G113" s="36"/>
+      <c r="H113" s="36"/>
       <c r="I113" s="36"/>
-      <c r="J113" s="36" t="s">
-        <v>340</v>
-      </c>
-      <c r="K113" s="36" t="s">
-        <v>47</v>
-      </c>
+      <c r="J113" s="36"/>
+      <c r="K113" s="36"/>
       <c r="L113" s="36"/>
-      <c r="M113" s="34"/>
-      <c r="N113" s="34"/>
-      <c r="O113" s="34"/>
-      <c r="P113" s="34"/>
-      <c r="Q113" s="34"/>
-      <c r="R113" s="34"/>
-      <c r="S113" s="34"/>
-      <c r="T113" s="34"/>
+      <c r="M113" s="36"/>
+      <c r="N113" s="36"/>
+      <c r="O113" s="36"/>
+      <c r="P113" s="36"/>
+      <c r="Q113" s="36"/>
+      <c r="R113" s="36"/>
+      <c r="S113" s="36"/>
+      <c r="T113" s="36"/>
       <c r="U113" s="36"/>
-      <c r="V113" s="34"/>
+      <c r="V113" s="36"/>
       <c r="W113" s="36"/>
       <c r="X113" s="36"/>
       <c r="Y113" s="36"/>
@@ -7104,149 +7238,137 @@
       <c r="AI113" s="36"/>
     </row>
     <row r="114" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="B114" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="C114" s="34" t="s">
-        <v>341</v>
-      </c>
-      <c r="D114" s="35"/>
-      <c r="E114" s="35"/>
-      <c r="F114" s="35"/>
-      <c r="G114" s="35"/>
-      <c r="H114" s="35"/>
-      <c r="I114" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J114" s="34"/>
-      <c r="K114" s="34"/>
-      <c r="L114" s="34" t="s">
-        <v>288</v>
-      </c>
-      <c r="M114" s="34" t="s">
-        <v>289</v>
-      </c>
-      <c r="N114" s="34"/>
-      <c r="O114" s="34"/>
-      <c r="P114" s="34"/>
-      <c r="Q114" s="34"/>
-      <c r="R114" s="34"/>
-      <c r="S114" s="34"/>
-      <c r="T114" s="34"/>
-      <c r="U114" s="34"/>
-      <c r="V114" s="34"/>
-      <c r="W114" s="34"/>
-      <c r="X114" s="34"/>
-      <c r="Y114" s="34"/>
-      <c r="Z114" s="34"/>
-      <c r="AA114" s="34"/>
-      <c r="AB114" s="34"/>
-      <c r="AC114" s="34"/>
-      <c r="AD114" s="34"/>
-      <c r="AE114" s="34"/>
-      <c r="AF114" s="34"/>
-      <c r="AG114" s="34"/>
-      <c r="AH114" s="34"/>
-      <c r="AI114" s="34"/>
+      <c r="A114" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B114" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="C114" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D114" s="36"/>
+      <c r="E114" s="36"/>
+      <c r="F114" s="36"/>
+      <c r="G114" s="36"/>
+      <c r="H114" s="36"/>
+      <c r="I114" s="36"/>
+      <c r="J114" s="36"/>
+      <c r="K114" s="36"/>
+      <c r="L114" s="36"/>
+      <c r="M114" s="36"/>
+      <c r="N114" s="36"/>
+      <c r="O114" s="36"/>
+      <c r="P114" s="36"/>
+      <c r="Q114" s="36"/>
+      <c r="R114" s="36"/>
+      <c r="S114" s="36"/>
+      <c r="T114" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="U114" s="36"/>
+      <c r="V114" s="36"/>
+      <c r="W114" s="36"/>
+      <c r="X114" s="36"/>
+      <c r="Y114" s="36"/>
+      <c r="Z114" s="36"/>
+      <c r="AA114" s="36"/>
+      <c r="AB114" s="36"/>
+      <c r="AC114" s="36"/>
+      <c r="AD114" s="36"/>
+      <c r="AE114" s="36"/>
+      <c r="AF114" s="36"/>
+      <c r="AG114" s="36"/>
+      <c r="AH114" s="36"/>
+      <c r="AI114" s="36" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="115" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="33" t="s">
-        <v>338</v>
-      </c>
-      <c r="B115" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="C115" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="D115" s="35"/>
-      <c r="E115" s="35"/>
-      <c r="F115" s="35"/>
-      <c r="G115" s="35"/>
-      <c r="H115" s="35"/>
-      <c r="I115" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J115" s="34"/>
-      <c r="K115" s="34"/>
-      <c r="L115" s="34"/>
-      <c r="M115" s="34"/>
-      <c r="N115" s="34"/>
-      <c r="O115" s="34"/>
-      <c r="P115" s="34"/>
-      <c r="Q115" s="34"/>
-      <c r="R115" s="34"/>
-      <c r="S115" s="34"/>
-      <c r="T115" s="34"/>
-      <c r="U115" s="34"/>
-      <c r="V115" s="34"/>
-      <c r="W115" s="34"/>
-      <c r="X115" s="34"/>
-      <c r="Y115" s="34"/>
-      <c r="Z115" s="34"/>
-      <c r="AA115" s="34"/>
-      <c r="AB115" s="34"/>
-      <c r="AC115" s="34"/>
-      <c r="AD115" s="34"/>
-      <c r="AE115" s="34"/>
-      <c r="AF115" s="34"/>
-      <c r="AG115" s="34"/>
-      <c r="AH115" s="34"/>
-      <c r="AI115" s="34"/>
+      <c r="A115" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B115" s="38"/>
+      <c r="C115" s="36"/>
+      <c r="D115" s="36"/>
+      <c r="E115" s="36"/>
+      <c r="F115" s="36"/>
+      <c r="G115" s="36"/>
+      <c r="H115" s="36"/>
+      <c r="I115" s="36"/>
+      <c r="J115" s="36"/>
+      <c r="K115" s="36"/>
+      <c r="L115" s="36"/>
+      <c r="M115" s="36"/>
+      <c r="N115" s="36"/>
+      <c r="O115" s="36"/>
+      <c r="P115" s="36"/>
+      <c r="Q115" s="36"/>
+      <c r="R115" s="36"/>
+      <c r="S115" s="36"/>
+      <c r="T115" s="36"/>
+      <c r="U115" s="36"/>
+      <c r="V115" s="36"/>
+      <c r="W115" s="36"/>
+      <c r="X115" s="36"/>
+      <c r="Y115" s="36"/>
+      <c r="Z115" s="36"/>
+      <c r="AA115" s="36"/>
+      <c r="AB115" s="36"/>
+      <c r="AC115" s="36"/>
+      <c r="AD115" s="36"/>
+      <c r="AE115" s="36"/>
+      <c r="AF115" s="36"/>
+      <c r="AG115" s="36"/>
+      <c r="AH115" s="36"/>
+      <c r="AI115" s="36"/>
     </row>
     <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="B116" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="C116" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="D116" s="35"/>
-      <c r="E116" s="35"/>
-      <c r="F116" s="35"/>
-      <c r="G116" s="35"/>
-      <c r="H116" s="35"/>
-      <c r="I116" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J116" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="K116" s="34"/>
-      <c r="L116" s="34" t="s">
-        <v>336</v>
-      </c>
-      <c r="M116" s="34" t="s">
-        <v>337</v>
-      </c>
-      <c r="N116" s="34"/>
-      <c r="O116" s="34"/>
-      <c r="P116" s="34"/>
-      <c r="Q116" s="34"/>
-      <c r="R116" s="34"/>
-      <c r="S116" s="34"/>
-      <c r="T116" s="34"/>
-      <c r="U116" s="34"/>
-      <c r="V116" s="34"/>
-      <c r="W116" s="34"/>
-      <c r="X116" s="34"/>
-      <c r="Y116" s="34"/>
-      <c r="Z116" s="34"/>
-      <c r="AA116" s="34"/>
-      <c r="AB116" s="34"/>
-      <c r="AC116" s="34"/>
-      <c r="AD116" s="34"/>
-      <c r="AE116" s="34"/>
-      <c r="AF116" s="34"/>
-      <c r="AG116" s="34"/>
-      <c r="AH116" s="34"/>
-      <c r="AI116" s="34"/>
+      <c r="A116" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B116" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="C116" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D116" s="36"/>
+      <c r="E116" s="36"/>
+      <c r="F116" s="36"/>
+      <c r="G116" s="36"/>
+      <c r="H116" s="36"/>
+      <c r="I116" s="36"/>
+      <c r="J116" s="36"/>
+      <c r="K116" s="36"/>
+      <c r="L116" s="36"/>
+      <c r="M116" s="36"/>
+      <c r="N116" s="36"/>
+      <c r="O116" s="36"/>
+      <c r="P116" s="36"/>
+      <c r="Q116" s="36"/>
+      <c r="R116" s="36"/>
+      <c r="S116" s="36"/>
+      <c r="T116" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="U116" s="36"/>
+      <c r="V116" s="36"/>
+      <c r="W116" s="36"/>
+      <c r="X116" s="36"/>
+      <c r="Y116" s="36"/>
+      <c r="Z116" s="36"/>
+      <c r="AA116" s="36"/>
+      <c r="AB116" s="36"/>
+      <c r="AC116" s="36"/>
+      <c r="AD116" s="36"/>
+      <c r="AE116" s="36"/>
+      <c r="AF116" s="36"/>
+      <c r="AG116" s="36"/>
+      <c r="AH116" s="36"/>
+      <c r="AI116" s="36" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="117" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="33" t="s">
@@ -7304,10 +7426,10 @@
         <v>42</v>
       </c>
       <c r="B119" s="33" t="s">
-        <v>410</v>
+        <v>240</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>399</v>
+        <v>336</v>
       </c>
       <c r="D119" s="35"/>
       <c r="E119" s="35"/>
@@ -7316,10 +7438,10 @@
       <c r="H119" s="35"/>
       <c r="I119" s="36"/>
       <c r="J119" s="36" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K119" s="36" t="s">
-        <v>347</v>
+        <v>47</v>
       </c>
       <c r="L119" s="36"/>
       <c r="M119" s="34"/>
@@ -7340,9 +7462,7 @@
       <c r="AB119" s="36"/>
       <c r="AC119" s="36"/>
       <c r="AD119" s="36"/>
-      <c r="AE119" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE119" s="36"/>
       <c r="AF119" s="36"/>
       <c r="AG119" s="36"/>
       <c r="AH119" s="36"/>
@@ -7350,24 +7470,30 @@
     </row>
     <row r="120" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
-        <v>117</v>
+        <v>283</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>400</v>
+        <v>339</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>405</v>
+        <v>338</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="35"/>
       <c r="F120" s="35"/>
       <c r="G120" s="35"/>
       <c r="H120" s="35"/>
-      <c r="I120" s="36"/>
-      <c r="J120" s="36"/>
-      <c r="K120" s="36"/>
-      <c r="L120" s="36"/>
-      <c r="M120" s="34"/>
+      <c r="I120" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J120" s="34"/>
+      <c r="K120" s="34"/>
+      <c r="L120" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="M120" s="34" t="s">
+        <v>286</v>
+      </c>
       <c r="N120" s="34"/>
       <c r="O120" s="34"/>
       <c r="P120" s="34"/>
@@ -7375,41 +7501,43 @@
       <c r="R120" s="34"/>
       <c r="S120" s="34"/>
       <c r="T120" s="34"/>
-      <c r="U120" s="36"/>
+      <c r="U120" s="34"/>
       <c r="V120" s="34"/>
-      <c r="W120" s="36"/>
-      <c r="X120" s="36"/>
-      <c r="Y120" s="36"/>
-      <c r="Z120" s="36"/>
-      <c r="AA120" s="36"/>
-      <c r="AB120" s="36"/>
-      <c r="AC120" s="36"/>
-      <c r="AD120" s="36"/>
-      <c r="AE120" s="36"/>
-      <c r="AF120" s="36"/>
-      <c r="AG120" s="36"/>
-      <c r="AH120" s="36"/>
-      <c r="AI120" s="36"/>
+      <c r="W120" s="34"/>
+      <c r="X120" s="34"/>
+      <c r="Y120" s="34"/>
+      <c r="Z120" s="34"/>
+      <c r="AA120" s="34"/>
+      <c r="AB120" s="34"/>
+      <c r="AC120" s="34"/>
+      <c r="AD120" s="34"/>
+      <c r="AE120" s="34"/>
+      <c r="AF120" s="34"/>
+      <c r="AG120" s="34"/>
+      <c r="AH120" s="34"/>
+      <c r="AI120" s="34"/>
     </row>
     <row r="121" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
-        <v>117</v>
+        <v>335</v>
       </c>
       <c r="B121" s="33" t="s">
-        <v>401</v>
+        <v>340</v>
       </c>
       <c r="C121" s="34" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="D121" s="35"/>
       <c r="E121" s="35"/>
       <c r="F121" s="35"/>
       <c r="G121" s="35"/>
       <c r="H121" s="35"/>
-      <c r="I121" s="36"/>
-      <c r="J121" s="36"/>
-      <c r="K121" s="36"/>
-      <c r="L121" s="36"/>
+      <c r="I121" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J121" s="34"/>
+      <c r="K121" s="34"/>
+      <c r="L121" s="34"/>
       <c r="M121" s="34"/>
       <c r="N121" s="34"/>
       <c r="O121" s="34"/>
@@ -7418,42 +7546,50 @@
       <c r="R121" s="34"/>
       <c r="S121" s="34"/>
       <c r="T121" s="34"/>
-      <c r="U121" s="36"/>
+      <c r="U121" s="34"/>
       <c r="V121" s="34"/>
-      <c r="W121" s="36"/>
-      <c r="X121" s="36"/>
-      <c r="Y121" s="36"/>
-      <c r="Z121" s="36"/>
-      <c r="AA121" s="36"/>
-      <c r="AB121" s="36"/>
-      <c r="AC121" s="36"/>
-      <c r="AD121" s="36"/>
-      <c r="AE121" s="36"/>
-      <c r="AF121" s="36"/>
-      <c r="AG121" s="36"/>
-      <c r="AH121" s="36"/>
-      <c r="AI121" s="36"/>
+      <c r="W121" s="34"/>
+      <c r="X121" s="34"/>
+      <c r="Y121" s="34"/>
+      <c r="Z121" s="34"/>
+      <c r="AA121" s="34"/>
+      <c r="AB121" s="34"/>
+      <c r="AC121" s="34"/>
+      <c r="AD121" s="34"/>
+      <c r="AE121" s="34"/>
+      <c r="AF121" s="34"/>
+      <c r="AG121" s="34"/>
+      <c r="AH121" s="34"/>
+      <c r="AI121" s="34"/>
     </row>
     <row r="122" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="33" t="s">
-        <v>117</v>
+        <v>289</v>
       </c>
       <c r="B122" s="33" t="s">
-        <v>402</v>
+        <v>342</v>
       </c>
       <c r="C122" s="34" t="s">
-        <v>407</v>
+        <v>332</v>
       </c>
       <c r="D122" s="35"/>
       <c r="E122" s="35"/>
       <c r="F122" s="35"/>
       <c r="G122" s="35"/>
       <c r="H122" s="35"/>
-      <c r="I122" s="36"/>
-      <c r="J122" s="36"/>
-      <c r="K122" s="36"/>
-      <c r="L122" s="36"/>
-      <c r="M122" s="34"/>
+      <c r="I122" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J122" s="34" t="s">
+        <v>343</v>
+      </c>
+      <c r="K122" s="34"/>
+      <c r="L122" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="M122" s="34" t="s">
+        <v>334</v>
+      </c>
       <c r="N122" s="34"/>
       <c r="O122" s="34"/>
       <c r="P122" s="34"/>
@@ -7461,32 +7597,28 @@
       <c r="R122" s="34"/>
       <c r="S122" s="34"/>
       <c r="T122" s="34"/>
-      <c r="U122" s="36"/>
+      <c r="U122" s="34"/>
       <c r="V122" s="34"/>
-      <c r="W122" s="36"/>
-      <c r="X122" s="36"/>
-      <c r="Y122" s="36"/>
-      <c r="Z122" s="36"/>
-      <c r="AA122" s="36"/>
-      <c r="AB122" s="36"/>
-      <c r="AC122" s="36"/>
-      <c r="AD122" s="36"/>
-      <c r="AE122" s="36"/>
-      <c r="AF122" s="36"/>
-      <c r="AG122" s="36"/>
-      <c r="AH122" s="36"/>
-      <c r="AI122" s="36"/>
+      <c r="W122" s="34"/>
+      <c r="X122" s="34"/>
+      <c r="Y122" s="34"/>
+      <c r="Z122" s="34"/>
+      <c r="AA122" s="34"/>
+      <c r="AB122" s="34"/>
+      <c r="AC122" s="34"/>
+      <c r="AD122" s="34"/>
+      <c r="AE122" s="34"/>
+      <c r="AF122" s="34"/>
+      <c r="AG122" s="34"/>
+      <c r="AH122" s="34"/>
+      <c r="AI122" s="34"/>
     </row>
     <row r="123" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B123" s="33" t="s">
-        <v>403</v>
-      </c>
-      <c r="C123" s="34" t="s">
-        <v>408</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B123" s="33"/>
+      <c r="C123" s="34"/>
       <c r="D123" s="35"/>
       <c r="E123" s="35"/>
       <c r="F123" s="35"/>
@@ -7521,70 +7653,47 @@
       <c r="AI123" s="36"/>
     </row>
     <row r="124" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B124" s="33" t="s">
-        <v>404</v>
-      </c>
-      <c r="C124" s="34" t="s">
-        <v>409</v>
-      </c>
-      <c r="D124" s="35"/>
-      <c r="E124" s="35"/>
-      <c r="F124" s="35"/>
-      <c r="G124" s="35"/>
-      <c r="H124" s="35"/>
-      <c r="I124" s="36"/>
-      <c r="J124" s="36"/>
-      <c r="K124" s="36"/>
-      <c r="L124" s="36"/>
-      <c r="M124" s="34"/>
-      <c r="N124" s="34"/>
-      <c r="O124" s="34"/>
-      <c r="P124" s="34"/>
-      <c r="Q124" s="34"/>
-      <c r="R124" s="34"/>
-      <c r="S124" s="34"/>
-      <c r="T124" s="34"/>
-      <c r="U124" s="36"/>
-      <c r="V124" s="34"/>
-      <c r="W124" s="36"/>
-      <c r="X124" s="36"/>
-      <c r="Y124" s="36"/>
-      <c r="Z124" s="36"/>
-      <c r="AA124" s="36"/>
-      <c r="AB124" s="36"/>
-      <c r="AC124" s="36"/>
-      <c r="AD124" s="36"/>
-      <c r="AE124" s="36"/>
-      <c r="AF124" s="36"/>
-      <c r="AG124" s="36"/>
-      <c r="AH124" s="36"/>
-      <c r="AI124" s="36"/>
+      <c r="A124" s="31"/>
+      <c r="B124" s="31"/>
+      <c r="C124" s="31"/>
+      <c r="E124" s="31"/>
+      <c r="F124" s="31"/>
+      <c r="AE124" s="31"/>
+      <c r="AF124" s="31"/>
+      <c r="AG124" s="31"/>
+      <c r="AH124" s="31"/>
+      <c r="AI124" s="31"/>
     </row>
     <row r="125" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B125" s="33"/>
-      <c r="C125" s="34"/>
-      <c r="D125" s="36"/>
-      <c r="E125" s="36"/>
-      <c r="F125" s="36"/>
-      <c r="G125" s="36"/>
-      <c r="H125" s="36"/>
+        <v>42</v>
+      </c>
+      <c r="B125" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="C125" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="D125" s="35"/>
+      <c r="E125" s="35"/>
+      <c r="F125" s="35"/>
+      <c r="G125" s="35"/>
+      <c r="H125" s="35"/>
       <c r="I125" s="36"/>
-      <c r="J125" s="36"/>
-      <c r="K125" s="36"/>
+      <c r="J125" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="K125" s="36" t="s">
+        <v>344</v>
+      </c>
       <c r="L125" s="36"/>
       <c r="M125" s="34"/>
-      <c r="N125" s="36"/>
-      <c r="O125" s="36"/>
-      <c r="P125" s="36"/>
-      <c r="Q125" s="36"/>
-      <c r="R125" s="36"/>
-      <c r="S125" s="36"/>
+      <c r="N125" s="34"/>
+      <c r="O125" s="34"/>
+      <c r="P125" s="34"/>
+      <c r="Q125" s="34"/>
+      <c r="R125" s="34"/>
+      <c r="S125" s="34"/>
       <c r="T125" s="34"/>
       <c r="U125" s="36"/>
       <c r="V125" s="34"/>
@@ -7596,58 +7705,66 @@
       <c r="AB125" s="36"/>
       <c r="AC125" s="36"/>
       <c r="AD125" s="36"/>
-      <c r="AE125" s="36"/>
+      <c r="AE125" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AF125" s="36"/>
       <c r="AG125" s="36"/>
       <c r="AH125" s="36"/>
       <c r="AI125" s="36"/>
     </row>
     <row r="126" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="42"/>
-      <c r="B126" s="42"/>
-      <c r="C126" s="42"/>
-      <c r="D126" s="31"/>
-      <c r="E126" s="31"/>
-      <c r="F126" s="31"/>
-      <c r="G126" s="31"/>
-      <c r="H126" s="31"/>
-      <c r="I126" s="43"/>
-      <c r="J126" s="43"/>
-      <c r="K126" s="43"/>
-      <c r="L126" s="43"/>
-      <c r="M126" s="42"/>
-      <c r="N126" s="42"/>
-      <c r="O126" s="42"/>
-      <c r="P126" s="42"/>
-      <c r="Q126" s="42"/>
-      <c r="R126" s="42"/>
-      <c r="S126" s="42"/>
-      <c r="T126" s="42"/>
-      <c r="U126" s="43"/>
-      <c r="V126" s="42"/>
-      <c r="W126" s="43"/>
-      <c r="X126" s="43"/>
-      <c r="Y126" s="43"/>
-      <c r="Z126" s="43"/>
-      <c r="AA126" s="43"/>
-      <c r="AB126" s="43"/>
-      <c r="AC126" s="43"/>
-      <c r="AD126" s="43"/>
-      <c r="AE126" s="43"/>
-      <c r="AF126" s="43"/>
-      <c r="AG126" s="43"/>
-      <c r="AH126" s="43"/>
-      <c r="AI126" s="43"/>
+      <c r="A126" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B126" s="33" t="s">
+        <v>397</v>
+      </c>
+      <c r="C126" s="34" t="s">
+        <v>402</v>
+      </c>
+      <c r="D126" s="35"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="36"/>
+      <c r="J126" s="36"/>
+      <c r="K126" s="36"/>
+      <c r="L126" s="36"/>
+      <c r="M126" s="34"/>
+      <c r="N126" s="34"/>
+      <c r="O126" s="34"/>
+      <c r="P126" s="34"/>
+      <c r="Q126" s="34"/>
+      <c r="R126" s="34"/>
+      <c r="S126" s="34"/>
+      <c r="T126" s="34"/>
+      <c r="U126" s="36"/>
+      <c r="V126" s="34"/>
+      <c r="W126" s="36"/>
+      <c r="X126" s="36"/>
+      <c r="Y126" s="36"/>
+      <c r="Z126" s="36"/>
+      <c r="AA126" s="36"/>
+      <c r="AB126" s="36"/>
+      <c r="AC126" s="36"/>
+      <c r="AD126" s="36"/>
+      <c r="AE126" s="36"/>
+      <c r="AF126" s="36"/>
+      <c r="AG126" s="36"/>
+      <c r="AH126" s="36"/>
+      <c r="AI126" s="36"/>
     </row>
     <row r="127" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="33" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="C127" s="34" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D127" s="35"/>
       <c r="E127" s="35"/>
@@ -7655,12 +7772,8 @@
       <c r="G127" s="35"/>
       <c r="H127" s="35"/>
       <c r="I127" s="36"/>
-      <c r="J127" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="K127" s="36" t="s">
-        <v>47</v>
-      </c>
+      <c r="J127" s="36"/>
+      <c r="K127" s="36"/>
       <c r="L127" s="36"/>
       <c r="M127" s="34"/>
       <c r="N127" s="34"/>
@@ -7691,10 +7804,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>348</v>
+        <v>399</v>
       </c>
       <c r="C128" s="34" t="s">
-        <v>349</v>
+        <v>404</v>
       </c>
       <c r="D128" s="35"/>
       <c r="E128" s="35"/>
@@ -7723,9 +7836,7 @@
       <c r="AB128" s="36"/>
       <c r="AC128" s="36"/>
       <c r="AD128" s="36"/>
-      <c r="AE128" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE128" s="36"/>
       <c r="AF128" s="36"/>
       <c r="AG128" s="36"/>
       <c r="AH128" s="36"/>
@@ -7733,28 +7844,24 @@
     </row>
     <row r="129" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="33" t="s">
-        <v>350</v>
+        <v>117</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>351</v>
+        <v>400</v>
       </c>
       <c r="C129" s="34" t="s">
-        <v>352</v>
+        <v>405</v>
       </c>
       <c r="D129" s="35"/>
       <c r="E129" s="35"/>
       <c r="F129" s="35"/>
       <c r="G129" s="35"/>
       <c r="H129" s="35"/>
-      <c r="I129" s="36" t="s">
-        <v>57</v>
-      </c>
+      <c r="I129" s="36"/>
       <c r="J129" s="36"/>
       <c r="K129" s="36"/>
-      <c r="L129" s="36" t="s">
-        <v>353</v>
-      </c>
-      <c r="M129" s="35"/>
+      <c r="L129" s="36"/>
+      <c r="M129" s="34"/>
       <c r="N129" s="34"/>
       <c r="O129" s="34"/>
       <c r="P129" s="34"/>
@@ -7762,9 +7869,7 @@
       <c r="R129" s="34"/>
       <c r="S129" s="34"/>
       <c r="T129" s="34"/>
-      <c r="U129" s="34" t="s">
-        <v>354</v>
-      </c>
+      <c r="U129" s="36"/>
       <c r="V129" s="34"/>
       <c r="W129" s="36"/>
       <c r="X129" s="36"/>
@@ -7782,39 +7887,33 @@
     </row>
     <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="33" t="s">
-        <v>334</v>
+        <v>117</v>
       </c>
       <c r="B130" s="33" t="s">
-        <v>355</v>
+        <v>401</v>
       </c>
       <c r="C130" s="34" t="s">
-        <v>356</v>
-      </c>
-      <c r="D130" s="36"/>
-      <c r="E130" s="36"/>
-      <c r="F130" s="36"/>
-      <c r="G130" s="36"/>
-      <c r="H130" s="36"/>
-      <c r="I130" s="36" t="s">
-        <v>60</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="D130" s="35"/>
+      <c r="E130" s="35"/>
+      <c r="F130" s="35"/>
+      <c r="G130" s="35"/>
+      <c r="H130" s="35"/>
+      <c r="I130" s="36"/>
       <c r="J130" s="36"/>
-      <c r="K130" s="34"/>
-      <c r="L130" s="36" t="s">
-        <v>357</v>
-      </c>
-      <c r="M130" s="34" t="s">
-        <v>358</v>
-      </c>
-      <c r="N130" s="36"/>
-      <c r="O130" s="36"/>
-      <c r="P130" s="36"/>
-      <c r="Q130" s="36"/>
-      <c r="R130" s="36"/>
-      <c r="S130" s="36"/>
-      <c r="T130" s="36"/>
+      <c r="K130" s="36"/>
+      <c r="L130" s="36"/>
+      <c r="M130" s="34"/>
+      <c r="N130" s="34"/>
+      <c r="O130" s="34"/>
+      <c r="P130" s="34"/>
+      <c r="Q130" s="34"/>
+      <c r="R130" s="34"/>
+      <c r="S130" s="34"/>
+      <c r="T130" s="34"/>
       <c r="U130" s="36"/>
-      <c r="V130" s="36"/>
+      <c r="V130" s="34"/>
       <c r="W130" s="36"/>
       <c r="X130" s="36"/>
       <c r="Y130" s="36"/>
@@ -7831,35 +7930,29 @@
     </row>
     <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B131" s="33" t="s">
-        <v>359</v>
-      </c>
-      <c r="C131" s="34" t="s">
-        <v>45</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B131" s="33"/>
+      <c r="C131" s="34"/>
       <c r="D131" s="36"/>
       <c r="E131" s="36"/>
       <c r="F131" s="36"/>
       <c r="G131" s="36"/>
       <c r="H131" s="36"/>
       <c r="I131" s="36"/>
-      <c r="J131" s="34"/>
-      <c r="K131" s="34"/>
+      <c r="J131" s="36"/>
+      <c r="K131" s="36"/>
       <c r="L131" s="36"/>
-      <c r="M131" s="36"/>
+      <c r="M131" s="34"/>
       <c r="N131" s="36"/>
       <c r="O131" s="36"/>
       <c r="P131" s="36"/>
       <c r="Q131" s="36"/>
       <c r="R131" s="36"/>
       <c r="S131" s="36"/>
-      <c r="T131" s="36" t="s">
-        <v>460</v>
-      </c>
+      <c r="T131" s="34"/>
       <c r="U131" s="36"/>
-      <c r="V131" s="36"/>
+      <c r="V131" s="34"/>
       <c r="W131" s="36"/>
       <c r="X131" s="36"/>
       <c r="Y131" s="36"/>
@@ -7868,367 +7961,371 @@
       <c r="AB131" s="36"/>
       <c r="AC131" s="36"/>
       <c r="AD131" s="36"/>
-      <c r="AE131" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE131" s="36"/>
       <c r="AF131" s="36"/>
       <c r="AG131" s="36"/>
       <c r="AH131" s="36"/>
       <c r="AI131" s="36"/>
     </row>
     <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="33" t="s">
+      <c r="A132" s="42"/>
+      <c r="B132" s="42"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="31"/>
+      <c r="G132" s="31"/>
+      <c r="H132" s="31"/>
+      <c r="I132" s="43"/>
+      <c r="J132" s="43"/>
+      <c r="K132" s="43"/>
+      <c r="L132" s="43"/>
+      <c r="M132" s="42"/>
+      <c r="N132" s="42"/>
+      <c r="O132" s="42"/>
+      <c r="P132" s="42"/>
+      <c r="Q132" s="42"/>
+      <c r="R132" s="42"/>
+      <c r="S132" s="42"/>
+      <c r="T132" s="42"/>
+      <c r="U132" s="43"/>
+      <c r="V132" s="42"/>
+      <c r="W132" s="43"/>
+      <c r="X132" s="43"/>
+      <c r="Y132" s="43"/>
+      <c r="Z132" s="43"/>
+      <c r="AA132" s="43"/>
+      <c r="AB132" s="43"/>
+      <c r="AC132" s="43"/>
+      <c r="AD132" s="43"/>
+      <c r="AE132" s="43"/>
+      <c r="AF132" s="43"/>
+      <c r="AG132" s="43"/>
+      <c r="AH132" s="43"/>
+      <c r="AI132" s="43"/>
+    </row>
+    <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B133" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="C133" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="D133" s="35"/>
+      <c r="E133" s="35"/>
+      <c r="F133" s="35"/>
+      <c r="G133" s="35"/>
+      <c r="H133" s="35"/>
+      <c r="I133" s="36"/>
+      <c r="J133" s="34" t="s">
+        <v>585</v>
+      </c>
+      <c r="K133" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L133" s="36"/>
+      <c r="M133" s="34"/>
+      <c r="N133" s="34"/>
+      <c r="O133" s="34"/>
+      <c r="P133" s="34"/>
+      <c r="Q133" s="34"/>
+      <c r="R133" s="34"/>
+      <c r="S133" s="34"/>
+      <c r="T133" s="34"/>
+      <c r="U133" s="36"/>
+      <c r="V133" s="34"/>
+      <c r="W133" s="36"/>
+      <c r="X133" s="36"/>
+      <c r="Y133" s="36"/>
+      <c r="Z133" s="36"/>
+      <c r="AA133" s="36"/>
+      <c r="AB133" s="36"/>
+      <c r="AC133" s="36"/>
+      <c r="AD133" s="36"/>
+      <c r="AE133" s="36"/>
+      <c r="AF133" s="36"/>
+      <c r="AG133" s="36"/>
+      <c r="AH133" s="36"/>
+      <c r="AI133" s="36"/>
+    </row>
+    <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="B134" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="C134" s="34" t="s">
+        <v>346</v>
+      </c>
+      <c r="D134" s="35"/>
+      <c r="E134" s="35"/>
+      <c r="F134" s="35"/>
+      <c r="G134" s="35"/>
+      <c r="H134" s="35"/>
+      <c r="I134" s="36"/>
+      <c r="J134" s="36"/>
+      <c r="K134" s="36"/>
+      <c r="L134" s="36"/>
+      <c r="M134" s="34"/>
+      <c r="N134" s="34"/>
+      <c r="O134" s="34"/>
+      <c r="P134" s="34"/>
+      <c r="Q134" s="34"/>
+      <c r="R134" s="34"/>
+      <c r="S134" s="34"/>
+      <c r="T134" s="34"/>
+      <c r="U134" s="36"/>
+      <c r="V134" s="34"/>
+      <c r="W134" s="36"/>
+      <c r="X134" s="36"/>
+      <c r="Y134" s="36"/>
+      <c r="Z134" s="36"/>
+      <c r="AA134" s="36"/>
+      <c r="AB134" s="36"/>
+      <c r="AC134" s="36"/>
+      <c r="AD134" s="36"/>
+      <c r="AE134" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF134" s="36"/>
+      <c r="AG134" s="36"/>
+      <c r="AH134" s="36"/>
+      <c r="AI134" s="36"/>
+    </row>
+    <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="B135" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="C135" s="34" t="s">
+        <v>349</v>
+      </c>
+      <c r="D135" s="35"/>
+      <c r="E135" s="35"/>
+      <c r="F135" s="35"/>
+      <c r="G135" s="35"/>
+      <c r="H135" s="35"/>
+      <c r="I135" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J135" s="36"/>
+      <c r="K135" s="36"/>
+      <c r="L135" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="M135" s="35"/>
+      <c r="N135" s="34"/>
+      <c r="O135" s="34"/>
+      <c r="P135" s="34"/>
+      <c r="Q135" s="34"/>
+      <c r="R135" s="34"/>
+      <c r="S135" s="34"/>
+      <c r="T135" s="34"/>
+      <c r="U135" s="34" t="s">
+        <v>351</v>
+      </c>
+      <c r="V135" s="34"/>
+      <c r="W135" s="36"/>
+      <c r="X135" s="36"/>
+      <c r="Y135" s="36"/>
+      <c r="Z135" s="36"/>
+      <c r="AA135" s="36"/>
+      <c r="AB135" s="36"/>
+      <c r="AC135" s="36"/>
+      <c r="AD135" s="36"/>
+      <c r="AE135" s="36"/>
+      <c r="AF135" s="36"/>
+      <c r="AG135" s="36"/>
+      <c r="AH135" s="36"/>
+      <c r="AI135" s="36"/>
+    </row>
+    <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="B136" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="C136" s="34" t="s">
+        <v>353</v>
+      </c>
+      <c r="D136" s="36"/>
+      <c r="E136" s="36"/>
+      <c r="F136" s="36"/>
+      <c r="G136" s="36"/>
+      <c r="H136" s="36"/>
+      <c r="I136" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J136" s="36"/>
+      <c r="K136" s="34"/>
+      <c r="L136" s="36" t="s">
+        <v>354</v>
+      </c>
+      <c r="M136" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="N136" s="36"/>
+      <c r="O136" s="36"/>
+      <c r="P136" s="36"/>
+      <c r="Q136" s="36"/>
+      <c r="R136" s="36"/>
+      <c r="S136" s="36"/>
+      <c r="T136" s="36"/>
+      <c r="U136" s="36"/>
+      <c r="V136" s="36"/>
+      <c r="W136" s="36"/>
+      <c r="X136" s="36"/>
+      <c r="Y136" s="36"/>
+      <c r="Z136" s="36"/>
+      <c r="AA136" s="36"/>
+      <c r="AB136" s="36"/>
+      <c r="AC136" s="36"/>
+      <c r="AD136" s="36"/>
+      <c r="AE136" s="36"/>
+      <c r="AF136" s="36"/>
+      <c r="AG136" s="36"/>
+      <c r="AH136" s="36"/>
+      <c r="AI136" s="36"/>
+    </row>
+    <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="B137" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="C137" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D137" s="36"/>
+      <c r="E137" s="36"/>
+      <c r="F137" s="36"/>
+      <c r="G137" s="36"/>
+      <c r="H137" s="36"/>
+      <c r="I137" s="36"/>
+      <c r="J137" s="34"/>
+      <c r="K137" s="34"/>
+      <c r="L137" s="36"/>
+      <c r="M137" s="36"/>
+      <c r="N137" s="36"/>
+      <c r="O137" s="36"/>
+      <c r="P137" s="36"/>
+      <c r="Q137" s="36"/>
+      <c r="R137" s="36"/>
+      <c r="S137" s="36"/>
+      <c r="T137" s="36" t="s">
+        <v>456</v>
+      </c>
+      <c r="U137" s="36"/>
+      <c r="V137" s="36"/>
+      <c r="W137" s="36"/>
+      <c r="X137" s="36"/>
+      <c r="Y137" s="36"/>
+      <c r="Z137" s="36"/>
+      <c r="AA137" s="36"/>
+      <c r="AB137" s="36"/>
+      <c r="AC137" s="36"/>
+      <c r="AD137" s="36"/>
+      <c r="AE137" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF137" s="36"/>
+      <c r="AG137" s="36"/>
+      <c r="AH137" s="36"/>
+      <c r="AI137" s="36"/>
+    </row>
+    <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B132" s="33"/>
-      <c r="C132" s="34"/>
-      <c r="D132" s="35"/>
-      <c r="E132" s="35"/>
-      <c r="F132" s="35"/>
-      <c r="G132" s="35"/>
-      <c r="H132" s="35"/>
-      <c r="I132" s="36"/>
-      <c r="J132" s="36"/>
-      <c r="K132" s="36"/>
-      <c r="L132" s="36"/>
-      <c r="M132" s="34"/>
-      <c r="N132" s="34"/>
-      <c r="O132" s="34"/>
-      <c r="P132" s="34"/>
-      <c r="Q132" s="34"/>
-      <c r="R132" s="34"/>
-      <c r="S132" s="34"/>
-      <c r="T132" s="34"/>
-      <c r="U132" s="36"/>
-      <c r="V132" s="34"/>
-      <c r="W132" s="36"/>
-      <c r="X132" s="36"/>
-      <c r="Y132" s="36"/>
-      <c r="Z132" s="36"/>
-      <c r="AA132" s="36"/>
-      <c r="AB132" s="36"/>
-      <c r="AC132" s="36"/>
-      <c r="AD132" s="36"/>
-      <c r="AE132" s="36"/>
-      <c r="AF132" s="36"/>
-      <c r="AG132" s="36"/>
-      <c r="AH132" s="36"/>
-      <c r="AI132" s="36"/>
-    </row>
-    <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="42"/>
-      <c r="B133" s="42"/>
-      <c r="C133" s="42"/>
-      <c r="D133" s="31"/>
-      <c r="E133" s="31"/>
-      <c r="F133" s="31"/>
-      <c r="G133" s="31"/>
-      <c r="H133" s="31"/>
-      <c r="I133" s="43"/>
-      <c r="J133" s="43"/>
-      <c r="K133" s="43"/>
-      <c r="L133" s="43"/>
-      <c r="M133" s="42"/>
-      <c r="N133" s="42"/>
-      <c r="O133" s="42"/>
-      <c r="P133" s="42"/>
-      <c r="Q133" s="42"/>
-      <c r="R133" s="42"/>
-      <c r="S133" s="42"/>
-      <c r="T133" s="42"/>
-      <c r="U133" s="43"/>
-      <c r="V133" s="42"/>
-      <c r="W133" s="43"/>
-      <c r="X133" s="43"/>
-      <c r="Y133" s="43"/>
-      <c r="Z133" s="43"/>
-      <c r="AA133" s="43"/>
-      <c r="AB133" s="43"/>
-      <c r="AC133" s="43"/>
-      <c r="AD133" s="43"/>
-      <c r="AE133" s="43"/>
-      <c r="AF133" s="43"/>
-      <c r="AG133" s="43"/>
-      <c r="AH133" s="43"/>
-      <c r="AI133" s="43"/>
-    </row>
-    <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B134" s="44" t="s">
-        <v>360</v>
-      </c>
-      <c r="C134" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D134" s="46"/>
-      <c r="E134" s="46"/>
-      <c r="F134" s="46"/>
-      <c r="G134" s="46"/>
-      <c r="H134" s="46"/>
-      <c r="I134" s="47"/>
-      <c r="J134" s="47"/>
-      <c r="K134" s="47" t="s">
-        <v>347</v>
-      </c>
-      <c r="L134" s="47"/>
-      <c r="M134" s="45"/>
-      <c r="N134" s="45"/>
-      <c r="O134" s="45"/>
-      <c r="P134" s="45"/>
-      <c r="Q134" s="45"/>
-      <c r="R134" s="45"/>
-      <c r="S134" s="45"/>
-      <c r="T134" s="45"/>
-      <c r="U134" s="47"/>
-      <c r="V134" s="45"/>
-      <c r="W134" s="47"/>
-      <c r="X134" s="47"/>
-      <c r="Y134" s="47"/>
-      <c r="Z134" s="47"/>
-      <c r="AA134" s="47"/>
-      <c r="AB134" s="47"/>
-      <c r="AC134" s="47"/>
-      <c r="AD134" s="47"/>
-      <c r="AE134" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF134" s="47"/>
-      <c r="AG134" s="47"/>
-      <c r="AH134" s="47"/>
-      <c r="AI134" s="47"/>
-    </row>
-    <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="B135" s="48" t="s">
-        <v>361</v>
-      </c>
-      <c r="C135" s="45" t="s">
-        <v>362</v>
-      </c>
-      <c r="D135" s="47"/>
-      <c r="E135" s="47"/>
-      <c r="F135" s="47"/>
-      <c r="G135" s="47"/>
-      <c r="H135" s="47"/>
-      <c r="I135" s="47"/>
-      <c r="J135" s="47"/>
-      <c r="K135" s="47"/>
-      <c r="L135" s="47"/>
-      <c r="M135" s="47"/>
-      <c r="N135" s="47"/>
-      <c r="O135" s="47"/>
-      <c r="P135" s="47"/>
-      <c r="Q135" s="47"/>
-      <c r="R135" s="47"/>
-      <c r="S135" s="47"/>
-      <c r="T135" s="47"/>
-      <c r="U135" s="47"/>
-      <c r="V135" s="47"/>
-      <c r="W135" s="47"/>
-      <c r="X135" s="47"/>
-      <c r="Y135" s="47"/>
-      <c r="Z135" s="47"/>
-      <c r="AA135" s="47"/>
-      <c r="AB135" s="47"/>
-      <c r="AC135" s="47"/>
-      <c r="AD135" s="47"/>
-      <c r="AE135" s="47"/>
-      <c r="AF135" s="47"/>
-      <c r="AG135" s="47"/>
-      <c r="AH135" s="47"/>
-      <c r="AI135" s="47"/>
-    </row>
-    <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B136" s="44" t="s">
-        <v>363</v>
-      </c>
-      <c r="C136" s="45" t="s">
-        <v>364</v>
-      </c>
-      <c r="D136" s="47"/>
-      <c r="E136" s="47"/>
-      <c r="F136" s="47"/>
-      <c r="G136" s="47"/>
-      <c r="H136" s="47"/>
-      <c r="I136" s="47"/>
-      <c r="J136" s="47"/>
-      <c r="K136" s="45" t="s">
-        <v>365</v>
-      </c>
-      <c r="L136" s="47"/>
-      <c r="M136" s="47"/>
-      <c r="N136" s="47"/>
-      <c r="O136" s="47"/>
-      <c r="P136" s="47"/>
-      <c r="Q136" s="47"/>
-      <c r="R136" s="47"/>
-      <c r="S136" s="47"/>
-      <c r="T136" s="47"/>
-      <c r="U136" s="47"/>
-      <c r="V136" s="47"/>
-      <c r="W136" s="47"/>
-      <c r="X136" s="47"/>
-      <c r="Y136" s="47"/>
-      <c r="Z136" s="47"/>
-      <c r="AA136" s="47"/>
-      <c r="AB136" s="47"/>
-      <c r="AC136" s="47"/>
-      <c r="AD136" s="47"/>
-      <c r="AE136" s="47"/>
-      <c r="AF136" s="47"/>
-      <c r="AG136" s="47"/>
-      <c r="AH136" s="47"/>
-      <c r="AI136" s="47"/>
-    </row>
-    <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B137" s="44" t="s">
-        <v>366</v>
-      </c>
-      <c r="C137" s="45" t="s">
-        <v>464</v>
-      </c>
-      <c r="D137" s="47"/>
-      <c r="E137" s="47"/>
-      <c r="F137" s="47"/>
-      <c r="G137" s="47"/>
-      <c r="H137" s="47"/>
-      <c r="I137" s="47"/>
-      <c r="J137" s="47"/>
-      <c r="K137" s="45"/>
-      <c r="L137" s="47"/>
-      <c r="M137" s="47"/>
-      <c r="N137" s="47"/>
-      <c r="O137" s="47"/>
-      <c r="P137" s="47"/>
-      <c r="Q137" s="47"/>
-      <c r="R137" s="47"/>
-      <c r="S137" s="47"/>
-      <c r="T137" s="47"/>
-      <c r="U137" s="47"/>
-      <c r="V137" s="47"/>
-      <c r="W137" s="47"/>
-      <c r="X137" s="47"/>
-      <c r="Y137" s="47"/>
-      <c r="Z137" s="47"/>
-      <c r="AA137" s="47"/>
-      <c r="AB137" s="47"/>
-      <c r="AC137" s="47"/>
-      <c r="AD137" s="47"/>
-      <c r="AE137" s="47"/>
-      <c r="AF137" s="47"/>
-      <c r="AG137" s="47"/>
-      <c r="AH137" s="47"/>
-      <c r="AI137" s="47"/>
-    </row>
-    <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B138" s="44" t="s">
-        <v>417</v>
-      </c>
-      <c r="C138" s="45" t="s">
-        <v>413</v>
-      </c>
-      <c r="D138" s="47"/>
-      <c r="E138" s="47"/>
-      <c r="F138" s="47"/>
-      <c r="G138" s="47"/>
-      <c r="H138" s="47"/>
-      <c r="I138" s="47"/>
-      <c r="J138" s="47"/>
-      <c r="K138" s="45" t="s">
-        <v>365</v>
-      </c>
-      <c r="L138" s="47"/>
-      <c r="M138" s="47"/>
-      <c r="N138" s="47"/>
-      <c r="O138" s="47"/>
-      <c r="P138" s="47"/>
-      <c r="Q138" s="47"/>
-      <c r="R138" s="47"/>
-      <c r="S138" s="47"/>
-      <c r="T138" s="47"/>
-      <c r="U138" s="47"/>
-      <c r="V138" s="47"/>
-      <c r="W138" s="47"/>
-      <c r="X138" s="47"/>
-      <c r="Y138" s="47"/>
-      <c r="Z138" s="47"/>
-      <c r="AA138" s="47"/>
-      <c r="AB138" s="47"/>
-      <c r="AC138" s="47"/>
-      <c r="AD138" s="47"/>
-      <c r="AE138" s="47"/>
-      <c r="AF138" s="47"/>
-      <c r="AG138" s="47"/>
-      <c r="AH138" s="47"/>
-      <c r="AI138" s="47"/>
+      <c r="B138" s="33"/>
+      <c r="C138" s="34"/>
+      <c r="D138" s="35"/>
+      <c r="E138" s="35"/>
+      <c r="F138" s="35"/>
+      <c r="G138" s="35"/>
+      <c r="H138" s="35"/>
+      <c r="I138" s="36"/>
+      <c r="J138" s="36"/>
+      <c r="K138" s="36"/>
+      <c r="L138" s="36"/>
+      <c r="M138" s="34"/>
+      <c r="N138" s="34"/>
+      <c r="O138" s="34"/>
+      <c r="P138" s="34"/>
+      <c r="Q138" s="34"/>
+      <c r="R138" s="34"/>
+      <c r="S138" s="34"/>
+      <c r="T138" s="34"/>
+      <c r="U138" s="36"/>
+      <c r="V138" s="34"/>
+      <c r="W138" s="36"/>
+      <c r="X138" s="36"/>
+      <c r="Y138" s="36"/>
+      <c r="Z138" s="36"/>
+      <c r="AA138" s="36"/>
+      <c r="AB138" s="36"/>
+      <c r="AC138" s="36"/>
+      <c r="AD138" s="36"/>
+      <c r="AE138" s="36"/>
+      <c r="AF138" s="36"/>
+      <c r="AG138" s="36"/>
+      <c r="AH138" s="36"/>
+      <c r="AI138" s="36"/>
     </row>
     <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B139" s="44" t="s">
-        <v>367</v>
-      </c>
-      <c r="C139" s="47" t="s">
-        <v>414</v>
-      </c>
-      <c r="D139" s="47"/>
-      <c r="E139" s="47"/>
-      <c r="F139" s="47"/>
-      <c r="G139" s="47"/>
-      <c r="H139" s="47"/>
-      <c r="I139" s="47"/>
-      <c r="J139" s="46"/>
-      <c r="K139" s="45" t="s">
-        <v>368</v>
-      </c>
-      <c r="L139" s="47"/>
-      <c r="M139" s="47"/>
-      <c r="N139" s="47"/>
-      <c r="O139" s="47"/>
-      <c r="P139" s="47"/>
-      <c r="Q139" s="47"/>
-      <c r="R139" s="47"/>
-      <c r="S139" s="47"/>
-      <c r="T139" s="47"/>
-      <c r="U139" s="47"/>
-      <c r="V139" s="47"/>
-      <c r="W139" s="47"/>
-      <c r="X139" s="47"/>
-      <c r="Y139" s="47"/>
-      <c r="Z139" s="47"/>
-      <c r="AA139" s="47"/>
-      <c r="AB139" s="47"/>
-      <c r="AC139" s="47"/>
-      <c r="AD139" s="47"/>
-      <c r="AE139" s="47"/>
-      <c r="AF139" s="47"/>
-      <c r="AG139" s="47"/>
-      <c r="AH139" s="47"/>
-      <c r="AI139" s="47"/>
+      <c r="A139" s="42"/>
+      <c r="B139" s="42"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="31"/>
+      <c r="E139" s="31"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="31"/>
+      <c r="I139" s="43"/>
+      <c r="J139" s="43"/>
+      <c r="K139" s="43"/>
+      <c r="L139" s="43"/>
+      <c r="M139" s="42"/>
+      <c r="N139" s="42"/>
+      <c r="O139" s="42"/>
+      <c r="P139" s="42"/>
+      <c r="Q139" s="42"/>
+      <c r="R139" s="42"/>
+      <c r="S139" s="42"/>
+      <c r="T139" s="42"/>
+      <c r="U139" s="43"/>
+      <c r="V139" s="42"/>
+      <c r="W139" s="43"/>
+      <c r="X139" s="43"/>
+      <c r="Y139" s="43"/>
+      <c r="Z139" s="43"/>
+      <c r="AA139" s="43"/>
+      <c r="AB139" s="43"/>
+      <c r="AC139" s="43"/>
+      <c r="AD139" s="43"/>
+      <c r="AE139" s="43"/>
+      <c r="AF139" s="43"/>
+      <c r="AG139" s="43"/>
+      <c r="AH139" s="43"/>
+      <c r="AI139" s="43"/>
     </row>
     <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="44" t="s">
-        <v>117</v>
+        <v>42</v>
       </c>
       <c r="B140" s="44" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="C140" s="45" t="s">
-        <v>248</v>
+        <v>45</v>
       </c>
       <c r="D140" s="46"/>
       <c r="E140" s="46"/>
@@ -8236,11 +8333,9 @@
       <c r="G140" s="46"/>
       <c r="H140" s="46"/>
       <c r="I140" s="47"/>
-      <c r="J140" s="45" t="s">
-        <v>418</v>
-      </c>
+      <c r="J140" s="47"/>
       <c r="K140" s="47" t="s">
-        <v>370</v>
+        <v>344</v>
       </c>
       <c r="L140" s="47"/>
       <c r="M140" s="45"/>
@@ -8261,45 +8356,43 @@
       <c r="AB140" s="47"/>
       <c r="AC140" s="47"/>
       <c r="AD140" s="47"/>
-      <c r="AE140" s="47"/>
+      <c r="AE140" s="47" t="s">
+        <v>50</v>
+      </c>
       <c r="AF140" s="47"/>
       <c r="AG140" s="47"/>
       <c r="AH140" s="47"/>
       <c r="AI140" s="47"/>
     </row>
     <row r="141" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="44" t="s">
+      <c r="A141" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="B141" s="44" t="s">
-        <v>371</v>
+      <c r="B141" s="48" t="s">
+        <v>358</v>
       </c>
       <c r="C141" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="D141" s="46"/>
-      <c r="E141" s="46"/>
-      <c r="F141" s="46"/>
-      <c r="G141" s="46"/>
-      <c r="H141" s="46"/>
+        <v>359</v>
+      </c>
+      <c r="D141" s="47"/>
+      <c r="E141" s="47"/>
+      <c r="F141" s="47"/>
+      <c r="G141" s="47"/>
+      <c r="H141" s="47"/>
       <c r="I141" s="47"/>
-      <c r="J141" s="45" t="s">
-        <v>419</v>
-      </c>
-      <c r="K141" s="47" t="s">
-        <v>370</v>
-      </c>
+      <c r="J141" s="47"/>
+      <c r="K141" s="47"/>
       <c r="L141" s="47"/>
-      <c r="M141" s="45"/>
-      <c r="N141" s="45"/>
-      <c r="O141" s="45"/>
-      <c r="P141" s="45"/>
-      <c r="Q141" s="45"/>
-      <c r="R141" s="45"/>
-      <c r="S141" s="45"/>
-      <c r="T141" s="45"/>
+      <c r="M141" s="47"/>
+      <c r="N141" s="47"/>
+      <c r="O141" s="47"/>
+      <c r="P141" s="47"/>
+      <c r="Q141" s="47"/>
+      <c r="R141" s="47"/>
+      <c r="S141" s="47"/>
+      <c r="T141" s="47"/>
       <c r="U141" s="47"/>
-      <c r="V141" s="45"/>
+      <c r="V141" s="47"/>
       <c r="W141" s="47"/>
       <c r="X141" s="47"/>
       <c r="Y141" s="47"/>
@@ -8319,34 +8412,32 @@
         <v>117</v>
       </c>
       <c r="B142" s="44" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="C142" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="D142" s="46"/>
-      <c r="E142" s="46"/>
-      <c r="F142" s="46"/>
-      <c r="G142" s="46"/>
-      <c r="H142" s="46"/>
+        <v>361</v>
+      </c>
+      <c r="D142" s="47"/>
+      <c r="E142" s="47"/>
+      <c r="F142" s="47"/>
+      <c r="G142" s="47"/>
+      <c r="H142" s="47"/>
       <c r="I142" s="47"/>
-      <c r="J142" s="45" t="s">
-        <v>420</v>
-      </c>
-      <c r="K142" s="47" t="s">
-        <v>370</v>
+      <c r="J142" s="47"/>
+      <c r="K142" s="45" t="s">
+        <v>362</v>
       </c>
       <c r="L142" s="47"/>
-      <c r="M142" s="45"/>
-      <c r="N142" s="45"/>
-      <c r="O142" s="45"/>
-      <c r="P142" s="45"/>
-      <c r="Q142" s="45"/>
-      <c r="R142" s="45"/>
-      <c r="S142" s="45"/>
-      <c r="T142" s="45"/>
+      <c r="M142" s="47"/>
+      <c r="N142" s="47"/>
+      <c r="O142" s="47"/>
+      <c r="P142" s="47"/>
+      <c r="Q142" s="47"/>
+      <c r="R142" s="47"/>
+      <c r="S142" s="47"/>
+      <c r="T142" s="47"/>
       <c r="U142" s="47"/>
-      <c r="V142" s="45"/>
+      <c r="V142" s="47"/>
       <c r="W142" s="47"/>
       <c r="X142" s="47"/>
       <c r="Y142" s="47"/>
@@ -8366,10 +8457,10 @@
         <v>117</v>
       </c>
       <c r="B143" s="44" t="s">
-        <v>416</v>
-      </c>
-      <c r="C143" s="47" t="s">
-        <v>373</v>
+        <v>363</v>
+      </c>
+      <c r="C143" s="45" t="s">
+        <v>460</v>
       </c>
       <c r="D143" s="47"/>
       <c r="E143" s="47"/>
@@ -8377,12 +8468,8 @@
       <c r="G143" s="47"/>
       <c r="H143" s="47"/>
       <c r="I143" s="47"/>
-      <c r="J143" s="45" t="s">
-        <v>420</v>
-      </c>
-      <c r="K143" s="45" t="s">
-        <v>368</v>
-      </c>
+      <c r="J143" s="47"/>
+      <c r="K143" s="45"/>
       <c r="L143" s="47"/>
       <c r="M143" s="47"/>
       <c r="N143" s="47"/>
@@ -8413,34 +8500,32 @@
         <v>117</v>
       </c>
       <c r="B144" s="44" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
       <c r="C144" s="45" t="s">
-        <v>415</v>
-      </c>
-      <c r="D144" s="46"/>
-      <c r="E144" s="46"/>
-      <c r="F144" s="46"/>
-      <c r="G144" s="46"/>
-      <c r="H144" s="46"/>
+        <v>410</v>
+      </c>
+      <c r="D144" s="47"/>
+      <c r="E144" s="47"/>
+      <c r="F144" s="47"/>
+      <c r="G144" s="47"/>
+      <c r="H144" s="47"/>
       <c r="I144" s="47"/>
-      <c r="J144" s="45" t="s">
-        <v>420</v>
-      </c>
-      <c r="K144" s="47" t="s">
-        <v>370</v>
+      <c r="J144" s="47"/>
+      <c r="K144" s="45" t="s">
+        <v>362</v>
       </c>
       <c r="L144" s="47"/>
-      <c r="M144" s="45"/>
-      <c r="N144" s="45"/>
-      <c r="O144" s="45"/>
-      <c r="P144" s="45"/>
-      <c r="Q144" s="45"/>
-      <c r="R144" s="45"/>
-      <c r="S144" s="45"/>
-      <c r="T144" s="45"/>
+      <c r="M144" s="47"/>
+      <c r="N144" s="47"/>
+      <c r="O144" s="47"/>
+      <c r="P144" s="47"/>
+      <c r="Q144" s="47"/>
+      <c r="R144" s="47"/>
+      <c r="S144" s="47"/>
+      <c r="T144" s="47"/>
       <c r="U144" s="47"/>
-      <c r="V144" s="45"/>
+      <c r="V144" s="47"/>
       <c r="W144" s="47"/>
       <c r="X144" s="47"/>
       <c r="Y144" s="47"/>
@@ -8460,34 +8545,32 @@
         <v>117</v>
       </c>
       <c r="B145" s="44" t="s">
-        <v>375</v>
-      </c>
-      <c r="C145" s="45" t="s">
-        <v>459</v>
-      </c>
-      <c r="D145" s="46"/>
-      <c r="E145" s="46"/>
-      <c r="F145" s="46"/>
-      <c r="G145" s="46"/>
-      <c r="H145" s="46"/>
+        <v>364</v>
+      </c>
+      <c r="C145" s="47" t="s">
+        <v>411</v>
+      </c>
+      <c r="D145" s="47"/>
+      <c r="E145" s="47"/>
+      <c r="F145" s="47"/>
+      <c r="G145" s="47"/>
+      <c r="H145" s="47"/>
       <c r="I145" s="47"/>
-      <c r="J145" s="45" t="s">
-        <v>420</v>
-      </c>
-      <c r="K145" s="47" t="s">
-        <v>370</v>
+      <c r="J145" s="46"/>
+      <c r="K145" s="45" t="s">
+        <v>365</v>
       </c>
       <c r="L145" s="47"/>
-      <c r="M145" s="45"/>
-      <c r="N145" s="45"/>
-      <c r="O145" s="45"/>
-      <c r="P145" s="45"/>
-      <c r="Q145" s="45"/>
-      <c r="R145" s="45"/>
-      <c r="S145" s="45"/>
-      <c r="T145" s="45"/>
+      <c r="M145" s="47"/>
+      <c r="N145" s="47"/>
+      <c r="O145" s="47"/>
+      <c r="P145" s="47"/>
+      <c r="Q145" s="47"/>
+      <c r="R145" s="47"/>
+      <c r="S145" s="47"/>
+      <c r="T145" s="47"/>
       <c r="U145" s="47"/>
-      <c r="V145" s="45"/>
+      <c r="V145" s="47"/>
       <c r="W145" s="47"/>
       <c r="X145" s="47"/>
       <c r="Y145" s="47"/>
@@ -8507,10 +8590,10 @@
         <v>117</v>
       </c>
       <c r="B146" s="44" t="s">
-        <v>422</v>
+        <v>366</v>
       </c>
       <c r="C146" s="45" t="s">
-        <v>432</v>
+        <v>247</v>
       </c>
       <c r="D146" s="46"/>
       <c r="E146" s="46"/>
@@ -8519,10 +8602,10 @@
       <c r="H146" s="46"/>
       <c r="I146" s="47"/>
       <c r="J146" s="45" t="s">
-        <v>433</v>
-      </c>
-      <c r="K146" s="45" t="s">
-        <v>368</v>
+        <v>586</v>
+      </c>
+      <c r="K146" s="47" t="s">
+        <v>367</v>
       </c>
       <c r="L146" s="47"/>
       <c r="M146" s="45"/>
@@ -8554,34 +8637,34 @@
         <v>117</v>
       </c>
       <c r="B147" s="44" t="s">
-        <v>423</v>
+        <v>368</v>
       </c>
       <c r="C147" s="45" t="s">
-        <v>443</v>
-      </c>
-      <c r="D147" s="47"/>
-      <c r="E147" s="47"/>
-      <c r="F147" s="47"/>
-      <c r="G147" s="47"/>
-      <c r="H147" s="47"/>
+        <v>248</v>
+      </c>
+      <c r="D147" s="46"/>
+      <c r="E147" s="46"/>
+      <c r="F147" s="46"/>
+      <c r="G147" s="46"/>
+      <c r="H147" s="46"/>
       <c r="I147" s="47"/>
       <c r="J147" s="45" t="s">
-        <v>434</v>
-      </c>
-      <c r="K147" s="45" t="s">
-        <v>370</v>
+        <v>587</v>
+      </c>
+      <c r="K147" s="47" t="s">
+        <v>367</v>
       </c>
       <c r="L147" s="47"/>
-      <c r="M147" s="47"/>
-      <c r="N147" s="47"/>
-      <c r="O147" s="47"/>
-      <c r="P147" s="47"/>
-      <c r="Q147" s="47"/>
-      <c r="R147" s="47"/>
-      <c r="S147" s="47"/>
-      <c r="T147" s="47"/>
+      <c r="M147" s="45"/>
+      <c r="N147" s="45"/>
+      <c r="O147" s="45"/>
+      <c r="P147" s="45"/>
+      <c r="Q147" s="45"/>
+      <c r="R147" s="45"/>
+      <c r="S147" s="45"/>
+      <c r="T147" s="45"/>
       <c r="U147" s="47"/>
-      <c r="V147" s="47"/>
+      <c r="V147" s="45"/>
       <c r="W147" s="47"/>
       <c r="X147" s="47"/>
       <c r="Y147" s="47"/>
@@ -8601,34 +8684,34 @@
         <v>117</v>
       </c>
       <c r="B148" s="44" t="s">
-        <v>424</v>
+        <v>369</v>
       </c>
       <c r="C148" s="45" t="s">
-        <v>444</v>
-      </c>
-      <c r="D148" s="47"/>
-      <c r="E148" s="47"/>
-      <c r="F148" s="47"/>
-      <c r="G148" s="47"/>
-      <c r="H148" s="47"/>
+        <v>250</v>
+      </c>
+      <c r="D148" s="46"/>
+      <c r="E148" s="46"/>
+      <c r="F148" s="46"/>
+      <c r="G148" s="46"/>
+      <c r="H148" s="46"/>
       <c r="I148" s="47"/>
       <c r="J148" s="45" t="s">
-        <v>435</v>
-      </c>
-      <c r="K148" s="45" t="s">
-        <v>370</v>
+        <v>416</v>
+      </c>
+      <c r="K148" s="47" t="s">
+        <v>367</v>
       </c>
       <c r="L148" s="47"/>
-      <c r="M148" s="47"/>
-      <c r="N148" s="47"/>
-      <c r="O148" s="47"/>
-      <c r="P148" s="47"/>
-      <c r="Q148" s="47"/>
-      <c r="R148" s="47"/>
-      <c r="S148" s="47"/>
-      <c r="T148" s="47"/>
+      <c r="M148" s="45"/>
+      <c r="N148" s="45"/>
+      <c r="O148" s="45"/>
+      <c r="P148" s="45"/>
+      <c r="Q148" s="45"/>
+      <c r="R148" s="45"/>
+      <c r="S148" s="45"/>
+      <c r="T148" s="45"/>
       <c r="U148" s="47"/>
-      <c r="V148" s="47"/>
+      <c r="V148" s="45"/>
       <c r="W148" s="47"/>
       <c r="X148" s="47"/>
       <c r="Y148" s="47"/>
@@ -8648,10 +8731,10 @@
         <v>117</v>
       </c>
       <c r="B149" s="44" t="s">
-        <v>425</v>
-      </c>
-      <c r="C149" s="45" t="s">
-        <v>445</v>
+        <v>413</v>
+      </c>
+      <c r="C149" s="47" t="s">
+        <v>370</v>
       </c>
       <c r="D149" s="47"/>
       <c r="E149" s="47"/>
@@ -8660,10 +8743,10 @@
       <c r="H149" s="47"/>
       <c r="I149" s="47"/>
       <c r="J149" s="45" t="s">
-        <v>436</v>
+        <v>416</v>
       </c>
       <c r="K149" s="45" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="L149" s="47"/>
       <c r="M149" s="47"/>
@@ -8695,34 +8778,34 @@
         <v>117</v>
       </c>
       <c r="B150" s="44" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="C150" s="45" t="s">
-        <v>210</v>
-      </c>
-      <c r="D150" s="47"/>
-      <c r="E150" s="47"/>
-      <c r="F150" s="47"/>
-      <c r="G150" s="47"/>
-      <c r="H150" s="47"/>
+        <v>412</v>
+      </c>
+      <c r="D150" s="46"/>
+      <c r="E150" s="46"/>
+      <c r="F150" s="46"/>
+      <c r="G150" s="46"/>
+      <c r="H150" s="46"/>
       <c r="I150" s="47"/>
       <c r="J150" s="45" t="s">
-        <v>437</v>
-      </c>
-      <c r="K150" s="45" t="s">
-        <v>370</v>
+        <v>416</v>
+      </c>
+      <c r="K150" s="47" t="s">
+        <v>367</v>
       </c>
       <c r="L150" s="47"/>
-      <c r="M150" s="47"/>
-      <c r="N150" s="47"/>
-      <c r="O150" s="47"/>
-      <c r="P150" s="47"/>
-      <c r="Q150" s="47"/>
-      <c r="R150" s="47"/>
-      <c r="S150" s="47"/>
-      <c r="T150" s="47"/>
+      <c r="M150" s="45"/>
+      <c r="N150" s="45"/>
+      <c r="O150" s="45"/>
+      <c r="P150" s="45"/>
+      <c r="Q150" s="45"/>
+      <c r="R150" s="45"/>
+      <c r="S150" s="45"/>
+      <c r="T150" s="45"/>
       <c r="U150" s="47"/>
-      <c r="V150" s="47"/>
+      <c r="V150" s="45"/>
       <c r="W150" s="47"/>
       <c r="X150" s="47"/>
       <c r="Y150" s="47"/>
@@ -8742,34 +8825,34 @@
         <v>117</v>
       </c>
       <c r="B151" s="44" t="s">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="C151" s="45" t="s">
-        <v>211</v>
-      </c>
-      <c r="D151" s="47"/>
-      <c r="E151" s="47"/>
-      <c r="F151" s="47"/>
-      <c r="G151" s="47"/>
-      <c r="H151" s="47"/>
+        <v>455</v>
+      </c>
+      <c r="D151" s="46"/>
+      <c r="E151" s="46"/>
+      <c r="F151" s="46"/>
+      <c r="G151" s="46"/>
+      <c r="H151" s="46"/>
       <c r="I151" s="47"/>
       <c r="J151" s="45" t="s">
-        <v>438</v>
-      </c>
-      <c r="K151" s="45" t="s">
-        <v>370</v>
+        <v>416</v>
+      </c>
+      <c r="K151" s="47" t="s">
+        <v>367</v>
       </c>
       <c r="L151" s="47"/>
-      <c r="M151" s="47"/>
-      <c r="N151" s="47"/>
-      <c r="O151" s="47"/>
-      <c r="P151" s="47"/>
-      <c r="Q151" s="47"/>
-      <c r="R151" s="47"/>
-      <c r="S151" s="47"/>
-      <c r="T151" s="47"/>
+      <c r="M151" s="45"/>
+      <c r="N151" s="45"/>
+      <c r="O151" s="45"/>
+      <c r="P151" s="45"/>
+      <c r="Q151" s="45"/>
+      <c r="R151" s="45"/>
+      <c r="S151" s="45"/>
+      <c r="T151" s="45"/>
       <c r="U151" s="47"/>
-      <c r="V151" s="47"/>
+      <c r="V151" s="45"/>
       <c r="W151" s="47"/>
       <c r="X151" s="47"/>
       <c r="Y151" s="47"/>
@@ -8789,34 +8872,34 @@
         <v>117</v>
       </c>
       <c r="B152" s="44" t="s">
+        <v>418</v>
+      </c>
+      <c r="C152" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="C152" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="D152" s="47"/>
-      <c r="E152" s="47"/>
-      <c r="F152" s="47"/>
-      <c r="G152" s="47"/>
-      <c r="H152" s="47"/>
+      <c r="D152" s="46"/>
+      <c r="E152" s="46"/>
+      <c r="F152" s="46"/>
+      <c r="G152" s="46"/>
+      <c r="H152" s="46"/>
       <c r="I152" s="47"/>
       <c r="J152" s="45" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="K152" s="45" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="L152" s="47"/>
-      <c r="M152" s="47"/>
-      <c r="N152" s="47"/>
-      <c r="O152" s="47"/>
-      <c r="P152" s="47"/>
-      <c r="Q152" s="47"/>
-      <c r="R152" s="47"/>
-      <c r="S152" s="47"/>
-      <c r="T152" s="47"/>
+      <c r="M152" s="45"/>
+      <c r="N152" s="45"/>
+      <c r="O152" s="45"/>
+      <c r="P152" s="45"/>
+      <c r="Q152" s="45"/>
+      <c r="R152" s="45"/>
+      <c r="S152" s="45"/>
+      <c r="T152" s="45"/>
       <c r="U152" s="47"/>
-      <c r="V152" s="47"/>
+      <c r="V152" s="45"/>
       <c r="W152" s="47"/>
       <c r="X152" s="47"/>
       <c r="Y152" s="47"/>
@@ -8836,10 +8919,10 @@
         <v>117</v>
       </c>
       <c r="B153" s="44" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="C153" s="45" t="s">
-        <v>213</v>
+        <v>439</v>
       </c>
       <c r="D153" s="47"/>
       <c r="E153" s="47"/>
@@ -8848,10 +8931,10 @@
       <c r="H153" s="47"/>
       <c r="I153" s="47"/>
       <c r="J153" s="45" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="K153" s="45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L153" s="47"/>
       <c r="M153" s="47"/>
@@ -8883,10 +8966,10 @@
         <v>117</v>
       </c>
       <c r="B154" s="44" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="D154" s="47"/>
       <c r="E154" s="47"/>
@@ -8895,10 +8978,10 @@
       <c r="H154" s="47"/>
       <c r="I154" s="47"/>
       <c r="J154" s="45" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="K154" s="45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L154" s="47"/>
       <c r="M154" s="47"/>
@@ -8930,10 +9013,10 @@
         <v>117</v>
       </c>
       <c r="B155" s="44" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="C155" s="45" t="s">
-        <v>215</v>
+        <v>441</v>
       </c>
       <c r="D155" s="47"/>
       <c r="E155" s="47"/>
@@ -8942,10 +9025,10 @@
       <c r="H155" s="47"/>
       <c r="I155" s="47"/>
       <c r="J155" s="45" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="K155" s="45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L155" s="47"/>
       <c r="M155" s="47"/>
@@ -8977,10 +9060,10 @@
         <v>117</v>
       </c>
       <c r="B156" s="44" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="C156" s="45" t="s">
-        <v>378</v>
+        <v>210</v>
       </c>
       <c r="D156" s="47"/>
       <c r="E156" s="47"/>
@@ -8988,11 +9071,11 @@
       <c r="G156" s="47"/>
       <c r="H156" s="47"/>
       <c r="I156" s="47"/>
-      <c r="J156" s="47" t="s">
-        <v>446</v>
+      <c r="J156" s="45" t="s">
+        <v>433</v>
       </c>
       <c r="K156" s="45" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="L156" s="47"/>
       <c r="M156" s="47"/>
@@ -9024,10 +9107,10 @@
         <v>117</v>
       </c>
       <c r="B157" s="44" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="C157" s="45" t="s">
-        <v>381</v>
+        <v>211</v>
       </c>
       <c r="D157" s="47"/>
       <c r="E157" s="47"/>
@@ -9036,9 +9119,11 @@
       <c r="H157" s="47"/>
       <c r="I157" s="47"/>
       <c r="J157" s="45" t="s">
-        <v>382</v>
-      </c>
-      <c r="K157" s="45"/>
+        <v>434</v>
+      </c>
+      <c r="K157" s="45" t="s">
+        <v>367</v>
+      </c>
       <c r="L157" s="47"/>
       <c r="M157" s="47"/>
       <c r="N157" s="47"/>
@@ -9069,10 +9154,10 @@
         <v>117</v>
       </c>
       <c r="B158" s="44" t="s">
-        <v>383</v>
+        <v>424</v>
       </c>
       <c r="C158" s="45" t="s">
-        <v>376</v>
+        <v>212</v>
       </c>
       <c r="D158" s="47"/>
       <c r="E158" s="47"/>
@@ -9081,10 +9166,10 @@
       <c r="H158" s="47"/>
       <c r="I158" s="47"/>
       <c r="J158" s="45" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="K158" s="45" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="L158" s="47"/>
       <c r="M158" s="47"/>
@@ -9116,34 +9201,34 @@
         <v>117</v>
       </c>
       <c r="B159" s="44" t="s">
-        <v>384</v>
+        <v>425</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="D159" s="46"/>
-      <c r="E159" s="46"/>
-      <c r="F159" s="46"/>
-      <c r="G159" s="46"/>
-      <c r="H159" s="46"/>
+        <v>213</v>
+      </c>
+      <c r="D159" s="47"/>
+      <c r="E159" s="47"/>
+      <c r="F159" s="47"/>
+      <c r="G159" s="47"/>
+      <c r="H159" s="47"/>
       <c r="I159" s="47"/>
       <c r="J159" s="45" t="s">
-        <v>419</v>
-      </c>
-      <c r="K159" s="47" t="s">
-        <v>370</v>
+        <v>436</v>
+      </c>
+      <c r="K159" s="45" t="s">
+        <v>367</v>
       </c>
       <c r="L159" s="47"/>
-      <c r="M159" s="45"/>
-      <c r="N159" s="45"/>
-      <c r="O159" s="45"/>
-      <c r="P159" s="45"/>
-      <c r="Q159" s="45"/>
-      <c r="R159" s="45"/>
-      <c r="S159" s="45"/>
-      <c r="T159" s="45"/>
+      <c r="M159" s="47"/>
+      <c r="N159" s="47"/>
+      <c r="O159" s="47"/>
+      <c r="P159" s="47"/>
+      <c r="Q159" s="47"/>
+      <c r="R159" s="47"/>
+      <c r="S159" s="47"/>
+      <c r="T159" s="47"/>
       <c r="U159" s="47"/>
-      <c r="V159" s="45"/>
+      <c r="V159" s="47"/>
       <c r="W159" s="47"/>
       <c r="X159" s="47"/>
       <c r="Y159" s="47"/>
@@ -9163,32 +9248,34 @@
         <v>117</v>
       </c>
       <c r="B160" s="44" t="s">
-        <v>386</v>
+        <v>426</v>
       </c>
       <c r="C160" s="45" t="s">
-        <v>387</v>
-      </c>
-      <c r="D160" s="46"/>
-      <c r="E160" s="46"/>
-      <c r="F160" s="46"/>
-      <c r="G160" s="46"/>
-      <c r="H160" s="46"/>
+        <v>214</v>
+      </c>
+      <c r="D160" s="47"/>
+      <c r="E160" s="47"/>
+      <c r="F160" s="47"/>
+      <c r="G160" s="47"/>
+      <c r="H160" s="47"/>
       <c r="I160" s="47"/>
-      <c r="J160" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="K160" s="47"/>
+      <c r="J160" s="45" t="s">
+        <v>437</v>
+      </c>
+      <c r="K160" s="45" t="s">
+        <v>367</v>
+      </c>
       <c r="L160" s="47"/>
-      <c r="M160" s="45"/>
-      <c r="N160" s="45"/>
-      <c r="O160" s="45"/>
-      <c r="P160" s="45"/>
-      <c r="Q160" s="45"/>
-      <c r="R160" s="45"/>
-      <c r="S160" s="45"/>
-      <c r="T160" s="45"/>
+      <c r="M160" s="47"/>
+      <c r="N160" s="47"/>
+      <c r="O160" s="47"/>
+      <c r="P160" s="47"/>
+      <c r="Q160" s="47"/>
+      <c r="R160" s="47"/>
+      <c r="S160" s="47"/>
+      <c r="T160" s="47"/>
       <c r="U160" s="47"/>
-      <c r="V160" s="45"/>
+      <c r="V160" s="47"/>
       <c r="W160" s="47"/>
       <c r="X160" s="47"/>
       <c r="Y160" s="47"/>
@@ -9208,32 +9295,34 @@
         <v>117</v>
       </c>
       <c r="B161" s="44" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>389</v>
-      </c>
-      <c r="D161" s="46"/>
-      <c r="E161" s="46"/>
-      <c r="F161" s="46"/>
-      <c r="G161" s="46"/>
-      <c r="H161" s="46"/>
+        <v>215</v>
+      </c>
+      <c r="D161" s="47"/>
+      <c r="E161" s="47"/>
+      <c r="F161" s="47"/>
+      <c r="G161" s="47"/>
+      <c r="H161" s="47"/>
       <c r="I161" s="47"/>
-      <c r="J161" s="47" t="s">
-        <v>421</v>
-      </c>
-      <c r="K161" s="47"/>
+      <c r="J161" s="45" t="s">
+        <v>438</v>
+      </c>
+      <c r="K161" s="45" t="s">
+        <v>367</v>
+      </c>
       <c r="L161" s="47"/>
-      <c r="M161" s="45"/>
-      <c r="N161" s="45"/>
-      <c r="O161" s="45"/>
-      <c r="P161" s="45"/>
-      <c r="Q161" s="45"/>
-      <c r="R161" s="45"/>
-      <c r="S161" s="45"/>
-      <c r="T161" s="45"/>
+      <c r="M161" s="47"/>
+      <c r="N161" s="47"/>
+      <c r="O161" s="47"/>
+      <c r="P161" s="47"/>
+      <c r="Q161" s="47"/>
+      <c r="R161" s="47"/>
+      <c r="S161" s="47"/>
+      <c r="T161" s="47"/>
       <c r="U161" s="47"/>
-      <c r="V161" s="45"/>
+      <c r="V161" s="47"/>
       <c r="W161" s="47"/>
       <c r="X161" s="47"/>
       <c r="Y161" s="47"/>
@@ -9253,10 +9342,10 @@
         <v>117</v>
       </c>
       <c r="B162" s="44" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="C162" s="45" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="D162" s="47"/>
       <c r="E162" s="47"/>
@@ -9264,11 +9353,11 @@
       <c r="G162" s="47"/>
       <c r="H162" s="47"/>
       <c r="I162" s="47"/>
-      <c r="J162" s="45" t="s">
-        <v>433</v>
+      <c r="J162" s="47" t="s">
+        <v>442</v>
       </c>
       <c r="K162" s="45" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="L162" s="47"/>
       <c r="M162" s="47"/>
@@ -9300,10 +9389,10 @@
         <v>117</v>
       </c>
       <c r="B163" s="44" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="C163" s="45" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="D163" s="47"/>
       <c r="E163" s="47"/>
@@ -9312,7 +9401,7 @@
       <c r="H163" s="47"/>
       <c r="I163" s="47"/>
       <c r="J163" s="45" t="s">
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="K163" s="45"/>
       <c r="L163" s="47"/>
@@ -9345,10 +9434,10 @@
         <v>117</v>
       </c>
       <c r="B164" s="44" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C164" s="45" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
       <c r="D164" s="47"/>
       <c r="E164" s="47"/>
@@ -9357,9 +9446,11 @@
       <c r="H164" s="47"/>
       <c r="I164" s="47"/>
       <c r="J164" s="45" t="s">
-        <v>433</v>
-      </c>
-      <c r="K164" s="45"/>
+        <v>429</v>
+      </c>
+      <c r="K164" s="45" t="s">
+        <v>367</v>
+      </c>
       <c r="L164" s="47"/>
       <c r="M164" s="47"/>
       <c r="N164" s="47"/>
@@ -9390,32 +9481,34 @@
         <v>117</v>
       </c>
       <c r="B165" s="44" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="C165" s="45" t="s">
-        <v>398</v>
-      </c>
-      <c r="D165" s="47"/>
-      <c r="E165" s="47"/>
-      <c r="F165" s="47"/>
-      <c r="G165" s="47"/>
-      <c r="H165" s="47"/>
+        <v>382</v>
+      </c>
+      <c r="D165" s="46"/>
+      <c r="E165" s="46"/>
+      <c r="F165" s="46"/>
+      <c r="G165" s="46"/>
+      <c r="H165" s="46"/>
       <c r="I165" s="47"/>
       <c r="J165" s="45" t="s">
-        <v>433</v>
-      </c>
-      <c r="K165" s="45"/>
+        <v>415</v>
+      </c>
+      <c r="K165" s="47" t="s">
+        <v>367</v>
+      </c>
       <c r="L165" s="47"/>
-      <c r="M165" s="47"/>
-      <c r="N165" s="47"/>
-      <c r="O165" s="47"/>
-      <c r="P165" s="47"/>
-      <c r="Q165" s="47"/>
-      <c r="R165" s="47"/>
-      <c r="S165" s="47"/>
-      <c r="T165" s="47"/>
+      <c r="M165" s="45"/>
+      <c r="N165" s="45"/>
+      <c r="O165" s="45"/>
+      <c r="P165" s="45"/>
+      <c r="Q165" s="45"/>
+      <c r="R165" s="45"/>
+      <c r="S165" s="45"/>
+      <c r="T165" s="45"/>
       <c r="U165" s="47"/>
-      <c r="V165" s="47"/>
+      <c r="V165" s="45"/>
       <c r="W165" s="47"/>
       <c r="X165" s="47"/>
       <c r="Y165" s="47"/>
@@ -9432,17 +9525,23 @@
     </row>
     <row r="166" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B166" s="44"/>
-      <c r="C166" s="45"/>
+        <v>117</v>
+      </c>
+      <c r="B166" s="44" t="s">
+        <v>383</v>
+      </c>
+      <c r="C166" s="45" t="s">
+        <v>384</v>
+      </c>
       <c r="D166" s="46"/>
       <c r="E166" s="46"/>
       <c r="F166" s="46"/>
       <c r="G166" s="46"/>
       <c r="H166" s="46"/>
       <c r="I166" s="47"/>
-      <c r="J166" s="47"/>
+      <c r="J166" s="47" t="s">
+        <v>417</v>
+      </c>
       <c r="K166" s="47"/>
       <c r="L166" s="47"/>
       <c r="M166" s="45"/>
@@ -9470,305 +9569,289 @@
       <c r="AI166" s="47"/>
     </row>
     <row r="167" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="31"/>
-      <c r="B167" s="31"/>
-      <c r="C167" s="31"/>
-      <c r="E167" s="31"/>
-      <c r="F167" s="31"/>
-      <c r="AE167" s="31"/>
-      <c r="AF167" s="31"/>
-      <c r="AG167" s="31"/>
-      <c r="AH167" s="31"/>
-      <c r="AI167" s="31"/>
+      <c r="A167" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B167" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="C167" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="D167" s="46"/>
+      <c r="E167" s="46"/>
+      <c r="F167" s="46"/>
+      <c r="G167" s="46"/>
+      <c r="H167" s="46"/>
+      <c r="I167" s="47"/>
+      <c r="J167" s="47" t="s">
+        <v>417</v>
+      </c>
+      <c r="K167" s="47"/>
+      <c r="L167" s="47"/>
+      <c r="M167" s="45"/>
+      <c r="N167" s="45"/>
+      <c r="O167" s="45"/>
+      <c r="P167" s="45"/>
+      <c r="Q167" s="45"/>
+      <c r="R167" s="45"/>
+      <c r="S167" s="45"/>
+      <c r="T167" s="45"/>
+      <c r="U167" s="47"/>
+      <c r="V167" s="45"/>
+      <c r="W167" s="47"/>
+      <c r="X167" s="47"/>
+      <c r="Y167" s="47"/>
+      <c r="Z167" s="47"/>
+      <c r="AA167" s="47"/>
+      <c r="AB167" s="47"/>
+      <c r="AC167" s="47"/>
+      <c r="AD167" s="47"/>
+      <c r="AE167" s="47"/>
+      <c r="AF167" s="47"/>
+      <c r="AG167" s="47"/>
+      <c r="AH167" s="47"/>
+      <c r="AI167" s="47"/>
     </row>
     <row r="168" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B168" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C168" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D168" s="50"/>
-      <c r="E168" s="50"/>
-      <c r="F168" s="50"/>
-      <c r="G168" s="50"/>
-      <c r="H168" s="50"/>
-      <c r="I168" s="50"/>
-      <c r="J168" s="50"/>
-      <c r="K168" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="L168" s="50"/>
-      <c r="M168" s="50"/>
-      <c r="N168" s="50"/>
-      <c r="O168" s="50"/>
-      <c r="P168" s="50"/>
-      <c r="Q168" s="50"/>
-      <c r="R168" s="50"/>
-      <c r="S168" s="50"/>
-      <c r="T168" s="50"/>
-      <c r="U168" s="50"/>
-      <c r="V168" s="50"/>
-      <c r="W168" s="50"/>
-      <c r="X168" s="50"/>
-      <c r="Y168" s="50"/>
-      <c r="Z168" s="50"/>
-      <c r="AA168" s="50"/>
-      <c r="AB168" s="50"/>
-      <c r="AC168" s="50"/>
-      <c r="AD168" s="50"/>
-      <c r="AE168" s="51" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF168" s="50"/>
-      <c r="AG168" s="50"/>
-      <c r="AH168" s="50"/>
-      <c r="AI168" s="50"/>
+      <c r="A168" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B168" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="C168" s="45" t="s">
+        <v>388</v>
+      </c>
+      <c r="D168" s="47"/>
+      <c r="E168" s="47"/>
+      <c r="F168" s="47"/>
+      <c r="G168" s="47"/>
+      <c r="H168" s="47"/>
+      <c r="I168" s="47"/>
+      <c r="J168" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="K168" s="45" t="s">
+        <v>389</v>
+      </c>
+      <c r="L168" s="47"/>
+      <c r="M168" s="47"/>
+      <c r="N168" s="47"/>
+      <c r="O168" s="47"/>
+      <c r="P168" s="47"/>
+      <c r="Q168" s="47"/>
+      <c r="R168" s="47"/>
+      <c r="S168" s="47"/>
+      <c r="T168" s="47"/>
+      <c r="U168" s="47"/>
+      <c r="V168" s="47"/>
+      <c r="W168" s="47"/>
+      <c r="X168" s="47"/>
+      <c r="Y168" s="47"/>
+      <c r="Z168" s="47"/>
+      <c r="AA168" s="47"/>
+      <c r="AB168" s="47"/>
+      <c r="AC168" s="47"/>
+      <c r="AD168" s="47"/>
+      <c r="AE168" s="47"/>
+      <c r="AF168" s="47"/>
+      <c r="AG168" s="47"/>
+      <c r="AH168" s="47"/>
+      <c r="AI168" s="47"/>
     </row>
     <row r="169" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B169" s="52" t="s">
-        <v>238</v>
-      </c>
-      <c r="C169" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D169" s="50"/>
-      <c r="E169" s="50"/>
-      <c r="F169" s="50"/>
-      <c r="G169" s="50"/>
-      <c r="H169" s="50"/>
-      <c r="I169" s="50"/>
-      <c r="J169" s="50"/>
-      <c r="K169" s="50"/>
-      <c r="L169" s="50"/>
-      <c r="M169" s="50"/>
-      <c r="N169" s="50"/>
-      <c r="O169" s="50"/>
-      <c r="P169" s="50"/>
-      <c r="Q169" s="50"/>
-      <c r="R169" s="50"/>
-      <c r="S169" s="50"/>
-      <c r="T169" s="50" t="s">
-        <v>448</v>
-      </c>
-      <c r="U169" s="50"/>
-      <c r="V169" s="50"/>
-      <c r="W169" s="50"/>
-      <c r="X169" s="50"/>
-      <c r="Y169" s="50"/>
-      <c r="Z169" s="50"/>
-      <c r="AA169" s="50"/>
-      <c r="AB169" s="50"/>
-      <c r="AC169" s="50"/>
-      <c r="AD169" s="50"/>
-      <c r="AE169" s="50"/>
-      <c r="AF169" s="50"/>
-      <c r="AG169" s="51" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH169" s="50"/>
-      <c r="AI169" s="50"/>
+      <c r="A169" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B169" s="44" t="s">
+        <v>390</v>
+      </c>
+      <c r="C169" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="D169" s="47"/>
+      <c r="E169" s="47"/>
+      <c r="F169" s="47"/>
+      <c r="G169" s="47"/>
+      <c r="H169" s="47"/>
+      <c r="I169" s="47"/>
+      <c r="J169" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="K169" s="45"/>
+      <c r="L169" s="47"/>
+      <c r="M169" s="47"/>
+      <c r="N169" s="47"/>
+      <c r="O169" s="47"/>
+      <c r="P169" s="47"/>
+      <c r="Q169" s="47"/>
+      <c r="R169" s="47"/>
+      <c r="S169" s="47"/>
+      <c r="T169" s="47"/>
+      <c r="U169" s="47"/>
+      <c r="V169" s="47"/>
+      <c r="W169" s="47"/>
+      <c r="X169" s="47"/>
+      <c r="Y169" s="47"/>
+      <c r="Z169" s="47"/>
+      <c r="AA169" s="47"/>
+      <c r="AB169" s="47"/>
+      <c r="AC169" s="47"/>
+      <c r="AD169" s="47"/>
+      <c r="AE169" s="47"/>
+      <c r="AF169" s="47"/>
+      <c r="AG169" s="47"/>
+      <c r="AH169" s="47"/>
+      <c r="AI169" s="47"/>
     </row>
     <row r="170" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B170" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="C170" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D170" s="50"/>
-      <c r="E170" s="50"/>
-      <c r="F170" s="50"/>
-      <c r="G170" s="50"/>
-      <c r="H170" s="50"/>
-      <c r="I170" s="50"/>
-      <c r="J170" s="50"/>
-      <c r="K170" s="50"/>
-      <c r="L170" s="50"/>
-      <c r="M170" s="50"/>
-      <c r="N170" s="50"/>
-      <c r="O170" s="50"/>
-      <c r="P170" s="50"/>
-      <c r="Q170" s="50"/>
-      <c r="R170" s="50"/>
-      <c r="S170" s="50"/>
-      <c r="T170" s="50" t="s">
-        <v>161</v>
-      </c>
-      <c r="U170" s="50"/>
-      <c r="V170" s="50"/>
-      <c r="W170" s="50"/>
-      <c r="X170" s="50"/>
-      <c r="Y170" s="50"/>
-      <c r="Z170" s="50"/>
-      <c r="AA170" s="50"/>
-      <c r="AB170" s="50"/>
-      <c r="AC170" s="50"/>
-      <c r="AD170" s="50"/>
-      <c r="AE170" s="50"/>
-      <c r="AF170" s="50"/>
-      <c r="AG170" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH170" s="50"/>
-      <c r="AI170" s="50"/>
+      <c r="A170" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B170" s="44" t="s">
+        <v>392</v>
+      </c>
+      <c r="C170" s="45" t="s">
+        <v>393</v>
+      </c>
+      <c r="D170" s="47"/>
+      <c r="E170" s="47"/>
+      <c r="F170" s="47"/>
+      <c r="G170" s="47"/>
+      <c r="H170" s="47"/>
+      <c r="I170" s="47"/>
+      <c r="J170" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="K170" s="45"/>
+      <c r="L170" s="47"/>
+      <c r="M170" s="47"/>
+      <c r="N170" s="47"/>
+      <c r="O170" s="47"/>
+      <c r="P170" s="47"/>
+      <c r="Q170" s="47"/>
+      <c r="R170" s="47"/>
+      <c r="S170" s="47"/>
+      <c r="T170" s="47"/>
+      <c r="U170" s="47"/>
+      <c r="V170" s="47"/>
+      <c r="W170" s="47"/>
+      <c r="X170" s="47"/>
+      <c r="Y170" s="47"/>
+      <c r="Z170" s="47"/>
+      <c r="AA170" s="47"/>
+      <c r="AB170" s="47"/>
+      <c r="AC170" s="47"/>
+      <c r="AD170" s="47"/>
+      <c r="AE170" s="47"/>
+      <c r="AF170" s="47"/>
+      <c r="AG170" s="47"/>
+      <c r="AH170" s="47"/>
+      <c r="AI170" s="47"/>
     </row>
     <row r="171" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B171" s="52" t="s">
-        <v>230</v>
-      </c>
-      <c r="C171" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D171" s="50"/>
-      <c r="E171" s="50"/>
-      <c r="F171" s="50"/>
-      <c r="G171" s="50"/>
-      <c r="H171" s="50"/>
-      <c r="I171" s="50"/>
-      <c r="J171" s="50"/>
-      <c r="K171" s="50"/>
-      <c r="L171" s="50"/>
-      <c r="M171" s="50"/>
-      <c r="N171" s="50"/>
-      <c r="O171" s="50"/>
-      <c r="P171" s="50"/>
-      <c r="Q171" s="50"/>
-      <c r="R171" s="50"/>
-      <c r="S171" s="50"/>
-      <c r="T171" s="50" t="s">
-        <v>449</v>
-      </c>
-      <c r="U171" s="50"/>
-      <c r="V171" s="50"/>
-      <c r="W171" s="50"/>
-      <c r="X171" s="50"/>
-      <c r="Y171" s="50"/>
-      <c r="Z171" s="50"/>
-      <c r="AA171" s="50"/>
-      <c r="AB171" s="50"/>
-      <c r="AC171" s="50"/>
-      <c r="AD171" s="50"/>
-      <c r="AE171" s="50"/>
-      <c r="AF171" s="50"/>
-      <c r="AG171" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH171" s="50"/>
-      <c r="AI171" s="50"/>
+      <c r="A171" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B171" s="44" t="s">
+        <v>394</v>
+      </c>
+      <c r="C171" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="D171" s="47"/>
+      <c r="E171" s="47"/>
+      <c r="F171" s="47"/>
+      <c r="G171" s="47"/>
+      <c r="H171" s="47"/>
+      <c r="I171" s="47"/>
+      <c r="J171" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="K171" s="45"/>
+      <c r="L171" s="47"/>
+      <c r="M171" s="47"/>
+      <c r="N171" s="47"/>
+      <c r="O171" s="47"/>
+      <c r="P171" s="47"/>
+      <c r="Q171" s="47"/>
+      <c r="R171" s="47"/>
+      <c r="S171" s="47"/>
+      <c r="T171" s="47"/>
+      <c r="U171" s="47"/>
+      <c r="V171" s="47"/>
+      <c r="W171" s="47"/>
+      <c r="X171" s="47"/>
+      <c r="Y171" s="47"/>
+      <c r="Z171" s="47"/>
+      <c r="AA171" s="47"/>
+      <c r="AB171" s="47"/>
+      <c r="AC171" s="47"/>
+      <c r="AD171" s="47"/>
+      <c r="AE171" s="47"/>
+      <c r="AF171" s="47"/>
+      <c r="AG171" s="47"/>
+      <c r="AH171" s="47"/>
+      <c r="AI171" s="47"/>
     </row>
     <row r="172" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B172" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="C172" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D172" s="50"/>
-      <c r="E172" s="50"/>
-      <c r="F172" s="50"/>
-      <c r="G172" s="50"/>
-      <c r="H172" s="50"/>
-      <c r="I172" s="50"/>
-      <c r="J172" s="50"/>
-      <c r="K172" s="50"/>
-      <c r="L172" s="50"/>
-      <c r="M172" s="50"/>
-      <c r="N172" s="50"/>
-      <c r="O172" s="50"/>
-      <c r="P172" s="50"/>
-      <c r="Q172" s="50"/>
-      <c r="R172" s="50"/>
-      <c r="S172" s="50"/>
-      <c r="T172" s="50" t="s">
-        <v>450</v>
-      </c>
-      <c r="U172" s="50"/>
-      <c r="V172" s="50"/>
-      <c r="W172" s="50"/>
-      <c r="X172" s="50"/>
-      <c r="Y172" s="50"/>
-      <c r="Z172" s="50"/>
-      <c r="AA172" s="50"/>
-      <c r="AB172" s="50"/>
-      <c r="AC172" s="50"/>
-      <c r="AD172" s="50"/>
-      <c r="AE172" s="50"/>
-      <c r="AF172" s="50"/>
-      <c r="AG172" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="AH172" s="50"/>
-      <c r="AI172" s="50"/>
+      <c r="A172" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="B172" s="44"/>
+      <c r="C172" s="45"/>
+      <c r="D172" s="46"/>
+      <c r="E172" s="46"/>
+      <c r="F172" s="46"/>
+      <c r="G172" s="46"/>
+      <c r="H172" s="46"/>
+      <c r="I172" s="47"/>
+      <c r="J172" s="47"/>
+      <c r="K172" s="47"/>
+      <c r="L172" s="47"/>
+      <c r="M172" s="45"/>
+      <c r="N172" s="45"/>
+      <c r="O172" s="45"/>
+      <c r="P172" s="45"/>
+      <c r="Q172" s="45"/>
+      <c r="R172" s="45"/>
+      <c r="S172" s="45"/>
+      <c r="T172" s="45"/>
+      <c r="U172" s="47"/>
+      <c r="V172" s="45"/>
+      <c r="W172" s="47"/>
+      <c r="X172" s="47"/>
+      <c r="Y172" s="47"/>
+      <c r="Z172" s="47"/>
+      <c r="AA172" s="47"/>
+      <c r="AB172" s="47"/>
+      <c r="AC172" s="47"/>
+      <c r="AD172" s="47"/>
+      <c r="AE172" s="47"/>
+      <c r="AF172" s="47"/>
+      <c r="AG172" s="47"/>
+      <c r="AH172" s="47"/>
+      <c r="AI172" s="47"/>
     </row>
     <row r="173" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B173" s="52" t="s">
-        <v>232</v>
-      </c>
-      <c r="C173" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D173" s="50"/>
-      <c r="E173" s="50"/>
-      <c r="F173" s="50"/>
-      <c r="G173" s="50"/>
-      <c r="H173" s="50"/>
-      <c r="I173" s="50"/>
-      <c r="J173" s="50"/>
-      <c r="K173" s="50"/>
-      <c r="L173" s="50"/>
-      <c r="M173" s="50"/>
-      <c r="N173" s="50"/>
-      <c r="O173" s="50"/>
-      <c r="P173" s="50"/>
-      <c r="Q173" s="50"/>
-      <c r="R173" s="50"/>
-      <c r="S173" s="50"/>
-      <c r="T173" s="50" t="s">
-        <v>451</v>
-      </c>
-      <c r="U173" s="50"/>
-      <c r="V173" s="50"/>
-      <c r="W173" s="50"/>
-      <c r="X173" s="50"/>
-      <c r="Y173" s="50"/>
-      <c r="Z173" s="50"/>
-      <c r="AA173" s="50"/>
-      <c r="AB173" s="50"/>
-      <c r="AC173" s="50"/>
-      <c r="AD173" s="50"/>
-      <c r="AE173" s="50"/>
-      <c r="AF173" s="50"/>
-      <c r="AG173" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH173" s="50"/>
-      <c r="AI173" s="50"/>
+      <c r="A173" s="31"/>
+      <c r="B173" s="31"/>
+      <c r="C173" s="31"/>
+      <c r="E173" s="31"/>
+      <c r="F173" s="31"/>
+      <c r="AE173" s="31"/>
+      <c r="AF173" s="31"/>
+      <c r="AG173" s="31"/>
+      <c r="AH173" s="31"/>
+      <c r="AI173" s="31"/>
     </row>
     <row r="174" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B174" s="52" t="s">
-        <v>233</v>
+        <v>42</v>
+      </c>
+      <c r="B174" s="49" t="s">
+        <v>48</v>
       </c>
       <c r="C174" s="50" t="s">
         <v>45</v>
@@ -9780,7 +9863,9 @@
       <c r="H174" s="50"/>
       <c r="I174" s="50"/>
       <c r="J174" s="50"/>
-      <c r="K174" s="50"/>
+      <c r="K174" s="51" t="s">
+        <v>50</v>
+      </c>
       <c r="L174" s="50"/>
       <c r="M174" s="50"/>
       <c r="N174" s="50"/>
@@ -9789,9 +9874,7 @@
       <c r="Q174" s="50"/>
       <c r="R174" s="50"/>
       <c r="S174" s="50"/>
-      <c r="T174" s="50" t="s">
-        <v>452</v>
-      </c>
+      <c r="T174" s="50"/>
       <c r="U174" s="50"/>
       <c r="V174" s="50"/>
       <c r="W174" s="50"/>
@@ -9802,11 +9885,11 @@
       <c r="AB174" s="50"/>
       <c r="AC174" s="50"/>
       <c r="AD174" s="50"/>
-      <c r="AE174" s="50"/>
+      <c r="AE174" s="51" t="s">
+        <v>50</v>
+      </c>
       <c r="AF174" s="50"/>
-      <c r="AG174" s="51" t="s">
-        <v>143</v>
-      </c>
+      <c r="AG174" s="50"/>
       <c r="AH174" s="50"/>
       <c r="AI174" s="50"/>
     </row>
@@ -9815,7 +9898,7 @@
         <v>78</v>
       </c>
       <c r="B175" s="52" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C175" s="50" t="s">
         <v>45</v>
@@ -9837,7 +9920,7 @@
       <c r="R175" s="50"/>
       <c r="S175" s="50"/>
       <c r="T175" s="50" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="U175" s="50"/>
       <c r="V175" s="50"/>
@@ -9852,7 +9935,7 @@
       <c r="AE175" s="50"/>
       <c r="AF175" s="50"/>
       <c r="AG175" s="51" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="AH175" s="50"/>
       <c r="AI175" s="50"/>
@@ -9862,7 +9945,7 @@
         <v>78</v>
       </c>
       <c r="B176" s="52" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="C176" s="50" t="s">
         <v>45</v>
@@ -9884,7 +9967,7 @@
       <c r="R176" s="50"/>
       <c r="S176" s="50"/>
       <c r="T176" s="50" t="s">
-        <v>454</v>
+        <v>161</v>
       </c>
       <c r="U176" s="50"/>
       <c r="V176" s="50"/>
@@ -9899,7 +9982,7 @@
       <c r="AE176" s="50"/>
       <c r="AF176" s="50"/>
       <c r="AG176" s="51" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="AH176" s="50"/>
       <c r="AI176" s="50"/>
@@ -9909,7 +9992,7 @@
         <v>78</v>
       </c>
       <c r="B177" s="52" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C177" s="50" t="s">
         <v>45</v>
@@ -9931,7 +10014,7 @@
       <c r="R177" s="50"/>
       <c r="S177" s="50"/>
       <c r="T177" s="50" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="U177" s="50"/>
       <c r="V177" s="50"/>
@@ -9946,7 +10029,7 @@
       <c r="AE177" s="50"/>
       <c r="AF177" s="50"/>
       <c r="AG177" s="51" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="AH177" s="50"/>
       <c r="AI177" s="50"/>
@@ -9956,7 +10039,7 @@
         <v>78</v>
       </c>
       <c r="B178" s="52" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C178" s="50" t="s">
         <v>45</v>
@@ -9978,7 +10061,7 @@
       <c r="R178" s="50"/>
       <c r="S178" s="50"/>
       <c r="T178" s="50" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="U178" s="50"/>
       <c r="V178" s="50"/>
@@ -9993,7 +10076,7 @@
       <c r="AE178" s="50"/>
       <c r="AF178" s="50"/>
       <c r="AG178" s="51" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="AH178" s="50"/>
       <c r="AI178" s="50"/>
@@ -10003,7 +10086,7 @@
         <v>78</v>
       </c>
       <c r="B179" s="52" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="C179" s="50" t="s">
         <v>45</v>
@@ -10025,7 +10108,7 @@
       <c r="R179" s="50"/>
       <c r="S179" s="50"/>
       <c r="T179" s="50" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="U179" s="50"/>
       <c r="V179" s="50"/>
@@ -10040,60 +10123,64 @@
       <c r="AE179" s="50"/>
       <c r="AF179" s="50"/>
       <c r="AG179" s="51" t="s">
-        <v>176</v>
+        <v>140</v>
       </c>
       <c r="AH179" s="50"/>
       <c r="AI179" s="50"/>
     </row>
     <row r="180" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B180" s="53" t="s">
-        <v>186</v>
+      <c r="A180" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B180" s="52" t="s">
+        <v>233</v>
       </c>
       <c r="C180" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D180" s="51"/>
-      <c r="E180" s="51"/>
-      <c r="F180" s="51"/>
-      <c r="G180" s="51"/>
-      <c r="H180" s="51"/>
-      <c r="I180" s="51"/>
-      <c r="J180" s="51"/>
-      <c r="K180" s="51"/>
-      <c r="L180" s="51"/>
-      <c r="M180" s="51"/>
-      <c r="N180" s="51"/>
-      <c r="O180" s="51"/>
-      <c r="P180" s="51"/>
-      <c r="Q180" s="51"/>
-      <c r="R180" s="51"/>
-      <c r="S180" s="51"/>
-      <c r="T180" s="51"/>
-      <c r="U180" s="51"/>
-      <c r="V180" s="51"/>
-      <c r="W180" s="51"/>
-      <c r="X180" s="51"/>
-      <c r="Y180" s="51"/>
-      <c r="Z180" s="51"/>
-      <c r="AA180" s="51"/>
-      <c r="AB180" s="51"/>
-      <c r="AC180" s="51"/>
-      <c r="AD180" s="51"/>
-      <c r="AE180" s="51"/>
-      <c r="AF180" s="51"/>
-      <c r="AG180" s="51"/>
-      <c r="AH180" s="51"/>
-      <c r="AI180" s="51"/>
+      <c r="D180" s="50"/>
+      <c r="E180" s="50"/>
+      <c r="F180" s="50"/>
+      <c r="G180" s="50"/>
+      <c r="H180" s="50"/>
+      <c r="I180" s="50"/>
+      <c r="J180" s="50"/>
+      <c r="K180" s="50"/>
+      <c r="L180" s="50"/>
+      <c r="M180" s="50"/>
+      <c r="N180" s="50"/>
+      <c r="O180" s="50"/>
+      <c r="P180" s="50"/>
+      <c r="Q180" s="50"/>
+      <c r="R180" s="50"/>
+      <c r="S180" s="50"/>
+      <c r="T180" s="50" t="s">
+        <v>448</v>
+      </c>
+      <c r="U180" s="50"/>
+      <c r="V180" s="50"/>
+      <c r="W180" s="50"/>
+      <c r="X180" s="50"/>
+      <c r="Y180" s="50"/>
+      <c r="Z180" s="50"/>
+      <c r="AA180" s="50"/>
+      <c r="AB180" s="50"/>
+      <c r="AC180" s="50"/>
+      <c r="AD180" s="50"/>
+      <c r="AE180" s="50"/>
+      <c r="AF180" s="50"/>
+      <c r="AG180" s="51" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH180" s="50"/>
+      <c r="AI180" s="50"/>
     </row>
     <row r="181" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="49" t="s">
         <v>78</v>
       </c>
       <c r="B181" s="52" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="C181" s="50" t="s">
         <v>45</v>
@@ -10114,8 +10201,8 @@
       <c r="Q181" s="50"/>
       <c r="R181" s="50"/>
       <c r="S181" s="50"/>
-      <c r="T181" s="51" t="s">
-        <v>190</v>
+      <c r="T181" s="50" t="s">
+        <v>449</v>
       </c>
       <c r="U181" s="50"/>
       <c r="V181" s="50"/>
@@ -10130,7 +10217,7 @@
       <c r="AE181" s="50"/>
       <c r="AF181" s="50"/>
       <c r="AG181" s="51" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="AH181" s="50"/>
       <c r="AI181" s="50"/>
@@ -10140,7 +10227,7 @@
         <v>78</v>
       </c>
       <c r="B182" s="52" t="s">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="C182" s="50" t="s">
         <v>45</v>
@@ -10161,8 +10248,8 @@
       <c r="Q182" s="50"/>
       <c r="R182" s="50"/>
       <c r="S182" s="50"/>
-      <c r="T182" s="51" t="s">
-        <v>193</v>
+      <c r="T182" s="50" t="s">
+        <v>450</v>
       </c>
       <c r="U182" s="50"/>
       <c r="V182" s="50"/>
@@ -10177,7 +10264,7 @@
       <c r="AE182" s="50"/>
       <c r="AF182" s="50"/>
       <c r="AG182" s="51" t="s">
-        <v>67</v>
+        <v>155</v>
       </c>
       <c r="AH182" s="50"/>
       <c r="AI182" s="50"/>
@@ -10187,7 +10274,7 @@
         <v>78</v>
       </c>
       <c r="B183" s="52" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="C183" s="50" t="s">
         <v>45</v>
@@ -10208,8 +10295,8 @@
       <c r="Q183" s="50"/>
       <c r="R183" s="50"/>
       <c r="S183" s="50"/>
-      <c r="T183" s="51" t="s">
-        <v>195</v>
+      <c r="T183" s="50" t="s">
+        <v>451</v>
       </c>
       <c r="U183" s="50"/>
       <c r="V183" s="50"/>
@@ -10224,7 +10311,7 @@
       <c r="AE183" s="50"/>
       <c r="AF183" s="50"/>
       <c r="AG183" s="51" t="s">
-        <v>196</v>
+        <v>163</v>
       </c>
       <c r="AH183" s="50"/>
       <c r="AI183" s="50"/>
@@ -10234,7 +10321,7 @@
         <v>78</v>
       </c>
       <c r="B184" s="52" t="s">
-        <v>197</v>
+        <v>237</v>
       </c>
       <c r="C184" s="50" t="s">
         <v>45</v>
@@ -10255,8 +10342,8 @@
       <c r="Q184" s="50"/>
       <c r="R184" s="50"/>
       <c r="S184" s="50"/>
-      <c r="T184" s="51" t="s">
-        <v>198</v>
+      <c r="T184" s="50" t="s">
+        <v>452</v>
       </c>
       <c r="U184" s="50"/>
       <c r="V184" s="50"/>
@@ -10271,7 +10358,7 @@
       <c r="AE184" s="50"/>
       <c r="AF184" s="50"/>
       <c r="AG184" s="51" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="AH184" s="50"/>
       <c r="AI184" s="50"/>
@@ -10281,7 +10368,7 @@
         <v>78</v>
       </c>
       <c r="B185" s="52" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="C185" s="50" t="s">
         <v>45</v>
@@ -10302,8 +10389,8 @@
       <c r="Q185" s="50"/>
       <c r="R185" s="50"/>
       <c r="S185" s="50"/>
-      <c r="T185" s="51" t="s">
-        <v>200</v>
+      <c r="T185" s="50" t="s">
+        <v>453</v>
       </c>
       <c r="U185" s="50"/>
       <c r="V185" s="50"/>
@@ -10318,19 +10405,21 @@
       <c r="AE185" s="50"/>
       <c r="AF185" s="50"/>
       <c r="AG185" s="51" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="AH185" s="50"/>
       <c r="AI185" s="50"/>
     </row>
     <row r="186" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="53" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B186" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="C186" s="51"/>
+      <c r="C186" s="50" t="s">
+        <v>45</v>
+      </c>
       <c r="D186" s="51"/>
       <c r="E186" s="51"/>
       <c r="F186" s="51"/>
@@ -10365,52 +10454,328 @@
       <c r="AI186" s="51"/>
     </row>
     <row r="187" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="53" t="s">
+      <c r="A187" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B187" s="52" t="s">
+        <v>189</v>
+      </c>
+      <c r="C187" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D187" s="50"/>
+      <c r="E187" s="50"/>
+      <c r="F187" s="50"/>
+      <c r="G187" s="50"/>
+      <c r="H187" s="50"/>
+      <c r="I187" s="50"/>
+      <c r="J187" s="50"/>
+      <c r="K187" s="50"/>
+      <c r="L187" s="50"/>
+      <c r="M187" s="50"/>
+      <c r="N187" s="50"/>
+      <c r="O187" s="50"/>
+      <c r="P187" s="50"/>
+      <c r="Q187" s="50"/>
+      <c r="R187" s="50"/>
+      <c r="S187" s="50"/>
+      <c r="T187" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="U187" s="50"/>
+      <c r="V187" s="50"/>
+      <c r="W187" s="50"/>
+      <c r="X187" s="50"/>
+      <c r="Y187" s="50"/>
+      <c r="Z187" s="50"/>
+      <c r="AA187" s="50"/>
+      <c r="AB187" s="50"/>
+      <c r="AC187" s="50"/>
+      <c r="AD187" s="50"/>
+      <c r="AE187" s="50"/>
+      <c r="AF187" s="50"/>
+      <c r="AG187" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH187" s="50"/>
+      <c r="AI187" s="50"/>
+    </row>
+    <row r="188" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A188" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B188" s="52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C188" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D188" s="50"/>
+      <c r="E188" s="50"/>
+      <c r="F188" s="50"/>
+      <c r="G188" s="50"/>
+      <c r="H188" s="50"/>
+      <c r="I188" s="50"/>
+      <c r="J188" s="50"/>
+      <c r="K188" s="50"/>
+      <c r="L188" s="50"/>
+      <c r="M188" s="50"/>
+      <c r="N188" s="50"/>
+      <c r="O188" s="50"/>
+      <c r="P188" s="50"/>
+      <c r="Q188" s="50"/>
+      <c r="R188" s="50"/>
+      <c r="S188" s="50"/>
+      <c r="T188" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="U188" s="50"/>
+      <c r="V188" s="50"/>
+      <c r="W188" s="50"/>
+      <c r="X188" s="50"/>
+      <c r="Y188" s="50"/>
+      <c r="Z188" s="50"/>
+      <c r="AA188" s="50"/>
+      <c r="AB188" s="50"/>
+      <c r="AC188" s="50"/>
+      <c r="AD188" s="50"/>
+      <c r="AE188" s="50"/>
+      <c r="AF188" s="50"/>
+      <c r="AG188" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH188" s="50"/>
+      <c r="AI188" s="50"/>
+    </row>
+    <row r="189" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B189" s="52" t="s">
+        <v>194</v>
+      </c>
+      <c r="C189" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D189" s="50"/>
+      <c r="E189" s="50"/>
+      <c r="F189" s="50"/>
+      <c r="G189" s="50"/>
+      <c r="H189" s="50"/>
+      <c r="I189" s="50"/>
+      <c r="J189" s="50"/>
+      <c r="K189" s="50"/>
+      <c r="L189" s="50"/>
+      <c r="M189" s="50"/>
+      <c r="N189" s="50"/>
+      <c r="O189" s="50"/>
+      <c r="P189" s="50"/>
+      <c r="Q189" s="50"/>
+      <c r="R189" s="50"/>
+      <c r="S189" s="50"/>
+      <c r="T189" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="U189" s="50"/>
+      <c r="V189" s="50"/>
+      <c r="W189" s="50"/>
+      <c r="X189" s="50"/>
+      <c r="Y189" s="50"/>
+      <c r="Z189" s="50"/>
+      <c r="AA189" s="50"/>
+      <c r="AB189" s="50"/>
+      <c r="AC189" s="50"/>
+      <c r="AD189" s="50"/>
+      <c r="AE189" s="50"/>
+      <c r="AF189" s="50"/>
+      <c r="AG189" s="51" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH189" s="50"/>
+      <c r="AI189" s="50"/>
+    </row>
+    <row r="190" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B190" s="52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C190" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D190" s="50"/>
+      <c r="E190" s="50"/>
+      <c r="F190" s="50"/>
+      <c r="G190" s="50"/>
+      <c r="H190" s="50"/>
+      <c r="I190" s="50"/>
+      <c r="J190" s="50"/>
+      <c r="K190" s="50"/>
+      <c r="L190" s="50"/>
+      <c r="M190" s="50"/>
+      <c r="N190" s="50"/>
+      <c r="O190" s="50"/>
+      <c r="P190" s="50"/>
+      <c r="Q190" s="50"/>
+      <c r="R190" s="50"/>
+      <c r="S190" s="50"/>
+      <c r="T190" s="51" t="s">
+        <v>198</v>
+      </c>
+      <c r="U190" s="50"/>
+      <c r="V190" s="50"/>
+      <c r="W190" s="50"/>
+      <c r="X190" s="50"/>
+      <c r="Y190" s="50"/>
+      <c r="Z190" s="50"/>
+      <c r="AA190" s="50"/>
+      <c r="AB190" s="50"/>
+      <c r="AC190" s="50"/>
+      <c r="AD190" s="50"/>
+      <c r="AE190" s="50"/>
+      <c r="AF190" s="50"/>
+      <c r="AG190" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="AH190" s="50"/>
+      <c r="AI190" s="50"/>
+    </row>
+    <row r="191" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B191" s="52" t="s">
+        <v>199</v>
+      </c>
+      <c r="C191" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D191" s="50"/>
+      <c r="E191" s="50"/>
+      <c r="F191" s="50"/>
+      <c r="G191" s="50"/>
+      <c r="H191" s="50"/>
+      <c r="I191" s="50"/>
+      <c r="J191" s="50"/>
+      <c r="K191" s="50"/>
+      <c r="L191" s="50"/>
+      <c r="M191" s="50"/>
+      <c r="N191" s="50"/>
+      <c r="O191" s="50"/>
+      <c r="P191" s="50"/>
+      <c r="Q191" s="50"/>
+      <c r="R191" s="50"/>
+      <c r="S191" s="50"/>
+      <c r="T191" s="51" t="s">
+        <v>200</v>
+      </c>
+      <c r="U191" s="50"/>
+      <c r="V191" s="50"/>
+      <c r="W191" s="50"/>
+      <c r="X191" s="50"/>
+      <c r="Y191" s="50"/>
+      <c r="Z191" s="50"/>
+      <c r="AA191" s="50"/>
+      <c r="AB191" s="50"/>
+      <c r="AC191" s="50"/>
+      <c r="AD191" s="50"/>
+      <c r="AE191" s="50"/>
+      <c r="AF191" s="50"/>
+      <c r="AG191" s="51" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH191" s="50"/>
+      <c r="AI191" s="50"/>
+    </row>
+    <row r="192" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B187" s="53" t="s">
+      <c r="B192" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C192" s="51"/>
+      <c r="D192" s="51"/>
+      <c r="E192" s="51"/>
+      <c r="F192" s="51"/>
+      <c r="G192" s="51"/>
+      <c r="H192" s="51"/>
+      <c r="I192" s="51"/>
+      <c r="J192" s="51"/>
+      <c r="K192" s="51"/>
+      <c r="L192" s="51"/>
+      <c r="M192" s="51"/>
+      <c r="N192" s="51"/>
+      <c r="O192" s="51"/>
+      <c r="P192" s="51"/>
+      <c r="Q192" s="51"/>
+      <c r="R192" s="51"/>
+      <c r="S192" s="51"/>
+      <c r="T192" s="51"/>
+      <c r="U192" s="51"/>
+      <c r="V192" s="51"/>
+      <c r="W192" s="51"/>
+      <c r="X192" s="51"/>
+      <c r="Y192" s="51"/>
+      <c r="Z192" s="51"/>
+      <c r="AA192" s="51"/>
+      <c r="AB192" s="51"/>
+      <c r="AC192" s="51"/>
+      <c r="AD192" s="51"/>
+      <c r="AE192" s="51"/>
+      <c r="AF192" s="51"/>
+      <c r="AG192" s="51"/>
+      <c r="AH192" s="51"/>
+      <c r="AI192" s="51"/>
+    </row>
+    <row r="193" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B193" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C187" s="51"/>
-      <c r="D187" s="51"/>
-      <c r="E187" s="51"/>
-      <c r="F187" s="51"/>
-      <c r="G187" s="51"/>
-      <c r="H187" s="51"/>
-      <c r="I187" s="51"/>
-      <c r="J187" s="51"/>
-      <c r="K187" s="51"/>
-      <c r="L187" s="51"/>
-      <c r="M187" s="51"/>
-      <c r="N187" s="51"/>
-      <c r="O187" s="51"/>
-      <c r="P187" s="51"/>
-      <c r="Q187" s="51"/>
-      <c r="R187" s="51"/>
-      <c r="S187" s="51"/>
-      <c r="T187" s="51"/>
-      <c r="U187" s="51"/>
-      <c r="V187" s="51"/>
-      <c r="W187" s="51"/>
-      <c r="X187" s="51"/>
-      <c r="Y187" s="51"/>
-      <c r="Z187" s="51"/>
-      <c r="AA187" s="51"/>
-      <c r="AB187" s="51"/>
-      <c r="AC187" s="51"/>
-      <c r="AD187" s="51"/>
-      <c r="AE187" s="51"/>
-      <c r="AF187" s="51"/>
-      <c r="AG187" s="51"/>
-      <c r="AH187" s="51"/>
-      <c r="AI187" s="51"/>
+      <c r="C193" s="51"/>
+      <c r="D193" s="51"/>
+      <c r="E193" s="51"/>
+      <c r="F193" s="51"/>
+      <c r="G193" s="51"/>
+      <c r="H193" s="51"/>
+      <c r="I193" s="51"/>
+      <c r="J193" s="51"/>
+      <c r="K193" s="51"/>
+      <c r="L193" s="51"/>
+      <c r="M193" s="51"/>
+      <c r="N193" s="51"/>
+      <c r="O193" s="51"/>
+      <c r="P193" s="51"/>
+      <c r="Q193" s="51"/>
+      <c r="R193" s="51"/>
+      <c r="S193" s="51"/>
+      <c r="T193" s="51"/>
+      <c r="U193" s="51"/>
+      <c r="V193" s="51"/>
+      <c r="W193" s="51"/>
+      <c r="X193" s="51"/>
+      <c r="Y193" s="51"/>
+      <c r="Z193" s="51"/>
+      <c r="AA193" s="51"/>
+      <c r="AB193" s="51"/>
+      <c r="AC193" s="51"/>
+      <c r="AD193" s="51"/>
+      <c r="AE193" s="51"/>
+      <c r="AF193" s="51"/>
+      <c r="AG193" s="51"/>
+      <c r="AH193" s="51"/>
+      <c r="AI193" s="51"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="A87:A111 A113:A117 A119:A166 A18:A21">
+    <dataValidation type="list" allowBlank="1" sqref="A93:A117 A119:A123 A125:A172 A18:A25">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:F16 I17 J18:J21 I22:I187">
+    <dataValidation type="list" allowBlank="1" sqref="E2:F16 I17 J18:J25 I26:I29 D30:E30 I31:I193">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10423,11 +10788,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:A17"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10510,10 +10875,10 @@
         <v>240</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>247</v>
+        <v>581</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>248</v>
+        <v>582</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -10534,10 +10899,10 @@
         <v>240</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>249</v>
+        <v>583</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>250</v>
+        <v>583</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -10558,10 +10923,10 @@
         <v>240</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D6" s="19"/>
       <c r="E6" s="19"/>
@@ -10579,37 +10944,37 @@
     </row>
     <row r="7" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
+        <v>553</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>552</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
     </row>
     <row r="8" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>253</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>257</v>
       </c>
       <c r="D8" s="18"/>
       <c r="E8" s="18"/>
@@ -10627,13 +10992,13 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>112</v>
+        <v>255</v>
       </c>
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
@@ -10651,13 +11016,13 @@
     </row>
     <row r="10" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="18" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>275</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>278</v>
+        <v>111</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>112</v>
       </c>
       <c r="D10" s="18"/>
       <c r="E10" s="18"/>
@@ -10675,13 +11040,13 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>273</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="19" t="s">
         <v>276</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>279</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -10699,13 +11064,13 @@
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>274</v>
+      </c>
+      <c r="C12" s="19" t="s">
         <v>277</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>280</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -10723,13 +11088,13 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>177</v>
+        <v>275</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -10747,13 +11112,13 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>541</v>
+        <v>271</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>181</v>
+        <v>272</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -10771,13 +11136,13 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D15" s="18"/>
       <c r="E15" s="18"/>
@@ -10795,13 +11160,13 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>283</v>
+        <v>183</v>
       </c>
       <c r="D16" s="18"/>
       <c r="E16" s="18"/>
@@ -10819,13 +11184,13 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -10843,24 +11208,24 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>242</v>
+        <v>537</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
+        <v>282</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
@@ -10870,10 +11235,10 @@
         <v>242</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D19" s="19"/>
       <c r="E19" s="19"/>
@@ -10894,10 +11259,10 @@
         <v>242</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>111</v>
+        <v>245</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>112</v>
+        <v>246</v>
       </c>
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
@@ -10915,37 +11280,37 @@
     </row>
     <row r="21" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="18"/>
+        <v>112</v>
+      </c>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -10963,13 +11328,13 @@
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>260</v>
+        <v>269</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>270</v>
       </c>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -10987,13 +11352,13 @@
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>258</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>262</v>
       </c>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -11011,13 +11376,13 @@
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -11035,13 +11400,13 @@
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -11059,13 +11424,13 @@
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>177</v>
+        <v>263</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>178</v>
+        <v>264</v>
       </c>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -11082,34 +11447,114 @@
       <c r="P27" s="18"/>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C28" s="15"/>
+      <c r="A28" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C29" s="15"/>
+      <c r="A29" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>562</v>
+      </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C30" s="15"/>
+      <c r="A30" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>560</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>563</v>
+      </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C31" s="15"/>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="15"/>
-    </row>
-    <row r="33" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="15"/>
-    </row>
-    <row r="34" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="15"/>
-    </row>
-    <row r="35" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="15"/>
-    </row>
-    <row r="36" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18" t="s">
+        <v>558</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="B32" s="60" t="s">
+        <v>569</v>
+      </c>
+      <c r="C32" s="61" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>571</v>
+      </c>
+      <c r="C33" s="61" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="B34" s="60" t="s">
+        <v>573</v>
+      </c>
+      <c r="C34" s="61" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="59" t="s">
+        <v>568</v>
+      </c>
+      <c r="B35" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C35" s="61" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="15"/>
     </row>
-    <row r="37" spans="3:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="15"/>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11180,14 +11625,14 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44125.854735069443</v>
+        <v>44128.615454282408</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/hbc_followup.xlsx
+++ b/forms/app/hbc_followup.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="584">
   <si>
     <t>form_title</t>
   </si>
@@ -1556,12 +1556,6 @@
     <t>Recurrent miscarriages (for Females)</t>
   </si>
   <si>
-    <t>sex</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
     <t>clinical_conditions</t>
   </si>
   <si>
@@ -1614,12 +1608,6 @@
   </si>
   <si>
     <t>CD4 Count</t>
-  </si>
-  <si>
-    <t>selected(../../sex = 'female' )</t>
-  </si>
-  <si>
-    <t>selected(../../sex = 'female')</t>
   </si>
   <si>
     <t>selected(../../existing_conditions/hiv, 'yes')</t>
@@ -2391,13 +2379,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ193"/>
+  <dimension ref="A1:AJ192"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J169" sqref="J169"/>
+      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2781,81 +2769,79 @@
       <c r="AA8" s="29"/>
     </row>
     <row r="9" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="26" t="s">
-        <v>504</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>505</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="28"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="29"/>
-      <c r="U9" s="29"/>
-      <c r="V9" s="29"/>
-      <c r="W9" s="29"/>
-      <c r="X9" s="29"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
+      <c r="B9" s="30" t="s">
+        <v>457</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="27"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
     </row>
     <row r="10" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>457</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>458</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="27"/>
-      <c r="S10" s="27"/>
-      <c r="T10" s="27"/>
-      <c r="U10" s="27"/>
-      <c r="V10" s="27"/>
-      <c r="W10" s="27"/>
-      <c r="X10" s="27"/>
-      <c r="Y10" s="27"/>
-      <c r="Z10" s="27"/>
-      <c r="AA10" s="27"/>
+      <c r="A10" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="28"/>
+      <c r="R10" s="28"/>
+      <c r="S10" s="29"/>
+      <c r="T10" s="29"/>
+      <c r="U10" s="29"/>
+      <c r="V10" s="29"/>
+      <c r="W10" s="29"/>
+      <c r="X10" s="29"/>
+      <c r="Y10" s="29"/>
+      <c r="Z10" s="29"/>
+      <c r="AA10" s="29"/>
     </row>
     <row r="11" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="26" t="s">
         <v>68</v>
       </c>
       <c r="B11" s="26" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C11" s="28"/>
       <c r="D11" s="28"/>
@@ -2871,7 +2857,9 @@
       <c r="N11" s="28"/>
       <c r="O11" s="28"/>
       <c r="P11" s="28"/>
-      <c r="Q11" s="28"/>
+      <c r="Q11" s="28" t="s">
+        <v>50</v>
+      </c>
       <c r="R11" s="28"/>
       <c r="S11" s="29"/>
       <c r="T11" s="29"/>
@@ -2884,75 +2872,76 @@
       <c r="AA11" s="29"/>
     </row>
     <row r="12" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12" s="28"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="29"/>
-      <c r="U12" s="29"/>
-      <c r="V12" s="29"/>
-      <c r="W12" s="29"/>
-      <c r="X12" s="29"/>
-      <c r="Y12" s="29"/>
-      <c r="Z12" s="29"/>
-      <c r="AA12" s="29"/>
+      <c r="A12" s="31"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AA12" s="32"/>
     </row>
     <row r="13" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="31"/>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="31"/>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
-      <c r="R13" s="31"/>
-      <c r="S13" s="32"/>
-      <c r="T13" s="32"/>
-      <c r="U13" s="32"/>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32"/>
-      <c r="X13" s="32"/>
-      <c r="Y13" s="32"/>
-      <c r="Z13" s="32"/>
-      <c r="AA13" s="32"/>
+      <c r="A13" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="21" t="s">
+        <v>459</v>
+      </c>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="22"/>
+      <c r="Y13" s="22"/>
+      <c r="Z13" s="22"/>
+      <c r="AA13" s="22"/>
     </row>
     <row r="14" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
         <v>78</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>45</v>
@@ -2964,6 +2953,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="21"/>
@@ -2973,7 +2963,7 @@
       <c r="R14" s="21"/>
       <c r="S14" s="22"/>
       <c r="T14" s="21" t="s">
-        <v>459</v>
+        <v>91</v>
       </c>
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
@@ -2988,7 +2978,7 @@
         <v>78</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>45</v>
@@ -3010,7 +3000,7 @@
       <c r="R15" s="21"/>
       <c r="S15" s="22"/>
       <c r="T15" s="21" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="U15" s="22"/>
       <c r="V15" s="22"/>
@@ -3021,65 +3011,74 @@
       <c r="AA15" s="22"/>
     </row>
     <row r="16" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
     </row>
     <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
+      <c r="A17" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>454</v>
+      </c>
+      <c r="D17" s="35"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="35"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="36"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="36"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="36"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="36"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="36"/>
+      <c r="AG17" s="36"/>
+      <c r="AH17" s="36"/>
+      <c r="AI17" s="36"/>
+      <c r="AJ17" s="36"/>
     </row>
     <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>42</v>
+        <v>540</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>454</v>
+        <v>241</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="35"/>
       <c r="F18" s="35"/>
       <c r="G18" s="35"/>
       <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
+      <c r="I18" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="J18" s="36"/>
       <c r="K18" s="36"/>
       <c r="L18" s="36"/>
@@ -3110,22 +3109,16 @@
     </row>
     <row r="19" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>544</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>241</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B19" s="33"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="35"/>
       <c r="E19" s="35"/>
       <c r="F19" s="35"/>
       <c r="G19" s="35"/>
       <c r="H19" s="35"/>
-      <c r="I19" s="35" t="s">
-        <v>57</v>
-      </c>
+      <c r="I19" s="35"/>
       <c r="J19" s="36"/>
       <c r="K19" s="36"/>
       <c r="L19" s="36"/>
@@ -3154,93 +3147,97 @@
       <c r="AI19" s="36"/>
       <c r="AJ19" s="36"/>
     </row>
-    <row r="20" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="36"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="36"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="36"/>
-      <c r="AC20" s="36"/>
-      <c r="AD20" s="36"/>
-      <c r="AE20" s="36"/>
-      <c r="AF20" s="36"/>
-      <c r="AG20" s="36"/>
-      <c r="AH20" s="36"/>
-      <c r="AI20" s="36"/>
-      <c r="AJ20" s="36"/>
-    </row>
-    <row r="21" spans="1:36" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="56"/>
-      <c r="S21" s="56"/>
-      <c r="T21" s="56"/>
-      <c r="U21" s="56"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="57"/>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="57"/>
-      <c r="AC21" s="57"/>
-      <c r="AD21" s="57"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="57"/>
-      <c r="AG21" s="57"/>
-      <c r="AH21" s="57"/>
-      <c r="AI21" s="57"/>
-      <c r="AJ21" s="57"/>
+    <row r="20" spans="1:36" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="56"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="56"/>
+      <c r="O20" s="56"/>
+      <c r="P20" s="56"/>
+      <c r="Q20" s="56"/>
+      <c r="R20" s="56"/>
+      <c r="S20" s="56"/>
+      <c r="T20" s="56"/>
+      <c r="U20" s="56"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="57"/>
+      <c r="AJ20" s="57"/>
+    </row>
+    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>550</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="36"/>
+      <c r="N21" s="34"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
+      <c r="R21" s="34"/>
+      <c r="S21" s="34"/>
+      <c r="T21" s="34"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="36"/>
+      <c r="W21" s="34"/>
+      <c r="X21" s="36"/>
+      <c r="Y21" s="36"/>
+      <c r="Z21" s="36"/>
+      <c r="AA21" s="36"/>
+      <c r="AB21" s="36"/>
+      <c r="AC21" s="36"/>
+      <c r="AD21" s="36"/>
+      <c r="AE21" s="36"/>
+      <c r="AF21" s="36"/>
+      <c r="AG21" s="36"/>
+      <c r="AH21" s="36"/>
+      <c r="AI21" s="36"/>
+      <c r="AJ21" s="36"/>
     </row>
     <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>42</v>
+        <v>552</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>45</v>
+        <v>553</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
@@ -3278,14 +3275,10 @@
     </row>
     <row r="23" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>556</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>555</v>
-      </c>
-      <c r="C23" s="34" t="s">
-        <v>557</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B23" s="33"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="35"/>
       <c r="E23" s="35"/>
       <c r="F23" s="35"/>
@@ -3320,106 +3313,111 @@
       <c r="AI23" s="36"/>
       <c r="AJ23" s="36"/>
     </row>
-    <row r="24" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="36"/>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
-      <c r="AD24" s="36"/>
-      <c r="AE24" s="36"/>
-      <c r="AF24" s="36"/>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-    </row>
-    <row r="25" spans="1:36" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="57"/>
-      <c r="K25" s="57"/>
-      <c r="L25" s="57"/>
-      <c r="M25" s="57"/>
-      <c r="N25" s="56"/>
-      <c r="O25" s="56"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="56"/>
-      <c r="R25" s="56"/>
-      <c r="S25" s="56"/>
-      <c r="T25" s="56"/>
-      <c r="U25" s="56"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="57"/>
-      <c r="Y25" s="57"/>
-      <c r="Z25" s="57"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="57"/>
-      <c r="AC25" s="57"/>
-      <c r="AD25" s="57"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="57"/>
-      <c r="AJ25" s="57"/>
+    <row r="24" spans="1:36" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="56"/>
+      <c r="B24" s="56"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="57"/>
+      <c r="K24" s="57"/>
+      <c r="L24" s="57"/>
+      <c r="M24" s="57"/>
+      <c r="N24" s="56"/>
+      <c r="O24" s="56"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="56"/>
+      <c r="R24" s="56"/>
+      <c r="S24" s="56"/>
+      <c r="T24" s="56"/>
+      <c r="U24" s="56"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="56"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="57"/>
+      <c r="AA24" s="57"/>
+      <c r="AB24" s="57"/>
+      <c r="AC24" s="57"/>
+      <c r="AD24" s="57"/>
+      <c r="AE24" s="57"/>
+      <c r="AF24" s="57"/>
+      <c r="AG24" s="57"/>
+      <c r="AH24" s="57"/>
+      <c r="AI24" s="57"/>
+      <c r="AJ24" s="57"/>
+    </row>
+    <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" s="37" t="s">
+        <v>462</v>
+      </c>
+      <c r="C25" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+      <c r="J25" s="34" t="s">
+        <v>580</v>
+      </c>
+      <c r="K25" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="35"/>
+      <c r="AB25" s="35"/>
+      <c r="AC25" s="35"/>
+      <c r="AD25" s="35"/>
+      <c r="AE25" s="35"/>
+      <c r="AF25" s="35"/>
+      <c r="AG25" s="35"/>
+      <c r="AH25" s="35"/>
+      <c r="AI25" s="35"/>
     </row>
     <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="37" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>462</v>
+        <v>202</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>461</v>
+        <v>203</v>
       </c>
       <c r="D26" s="35"/>
       <c r="E26" s="35"/>
       <c r="F26" s="35"/>
       <c r="G26" s="35"/>
       <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="34" t="s">
-        <v>584</v>
-      </c>
-      <c r="K26" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="I26" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="J26" s="35"/>
+      <c r="K26" s="35"/>
       <c r="L26" s="35"/>
       <c r="M26" s="35"/>
       <c r="N26" s="35"/>
@@ -3447,23 +3445,23 @@
     </row>
     <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="37" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>203</v>
+        <v>523</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
       <c r="G27" s="35"/>
       <c r="H27" s="35"/>
-      <c r="I27" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J27" s="35"/>
+      <c r="I27" s="35"/>
+      <c r="J27" s="35" t="s">
+        <v>204</v>
+      </c>
       <c r="K27" s="35"/>
       <c r="L27" s="35"/>
       <c r="M27" s="35"/>
@@ -3484,7 +3482,9 @@
       <c r="AB27" s="35"/>
       <c r="AC27" s="35"/>
       <c r="AD27" s="35"/>
-      <c r="AE27" s="35"/>
+      <c r="AE27" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="AF27" s="35"/>
       <c r="AG27" s="35"/>
       <c r="AH27" s="35"/>
@@ -3492,20 +3492,22 @@
     </row>
     <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>207</v>
+        <v>118</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>527</v>
+        <v>464</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
       <c r="F28" s="35"/>
       <c r="G28" s="35"/>
       <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
+      <c r="I28" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="J28" s="35" t="s">
         <v>204</v>
       </c>
@@ -3529,9 +3531,7 @@
       <c r="AB28" s="35"/>
       <c r="AC28" s="35"/>
       <c r="AD28" s="35"/>
-      <c r="AE28" s="35" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE28" s="35"/>
       <c r="AF28" s="35"/>
       <c r="AG28" s="35"/>
       <c r="AH28" s="35"/>
@@ -3539,24 +3539,28 @@
     </row>
     <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
-        <v>110</v>
+        <v>331</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>118</v>
+        <v>507</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>464</v>
-      </c>
-      <c r="D29" s="35"/>
+        <v>562</v>
+      </c>
+      <c r="D29" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
+      <c r="F29" s="35" t="s">
+        <v>561</v>
+      </c>
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
       <c r="I29" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="J29" s="35" t="s">
-        <v>204</v>
+      <c r="J29" s="34" t="s">
+        <v>563</v>
       </c>
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
@@ -3566,48 +3570,36 @@
       <c r="P29" s="35"/>
       <c r="Q29" s="35"/>
       <c r="R29" s="35"/>
-      <c r="S29" s="35"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-      <c r="Z29" s="35"/>
-      <c r="AA29" s="35"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="35"/>
-      <c r="AD29" s="35"/>
-      <c r="AE29" s="35"/>
-      <c r="AF29" s="35"/>
-      <c r="AG29" s="35"/>
-      <c r="AH29" s="35"/>
-      <c r="AI29" s="35"/>
+      <c r="S29" s="58"/>
+      <c r="T29" s="58"/>
+      <c r="U29" s="58"/>
+      <c r="V29" s="58"/>
+      <c r="W29" s="58"/>
+      <c r="X29" s="58"/>
+      <c r="Y29" s="58"/>
+      <c r="Z29" s="58"/>
+      <c r="AA29" s="58"/>
     </row>
     <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="37" t="s">
-        <v>331</v>
+        <v>110</v>
       </c>
       <c r="B30" s="37" t="s">
-        <v>509</v>
+        <v>208</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>566</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>57</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="D30" s="35"/>
       <c r="E30" s="35"/>
-      <c r="F30" s="35" t="s">
-        <v>565</v>
-      </c>
+      <c r="F30" s="35"/>
       <c r="G30" s="35"/>
       <c r="H30" s="35"/>
       <c r="I30" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="J30" s="34" t="s">
-        <v>567</v>
+      <c r="J30" s="35" t="s">
+        <v>204</v>
       </c>
       <c r="K30" s="35"/>
       <c r="L30" s="35"/>
@@ -3617,25 +3609,33 @@
       <c r="P30" s="35"/>
       <c r="Q30" s="35"/>
       <c r="R30" s="35"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="58"/>
-      <c r="U30" s="58"/>
-      <c r="V30" s="58"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="58"/>
-      <c r="Y30" s="58"/>
-      <c r="Z30" s="58"/>
-      <c r="AA30" s="58"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
+      <c r="AD30" s="35"/>
+      <c r="AE30" s="35"/>
+      <c r="AF30" s="35"/>
+      <c r="AG30" s="35"/>
+      <c r="AH30" s="35"/>
+      <c r="AI30" s="35"/>
     </row>
     <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="37" t="s">
         <v>110</v>
       </c>
       <c r="B31" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>463</v>
+        <v>209</v>
+      </c>
+      <c r="C31" s="34" t="s">
+        <v>465</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -3646,7 +3646,7 @@
         <v>57</v>
       </c>
       <c r="J31" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K31" s="35"/>
       <c r="L31" s="35"/>
@@ -3679,10 +3679,10 @@
         <v>110</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>209</v>
+        <v>471</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
@@ -3726,10 +3726,10 @@
         <v>110</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -3773,10 +3773,10 @@
         <v>110</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>473</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>472</v>
+        <v>216</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>210</v>
       </c>
       <c r="D34" s="35"/>
       <c r="E34" s="35"/>
@@ -3787,7 +3787,7 @@
         <v>57</v>
       </c>
       <c r="J34" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K34" s="35"/>
       <c r="L34" s="35"/>
@@ -3820,10 +3820,10 @@
         <v>110</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D35" s="35"/>
       <c r="E35" s="35"/>
@@ -3834,7 +3834,7 @@
         <v>57</v>
       </c>
       <c r="J35" s="35" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K35" s="35"/>
       <c r="L35" s="35"/>
@@ -3867,10 +3867,10 @@
         <v>110</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D36" s="35"/>
       <c r="E36" s="35"/>
@@ -3914,10 +3914,10 @@
         <v>110</v>
       </c>
       <c r="B37" s="37" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D37" s="35"/>
       <c r="E37" s="35"/>
@@ -3928,7 +3928,7 @@
         <v>57</v>
       </c>
       <c r="J37" s="35" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K37" s="35"/>
       <c r="L37" s="35"/>
@@ -3961,10 +3961,10 @@
         <v>110</v>
       </c>
       <c r="B38" s="37" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D38" s="35"/>
       <c r="E38" s="35"/>
@@ -4008,10 +4008,10 @@
         <v>110</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C39" s="35" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D39" s="35"/>
       <c r="E39" s="35"/>
@@ -4022,7 +4022,7 @@
         <v>57</v>
       </c>
       <c r="J39" s="35" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K39" s="35"/>
       <c r="L39" s="35"/>
@@ -4055,10 +4055,10 @@
         <v>110</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>221</v>
+        <v>466</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>215</v>
+        <v>467</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
@@ -4102,10 +4102,10 @@
         <v>110</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
@@ -4146,25 +4146,21 @@
     </row>
     <row r="42" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="37" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="B42" s="37" t="s">
-        <v>469</v>
+        <v>225</v>
       </c>
       <c r="C42" s="35" t="s">
-        <v>468</v>
+        <v>45</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
       <c r="F42" s="35"/>
       <c r="G42" s="35"/>
       <c r="H42" s="35"/>
-      <c r="I42" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J42" s="35" t="s">
-        <v>206</v>
-      </c>
+      <c r="I42" s="35"/>
+      <c r="J42" s="35"/>
       <c r="K42" s="35"/>
       <c r="L42" s="35"/>
       <c r="M42" s="35"/>
@@ -4174,7 +4170,9 @@
       <c r="Q42" s="35"/>
       <c r="R42" s="35"/>
       <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
+      <c r="T42" s="34" t="s">
+        <v>228</v>
+      </c>
       <c r="U42" s="35"/>
       <c r="V42" s="35"/>
       <c r="W42" s="35"/>
@@ -4185,7 +4183,9 @@
       <c r="AB42" s="35"/>
       <c r="AC42" s="35"/>
       <c r="AD42" s="35"/>
-      <c r="AE42" s="35"/>
+      <c r="AE42" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="AF42" s="35"/>
       <c r="AG42" s="35"/>
       <c r="AH42" s="35"/>
@@ -4193,13 +4193,13 @@
     </row>
     <row r="43" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="37" t="s">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="B43" s="37" t="s">
-        <v>225</v>
+        <v>120</v>
       </c>
       <c r="C43" s="35" t="s">
-        <v>45</v>
+        <v>222</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -4207,7 +4207,9 @@
       <c r="G43" s="35"/>
       <c r="H43" s="35"/>
       <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
+      <c r="J43" s="35" t="s">
+        <v>226</v>
+      </c>
       <c r="K43" s="35"/>
       <c r="L43" s="35"/>
       <c r="M43" s="35"/>
@@ -4217,9 +4219,7 @@
       <c r="Q43" s="35"/>
       <c r="R43" s="35"/>
       <c r="S43" s="35"/>
-      <c r="T43" s="34" t="s">
-        <v>228</v>
-      </c>
+      <c r="T43" s="35"/>
       <c r="U43" s="35"/>
       <c r="V43" s="35"/>
       <c r="W43" s="35"/>
@@ -4243,10 +4243,10 @@
         <v>117</v>
       </c>
       <c r="B44" s="37" t="s">
-        <v>120</v>
+        <v>223</v>
       </c>
       <c r="C44" s="35" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="35"/>
@@ -4255,7 +4255,7 @@
       <c r="H44" s="35"/>
       <c r="I44" s="35"/>
       <c r="J44" s="35" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K44" s="35"/>
       <c r="L44" s="35"/>
@@ -4287,23 +4287,17 @@
     </row>
     <row r="45" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="B45" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="35" t="s">
-        <v>224</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B45" s="37"/>
+      <c r="C45" s="35"/>
       <c r="D45" s="35"/>
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
       <c r="G45" s="35"/>
       <c r="H45" s="35"/>
       <c r="I45" s="35"/>
-      <c r="J45" s="35" t="s">
-        <v>227</v>
-      </c>
+      <c r="J45" s="35"/>
       <c r="K45" s="35"/>
       <c r="L45" s="35"/>
       <c r="M45" s="35"/>
@@ -4324,99 +4318,103 @@
       <c r="AB45" s="35"/>
       <c r="AC45" s="35"/>
       <c r="AD45" s="35"/>
-      <c r="AE45" s="35" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE45" s="35"/>
       <c r="AF45" s="35"/>
       <c r="AG45" s="35"/>
       <c r="AH45" s="35"/>
       <c r="AI45" s="35"/>
     </row>
-    <row r="46" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="35"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="35"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
-      <c r="R46" s="35"/>
-      <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="35"/>
-      <c r="V46" s="35"/>
-      <c r="W46" s="35"/>
-      <c r="X46" s="35"/>
-      <c r="Y46" s="35"/>
-      <c r="Z46" s="35"/>
-      <c r="AA46" s="35"/>
-      <c r="AB46" s="35"/>
-      <c r="AC46" s="35"/>
-      <c r="AD46" s="35"/>
-      <c r="AE46" s="35"/>
-      <c r="AF46" s="35"/>
-      <c r="AG46" s="35"/>
-      <c r="AH46" s="35"/>
-      <c r="AI46" s="35"/>
-    </row>
-    <row r="47" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="54"/>
-      <c r="B47" s="54"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="54"/>
-      <c r="K47" s="54"/>
-      <c r="L47" s="54"/>
-      <c r="M47" s="54"/>
-      <c r="N47" s="54"/>
-      <c r="O47" s="54"/>
-      <c r="P47" s="54"/>
-      <c r="Q47" s="54"/>
-      <c r="R47" s="54"/>
-      <c r="S47" s="54"/>
-      <c r="T47" s="54"/>
-      <c r="U47" s="54"/>
-      <c r="V47" s="54"/>
-      <c r="W47" s="54"/>
-      <c r="X47" s="54"/>
-      <c r="Y47" s="54"/>
-      <c r="Z47" s="54"/>
-      <c r="AA47" s="54"/>
-      <c r="AB47" s="54"/>
-      <c r="AC47" s="54"/>
-      <c r="AD47" s="54"/>
-      <c r="AE47" s="54"/>
-      <c r="AF47" s="54"/>
-      <c r="AG47" s="54"/>
-      <c r="AH47" s="54"/>
-      <c r="AI47" s="54"/>
+    <row r="46" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="54"/>
+      <c r="B46" s="54"/>
+      <c r="C46" s="54"/>
+      <c r="D46" s="54"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="54"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="54"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="54"/>
+      <c r="M46" s="54"/>
+      <c r="N46" s="54"/>
+      <c r="O46" s="54"/>
+      <c r="P46" s="54"/>
+      <c r="Q46" s="54"/>
+      <c r="R46" s="54"/>
+      <c r="S46" s="54"/>
+      <c r="T46" s="54"/>
+      <c r="U46" s="54"/>
+      <c r="V46" s="54"/>
+      <c r="W46" s="54"/>
+      <c r="X46" s="54"/>
+      <c r="Y46" s="54"/>
+      <c r="Z46" s="54"/>
+      <c r="AA46" s="54"/>
+      <c r="AB46" s="54"/>
+      <c r="AC46" s="54"/>
+      <c r="AD46" s="54"/>
+      <c r="AE46" s="54"/>
+      <c r="AF46" s="54"/>
+      <c r="AG46" s="54"/>
+      <c r="AH46" s="54"/>
+      <c r="AI46" s="54"/>
+    </row>
+    <row r="47" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>475</v>
+      </c>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L47" s="35"/>
+      <c r="M47" s="35"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="35"/>
+      <c r="P47" s="35"/>
+      <c r="Q47" s="35"/>
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+      <c r="Z47" s="35"/>
+      <c r="AA47" s="35"/>
+      <c r="AB47" s="35"/>
+      <c r="AC47" s="35"/>
+      <c r="AD47" s="35"/>
+      <c r="AE47" s="35"/>
+      <c r="AF47" s="35"/>
+      <c r="AG47" s="35"/>
+      <c r="AH47" s="35"/>
+      <c r="AI47" s="35"/>
     </row>
     <row r="48" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="37" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>474</v>
-      </c>
-      <c r="C48" s="35" t="s">
-        <v>475</v>
+        <v>476</v>
+      </c>
+      <c r="C48" s="34" t="s">
+        <v>477</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -4425,9 +4423,7 @@
       <c r="H48" s="35"/>
       <c r="I48" s="35"/>
       <c r="J48" s="35"/>
-      <c r="K48" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K48" s="35"/>
       <c r="L48" s="35"/>
       <c r="M48" s="35"/>
       <c r="N48" s="35"/>
@@ -4458,10 +4454,10 @@
         <v>117</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>477</v>
+        <v>495</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -4498,13 +4494,13 @@
     </row>
     <row r="50" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="37" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>478</v>
-      </c>
-      <c r="C50" s="34" t="s">
-        <v>495</v>
+        <v>487</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>486</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
@@ -4544,10 +4540,10 @@
         <v>110</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -4587,10 +4583,10 @@
         <v>110</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -4630,10 +4626,10 @@
         <v>110</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -4673,10 +4669,10 @@
         <v>110</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -4716,10 +4712,10 @@
         <v>110</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -4759,10 +4755,10 @@
         <v>110</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
@@ -4799,22 +4795,24 @@
     </row>
     <row r="57" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37" t="s">
-        <v>110</v>
+        <v>572</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>493</v>
+        <v>573</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>484</v>
+        <v>574</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
-      <c r="F57" s="35"/>
+      <c r="F57" s="35" t="s">
+        <v>575</v>
+      </c>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
       <c r="J57" s="35" t="s">
-        <v>525</v>
+        <v>576</v>
       </c>
       <c r="K57" s="35"/>
       <c r="L57" s="35"/>
@@ -4844,25 +4842,21 @@
     </row>
     <row r="58" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="37" t="s">
-        <v>576</v>
+        <v>110</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>577</v>
+        <v>494</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>578</v>
+        <v>485</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
-      <c r="F58" s="35" t="s">
-        <v>579</v>
-      </c>
+      <c r="F58" s="35"/>
       <c r="G58" s="35"/>
       <c r="H58" s="35"/>
       <c r="I58" s="35"/>
-      <c r="J58" s="35" t="s">
-        <v>580</v>
-      </c>
+      <c r="J58" s="35"/>
       <c r="K58" s="35"/>
       <c r="L58" s="35"/>
       <c r="M58" s="35"/>
@@ -4894,10 +4888,10 @@
         <v>110</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -4937,10 +4931,10 @@
         <v>110</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>497</v>
-      </c>
-      <c r="C60" s="35" t="s">
-        <v>496</v>
+        <v>498</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>499</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -4980,10 +4974,10 @@
         <v>110</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>498</v>
-      </c>
-      <c r="C61" s="34" t="s">
-        <v>499</v>
+        <v>501</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>500</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -5023,10 +5017,10 @@
         <v>110</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>501</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>500</v>
+        <v>502</v>
+      </c>
+      <c r="C62" s="34" t="s">
+        <v>503</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -5063,23 +5057,17 @@
     </row>
     <row r="63" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>502</v>
-      </c>
-      <c r="C63" s="34" t="s">
-        <v>503</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B63" s="37"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="35"/>
       <c r="E63" s="35"/>
       <c r="F63" s="35"/>
       <c r="G63" s="35"/>
       <c r="H63" s="35"/>
       <c r="I63" s="35"/>
-      <c r="J63" s="35" t="s">
-        <v>524</v>
-      </c>
+      <c r="J63" s="35"/>
       <c r="K63" s="35"/>
       <c r="L63" s="35"/>
       <c r="M63" s="35"/>
@@ -5106,91 +5094,97 @@
       <c r="AH63" s="35"/>
       <c r="AI63" s="35"/>
     </row>
-    <row r="64" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="37"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
-      <c r="Y64" s="35"/>
-      <c r="Z64" s="35"/>
-      <c r="AA64" s="35"/>
-      <c r="AB64" s="35"/>
-      <c r="AC64" s="35"/>
-      <c r="AD64" s="35"/>
-      <c r="AE64" s="35"/>
-      <c r="AF64" s="35"/>
-      <c r="AG64" s="35"/>
-      <c r="AH64" s="35"/>
-      <c r="AI64" s="35"/>
-    </row>
-    <row r="65" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="54"/>
-      <c r="B65" s="54"/>
-      <c r="C65" s="54"/>
-      <c r="D65" s="54"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="54"/>
-      <c r="S65" s="54"/>
-      <c r="T65" s="54"/>
-      <c r="U65" s="54"/>
-      <c r="V65" s="54"/>
-      <c r="W65" s="54"/>
-      <c r="X65" s="54"/>
-      <c r="Y65" s="54"/>
-      <c r="Z65" s="54"/>
-      <c r="AA65" s="54"/>
-      <c r="AB65" s="54"/>
-      <c r="AC65" s="54"/>
-      <c r="AD65" s="54"/>
-      <c r="AE65" s="54"/>
-      <c r="AF65" s="54"/>
-      <c r="AG65" s="54"/>
-      <c r="AH65" s="54"/>
-      <c r="AI65" s="54"/>
+    <row r="64" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="54"/>
+      <c r="B64" s="54"/>
+      <c r="C64" s="54"/>
+      <c r="D64" s="54"/>
+      <c r="E64" s="54"/>
+      <c r="F64" s="54"/>
+      <c r="G64" s="54"/>
+      <c r="H64" s="54"/>
+      <c r="I64" s="54"/>
+      <c r="J64" s="54"/>
+      <c r="K64" s="54"/>
+      <c r="L64" s="54"/>
+      <c r="M64" s="54"/>
+      <c r="N64" s="54"/>
+      <c r="O64" s="54"/>
+      <c r="P64" s="54"/>
+      <c r="Q64" s="54"/>
+      <c r="R64" s="54"/>
+      <c r="S64" s="54"/>
+      <c r="T64" s="54"/>
+      <c r="U64" s="54"/>
+      <c r="V64" s="54"/>
+      <c r="W64" s="54"/>
+      <c r="X64" s="54"/>
+      <c r="Y64" s="54"/>
+      <c r="Z64" s="54"/>
+      <c r="AA64" s="54"/>
+      <c r="AB64" s="54"/>
+      <c r="AC64" s="54"/>
+      <c r="AD64" s="54"/>
+      <c r="AE64" s="54"/>
+      <c r="AF64" s="54"/>
+      <c r="AG64" s="54"/>
+      <c r="AH64" s="54"/>
+      <c r="AI64" s="54"/>
+    </row>
+    <row r="65" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" s="37" t="s">
+        <v>504</v>
+      </c>
+      <c r="C65" s="35" t="s">
+        <v>505</v>
+      </c>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L65" s="35"/>
+      <c r="M65" s="35"/>
+      <c r="N65" s="35"/>
+      <c r="O65" s="35"/>
+      <c r="P65" s="35"/>
+      <c r="Q65" s="35"/>
+      <c r="R65" s="35"/>
+      <c r="S65" s="35"/>
+      <c r="T65" s="35"/>
+      <c r="U65" s="35"/>
+      <c r="V65" s="35"/>
+      <c r="W65" s="35"/>
+      <c r="X65" s="35"/>
+      <c r="Y65" s="35"/>
+      <c r="Z65" s="35"/>
+      <c r="AA65" s="35"/>
+      <c r="AB65" s="35"/>
+      <c r="AC65" s="35"/>
+      <c r="AD65" s="35"/>
+      <c r="AE65" s="35"/>
+      <c r="AF65" s="35"/>
+      <c r="AG65" s="35"/>
+      <c r="AH65" s="35"/>
+      <c r="AI65" s="35"/>
     </row>
     <row r="66" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="37" t="s">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="B66" s="37" t="s">
         <v>506</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -5199,9 +5193,7 @@
       <c r="H66" s="35"/>
       <c r="I66" s="35"/>
       <c r="J66" s="35"/>
-      <c r="K66" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K66" s="35"/>
       <c r="L66" s="35"/>
       <c r="M66" s="35"/>
       <c r="N66" s="35"/>
@@ -5232,7 +5224,7 @@
         <v>331</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C67" s="35" t="s">
         <v>508</v>
@@ -5318,10 +5310,10 @@
         <v>331</v>
       </c>
       <c r="B69" s="37" t="s">
+        <v>512</v>
+      </c>
+      <c r="C69" s="35" t="s">
         <v>511</v>
-      </c>
-      <c r="C69" s="35" t="s">
-        <v>512</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -5361,10 +5353,10 @@
         <v>331</v>
       </c>
       <c r="B70" s="37" t="s">
+        <v>513</v>
+      </c>
+      <c r="C70" s="35" t="s">
         <v>514</v>
-      </c>
-      <c r="C70" s="35" t="s">
-        <v>513</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -5401,14 +5393,10 @@
     </row>
     <row r="71" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="B71" s="37" t="s">
-        <v>515</v>
-      </c>
-      <c r="C71" s="35" t="s">
-        <v>516</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B71" s="37"/>
+      <c r="C71" s="35"/>
       <c r="D71" s="35"/>
       <c r="E71" s="35"/>
       <c r="F71" s="35"/>
@@ -5442,91 +5430,97 @@
       <c r="AH71" s="35"/>
       <c r="AI71" s="35"/>
     </row>
-    <row r="72" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B72" s="37"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
-      <c r="I72" s="35"/>
-      <c r="J72" s="35"/>
-      <c r="K72" s="35"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="35"/>
-      <c r="N72" s="35"/>
-      <c r="O72" s="35"/>
-      <c r="P72" s="35"/>
-      <c r="Q72" s="35"/>
-      <c r="R72" s="35"/>
-      <c r="S72" s="35"/>
-      <c r="T72" s="35"/>
-      <c r="U72" s="35"/>
-      <c r="V72" s="35"/>
-      <c r="W72" s="35"/>
-      <c r="X72" s="35"/>
-      <c r="Y72" s="35"/>
-      <c r="Z72" s="35"/>
-      <c r="AA72" s="35"/>
-      <c r="AB72" s="35"/>
-      <c r="AC72" s="35"/>
-      <c r="AD72" s="35"/>
-      <c r="AE72" s="35"/>
-      <c r="AF72" s="35"/>
-      <c r="AG72" s="35"/>
-      <c r="AH72" s="35"/>
-      <c r="AI72" s="35"/>
-    </row>
-    <row r="73" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="54"/>
-      <c r="B73" s="54"/>
-      <c r="C73" s="54"/>
-      <c r="D73" s="54"/>
-      <c r="E73" s="54"/>
-      <c r="F73" s="54"/>
-      <c r="G73" s="54"/>
-      <c r="H73" s="54"/>
-      <c r="I73" s="54"/>
-      <c r="J73" s="54"/>
-      <c r="K73" s="54"/>
-      <c r="L73" s="54"/>
-      <c r="M73" s="54"/>
-      <c r="N73" s="54"/>
-      <c r="O73" s="54"/>
-      <c r="P73" s="54"/>
-      <c r="Q73" s="54"/>
-      <c r="R73" s="54"/>
-      <c r="S73" s="54"/>
-      <c r="T73" s="54"/>
-      <c r="U73" s="54"/>
-      <c r="V73" s="54"/>
-      <c r="W73" s="54"/>
-      <c r="X73" s="54"/>
-      <c r="Y73" s="54"/>
-      <c r="Z73" s="54"/>
-      <c r="AA73" s="54"/>
-      <c r="AB73" s="54"/>
-      <c r="AC73" s="54"/>
-      <c r="AD73" s="54"/>
-      <c r="AE73" s="54"/>
-      <c r="AF73" s="54"/>
-      <c r="AG73" s="54"/>
-      <c r="AH73" s="54"/>
-      <c r="AI73" s="54"/>
+    <row r="72" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="54"/>
+      <c r="B72" s="54"/>
+      <c r="C72" s="54"/>
+      <c r="D72" s="54"/>
+      <c r="E72" s="54"/>
+      <c r="F72" s="54"/>
+      <c r="G72" s="54"/>
+      <c r="H72" s="54"/>
+      <c r="I72" s="54"/>
+      <c r="J72" s="54"/>
+      <c r="K72" s="54"/>
+      <c r="L72" s="54"/>
+      <c r="M72" s="54"/>
+      <c r="N72" s="54"/>
+      <c r="O72" s="54"/>
+      <c r="P72" s="54"/>
+      <c r="Q72" s="54"/>
+      <c r="R72" s="54"/>
+      <c r="S72" s="54"/>
+      <c r="T72" s="54"/>
+      <c r="U72" s="54"/>
+      <c r="V72" s="54"/>
+      <c r="W72" s="54"/>
+      <c r="X72" s="54"/>
+      <c r="Y72" s="54"/>
+      <c r="Z72" s="54"/>
+      <c r="AA72" s="54"/>
+      <c r="AB72" s="54"/>
+      <c r="AC72" s="54"/>
+      <c r="AD72" s="54"/>
+      <c r="AE72" s="54"/>
+      <c r="AF72" s="54"/>
+      <c r="AG72" s="54"/>
+      <c r="AH72" s="54"/>
+      <c r="AI72" s="54"/>
+    </row>
+    <row r="73" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="C73" s="35" t="s">
+        <v>516</v>
+      </c>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
+      <c r="I73" s="35"/>
+      <c r="J73" s="35"/>
+      <c r="K73" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L73" s="35"/>
+      <c r="M73" s="35"/>
+      <c r="N73" s="35"/>
+      <c r="O73" s="35"/>
+      <c r="P73" s="35"/>
+      <c r="Q73" s="35"/>
+      <c r="R73" s="35"/>
+      <c r="S73" s="35"/>
+      <c r="T73" s="35"/>
+      <c r="U73" s="35"/>
+      <c r="V73" s="35"/>
+      <c r="W73" s="35"/>
+      <c r="X73" s="35"/>
+      <c r="Y73" s="35"/>
+      <c r="Z73" s="35"/>
+      <c r="AA73" s="35"/>
+      <c r="AB73" s="35"/>
+      <c r="AC73" s="35"/>
+      <c r="AD73" s="35"/>
+      <c r="AE73" s="35"/>
+      <c r="AF73" s="35"/>
+      <c r="AG73" s="35"/>
+      <c r="AH73" s="35"/>
+      <c r="AI73" s="35"/>
     </row>
     <row r="74" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
-        <v>42</v>
+        <v>331</v>
       </c>
       <c r="B74" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="C74" s="35" t="s">
         <v>517</v>
-      </c>
-      <c r="C74" s="35" t="s">
-        <v>518</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -5535,9 +5529,7 @@
       <c r="H74" s="35"/>
       <c r="I74" s="35"/>
       <c r="J74" s="35"/>
-      <c r="K74" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K74" s="35"/>
       <c r="L74" s="35"/>
       <c r="M74" s="35"/>
       <c r="N74" s="35"/>
@@ -5568,10 +5560,10 @@
         <v>331</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D75" s="35"/>
       <c r="E75" s="35"/>
@@ -5611,10 +5603,10 @@
         <v>331</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="35"/>
@@ -5654,10 +5646,10 @@
         <v>331</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -5697,10 +5689,10 @@
         <v>331</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
@@ -5708,7 +5700,9 @@
       <c r="G78" s="35"/>
       <c r="H78" s="35"/>
       <c r="I78" s="35"/>
-      <c r="J78" s="35"/>
+      <c r="J78" s="35" t="s">
+        <v>522</v>
+      </c>
       <c r="K78" s="35"/>
       <c r="L78" s="35"/>
       <c r="M78" s="35"/>
@@ -5737,23 +5731,17 @@
     </row>
     <row r="79" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="37" t="s">
-        <v>331</v>
-      </c>
-      <c r="B79" s="37" t="s">
-        <v>549</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>523</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B79" s="37"/>
+      <c r="C79" s="35"/>
       <c r="D79" s="35"/>
       <c r="E79" s="35"/>
       <c r="F79" s="35"/>
       <c r="G79" s="35"/>
       <c r="H79" s="35"/>
       <c r="I79" s="35"/>
-      <c r="J79" s="35" t="s">
-        <v>526</v>
-      </c>
+      <c r="J79" s="35"/>
       <c r="K79" s="35"/>
       <c r="L79" s="35"/>
       <c r="M79" s="35"/>
@@ -5780,102 +5768,108 @@
       <c r="AH79" s="35"/>
       <c r="AI79" s="35"/>
     </row>
-    <row r="80" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B80" s="37"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
-      <c r="I80" s="35"/>
-      <c r="J80" s="35"/>
-      <c r="K80" s="35"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="35"/>
-      <c r="N80" s="35"/>
-      <c r="O80" s="35"/>
-      <c r="P80" s="35"/>
-      <c r="Q80" s="35"/>
-      <c r="R80" s="35"/>
-      <c r="S80" s="35"/>
-      <c r="T80" s="35"/>
-      <c r="U80" s="35"/>
-      <c r="V80" s="35"/>
-      <c r="W80" s="35"/>
-      <c r="X80" s="35"/>
-      <c r="Y80" s="35"/>
-      <c r="Z80" s="35"/>
-      <c r="AA80" s="35"/>
-      <c r="AB80" s="35"/>
-      <c r="AC80" s="35"/>
-      <c r="AD80" s="35"/>
-      <c r="AE80" s="35"/>
-      <c r="AF80" s="35"/>
-      <c r="AG80" s="35"/>
-      <c r="AH80" s="35"/>
-      <c r="AI80" s="35"/>
-    </row>
-    <row r="81" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="54"/>
-      <c r="B81" s="54"/>
-      <c r="C81" s="54"/>
-      <c r="D81" s="54"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="54"/>
-      <c r="G81" s="54"/>
-      <c r="H81" s="54"/>
-      <c r="I81" s="54"/>
-      <c r="J81" s="54"/>
-      <c r="K81" s="54"/>
-      <c r="L81" s="54"/>
-      <c r="M81" s="54"/>
-      <c r="N81" s="54"/>
-      <c r="O81" s="54"/>
-      <c r="P81" s="54"/>
-      <c r="Q81" s="54"/>
-      <c r="R81" s="54"/>
-      <c r="S81" s="54"/>
-      <c r="T81" s="54"/>
-      <c r="U81" s="54"/>
-      <c r="V81" s="54"/>
-      <c r="W81" s="54"/>
-      <c r="X81" s="54"/>
-      <c r="Y81" s="54"/>
-      <c r="Z81" s="54"/>
-      <c r="AA81" s="54"/>
-      <c r="AB81" s="54"/>
-      <c r="AC81" s="54"/>
-      <c r="AD81" s="54"/>
-      <c r="AE81" s="54"/>
-      <c r="AF81" s="54"/>
-      <c r="AG81" s="54"/>
-      <c r="AH81" s="54"/>
-      <c r="AI81" s="54"/>
+    <row r="80" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="54"/>
+      <c r="B80" s="54"/>
+      <c r="C80" s="54"/>
+      <c r="D80" s="54"/>
+      <c r="E80" s="54"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="54"/>
+      <c r="I80" s="54"/>
+      <c r="J80" s="54"/>
+      <c r="K80" s="54"/>
+      <c r="L80" s="54"/>
+      <c r="M80" s="54"/>
+      <c r="N80" s="54"/>
+      <c r="O80" s="54"/>
+      <c r="P80" s="54"/>
+      <c r="Q80" s="54"/>
+      <c r="R80" s="54"/>
+      <c r="S80" s="54"/>
+      <c r="T80" s="54"/>
+      <c r="U80" s="54"/>
+      <c r="V80" s="54"/>
+      <c r="W80" s="54"/>
+      <c r="X80" s="54"/>
+      <c r="Y80" s="54"/>
+      <c r="Z80" s="54"/>
+      <c r="AA80" s="54"/>
+      <c r="AB80" s="54"/>
+      <c r="AC80" s="54"/>
+      <c r="AD80" s="54"/>
+      <c r="AE80" s="54"/>
+      <c r="AF80" s="54"/>
+      <c r="AG80" s="54"/>
+      <c r="AH80" s="54"/>
+      <c r="AI80" s="54"/>
+    </row>
+    <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B81" s="37" t="s">
+        <v>524</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="35"/>
+      <c r="O81" s="35"/>
+      <c r="P81" s="35"/>
+      <c r="Q81" s="35"/>
+      <c r="R81" s="35"/>
+      <c r="S81" s="35"/>
+      <c r="T81" s="35"/>
+      <c r="U81" s="35"/>
+      <c r="V81" s="35"/>
+      <c r="W81" s="35"/>
+      <c r="X81" s="35"/>
+      <c r="Y81" s="35"/>
+      <c r="Z81" s="35"/>
+      <c r="AA81" s="35"/>
+      <c r="AB81" s="35"/>
+      <c r="AC81" s="35"/>
+      <c r="AD81" s="35"/>
+      <c r="AE81" s="35"/>
+      <c r="AF81" s="35"/>
+      <c r="AG81" s="35"/>
+      <c r="AH81" s="35"/>
+      <c r="AI81" s="35"/>
     </row>
     <row r="82" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="37" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>45</v>
+        <v>526</v>
       </c>
       <c r="D82" s="35"/>
       <c r="E82" s="35"/>
       <c r="F82" s="35"/>
       <c r="G82" s="35"/>
       <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
+      <c r="I82" s="35" t="s">
+        <v>57</v>
+      </c>
       <c r="J82" s="35"/>
-      <c r="K82" s="35" t="s">
-        <v>47</v>
-      </c>
+      <c r="K82" s="35"/>
       <c r="L82" s="35"/>
       <c r="M82" s="35"/>
       <c r="N82" s="35"/>
@@ -5903,23 +5897,23 @@
     </row>
     <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="37" t="s">
-        <v>110</v>
+        <v>534</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="D83" s="35"/>
       <c r="E83" s="35"/>
       <c r="F83" s="35"/>
       <c r="G83" s="35"/>
       <c r="H83" s="35"/>
-      <c r="I83" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="J83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35" t="s">
+        <v>529</v>
+      </c>
       <c r="K83" s="35"/>
       <c r="L83" s="35"/>
       <c r="M83" s="35"/>
@@ -5948,13 +5942,13 @@
     </row>
     <row r="84" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
-        <v>538</v>
+        <v>283</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>540</v>
+        <v>528</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
@@ -5963,7 +5957,7 @@
       <c r="H84" s="35"/>
       <c r="I84" s="35"/>
       <c r="J84" s="35" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="K84" s="35"/>
       <c r="L84" s="35"/>
@@ -5993,13 +5987,13 @@
     </row>
     <row r="85" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="37" t="s">
-        <v>283</v>
+        <v>530</v>
       </c>
       <c r="B85" s="37" t="s">
+        <v>532</v>
+      </c>
+      <c r="C85" s="35" t="s">
         <v>531</v>
-      </c>
-      <c r="C85" s="35" t="s">
-        <v>532</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="35"/>
@@ -6008,7 +6002,7 @@
       <c r="H85" s="35"/>
       <c r="I85" s="35"/>
       <c r="J85" s="35" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="K85" s="35"/>
       <c r="L85" s="35"/>
@@ -6038,23 +6032,17 @@
     </row>
     <row r="86" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="37" t="s">
-        <v>534</v>
-      </c>
-      <c r="B86" s="37" t="s">
-        <v>536</v>
-      </c>
-      <c r="C86" s="35" t="s">
-        <v>535</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B86" s="37"/>
+      <c r="C86" s="35"/>
       <c r="D86" s="35"/>
       <c r="E86" s="35"/>
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
       <c r="I86" s="35"/>
-      <c r="J86" s="35" t="s">
-        <v>533</v>
-      </c>
+      <c r="J86" s="35"/>
       <c r="K86" s="35"/>
       <c r="L86" s="35"/>
       <c r="M86" s="35"/>
@@ -6081,91 +6069,95 @@
       <c r="AH86" s="35"/>
       <c r="AI86" s="35"/>
     </row>
-    <row r="87" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B87" s="37"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="35"/>
-      <c r="N87" s="35"/>
-      <c r="O87" s="35"/>
-      <c r="P87" s="35"/>
-      <c r="Q87" s="35"/>
-      <c r="R87" s="35"/>
-      <c r="S87" s="35"/>
-      <c r="T87" s="35"/>
-      <c r="U87" s="35"/>
-      <c r="V87" s="35"/>
-      <c r="W87" s="35"/>
-      <c r="X87" s="35"/>
-      <c r="Y87" s="35"/>
-      <c r="Z87" s="35"/>
-      <c r="AA87" s="35"/>
-      <c r="AB87" s="35"/>
-      <c r="AC87" s="35"/>
-      <c r="AD87" s="35"/>
-      <c r="AE87" s="35"/>
-      <c r="AF87" s="35"/>
-      <c r="AG87" s="35"/>
-      <c r="AH87" s="35"/>
-      <c r="AI87" s="35"/>
-    </row>
-    <row r="88" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="54"/>
-      <c r="B88" s="54"/>
-      <c r="C88" s="54"/>
-      <c r="D88" s="54"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="54"/>
-      <c r="G88" s="54"/>
-      <c r="H88" s="54"/>
-      <c r="I88" s="54"/>
-      <c r="J88" s="54"/>
-      <c r="K88" s="54"/>
-      <c r="L88" s="54"/>
-      <c r="M88" s="54"/>
-      <c r="N88" s="54"/>
-      <c r="O88" s="54"/>
-      <c r="P88" s="54"/>
-      <c r="Q88" s="54"/>
-      <c r="R88" s="54"/>
-      <c r="S88" s="54"/>
-      <c r="T88" s="54"/>
-      <c r="U88" s="54"/>
-      <c r="V88" s="54"/>
-      <c r="W88" s="54"/>
-      <c r="X88" s="54"/>
-      <c r="Y88" s="54"/>
-      <c r="Z88" s="54"/>
-      <c r="AA88" s="54"/>
-      <c r="AB88" s="54"/>
-      <c r="AC88" s="54"/>
-      <c r="AD88" s="54"/>
-      <c r="AE88" s="54"/>
-      <c r="AF88" s="54"/>
-      <c r="AG88" s="54"/>
-      <c r="AH88" s="54"/>
-      <c r="AI88" s="54"/>
+    <row r="87" spans="1:35" s="55" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="54"/>
+      <c r="B87" s="54"/>
+      <c r="C87" s="54"/>
+      <c r="D87" s="54"/>
+      <c r="E87" s="54"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="54"/>
+      <c r="H87" s="54"/>
+      <c r="I87" s="54"/>
+      <c r="J87" s="54"/>
+      <c r="K87" s="54"/>
+      <c r="L87" s="54"/>
+      <c r="M87" s="54"/>
+      <c r="N87" s="54"/>
+      <c r="O87" s="54"/>
+      <c r="P87" s="54"/>
+      <c r="Q87" s="54"/>
+      <c r="R87" s="54"/>
+      <c r="S87" s="54"/>
+      <c r="T87" s="54"/>
+      <c r="U87" s="54"/>
+      <c r="V87" s="54"/>
+      <c r="W87" s="54"/>
+      <c r="X87" s="54"/>
+      <c r="Y87" s="54"/>
+      <c r="Z87" s="54"/>
+      <c r="AA87" s="54"/>
+      <c r="AB87" s="54"/>
+      <c r="AC87" s="54"/>
+      <c r="AD87" s="54"/>
+      <c r="AE87" s="54"/>
+      <c r="AF87" s="54"/>
+      <c r="AG87" s="54"/>
+      <c r="AH87" s="54"/>
+      <c r="AI87" s="54"/>
+    </row>
+    <row r="88" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B88" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="C88" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" s="35"/>
+      <c r="K88" s="35"/>
+      <c r="L88" s="35"/>
+      <c r="M88" s="35"/>
+      <c r="N88" s="35"/>
+      <c r="O88" s="35"/>
+      <c r="P88" s="35"/>
+      <c r="Q88" s="35"/>
+      <c r="R88" s="35"/>
+      <c r="S88" s="35"/>
+      <c r="T88" s="35"/>
+      <c r="U88" s="35"/>
+      <c r="V88" s="35"/>
+      <c r="W88" s="35"/>
+      <c r="X88" s="35"/>
+      <c r="Y88" s="35"/>
+      <c r="Z88" s="35"/>
+      <c r="AA88" s="35"/>
+      <c r="AB88" s="35"/>
+      <c r="AC88" s="35"/>
+      <c r="AD88" s="35"/>
+      <c r="AE88" s="35"/>
+      <c r="AF88" s="35"/>
+      <c r="AG88" s="35"/>
+      <c r="AH88" s="35"/>
+      <c r="AI88" s="35"/>
     </row>
     <row r="89" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="37" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>45</v>
+        <v>539</v>
       </c>
       <c r="D89" s="35"/>
       <c r="E89" s="35"/>
@@ -6202,14 +6194,10 @@
     </row>
     <row r="90" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="B90" s="37" t="s">
-        <v>542</v>
-      </c>
-      <c r="C90" s="35" t="s">
-        <v>543</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B90" s="37"/>
+      <c r="C90" s="35"/>
       <c r="D90" s="35"/>
       <c r="E90" s="35"/>
       <c r="F90" s="35"/>
@@ -6244,80 +6232,90 @@
       <c r="AI90" s="35"/>
     </row>
     <row r="91" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="B91" s="37"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
-      <c r="I91" s="35"/>
-      <c r="J91" s="35"/>
-      <c r="K91" s="35"/>
-      <c r="L91" s="35"/>
-      <c r="M91" s="35"/>
-      <c r="N91" s="35"/>
-      <c r="O91" s="35"/>
-      <c r="P91" s="35"/>
-      <c r="Q91" s="35"/>
-      <c r="R91" s="35"/>
-      <c r="S91" s="35"/>
-      <c r="T91" s="35"/>
-      <c r="U91" s="35"/>
-      <c r="V91" s="35"/>
-      <c r="W91" s="35"/>
-      <c r="X91" s="35"/>
-      <c r="Y91" s="35"/>
-      <c r="Z91" s="35"/>
-      <c r="AA91" s="35"/>
-      <c r="AB91" s="35"/>
-      <c r="AC91" s="35"/>
-      <c r="AD91" s="35"/>
-      <c r="AE91" s="35"/>
-      <c r="AF91" s="35"/>
-      <c r="AG91" s="35"/>
-      <c r="AH91" s="35"/>
-      <c r="AI91" s="35"/>
+      <c r="A91" s="31"/>
+      <c r="B91" s="31"/>
+      <c r="C91" s="31"/>
+      <c r="E91" s="31"/>
+      <c r="F91" s="31"/>
+      <c r="AE91" s="31"/>
+      <c r="AF91" s="31"/>
+      <c r="AG91" s="31"/>
+      <c r="AH91" s="31"/>
+      <c r="AI91" s="31"/>
     </row>
     <row r="92" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="31"/>
-      <c r="B92" s="31"/>
-      <c r="C92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="AE92" s="31"/>
-      <c r="AF92" s="31"/>
-      <c r="AG92" s="31"/>
-      <c r="AH92" s="31"/>
-      <c r="AI92" s="31"/>
+      <c r="A92" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>320</v>
+      </c>
+      <c r="C92" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="36"/>
+      <c r="J92" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="K92" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L92" s="34"/>
+      <c r="M92" s="34"/>
+      <c r="N92" s="34"/>
+      <c r="O92" s="34"/>
+      <c r="P92" s="34"/>
+      <c r="Q92" s="34"/>
+      <c r="R92" s="34"/>
+      <c r="S92" s="34"/>
+      <c r="T92" s="34"/>
+      <c r="U92" s="36"/>
+      <c r="V92" s="34"/>
+      <c r="W92" s="36"/>
+      <c r="X92" s="36"/>
+      <c r="Y92" s="36"/>
+      <c r="Z92" s="36"/>
+      <c r="AA92" s="36"/>
+      <c r="AB92" s="36"/>
+      <c r="AC92" s="36"/>
+      <c r="AD92" s="36"/>
+      <c r="AE92" s="36"/>
+      <c r="AF92" s="36"/>
+      <c r="AG92" s="36"/>
+      <c r="AH92" s="36"/>
+      <c r="AI92" s="36"/>
     </row>
     <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>330</v>
+        <v>284</v>
       </c>
       <c r="D93" s="35"/>
       <c r="E93" s="35"/>
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
-      <c r="I93" s="36"/>
-      <c r="J93" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="K93" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L93" s="34"/>
-      <c r="M93" s="34"/>
+      <c r="I93" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
+      <c r="L93" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="M93" s="34" t="s">
+        <v>286</v>
+      </c>
       <c r="N93" s="34"/>
       <c r="O93" s="34"/>
       <c r="P93" s="34"/>
@@ -6343,13 +6341,13 @@
     </row>
     <row r="94" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="33" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D94" s="35"/>
       <c r="E94" s="35"/>
@@ -6361,12 +6359,8 @@
       </c>
       <c r="J94" s="36"/>
       <c r="K94" s="36"/>
-      <c r="L94" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="M94" s="34" t="s">
-        <v>286</v>
-      </c>
+      <c r="L94" s="36"/>
+      <c r="M94" s="34"/>
       <c r="N94" s="34"/>
       <c r="O94" s="34"/>
       <c r="P94" s="34"/>
@@ -6392,13 +6386,13 @@
     </row>
     <row r="95" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="33" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D95" s="35"/>
       <c r="E95" s="35"/>
@@ -6406,12 +6400,16 @@
       <c r="G95" s="35"/>
       <c r="H95" s="35"/>
       <c r="I95" s="36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J95" s="36"/>
       <c r="K95" s="36"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="34"/>
+      <c r="L95" s="36" t="s">
+        <v>291</v>
+      </c>
+      <c r="M95" s="34" t="s">
+        <v>292</v>
+      </c>
       <c r="N95" s="34"/>
       <c r="O95" s="34"/>
       <c r="P95" s="34"/>
@@ -6437,30 +6435,26 @@
     </row>
     <row r="96" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="33" t="s">
-        <v>289</v>
+        <v>117</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="D96" s="35"/>
       <c r="E96" s="35"/>
       <c r="F96" s="35"/>
       <c r="G96" s="35"/>
       <c r="H96" s="35"/>
-      <c r="I96" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J96" s="36"/>
+      <c r="I96" s="36"/>
+      <c r="J96" s="36" t="s">
+        <v>325</v>
+      </c>
       <c r="K96" s="36"/>
-      <c r="L96" s="36" t="s">
-        <v>291</v>
-      </c>
-      <c r="M96" s="34" t="s">
-        <v>292</v>
-      </c>
+      <c r="L96" s="36"/>
+      <c r="M96" s="34"/>
       <c r="N96" s="34"/>
       <c r="O96" s="34"/>
       <c r="P96" s="34"/>
@@ -6489,10 +6483,10 @@
         <v>117</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D97" s="35"/>
       <c r="E97" s="35"/>
@@ -6501,7 +6495,7 @@
       <c r="H97" s="35"/>
       <c r="I97" s="36"/>
       <c r="J97" s="36" t="s">
-        <v>325</v>
+        <v>443</v>
       </c>
       <c r="K97" s="36"/>
       <c r="L97" s="36"/>
@@ -6523,43 +6517,43 @@
       <c r="AB97" s="36"/>
       <c r="AC97" s="36"/>
       <c r="AD97" s="36"/>
-      <c r="AE97" s="36"/>
+      <c r="AE97" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AF97" s="36"/>
       <c r="AG97" s="36"/>
       <c r="AH97" s="36"/>
       <c r="AI97" s="36"/>
     </row>
     <row r="98" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B98" s="33" t="s">
-        <v>295</v>
-      </c>
-      <c r="C98" s="34" t="s">
-        <v>296</v>
-      </c>
-      <c r="D98" s="35"/>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
+      <c r="A98" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B98" s="38" t="s">
+        <v>297</v>
+      </c>
+      <c r="C98" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D98" s="36"/>
+      <c r="E98" s="39"/>
+      <c r="F98" s="39"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
       <c r="I98" s="36"/>
-      <c r="J98" s="36" t="s">
-        <v>443</v>
-      </c>
+      <c r="J98" s="39"/>
       <c r="K98" s="36"/>
       <c r="L98" s="36"/>
-      <c r="M98" s="34"/>
-      <c r="N98" s="34"/>
-      <c r="O98" s="34"/>
-      <c r="P98" s="34"/>
-      <c r="Q98" s="34"/>
-      <c r="R98" s="34"/>
-      <c r="S98" s="34"/>
-      <c r="T98" s="34"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="39"/>
+      <c r="P98" s="36"/>
+      <c r="Q98" s="36"/>
+      <c r="R98" s="36"/>
+      <c r="S98" s="36"/>
+      <c r="T98" s="36"/>
       <c r="U98" s="36"/>
-      <c r="V98" s="34"/>
+      <c r="V98" s="36"/>
       <c r="W98" s="36"/>
       <c r="X98" s="36"/>
       <c r="Y98" s="36"/>
@@ -6573,76 +6567,76 @@
       </c>
       <c r="AF98" s="36"/>
       <c r="AG98" s="36"/>
-      <c r="AH98" s="36"/>
+      <c r="AH98" s="40" t="s">
+        <v>298</v>
+      </c>
       <c r="AI98" s="36"/>
     </row>
     <row r="99" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="38" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B99" s="38" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C99" s="39" t="s">
         <v>45</v>
       </c>
       <c r="D99" s="36"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
+      <c r="E99" s="36"/>
+      <c r="F99" s="36"/>
       <c r="G99" s="36"/>
       <c r="H99" s="36"/>
-      <c r="I99" s="36"/>
+      <c r="I99" s="39"/>
       <c r="J99" s="39"/>
-      <c r="K99" s="36"/>
-      <c r="L99" s="36"/>
-      <c r="M99" s="36"/>
+      <c r="K99" s="39"/>
+      <c r="L99" s="39"/>
+      <c r="M99" s="39"/>
       <c r="N99" s="36"/>
-      <c r="O99" s="39"/>
+      <c r="O99" s="36"/>
       <c r="P99" s="36"/>
       <c r="Q99" s="36"/>
       <c r="R99" s="36"/>
       <c r="S99" s="36"/>
-      <c r="T99" s="36"/>
-      <c r="U99" s="36"/>
-      <c r="V99" s="36"/>
-      <c r="W99" s="36"/>
-      <c r="X99" s="36"/>
-      <c r="Y99" s="36"/>
-      <c r="Z99" s="36"/>
-      <c r="AA99" s="36"/>
-      <c r="AB99" s="36"/>
-      <c r="AC99" s="36"/>
-      <c r="AD99" s="36"/>
-      <c r="AE99" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF99" s="36"/>
-      <c r="AG99" s="36"/>
-      <c r="AH99" s="40" t="s">
-        <v>298</v>
-      </c>
-      <c r="AI99" s="36"/>
+      <c r="T99" s="39" t="s">
+        <v>300</v>
+      </c>
+      <c r="U99" s="39"/>
+      <c r="V99" s="39"/>
+      <c r="W99" s="39"/>
+      <c r="X99" s="39"/>
+      <c r="Y99" s="39"/>
+      <c r="Z99" s="39"/>
+      <c r="AA99" s="39"/>
+      <c r="AB99" s="39"/>
+      <c r="AC99" s="39"/>
+      <c r="AD99" s="39"/>
+      <c r="AE99" s="39"/>
+      <c r="AF99" s="39"/>
+      <c r="AG99" s="39"/>
+      <c r="AH99" s="39"/>
+      <c r="AI99" s="39"/>
     </row>
     <row r="100" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B100" s="38" t="s">
-        <v>299</v>
+        <v>3</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>45</v>
+        <v>301</v>
       </c>
       <c r="D100" s="36"/>
       <c r="E100" s="36"/>
       <c r="F100" s="36"/>
       <c r="G100" s="36"/>
       <c r="H100" s="36"/>
-      <c r="I100" s="39"/>
-      <c r="J100" s="39"/>
-      <c r="K100" s="39"/>
-      <c r="L100" s="39"/>
-      <c r="M100" s="39"/>
+      <c r="I100" s="36"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="36"/>
       <c r="N100" s="36"/>
       <c r="O100" s="36"/>
       <c r="P100" s="36"/>
@@ -6650,33 +6644,33 @@
       <c r="R100" s="36"/>
       <c r="S100" s="36"/>
       <c r="T100" s="39" t="s">
-        <v>300</v>
-      </c>
-      <c r="U100" s="39"/>
-      <c r="V100" s="39"/>
-      <c r="W100" s="39"/>
-      <c r="X100" s="39"/>
-      <c r="Y100" s="39"/>
-      <c r="Z100" s="39"/>
-      <c r="AA100" s="39"/>
-      <c r="AB100" s="39"/>
-      <c r="AC100" s="39"/>
-      <c r="AD100" s="39"/>
-      <c r="AE100" s="39"/>
-      <c r="AF100" s="39"/>
-      <c r="AG100" s="39"/>
-      <c r="AH100" s="39"/>
-      <c r="AI100" s="39"/>
+        <v>302</v>
+      </c>
+      <c r="U100" s="36"/>
+      <c r="V100" s="36"/>
+      <c r="W100" s="36"/>
+      <c r="X100" s="36"/>
+      <c r="Y100" s="36"/>
+      <c r="Z100" s="36"/>
+      <c r="AA100" s="36"/>
+      <c r="AB100" s="36"/>
+      <c r="AC100" s="36"/>
+      <c r="AD100" s="36"/>
+      <c r="AE100" s="36"/>
+      <c r="AF100" s="36"/>
+      <c r="AG100" s="36"/>
+      <c r="AH100" s="36"/>
+      <c r="AI100" s="36"/>
     </row>
     <row r="101" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>3</v>
+        <v>303</v>
       </c>
       <c r="C101" s="39" t="s">
-        <v>301</v>
+        <v>45</v>
       </c>
       <c r="D101" s="36"/>
       <c r="E101" s="36"/>
@@ -6695,30 +6689,30 @@
       <c r="R101" s="36"/>
       <c r="S101" s="36"/>
       <c r="T101" s="39" t="s">
-        <v>302</v>
-      </c>
-      <c r="U101" s="36"/>
-      <c r="V101" s="36"/>
-      <c r="W101" s="36"/>
-      <c r="X101" s="36"/>
-      <c r="Y101" s="36"/>
-      <c r="Z101" s="36"/>
-      <c r="AA101" s="36"/>
-      <c r="AB101" s="36"/>
-      <c r="AC101" s="36"/>
-      <c r="AD101" s="36"/>
-      <c r="AE101" s="36"/>
-      <c r="AF101" s="36"/>
-      <c r="AG101" s="36"/>
-      <c r="AH101" s="36"/>
-      <c r="AI101" s="36"/>
+        <v>304</v>
+      </c>
+      <c r="U101" s="39"/>
+      <c r="V101" s="39"/>
+      <c r="W101" s="39"/>
+      <c r="X101" s="39"/>
+      <c r="Y101" s="39"/>
+      <c r="Z101" s="39"/>
+      <c r="AA101" s="39"/>
+      <c r="AB101" s="39"/>
+      <c r="AC101" s="39"/>
+      <c r="AD101" s="39"/>
+      <c r="AE101" s="39"/>
+      <c r="AF101" s="39"/>
+      <c r="AG101" s="39"/>
+      <c r="AH101" s="39"/>
+      <c r="AI101" s="39"/>
     </row>
     <row r="102" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C102" s="39" t="s">
         <v>45</v>
@@ -6728,19 +6722,19 @@
       <c r="F102" s="36"/>
       <c r="G102" s="36"/>
       <c r="H102" s="36"/>
-      <c r="I102" s="36"/>
-      <c r="J102" s="36"/>
-      <c r="K102" s="36"/>
-      <c r="L102" s="36"/>
-      <c r="M102" s="36"/>
-      <c r="N102" s="36"/>
-      <c r="O102" s="36"/>
-      <c r="P102" s="36"/>
-      <c r="Q102" s="36"/>
-      <c r="R102" s="36"/>
-      <c r="S102" s="36"/>
+      <c r="I102" s="39"/>
+      <c r="J102" s="39"/>
+      <c r="K102" s="39"/>
+      <c r="L102" s="39"/>
+      <c r="M102" s="39"/>
+      <c r="N102" s="39"/>
+      <c r="O102" s="39"/>
+      <c r="P102" s="39"/>
+      <c r="Q102" s="39"/>
+      <c r="R102" s="39"/>
+      <c r="S102" s="39"/>
       <c r="T102" s="39" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="U102" s="39"/>
       <c r="V102" s="39"/>
@@ -6760,10 +6754,10 @@
     </row>
     <row r="103" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="38" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C103" s="39" t="s">
         <v>45</v>
@@ -6773,85 +6767,85 @@
       <c r="F103" s="36"/>
       <c r="G103" s="36"/>
       <c r="H103" s="36"/>
-      <c r="I103" s="39"/>
-      <c r="J103" s="39"/>
-      <c r="K103" s="39"/>
-      <c r="L103" s="39"/>
-      <c r="M103" s="39"/>
-      <c r="N103" s="39"/>
-      <c r="O103" s="39"/>
-      <c r="P103" s="39"/>
-      <c r="Q103" s="39"/>
-      <c r="R103" s="39"/>
-      <c r="S103" s="39"/>
-      <c r="T103" s="39" t="s">
-        <v>306</v>
-      </c>
-      <c r="U103" s="39"/>
-      <c r="V103" s="39"/>
-      <c r="W103" s="39"/>
-      <c r="X103" s="39"/>
-      <c r="Y103" s="39"/>
-      <c r="Z103" s="39"/>
-      <c r="AA103" s="39"/>
-      <c r="AB103" s="39"/>
-      <c r="AC103" s="39"/>
-      <c r="AD103" s="39"/>
-      <c r="AE103" s="39"/>
-      <c r="AF103" s="39"/>
-      <c r="AG103" s="39"/>
-      <c r="AH103" s="39"/>
-      <c r="AI103" s="39"/>
+      <c r="I103" s="36"/>
+      <c r="J103" s="36"/>
+      <c r="K103" s="36"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="36"/>
+      <c r="Q103" s="36"/>
+      <c r="R103" s="36"/>
+      <c r="S103" s="36"/>
+      <c r="T103" s="36"/>
+      <c r="U103" s="36"/>
+      <c r="V103" s="36"/>
+      <c r="W103" s="36"/>
+      <c r="X103" s="36"/>
+      <c r="Y103" s="36"/>
+      <c r="Z103" s="36"/>
+      <c r="AA103" s="36"/>
+      <c r="AB103" s="36"/>
+      <c r="AC103" s="36"/>
+      <c r="AD103" s="36"/>
+      <c r="AE103" s="36"/>
+      <c r="AF103" s="36"/>
+      <c r="AG103" s="36"/>
+      <c r="AH103" s="36"/>
+      <c r="AI103" s="36"/>
     </row>
     <row r="104" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="38" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B104" s="38" t="s">
-        <v>307</v>
+        <v>66</v>
       </c>
       <c r="C104" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D104" s="36"/>
-      <c r="E104" s="36"/>
-      <c r="F104" s="36"/>
-      <c r="G104" s="36"/>
-      <c r="H104" s="36"/>
-      <c r="I104" s="36"/>
-      <c r="J104" s="36"/>
-      <c r="K104" s="36"/>
-      <c r="L104" s="36"/>
-      <c r="M104" s="36"/>
-      <c r="N104" s="36"/>
-      <c r="O104" s="36"/>
-      <c r="P104" s="36"/>
-      <c r="Q104" s="36"/>
-      <c r="R104" s="36"/>
-      <c r="S104" s="36"/>
-      <c r="T104" s="36"/>
-      <c r="U104" s="36"/>
-      <c r="V104" s="36"/>
-      <c r="W104" s="36"/>
-      <c r="X104" s="36"/>
-      <c r="Y104" s="36"/>
-      <c r="Z104" s="36"/>
-      <c r="AA104" s="36"/>
-      <c r="AB104" s="36"/>
-      <c r="AC104" s="36"/>
-      <c r="AD104" s="36"/>
-      <c r="AE104" s="36"/>
-      <c r="AF104" s="36"/>
-      <c r="AG104" s="36"/>
-      <c r="AH104" s="36"/>
-      <c r="AI104" s="36"/>
+      <c r="D104" s="39"/>
+      <c r="E104" s="39"/>
+      <c r="F104" s="39"/>
+      <c r="G104" s="39"/>
+      <c r="H104" s="39"/>
+      <c r="I104" s="39"/>
+      <c r="J104" s="39"/>
+      <c r="K104" s="39"/>
+      <c r="L104" s="39"/>
+      <c r="M104" s="39"/>
+      <c r="N104" s="39"/>
+      <c r="O104" s="39"/>
+      <c r="P104" s="39"/>
+      <c r="Q104" s="39"/>
+      <c r="R104" s="39"/>
+      <c r="S104" s="39"/>
+      <c r="T104" s="39" t="s">
+        <v>308</v>
+      </c>
+      <c r="U104" s="39"/>
+      <c r="V104" s="39"/>
+      <c r="W104" s="39"/>
+      <c r="X104" s="39"/>
+      <c r="Y104" s="39"/>
+      <c r="Z104" s="39"/>
+      <c r="AA104" s="39"/>
+      <c r="AB104" s="39"/>
+      <c r="AC104" s="39"/>
+      <c r="AD104" s="39"/>
+      <c r="AE104" s="39"/>
+      <c r="AF104" s="39"/>
+      <c r="AG104" s="39"/>
+      <c r="AH104" s="39"/>
+      <c r="AI104" s="39"/>
     </row>
     <row r="105" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="38" t="s">
         <v>78</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="C105" s="39" t="s">
         <v>45</v>
@@ -6873,7 +6867,7 @@
       <c r="R105" s="39"/>
       <c r="S105" s="39"/>
       <c r="T105" s="39" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="U105" s="39"/>
       <c r="V105" s="39"/>
@@ -6893,55 +6887,53 @@
     </row>
     <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="38" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="B106" s="38" t="s">
-        <v>84</v>
+        <v>310</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="39"/>
-      <c r="J106" s="39"/>
-      <c r="K106" s="39"/>
-      <c r="L106" s="39"/>
-      <c r="M106" s="39"/>
-      <c r="N106" s="39"/>
-      <c r="O106" s="39"/>
-      <c r="P106" s="39"/>
-      <c r="Q106" s="39"/>
-      <c r="R106" s="39"/>
-      <c r="S106" s="39"/>
-      <c r="T106" s="39" t="s">
-        <v>309</v>
-      </c>
-      <c r="U106" s="39"/>
-      <c r="V106" s="39"/>
-      <c r="W106" s="39"/>
-      <c r="X106" s="39"/>
-      <c r="Y106" s="39"/>
-      <c r="Z106" s="39"/>
-      <c r="AA106" s="39"/>
-      <c r="AB106" s="39"/>
-      <c r="AC106" s="39"/>
-      <c r="AD106" s="39"/>
-      <c r="AE106" s="39"/>
-      <c r="AF106" s="39"/>
-      <c r="AG106" s="39"/>
-      <c r="AH106" s="39"/>
-      <c r="AI106" s="39"/>
+      <c r="D106" s="36"/>
+      <c r="E106" s="36"/>
+      <c r="F106" s="36"/>
+      <c r="G106" s="36"/>
+      <c r="H106" s="36"/>
+      <c r="I106" s="36"/>
+      <c r="J106" s="36"/>
+      <c r="K106" s="36"/>
+      <c r="L106" s="36"/>
+      <c r="M106" s="36"/>
+      <c r="N106" s="36"/>
+      <c r="O106" s="36"/>
+      <c r="P106" s="36"/>
+      <c r="Q106" s="36"/>
+      <c r="R106" s="36"/>
+      <c r="S106" s="36"/>
+      <c r="T106" s="36"/>
+      <c r="U106" s="36"/>
+      <c r="V106" s="36"/>
+      <c r="W106" s="36"/>
+      <c r="X106" s="36"/>
+      <c r="Y106" s="36"/>
+      <c r="Z106" s="36"/>
+      <c r="AA106" s="36"/>
+      <c r="AB106" s="36"/>
+      <c r="AC106" s="36"/>
+      <c r="AD106" s="36"/>
+      <c r="AE106" s="36"/>
+      <c r="AF106" s="36"/>
+      <c r="AG106" s="36"/>
+      <c r="AH106" s="36"/>
+      <c r="AI106" s="36"/>
     </row>
     <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="38" t="s">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C107" s="39" t="s">
         <v>45</v>
@@ -6962,7 +6954,9 @@
       <c r="Q107" s="36"/>
       <c r="R107" s="36"/>
       <c r="S107" s="36"/>
-      <c r="T107" s="36"/>
+      <c r="T107" s="39" t="s">
+        <v>326</v>
+      </c>
       <c r="U107" s="36"/>
       <c r="V107" s="36"/>
       <c r="W107" s="36"/>
@@ -6984,7 +6978,7 @@
         <v>78</v>
       </c>
       <c r="B108" s="38" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C108" s="39" t="s">
         <v>45</v>
@@ -7006,7 +7000,7 @@
       <c r="R108" s="36"/>
       <c r="S108" s="36"/>
       <c r="T108" s="39" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="U108" s="36"/>
       <c r="V108" s="36"/>
@@ -7029,7 +7023,7 @@
         <v>78</v>
       </c>
       <c r="B109" s="38" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C109" s="39" t="s">
         <v>45</v>
@@ -7051,7 +7045,7 @@
       <c r="R109" s="36"/>
       <c r="S109" s="36"/>
       <c r="T109" s="39" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="U109" s="36"/>
       <c r="V109" s="36"/>
@@ -7074,7 +7068,7 @@
         <v>78</v>
       </c>
       <c r="B110" s="38" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C110" s="39" t="s">
         <v>45</v>
@@ -7084,80 +7078,74 @@
       <c r="F110" s="36"/>
       <c r="G110" s="36"/>
       <c r="H110" s="36"/>
-      <c r="I110" s="36"/>
-      <c r="J110" s="36"/>
-      <c r="K110" s="36"/>
-      <c r="L110" s="36"/>
-      <c r="M110" s="36"/>
-      <c r="N110" s="36"/>
-      <c r="O110" s="36"/>
-      <c r="P110" s="36"/>
-      <c r="Q110" s="36"/>
-      <c r="R110" s="36"/>
-      <c r="S110" s="36"/>
+      <c r="I110" s="39"/>
+      <c r="J110" s="39"/>
+      <c r="K110" s="39"/>
+      <c r="L110" s="39"/>
+      <c r="M110" s="39"/>
+      <c r="N110" s="39"/>
+      <c r="O110" s="39"/>
+      <c r="P110" s="39"/>
+      <c r="Q110" s="39"/>
+      <c r="R110" s="39"/>
+      <c r="S110" s="39"/>
       <c r="T110" s="39" t="s">
-        <v>314</v>
-      </c>
-      <c r="U110" s="36"/>
-      <c r="V110" s="36"/>
-      <c r="W110" s="36"/>
-      <c r="X110" s="36"/>
-      <c r="Y110" s="36"/>
-      <c r="Z110" s="36"/>
-      <c r="AA110" s="36"/>
-      <c r="AB110" s="36"/>
-      <c r="AC110" s="36"/>
-      <c r="AD110" s="36"/>
-      <c r="AE110" s="36"/>
-      <c r="AF110" s="36"/>
-      <c r="AG110" s="36"/>
-      <c r="AH110" s="36"/>
-      <c r="AI110" s="36"/>
+        <v>328</v>
+      </c>
+      <c r="U110" s="39"/>
+      <c r="V110" s="39"/>
+      <c r="W110" s="39"/>
+      <c r="X110" s="39"/>
+      <c r="Y110" s="39"/>
+      <c r="Z110" s="39"/>
+      <c r="AA110" s="39"/>
+      <c r="AB110" s="39"/>
+      <c r="AC110" s="39"/>
+      <c r="AD110" s="39"/>
+      <c r="AE110" s="39"/>
+      <c r="AF110" s="39"/>
+      <c r="AG110" s="39"/>
+      <c r="AH110" s="39"/>
+      <c r="AI110" s="39"/>
     </row>
     <row r="111" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B111" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="C111" s="39" t="s">
-        <v>45</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B111" s="38"/>
+      <c r="C111" s="36"/>
       <c r="D111" s="36"/>
       <c r="E111" s="36"/>
       <c r="F111" s="36"/>
       <c r="G111" s="36"/>
       <c r="H111" s="36"/>
-      <c r="I111" s="39"/>
-      <c r="J111" s="39"/>
-      <c r="K111" s="39"/>
-      <c r="L111" s="39"/>
-      <c r="M111" s="39"/>
-      <c r="N111" s="39"/>
-      <c r="O111" s="39"/>
-      <c r="P111" s="39"/>
-      <c r="Q111" s="39"/>
-      <c r="R111" s="39"/>
-      <c r="S111" s="39"/>
-      <c r="T111" s="39" t="s">
-        <v>328</v>
-      </c>
-      <c r="U111" s="39"/>
-      <c r="V111" s="39"/>
-      <c r="W111" s="39"/>
-      <c r="X111" s="39"/>
-      <c r="Y111" s="39"/>
-      <c r="Z111" s="39"/>
-      <c r="AA111" s="39"/>
-      <c r="AB111" s="39"/>
-      <c r="AC111" s="39"/>
-      <c r="AD111" s="39"/>
-      <c r="AE111" s="39"/>
-      <c r="AF111" s="39"/>
-      <c r="AG111" s="39"/>
-      <c r="AH111" s="39"/>
-      <c r="AI111" s="39"/>
+      <c r="I111" s="36"/>
+      <c r="J111" s="36"/>
+      <c r="K111" s="36"/>
+      <c r="L111" s="36"/>
+      <c r="M111" s="36"/>
+      <c r="N111" s="36"/>
+      <c r="O111" s="36"/>
+      <c r="P111" s="36"/>
+      <c r="Q111" s="36"/>
+      <c r="R111" s="36"/>
+      <c r="S111" s="36"/>
+      <c r="T111" s="36"/>
+      <c r="U111" s="36"/>
+      <c r="V111" s="36"/>
+      <c r="W111" s="36"/>
+      <c r="X111" s="36"/>
+      <c r="Y111" s="36"/>
+      <c r="Z111" s="36"/>
+      <c r="AA111" s="36"/>
+      <c r="AB111" s="36"/>
+      <c r="AC111" s="36"/>
+      <c r="AD111" s="36"/>
+      <c r="AE111" s="36"/>
+      <c r="AF111" s="36"/>
+      <c r="AG111" s="36"/>
+      <c r="AH111" s="36"/>
+      <c r="AI111" s="36"/>
     </row>
     <row r="112" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="38" t="s">
@@ -7199,11 +7187,15 @@
       <c r="AI112" s="36"/>
     </row>
     <row r="113" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B113" s="38"/>
-      <c r="C113" s="36"/>
+      <c r="A113" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B113" s="41" t="s">
+        <v>316</v>
+      </c>
+      <c r="C113" s="36" t="s">
+        <v>45</v>
+      </c>
       <c r="D113" s="36"/>
       <c r="E113" s="36"/>
       <c r="F113" s="36"/>
@@ -7220,7 +7212,9 @@
       <c r="Q113" s="36"/>
       <c r="R113" s="36"/>
       <c r="S113" s="36"/>
-      <c r="T113" s="36"/>
+      <c r="T113" s="36" t="s">
+        <v>317</v>
+      </c>
       <c r="U113" s="36"/>
       <c r="V113" s="36"/>
       <c r="W113" s="36"/>
@@ -7235,18 +7229,16 @@
       <c r="AF113" s="36"/>
       <c r="AG113" s="36"/>
       <c r="AH113" s="36"/>
-      <c r="AI113" s="36"/>
+      <c r="AI113" s="36" t="s">
+        <v>318</v>
+      </c>
     </row>
     <row r="114" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B114" s="41" t="s">
-        <v>316</v>
-      </c>
-      <c r="C114" s="36" t="s">
-        <v>45</v>
-      </c>
+      <c r="A114" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B114" s="38"/>
+      <c r="C114" s="36"/>
       <c r="D114" s="36"/>
       <c r="E114" s="36"/>
       <c r="F114" s="36"/>
@@ -7263,9 +7255,7 @@
       <c r="Q114" s="36"/>
       <c r="R114" s="36"/>
       <c r="S114" s="36"/>
-      <c r="T114" s="36" t="s">
-        <v>317</v>
-      </c>
+      <c r="T114" s="36"/>
       <c r="U114" s="36"/>
       <c r="V114" s="36"/>
       <c r="W114" s="36"/>
@@ -7280,16 +7270,18 @@
       <c r="AF114" s="36"/>
       <c r="AG114" s="36"/>
       <c r="AH114" s="36"/>
-      <c r="AI114" s="36" t="s">
-        <v>318</v>
-      </c>
+      <c r="AI114" s="36"/>
     </row>
     <row r="115" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B115" s="38"/>
-      <c r="C115" s="36"/>
+      <c r="A115" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B115" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="C115" s="36" t="s">
+        <v>45</v>
+      </c>
       <c r="D115" s="36"/>
       <c r="E115" s="36"/>
       <c r="F115" s="36"/>
@@ -7306,7 +7298,9 @@
       <c r="Q115" s="36"/>
       <c r="R115" s="36"/>
       <c r="S115" s="36"/>
-      <c r="T115" s="36"/>
+      <c r="T115" s="36" t="s">
+        <v>319</v>
+      </c>
       <c r="U115" s="36"/>
       <c r="V115" s="36"/>
       <c r="W115" s="36"/>
@@ -7321,39 +7315,35 @@
       <c r="AF115" s="36"/>
       <c r="AG115" s="36"/>
       <c r="AH115" s="36"/>
-      <c r="AI115" s="36"/>
+      <c r="AI115" s="36" t="s">
+        <v>319</v>
+      </c>
     </row>
     <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B116" s="41" t="s">
-        <v>329</v>
-      </c>
-      <c r="C116" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D116" s="36"/>
-      <c r="E116" s="36"/>
-      <c r="F116" s="36"/>
-      <c r="G116" s="36"/>
-      <c r="H116" s="36"/>
+      <c r="A116" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B116" s="33"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="35"/>
+      <c r="E116" s="35"/>
+      <c r="F116" s="35"/>
+      <c r="G116" s="35"/>
+      <c r="H116" s="35"/>
       <c r="I116" s="36"/>
       <c r="J116" s="36"/>
       <c r="K116" s="36"/>
       <c r="L116" s="36"/>
-      <c r="M116" s="36"/>
-      <c r="N116" s="36"/>
-      <c r="O116" s="36"/>
-      <c r="P116" s="36"/>
-      <c r="Q116" s="36"/>
-      <c r="R116" s="36"/>
-      <c r="S116" s="36"/>
-      <c r="T116" s="36" t="s">
-        <v>319</v>
-      </c>
+      <c r="M116" s="34"/>
+      <c r="N116" s="34"/>
+      <c r="O116" s="34"/>
+      <c r="P116" s="34"/>
+      <c r="Q116" s="34"/>
+      <c r="R116" s="34"/>
+      <c r="S116" s="34"/>
+      <c r="T116" s="34"/>
       <c r="U116" s="36"/>
-      <c r="V116" s="36"/>
+      <c r="V116" s="34"/>
       <c r="W116" s="36"/>
       <c r="X116" s="36"/>
       <c r="Y116" s="36"/>
@@ -7366,85 +7356,93 @@
       <c r="AF116" s="36"/>
       <c r="AG116" s="36"/>
       <c r="AH116" s="36"/>
-      <c r="AI116" s="36" t="s">
-        <v>319</v>
-      </c>
+      <c r="AI116" s="36"/>
     </row>
     <row r="117" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B117" s="33"/>
-      <c r="C117" s="34"/>
-      <c r="D117" s="35"/>
-      <c r="E117" s="35"/>
-      <c r="F117" s="35"/>
-      <c r="G117" s="35"/>
-      <c r="H117" s="35"/>
-      <c r="I117" s="36"/>
-      <c r="J117" s="36"/>
-      <c r="K117" s="36"/>
-      <c r="L117" s="36"/>
-      <c r="M117" s="34"/>
-      <c r="N117" s="34"/>
-      <c r="O117" s="34"/>
-      <c r="P117" s="34"/>
-      <c r="Q117" s="34"/>
-      <c r="R117" s="34"/>
-      <c r="S117" s="34"/>
-      <c r="T117" s="34"/>
-      <c r="U117" s="36"/>
-      <c r="V117" s="34"/>
-      <c r="W117" s="36"/>
-      <c r="X117" s="36"/>
-      <c r="Y117" s="36"/>
-      <c r="Z117" s="36"/>
-      <c r="AA117" s="36"/>
-      <c r="AB117" s="36"/>
-      <c r="AC117" s="36"/>
-      <c r="AD117" s="36"/>
-      <c r="AE117" s="36"/>
-      <c r="AF117" s="36"/>
-      <c r="AG117" s="36"/>
-      <c r="AH117" s="36"/>
-      <c r="AI117" s="36"/>
+      <c r="A117" s="31"/>
+      <c r="B117" s="31"/>
+      <c r="C117" s="31"/>
+      <c r="E117" s="31"/>
+      <c r="F117" s="31"/>
+      <c r="AE117" s="31"/>
+      <c r="AF117" s="31"/>
+      <c r="AG117" s="31"/>
+      <c r="AH117" s="31"/>
+      <c r="AI117" s="31"/>
     </row>
     <row r="118" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="31"/>
-      <c r="B118" s="31"/>
-      <c r="C118" s="31"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
-      <c r="AE118" s="31"/>
-      <c r="AF118" s="31"/>
-      <c r="AG118" s="31"/>
-      <c r="AH118" s="31"/>
-      <c r="AI118" s="31"/>
+      <c r="A118" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B118" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="C118" s="34" t="s">
+        <v>336</v>
+      </c>
+      <c r="D118" s="35"/>
+      <c r="E118" s="35"/>
+      <c r="F118" s="35"/>
+      <c r="G118" s="35"/>
+      <c r="H118" s="35"/>
+      <c r="I118" s="36"/>
+      <c r="J118" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="K118" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L118" s="36"/>
+      <c r="M118" s="34"/>
+      <c r="N118" s="34"/>
+      <c r="O118" s="34"/>
+      <c r="P118" s="34"/>
+      <c r="Q118" s="34"/>
+      <c r="R118" s="34"/>
+      <c r="S118" s="34"/>
+      <c r="T118" s="34"/>
+      <c r="U118" s="36"/>
+      <c r="V118" s="34"/>
+      <c r="W118" s="36"/>
+      <c r="X118" s="36"/>
+      <c r="Y118" s="36"/>
+      <c r="Z118" s="36"/>
+      <c r="AA118" s="36"/>
+      <c r="AB118" s="36"/>
+      <c r="AC118" s="36"/>
+      <c r="AD118" s="36"/>
+      <c r="AE118" s="36"/>
+      <c r="AF118" s="36"/>
+      <c r="AG118" s="36"/>
+      <c r="AH118" s="36"/>
+      <c r="AI118" s="36"/>
     </row>
     <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="33" t="s">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="B119" s="33" t="s">
-        <v>240</v>
+        <v>339</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D119" s="35"/>
       <c r="E119" s="35"/>
       <c r="F119" s="35"/>
       <c r="G119" s="35"/>
       <c r="H119" s="35"/>
-      <c r="I119" s="36"/>
-      <c r="J119" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="K119" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L119" s="36"/>
-      <c r="M119" s="34"/>
+      <c r="I119" s="34" t="s">
+        <v>57</v>
+      </c>
+      <c r="J119" s="34"/>
+      <c r="K119" s="34"/>
+      <c r="L119" s="34" t="s">
+        <v>285</v>
+      </c>
+      <c r="M119" s="34" t="s">
+        <v>286</v>
+      </c>
       <c r="N119" s="34"/>
       <c r="O119" s="34"/>
       <c r="P119" s="34"/>
@@ -7452,31 +7450,31 @@
       <c r="R119" s="34"/>
       <c r="S119" s="34"/>
       <c r="T119" s="34"/>
-      <c r="U119" s="36"/>
+      <c r="U119" s="34"/>
       <c r="V119" s="34"/>
-      <c r="W119" s="36"/>
-      <c r="X119" s="36"/>
-      <c r="Y119" s="36"/>
-      <c r="Z119" s="36"/>
-      <c r="AA119" s="36"/>
-      <c r="AB119" s="36"/>
-      <c r="AC119" s="36"/>
-      <c r="AD119" s="36"/>
-      <c r="AE119" s="36"/>
-      <c r="AF119" s="36"/>
-      <c r="AG119" s="36"/>
-      <c r="AH119" s="36"/>
-      <c r="AI119" s="36"/>
+      <c r="W119" s="34"/>
+      <c r="X119" s="34"/>
+      <c r="Y119" s="34"/>
+      <c r="Z119" s="34"/>
+      <c r="AA119" s="34"/>
+      <c r="AB119" s="34"/>
+      <c r="AC119" s="34"/>
+      <c r="AD119" s="34"/>
+      <c r="AE119" s="34"/>
+      <c r="AF119" s="34"/>
+      <c r="AG119" s="34"/>
+      <c r="AH119" s="34"/>
+      <c r="AI119" s="34"/>
     </row>
     <row r="120" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="35"/>
@@ -7488,12 +7486,8 @@
       </c>
       <c r="J120" s="34"/>
       <c r="K120" s="34"/>
-      <c r="L120" s="34" t="s">
-        <v>285</v>
-      </c>
-      <c r="M120" s="34" t="s">
-        <v>286</v>
-      </c>
+      <c r="L120" s="34"/>
+      <c r="M120" s="34"/>
       <c r="N120" s="34"/>
       <c r="O120" s="34"/>
       <c r="P120" s="34"/>
@@ -7519,13 +7513,13 @@
     </row>
     <row r="121" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
-        <v>335</v>
+        <v>289</v>
       </c>
       <c r="B121" s="33" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C121" s="34" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="D121" s="35"/>
       <c r="E121" s="35"/>
@@ -7535,10 +7529,16 @@
       <c r="I121" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="J121" s="34"/>
+      <c r="J121" s="34" t="s">
+        <v>343</v>
+      </c>
       <c r="K121" s="34"/>
-      <c r="L121" s="34"/>
-      <c r="M121" s="34"/>
+      <c r="L121" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="M121" s="34" t="s">
+        <v>334</v>
+      </c>
       <c r="N121" s="34"/>
       <c r="O121" s="34"/>
       <c r="P121" s="34"/>
@@ -7564,32 +7564,20 @@
     </row>
     <row r="122" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="B122" s="33" t="s">
-        <v>342</v>
-      </c>
-      <c r="C122" s="34" t="s">
-        <v>332</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B122" s="33"/>
+      <c r="C122" s="34"/>
       <c r="D122" s="35"/>
       <c r="E122" s="35"/>
       <c r="F122" s="35"/>
       <c r="G122" s="35"/>
       <c r="H122" s="35"/>
-      <c r="I122" s="34" t="s">
-        <v>57</v>
-      </c>
-      <c r="J122" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="K122" s="34"/>
-      <c r="L122" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="M122" s="34" t="s">
-        <v>334</v>
-      </c>
+      <c r="I122" s="36"/>
+      <c r="J122" s="36"/>
+      <c r="K122" s="36"/>
+      <c r="L122" s="36"/>
+      <c r="M122" s="34"/>
       <c r="N122" s="34"/>
       <c r="O122" s="34"/>
       <c r="P122" s="34"/>
@@ -7597,82 +7585,92 @@
       <c r="R122" s="34"/>
       <c r="S122" s="34"/>
       <c r="T122" s="34"/>
-      <c r="U122" s="34"/>
+      <c r="U122" s="36"/>
       <c r="V122" s="34"/>
-      <c r="W122" s="34"/>
-      <c r="X122" s="34"/>
-      <c r="Y122" s="34"/>
-      <c r="Z122" s="34"/>
-      <c r="AA122" s="34"/>
-      <c r="AB122" s="34"/>
-      <c r="AC122" s="34"/>
-      <c r="AD122" s="34"/>
-      <c r="AE122" s="34"/>
-      <c r="AF122" s="34"/>
-      <c r="AG122" s="34"/>
-      <c r="AH122" s="34"/>
-      <c r="AI122" s="34"/>
+      <c r="W122" s="36"/>
+      <c r="X122" s="36"/>
+      <c r="Y122" s="36"/>
+      <c r="Z122" s="36"/>
+      <c r="AA122" s="36"/>
+      <c r="AB122" s="36"/>
+      <c r="AC122" s="36"/>
+      <c r="AD122" s="36"/>
+      <c r="AE122" s="36"/>
+      <c r="AF122" s="36"/>
+      <c r="AG122" s="36"/>
+      <c r="AH122" s="36"/>
+      <c r="AI122" s="36"/>
     </row>
     <row r="123" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B123" s="33"/>
-      <c r="C123" s="34"/>
-      <c r="D123" s="35"/>
-      <c r="E123" s="35"/>
-      <c r="F123" s="35"/>
-      <c r="G123" s="35"/>
-      <c r="H123" s="35"/>
-      <c r="I123" s="36"/>
-      <c r="J123" s="36"/>
-      <c r="K123" s="36"/>
-      <c r="L123" s="36"/>
-      <c r="M123" s="34"/>
-      <c r="N123" s="34"/>
-      <c r="O123" s="34"/>
-      <c r="P123" s="34"/>
-      <c r="Q123" s="34"/>
-      <c r="R123" s="34"/>
-      <c r="S123" s="34"/>
-      <c r="T123" s="34"/>
-      <c r="U123" s="36"/>
-      <c r="V123" s="34"/>
-      <c r="W123" s="36"/>
-      <c r="X123" s="36"/>
-      <c r="Y123" s="36"/>
-      <c r="Z123" s="36"/>
-      <c r="AA123" s="36"/>
-      <c r="AB123" s="36"/>
-      <c r="AC123" s="36"/>
-      <c r="AD123" s="36"/>
-      <c r="AE123" s="36"/>
-      <c r="AF123" s="36"/>
-      <c r="AG123" s="36"/>
-      <c r="AH123" s="36"/>
-      <c r="AI123" s="36"/>
+      <c r="A123" s="31"/>
+      <c r="B123" s="31"/>
+      <c r="C123" s="31"/>
+      <c r="E123" s="31"/>
+      <c r="F123" s="31"/>
+      <c r="AE123" s="31"/>
+      <c r="AF123" s="31"/>
+      <c r="AG123" s="31"/>
+      <c r="AH123" s="31"/>
+      <c r="AI123" s="31"/>
     </row>
     <row r="124" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="31"/>
-      <c r="B124" s="31"/>
-      <c r="C124" s="31"/>
-      <c r="E124" s="31"/>
-      <c r="F124" s="31"/>
-      <c r="AE124" s="31"/>
-      <c r="AF124" s="31"/>
-      <c r="AG124" s="31"/>
-      <c r="AH124" s="31"/>
-      <c r="AI124" s="31"/>
+      <c r="A124" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B124" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="C124" s="34" t="s">
+        <v>396</v>
+      </c>
+      <c r="D124" s="35"/>
+      <c r="E124" s="35"/>
+      <c r="F124" s="35"/>
+      <c r="G124" s="35"/>
+      <c r="H124" s="35"/>
+      <c r="I124" s="36"/>
+      <c r="J124" s="36" t="s">
+        <v>337</v>
+      </c>
+      <c r="K124" s="36" t="s">
+        <v>344</v>
+      </c>
+      <c r="L124" s="36"/>
+      <c r="M124" s="34"/>
+      <c r="N124" s="34"/>
+      <c r="O124" s="34"/>
+      <c r="P124" s="34"/>
+      <c r="Q124" s="34"/>
+      <c r="R124" s="34"/>
+      <c r="S124" s="34"/>
+      <c r="T124" s="34"/>
+      <c r="U124" s="36"/>
+      <c r="V124" s="34"/>
+      <c r="W124" s="36"/>
+      <c r="X124" s="36"/>
+      <c r="Y124" s="36"/>
+      <c r="Z124" s="36"/>
+      <c r="AA124" s="36"/>
+      <c r="AB124" s="36"/>
+      <c r="AC124" s="36"/>
+      <c r="AD124" s="36"/>
+      <c r="AE124" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF124" s="36"/>
+      <c r="AG124" s="36"/>
+      <c r="AH124" s="36"/>
+      <c r="AI124" s="36"/>
     </row>
     <row r="125" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="33" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="D125" s="35"/>
       <c r="E125" s="35"/>
@@ -7680,12 +7678,8 @@
       <c r="G125" s="35"/>
       <c r="H125" s="35"/>
       <c r="I125" s="36"/>
-      <c r="J125" s="36" t="s">
-        <v>337</v>
-      </c>
-      <c r="K125" s="36" t="s">
-        <v>344</v>
-      </c>
+      <c r="J125" s="36"/>
+      <c r="K125" s="36"/>
       <c r="L125" s="36"/>
       <c r="M125" s="34"/>
       <c r="N125" s="34"/>
@@ -7705,9 +7699,7 @@
       <c r="AB125" s="36"/>
       <c r="AC125" s="36"/>
       <c r="AD125" s="36"/>
-      <c r="AE125" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE125" s="36"/>
       <c r="AF125" s="36"/>
       <c r="AG125" s="36"/>
       <c r="AH125" s="36"/>
@@ -7718,10 +7710,10 @@
         <v>117</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D126" s="35"/>
       <c r="E126" s="35"/>
@@ -7761,10 +7753,10 @@
         <v>117</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C127" s="34" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D127" s="35"/>
       <c r="E127" s="35"/>
@@ -7804,10 +7796,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C128" s="34" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D128" s="35"/>
       <c r="E128" s="35"/>
@@ -7847,10 +7839,10 @@
         <v>117</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C129" s="34" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D129" s="35"/>
       <c r="E129" s="35"/>
@@ -7887,30 +7879,26 @@
     </row>
     <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B130" s="33" t="s">
-        <v>401</v>
-      </c>
-      <c r="C130" s="34" t="s">
-        <v>406</v>
-      </c>
-      <c r="D130" s="35"/>
-      <c r="E130" s="35"/>
-      <c r="F130" s="35"/>
-      <c r="G130" s="35"/>
-      <c r="H130" s="35"/>
+        <v>68</v>
+      </c>
+      <c r="B130" s="33"/>
+      <c r="C130" s="34"/>
+      <c r="D130" s="36"/>
+      <c r="E130" s="36"/>
+      <c r="F130" s="36"/>
+      <c r="G130" s="36"/>
+      <c r="H130" s="36"/>
       <c r="I130" s="36"/>
       <c r="J130" s="36"/>
       <c r="K130" s="36"/>
       <c r="L130" s="36"/>
       <c r="M130" s="34"/>
-      <c r="N130" s="34"/>
-      <c r="O130" s="34"/>
-      <c r="P130" s="34"/>
-      <c r="Q130" s="34"/>
-      <c r="R130" s="34"/>
-      <c r="S130" s="34"/>
+      <c r="N130" s="36"/>
+      <c r="O130" s="36"/>
+      <c r="P130" s="36"/>
+      <c r="Q130" s="36"/>
+      <c r="R130" s="36"/>
+      <c r="S130" s="36"/>
       <c r="T130" s="34"/>
       <c r="U130" s="36"/>
       <c r="V130" s="34"/>
@@ -7929,90 +7917,98 @@
       <c r="AI130" s="36"/>
     </row>
     <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B131" s="33"/>
-      <c r="C131" s="34"/>
-      <c r="D131" s="36"/>
-      <c r="E131" s="36"/>
-      <c r="F131" s="36"/>
-      <c r="G131" s="36"/>
-      <c r="H131" s="36"/>
-      <c r="I131" s="36"/>
-      <c r="J131" s="36"/>
-      <c r="K131" s="36"/>
-      <c r="L131" s="36"/>
-      <c r="M131" s="34"/>
-      <c r="N131" s="36"/>
-      <c r="O131" s="36"/>
-      <c r="P131" s="36"/>
-      <c r="Q131" s="36"/>
-      <c r="R131" s="36"/>
-      <c r="S131" s="36"/>
-      <c r="T131" s="34"/>
-      <c r="U131" s="36"/>
-      <c r="V131" s="34"/>
-      <c r="W131" s="36"/>
-      <c r="X131" s="36"/>
-      <c r="Y131" s="36"/>
-      <c r="Z131" s="36"/>
-      <c r="AA131" s="36"/>
-      <c r="AB131" s="36"/>
-      <c r="AC131" s="36"/>
-      <c r="AD131" s="36"/>
-      <c r="AE131" s="36"/>
-      <c r="AF131" s="36"/>
-      <c r="AG131" s="36"/>
-      <c r="AH131" s="36"/>
-      <c r="AI131" s="36"/>
+      <c r="A131" s="42"/>
+      <c r="B131" s="42"/>
+      <c r="C131" s="42"/>
+      <c r="D131" s="31"/>
+      <c r="E131" s="31"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="31"/>
+      <c r="H131" s="31"/>
+      <c r="I131" s="43"/>
+      <c r="J131" s="43"/>
+      <c r="K131" s="43"/>
+      <c r="L131" s="43"/>
+      <c r="M131" s="42"/>
+      <c r="N131" s="42"/>
+      <c r="O131" s="42"/>
+      <c r="P131" s="42"/>
+      <c r="Q131" s="42"/>
+      <c r="R131" s="42"/>
+      <c r="S131" s="42"/>
+      <c r="T131" s="42"/>
+      <c r="U131" s="43"/>
+      <c r="V131" s="42"/>
+      <c r="W131" s="43"/>
+      <c r="X131" s="43"/>
+      <c r="Y131" s="43"/>
+      <c r="Z131" s="43"/>
+      <c r="AA131" s="43"/>
+      <c r="AB131" s="43"/>
+      <c r="AC131" s="43"/>
+      <c r="AD131" s="43"/>
+      <c r="AE131" s="43"/>
+      <c r="AF131" s="43"/>
+      <c r="AG131" s="43"/>
+      <c r="AH131" s="43"/>
+      <c r="AI131" s="43"/>
     </row>
     <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="42"/>
-      <c r="B132" s="42"/>
-      <c r="C132" s="42"/>
-      <c r="D132" s="31"/>
-      <c r="E132" s="31"/>
-      <c r="F132" s="31"/>
-      <c r="G132" s="31"/>
-      <c r="H132" s="31"/>
-      <c r="I132" s="43"/>
-      <c r="J132" s="43"/>
-      <c r="K132" s="43"/>
-      <c r="L132" s="43"/>
-      <c r="M132" s="42"/>
-      <c r="N132" s="42"/>
-      <c r="O132" s="42"/>
-      <c r="P132" s="42"/>
-      <c r="Q132" s="42"/>
-      <c r="R132" s="42"/>
-      <c r="S132" s="42"/>
-      <c r="T132" s="42"/>
-      <c r="U132" s="43"/>
-      <c r="V132" s="42"/>
-      <c r="W132" s="43"/>
-      <c r="X132" s="43"/>
-      <c r="Y132" s="43"/>
-      <c r="Z132" s="43"/>
-      <c r="AA132" s="43"/>
-      <c r="AB132" s="43"/>
-      <c r="AC132" s="43"/>
-      <c r="AD132" s="43"/>
-      <c r="AE132" s="43"/>
-      <c r="AF132" s="43"/>
-      <c r="AG132" s="43"/>
-      <c r="AH132" s="43"/>
-      <c r="AI132" s="43"/>
+      <c r="A132" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B132" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="C132" s="34" t="s">
+        <v>409</v>
+      </c>
+      <c r="D132" s="35"/>
+      <c r="E132" s="35"/>
+      <c r="F132" s="35"/>
+      <c r="G132" s="35"/>
+      <c r="H132" s="35"/>
+      <c r="I132" s="36"/>
+      <c r="J132" s="34" t="s">
+        <v>581</v>
+      </c>
+      <c r="K132" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="L132" s="36"/>
+      <c r="M132" s="34"/>
+      <c r="N132" s="34"/>
+      <c r="O132" s="34"/>
+      <c r="P132" s="34"/>
+      <c r="Q132" s="34"/>
+      <c r="R132" s="34"/>
+      <c r="S132" s="34"/>
+      <c r="T132" s="34"/>
+      <c r="U132" s="36"/>
+      <c r="V132" s="34"/>
+      <c r="W132" s="36"/>
+      <c r="X132" s="36"/>
+      <c r="Y132" s="36"/>
+      <c r="Z132" s="36"/>
+      <c r="AA132" s="36"/>
+      <c r="AB132" s="36"/>
+      <c r="AC132" s="36"/>
+      <c r="AD132" s="36"/>
+      <c r="AE132" s="36"/>
+      <c r="AF132" s="36"/>
+      <c r="AG132" s="36"/>
+      <c r="AH132" s="36"/>
+      <c r="AI132" s="36"/>
     </row>
     <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="33" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>408</v>
+        <v>345</v>
       </c>
       <c r="C133" s="34" t="s">
-        <v>409</v>
+        <v>346</v>
       </c>
       <c r="D133" s="35"/>
       <c r="E133" s="35"/>
@@ -8020,12 +8016,8 @@
       <c r="G133" s="35"/>
       <c r="H133" s="35"/>
       <c r="I133" s="36"/>
-      <c r="J133" s="34" t="s">
-        <v>585</v>
-      </c>
-      <c r="K133" s="36" t="s">
-        <v>47</v>
-      </c>
+      <c r="J133" s="36"/>
+      <c r="K133" s="36"/>
       <c r="L133" s="36"/>
       <c r="M133" s="34"/>
       <c r="N133" s="34"/>
@@ -8045,7 +8037,9 @@
       <c r="AB133" s="36"/>
       <c r="AC133" s="36"/>
       <c r="AD133" s="36"/>
-      <c r="AE133" s="36"/>
+      <c r="AE133" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AF133" s="36"/>
       <c r="AG133" s="36"/>
       <c r="AH133" s="36"/>
@@ -8053,24 +8047,28 @@
     </row>
     <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="33" t="s">
-        <v>117</v>
+        <v>347</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C134" s="34" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D134" s="35"/>
       <c r="E134" s="35"/>
       <c r="F134" s="35"/>
       <c r="G134" s="35"/>
       <c r="H134" s="35"/>
-      <c r="I134" s="36"/>
+      <c r="I134" s="36" t="s">
+        <v>57</v>
+      </c>
       <c r="J134" s="36"/>
       <c r="K134" s="36"/>
-      <c r="L134" s="36"/>
-      <c r="M134" s="34"/>
+      <c r="L134" s="36" t="s">
+        <v>350</v>
+      </c>
+      <c r="M134" s="35"/>
       <c r="N134" s="34"/>
       <c r="O134" s="34"/>
       <c r="P134" s="34"/>
@@ -8078,7 +8076,9 @@
       <c r="R134" s="34"/>
       <c r="S134" s="34"/>
       <c r="T134" s="34"/>
-      <c r="U134" s="36"/>
+      <c r="U134" s="34" t="s">
+        <v>351</v>
+      </c>
       <c r="V134" s="34"/>
       <c r="W134" s="36"/>
       <c r="X134" s="36"/>
@@ -8088,9 +8088,7 @@
       <c r="AB134" s="36"/>
       <c r="AC134" s="36"/>
       <c r="AD134" s="36"/>
-      <c r="AE134" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE134" s="36"/>
       <c r="AF134" s="36"/>
       <c r="AG134" s="36"/>
       <c r="AH134" s="36"/>
@@ -8098,39 +8096,39 @@
     </row>
     <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="33" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C135" s="34" t="s">
-        <v>349</v>
-      </c>
-      <c r="D135" s="35"/>
-      <c r="E135" s="35"/>
-      <c r="F135" s="35"/>
-      <c r="G135" s="35"/>
-      <c r="H135" s="35"/>
+        <v>353</v>
+      </c>
+      <c r="D135" s="36"/>
+      <c r="E135" s="36"/>
+      <c r="F135" s="36"/>
+      <c r="G135" s="36"/>
+      <c r="H135" s="36"/>
       <c r="I135" s="36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J135" s="36"/>
-      <c r="K135" s="36"/>
+      <c r="K135" s="34"/>
       <c r="L135" s="36" t="s">
-        <v>350</v>
-      </c>
-      <c r="M135" s="35"/>
-      <c r="N135" s="34"/>
-      <c r="O135" s="34"/>
-      <c r="P135" s="34"/>
-      <c r="Q135" s="34"/>
-      <c r="R135" s="34"/>
-      <c r="S135" s="34"/>
-      <c r="T135" s="34"/>
-      <c r="U135" s="34" t="s">
-        <v>351</v>
-      </c>
-      <c r="V135" s="34"/>
+        <v>354</v>
+      </c>
+      <c r="M135" s="34" t="s">
+        <v>355</v>
+      </c>
+      <c r="N135" s="36"/>
+      <c r="O135" s="36"/>
+      <c r="P135" s="36"/>
+      <c r="Q135" s="36"/>
+      <c r="R135" s="36"/>
+      <c r="S135" s="36"/>
+      <c r="T135" s="36"/>
+      <c r="U135" s="36"/>
+      <c r="V135" s="36"/>
       <c r="W135" s="36"/>
       <c r="X135" s="36"/>
       <c r="Y135" s="36"/>
@@ -8147,37 +8145,33 @@
     </row>
     <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="33" t="s">
-        <v>331</v>
+        <v>78</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C136" s="34" t="s">
-        <v>353</v>
+        <v>45</v>
       </c>
       <c r="D136" s="36"/>
       <c r="E136" s="36"/>
       <c r="F136" s="36"/>
       <c r="G136" s="36"/>
       <c r="H136" s="36"/>
-      <c r="I136" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J136" s="36"/>
+      <c r="I136" s="36"/>
+      <c r="J136" s="34"/>
       <c r="K136" s="34"/>
-      <c r="L136" s="36" t="s">
-        <v>354</v>
-      </c>
-      <c r="M136" s="34" t="s">
-        <v>355</v>
-      </c>
+      <c r="L136" s="36"/>
+      <c r="M136" s="36"/>
       <c r="N136" s="36"/>
       <c r="O136" s="36"/>
       <c r="P136" s="36"/>
       <c r="Q136" s="36"/>
       <c r="R136" s="36"/>
       <c r="S136" s="36"/>
-      <c r="T136" s="36"/>
+      <c r="T136" s="36" t="s">
+        <v>456</v>
+      </c>
       <c r="U136" s="36"/>
       <c r="V136" s="36"/>
       <c r="W136" s="36"/>
@@ -8188,7 +8182,9 @@
       <c r="AB136" s="36"/>
       <c r="AC136" s="36"/>
       <c r="AD136" s="36"/>
-      <c r="AE136" s="36"/>
+      <c r="AE136" s="36" t="s">
+        <v>50</v>
+      </c>
       <c r="AF136" s="36"/>
       <c r="AG136" s="36"/>
       <c r="AH136" s="36"/>
@@ -8196,35 +8192,29 @@
     </row>
     <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B137" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="C137" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D137" s="36"/>
-      <c r="E137" s="36"/>
-      <c r="F137" s="36"/>
-      <c r="G137" s="36"/>
-      <c r="H137" s="36"/>
+        <v>68</v>
+      </c>
+      <c r="B137" s="33"/>
+      <c r="C137" s="34"/>
+      <c r="D137" s="35"/>
+      <c r="E137" s="35"/>
+      <c r="F137" s="35"/>
+      <c r="G137" s="35"/>
+      <c r="H137" s="35"/>
       <c r="I137" s="36"/>
-      <c r="J137" s="34"/>
-      <c r="K137" s="34"/>
+      <c r="J137" s="36"/>
+      <c r="K137" s="36"/>
       <c r="L137" s="36"/>
-      <c r="M137" s="36"/>
-      <c r="N137" s="36"/>
-      <c r="O137" s="36"/>
-      <c r="P137" s="36"/>
-      <c r="Q137" s="36"/>
-      <c r="R137" s="36"/>
-      <c r="S137" s="36"/>
-      <c r="T137" s="36" t="s">
-        <v>456</v>
-      </c>
+      <c r="M137" s="34"/>
+      <c r="N137" s="34"/>
+      <c r="O137" s="34"/>
+      <c r="P137" s="34"/>
+      <c r="Q137" s="34"/>
+      <c r="R137" s="34"/>
+      <c r="S137" s="34"/>
+      <c r="T137" s="34"/>
       <c r="U137" s="36"/>
-      <c r="V137" s="36"/>
+      <c r="V137" s="34"/>
       <c r="W137" s="36"/>
       <c r="X137" s="36"/>
       <c r="Y137" s="36"/>
@@ -8233,121 +8223,125 @@
       <c r="AB137" s="36"/>
       <c r="AC137" s="36"/>
       <c r="AD137" s="36"/>
-      <c r="AE137" s="36" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE137" s="36"/>
       <c r="AF137" s="36"/>
       <c r="AG137" s="36"/>
       <c r="AH137" s="36"/>
       <c r="AI137" s="36"/>
     </row>
     <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B138" s="33"/>
-      <c r="C138" s="34"/>
-      <c r="D138" s="35"/>
-      <c r="E138" s="35"/>
-      <c r="F138" s="35"/>
-      <c r="G138" s="35"/>
-      <c r="H138" s="35"/>
-      <c r="I138" s="36"/>
-      <c r="J138" s="36"/>
-      <c r="K138" s="36"/>
-      <c r="L138" s="36"/>
-      <c r="M138" s="34"/>
-      <c r="N138" s="34"/>
-      <c r="O138" s="34"/>
-      <c r="P138" s="34"/>
-      <c r="Q138" s="34"/>
-      <c r="R138" s="34"/>
-      <c r="S138" s="34"/>
-      <c r="T138" s="34"/>
-      <c r="U138" s="36"/>
-      <c r="V138" s="34"/>
-      <c r="W138" s="36"/>
-      <c r="X138" s="36"/>
-      <c r="Y138" s="36"/>
-      <c r="Z138" s="36"/>
-      <c r="AA138" s="36"/>
-      <c r="AB138" s="36"/>
-      <c r="AC138" s="36"/>
-      <c r="AD138" s="36"/>
-      <c r="AE138" s="36"/>
-      <c r="AF138" s="36"/>
-      <c r="AG138" s="36"/>
-      <c r="AH138" s="36"/>
-      <c r="AI138" s="36"/>
+      <c r="A138" s="42"/>
+      <c r="B138" s="42"/>
+      <c r="C138" s="42"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="31"/>
+      <c r="G138" s="31"/>
+      <c r="H138" s="31"/>
+      <c r="I138" s="43"/>
+      <c r="J138" s="43"/>
+      <c r="K138" s="43"/>
+      <c r="L138" s="43"/>
+      <c r="M138" s="42"/>
+      <c r="N138" s="42"/>
+      <c r="O138" s="42"/>
+      <c r="P138" s="42"/>
+      <c r="Q138" s="42"/>
+      <c r="R138" s="42"/>
+      <c r="S138" s="42"/>
+      <c r="T138" s="42"/>
+      <c r="U138" s="43"/>
+      <c r="V138" s="42"/>
+      <c r="W138" s="43"/>
+      <c r="X138" s="43"/>
+      <c r="Y138" s="43"/>
+      <c r="Z138" s="43"/>
+      <c r="AA138" s="43"/>
+      <c r="AB138" s="43"/>
+      <c r="AC138" s="43"/>
+      <c r="AD138" s="43"/>
+      <c r="AE138" s="43"/>
+      <c r="AF138" s="43"/>
+      <c r="AG138" s="43"/>
+      <c r="AH138" s="43"/>
+      <c r="AI138" s="43"/>
     </row>
     <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="42"/>
-      <c r="B139" s="42"/>
-      <c r="C139" s="42"/>
-      <c r="D139" s="31"/>
-      <c r="E139" s="31"/>
-      <c r="F139" s="31"/>
-      <c r="G139" s="31"/>
-      <c r="H139" s="31"/>
-      <c r="I139" s="43"/>
-      <c r="J139" s="43"/>
-      <c r="K139" s="43"/>
-      <c r="L139" s="43"/>
-      <c r="M139" s="42"/>
-      <c r="N139" s="42"/>
-      <c r="O139" s="42"/>
-      <c r="P139" s="42"/>
-      <c r="Q139" s="42"/>
-      <c r="R139" s="42"/>
-      <c r="S139" s="42"/>
-      <c r="T139" s="42"/>
-      <c r="U139" s="43"/>
-      <c r="V139" s="42"/>
-      <c r="W139" s="43"/>
-      <c r="X139" s="43"/>
-      <c r="Y139" s="43"/>
-      <c r="Z139" s="43"/>
-      <c r="AA139" s="43"/>
-      <c r="AB139" s="43"/>
-      <c r="AC139" s="43"/>
-      <c r="AD139" s="43"/>
-      <c r="AE139" s="43"/>
-      <c r="AF139" s="43"/>
-      <c r="AG139" s="43"/>
-      <c r="AH139" s="43"/>
-      <c r="AI139" s="43"/>
+      <c r="A139" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B139" s="44" t="s">
+        <v>357</v>
+      </c>
+      <c r="C139" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D139" s="46"/>
+      <c r="E139" s="46"/>
+      <c r="F139" s="46"/>
+      <c r="G139" s="46"/>
+      <c r="H139" s="46"/>
+      <c r="I139" s="47"/>
+      <c r="J139" s="47"/>
+      <c r="K139" s="47" t="s">
+        <v>344</v>
+      </c>
+      <c r="L139" s="47"/>
+      <c r="M139" s="45"/>
+      <c r="N139" s="45"/>
+      <c r="O139" s="45"/>
+      <c r="P139" s="45"/>
+      <c r="Q139" s="45"/>
+      <c r="R139" s="45"/>
+      <c r="S139" s="45"/>
+      <c r="T139" s="45"/>
+      <c r="U139" s="47"/>
+      <c r="V139" s="45"/>
+      <c r="W139" s="47"/>
+      <c r="X139" s="47"/>
+      <c r="Y139" s="47"/>
+      <c r="Z139" s="47"/>
+      <c r="AA139" s="47"/>
+      <c r="AB139" s="47"/>
+      <c r="AC139" s="47"/>
+      <c r="AD139" s="47"/>
+      <c r="AE139" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF139" s="47"/>
+      <c r="AG139" s="47"/>
+      <c r="AH139" s="47"/>
+      <c r="AI139" s="47"/>
     </row>
     <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B140" s="44" t="s">
-        <v>357</v>
+      <c r="A140" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B140" s="48" t="s">
+        <v>358</v>
       </c>
       <c r="C140" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="D140" s="46"/>
-      <c r="E140" s="46"/>
-      <c r="F140" s="46"/>
-      <c r="G140" s="46"/>
-      <c r="H140" s="46"/>
+        <v>359</v>
+      </c>
+      <c r="D140" s="47"/>
+      <c r="E140" s="47"/>
+      <c r="F140" s="47"/>
+      <c r="G140" s="47"/>
+      <c r="H140" s="47"/>
       <c r="I140" s="47"/>
       <c r="J140" s="47"/>
-      <c r="K140" s="47" t="s">
-        <v>344</v>
-      </c>
+      <c r="K140" s="47"/>
       <c r="L140" s="47"/>
-      <c r="M140" s="45"/>
-      <c r="N140" s="45"/>
-      <c r="O140" s="45"/>
-      <c r="P140" s="45"/>
-      <c r="Q140" s="45"/>
-      <c r="R140" s="45"/>
-      <c r="S140" s="45"/>
-      <c r="T140" s="45"/>
+      <c r="M140" s="47"/>
+      <c r="N140" s="47"/>
+      <c r="O140" s="47"/>
+      <c r="P140" s="47"/>
+      <c r="Q140" s="47"/>
+      <c r="R140" s="47"/>
+      <c r="S140" s="47"/>
+      <c r="T140" s="47"/>
       <c r="U140" s="47"/>
-      <c r="V140" s="45"/>
+      <c r="V140" s="47"/>
       <c r="W140" s="47"/>
       <c r="X140" s="47"/>
       <c r="Y140" s="47"/>
@@ -8356,23 +8350,21 @@
       <c r="AB140" s="47"/>
       <c r="AC140" s="47"/>
       <c r="AD140" s="47"/>
-      <c r="AE140" s="47" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE140" s="47"/>
       <c r="AF140" s="47"/>
       <c r="AG140" s="47"/>
       <c r="AH140" s="47"/>
       <c r="AI140" s="47"/>
     </row>
     <row r="141" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="48" t="s">
+      <c r="A141" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B141" s="48" t="s">
-        <v>358</v>
+      <c r="B141" s="44" t="s">
+        <v>360</v>
       </c>
       <c r="C141" s="45" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D141" s="47"/>
       <c r="E141" s="47"/>
@@ -8381,7 +8373,9 @@
       <c r="H141" s="47"/>
       <c r="I141" s="47"/>
       <c r="J141" s="47"/>
-      <c r="K141" s="47"/>
+      <c r="K141" s="45" t="s">
+        <v>362</v>
+      </c>
       <c r="L141" s="47"/>
       <c r="M141" s="47"/>
       <c r="N141" s="47"/>
@@ -8412,10 +8406,10 @@
         <v>117</v>
       </c>
       <c r="B142" s="44" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="C142" s="45" t="s">
-        <v>361</v>
+        <v>460</v>
       </c>
       <c r="D142" s="47"/>
       <c r="E142" s="47"/>
@@ -8424,9 +8418,7 @@
       <c r="H142" s="47"/>
       <c r="I142" s="47"/>
       <c r="J142" s="47"/>
-      <c r="K142" s="45" t="s">
-        <v>362</v>
-      </c>
+      <c r="K142" s="45"/>
       <c r="L142" s="47"/>
       <c r="M142" s="47"/>
       <c r="N142" s="47"/>
@@ -8457,10 +8449,10 @@
         <v>117</v>
       </c>
       <c r="B143" s="44" t="s">
-        <v>363</v>
+        <v>414</v>
       </c>
       <c r="C143" s="45" t="s">
-        <v>460</v>
+        <v>410</v>
       </c>
       <c r="D143" s="47"/>
       <c r="E143" s="47"/>
@@ -8469,7 +8461,9 @@
       <c r="H143" s="47"/>
       <c r="I143" s="47"/>
       <c r="J143" s="47"/>
-      <c r="K143" s="45"/>
+      <c r="K143" s="45" t="s">
+        <v>362</v>
+      </c>
       <c r="L143" s="47"/>
       <c r="M143" s="47"/>
       <c r="N143" s="47"/>
@@ -8500,10 +8494,10 @@
         <v>117</v>
       </c>
       <c r="B144" s="44" t="s">
-        <v>414</v>
-      </c>
-      <c r="C144" s="45" t="s">
-        <v>410</v>
+        <v>364</v>
+      </c>
+      <c r="C144" s="47" t="s">
+        <v>411</v>
       </c>
       <c r="D144" s="47"/>
       <c r="E144" s="47"/>
@@ -8511,9 +8505,9 @@
       <c r="G144" s="47"/>
       <c r="H144" s="47"/>
       <c r="I144" s="47"/>
-      <c r="J144" s="47"/>
+      <c r="J144" s="46"/>
       <c r="K144" s="45" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="L144" s="47"/>
       <c r="M144" s="47"/>
@@ -8545,32 +8539,34 @@
         <v>117</v>
       </c>
       <c r="B145" s="44" t="s">
-        <v>364</v>
-      </c>
-      <c r="C145" s="47" t="s">
-        <v>411</v>
-      </c>
-      <c r="D145" s="47"/>
-      <c r="E145" s="47"/>
-      <c r="F145" s="47"/>
-      <c r="G145" s="47"/>
-      <c r="H145" s="47"/>
+        <v>366</v>
+      </c>
+      <c r="C145" s="45" t="s">
+        <v>247</v>
+      </c>
+      <c r="D145" s="46"/>
+      <c r="E145" s="46"/>
+      <c r="F145" s="46"/>
+      <c r="G145" s="46"/>
+      <c r="H145" s="46"/>
       <c r="I145" s="47"/>
-      <c r="J145" s="46"/>
-      <c r="K145" s="45" t="s">
-        <v>365</v>
+      <c r="J145" s="45" t="s">
+        <v>582</v>
+      </c>
+      <c r="K145" s="47" t="s">
+        <v>367</v>
       </c>
       <c r="L145" s="47"/>
-      <c r="M145" s="47"/>
-      <c r="N145" s="47"/>
-      <c r="O145" s="47"/>
-      <c r="P145" s="47"/>
-      <c r="Q145" s="47"/>
-      <c r="R145" s="47"/>
-      <c r="S145" s="47"/>
-      <c r="T145" s="47"/>
+      <c r="M145" s="45"/>
+      <c r="N145" s="45"/>
+      <c r="O145" s="45"/>
+      <c r="P145" s="45"/>
+      <c r="Q145" s="45"/>
+      <c r="R145" s="45"/>
+      <c r="S145" s="45"/>
+      <c r="T145" s="45"/>
       <c r="U145" s="47"/>
-      <c r="V145" s="47"/>
+      <c r="V145" s="45"/>
       <c r="W145" s="47"/>
       <c r="X145" s="47"/>
       <c r="Y145" s="47"/>
@@ -8590,10 +8586,10 @@
         <v>117</v>
       </c>
       <c r="B146" s="44" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C146" s="45" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D146" s="46"/>
       <c r="E146" s="46"/>
@@ -8602,7 +8598,7 @@
       <c r="H146" s="46"/>
       <c r="I146" s="47"/>
       <c r="J146" s="45" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="K146" s="47" t="s">
         <v>367</v>
@@ -8637,10 +8633,10 @@
         <v>117</v>
       </c>
       <c r="B147" s="44" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C147" s="45" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D147" s="46"/>
       <c r="E147" s="46"/>
@@ -8649,7 +8645,7 @@
       <c r="H147" s="46"/>
       <c r="I147" s="47"/>
       <c r="J147" s="45" t="s">
-        <v>587</v>
+        <v>416</v>
       </c>
       <c r="K147" s="47" t="s">
         <v>367</v>
@@ -8684,34 +8680,34 @@
         <v>117</v>
       </c>
       <c r="B148" s="44" t="s">
-        <v>369</v>
-      </c>
-      <c r="C148" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="D148" s="46"/>
-      <c r="E148" s="46"/>
-      <c r="F148" s="46"/>
-      <c r="G148" s="46"/>
-      <c r="H148" s="46"/>
+        <v>413</v>
+      </c>
+      <c r="C148" s="47" t="s">
+        <v>370</v>
+      </c>
+      <c r="D148" s="47"/>
+      <c r="E148" s="47"/>
+      <c r="F148" s="47"/>
+      <c r="G148" s="47"/>
+      <c r="H148" s="47"/>
       <c r="I148" s="47"/>
       <c r="J148" s="45" t="s">
         <v>416</v>
       </c>
-      <c r="K148" s="47" t="s">
-        <v>367</v>
+      <c r="K148" s="45" t="s">
+        <v>365</v>
       </c>
       <c r="L148" s="47"/>
-      <c r="M148" s="45"/>
-      <c r="N148" s="45"/>
-      <c r="O148" s="45"/>
-      <c r="P148" s="45"/>
-      <c r="Q148" s="45"/>
-      <c r="R148" s="45"/>
-      <c r="S148" s="45"/>
-      <c r="T148" s="45"/>
+      <c r="M148" s="47"/>
+      <c r="N148" s="47"/>
+      <c r="O148" s="47"/>
+      <c r="P148" s="47"/>
+      <c r="Q148" s="47"/>
+      <c r="R148" s="47"/>
+      <c r="S148" s="47"/>
+      <c r="T148" s="47"/>
       <c r="U148" s="47"/>
-      <c r="V148" s="45"/>
+      <c r="V148" s="47"/>
       <c r="W148" s="47"/>
       <c r="X148" s="47"/>
       <c r="Y148" s="47"/>
@@ -8731,34 +8727,34 @@
         <v>117</v>
       </c>
       <c r="B149" s="44" t="s">
-        <v>413</v>
-      </c>
-      <c r="C149" s="47" t="s">
-        <v>370</v>
-      </c>
-      <c r="D149" s="47"/>
-      <c r="E149" s="47"/>
-      <c r="F149" s="47"/>
-      <c r="G149" s="47"/>
-      <c r="H149" s="47"/>
+        <v>371</v>
+      </c>
+      <c r="C149" s="45" t="s">
+        <v>412</v>
+      </c>
+      <c r="D149" s="46"/>
+      <c r="E149" s="46"/>
+      <c r="F149" s="46"/>
+      <c r="G149" s="46"/>
+      <c r="H149" s="46"/>
       <c r="I149" s="47"/>
       <c r="J149" s="45" t="s">
         <v>416</v>
       </c>
-      <c r="K149" s="45" t="s">
-        <v>365</v>
+      <c r="K149" s="47" t="s">
+        <v>367</v>
       </c>
       <c r="L149" s="47"/>
-      <c r="M149" s="47"/>
-      <c r="N149" s="47"/>
-      <c r="O149" s="47"/>
-      <c r="P149" s="47"/>
-      <c r="Q149" s="47"/>
-      <c r="R149" s="47"/>
-      <c r="S149" s="47"/>
-      <c r="T149" s="47"/>
+      <c r="M149" s="45"/>
+      <c r="N149" s="45"/>
+      <c r="O149" s="45"/>
+      <c r="P149" s="45"/>
+      <c r="Q149" s="45"/>
+      <c r="R149" s="45"/>
+      <c r="S149" s="45"/>
+      <c r="T149" s="45"/>
       <c r="U149" s="47"/>
-      <c r="V149" s="47"/>
+      <c r="V149" s="45"/>
       <c r="W149" s="47"/>
       <c r="X149" s="47"/>
       <c r="Y149" s="47"/>
@@ -8778,10 +8774,10 @@
         <v>117</v>
       </c>
       <c r="B150" s="44" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C150" s="45" t="s">
-        <v>412</v>
+        <v>455</v>
       </c>
       <c r="D150" s="46"/>
       <c r="E150" s="46"/>
@@ -8825,10 +8821,10 @@
         <v>117</v>
       </c>
       <c r="B151" s="44" t="s">
-        <v>372</v>
+        <v>418</v>
       </c>
       <c r="C151" s="45" t="s">
-        <v>455</v>
+        <v>428</v>
       </c>
       <c r="D151" s="46"/>
       <c r="E151" s="46"/>
@@ -8837,10 +8833,10 @@
       <c r="H151" s="46"/>
       <c r="I151" s="47"/>
       <c r="J151" s="45" t="s">
-        <v>416</v>
-      </c>
-      <c r="K151" s="47" t="s">
-        <v>367</v>
+        <v>429</v>
+      </c>
+      <c r="K151" s="45" t="s">
+        <v>365</v>
       </c>
       <c r="L151" s="47"/>
       <c r="M151" s="45"/>
@@ -8872,34 +8868,34 @@
         <v>117</v>
       </c>
       <c r="B152" s="44" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C152" s="45" t="s">
-        <v>428</v>
-      </c>
-      <c r="D152" s="46"/>
-      <c r="E152" s="46"/>
-      <c r="F152" s="46"/>
-      <c r="G152" s="46"/>
-      <c r="H152" s="46"/>
+        <v>439</v>
+      </c>
+      <c r="D152" s="47"/>
+      <c r="E152" s="47"/>
+      <c r="F152" s="47"/>
+      <c r="G152" s="47"/>
+      <c r="H152" s="47"/>
       <c r="I152" s="47"/>
       <c r="J152" s="45" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K152" s="45" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L152" s="47"/>
-      <c r="M152" s="45"/>
-      <c r="N152" s="45"/>
-      <c r="O152" s="45"/>
-      <c r="P152" s="45"/>
-      <c r="Q152" s="45"/>
-      <c r="R152" s="45"/>
-      <c r="S152" s="45"/>
-      <c r="T152" s="45"/>
+      <c r="M152" s="47"/>
+      <c r="N152" s="47"/>
+      <c r="O152" s="47"/>
+      <c r="P152" s="47"/>
+      <c r="Q152" s="47"/>
+      <c r="R152" s="47"/>
+      <c r="S152" s="47"/>
+      <c r="T152" s="47"/>
       <c r="U152" s="47"/>
-      <c r="V152" s="45"/>
+      <c r="V152" s="47"/>
       <c r="W152" s="47"/>
       <c r="X152" s="47"/>
       <c r="Y152" s="47"/>
@@ -8919,10 +8915,10 @@
         <v>117</v>
       </c>
       <c r="B153" s="44" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C153" s="45" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D153" s="47"/>
       <c r="E153" s="47"/>
@@ -8931,7 +8927,7 @@
       <c r="H153" s="47"/>
       <c r="I153" s="47"/>
       <c r="J153" s="45" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="K153" s="45" t="s">
         <v>367</v>
@@ -8966,10 +8962,10 @@
         <v>117</v>
       </c>
       <c r="B154" s="44" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D154" s="47"/>
       <c r="E154" s="47"/>
@@ -8978,7 +8974,7 @@
       <c r="H154" s="47"/>
       <c r="I154" s="47"/>
       <c r="J154" s="45" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="K154" s="45" t="s">
         <v>367</v>
@@ -9013,10 +9009,10 @@
         <v>117</v>
       </c>
       <c r="B155" s="44" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C155" s="45" t="s">
-        <v>441</v>
+        <v>210</v>
       </c>
       <c r="D155" s="47"/>
       <c r="E155" s="47"/>
@@ -9025,7 +9021,7 @@
       <c r="H155" s="47"/>
       <c r="I155" s="47"/>
       <c r="J155" s="45" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="K155" s="45" t="s">
         <v>367</v>
@@ -9060,10 +9056,10 @@
         <v>117</v>
       </c>
       <c r="B156" s="44" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C156" s="45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D156" s="47"/>
       <c r="E156" s="47"/>
@@ -9072,7 +9068,7 @@
       <c r="H156" s="47"/>
       <c r="I156" s="47"/>
       <c r="J156" s="45" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K156" s="45" t="s">
         <v>367</v>
@@ -9107,10 +9103,10 @@
         <v>117</v>
       </c>
       <c r="B157" s="44" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C157" s="45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D157" s="47"/>
       <c r="E157" s="47"/>
@@ -9119,7 +9115,7 @@
       <c r="H157" s="47"/>
       <c r="I157" s="47"/>
       <c r="J157" s="45" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K157" s="45" t="s">
         <v>367</v>
@@ -9154,10 +9150,10 @@
         <v>117</v>
       </c>
       <c r="B158" s="44" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C158" s="45" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D158" s="47"/>
       <c r="E158" s="47"/>
@@ -9166,7 +9162,7 @@
       <c r="H158" s="47"/>
       <c r="I158" s="47"/>
       <c r="J158" s="45" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="K158" s="45" t="s">
         <v>367</v>
@@ -9201,10 +9197,10 @@
         <v>117</v>
       </c>
       <c r="B159" s="44" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D159" s="47"/>
       <c r="E159" s="47"/>
@@ -9213,7 +9209,7 @@
       <c r="H159" s="47"/>
       <c r="I159" s="47"/>
       <c r="J159" s="45" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="K159" s="45" t="s">
         <v>367</v>
@@ -9248,10 +9244,10 @@
         <v>117</v>
       </c>
       <c r="B160" s="44" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C160" s="45" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D160" s="47"/>
       <c r="E160" s="47"/>
@@ -9260,7 +9256,7 @@
       <c r="H160" s="47"/>
       <c r="I160" s="47"/>
       <c r="J160" s="45" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="K160" s="45" t="s">
         <v>367</v>
@@ -9295,10 +9291,10 @@
         <v>117</v>
       </c>
       <c r="B161" s="44" t="s">
-        <v>427</v>
+        <v>374</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>215</v>
+        <v>375</v>
       </c>
       <c r="D161" s="47"/>
       <c r="E161" s="47"/>
@@ -9306,11 +9302,11 @@
       <c r="G161" s="47"/>
       <c r="H161" s="47"/>
       <c r="I161" s="47"/>
-      <c r="J161" s="45" t="s">
-        <v>438</v>
+      <c r="J161" s="47" t="s">
+        <v>442</v>
       </c>
       <c r="K161" s="45" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="L161" s="47"/>
       <c r="M161" s="47"/>
@@ -9342,10 +9338,10 @@
         <v>117</v>
       </c>
       <c r="B162" s="44" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C162" s="45" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D162" s="47"/>
       <c r="E162" s="47"/>
@@ -9353,12 +9349,10 @@
       <c r="G162" s="47"/>
       <c r="H162" s="47"/>
       <c r="I162" s="47"/>
-      <c r="J162" s="47" t="s">
-        <v>442</v>
-      </c>
-      <c r="K162" s="45" t="s">
-        <v>376</v>
-      </c>
+      <c r="J162" s="45" t="s">
+        <v>379</v>
+      </c>
+      <c r="K162" s="45"/>
       <c r="L162" s="47"/>
       <c r="M162" s="47"/>
       <c r="N162" s="47"/>
@@ -9389,10 +9383,10 @@
         <v>117</v>
       </c>
       <c r="B163" s="44" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C163" s="45" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="D163" s="47"/>
       <c r="E163" s="47"/>
@@ -9401,9 +9395,11 @@
       <c r="H163" s="47"/>
       <c r="I163" s="47"/>
       <c r="J163" s="45" t="s">
-        <v>379</v>
-      </c>
-      <c r="K163" s="45"/>
+        <v>429</v>
+      </c>
+      <c r="K163" s="45" t="s">
+        <v>367</v>
+      </c>
       <c r="L163" s="47"/>
       <c r="M163" s="47"/>
       <c r="N163" s="47"/>
@@ -9434,34 +9430,34 @@
         <v>117</v>
       </c>
       <c r="B164" s="44" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C164" s="45" t="s">
-        <v>373</v>
-      </c>
-      <c r="D164" s="47"/>
-      <c r="E164" s="47"/>
-      <c r="F164" s="47"/>
-      <c r="G164" s="47"/>
-      <c r="H164" s="47"/>
+        <v>382</v>
+      </c>
+      <c r="D164" s="46"/>
+      <c r="E164" s="46"/>
+      <c r="F164" s="46"/>
+      <c r="G164" s="46"/>
+      <c r="H164" s="46"/>
       <c r="I164" s="47"/>
       <c r="J164" s="45" t="s">
-        <v>429</v>
-      </c>
-      <c r="K164" s="45" t="s">
+        <v>415</v>
+      </c>
+      <c r="K164" s="47" t="s">
         <v>367</v>
       </c>
       <c r="L164" s="47"/>
-      <c r="M164" s="47"/>
-      <c r="N164" s="47"/>
-      <c r="O164" s="47"/>
-      <c r="P164" s="47"/>
-      <c r="Q164" s="47"/>
-      <c r="R164" s="47"/>
-      <c r="S164" s="47"/>
-      <c r="T164" s="47"/>
+      <c r="M164" s="45"/>
+      <c r="N164" s="45"/>
+      <c r="O164" s="45"/>
+      <c r="P164" s="45"/>
+      <c r="Q164" s="45"/>
+      <c r="R164" s="45"/>
+      <c r="S164" s="45"/>
+      <c r="T164" s="45"/>
       <c r="U164" s="47"/>
-      <c r="V164" s="47"/>
+      <c r="V164" s="45"/>
       <c r="W164" s="47"/>
       <c r="X164" s="47"/>
       <c r="Y164" s="47"/>
@@ -9481,10 +9477,10 @@
         <v>117</v>
       </c>
       <c r="B165" s="44" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C165" s="45" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D165" s="46"/>
       <c r="E165" s="46"/>
@@ -9492,12 +9488,10 @@
       <c r="G165" s="46"/>
       <c r="H165" s="46"/>
       <c r="I165" s="47"/>
-      <c r="J165" s="45" t="s">
-        <v>415</v>
-      </c>
-      <c r="K165" s="47" t="s">
-        <v>367</v>
-      </c>
+      <c r="J165" s="47" t="s">
+        <v>417</v>
+      </c>
+      <c r="K165" s="47"/>
       <c r="L165" s="47"/>
       <c r="M165" s="45"/>
       <c r="N165" s="45"/>
@@ -9528,10 +9522,10 @@
         <v>117</v>
       </c>
       <c r="B166" s="44" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C166" s="45" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D166" s="46"/>
       <c r="E166" s="46"/>
@@ -9573,32 +9567,34 @@
         <v>117</v>
       </c>
       <c r="B167" s="44" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C167" s="45" t="s">
-        <v>386</v>
-      </c>
-      <c r="D167" s="46"/>
-      <c r="E167" s="46"/>
-      <c r="F167" s="46"/>
-      <c r="G167" s="46"/>
-      <c r="H167" s="46"/>
+        <v>388</v>
+      </c>
+      <c r="D167" s="47"/>
+      <c r="E167" s="47"/>
+      <c r="F167" s="47"/>
+      <c r="G167" s="47"/>
+      <c r="H167" s="47"/>
       <c r="I167" s="47"/>
-      <c r="J167" s="47" t="s">
-        <v>417</v>
-      </c>
-      <c r="K167" s="47"/>
+      <c r="J167" s="45" t="s">
+        <v>429</v>
+      </c>
+      <c r="K167" s="45" t="s">
+        <v>389</v>
+      </c>
       <c r="L167" s="47"/>
-      <c r="M167" s="45"/>
-      <c r="N167" s="45"/>
-      <c r="O167" s="45"/>
-      <c r="P167" s="45"/>
-      <c r="Q167" s="45"/>
-      <c r="R167" s="45"/>
-      <c r="S167" s="45"/>
-      <c r="T167" s="45"/>
+      <c r="M167" s="47"/>
+      <c r="N167" s="47"/>
+      <c r="O167" s="47"/>
+      <c r="P167" s="47"/>
+      <c r="Q167" s="47"/>
+      <c r="R167" s="47"/>
+      <c r="S167" s="47"/>
+      <c r="T167" s="47"/>
       <c r="U167" s="47"/>
-      <c r="V167" s="45"/>
+      <c r="V167" s="47"/>
       <c r="W167" s="47"/>
       <c r="X167" s="47"/>
       <c r="Y167" s="47"/>
@@ -9618,10 +9614,10 @@
         <v>117</v>
       </c>
       <c r="B168" s="44" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="C168" s="45" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="D168" s="47"/>
       <c r="E168" s="47"/>
@@ -9632,9 +9628,7 @@
       <c r="J168" s="45" t="s">
         <v>429</v>
       </c>
-      <c r="K168" s="45" t="s">
-        <v>389</v>
-      </c>
+      <c r="K168" s="45"/>
       <c r="L168" s="47"/>
       <c r="M168" s="47"/>
       <c r="N168" s="47"/>
@@ -9665,10 +9659,10 @@
         <v>117</v>
       </c>
       <c r="B169" s="44" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C169" s="45" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D169" s="47"/>
       <c r="E169" s="47"/>
@@ -9710,10 +9704,10 @@
         <v>117</v>
       </c>
       <c r="B170" s="44" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C170" s="45" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D170" s="47"/>
       <c r="E170" s="47"/>
@@ -9752,35 +9746,29 @@
     </row>
     <row r="171" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B171" s="44" t="s">
-        <v>394</v>
-      </c>
-      <c r="C171" s="45" t="s">
-        <v>395</v>
-      </c>
-      <c r="D171" s="47"/>
-      <c r="E171" s="47"/>
-      <c r="F171" s="47"/>
-      <c r="G171" s="47"/>
-      <c r="H171" s="47"/>
+        <v>68</v>
+      </c>
+      <c r="B171" s="44"/>
+      <c r="C171" s="45"/>
+      <c r="D171" s="46"/>
+      <c r="E171" s="46"/>
+      <c r="F171" s="46"/>
+      <c r="G171" s="46"/>
+      <c r="H171" s="46"/>
       <c r="I171" s="47"/>
-      <c r="J171" s="45" t="s">
-        <v>429</v>
-      </c>
-      <c r="K171" s="45"/>
+      <c r="J171" s="47"/>
+      <c r="K171" s="47"/>
       <c r="L171" s="47"/>
-      <c r="M171" s="47"/>
-      <c r="N171" s="47"/>
-      <c r="O171" s="47"/>
-      <c r="P171" s="47"/>
-      <c r="Q171" s="47"/>
-      <c r="R171" s="47"/>
-      <c r="S171" s="47"/>
-      <c r="T171" s="47"/>
+      <c r="M171" s="45"/>
+      <c r="N171" s="45"/>
+      <c r="O171" s="45"/>
+      <c r="P171" s="45"/>
+      <c r="Q171" s="45"/>
+      <c r="R171" s="45"/>
+      <c r="S171" s="45"/>
+      <c r="T171" s="45"/>
       <c r="U171" s="47"/>
-      <c r="V171" s="47"/>
+      <c r="V171" s="45"/>
       <c r="W171" s="47"/>
       <c r="X171" s="47"/>
       <c r="Y171" s="47"/>
@@ -9796,62 +9784,70 @@
       <c r="AI171" s="47"/>
     </row>
     <row r="172" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B172" s="44"/>
-      <c r="C172" s="45"/>
-      <c r="D172" s="46"/>
-      <c r="E172" s="46"/>
-      <c r="F172" s="46"/>
-      <c r="G172" s="46"/>
-      <c r="H172" s="46"/>
-      <c r="I172" s="47"/>
-      <c r="J172" s="47"/>
-      <c r="K172" s="47"/>
-      <c r="L172" s="47"/>
-      <c r="M172" s="45"/>
-      <c r="N172" s="45"/>
-      <c r="O172" s="45"/>
-      <c r="P172" s="45"/>
-      <c r="Q172" s="45"/>
-      <c r="R172" s="45"/>
-      <c r="S172" s="45"/>
-      <c r="T172" s="45"/>
-      <c r="U172" s="47"/>
-      <c r="V172" s="45"/>
-      <c r="W172" s="47"/>
-      <c r="X172" s="47"/>
-      <c r="Y172" s="47"/>
-      <c r="Z172" s="47"/>
-      <c r="AA172" s="47"/>
-      <c r="AB172" s="47"/>
-      <c r="AC172" s="47"/>
-      <c r="AD172" s="47"/>
-      <c r="AE172" s="47"/>
-      <c r="AF172" s="47"/>
-      <c r="AG172" s="47"/>
-      <c r="AH172" s="47"/>
-      <c r="AI172" s="47"/>
+      <c r="A172" s="31"/>
+      <c r="B172" s="31"/>
+      <c r="C172" s="31"/>
+      <c r="E172" s="31"/>
+      <c r="F172" s="31"/>
+      <c r="AE172" s="31"/>
+      <c r="AF172" s="31"/>
+      <c r="AG172" s="31"/>
+      <c r="AH172" s="31"/>
+      <c r="AI172" s="31"/>
     </row>
     <row r="173" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="31"/>
-      <c r="B173" s="31"/>
-      <c r="C173" s="31"/>
-      <c r="E173" s="31"/>
-      <c r="F173" s="31"/>
-      <c r="AE173" s="31"/>
-      <c r="AF173" s="31"/>
-      <c r="AG173" s="31"/>
-      <c r="AH173" s="31"/>
-      <c r="AI173" s="31"/>
+      <c r="A173" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B173" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C173" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D173" s="50"/>
+      <c r="E173" s="50"/>
+      <c r="F173" s="50"/>
+      <c r="G173" s="50"/>
+      <c r="H173" s="50"/>
+      <c r="I173" s="50"/>
+      <c r="J173" s="50"/>
+      <c r="K173" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="L173" s="50"/>
+      <c r="M173" s="50"/>
+      <c r="N173" s="50"/>
+      <c r="O173" s="50"/>
+      <c r="P173" s="50"/>
+      <c r="Q173" s="50"/>
+      <c r="R173" s="50"/>
+      <c r="S173" s="50"/>
+      <c r="T173" s="50"/>
+      <c r="U173" s="50"/>
+      <c r="V173" s="50"/>
+      <c r="W173" s="50"/>
+      <c r="X173" s="50"/>
+      <c r="Y173" s="50"/>
+      <c r="Z173" s="50"/>
+      <c r="AA173" s="50"/>
+      <c r="AB173" s="50"/>
+      <c r="AC173" s="50"/>
+      <c r="AD173" s="50"/>
+      <c r="AE173" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF173" s="50"/>
+      <c r="AG173" s="50"/>
+      <c r="AH173" s="50"/>
+      <c r="AI173" s="50"/>
     </row>
     <row r="174" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B174" s="49" t="s">
-        <v>48</v>
+        <v>78</v>
+      </c>
+      <c r="B174" s="52" t="s">
+        <v>238</v>
       </c>
       <c r="C174" s="50" t="s">
         <v>45</v>
@@ -9863,9 +9859,7 @@
       <c r="H174" s="50"/>
       <c r="I174" s="50"/>
       <c r="J174" s="50"/>
-      <c r="K174" s="51" t="s">
-        <v>50</v>
-      </c>
+      <c r="K174" s="50"/>
       <c r="L174" s="50"/>
       <c r="M174" s="50"/>
       <c r="N174" s="50"/>
@@ -9874,7 +9868,9 @@
       <c r="Q174" s="50"/>
       <c r="R174" s="50"/>
       <c r="S174" s="50"/>
-      <c r="T174" s="50"/>
+      <c r="T174" s="50" t="s">
+        <v>444</v>
+      </c>
       <c r="U174" s="50"/>
       <c r="V174" s="50"/>
       <c r="W174" s="50"/>
@@ -9885,11 +9881,11 @@
       <c r="AB174" s="50"/>
       <c r="AC174" s="50"/>
       <c r="AD174" s="50"/>
-      <c r="AE174" s="51" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE174" s="50"/>
       <c r="AF174" s="50"/>
-      <c r="AG174" s="50"/>
+      <c r="AG174" s="51" t="s">
+        <v>129</v>
+      </c>
       <c r="AH174" s="50"/>
       <c r="AI174" s="50"/>
     </row>
@@ -9898,7 +9894,7 @@
         <v>78</v>
       </c>
       <c r="B175" s="52" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="C175" s="50" t="s">
         <v>45</v>
@@ -9920,7 +9916,7 @@
       <c r="R175" s="50"/>
       <c r="S175" s="50"/>
       <c r="T175" s="50" t="s">
-        <v>444</v>
+        <v>161</v>
       </c>
       <c r="U175" s="50"/>
       <c r="V175" s="50"/>
@@ -9935,7 +9931,7 @@
       <c r="AE175" s="50"/>
       <c r="AF175" s="50"/>
       <c r="AG175" s="51" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="AH175" s="50"/>
       <c r="AI175" s="50"/>
@@ -9945,7 +9941,7 @@
         <v>78</v>
       </c>
       <c r="B176" s="52" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C176" s="50" t="s">
         <v>45</v>
@@ -9967,7 +9963,7 @@
       <c r="R176" s="50"/>
       <c r="S176" s="50"/>
       <c r="T176" s="50" t="s">
-        <v>161</v>
+        <v>445</v>
       </c>
       <c r="U176" s="50"/>
       <c r="V176" s="50"/>
@@ -9982,7 +9978,7 @@
       <c r="AE176" s="50"/>
       <c r="AF176" s="50"/>
       <c r="AG176" s="51" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="AH176" s="50"/>
       <c r="AI176" s="50"/>
@@ -9992,7 +9988,7 @@
         <v>78</v>
       </c>
       <c r="B177" s="52" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C177" s="50" t="s">
         <v>45</v>
@@ -10014,7 +10010,7 @@
       <c r="R177" s="50"/>
       <c r="S177" s="50"/>
       <c r="T177" s="50" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="U177" s="50"/>
       <c r="V177" s="50"/>
@@ -10029,7 +10025,7 @@
       <c r="AE177" s="50"/>
       <c r="AF177" s="50"/>
       <c r="AG177" s="51" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AH177" s="50"/>
       <c r="AI177" s="50"/>
@@ -10039,7 +10035,7 @@
         <v>78</v>
       </c>
       <c r="B178" s="52" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C178" s="50" t="s">
         <v>45</v>
@@ -10061,7 +10057,7 @@
       <c r="R178" s="50"/>
       <c r="S178" s="50"/>
       <c r="T178" s="50" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="U178" s="50"/>
       <c r="V178" s="50"/>
@@ -10076,7 +10072,7 @@
       <c r="AE178" s="50"/>
       <c r="AF178" s="50"/>
       <c r="AG178" s="51" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH178" s="50"/>
       <c r="AI178" s="50"/>
@@ -10086,7 +10082,7 @@
         <v>78</v>
       </c>
       <c r="B179" s="52" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C179" s="50" t="s">
         <v>45</v>
@@ -10108,7 +10104,7 @@
       <c r="R179" s="50"/>
       <c r="S179" s="50"/>
       <c r="T179" s="50" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="U179" s="50"/>
       <c r="V179" s="50"/>
@@ -10123,7 +10119,7 @@
       <c r="AE179" s="50"/>
       <c r="AF179" s="50"/>
       <c r="AG179" s="51" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AH179" s="50"/>
       <c r="AI179" s="50"/>
@@ -10133,7 +10129,7 @@
         <v>78</v>
       </c>
       <c r="B180" s="52" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C180" s="50" t="s">
         <v>45</v>
@@ -10155,7 +10151,7 @@
       <c r="R180" s="50"/>
       <c r="S180" s="50"/>
       <c r="T180" s="50" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="U180" s="50"/>
       <c r="V180" s="50"/>
@@ -10170,7 +10166,7 @@
       <c r="AE180" s="50"/>
       <c r="AF180" s="50"/>
       <c r="AG180" s="51" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="AH180" s="50"/>
       <c r="AI180" s="50"/>
@@ -10180,7 +10176,7 @@
         <v>78</v>
       </c>
       <c r="B181" s="52" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C181" s="50" t="s">
         <v>45</v>
@@ -10202,7 +10198,7 @@
       <c r="R181" s="50"/>
       <c r="S181" s="50"/>
       <c r="T181" s="50" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="U181" s="50"/>
       <c r="V181" s="50"/>
@@ -10217,7 +10213,7 @@
       <c r="AE181" s="50"/>
       <c r="AF181" s="50"/>
       <c r="AG181" s="51" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AH181" s="50"/>
       <c r="AI181" s="50"/>
@@ -10227,7 +10223,7 @@
         <v>78</v>
       </c>
       <c r="B182" s="52" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C182" s="50" t="s">
         <v>45</v>
@@ -10249,7 +10245,7 @@
       <c r="R182" s="50"/>
       <c r="S182" s="50"/>
       <c r="T182" s="50" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="U182" s="50"/>
       <c r="V182" s="50"/>
@@ -10264,7 +10260,7 @@
       <c r="AE182" s="50"/>
       <c r="AF182" s="50"/>
       <c r="AG182" s="51" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="AH182" s="50"/>
       <c r="AI182" s="50"/>
@@ -10274,7 +10270,7 @@
         <v>78</v>
       </c>
       <c r="B183" s="52" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C183" s="50" t="s">
         <v>45</v>
@@ -10296,7 +10292,7 @@
       <c r="R183" s="50"/>
       <c r="S183" s="50"/>
       <c r="T183" s="50" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="U183" s="50"/>
       <c r="V183" s="50"/>
@@ -10311,7 +10307,7 @@
       <c r="AE183" s="50"/>
       <c r="AF183" s="50"/>
       <c r="AG183" s="51" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="AH183" s="50"/>
       <c r="AI183" s="50"/>
@@ -10321,7 +10317,7 @@
         <v>78</v>
       </c>
       <c r="B184" s="52" t="s">
-        <v>237</v>
+        <v>170</v>
       </c>
       <c r="C184" s="50" t="s">
         <v>45</v>
@@ -10343,7 +10339,7 @@
       <c r="R184" s="50"/>
       <c r="S184" s="50"/>
       <c r="T184" s="50" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="U184" s="50"/>
       <c r="V184" s="50"/>
@@ -10358,107 +10354,107 @@
       <c r="AE184" s="50"/>
       <c r="AF184" s="50"/>
       <c r="AG184" s="51" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="AH184" s="50"/>
       <c r="AI184" s="50"/>
     </row>
     <row r="185" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B185" s="52" t="s">
-        <v>170</v>
+      <c r="A185" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B185" s="53" t="s">
+        <v>186</v>
       </c>
       <c r="C185" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D185" s="50"/>
-      <c r="E185" s="50"/>
-      <c r="F185" s="50"/>
-      <c r="G185" s="50"/>
-      <c r="H185" s="50"/>
-      <c r="I185" s="50"/>
-      <c r="J185" s="50"/>
-      <c r="K185" s="50"/>
-      <c r="L185" s="50"/>
-      <c r="M185" s="50"/>
-      <c r="N185" s="50"/>
-      <c r="O185" s="50"/>
-      <c r="P185" s="50"/>
-      <c r="Q185" s="50"/>
-      <c r="R185" s="50"/>
-      <c r="S185" s="50"/>
-      <c r="T185" s="50" t="s">
-        <v>453</v>
-      </c>
-      <c r="U185" s="50"/>
-      <c r="V185" s="50"/>
-      <c r="W185" s="50"/>
-      <c r="X185" s="50"/>
-      <c r="Y185" s="50"/>
-      <c r="Z185" s="50"/>
-      <c r="AA185" s="50"/>
-      <c r="AB185" s="50"/>
-      <c r="AC185" s="50"/>
-      <c r="AD185" s="50"/>
-      <c r="AE185" s="50"/>
-      <c r="AF185" s="50"/>
-      <c r="AG185" s="51" t="s">
-        <v>176</v>
-      </c>
-      <c r="AH185" s="50"/>
-      <c r="AI185" s="50"/>
+      <c r="D185" s="51"/>
+      <c r="E185" s="51"/>
+      <c r="F185" s="51"/>
+      <c r="G185" s="51"/>
+      <c r="H185" s="51"/>
+      <c r="I185" s="51"/>
+      <c r="J185" s="51"/>
+      <c r="K185" s="51"/>
+      <c r="L185" s="51"/>
+      <c r="M185" s="51"/>
+      <c r="N185" s="51"/>
+      <c r="O185" s="51"/>
+      <c r="P185" s="51"/>
+      <c r="Q185" s="51"/>
+      <c r="R185" s="51"/>
+      <c r="S185" s="51"/>
+      <c r="T185" s="51"/>
+      <c r="U185" s="51"/>
+      <c r="V185" s="51"/>
+      <c r="W185" s="51"/>
+      <c r="X185" s="51"/>
+      <c r="Y185" s="51"/>
+      <c r="Z185" s="51"/>
+      <c r="AA185" s="51"/>
+      <c r="AB185" s="51"/>
+      <c r="AC185" s="51"/>
+      <c r="AD185" s="51"/>
+      <c r="AE185" s="51"/>
+      <c r="AF185" s="51"/>
+      <c r="AG185" s="51"/>
+      <c r="AH185" s="51"/>
+      <c r="AI185" s="51"/>
     </row>
     <row r="186" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B186" s="53" t="s">
-        <v>186</v>
+      <c r="A186" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B186" s="52" t="s">
+        <v>189</v>
       </c>
       <c r="C186" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D186" s="51"/>
-      <c r="E186" s="51"/>
-      <c r="F186" s="51"/>
-      <c r="G186" s="51"/>
-      <c r="H186" s="51"/>
-      <c r="I186" s="51"/>
-      <c r="J186" s="51"/>
-      <c r="K186" s="51"/>
-      <c r="L186" s="51"/>
-      <c r="M186" s="51"/>
-      <c r="N186" s="51"/>
-      <c r="O186" s="51"/>
-      <c r="P186" s="51"/>
-      <c r="Q186" s="51"/>
-      <c r="R186" s="51"/>
-      <c r="S186" s="51"/>
-      <c r="T186" s="51"/>
-      <c r="U186" s="51"/>
-      <c r="V186" s="51"/>
-      <c r="W186" s="51"/>
-      <c r="X186" s="51"/>
-      <c r="Y186" s="51"/>
-      <c r="Z186" s="51"/>
-      <c r="AA186" s="51"/>
-      <c r="AB186" s="51"/>
-      <c r="AC186" s="51"/>
-      <c r="AD186" s="51"/>
-      <c r="AE186" s="51"/>
-      <c r="AF186" s="51"/>
-      <c r="AG186" s="51"/>
-      <c r="AH186" s="51"/>
-      <c r="AI186" s="51"/>
+      <c r="D186" s="50"/>
+      <c r="E186" s="50"/>
+      <c r="F186" s="50"/>
+      <c r="G186" s="50"/>
+      <c r="H186" s="50"/>
+      <c r="I186" s="50"/>
+      <c r="J186" s="50"/>
+      <c r="K186" s="50"/>
+      <c r="L186" s="50"/>
+      <c r="M186" s="50"/>
+      <c r="N186" s="50"/>
+      <c r="O186" s="50"/>
+      <c r="P186" s="50"/>
+      <c r="Q186" s="50"/>
+      <c r="R186" s="50"/>
+      <c r="S186" s="50"/>
+      <c r="T186" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="U186" s="50"/>
+      <c r="V186" s="50"/>
+      <c r="W186" s="50"/>
+      <c r="X186" s="50"/>
+      <c r="Y186" s="50"/>
+      <c r="Z186" s="50"/>
+      <c r="AA186" s="50"/>
+      <c r="AB186" s="50"/>
+      <c r="AC186" s="50"/>
+      <c r="AD186" s="50"/>
+      <c r="AE186" s="50"/>
+      <c r="AF186" s="50"/>
+      <c r="AG186" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH186" s="50"/>
+      <c r="AI186" s="50"/>
     </row>
     <row r="187" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="49" t="s">
         <v>78</v>
       </c>
       <c r="B187" s="52" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C187" s="50" t="s">
         <v>45</v>
@@ -10480,7 +10476,7 @@
       <c r="R187" s="50"/>
       <c r="S187" s="50"/>
       <c r="T187" s="51" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="U187" s="50"/>
       <c r="V187" s="50"/>
@@ -10495,7 +10491,7 @@
       <c r="AE187" s="50"/>
       <c r="AF187" s="50"/>
       <c r="AG187" s="51" t="s">
-        <v>191</v>
+        <v>67</v>
       </c>
       <c r="AH187" s="50"/>
       <c r="AI187" s="50"/>
@@ -10505,7 +10501,7 @@
         <v>78</v>
       </c>
       <c r="B188" s="52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C188" s="50" t="s">
         <v>45</v>
@@ -10527,7 +10523,7 @@
       <c r="R188" s="50"/>
       <c r="S188" s="50"/>
       <c r="T188" s="51" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="U188" s="50"/>
       <c r="V188" s="50"/>
@@ -10542,7 +10538,7 @@
       <c r="AE188" s="50"/>
       <c r="AF188" s="50"/>
       <c r="AG188" s="51" t="s">
-        <v>67</v>
+        <v>196</v>
       </c>
       <c r="AH188" s="50"/>
       <c r="AI188" s="50"/>
@@ -10552,7 +10548,7 @@
         <v>78</v>
       </c>
       <c r="B189" s="52" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C189" s="50" t="s">
         <v>45</v>
@@ -10574,7 +10570,7 @@
       <c r="R189" s="50"/>
       <c r="S189" s="50"/>
       <c r="T189" s="51" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="U189" s="50"/>
       <c r="V189" s="50"/>
@@ -10589,7 +10585,7 @@
       <c r="AE189" s="50"/>
       <c r="AF189" s="50"/>
       <c r="AG189" s="51" t="s">
-        <v>196</v>
+        <v>52</v>
       </c>
       <c r="AH189" s="50"/>
       <c r="AI189" s="50"/>
@@ -10599,7 +10595,7 @@
         <v>78</v>
       </c>
       <c r="B190" s="52" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C190" s="50" t="s">
         <v>45</v>
@@ -10621,7 +10617,7 @@
       <c r="R190" s="50"/>
       <c r="S190" s="50"/>
       <c r="T190" s="51" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="U190" s="50"/>
       <c r="V190" s="50"/>
@@ -10636,64 +10632,58 @@
       <c r="AE190" s="50"/>
       <c r="AF190" s="50"/>
       <c r="AG190" s="51" t="s">
-        <v>52</v>
+        <v>201</v>
       </c>
       <c r="AH190" s="50"/>
       <c r="AI190" s="50"/>
     </row>
     <row r="191" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B191" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="C191" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D191" s="50"/>
-      <c r="E191" s="50"/>
-      <c r="F191" s="50"/>
-      <c r="G191" s="50"/>
-      <c r="H191" s="50"/>
-      <c r="I191" s="50"/>
-      <c r="J191" s="50"/>
-      <c r="K191" s="50"/>
-      <c r="L191" s="50"/>
-      <c r="M191" s="50"/>
-      <c r="N191" s="50"/>
-      <c r="O191" s="50"/>
-      <c r="P191" s="50"/>
-      <c r="Q191" s="50"/>
-      <c r="R191" s="50"/>
-      <c r="S191" s="50"/>
-      <c r="T191" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="U191" s="50"/>
-      <c r="V191" s="50"/>
-      <c r="W191" s="50"/>
-      <c r="X191" s="50"/>
-      <c r="Y191" s="50"/>
-      <c r="Z191" s="50"/>
-      <c r="AA191" s="50"/>
-      <c r="AB191" s="50"/>
-      <c r="AC191" s="50"/>
-      <c r="AD191" s="50"/>
-      <c r="AE191" s="50"/>
-      <c r="AF191" s="50"/>
-      <c r="AG191" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH191" s="50"/>
-      <c r="AI191" s="50"/>
+      <c r="A191" s="53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B191" s="53" t="s">
+        <v>186</v>
+      </c>
+      <c r="C191" s="51"/>
+      <c r="D191" s="51"/>
+      <c r="E191" s="51"/>
+      <c r="F191" s="51"/>
+      <c r="G191" s="51"/>
+      <c r="H191" s="51"/>
+      <c r="I191" s="51"/>
+      <c r="J191" s="51"/>
+      <c r="K191" s="51"/>
+      <c r="L191" s="51"/>
+      <c r="M191" s="51"/>
+      <c r="N191" s="51"/>
+      <c r="O191" s="51"/>
+      <c r="P191" s="51"/>
+      <c r="Q191" s="51"/>
+      <c r="R191" s="51"/>
+      <c r="S191" s="51"/>
+      <c r="T191" s="51"/>
+      <c r="U191" s="51"/>
+      <c r="V191" s="51"/>
+      <c r="W191" s="51"/>
+      <c r="X191" s="51"/>
+      <c r="Y191" s="51"/>
+      <c r="Z191" s="51"/>
+      <c r="AA191" s="51"/>
+      <c r="AB191" s="51"/>
+      <c r="AC191" s="51"/>
+      <c r="AD191" s="51"/>
+      <c r="AE191" s="51"/>
+      <c r="AF191" s="51"/>
+      <c r="AG191" s="51"/>
+      <c r="AH191" s="51"/>
+      <c r="AI191" s="51"/>
     </row>
     <row r="192" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="53" t="s">
         <v>68</v>
       </c>
       <c r="B192" s="53" t="s">
-        <v>186</v>
+        <v>48</v>
       </c>
       <c r="C192" s="51"/>
       <c r="D192" s="51"/>
@@ -10729,53 +10719,12 @@
       <c r="AH192" s="51"/>
       <c r="AI192" s="51"/>
     </row>
-    <row r="193" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B193" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="C193" s="51"/>
-      <c r="D193" s="51"/>
-      <c r="E193" s="51"/>
-      <c r="F193" s="51"/>
-      <c r="G193" s="51"/>
-      <c r="H193" s="51"/>
-      <c r="I193" s="51"/>
-      <c r="J193" s="51"/>
-      <c r="K193" s="51"/>
-      <c r="L193" s="51"/>
-      <c r="M193" s="51"/>
-      <c r="N193" s="51"/>
-      <c r="O193" s="51"/>
-      <c r="P193" s="51"/>
-      <c r="Q193" s="51"/>
-      <c r="R193" s="51"/>
-      <c r="S193" s="51"/>
-      <c r="T193" s="51"/>
-      <c r="U193" s="51"/>
-      <c r="V193" s="51"/>
-      <c r="W193" s="51"/>
-      <c r="X193" s="51"/>
-      <c r="Y193" s="51"/>
-      <c r="Z193" s="51"/>
-      <c r="AA193" s="51"/>
-      <c r="AB193" s="51"/>
-      <c r="AC193" s="51"/>
-      <c r="AD193" s="51"/>
-      <c r="AE193" s="51"/>
-      <c r="AF193" s="51"/>
-      <c r="AG193" s="51"/>
-      <c r="AH193" s="51"/>
-      <c r="AI193" s="51"/>
-    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="A93:A117 A119:A123 A125:A172 A18:A25">
+    <dataValidation type="list" allowBlank="1" sqref="A92:A116 A118:A122 A124:A171 A17:A24">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:F16 I17 J18:J25 I26:I29 D30:E30 I31:I193">
+    <dataValidation type="list" allowBlank="1" sqref="I16 J17:J24 I25:I28 D29:E29 I30:I192 E2:F15">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10875,10 +10824,10 @@
         <v>240</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -10899,10 +10848,10 @@
         <v>240</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -10947,10 +10896,10 @@
         <v>240</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -11136,7 +11085,7 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>180</v>
@@ -11160,7 +11109,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>182</v>
@@ -11184,7 +11133,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>279</v>
@@ -11208,7 +11157,7 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>280</v>
@@ -11472,79 +11421,79 @@
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
+        <v>554</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>558</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>559</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="59" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B32" s="60" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="C32" s="61" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="59" t="s">
+        <v>564</v>
+      </c>
+      <c r="B33" s="60" t="s">
+        <v>567</v>
+      </c>
+      <c r="C33" s="61" t="s">
         <v>568</v>
-      </c>
-      <c r="B33" s="60" t="s">
-        <v>571</v>
-      </c>
-      <c r="C33" s="61" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="59" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B34" s="60" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="C34" s="61" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="59" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="B35" s="60" t="s">
         <v>115</v>
       </c>
       <c r="C35" s="61" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11625,14 +11574,14 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44128.615454282408</v>
+        <v>44129.612407060187</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/hbc_followup.xlsx
+++ b/forms/app/hbc_followup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1018" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="569">
   <si>
     <t>form_title</t>
   </si>
@@ -807,51 +807,6 @@
   </si>
   <si>
     <t>Home</t>
-  </si>
-  <si>
-    <t>pnc_visits</t>
-  </si>
-  <si>
-    <t>within_24_hrs</t>
-  </si>
-  <si>
-    <t>Within 24 hours (check this box if facility delivery)</t>
-  </si>
-  <si>
-    <t>3_days</t>
-  </si>
-  <si>
-    <t>3 days</t>
-  </si>
-  <si>
-    <t>7_days</t>
-  </si>
-  <si>
-    <t>7 days</t>
-  </si>
-  <si>
-    <t>6_weeks</t>
-  </si>
-  <si>
-    <t>6 weeks</t>
-  </si>
-  <si>
-    <t>translate_woman_label</t>
-  </si>
-  <si>
-    <t>woman</t>
-  </si>
-  <si>
-    <t>the woman</t>
-  </si>
-  <si>
-    <t>translate_woman_start_label</t>
-  </si>
-  <si>
-    <t>woman-start</t>
-  </si>
-  <si>
-    <t>Woman</t>
   </si>
   <si>
     <t>rdt_test</t>
@@ -2381,8 +2336,8 @@
   </sheetPr>
   <dimension ref="A1:AJ192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
@@ -2773,10 +2728,10 @@
         <v>50</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -2926,7 +2881,7 @@
       <c r="R13" s="21"/>
       <c r="S13" s="22"/>
       <c r="T13" s="21" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
@@ -3025,7 +2980,7 @@
         <v>239</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -3063,7 +3018,7 @@
     </row>
     <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>240</v>
@@ -3190,7 +3145,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>45</v>
@@ -3231,13 +3186,13 @@
     </row>
     <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
@@ -3356,10 +3311,10 @@
         <v>42</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -3368,7 +3323,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
       <c r="J25" s="34" t="s">
-        <v>580</v>
+        <v>565</v>
       </c>
       <c r="K25" s="35" t="s">
         <v>47</v>
@@ -3451,7 +3406,7 @@
         <v>207</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
@@ -3498,7 +3453,7 @@
         <v>118</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
@@ -3539,20 +3494,20 @@
     </row>
     <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="D29" s="35" t="s">
         <v>57</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
@@ -3560,7 +3515,7 @@
         <v>57</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
@@ -3588,7 +3543,7 @@
         <v>208</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -3635,7 +3590,7 @@
         <v>209</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -3679,10 +3634,10 @@
         <v>110</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
@@ -3726,10 +3681,10 @@
         <v>110</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -4055,10 +4010,10 @@
         <v>110</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
@@ -4102,10 +4057,10 @@
         <v>110</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
@@ -4366,10 +4321,10 @@
         <v>42</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -4411,10 +4366,10 @@
         <v>117</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -4454,10 +4409,10 @@
         <v>117</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -4497,10 +4452,10 @@
         <v>110</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
@@ -4540,10 +4495,10 @@
         <v>110</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -4583,10 +4538,10 @@
         <v>110</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -4626,10 +4581,10 @@
         <v>110</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -4669,10 +4624,10 @@
         <v>110</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -4712,10 +4667,10 @@
         <v>110</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -4755,10 +4710,10 @@
         <v>110</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
@@ -4795,24 +4750,24 @@
     </row>
     <row r="57" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37" t="s">
-        <v>572</v>
+        <v>557</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>573</v>
+        <v>558</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>574</v>
+        <v>559</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
       <c r="F57" s="35" t="s">
-        <v>575</v>
+        <v>560</v>
       </c>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
       <c r="J57" s="35" t="s">
-        <v>576</v>
+        <v>561</v>
       </c>
       <c r="K57" s="35"/>
       <c r="L57" s="35"/>
@@ -4845,10 +4800,10 @@
         <v>110</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
@@ -4888,10 +4843,10 @@
         <v>110</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -4931,10 +4886,10 @@
         <v>110</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -4974,10 +4929,10 @@
         <v>110</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -5017,10 +4972,10 @@
         <v>110</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -5136,10 +5091,10 @@
         <v>42</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -5178,13 +5133,13 @@
     </row>
     <row r="66" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="37" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -5221,13 +5176,13 @@
     </row>
     <row r="67" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="37" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
@@ -5264,13 +5219,13 @@
     </row>
     <row r="68" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="37" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -5307,13 +5262,13 @@
     </row>
     <row r="69" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="37" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -5350,13 +5305,13 @@
     </row>
     <row r="70" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="37" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -5472,10 +5427,10 @@
         <v>42</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -5514,13 +5469,13 @@
     </row>
     <row r="74" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="37" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -5557,13 +5512,13 @@
     </row>
     <row r="75" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="37" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="D75" s="35"/>
       <c r="E75" s="35"/>
@@ -5600,13 +5555,13 @@
     </row>
     <row r="76" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="37" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="35"/>
@@ -5643,13 +5598,13 @@
     </row>
     <row r="77" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="37" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -5686,13 +5641,13 @@
     </row>
     <row r="78" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="37" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
@@ -5701,7 +5656,7 @@
       <c r="H78" s="35"/>
       <c r="I78" s="35"/>
       <c r="J78" s="35" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="K78" s="35"/>
       <c r="L78" s="35"/>
@@ -5810,7 +5765,7 @@
         <v>42</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="C81" s="35" t="s">
         <v>45</v>
@@ -5855,10 +5810,10 @@
         <v>110</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="D82" s="35"/>
       <c r="E82" s="35"/>
@@ -5897,13 +5852,13 @@
     </row>
     <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="37" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="D83" s="35"/>
       <c r="E83" s="35"/>
@@ -5912,7 +5867,7 @@
       <c r="H83" s="35"/>
       <c r="I83" s="35"/>
       <c r="J83" s="35" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="K83" s="35"/>
       <c r="L83" s="35"/>
@@ -5942,13 +5897,13 @@
     </row>
     <row r="84" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="37" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
@@ -5957,7 +5912,7 @@
       <c r="H84" s="35"/>
       <c r="I84" s="35"/>
       <c r="J84" s="35" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="K84" s="35"/>
       <c r="L84" s="35"/>
@@ -5987,13 +5942,13 @@
     </row>
     <row r="85" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="37" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="C85" s="35" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="35"/>
@@ -6002,7 +5957,7 @@
       <c r="H85" s="35"/>
       <c r="I85" s="35"/>
       <c r="J85" s="35" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="K85" s="35"/>
       <c r="L85" s="35"/>
@@ -6111,7 +6066,7 @@
         <v>42</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="C88" s="35" t="s">
         <v>45</v>
@@ -6154,10 +6109,10 @@
         <v>110</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="D89" s="35"/>
       <c r="E89" s="35"/>
@@ -6248,10 +6203,10 @@
         <v>42</v>
       </c>
       <c r="B92" s="33" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="C92" s="34" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="D92" s="35"/>
       <c r="E92" s="35"/>
@@ -6260,7 +6215,7 @@
       <c r="H92" s="35"/>
       <c r="I92" s="36"/>
       <c r="J92" s="36" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="K92" s="36" t="s">
         <v>47</v>
@@ -6292,13 +6247,13 @@
     </row>
     <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="33" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B93" s="33" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="C93" s="34" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D93" s="35"/>
       <c r="E93" s="35"/>
@@ -6311,10 +6266,10 @@
       <c r="J93" s="36"/>
       <c r="K93" s="36"/>
       <c r="L93" s="34" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="M93" s="34" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="N93" s="34"/>
       <c r="O93" s="34"/>
@@ -6341,13 +6296,13 @@
     </row>
     <row r="94" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="33" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="B94" s="33" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="C94" s="34" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="D94" s="35"/>
       <c r="E94" s="35"/>
@@ -6386,13 +6341,13 @@
     </row>
     <row r="95" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="33" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B95" s="33" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C95" s="34" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D95" s="35"/>
       <c r="E95" s="35"/>
@@ -6405,10 +6360,10 @@
       <c r="J95" s="36"/>
       <c r="K95" s="36"/>
       <c r="L95" s="36" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="M95" s="34" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="N95" s="34"/>
       <c r="O95" s="34"/>
@@ -6438,10 +6393,10 @@
         <v>117</v>
       </c>
       <c r="B96" s="33" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="C96" s="34" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="D96" s="35"/>
       <c r="E96" s="35"/>
@@ -6450,7 +6405,7 @@
       <c r="H96" s="35"/>
       <c r="I96" s="36"/>
       <c r="J96" s="36" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="K96" s="36"/>
       <c r="L96" s="36"/>
@@ -6483,10 +6438,10 @@
         <v>117</v>
       </c>
       <c r="B97" s="33" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C97" s="34" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D97" s="35"/>
       <c r="E97" s="35"/>
@@ -6495,7 +6450,7 @@
       <c r="H97" s="35"/>
       <c r="I97" s="36"/>
       <c r="J97" s="36" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="K97" s="36"/>
       <c r="L97" s="36"/>
@@ -6530,7 +6485,7 @@
         <v>42</v>
       </c>
       <c r="B98" s="38" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="C98" s="39" t="s">
         <v>45</v>
@@ -6568,7 +6523,7 @@
       <c r="AF98" s="36"/>
       <c r="AG98" s="36"/>
       <c r="AH98" s="40" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="AI98" s="36"/>
     </row>
@@ -6577,7 +6532,7 @@
         <v>78</v>
       </c>
       <c r="B99" s="38" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="C99" s="39" t="s">
         <v>45</v>
@@ -6599,7 +6554,7 @@
       <c r="R99" s="36"/>
       <c r="S99" s="36"/>
       <c r="T99" s="39" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="U99" s="39"/>
       <c r="V99" s="39"/>
@@ -6625,7 +6580,7 @@
         <v>3</v>
       </c>
       <c r="C100" s="39" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="D100" s="36"/>
       <c r="E100" s="36"/>
@@ -6644,7 +6599,7 @@
       <c r="R100" s="36"/>
       <c r="S100" s="36"/>
       <c r="T100" s="39" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="U100" s="36"/>
       <c r="V100" s="36"/>
@@ -6667,7 +6622,7 @@
         <v>78</v>
       </c>
       <c r="B101" s="38" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="C101" s="39" t="s">
         <v>45</v>
@@ -6689,7 +6644,7 @@
       <c r="R101" s="36"/>
       <c r="S101" s="36"/>
       <c r="T101" s="39" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="U101" s="39"/>
       <c r="V101" s="39"/>
@@ -6712,7 +6667,7 @@
         <v>78</v>
       </c>
       <c r="B102" s="38" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="C102" s="39" t="s">
         <v>45</v>
@@ -6734,7 +6689,7 @@
       <c r="R102" s="39"/>
       <c r="S102" s="39"/>
       <c r="T102" s="39" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="U102" s="39"/>
       <c r="V102" s="39"/>
@@ -6757,7 +6712,7 @@
         <v>42</v>
       </c>
       <c r="B103" s="38" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="C103" s="39" t="s">
         <v>45</v>
@@ -6822,7 +6777,7 @@
       <c r="R104" s="39"/>
       <c r="S104" s="39"/>
       <c r="T104" s="39" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="U104" s="39"/>
       <c r="V104" s="39"/>
@@ -6867,7 +6822,7 @@
       <c r="R105" s="39"/>
       <c r="S105" s="39"/>
       <c r="T105" s="39" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="U105" s="39"/>
       <c r="V105" s="39"/>
@@ -6890,7 +6845,7 @@
         <v>42</v>
       </c>
       <c r="B106" s="38" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C106" s="39" t="s">
         <v>45</v>
@@ -6933,7 +6888,7 @@
         <v>78</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C107" s="39" t="s">
         <v>45</v>
@@ -6955,7 +6910,7 @@
       <c r="R107" s="36"/>
       <c r="S107" s="36"/>
       <c r="T107" s="39" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="U107" s="36"/>
       <c r="V107" s="36"/>
@@ -6978,7 +6933,7 @@
         <v>78</v>
       </c>
       <c r="B108" s="38" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C108" s="39" t="s">
         <v>45</v>
@@ -7000,7 +6955,7 @@
       <c r="R108" s="36"/>
       <c r="S108" s="36"/>
       <c r="T108" s="39" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="U108" s="36"/>
       <c r="V108" s="36"/>
@@ -7023,7 +6978,7 @@
         <v>78</v>
       </c>
       <c r="B109" s="38" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="C109" s="39" t="s">
         <v>45</v>
@@ -7045,7 +7000,7 @@
       <c r="R109" s="36"/>
       <c r="S109" s="36"/>
       <c r="T109" s="39" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="U109" s="36"/>
       <c r="V109" s="36"/>
@@ -7068,7 +7023,7 @@
         <v>78</v>
       </c>
       <c r="B110" s="38" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="C110" s="39" t="s">
         <v>45</v>
@@ -7090,7 +7045,7 @@
       <c r="R110" s="39"/>
       <c r="S110" s="39"/>
       <c r="T110" s="39" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="U110" s="39"/>
       <c r="V110" s="39"/>
@@ -7191,7 +7146,7 @@
         <v>78</v>
       </c>
       <c r="B113" s="41" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C113" s="36" t="s">
         <v>45</v>
@@ -7213,7 +7168,7 @@
       <c r="R113" s="36"/>
       <c r="S113" s="36"/>
       <c r="T113" s="36" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="U113" s="36"/>
       <c r="V113" s="36"/>
@@ -7230,7 +7185,7 @@
       <c r="AG113" s="36"/>
       <c r="AH113" s="36"/>
       <c r="AI113" s="36" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
     </row>
     <row r="114" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7277,7 +7232,7 @@
         <v>78</v>
       </c>
       <c r="B115" s="41" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C115" s="36" t="s">
         <v>45</v>
@@ -7299,7 +7254,7 @@
       <c r="R115" s="36"/>
       <c r="S115" s="36"/>
       <c r="T115" s="36" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="U115" s="36"/>
       <c r="V115" s="36"/>
@@ -7316,7 +7271,7 @@
       <c r="AG115" s="36"/>
       <c r="AH115" s="36"/>
       <c r="AI115" s="36" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
     </row>
     <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7378,7 +7333,7 @@
         <v>240</v>
       </c>
       <c r="C118" s="34" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="D118" s="35"/>
       <c r="E118" s="35"/>
@@ -7387,7 +7342,7 @@
       <c r="H118" s="35"/>
       <c r="I118" s="36"/>
       <c r="J118" s="36" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="K118" s="36" t="s">
         <v>47</v>
@@ -7419,13 +7374,13 @@
     </row>
     <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="33" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="B119" s="33" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C119" s="34" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="D119" s="35"/>
       <c r="E119" s="35"/>
@@ -7438,10 +7393,10 @@
       <c r="J119" s="34"/>
       <c r="K119" s="34"/>
       <c r="L119" s="34" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="M119" s="34" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="N119" s="34"/>
       <c r="O119" s="34"/>
@@ -7468,13 +7423,13 @@
     </row>
     <row r="120" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B120" s="33" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="C120" s="34" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="D120" s="35"/>
       <c r="E120" s="35"/>
@@ -7513,13 +7468,13 @@
     </row>
     <row r="121" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="B121" s="33" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="C121" s="34" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="D121" s="35"/>
       <c r="E121" s="35"/>
@@ -7530,14 +7485,14 @@
         <v>57</v>
       </c>
       <c r="J121" s="34" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="K121" s="34"/>
       <c r="L121" s="34" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="M121" s="34" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="N121" s="34"/>
       <c r="O121" s="34"/>
@@ -7618,10 +7573,10 @@
         <v>42</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="D124" s="35"/>
       <c r="E124" s="35"/>
@@ -7630,10 +7585,10 @@
       <c r="H124" s="35"/>
       <c r="I124" s="36"/>
       <c r="J124" s="36" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="K124" s="36" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="L124" s="36"/>
       <c r="M124" s="34"/>
@@ -7667,10 +7622,10 @@
         <v>117</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="D125" s="35"/>
       <c r="E125" s="35"/>
@@ -7710,10 +7665,10 @@
         <v>117</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="D126" s="35"/>
       <c r="E126" s="35"/>
@@ -7753,10 +7708,10 @@
         <v>117</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="C127" s="34" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="D127" s="35"/>
       <c r="E127" s="35"/>
@@ -7796,10 +7751,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="C128" s="34" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="D128" s="35"/>
       <c r="E128" s="35"/>
@@ -7839,10 +7794,10 @@
         <v>117</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C129" s="34" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="D129" s="35"/>
       <c r="E129" s="35"/>
@@ -7958,10 +7913,10 @@
         <v>42</v>
       </c>
       <c r="B132" s="33" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C132" s="34" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="D132" s="35"/>
       <c r="E132" s="35"/>
@@ -7970,7 +7925,7 @@
       <c r="H132" s="35"/>
       <c r="I132" s="36"/>
       <c r="J132" s="34" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="K132" s="36" t="s">
         <v>47</v>
@@ -8005,10 +7960,10 @@
         <v>117</v>
       </c>
       <c r="B133" s="33" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="C133" s="34" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="D133" s="35"/>
       <c r="E133" s="35"/>
@@ -8047,13 +8002,13 @@
     </row>
     <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="33" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="B134" s="33" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="C134" s="34" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="D134" s="35"/>
       <c r="E134" s="35"/>
@@ -8066,7 +8021,7 @@
       <c r="J134" s="36"/>
       <c r="K134" s="36"/>
       <c r="L134" s="36" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="M134" s="35"/>
       <c r="N134" s="34"/>
@@ -8077,7 +8032,7 @@
       <c r="S134" s="34"/>
       <c r="T134" s="34"/>
       <c r="U134" s="34" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="V134" s="34"/>
       <c r="W134" s="36"/>
@@ -8096,13 +8051,13 @@
     </row>
     <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="33" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="B135" s="33" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="C135" s="34" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="D135" s="36"/>
       <c r="E135" s="36"/>
@@ -8115,10 +8070,10 @@
       <c r="J135" s="36"/>
       <c r="K135" s="34"/>
       <c r="L135" s="36" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="M135" s="34" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="N135" s="36"/>
       <c r="O135" s="36"/>
@@ -8148,7 +8103,7 @@
         <v>78</v>
       </c>
       <c r="B136" s="33" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C136" s="34" t="s">
         <v>45</v>
@@ -8170,7 +8125,7 @@
       <c r="R136" s="36"/>
       <c r="S136" s="36"/>
       <c r="T136" s="36" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="U136" s="36"/>
       <c r="V136" s="36"/>
@@ -8271,7 +8226,7 @@
         <v>42</v>
       </c>
       <c r="B139" s="44" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C139" s="45" t="s">
         <v>45</v>
@@ -8284,7 +8239,7 @@
       <c r="I139" s="47"/>
       <c r="J139" s="47"/>
       <c r="K139" s="47" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="L139" s="47"/>
       <c r="M139" s="45"/>
@@ -8318,10 +8273,10 @@
         <v>117</v>
       </c>
       <c r="B140" s="48" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C140" s="45" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="D140" s="47"/>
       <c r="E140" s="47"/>
@@ -8361,10 +8316,10 @@
         <v>117</v>
       </c>
       <c r="B141" s="44" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="C141" s="45" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="D141" s="47"/>
       <c r="E141" s="47"/>
@@ -8374,7 +8329,7 @@
       <c r="I141" s="47"/>
       <c r="J141" s="47"/>
       <c r="K141" s="45" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="L141" s="47"/>
       <c r="M141" s="47"/>
@@ -8406,10 +8361,10 @@
         <v>117</v>
       </c>
       <c r="B142" s="44" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C142" s="45" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="D142" s="47"/>
       <c r="E142" s="47"/>
@@ -8449,10 +8404,10 @@
         <v>117</v>
       </c>
       <c r="B143" s="44" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="C143" s="45" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="D143" s="47"/>
       <c r="E143" s="47"/>
@@ -8462,7 +8417,7 @@
       <c r="I143" s="47"/>
       <c r="J143" s="47"/>
       <c r="K143" s="45" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="L143" s="47"/>
       <c r="M143" s="47"/>
@@ -8494,10 +8449,10 @@
         <v>117</v>
       </c>
       <c r="B144" s="44" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="C144" s="47" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="D144" s="47"/>
       <c r="E144" s="47"/>
@@ -8507,7 +8462,7 @@
       <c r="I144" s="47"/>
       <c r="J144" s="46"/>
       <c r="K144" s="45" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="L144" s="47"/>
       <c r="M144" s="47"/>
@@ -8539,7 +8494,7 @@
         <v>117</v>
       </c>
       <c r="B145" s="44" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C145" s="45" t="s">
         <v>247</v>
@@ -8551,10 +8506,10 @@
       <c r="H145" s="46"/>
       <c r="I145" s="47"/>
       <c r="J145" s="45" t="s">
-        <v>582</v>
+        <v>567</v>
       </c>
       <c r="K145" s="47" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="L145" s="47"/>
       <c r="M145" s="45"/>
@@ -8586,7 +8541,7 @@
         <v>117</v>
       </c>
       <c r="B146" s="44" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C146" s="45" t="s">
         <v>248</v>
@@ -8598,10 +8553,10 @@
       <c r="H146" s="46"/>
       <c r="I146" s="47"/>
       <c r="J146" s="45" t="s">
-        <v>583</v>
+        <v>568</v>
       </c>
       <c r="K146" s="47" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="L146" s="47"/>
       <c r="M146" s="45"/>
@@ -8633,7 +8588,7 @@
         <v>117</v>
       </c>
       <c r="B147" s="44" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="C147" s="45" t="s">
         <v>250</v>
@@ -8645,10 +8600,10 @@
       <c r="H147" s="46"/>
       <c r="I147" s="47"/>
       <c r="J147" s="45" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="K147" s="47" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="L147" s="47"/>
       <c r="M147" s="45"/>
@@ -8680,10 +8635,10 @@
         <v>117</v>
       </c>
       <c r="B148" s="44" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C148" s="47" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="D148" s="47"/>
       <c r="E148" s="47"/>
@@ -8692,10 +8647,10 @@
       <c r="H148" s="47"/>
       <c r="I148" s="47"/>
       <c r="J148" s="45" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="K148" s="45" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="L148" s="47"/>
       <c r="M148" s="47"/>
@@ -8727,10 +8682,10 @@
         <v>117</v>
       </c>
       <c r="B149" s="44" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C149" s="45" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="D149" s="46"/>
       <c r="E149" s="46"/>
@@ -8739,10 +8694,10 @@
       <c r="H149" s="46"/>
       <c r="I149" s="47"/>
       <c r="J149" s="45" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="K149" s="47" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="L149" s="47"/>
       <c r="M149" s="45"/>
@@ -8774,10 +8729,10 @@
         <v>117</v>
       </c>
       <c r="B150" s="44" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="C150" s="45" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="D150" s="46"/>
       <c r="E150" s="46"/>
@@ -8786,10 +8741,10 @@
       <c r="H150" s="46"/>
       <c r="I150" s="47"/>
       <c r="J150" s="45" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="K150" s="47" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="L150" s="47"/>
       <c r="M150" s="45"/>
@@ -8821,10 +8776,10 @@
         <v>117</v>
       </c>
       <c r="B151" s="44" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="C151" s="45" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="D151" s="46"/>
       <c r="E151" s="46"/>
@@ -8833,10 +8788,10 @@
       <c r="H151" s="46"/>
       <c r="I151" s="47"/>
       <c r="J151" s="45" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="K151" s="45" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="L151" s="47"/>
       <c r="M151" s="45"/>
@@ -8868,10 +8823,10 @@
         <v>117</v>
       </c>
       <c r="B152" s="44" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C152" s="45" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="D152" s="47"/>
       <c r="E152" s="47"/>
@@ -8880,10 +8835,10 @@
       <c r="H152" s="47"/>
       <c r="I152" s="47"/>
       <c r="J152" s="45" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="K152" s="45" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="L152" s="47"/>
       <c r="M152" s="47"/>
@@ -8915,10 +8870,10 @@
         <v>117</v>
       </c>
       <c r="B153" s="44" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="C153" s="45" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="D153" s="47"/>
       <c r="E153" s="47"/>
@@ -8927,10 +8882,10 @@
       <c r="H153" s="47"/>
       <c r="I153" s="47"/>
       <c r="J153" s="45" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="K153" s="45" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="L153" s="47"/>
       <c r="M153" s="47"/>
@@ -8962,10 +8917,10 @@
         <v>117</v>
       </c>
       <c r="B154" s="44" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="D154" s="47"/>
       <c r="E154" s="47"/>
@@ -8974,10 +8929,10 @@
       <c r="H154" s="47"/>
       <c r="I154" s="47"/>
       <c r="J154" s="45" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="K154" s="45" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="L154" s="47"/>
       <c r="M154" s="47"/>
@@ -9009,7 +8964,7 @@
         <v>117</v>
       </c>
       <c r="B155" s="44" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="C155" s="45" t="s">
         <v>210</v>
@@ -9021,10 +8976,10 @@
       <c r="H155" s="47"/>
       <c r="I155" s="47"/>
       <c r="J155" s="45" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="K155" s="45" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="L155" s="47"/>
       <c r="M155" s="47"/>
@@ -9056,7 +9011,7 @@
         <v>117</v>
       </c>
       <c r="B156" s="44" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="C156" s="45" t="s">
         <v>211</v>
@@ -9068,10 +9023,10 @@
       <c r="H156" s="47"/>
       <c r="I156" s="47"/>
       <c r="J156" s="45" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="K156" s="45" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="L156" s="47"/>
       <c r="M156" s="47"/>
@@ -9103,7 +9058,7 @@
         <v>117</v>
       </c>
       <c r="B157" s="44" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="C157" s="45" t="s">
         <v>212</v>
@@ -9115,10 +9070,10 @@
       <c r="H157" s="47"/>
       <c r="I157" s="47"/>
       <c r="J157" s="45" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="K157" s="45" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="L157" s="47"/>
       <c r="M157" s="47"/>
@@ -9150,7 +9105,7 @@
         <v>117</v>
       </c>
       <c r="B158" s="44" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="C158" s="45" t="s">
         <v>213</v>
@@ -9162,10 +9117,10 @@
       <c r="H158" s="47"/>
       <c r="I158" s="47"/>
       <c r="J158" s="45" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="K158" s="45" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="L158" s="47"/>
       <c r="M158" s="47"/>
@@ -9197,7 +9152,7 @@
         <v>117</v>
       </c>
       <c r="B159" s="44" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="C159" s="45" t="s">
         <v>214</v>
@@ -9209,10 +9164,10 @@
       <c r="H159" s="47"/>
       <c r="I159" s="47"/>
       <c r="J159" s="45" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="K159" s="45" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="L159" s="47"/>
       <c r="M159" s="47"/>
@@ -9244,7 +9199,7 @@
         <v>117</v>
       </c>
       <c r="B160" s="44" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C160" s="45" t="s">
         <v>215</v>
@@ -9256,10 +9211,10 @@
       <c r="H160" s="47"/>
       <c r="I160" s="47"/>
       <c r="J160" s="45" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="K160" s="45" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="L160" s="47"/>
       <c r="M160" s="47"/>
@@ -9291,10 +9246,10 @@
         <v>117</v>
       </c>
       <c r="B161" s="44" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D161" s="47"/>
       <c r="E161" s="47"/>
@@ -9303,10 +9258,10 @@
       <c r="H161" s="47"/>
       <c r="I161" s="47"/>
       <c r="J161" s="47" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="K161" s="45" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="L161" s="47"/>
       <c r="M161" s="47"/>
@@ -9338,10 +9293,10 @@
         <v>117</v>
       </c>
       <c r="B162" s="44" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C162" s="45" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D162" s="47"/>
       <c r="E162" s="47"/>
@@ -9350,7 +9305,7 @@
       <c r="H162" s="47"/>
       <c r="I162" s="47"/>
       <c r="J162" s="45" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="K162" s="45"/>
       <c r="L162" s="47"/>
@@ -9383,10 +9338,10 @@
         <v>117</v>
       </c>
       <c r="B163" s="44" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C163" s="45" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="D163" s="47"/>
       <c r="E163" s="47"/>
@@ -9395,10 +9350,10 @@
       <c r="H163" s="47"/>
       <c r="I163" s="47"/>
       <c r="J163" s="45" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="K163" s="45" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="L163" s="47"/>
       <c r="M163" s="47"/>
@@ -9430,10 +9385,10 @@
         <v>117</v>
       </c>
       <c r="B164" s="44" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="C164" s="45" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="D164" s="46"/>
       <c r="E164" s="46"/>
@@ -9442,10 +9397,10 @@
       <c r="H164" s="46"/>
       <c r="I164" s="47"/>
       <c r="J164" s="45" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="K164" s="47" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="L164" s="47"/>
       <c r="M164" s="45"/>
@@ -9477,10 +9432,10 @@
         <v>117</v>
       </c>
       <c r="B165" s="44" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C165" s="45" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="D165" s="46"/>
       <c r="E165" s="46"/>
@@ -9489,7 +9444,7 @@
       <c r="H165" s="46"/>
       <c r="I165" s="47"/>
       <c r="J165" s="47" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="K165" s="47"/>
       <c r="L165" s="47"/>
@@ -9522,10 +9477,10 @@
         <v>117</v>
       </c>
       <c r="B166" s="44" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="C166" s="45" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="D166" s="46"/>
       <c r="E166" s="46"/>
@@ -9534,7 +9489,7 @@
       <c r="H166" s="46"/>
       <c r="I166" s="47"/>
       <c r="J166" s="47" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="K166" s="47"/>
       <c r="L166" s="47"/>
@@ -9567,10 +9522,10 @@
         <v>117</v>
       </c>
       <c r="B167" s="44" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="C167" s="45" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="D167" s="47"/>
       <c r="E167" s="47"/>
@@ -9579,10 +9534,10 @@
       <c r="H167" s="47"/>
       <c r="I167" s="47"/>
       <c r="J167" s="45" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="K167" s="45" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="L167" s="47"/>
       <c r="M167" s="47"/>
@@ -9614,10 +9569,10 @@
         <v>117</v>
       </c>
       <c r="B168" s="44" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="C168" s="45" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="D168" s="47"/>
       <c r="E168" s="47"/>
@@ -9626,7 +9581,7 @@
       <c r="H168" s="47"/>
       <c r="I168" s="47"/>
       <c r="J168" s="45" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="K168" s="45"/>
       <c r="L168" s="47"/>
@@ -9659,10 +9614,10 @@
         <v>117</v>
       </c>
       <c r="B169" s="44" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="C169" s="45" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="D169" s="47"/>
       <c r="E169" s="47"/>
@@ -9671,7 +9626,7 @@
       <c r="H169" s="47"/>
       <c r="I169" s="47"/>
       <c r="J169" s="45" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="K169" s="45"/>
       <c r="L169" s="47"/>
@@ -9704,10 +9659,10 @@
         <v>117</v>
       </c>
       <c r="B170" s="44" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="C170" s="45" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="D170" s="47"/>
       <c r="E170" s="47"/>
@@ -9716,7 +9671,7 @@
       <c r="H170" s="47"/>
       <c r="I170" s="47"/>
       <c r="J170" s="45" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="K170" s="45"/>
       <c r="L170" s="47"/>
@@ -9869,7 +9824,7 @@
       <c r="R174" s="50"/>
       <c r="S174" s="50"/>
       <c r="T174" s="50" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="U174" s="50"/>
       <c r="V174" s="50"/>
@@ -9963,7 +9918,7 @@
       <c r="R176" s="50"/>
       <c r="S176" s="50"/>
       <c r="T176" s="50" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="U176" s="50"/>
       <c r="V176" s="50"/>
@@ -10010,7 +9965,7 @@
       <c r="R177" s="50"/>
       <c r="S177" s="50"/>
       <c r="T177" s="50" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="U177" s="50"/>
       <c r="V177" s="50"/>
@@ -10057,7 +10012,7 @@
       <c r="R178" s="50"/>
       <c r="S178" s="50"/>
       <c r="T178" s="50" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="U178" s="50"/>
       <c r="V178" s="50"/>
@@ -10104,7 +10059,7 @@
       <c r="R179" s="50"/>
       <c r="S179" s="50"/>
       <c r="T179" s="50" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="U179" s="50"/>
       <c r="V179" s="50"/>
@@ -10151,7 +10106,7 @@
       <c r="R180" s="50"/>
       <c r="S180" s="50"/>
       <c r="T180" s="50" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="U180" s="50"/>
       <c r="V180" s="50"/>
@@ -10198,7 +10153,7 @@
       <c r="R181" s="50"/>
       <c r="S181" s="50"/>
       <c r="T181" s="50" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="U181" s="50"/>
       <c r="V181" s="50"/>
@@ -10245,7 +10200,7 @@
       <c r="R182" s="50"/>
       <c r="S182" s="50"/>
       <c r="T182" s="50" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="U182" s="50"/>
       <c r="V182" s="50"/>
@@ -10292,7 +10247,7 @@
       <c r="R183" s="50"/>
       <c r="S183" s="50"/>
       <c r="T183" s="50" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="U183" s="50"/>
       <c r="V183" s="50"/>
@@ -10339,7 +10294,7 @@
       <c r="R184" s="50"/>
       <c r="S184" s="50"/>
       <c r="T184" s="50" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="U184" s="50"/>
       <c r="V184" s="50"/>
@@ -10737,11 +10692,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:P38"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -10824,10 +10779,10 @@
         <v>240</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>577</v>
+        <v>562</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>578</v>
+        <v>563</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -10848,10 +10803,10 @@
         <v>240</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>579</v>
+        <v>564</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -10896,10 +10851,10 @@
         <v>240</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -10989,13 +10944,13 @@
     </row>
     <row r="11" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="D11" s="18"/>
       <c r="E11" s="18"/>
@@ -11013,13 +10968,13 @@
     </row>
     <row r="12" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="18"/>
@@ -11037,13 +10992,13 @@
     </row>
     <row r="13" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D13" s="18"/>
       <c r="E13" s="18"/>
@@ -11061,13 +11016,13 @@
     </row>
     <row r="14" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="B14" s="18" t="s">
         <v>177</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
@@ -11085,7 +11040,7 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>180</v>
@@ -11109,7 +11064,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>182</v>
@@ -11133,13 +11088,13 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
@@ -11157,13 +11112,13 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="D18" s="18"/>
       <c r="E18" s="18"/>
@@ -11253,257 +11208,89 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>265</v>
+        <v>539</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
+        <v>540</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>543</v>
+      </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>268</v>
+        <v>539</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
+        <v>541</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>544</v>
+      </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>256</v>
+        <v>539</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="18"/>
-      <c r="O24" s="18"/>
-      <c r="P24" s="18"/>
-    </row>
-    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>260</v>
-      </c>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="O25" s="18"/>
-      <c r="P25" s="18"/>
-    </row>
-    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>262</v>
-      </c>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>263</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>264</v>
-      </c>
-      <c r="D27" s="18"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-    </row>
-    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
+        <v>542</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="B25" s="60" t="s">
+        <v>550</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="B26" s="60" t="s">
+        <v>552</v>
+      </c>
+      <c r="C26" s="61" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="B27" s="60" t="s">
+        <v>554</v>
+      </c>
+      <c r="C27" s="61" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="59" t="s">
+        <v>549</v>
+      </c>
+      <c r="B28" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="61" t="s">
+        <v>556</v>
+      </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>555</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>558</v>
-      </c>
+      <c r="C29" s="15"/>
     </row>
     <row r="30" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>556</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>559</v>
-      </c>
+      <c r="C30" s="15"/>
     </row>
     <row r="31" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
-        <v>554</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>557</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
-        <v>564</v>
-      </c>
-      <c r="B32" s="60" t="s">
-        <v>565</v>
-      </c>
-      <c r="C32" s="61" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="s">
-        <v>564</v>
-      </c>
-      <c r="B33" s="60" t="s">
-        <v>567</v>
-      </c>
-      <c r="C33" s="61" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
-        <v>564</v>
-      </c>
-      <c r="B34" s="60" t="s">
-        <v>569</v>
-      </c>
-      <c r="C34" s="61" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
-        <v>564</v>
-      </c>
-      <c r="B35" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="C35" s="61" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="15"/>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="15"/>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="15"/>
+      <c r="C31" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11574,14 +11361,14 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44129.612407060187</v>
+        <v>44132.639565972226</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/hbc_followup.xlsx
+++ b/forms/app/hbc_followup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -1640,9 +1640,6 @@
     <t>Home Based Care Follow Up</t>
   </si>
   <si>
-    <t>hbc_follow</t>
-  </si>
-  <si>
     <t>Unknown/lost to follow-up</t>
   </si>
   <si>
@@ -1749,6 +1746,9 @@
   </si>
   <si>
     <t>selected(../../condition/patient_outcome, 'ill')</t>
+  </si>
+  <si>
+    <t>hbc_followup</t>
   </si>
 </sst>
 </file>
@@ -1769,30 +1769,36 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3145,7 +3151,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>45</v>
@@ -3186,13 +3192,13 @@
     </row>
     <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
+        <v>536</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>535</v>
+      </c>
+      <c r="C22" s="34" t="s">
         <v>537</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>536</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>538</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
@@ -3323,7 +3329,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
       <c r="J25" s="34" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="K25" s="35" t="s">
         <v>47</v>
@@ -3500,14 +3506,14 @@
         <v>492</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D29" s="35" t="s">
         <v>57</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
@@ -3515,7 +3521,7 @@
         <v>57</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
@@ -4750,24 +4756,24 @@
     </row>
     <row r="57" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37" t="s">
+        <v>556</v>
+      </c>
+      <c r="B57" s="37" t="s">
         <v>557</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="C57" s="35" t="s">
         <v>558</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>559</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
       <c r="F57" s="35" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
       <c r="J57" s="35" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="K57" s="35"/>
       <c r="L57" s="35"/>
@@ -7925,7 +7931,7 @@
       <c r="H132" s="35"/>
       <c r="I132" s="36"/>
       <c r="J132" s="34" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="K132" s="36" t="s">
         <v>47</v>
@@ -8506,7 +8512,7 @@
       <c r="H145" s="46"/>
       <c r="I145" s="47"/>
       <c r="J145" s="45" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="K145" s="47" t="s">
         <v>352</v>
@@ -8553,7 +8559,7 @@
       <c r="H146" s="46"/>
       <c r="I146" s="47"/>
       <c r="J146" s="45" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="K146" s="47" t="s">
         <v>352</v>
@@ -10694,7 +10700,7 @@
   </sheetPr>
   <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
@@ -10779,10 +10785,10 @@
         <v>240</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>561</v>
+      </c>
+      <c r="C4" s="19" t="s">
         <v>562</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>563</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -10803,10 +10809,10 @@
         <v>240</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -10851,10 +10857,10 @@
         <v>240</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -11208,79 +11214,79 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="B22" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="B22" s="18" t="s">
-        <v>540</v>
-      </c>
       <c r="C22" s="15" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
+        <v>548</v>
+      </c>
+      <c r="B25" s="60" t="s">
         <v>549</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="C25" s="61" t="s">
         <v>550</v>
-      </c>
-      <c r="C25" s="61" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B26" s="60" t="s">
+        <v>551</v>
+      </c>
+      <c r="C26" s="61" t="s">
         <v>552</v>
-      </c>
-      <c r="C26" s="61" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B27" s="60" t="s">
+        <v>553</v>
+      </c>
+      <c r="C27" s="61" t="s">
         <v>554</v>
-      </c>
-      <c r="C27" s="61" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B28" s="60" t="s">
         <v>115</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11304,9 +11310,9 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11364,11 +11370,11 @@
         <v>531</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44132.639565972226</v>
+        <v>44135.521256828702</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/hbc_followup.xlsx
+++ b/forms/app/hbc_followup.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9300" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="970" uniqueCount="553">
   <si>
     <t>form_title</t>
   </si>
@@ -1031,42 +1031,6 @@
     <t>field-list summary</t>
   </si>
   <si>
-    <t>who_note</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The WHO recommends PNC visits within 24 hours and on 3 days, 7 days, and 6 weeks from date of delivery. </t>
-  </si>
-  <si>
-    <t>select_multiple pnc_visits</t>
-  </si>
-  <si>
-    <t>pnc_visits_attended</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Which PNC visits have taken place  so far? </t>
-  </si>
-  <si>
-    <t>not(selected(.,'none')) or count-selected(.) &lt; 2</t>
-  </si>
-  <si>
-    <t>count &lt;= ${days}</t>
-  </si>
-  <si>
-    <t>pnc_visits_additional</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Any additional PNC visits, please report the number of visits below to be counted in the total. </t>
-  </si>
-  <si>
-    <t>. &gt;=0 and . &lt;= 6</t>
-  </si>
-  <si>
-    <t>Must be between 0 and 6.</t>
-  </si>
-  <si>
-    <t>days</t>
-  </si>
-  <si>
     <t>summary</t>
   </si>
   <si>
@@ -1221,12 +1185,6 @@
     <t>safe_isolation_practices</t>
   </si>
   <si>
-    <t>post_discharge_visits</t>
-  </si>
-  <si>
-    <t>Post discharge Visits</t>
-  </si>
-  <si>
     <t>Patient Outcome&lt;i class="fa fa-user"&gt;&lt;/i&gt;</t>
   </si>
   <si>
@@ -1363,9 +1321,6 @@
   </si>
   <si>
     <t>Place of Death: ${patient_death_place}</t>
-  </si>
-  <si>
-    <t>floor(decimal-date-time(today())) - decimal-date-time(${discharge_date})</t>
   </si>
   <si>
     <t>form_date</t>
@@ -1737,9 +1692,6 @@
   </si>
   <si>
     <t>selected(../condition/patient_outcome, 'ill')</t>
-  </si>
-  <si>
-    <t>selected(../condition/patient_outcome, 'recovered')</t>
   </si>
   <si>
     <t>selected(../../condition/patient_outcome, 'recovered')</t>
@@ -2340,13 +2292,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ192"/>
+  <dimension ref="A1:AJ186"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9:XFD9"/>
+      <selection pane="bottomRight" activeCell="A132" sqref="A132:XFD137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2734,10 +2686,10 @@
         <v>50</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="D9" s="27"/>
       <c r="E9" s="27"/>
@@ -2887,7 +2839,7 @@
       <c r="R13" s="21"/>
       <c r="S13" s="22"/>
       <c r="T13" s="21" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
@@ -2986,7 +2938,7 @@
         <v>239</v>
       </c>
       <c r="C17" s="34" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35"/>
@@ -3024,7 +2976,7 @@
     </row>
     <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="33" t="s">
-        <v>525</v>
+        <v>510</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>240</v>
@@ -3151,7 +3103,7 @@
         <v>42</v>
       </c>
       <c r="B21" s="33" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="C21" s="34" t="s">
         <v>45</v>
@@ -3192,13 +3144,13 @@
     </row>
     <row r="22" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
-        <v>536</v>
+        <v>521</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>537</v>
+        <v>522</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="35"/>
@@ -3317,10 +3269,10 @@
         <v>42</v>
       </c>
       <c r="B25" s="37" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="D25" s="35"/>
       <c r="E25" s="35"/>
@@ -3329,7 +3281,7 @@
       <c r="H25" s="35"/>
       <c r="I25" s="35"/>
       <c r="J25" s="34" t="s">
-        <v>564</v>
+        <v>549</v>
       </c>
       <c r="K25" s="35" t="s">
         <v>47</v>
@@ -3412,7 +3364,7 @@
         <v>207</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>508</v>
+        <v>493</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="35"/>
@@ -3459,7 +3411,7 @@
         <v>118</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
       <c r="D28" s="35"/>
       <c r="E28" s="35"/>
@@ -3503,17 +3455,17 @@
         <v>316</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>546</v>
+        <v>531</v>
       </c>
       <c r="D29" s="35" t="s">
         <v>57</v>
       </c>
       <c r="E29" s="35"/>
       <c r="F29" s="35" t="s">
-        <v>545</v>
+        <v>530</v>
       </c>
       <c r="G29" s="35"/>
       <c r="H29" s="35"/>
@@ -3521,7 +3473,7 @@
         <v>57</v>
       </c>
       <c r="J29" s="34" t="s">
-        <v>547</v>
+        <v>532</v>
       </c>
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
@@ -3549,7 +3501,7 @@
         <v>208</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="D30" s="35"/>
       <c r="E30" s="35"/>
@@ -3596,7 +3548,7 @@
         <v>209</v>
       </c>
       <c r="C31" s="34" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="D31" s="35"/>
       <c r="E31" s="35"/>
@@ -3640,10 +3592,10 @@
         <v>110</v>
       </c>
       <c r="B32" s="37" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
       <c r="C32" s="34" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="D32" s="35"/>
       <c r="E32" s="35"/>
@@ -3687,10 +3639,10 @@
         <v>110</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="C33" s="34" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="D33" s="35"/>
       <c r="E33" s="35"/>
@@ -4016,10 +3968,10 @@
         <v>110</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="C40" s="35" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
@@ -4063,10 +4015,10 @@
         <v>110</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="C41" s="35" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
@@ -4327,10 +4279,10 @@
         <v>42</v>
       </c>
       <c r="B47" s="37" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="35"/>
@@ -4372,10 +4324,10 @@
         <v>117</v>
       </c>
       <c r="B48" s="37" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="C48" s="34" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="D48" s="35"/>
       <c r="E48" s="35"/>
@@ -4415,10 +4367,10 @@
         <v>117</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
       <c r="C49" s="34" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="D49" s="35"/>
       <c r="E49" s="35"/>
@@ -4458,10 +4410,10 @@
         <v>110</v>
       </c>
       <c r="B50" s="37" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="D50" s="35"/>
       <c r="E50" s="35"/>
@@ -4501,10 +4453,10 @@
         <v>110</v>
       </c>
       <c r="B51" s="37" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="D51" s="35"/>
       <c r="E51" s="35"/>
@@ -4544,10 +4496,10 @@
         <v>110</v>
       </c>
       <c r="B52" s="37" t="s">
-        <v>474</v>
+        <v>459</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="D52" s="35"/>
       <c r="E52" s="35"/>
@@ -4587,10 +4539,10 @@
         <v>110</v>
       </c>
       <c r="B53" s="37" t="s">
-        <v>475</v>
+        <v>460</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="D53" s="35"/>
       <c r="E53" s="35"/>
@@ -4630,10 +4582,10 @@
         <v>110</v>
       </c>
       <c r="B54" s="37" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="D54" s="35"/>
       <c r="E54" s="35"/>
@@ -4673,10 +4625,10 @@
         <v>110</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
       <c r="D55" s="35"/>
       <c r="E55" s="35"/>
@@ -4716,10 +4668,10 @@
         <v>110</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="D56" s="35"/>
       <c r="E56" s="35"/>
@@ -4756,24 +4708,24 @@
     </row>
     <row r="57" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="37" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="D57" s="35"/>
       <c r="E57" s="35"/>
       <c r="F57" s="35" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="G57" s="35"/>
       <c r="H57" s="35"/>
       <c r="I57" s="35"/>
       <c r="J57" s="35" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="K57" s="35"/>
       <c r="L57" s="35"/>
@@ -4806,10 +4758,10 @@
         <v>110</v>
       </c>
       <c r="B58" s="37" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="D58" s="35"/>
       <c r="E58" s="35"/>
@@ -4849,10 +4801,10 @@
         <v>110</v>
       </c>
       <c r="B59" s="37" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="D59" s="35"/>
       <c r="E59" s="35"/>
@@ -4892,10 +4844,10 @@
         <v>110</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="C60" s="34" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="D60" s="35"/>
       <c r="E60" s="35"/>
@@ -4935,10 +4887,10 @@
         <v>110</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
       <c r="C61" s="35" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="D61" s="35"/>
       <c r="E61" s="35"/>
@@ -4978,10 +4930,10 @@
         <v>110</v>
       </c>
       <c r="B62" s="37" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
       <c r="C62" s="34" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="D62" s="35"/>
       <c r="E62" s="35"/>
@@ -5097,10 +5049,10 @@
         <v>42</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
       <c r="D65" s="35"/>
       <c r="E65" s="35"/>
@@ -5142,10 +5094,10 @@
         <v>316</v>
       </c>
       <c r="B66" s="37" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="C66" s="35" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="D66" s="35"/>
       <c r="E66" s="35"/>
@@ -5185,10 +5137,10 @@
         <v>316</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
       <c r="C67" s="35" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="D67" s="35"/>
       <c r="E67" s="35"/>
@@ -5228,10 +5180,10 @@
         <v>316</v>
       </c>
       <c r="B68" s="37" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="C68" s="35" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="D68" s="35"/>
       <c r="E68" s="35"/>
@@ -5271,10 +5223,10 @@
         <v>316</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
       <c r="C69" s="35" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="D69" s="35"/>
       <c r="E69" s="35"/>
@@ -5314,10 +5266,10 @@
         <v>316</v>
       </c>
       <c r="B70" s="37" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
       <c r="C70" s="35" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
       <c r="D70" s="35"/>
       <c r="E70" s="35"/>
@@ -5433,10 +5385,10 @@
         <v>42</v>
       </c>
       <c r="B73" s="37" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="C73" s="35" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="35"/>
@@ -5478,10 +5430,10 @@
         <v>316</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>526</v>
+        <v>511</v>
       </c>
       <c r="C74" s="35" t="s">
-        <v>502</v>
+        <v>487</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="35"/>
@@ -5521,10 +5473,10 @@
         <v>316</v>
       </c>
       <c r="B75" s="37" t="s">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="C75" s="35" t="s">
-        <v>503</v>
+        <v>488</v>
       </c>
       <c r="D75" s="35"/>
       <c r="E75" s="35"/>
@@ -5564,10 +5516,10 @@
         <v>316</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>528</v>
+        <v>513</v>
       </c>
       <c r="C76" s="35" t="s">
-        <v>504</v>
+        <v>489</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="35"/>
@@ -5607,10 +5559,10 @@
         <v>316</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="C77" s="35" t="s">
-        <v>505</v>
+        <v>490</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="35"/>
@@ -5650,10 +5602,10 @@
         <v>316</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>530</v>
+        <v>515</v>
       </c>
       <c r="C78" s="35" t="s">
-        <v>506</v>
+        <v>491</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="35"/>
@@ -5662,7 +5614,7 @@
       <c r="H78" s="35"/>
       <c r="I78" s="35"/>
       <c r="J78" s="35" t="s">
-        <v>507</v>
+        <v>492</v>
       </c>
       <c r="K78" s="35"/>
       <c r="L78" s="35"/>
@@ -5771,7 +5723,7 @@
         <v>42</v>
       </c>
       <c r="B81" s="37" t="s">
-        <v>509</v>
+        <v>494</v>
       </c>
       <c r="C81" s="35" t="s">
         <v>45</v>
@@ -5816,10 +5768,10 @@
         <v>110</v>
       </c>
       <c r="B82" s="37" t="s">
-        <v>510</v>
+        <v>495</v>
       </c>
       <c r="C82" s="35" t="s">
-        <v>511</v>
+        <v>496</v>
       </c>
       <c r="D82" s="35"/>
       <c r="E82" s="35"/>
@@ -5858,13 +5810,13 @@
     </row>
     <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="37" t="s">
-        <v>519</v>
+        <v>504</v>
       </c>
       <c r="B83" s="37" t="s">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="C83" s="35" t="s">
-        <v>521</v>
+        <v>506</v>
       </c>
       <c r="D83" s="35"/>
       <c r="E83" s="35"/>
@@ -5873,7 +5825,7 @@
       <c r="H83" s="35"/>
       <c r="I83" s="35"/>
       <c r="J83" s="35" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="K83" s="35"/>
       <c r="L83" s="35"/>
@@ -5906,10 +5858,10 @@
         <v>268</v>
       </c>
       <c r="B84" s="37" t="s">
-        <v>512</v>
+        <v>497</v>
       </c>
       <c r="C84" s="35" t="s">
-        <v>513</v>
+        <v>498</v>
       </c>
       <c r="D84" s="35"/>
       <c r="E84" s="35"/>
@@ -5918,7 +5870,7 @@
       <c r="H84" s="35"/>
       <c r="I84" s="35"/>
       <c r="J84" s="35" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="K84" s="35"/>
       <c r="L84" s="35"/>
@@ -5948,13 +5900,13 @@
     </row>
     <row r="85" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="37" t="s">
-        <v>515</v>
+        <v>500</v>
       </c>
       <c r="B85" s="37" t="s">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="C85" s="35" t="s">
-        <v>516</v>
+        <v>501</v>
       </c>
       <c r="D85" s="35"/>
       <c r="E85" s="35"/>
@@ -5963,7 +5915,7 @@
       <c r="H85" s="35"/>
       <c r="I85" s="35"/>
       <c r="J85" s="35" t="s">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="K85" s="35"/>
       <c r="L85" s="35"/>
@@ -6072,7 +6024,7 @@
         <v>42</v>
       </c>
       <c r="B88" s="37" t="s">
-        <v>522</v>
+        <v>507</v>
       </c>
       <c r="C88" s="35" t="s">
         <v>45</v>
@@ -6115,10 +6067,10 @@
         <v>110</v>
       </c>
       <c r="B89" s="37" t="s">
-        <v>523</v>
+        <v>508</v>
       </c>
       <c r="C89" s="35" t="s">
-        <v>524</v>
+        <v>509</v>
       </c>
       <c r="D89" s="35"/>
       <c r="E89" s="35"/>
@@ -6456,7 +6408,7 @@
       <c r="H97" s="35"/>
       <c r="I97" s="36"/>
       <c r="J97" s="36" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="K97" s="36"/>
       <c r="L97" s="36"/>
@@ -7579,10 +7531,10 @@
         <v>42</v>
       </c>
       <c r="B124" s="33" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C124" s="34" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="D124" s="35"/>
       <c r="E124" s="35"/>
@@ -7628,10 +7580,10 @@
         <v>117</v>
       </c>
       <c r="B125" s="33" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="C125" s="34" t="s">
-        <v>387</v>
+        <v>375</v>
       </c>
       <c r="D125" s="35"/>
       <c r="E125" s="35"/>
@@ -7671,10 +7623,10 @@
         <v>117</v>
       </c>
       <c r="B126" s="33" t="s">
-        <v>383</v>
+        <v>371</v>
       </c>
       <c r="C126" s="34" t="s">
-        <v>388</v>
+        <v>376</v>
       </c>
       <c r="D126" s="35"/>
       <c r="E126" s="35"/>
@@ -7714,10 +7666,10 @@
         <v>117</v>
       </c>
       <c r="B127" s="33" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="C127" s="34" t="s">
-        <v>389</v>
+        <v>377</v>
       </c>
       <c r="D127" s="35"/>
       <c r="E127" s="35"/>
@@ -7757,10 +7709,10 @@
         <v>117</v>
       </c>
       <c r="B128" s="33" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="C128" s="34" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="D128" s="35"/>
       <c r="E128" s="35"/>
@@ -7800,10 +7752,10 @@
         <v>117</v>
       </c>
       <c r="B129" s="33" t="s">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="C129" s="34" t="s">
-        <v>391</v>
+        <v>379</v>
       </c>
       <c r="D129" s="35"/>
       <c r="E129" s="35"/>
@@ -7915,327 +7867,319 @@
       <c r="AI131" s="43"/>
     </row>
     <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="33" t="s">
+      <c r="A132" s="42"/>
+      <c r="B132" s="42"/>
+      <c r="C132" s="42"/>
+      <c r="D132" s="31"/>
+      <c r="E132" s="31"/>
+      <c r="F132" s="31"/>
+      <c r="G132" s="31"/>
+      <c r="H132" s="31"/>
+      <c r="I132" s="43"/>
+      <c r="J132" s="43"/>
+      <c r="K132" s="43"/>
+      <c r="L132" s="43"/>
+      <c r="M132" s="42"/>
+      <c r="N132" s="42"/>
+      <c r="O132" s="42"/>
+      <c r="P132" s="42"/>
+      <c r="Q132" s="42"/>
+      <c r="R132" s="42"/>
+      <c r="S132" s="42"/>
+      <c r="T132" s="42"/>
+      <c r="U132" s="43"/>
+      <c r="V132" s="42"/>
+      <c r="W132" s="43"/>
+      <c r="X132" s="43"/>
+      <c r="Y132" s="43"/>
+      <c r="Z132" s="43"/>
+      <c r="AA132" s="43"/>
+      <c r="AB132" s="43"/>
+      <c r="AC132" s="43"/>
+      <c r="AD132" s="43"/>
+      <c r="AE132" s="43"/>
+      <c r="AF132" s="43"/>
+      <c r="AG132" s="43"/>
+      <c r="AH132" s="43"/>
+      <c r="AI132" s="43"/>
+    </row>
+    <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B132" s="33" t="s">
-        <v>393</v>
-      </c>
-      <c r="C132" s="34" t="s">
-        <v>394</v>
-      </c>
-      <c r="D132" s="35"/>
-      <c r="E132" s="35"/>
-      <c r="F132" s="35"/>
-      <c r="G132" s="35"/>
-      <c r="H132" s="35"/>
-      <c r="I132" s="36"/>
-      <c r="J132" s="34" t="s">
-        <v>565</v>
-      </c>
-      <c r="K132" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="L132" s="36"/>
-      <c r="M132" s="34"/>
-      <c r="N132" s="34"/>
-      <c r="O132" s="34"/>
-      <c r="P132" s="34"/>
-      <c r="Q132" s="34"/>
-      <c r="R132" s="34"/>
-      <c r="S132" s="34"/>
-      <c r="T132" s="34"/>
-      <c r="U132" s="36"/>
-      <c r="V132" s="34"/>
-      <c r="W132" s="36"/>
-      <c r="X132" s="36"/>
-      <c r="Y132" s="36"/>
-      <c r="Z132" s="36"/>
-      <c r="AA132" s="36"/>
-      <c r="AB132" s="36"/>
-      <c r="AC132" s="36"/>
-      <c r="AD132" s="36"/>
-      <c r="AE132" s="36"/>
-      <c r="AF132" s="36"/>
-      <c r="AG132" s="36"/>
-      <c r="AH132" s="36"/>
-      <c r="AI132" s="36"/>
-    </row>
-    <row r="133" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="33" t="s">
+      <c r="B133" s="44" t="s">
+        <v>330</v>
+      </c>
+      <c r="C133" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="D133" s="46"/>
+      <c r="E133" s="46"/>
+      <c r="F133" s="46"/>
+      <c r="G133" s="46"/>
+      <c r="H133" s="46"/>
+      <c r="I133" s="47"/>
+      <c r="J133" s="47"/>
+      <c r="K133" s="47" t="s">
+        <v>329</v>
+      </c>
+      <c r="L133" s="47"/>
+      <c r="M133" s="45"/>
+      <c r="N133" s="45"/>
+      <c r="O133" s="45"/>
+      <c r="P133" s="45"/>
+      <c r="Q133" s="45"/>
+      <c r="R133" s="45"/>
+      <c r="S133" s="45"/>
+      <c r="T133" s="45"/>
+      <c r="U133" s="47"/>
+      <c r="V133" s="45"/>
+      <c r="W133" s="47"/>
+      <c r="X133" s="47"/>
+      <c r="Y133" s="47"/>
+      <c r="Z133" s="47"/>
+      <c r="AA133" s="47"/>
+      <c r="AB133" s="47"/>
+      <c r="AC133" s="47"/>
+      <c r="AD133" s="47"/>
+      <c r="AE133" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF133" s="47"/>
+      <c r="AG133" s="47"/>
+      <c r="AH133" s="47"/>
+      <c r="AI133" s="47"/>
+    </row>
+    <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="48" t="s">
         <v>117</v>
       </c>
-      <c r="B133" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="C133" s="34" t="s">
+      <c r="B134" s="48" t="s">
         <v>331</v>
       </c>
-      <c r="D133" s="35"/>
-      <c r="E133" s="35"/>
-      <c r="F133" s="35"/>
-      <c r="G133" s="35"/>
-      <c r="H133" s="35"/>
-      <c r="I133" s="36"/>
-      <c r="J133" s="36"/>
-      <c r="K133" s="36"/>
-      <c r="L133" s="36"/>
-      <c r="M133" s="34"/>
-      <c r="N133" s="34"/>
-      <c r="O133" s="34"/>
-      <c r="P133" s="34"/>
-      <c r="Q133" s="34"/>
-      <c r="R133" s="34"/>
-      <c r="S133" s="34"/>
-      <c r="T133" s="34"/>
-      <c r="U133" s="36"/>
-      <c r="V133" s="34"/>
-      <c r="W133" s="36"/>
-      <c r="X133" s="36"/>
-      <c r="Y133" s="36"/>
-      <c r="Z133" s="36"/>
-      <c r="AA133" s="36"/>
-      <c r="AB133" s="36"/>
-      <c r="AC133" s="36"/>
-      <c r="AD133" s="36"/>
-      <c r="AE133" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF133" s="36"/>
-      <c r="AG133" s="36"/>
-      <c r="AH133" s="36"/>
-      <c r="AI133" s="36"/>
-    </row>
-    <row r="134" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="33" t="s">
+      <c r="C134" s="45" t="s">
         <v>332</v>
       </c>
-      <c r="B134" s="33" t="s">
+      <c r="D134" s="47"/>
+      <c r="E134" s="47"/>
+      <c r="F134" s="47"/>
+      <c r="G134" s="47"/>
+      <c r="H134" s="47"/>
+      <c r="I134" s="47"/>
+      <c r="J134" s="47"/>
+      <c r="K134" s="47"/>
+      <c r="L134" s="47"/>
+      <c r="M134" s="47"/>
+      <c r="N134" s="47"/>
+      <c r="O134" s="47"/>
+      <c r="P134" s="47"/>
+      <c r="Q134" s="47"/>
+      <c r="R134" s="47"/>
+      <c r="S134" s="47"/>
+      <c r="T134" s="47"/>
+      <c r="U134" s="47"/>
+      <c r="V134" s="47"/>
+      <c r="W134" s="47"/>
+      <c r="X134" s="47"/>
+      <c r="Y134" s="47"/>
+      <c r="Z134" s="47"/>
+      <c r="AA134" s="47"/>
+      <c r="AB134" s="47"/>
+      <c r="AC134" s="47"/>
+      <c r="AD134" s="47"/>
+      <c r="AE134" s="47"/>
+      <c r="AF134" s="47"/>
+      <c r="AG134" s="47"/>
+      <c r="AH134" s="47"/>
+      <c r="AI134" s="47"/>
+    </row>
+    <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B135" s="44" t="s">
         <v>333</v>
       </c>
-      <c r="C134" s="34" t="s">
+      <c r="C135" s="45" t="s">
         <v>334</v>
       </c>
-      <c r="D134" s="35"/>
-      <c r="E134" s="35"/>
-      <c r="F134" s="35"/>
-      <c r="G134" s="35"/>
-      <c r="H134" s="35"/>
-      <c r="I134" s="36" t="s">
-        <v>57</v>
-      </c>
-      <c r="J134" s="36"/>
-      <c r="K134" s="36"/>
-      <c r="L134" s="36" t="s">
+      <c r="D135" s="47"/>
+      <c r="E135" s="47"/>
+      <c r="F135" s="47"/>
+      <c r="G135" s="47"/>
+      <c r="H135" s="47"/>
+      <c r="I135" s="47"/>
+      <c r="J135" s="47"/>
+      <c r="K135" s="45" t="s">
         <v>335</v>
       </c>
-      <c r="M134" s="35"/>
-      <c r="N134" s="34"/>
-      <c r="O134" s="34"/>
-      <c r="P134" s="34"/>
-      <c r="Q134" s="34"/>
-      <c r="R134" s="34"/>
-      <c r="S134" s="34"/>
-      <c r="T134" s="34"/>
-      <c r="U134" s="34" t="s">
+      <c r="L135" s="47"/>
+      <c r="M135" s="47"/>
+      <c r="N135" s="47"/>
+      <c r="O135" s="47"/>
+      <c r="P135" s="47"/>
+      <c r="Q135" s="47"/>
+      <c r="R135" s="47"/>
+      <c r="S135" s="47"/>
+      <c r="T135" s="47"/>
+      <c r="U135" s="47"/>
+      <c r="V135" s="47"/>
+      <c r="W135" s="47"/>
+      <c r="X135" s="47"/>
+      <c r="Y135" s="47"/>
+      <c r="Z135" s="47"/>
+      <c r="AA135" s="47"/>
+      <c r="AB135" s="47"/>
+      <c r="AC135" s="47"/>
+      <c r="AD135" s="47"/>
+      <c r="AE135" s="47"/>
+      <c r="AF135" s="47"/>
+      <c r="AG135" s="47"/>
+      <c r="AH135" s="47"/>
+      <c r="AI135" s="47"/>
+    </row>
+    <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B136" s="44" t="s">
         <v>336</v>
       </c>
-      <c r="V134" s="34"/>
-      <c r="W134" s="36"/>
-      <c r="X134" s="36"/>
-      <c r="Y134" s="36"/>
-      <c r="Z134" s="36"/>
-      <c r="AA134" s="36"/>
-      <c r="AB134" s="36"/>
-      <c r="AC134" s="36"/>
-      <c r="AD134" s="36"/>
-      <c r="AE134" s="36"/>
-      <c r="AF134" s="36"/>
-      <c r="AG134" s="36"/>
-      <c r="AH134" s="36"/>
-      <c r="AI134" s="36"/>
-    </row>
-    <row r="135" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="33" t="s">
-        <v>316</v>
-      </c>
-      <c r="B135" s="33" t="s">
+      <c r="C136" s="45" t="s">
+        <v>430</v>
+      </c>
+      <c r="D136" s="47"/>
+      <c r="E136" s="47"/>
+      <c r="F136" s="47"/>
+      <c r="G136" s="47"/>
+      <c r="H136" s="47"/>
+      <c r="I136" s="47"/>
+      <c r="J136" s="47"/>
+      <c r="K136" s="45"/>
+      <c r="L136" s="47"/>
+      <c r="M136" s="47"/>
+      <c r="N136" s="47"/>
+      <c r="O136" s="47"/>
+      <c r="P136" s="47"/>
+      <c r="Q136" s="47"/>
+      <c r="R136" s="47"/>
+      <c r="S136" s="47"/>
+      <c r="T136" s="47"/>
+      <c r="U136" s="47"/>
+      <c r="V136" s="47"/>
+      <c r="W136" s="47"/>
+      <c r="X136" s="47"/>
+      <c r="Y136" s="47"/>
+      <c r="Z136" s="47"/>
+      <c r="AA136" s="47"/>
+      <c r="AB136" s="47"/>
+      <c r="AC136" s="47"/>
+      <c r="AD136" s="47"/>
+      <c r="AE136" s="47"/>
+      <c r="AF136" s="47"/>
+      <c r="AG136" s="47"/>
+      <c r="AH136" s="47"/>
+      <c r="AI136" s="47"/>
+    </row>
+    <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B137" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="C137" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="D137" s="47"/>
+      <c r="E137" s="47"/>
+      <c r="F137" s="47"/>
+      <c r="G137" s="47"/>
+      <c r="H137" s="47"/>
+      <c r="I137" s="47"/>
+      <c r="J137" s="47"/>
+      <c r="K137" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="L137" s="47"/>
+      <c r="M137" s="47"/>
+      <c r="N137" s="47"/>
+      <c r="O137" s="47"/>
+      <c r="P137" s="47"/>
+      <c r="Q137" s="47"/>
+      <c r="R137" s="47"/>
+      <c r="S137" s="47"/>
+      <c r="T137" s="47"/>
+      <c r="U137" s="47"/>
+      <c r="V137" s="47"/>
+      <c r="W137" s="47"/>
+      <c r="X137" s="47"/>
+      <c r="Y137" s="47"/>
+      <c r="Z137" s="47"/>
+      <c r="AA137" s="47"/>
+      <c r="AB137" s="47"/>
+      <c r="AC137" s="47"/>
+      <c r="AD137" s="47"/>
+      <c r="AE137" s="47"/>
+      <c r="AF137" s="47"/>
+      <c r="AG137" s="47"/>
+      <c r="AH137" s="47"/>
+      <c r="AI137" s="47"/>
+    </row>
+    <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="44" t="s">
+        <v>117</v>
+      </c>
+      <c r="B138" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="C135" s="34" t="s">
+      <c r="C138" s="47" t="s">
+        <v>382</v>
+      </c>
+      <c r="D138" s="47"/>
+      <c r="E138" s="47"/>
+      <c r="F138" s="47"/>
+      <c r="G138" s="47"/>
+      <c r="H138" s="47"/>
+      <c r="I138" s="47"/>
+      <c r="J138" s="46"/>
+      <c r="K138" s="45" t="s">
         <v>338</v>
       </c>
-      <c r="D135" s="36"/>
-      <c r="E135" s="36"/>
-      <c r="F135" s="36"/>
-      <c r="G135" s="36"/>
-      <c r="H135" s="36"/>
-      <c r="I135" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J135" s="36"/>
-      <c r="K135" s="34"/>
-      <c r="L135" s="36" t="s">
-        <v>339</v>
-      </c>
-      <c r="M135" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="N135" s="36"/>
-      <c r="O135" s="36"/>
-      <c r="P135" s="36"/>
-      <c r="Q135" s="36"/>
-      <c r="R135" s="36"/>
-      <c r="S135" s="36"/>
-      <c r="T135" s="36"/>
-      <c r="U135" s="36"/>
-      <c r="V135" s="36"/>
-      <c r="W135" s="36"/>
-      <c r="X135" s="36"/>
-      <c r="Y135" s="36"/>
-      <c r="Z135" s="36"/>
-      <c r="AA135" s="36"/>
-      <c r="AB135" s="36"/>
-      <c r="AC135" s="36"/>
-      <c r="AD135" s="36"/>
-      <c r="AE135" s="36"/>
-      <c r="AF135" s="36"/>
-      <c r="AG135" s="36"/>
-      <c r="AH135" s="36"/>
-      <c r="AI135" s="36"/>
-    </row>
-    <row r="136" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="B136" s="33" t="s">
-        <v>341</v>
-      </c>
-      <c r="C136" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="D136" s="36"/>
-      <c r="E136" s="36"/>
-      <c r="F136" s="36"/>
-      <c r="G136" s="36"/>
-      <c r="H136" s="36"/>
-      <c r="I136" s="36"/>
-      <c r="J136" s="34"/>
-      <c r="K136" s="34"/>
-      <c r="L136" s="36"/>
-      <c r="M136" s="36"/>
-      <c r="N136" s="36"/>
-      <c r="O136" s="36"/>
-      <c r="P136" s="36"/>
-      <c r="Q136" s="36"/>
-      <c r="R136" s="36"/>
-      <c r="S136" s="36"/>
-      <c r="T136" s="36" t="s">
-        <v>441</v>
-      </c>
-      <c r="U136" s="36"/>
-      <c r="V136" s="36"/>
-      <c r="W136" s="36"/>
-      <c r="X136" s="36"/>
-      <c r="Y136" s="36"/>
-      <c r="Z136" s="36"/>
-      <c r="AA136" s="36"/>
-      <c r="AB136" s="36"/>
-      <c r="AC136" s="36"/>
-      <c r="AD136" s="36"/>
-      <c r="AE136" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF136" s="36"/>
-      <c r="AG136" s="36"/>
-      <c r="AH136" s="36"/>
-      <c r="AI136" s="36"/>
-    </row>
-    <row r="137" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B137" s="33"/>
-      <c r="C137" s="34"/>
-      <c r="D137" s="35"/>
-      <c r="E137" s="35"/>
-      <c r="F137" s="35"/>
-      <c r="G137" s="35"/>
-      <c r="H137" s="35"/>
-      <c r="I137" s="36"/>
-      <c r="J137" s="36"/>
-      <c r="K137" s="36"/>
-      <c r="L137" s="36"/>
-      <c r="M137" s="34"/>
-      <c r="N137" s="34"/>
-      <c r="O137" s="34"/>
-      <c r="P137" s="34"/>
-      <c r="Q137" s="34"/>
-      <c r="R137" s="34"/>
-      <c r="S137" s="34"/>
-      <c r="T137" s="34"/>
-      <c r="U137" s="36"/>
-      <c r="V137" s="34"/>
-      <c r="W137" s="36"/>
-      <c r="X137" s="36"/>
-      <c r="Y137" s="36"/>
-      <c r="Z137" s="36"/>
-      <c r="AA137" s="36"/>
-      <c r="AB137" s="36"/>
-      <c r="AC137" s="36"/>
-      <c r="AD137" s="36"/>
-      <c r="AE137" s="36"/>
-      <c r="AF137" s="36"/>
-      <c r="AG137" s="36"/>
-      <c r="AH137" s="36"/>
-      <c r="AI137" s="36"/>
-    </row>
-    <row r="138" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="42"/>
-      <c r="B138" s="42"/>
-      <c r="C138" s="42"/>
-      <c r="D138" s="31"/>
-      <c r="E138" s="31"/>
-      <c r="F138" s="31"/>
-      <c r="G138" s="31"/>
-      <c r="H138" s="31"/>
-      <c r="I138" s="43"/>
-      <c r="J138" s="43"/>
-      <c r="K138" s="43"/>
-      <c r="L138" s="43"/>
-      <c r="M138" s="42"/>
-      <c r="N138" s="42"/>
-      <c r="O138" s="42"/>
-      <c r="P138" s="42"/>
-      <c r="Q138" s="42"/>
-      <c r="R138" s="42"/>
-      <c r="S138" s="42"/>
-      <c r="T138" s="42"/>
-      <c r="U138" s="43"/>
-      <c r="V138" s="42"/>
-      <c r="W138" s="43"/>
-      <c r="X138" s="43"/>
-      <c r="Y138" s="43"/>
-      <c r="Z138" s="43"/>
-      <c r="AA138" s="43"/>
-      <c r="AB138" s="43"/>
-      <c r="AC138" s="43"/>
-      <c r="AD138" s="43"/>
-      <c r="AE138" s="43"/>
-      <c r="AF138" s="43"/>
-      <c r="AG138" s="43"/>
-      <c r="AH138" s="43"/>
-      <c r="AI138" s="43"/>
+      <c r="L138" s="47"/>
+      <c r="M138" s="47"/>
+      <c r="N138" s="47"/>
+      <c r="O138" s="47"/>
+      <c r="P138" s="47"/>
+      <c r="Q138" s="47"/>
+      <c r="R138" s="47"/>
+      <c r="S138" s="47"/>
+      <c r="T138" s="47"/>
+      <c r="U138" s="47"/>
+      <c r="V138" s="47"/>
+      <c r="W138" s="47"/>
+      <c r="X138" s="47"/>
+      <c r="Y138" s="47"/>
+      <c r="Z138" s="47"/>
+      <c r="AA138" s="47"/>
+      <c r="AB138" s="47"/>
+      <c r="AC138" s="47"/>
+      <c r="AD138" s="47"/>
+      <c r="AE138" s="47"/>
+      <c r="AF138" s="47"/>
+      <c r="AG138" s="47"/>
+      <c r="AH138" s="47"/>
+      <c r="AI138" s="47"/>
     </row>
     <row r="139" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="44" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B139" s="44" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C139" s="45" t="s">
-        <v>45</v>
+        <v>247</v>
       </c>
       <c r="D139" s="46"/>
       <c r="E139" s="46"/>
@@ -8243,9 +8187,11 @@
       <c r="G139" s="46"/>
       <c r="H139" s="46"/>
       <c r="I139" s="47"/>
-      <c r="J139" s="47"/>
+      <c r="J139" s="45" t="s">
+        <v>550</v>
+      </c>
       <c r="K139" s="47" t="s">
-        <v>329</v>
+        <v>340</v>
       </c>
       <c r="L139" s="47"/>
       <c r="M139" s="45"/>
@@ -8266,43 +8212,45 @@
       <c r="AB139" s="47"/>
       <c r="AC139" s="47"/>
       <c r="AD139" s="47"/>
-      <c r="AE139" s="47" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE139" s="47"/>
       <c r="AF139" s="47"/>
       <c r="AG139" s="47"/>
       <c r="AH139" s="47"/>
       <c r="AI139" s="47"/>
     </row>
     <row r="140" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="48" t="s">
+      <c r="A140" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="B140" s="48" t="s">
-        <v>343</v>
+      <c r="B140" s="44" t="s">
+        <v>341</v>
       </c>
       <c r="C140" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="D140" s="47"/>
-      <c r="E140" s="47"/>
-      <c r="F140" s="47"/>
-      <c r="G140" s="47"/>
-      <c r="H140" s="47"/>
+        <v>248</v>
+      </c>
+      <c r="D140" s="46"/>
+      <c r="E140" s="46"/>
+      <c r="F140" s="46"/>
+      <c r="G140" s="46"/>
+      <c r="H140" s="46"/>
       <c r="I140" s="47"/>
-      <c r="J140" s="47"/>
-      <c r="K140" s="47"/>
+      <c r="J140" s="45" t="s">
+        <v>551</v>
+      </c>
+      <c r="K140" s="47" t="s">
+        <v>340</v>
+      </c>
       <c r="L140" s="47"/>
-      <c r="M140" s="47"/>
-      <c r="N140" s="47"/>
-      <c r="O140" s="47"/>
-      <c r="P140" s="47"/>
-      <c r="Q140" s="47"/>
-      <c r="R140" s="47"/>
-      <c r="S140" s="47"/>
-      <c r="T140" s="47"/>
+      <c r="M140" s="45"/>
+      <c r="N140" s="45"/>
+      <c r="O140" s="45"/>
+      <c r="P140" s="45"/>
+      <c r="Q140" s="45"/>
+      <c r="R140" s="45"/>
+      <c r="S140" s="45"/>
+      <c r="T140" s="45"/>
       <c r="U140" s="47"/>
-      <c r="V140" s="47"/>
+      <c r="V140" s="45"/>
       <c r="W140" s="47"/>
       <c r="X140" s="47"/>
       <c r="Y140" s="47"/>
@@ -8322,32 +8270,34 @@
         <v>117</v>
       </c>
       <c r="B141" s="44" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C141" s="45" t="s">
-        <v>346</v>
-      </c>
-      <c r="D141" s="47"/>
-      <c r="E141" s="47"/>
-      <c r="F141" s="47"/>
-      <c r="G141" s="47"/>
-      <c r="H141" s="47"/>
+        <v>250</v>
+      </c>
+      <c r="D141" s="46"/>
+      <c r="E141" s="46"/>
+      <c r="F141" s="46"/>
+      <c r="G141" s="46"/>
+      <c r="H141" s="46"/>
       <c r="I141" s="47"/>
-      <c r="J141" s="47"/>
-      <c r="K141" s="45" t="s">
-        <v>347</v>
+      <c r="J141" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="K141" s="47" t="s">
+        <v>340</v>
       </c>
       <c r="L141" s="47"/>
-      <c r="M141" s="47"/>
-      <c r="N141" s="47"/>
-      <c r="O141" s="47"/>
-      <c r="P141" s="47"/>
-      <c r="Q141" s="47"/>
-      <c r="R141" s="47"/>
-      <c r="S141" s="47"/>
-      <c r="T141" s="47"/>
+      <c r="M141" s="45"/>
+      <c r="N141" s="45"/>
+      <c r="O141" s="45"/>
+      <c r="P141" s="45"/>
+      <c r="Q141" s="45"/>
+      <c r="R141" s="45"/>
+      <c r="S141" s="45"/>
+      <c r="T141" s="45"/>
       <c r="U141" s="47"/>
-      <c r="V141" s="47"/>
+      <c r="V141" s="45"/>
       <c r="W141" s="47"/>
       <c r="X141" s="47"/>
       <c r="Y141" s="47"/>
@@ -8367,10 +8317,10 @@
         <v>117</v>
       </c>
       <c r="B142" s="44" t="s">
-        <v>348</v>
-      </c>
-      <c r="C142" s="45" t="s">
-        <v>445</v>
+        <v>384</v>
+      </c>
+      <c r="C142" s="47" t="s">
+        <v>343</v>
       </c>
       <c r="D142" s="47"/>
       <c r="E142" s="47"/>
@@ -8378,8 +8328,12 @@
       <c r="G142" s="47"/>
       <c r="H142" s="47"/>
       <c r="I142" s="47"/>
-      <c r="J142" s="47"/>
-      <c r="K142" s="45"/>
+      <c r="J142" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="K142" s="45" t="s">
+        <v>338</v>
+      </c>
       <c r="L142" s="47"/>
       <c r="M142" s="47"/>
       <c r="N142" s="47"/>
@@ -8410,32 +8364,34 @@
         <v>117</v>
       </c>
       <c r="B143" s="44" t="s">
-        <v>399</v>
+        <v>344</v>
       </c>
       <c r="C143" s="45" t="s">
-        <v>395</v>
-      </c>
-      <c r="D143" s="47"/>
-      <c r="E143" s="47"/>
-      <c r="F143" s="47"/>
-      <c r="G143" s="47"/>
-      <c r="H143" s="47"/>
+        <v>383</v>
+      </c>
+      <c r="D143" s="46"/>
+      <c r="E143" s="46"/>
+      <c r="F143" s="46"/>
+      <c r="G143" s="46"/>
+      <c r="H143" s="46"/>
       <c r="I143" s="47"/>
-      <c r="J143" s="47"/>
-      <c r="K143" s="45" t="s">
-        <v>347</v>
+      <c r="J143" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="K143" s="47" t="s">
+        <v>340</v>
       </c>
       <c r="L143" s="47"/>
-      <c r="M143" s="47"/>
-      <c r="N143" s="47"/>
-      <c r="O143" s="47"/>
-      <c r="P143" s="47"/>
-      <c r="Q143" s="47"/>
-      <c r="R143" s="47"/>
-      <c r="S143" s="47"/>
-      <c r="T143" s="47"/>
+      <c r="M143" s="45"/>
+      <c r="N143" s="45"/>
+      <c r="O143" s="45"/>
+      <c r="P143" s="45"/>
+      <c r="Q143" s="45"/>
+      <c r="R143" s="45"/>
+      <c r="S143" s="45"/>
+      <c r="T143" s="45"/>
       <c r="U143" s="47"/>
-      <c r="V143" s="47"/>
+      <c r="V143" s="45"/>
       <c r="W143" s="47"/>
       <c r="X143" s="47"/>
       <c r="Y143" s="47"/>
@@ -8455,32 +8411,34 @@
         <v>117</v>
       </c>
       <c r="B144" s="44" t="s">
-        <v>349</v>
-      </c>
-      <c r="C144" s="47" t="s">
-        <v>396</v>
-      </c>
-      <c r="D144" s="47"/>
-      <c r="E144" s="47"/>
-      <c r="F144" s="47"/>
-      <c r="G144" s="47"/>
-      <c r="H144" s="47"/>
+        <v>345</v>
+      </c>
+      <c r="C144" s="45" t="s">
+        <v>426</v>
+      </c>
+      <c r="D144" s="46"/>
+      <c r="E144" s="46"/>
+      <c r="F144" s="46"/>
+      <c r="G144" s="46"/>
+      <c r="H144" s="46"/>
       <c r="I144" s="47"/>
-      <c r="J144" s="46"/>
-      <c r="K144" s="45" t="s">
-        <v>350</v>
+      <c r="J144" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="K144" s="47" t="s">
+        <v>340</v>
       </c>
       <c r="L144" s="47"/>
-      <c r="M144" s="47"/>
-      <c r="N144" s="47"/>
-      <c r="O144" s="47"/>
-      <c r="P144" s="47"/>
-      <c r="Q144" s="47"/>
-      <c r="R144" s="47"/>
-      <c r="S144" s="47"/>
-      <c r="T144" s="47"/>
+      <c r="M144" s="45"/>
+      <c r="N144" s="45"/>
+      <c r="O144" s="45"/>
+      <c r="P144" s="45"/>
+      <c r="Q144" s="45"/>
+      <c r="R144" s="45"/>
+      <c r="S144" s="45"/>
+      <c r="T144" s="45"/>
       <c r="U144" s="47"/>
-      <c r="V144" s="47"/>
+      <c r="V144" s="45"/>
       <c r="W144" s="47"/>
       <c r="X144" s="47"/>
       <c r="Y144" s="47"/>
@@ -8500,10 +8458,10 @@
         <v>117</v>
       </c>
       <c r="B145" s="44" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="C145" s="45" t="s">
-        <v>247</v>
+        <v>399</v>
       </c>
       <c r="D145" s="46"/>
       <c r="E145" s="46"/>
@@ -8512,10 +8470,10 @@
       <c r="H145" s="46"/>
       <c r="I145" s="47"/>
       <c r="J145" s="45" t="s">
-        <v>566</v>
-      </c>
-      <c r="K145" s="47" t="s">
-        <v>352</v>
+        <v>400</v>
+      </c>
+      <c r="K145" s="45" t="s">
+        <v>338</v>
       </c>
       <c r="L145" s="47"/>
       <c r="M145" s="45"/>
@@ -8547,34 +8505,34 @@
         <v>117</v>
       </c>
       <c r="B146" s="44" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="C146" s="45" t="s">
-        <v>248</v>
-      </c>
-      <c r="D146" s="46"/>
-      <c r="E146" s="46"/>
-      <c r="F146" s="46"/>
-      <c r="G146" s="46"/>
-      <c r="H146" s="46"/>
+        <v>410</v>
+      </c>
+      <c r="D146" s="47"/>
+      <c r="E146" s="47"/>
+      <c r="F146" s="47"/>
+      <c r="G146" s="47"/>
+      <c r="H146" s="47"/>
       <c r="I146" s="47"/>
       <c r="J146" s="45" t="s">
-        <v>567</v>
-      </c>
-      <c r="K146" s="47" t="s">
-        <v>352</v>
+        <v>401</v>
+      </c>
+      <c r="K146" s="45" t="s">
+        <v>340</v>
       </c>
       <c r="L146" s="47"/>
-      <c r="M146" s="45"/>
-      <c r="N146" s="45"/>
-      <c r="O146" s="45"/>
-      <c r="P146" s="45"/>
-      <c r="Q146" s="45"/>
-      <c r="R146" s="45"/>
-      <c r="S146" s="45"/>
-      <c r="T146" s="45"/>
+      <c r="M146" s="47"/>
+      <c r="N146" s="47"/>
+      <c r="O146" s="47"/>
+      <c r="P146" s="47"/>
+      <c r="Q146" s="47"/>
+      <c r="R146" s="47"/>
+      <c r="S146" s="47"/>
+      <c r="T146" s="47"/>
       <c r="U146" s="47"/>
-      <c r="V146" s="45"/>
+      <c r="V146" s="47"/>
       <c r="W146" s="47"/>
       <c r="X146" s="47"/>
       <c r="Y146" s="47"/>
@@ -8594,34 +8552,34 @@
         <v>117</v>
       </c>
       <c r="B147" s="44" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="C147" s="45" t="s">
-        <v>250</v>
-      </c>
-      <c r="D147" s="46"/>
-      <c r="E147" s="46"/>
-      <c r="F147" s="46"/>
-      <c r="G147" s="46"/>
-      <c r="H147" s="46"/>
+        <v>411</v>
+      </c>
+      <c r="D147" s="47"/>
+      <c r="E147" s="47"/>
+      <c r="F147" s="47"/>
+      <c r="G147" s="47"/>
+      <c r="H147" s="47"/>
       <c r="I147" s="47"/>
       <c r="J147" s="45" t="s">
-        <v>401</v>
-      </c>
-      <c r="K147" s="47" t="s">
-        <v>352</v>
+        <v>402</v>
+      </c>
+      <c r="K147" s="45" t="s">
+        <v>340</v>
       </c>
       <c r="L147" s="47"/>
-      <c r="M147" s="45"/>
-      <c r="N147" s="45"/>
-      <c r="O147" s="45"/>
-      <c r="P147" s="45"/>
-      <c r="Q147" s="45"/>
-      <c r="R147" s="45"/>
-      <c r="S147" s="45"/>
-      <c r="T147" s="45"/>
+      <c r="M147" s="47"/>
+      <c r="N147" s="47"/>
+      <c r="O147" s="47"/>
+      <c r="P147" s="47"/>
+      <c r="Q147" s="47"/>
+      <c r="R147" s="47"/>
+      <c r="S147" s="47"/>
+      <c r="T147" s="47"/>
       <c r="U147" s="47"/>
-      <c r="V147" s="45"/>
+      <c r="V147" s="47"/>
       <c r="W147" s="47"/>
       <c r="X147" s="47"/>
       <c r="Y147" s="47"/>
@@ -8641,10 +8599,10 @@
         <v>117</v>
       </c>
       <c r="B148" s="44" t="s">
-        <v>398</v>
-      </c>
-      <c r="C148" s="47" t="s">
-        <v>355</v>
+        <v>392</v>
+      </c>
+      <c r="C148" s="45" t="s">
+        <v>412</v>
       </c>
       <c r="D148" s="47"/>
       <c r="E148" s="47"/>
@@ -8653,10 +8611,10 @@
       <c r="H148" s="47"/>
       <c r="I148" s="47"/>
       <c r="J148" s="45" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="K148" s="45" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L148" s="47"/>
       <c r="M148" s="47"/>
@@ -8688,34 +8646,34 @@
         <v>117</v>
       </c>
       <c r="B149" s="44" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="C149" s="45" t="s">
-        <v>397</v>
-      </c>
-      <c r="D149" s="46"/>
-      <c r="E149" s="46"/>
-      <c r="F149" s="46"/>
-      <c r="G149" s="46"/>
-      <c r="H149" s="46"/>
+        <v>210</v>
+      </c>
+      <c r="D149" s="47"/>
+      <c r="E149" s="47"/>
+      <c r="F149" s="47"/>
+      <c r="G149" s="47"/>
+      <c r="H149" s="47"/>
       <c r="I149" s="47"/>
       <c r="J149" s="45" t="s">
-        <v>401</v>
-      </c>
-      <c r="K149" s="47" t="s">
-        <v>352</v>
+        <v>404</v>
+      </c>
+      <c r="K149" s="45" t="s">
+        <v>340</v>
       </c>
       <c r="L149" s="47"/>
-      <c r="M149" s="45"/>
-      <c r="N149" s="45"/>
-      <c r="O149" s="45"/>
-      <c r="P149" s="45"/>
-      <c r="Q149" s="45"/>
-      <c r="R149" s="45"/>
-      <c r="S149" s="45"/>
-      <c r="T149" s="45"/>
+      <c r="M149" s="47"/>
+      <c r="N149" s="47"/>
+      <c r="O149" s="47"/>
+      <c r="P149" s="47"/>
+      <c r="Q149" s="47"/>
+      <c r="R149" s="47"/>
+      <c r="S149" s="47"/>
+      <c r="T149" s="47"/>
       <c r="U149" s="47"/>
-      <c r="V149" s="45"/>
+      <c r="V149" s="47"/>
       <c r="W149" s="47"/>
       <c r="X149" s="47"/>
       <c r="Y149" s="47"/>
@@ -8735,34 +8693,34 @@
         <v>117</v>
       </c>
       <c r="B150" s="44" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="C150" s="45" t="s">
-        <v>440</v>
-      </c>
-      <c r="D150" s="46"/>
-      <c r="E150" s="46"/>
-      <c r="F150" s="46"/>
-      <c r="G150" s="46"/>
-      <c r="H150" s="46"/>
+        <v>211</v>
+      </c>
+      <c r="D150" s="47"/>
+      <c r="E150" s="47"/>
+      <c r="F150" s="47"/>
+      <c r="G150" s="47"/>
+      <c r="H150" s="47"/>
       <c r="I150" s="47"/>
       <c r="J150" s="45" t="s">
-        <v>401</v>
-      </c>
-      <c r="K150" s="47" t="s">
-        <v>352</v>
+        <v>405</v>
+      </c>
+      <c r="K150" s="45" t="s">
+        <v>340</v>
       </c>
       <c r="L150" s="47"/>
-      <c r="M150" s="45"/>
-      <c r="N150" s="45"/>
-      <c r="O150" s="45"/>
-      <c r="P150" s="45"/>
-      <c r="Q150" s="45"/>
-      <c r="R150" s="45"/>
-      <c r="S150" s="45"/>
-      <c r="T150" s="45"/>
+      <c r="M150" s="47"/>
+      <c r="N150" s="47"/>
+      <c r="O150" s="47"/>
+      <c r="P150" s="47"/>
+      <c r="Q150" s="47"/>
+      <c r="R150" s="47"/>
+      <c r="S150" s="47"/>
+      <c r="T150" s="47"/>
       <c r="U150" s="47"/>
-      <c r="V150" s="45"/>
+      <c r="V150" s="47"/>
       <c r="W150" s="47"/>
       <c r="X150" s="47"/>
       <c r="Y150" s="47"/>
@@ -8782,34 +8740,34 @@
         <v>117</v>
       </c>
       <c r="B151" s="44" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C151" s="45" t="s">
-        <v>413</v>
-      </c>
-      <c r="D151" s="46"/>
-      <c r="E151" s="46"/>
-      <c r="F151" s="46"/>
-      <c r="G151" s="46"/>
-      <c r="H151" s="46"/>
+        <v>212</v>
+      </c>
+      <c r="D151" s="47"/>
+      <c r="E151" s="47"/>
+      <c r="F151" s="47"/>
+      <c r="G151" s="47"/>
+      <c r="H151" s="47"/>
       <c r="I151" s="47"/>
       <c r="J151" s="45" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="K151" s="45" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L151" s="47"/>
-      <c r="M151" s="45"/>
-      <c r="N151" s="45"/>
-      <c r="O151" s="45"/>
-      <c r="P151" s="45"/>
-      <c r="Q151" s="45"/>
-      <c r="R151" s="45"/>
-      <c r="S151" s="45"/>
-      <c r="T151" s="45"/>
+      <c r="M151" s="47"/>
+      <c r="N151" s="47"/>
+      <c r="O151" s="47"/>
+      <c r="P151" s="47"/>
+      <c r="Q151" s="47"/>
+      <c r="R151" s="47"/>
+      <c r="S151" s="47"/>
+      <c r="T151" s="47"/>
       <c r="U151" s="47"/>
-      <c r="V151" s="45"/>
+      <c r="V151" s="47"/>
       <c r="W151" s="47"/>
       <c r="X151" s="47"/>
       <c r="Y151" s="47"/>
@@ -8829,10 +8787,10 @@
         <v>117</v>
       </c>
       <c r="B152" s="44" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C152" s="45" t="s">
-        <v>424</v>
+        <v>213</v>
       </c>
       <c r="D152" s="47"/>
       <c r="E152" s="47"/>
@@ -8841,10 +8799,10 @@
       <c r="H152" s="47"/>
       <c r="I152" s="47"/>
       <c r="J152" s="45" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="K152" s="45" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="L152" s="47"/>
       <c r="M152" s="47"/>
@@ -8876,10 +8834,10 @@
         <v>117</v>
       </c>
       <c r="B153" s="44" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C153" s="45" t="s">
-        <v>425</v>
+        <v>214</v>
       </c>
       <c r="D153" s="47"/>
       <c r="E153" s="47"/>
@@ -8888,10 +8846,10 @@
       <c r="H153" s="47"/>
       <c r="I153" s="47"/>
       <c r="J153" s="45" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="K153" s="45" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="L153" s="47"/>
       <c r="M153" s="47"/>
@@ -8923,10 +8881,10 @@
         <v>117</v>
       </c>
       <c r="B154" s="44" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C154" s="45" t="s">
-        <v>426</v>
+        <v>215</v>
       </c>
       <c r="D154" s="47"/>
       <c r="E154" s="47"/>
@@ -8935,10 +8893,10 @@
       <c r="H154" s="47"/>
       <c r="I154" s="47"/>
       <c r="J154" s="45" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="K154" s="45" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="L154" s="47"/>
       <c r="M154" s="47"/>
@@ -8970,10 +8928,10 @@
         <v>117</v>
       </c>
       <c r="B155" s="44" t="s">
-        <v>407</v>
+        <v>347</v>
       </c>
       <c r="C155" s="45" t="s">
-        <v>210</v>
+        <v>348</v>
       </c>
       <c r="D155" s="47"/>
       <c r="E155" s="47"/>
@@ -8981,11 +8939,11 @@
       <c r="G155" s="47"/>
       <c r="H155" s="47"/>
       <c r="I155" s="47"/>
-      <c r="J155" s="45" t="s">
-        <v>418</v>
+      <c r="J155" s="47" t="s">
+        <v>413</v>
       </c>
       <c r="K155" s="45" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="L155" s="47"/>
       <c r="M155" s="47"/>
@@ -9017,10 +8975,10 @@
         <v>117</v>
       </c>
       <c r="B156" s="44" t="s">
-        <v>408</v>
+        <v>350</v>
       </c>
       <c r="C156" s="45" t="s">
-        <v>211</v>
+        <v>351</v>
       </c>
       <c r="D156" s="47"/>
       <c r="E156" s="47"/>
@@ -9029,11 +8987,9 @@
       <c r="H156" s="47"/>
       <c r="I156" s="47"/>
       <c r="J156" s="45" t="s">
-        <v>419</v>
-      </c>
-      <c r="K156" s="45" t="s">
         <v>352</v>
       </c>
+      <c r="K156" s="45"/>
       <c r="L156" s="47"/>
       <c r="M156" s="47"/>
       <c r="N156" s="47"/>
@@ -9064,10 +9020,10 @@
         <v>117</v>
       </c>
       <c r="B157" s="44" t="s">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="C157" s="45" t="s">
-        <v>212</v>
+        <v>346</v>
       </c>
       <c r="D157" s="47"/>
       <c r="E157" s="47"/>
@@ -9076,10 +9032,10 @@
       <c r="H157" s="47"/>
       <c r="I157" s="47"/>
       <c r="J157" s="45" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="K157" s="45" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="L157" s="47"/>
       <c r="M157" s="47"/>
@@ -9111,34 +9067,34 @@
         <v>117</v>
       </c>
       <c r="B158" s="44" t="s">
-        <v>410</v>
+        <v>354</v>
       </c>
       <c r="C158" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="D158" s="47"/>
-      <c r="E158" s="47"/>
-      <c r="F158" s="47"/>
-      <c r="G158" s="47"/>
-      <c r="H158" s="47"/>
+        <v>355</v>
+      </c>
+      <c r="D158" s="46"/>
+      <c r="E158" s="46"/>
+      <c r="F158" s="46"/>
+      <c r="G158" s="46"/>
+      <c r="H158" s="46"/>
       <c r="I158" s="47"/>
       <c r="J158" s="45" t="s">
-        <v>421</v>
-      </c>
-      <c r="K158" s="45" t="s">
-        <v>352</v>
+        <v>386</v>
+      </c>
+      <c r="K158" s="47" t="s">
+        <v>340</v>
       </c>
       <c r="L158" s="47"/>
-      <c r="M158" s="47"/>
-      <c r="N158" s="47"/>
-      <c r="O158" s="47"/>
-      <c r="P158" s="47"/>
-      <c r="Q158" s="47"/>
-      <c r="R158" s="47"/>
-      <c r="S158" s="47"/>
-      <c r="T158" s="47"/>
+      <c r="M158" s="45"/>
+      <c r="N158" s="45"/>
+      <c r="O158" s="45"/>
+      <c r="P158" s="45"/>
+      <c r="Q158" s="45"/>
+      <c r="R158" s="45"/>
+      <c r="S158" s="45"/>
+      <c r="T158" s="45"/>
       <c r="U158" s="47"/>
-      <c r="V158" s="47"/>
+      <c r="V158" s="45"/>
       <c r="W158" s="47"/>
       <c r="X158" s="47"/>
       <c r="Y158" s="47"/>
@@ -9158,34 +9114,32 @@
         <v>117</v>
       </c>
       <c r="B159" s="44" t="s">
-        <v>411</v>
+        <v>356</v>
       </c>
       <c r="C159" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="D159" s="47"/>
-      <c r="E159" s="47"/>
-      <c r="F159" s="47"/>
-      <c r="G159" s="47"/>
-      <c r="H159" s="47"/>
+        <v>357</v>
+      </c>
+      <c r="D159" s="46"/>
+      <c r="E159" s="46"/>
+      <c r="F159" s="46"/>
+      <c r="G159" s="46"/>
+      <c r="H159" s="46"/>
       <c r="I159" s="47"/>
-      <c r="J159" s="45" t="s">
-        <v>422</v>
-      </c>
-      <c r="K159" s="45" t="s">
-        <v>352</v>
-      </c>
+      <c r="J159" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="K159" s="47"/>
       <c r="L159" s="47"/>
-      <c r="M159" s="47"/>
-      <c r="N159" s="47"/>
-      <c r="O159" s="47"/>
-      <c r="P159" s="47"/>
-      <c r="Q159" s="47"/>
-      <c r="R159" s="47"/>
-      <c r="S159" s="47"/>
-      <c r="T159" s="47"/>
+      <c r="M159" s="45"/>
+      <c r="N159" s="45"/>
+      <c r="O159" s="45"/>
+      <c r="P159" s="45"/>
+      <c r="Q159" s="45"/>
+      <c r="R159" s="45"/>
+      <c r="S159" s="45"/>
+      <c r="T159" s="45"/>
       <c r="U159" s="47"/>
-      <c r="V159" s="47"/>
+      <c r="V159" s="45"/>
       <c r="W159" s="47"/>
       <c r="X159" s="47"/>
       <c r="Y159" s="47"/>
@@ -9205,34 +9159,32 @@
         <v>117</v>
       </c>
       <c r="B160" s="44" t="s">
-        <v>412</v>
+        <v>358</v>
       </c>
       <c r="C160" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="D160" s="47"/>
-      <c r="E160" s="47"/>
-      <c r="F160" s="47"/>
-      <c r="G160" s="47"/>
-      <c r="H160" s="47"/>
+        <v>359</v>
+      </c>
+      <c r="D160" s="46"/>
+      <c r="E160" s="46"/>
+      <c r="F160" s="46"/>
+      <c r="G160" s="46"/>
+      <c r="H160" s="46"/>
       <c r="I160" s="47"/>
-      <c r="J160" s="45" t="s">
-        <v>423</v>
-      </c>
-      <c r="K160" s="45" t="s">
-        <v>352</v>
-      </c>
+      <c r="J160" s="47" t="s">
+        <v>388</v>
+      </c>
+      <c r="K160" s="47"/>
       <c r="L160" s="47"/>
-      <c r="M160" s="47"/>
-      <c r="N160" s="47"/>
-      <c r="O160" s="47"/>
-      <c r="P160" s="47"/>
-      <c r="Q160" s="47"/>
-      <c r="R160" s="47"/>
-      <c r="S160" s="47"/>
-      <c r="T160" s="47"/>
+      <c r="M160" s="45"/>
+      <c r="N160" s="45"/>
+      <c r="O160" s="45"/>
+      <c r="P160" s="45"/>
+      <c r="Q160" s="45"/>
+      <c r="R160" s="45"/>
+      <c r="S160" s="45"/>
+      <c r="T160" s="45"/>
       <c r="U160" s="47"/>
-      <c r="V160" s="47"/>
+      <c r="V160" s="45"/>
       <c r="W160" s="47"/>
       <c r="X160" s="47"/>
       <c r="Y160" s="47"/>
@@ -9252,10 +9204,10 @@
         <v>117</v>
       </c>
       <c r="B161" s="44" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C161" s="45" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D161" s="47"/>
       <c r="E161" s="47"/>
@@ -9263,11 +9215,11 @@
       <c r="G161" s="47"/>
       <c r="H161" s="47"/>
       <c r="I161" s="47"/>
-      <c r="J161" s="47" t="s">
-        <v>427</v>
+      <c r="J161" s="45" t="s">
+        <v>400</v>
       </c>
       <c r="K161" s="45" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="L161" s="47"/>
       <c r="M161" s="47"/>
@@ -9299,10 +9251,10 @@
         <v>117</v>
       </c>
       <c r="B162" s="44" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C162" s="45" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D162" s="47"/>
       <c r="E162" s="47"/>
@@ -9311,7 +9263,7 @@
       <c r="H162" s="47"/>
       <c r="I162" s="47"/>
       <c r="J162" s="45" t="s">
-        <v>364</v>
+        <v>400</v>
       </c>
       <c r="K162" s="45"/>
       <c r="L162" s="47"/>
@@ -9347,7 +9299,7 @@
         <v>365</v>
       </c>
       <c r="C163" s="45" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="D163" s="47"/>
       <c r="E163" s="47"/>
@@ -9356,11 +9308,9 @@
       <c r="H163" s="47"/>
       <c r="I163" s="47"/>
       <c r="J163" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="K163" s="45" t="s">
-        <v>352</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="K163" s="45"/>
       <c r="L163" s="47"/>
       <c r="M163" s="47"/>
       <c r="N163" s="47"/>
@@ -9391,34 +9341,32 @@
         <v>117</v>
       </c>
       <c r="B164" s="44" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C164" s="45" t="s">
-        <v>367</v>
-      </c>
-      <c r="D164" s="46"/>
-      <c r="E164" s="46"/>
-      <c r="F164" s="46"/>
-      <c r="G164" s="46"/>
-      <c r="H164" s="46"/>
+        <v>368</v>
+      </c>
+      <c r="D164" s="47"/>
+      <c r="E164" s="47"/>
+      <c r="F164" s="47"/>
+      <c r="G164" s="47"/>
+      <c r="H164" s="47"/>
       <c r="I164" s="47"/>
       <c r="J164" s="45" t="s">
         <v>400</v>
       </c>
-      <c r="K164" s="47" t="s">
-        <v>352</v>
-      </c>
+      <c r="K164" s="45"/>
       <c r="L164" s="47"/>
-      <c r="M164" s="45"/>
-      <c r="N164" s="45"/>
-      <c r="O164" s="45"/>
-      <c r="P164" s="45"/>
-      <c r="Q164" s="45"/>
-      <c r="R164" s="45"/>
-      <c r="S164" s="45"/>
-      <c r="T164" s="45"/>
+      <c r="M164" s="47"/>
+      <c r="N164" s="47"/>
+      <c r="O164" s="47"/>
+      <c r="P164" s="47"/>
+      <c r="Q164" s="47"/>
+      <c r="R164" s="47"/>
+      <c r="S164" s="47"/>
+      <c r="T164" s="47"/>
       <c r="U164" s="47"/>
-      <c r="V164" s="45"/>
+      <c r="V164" s="47"/>
       <c r="W164" s="47"/>
       <c r="X164" s="47"/>
       <c r="Y164" s="47"/>
@@ -9435,23 +9383,17 @@
     </row>
     <row r="165" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B165" s="44" t="s">
-        <v>368</v>
-      </c>
-      <c r="C165" s="45" t="s">
-        <v>369</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B165" s="44"/>
+      <c r="C165" s="45"/>
       <c r="D165" s="46"/>
       <c r="E165" s="46"/>
       <c r="F165" s="46"/>
       <c r="G165" s="46"/>
       <c r="H165" s="46"/>
       <c r="I165" s="47"/>
-      <c r="J165" s="47" t="s">
-        <v>402</v>
-      </c>
+      <c r="J165" s="47"/>
       <c r="K165" s="47"/>
       <c r="L165" s="47"/>
       <c r="M165" s="45"/>
@@ -9479,289 +9421,305 @@
       <c r="AI165" s="47"/>
     </row>
     <row r="166" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B166" s="44" t="s">
-        <v>370</v>
-      </c>
-      <c r="C166" s="45" t="s">
-        <v>371</v>
-      </c>
-      <c r="D166" s="46"/>
-      <c r="E166" s="46"/>
-      <c r="F166" s="46"/>
-      <c r="G166" s="46"/>
-      <c r="H166" s="46"/>
-      <c r="I166" s="47"/>
-      <c r="J166" s="47" t="s">
-        <v>402</v>
-      </c>
-      <c r="K166" s="47"/>
-      <c r="L166" s="47"/>
-      <c r="M166" s="45"/>
-      <c r="N166" s="45"/>
-      <c r="O166" s="45"/>
-      <c r="P166" s="45"/>
-      <c r="Q166" s="45"/>
-      <c r="R166" s="45"/>
-      <c r="S166" s="45"/>
-      <c r="T166" s="45"/>
-      <c r="U166" s="47"/>
-      <c r="V166" s="45"/>
-      <c r="W166" s="47"/>
-      <c r="X166" s="47"/>
-      <c r="Y166" s="47"/>
-      <c r="Z166" s="47"/>
-      <c r="AA166" s="47"/>
-      <c r="AB166" s="47"/>
-      <c r="AC166" s="47"/>
-      <c r="AD166" s="47"/>
-      <c r="AE166" s="47"/>
-      <c r="AF166" s="47"/>
-      <c r="AG166" s="47"/>
-      <c r="AH166" s="47"/>
-      <c r="AI166" s="47"/>
+      <c r="A166" s="31"/>
+      <c r="B166" s="31"/>
+      <c r="C166" s="31"/>
+      <c r="E166" s="31"/>
+      <c r="F166" s="31"/>
+      <c r="AE166" s="31"/>
+      <c r="AF166" s="31"/>
+      <c r="AG166" s="31"/>
+      <c r="AH166" s="31"/>
+      <c r="AI166" s="31"/>
     </row>
     <row r="167" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B167" s="44" t="s">
-        <v>372</v>
-      </c>
-      <c r="C167" s="45" t="s">
-        <v>373</v>
-      </c>
-      <c r="D167" s="47"/>
-      <c r="E167" s="47"/>
-      <c r="F167" s="47"/>
-      <c r="G167" s="47"/>
-      <c r="H167" s="47"/>
-      <c r="I167" s="47"/>
-      <c r="J167" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="K167" s="45" t="s">
-        <v>374</v>
-      </c>
-      <c r="L167" s="47"/>
-      <c r="M167" s="47"/>
-      <c r="N167" s="47"/>
-      <c r="O167" s="47"/>
-      <c r="P167" s="47"/>
-      <c r="Q167" s="47"/>
-      <c r="R167" s="47"/>
-      <c r="S167" s="47"/>
-      <c r="T167" s="47"/>
-      <c r="U167" s="47"/>
-      <c r="V167" s="47"/>
-      <c r="W167" s="47"/>
-      <c r="X167" s="47"/>
-      <c r="Y167" s="47"/>
-      <c r="Z167" s="47"/>
-      <c r="AA167" s="47"/>
-      <c r="AB167" s="47"/>
-      <c r="AC167" s="47"/>
-      <c r="AD167" s="47"/>
-      <c r="AE167" s="47"/>
-      <c r="AF167" s="47"/>
-      <c r="AG167" s="47"/>
-      <c r="AH167" s="47"/>
-      <c r="AI167" s="47"/>
+      <c r="A167" s="49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B167" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="C167" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D167" s="50"/>
+      <c r="E167" s="50"/>
+      <c r="F167" s="50"/>
+      <c r="G167" s="50"/>
+      <c r="H167" s="50"/>
+      <c r="I167" s="50"/>
+      <c r="J167" s="50"/>
+      <c r="K167" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="L167" s="50"/>
+      <c r="M167" s="50"/>
+      <c r="N167" s="50"/>
+      <c r="O167" s="50"/>
+      <c r="P167" s="50"/>
+      <c r="Q167" s="50"/>
+      <c r="R167" s="50"/>
+      <c r="S167" s="50"/>
+      <c r="T167" s="50"/>
+      <c r="U167" s="50"/>
+      <c r="V167" s="50"/>
+      <c r="W167" s="50"/>
+      <c r="X167" s="50"/>
+      <c r="Y167" s="50"/>
+      <c r="Z167" s="50"/>
+      <c r="AA167" s="50"/>
+      <c r="AB167" s="50"/>
+      <c r="AC167" s="50"/>
+      <c r="AD167" s="50"/>
+      <c r="AE167" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF167" s="50"/>
+      <c r="AG167" s="50"/>
+      <c r="AH167" s="50"/>
+      <c r="AI167" s="50"/>
     </row>
     <row r="168" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B168" s="44" t="s">
-        <v>375</v>
-      </c>
-      <c r="C168" s="45" t="s">
-        <v>376</v>
-      </c>
-      <c r="D168" s="47"/>
-      <c r="E168" s="47"/>
-      <c r="F168" s="47"/>
-      <c r="G168" s="47"/>
-      <c r="H168" s="47"/>
-      <c r="I168" s="47"/>
-      <c r="J168" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="K168" s="45"/>
-      <c r="L168" s="47"/>
-      <c r="M168" s="47"/>
-      <c r="N168" s="47"/>
-      <c r="O168" s="47"/>
-      <c r="P168" s="47"/>
-      <c r="Q168" s="47"/>
-      <c r="R168" s="47"/>
-      <c r="S168" s="47"/>
-      <c r="T168" s="47"/>
-      <c r="U168" s="47"/>
-      <c r="V168" s="47"/>
-      <c r="W168" s="47"/>
-      <c r="X168" s="47"/>
-      <c r="Y168" s="47"/>
-      <c r="Z168" s="47"/>
-      <c r="AA168" s="47"/>
-      <c r="AB168" s="47"/>
-      <c r="AC168" s="47"/>
-      <c r="AD168" s="47"/>
-      <c r="AE168" s="47"/>
-      <c r="AF168" s="47"/>
-      <c r="AG168" s="47"/>
-      <c r="AH168" s="47"/>
-      <c r="AI168" s="47"/>
+      <c r="A168" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B168" s="52" t="s">
+        <v>238</v>
+      </c>
+      <c r="C168" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D168" s="50"/>
+      <c r="E168" s="50"/>
+      <c r="F168" s="50"/>
+      <c r="G168" s="50"/>
+      <c r="H168" s="50"/>
+      <c r="I168" s="50"/>
+      <c r="J168" s="50"/>
+      <c r="K168" s="50"/>
+      <c r="L168" s="50"/>
+      <c r="M168" s="50"/>
+      <c r="N168" s="50"/>
+      <c r="O168" s="50"/>
+      <c r="P168" s="50"/>
+      <c r="Q168" s="50"/>
+      <c r="R168" s="50"/>
+      <c r="S168" s="50"/>
+      <c r="T168" s="50" t="s">
+        <v>415</v>
+      </c>
+      <c r="U168" s="50"/>
+      <c r="V168" s="50"/>
+      <c r="W168" s="50"/>
+      <c r="X168" s="50"/>
+      <c r="Y168" s="50"/>
+      <c r="Z168" s="50"/>
+      <c r="AA168" s="50"/>
+      <c r="AB168" s="50"/>
+      <c r="AC168" s="50"/>
+      <c r="AD168" s="50"/>
+      <c r="AE168" s="50"/>
+      <c r="AF168" s="50"/>
+      <c r="AG168" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH168" s="50"/>
+      <c r="AI168" s="50"/>
     </row>
     <row r="169" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B169" s="44" t="s">
-        <v>377</v>
-      </c>
-      <c r="C169" s="45" t="s">
-        <v>378</v>
-      </c>
-      <c r="D169" s="47"/>
-      <c r="E169" s="47"/>
-      <c r="F169" s="47"/>
-      <c r="G169" s="47"/>
-      <c r="H169" s="47"/>
-      <c r="I169" s="47"/>
-      <c r="J169" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="K169" s="45"/>
-      <c r="L169" s="47"/>
-      <c r="M169" s="47"/>
-      <c r="N169" s="47"/>
-      <c r="O169" s="47"/>
-      <c r="P169" s="47"/>
-      <c r="Q169" s="47"/>
-      <c r="R169" s="47"/>
-      <c r="S169" s="47"/>
-      <c r="T169" s="47"/>
-      <c r="U169" s="47"/>
-      <c r="V169" s="47"/>
-      <c r="W169" s="47"/>
-      <c r="X169" s="47"/>
-      <c r="Y169" s="47"/>
-      <c r="Z169" s="47"/>
-      <c r="AA169" s="47"/>
-      <c r="AB169" s="47"/>
-      <c r="AC169" s="47"/>
-      <c r="AD169" s="47"/>
-      <c r="AE169" s="47"/>
-      <c r="AF169" s="47"/>
-      <c r="AG169" s="47"/>
-      <c r="AH169" s="47"/>
-      <c r="AI169" s="47"/>
+      <c r="A169" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B169" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="C169" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D169" s="50"/>
+      <c r="E169" s="50"/>
+      <c r="F169" s="50"/>
+      <c r="G169" s="50"/>
+      <c r="H169" s="50"/>
+      <c r="I169" s="50"/>
+      <c r="J169" s="50"/>
+      <c r="K169" s="50"/>
+      <c r="L169" s="50"/>
+      <c r="M169" s="50"/>
+      <c r="N169" s="50"/>
+      <c r="O169" s="50"/>
+      <c r="P169" s="50"/>
+      <c r="Q169" s="50"/>
+      <c r="R169" s="50"/>
+      <c r="S169" s="50"/>
+      <c r="T169" s="50" t="s">
+        <v>161</v>
+      </c>
+      <c r="U169" s="50"/>
+      <c r="V169" s="50"/>
+      <c r="W169" s="50"/>
+      <c r="X169" s="50"/>
+      <c r="Y169" s="50"/>
+      <c r="Z169" s="50"/>
+      <c r="AA169" s="50"/>
+      <c r="AB169" s="50"/>
+      <c r="AC169" s="50"/>
+      <c r="AD169" s="50"/>
+      <c r="AE169" s="50"/>
+      <c r="AF169" s="50"/>
+      <c r="AG169" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH169" s="50"/>
+      <c r="AI169" s="50"/>
     </row>
     <row r="170" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="44" t="s">
-        <v>117</v>
-      </c>
-      <c r="B170" s="44" t="s">
-        <v>379</v>
-      </c>
-      <c r="C170" s="45" t="s">
-        <v>380</v>
-      </c>
-      <c r="D170" s="47"/>
-      <c r="E170" s="47"/>
-      <c r="F170" s="47"/>
-      <c r="G170" s="47"/>
-      <c r="H170" s="47"/>
-      <c r="I170" s="47"/>
-      <c r="J170" s="45" t="s">
-        <v>414</v>
-      </c>
-      <c r="K170" s="45"/>
-      <c r="L170" s="47"/>
-      <c r="M170" s="47"/>
-      <c r="N170" s="47"/>
-      <c r="O170" s="47"/>
-      <c r="P170" s="47"/>
-      <c r="Q170" s="47"/>
-      <c r="R170" s="47"/>
-      <c r="S170" s="47"/>
-      <c r="T170" s="47"/>
-      <c r="U170" s="47"/>
-      <c r="V170" s="47"/>
-      <c r="W170" s="47"/>
-      <c r="X170" s="47"/>
-      <c r="Y170" s="47"/>
-      <c r="Z170" s="47"/>
-      <c r="AA170" s="47"/>
-      <c r="AB170" s="47"/>
-      <c r="AC170" s="47"/>
-      <c r="AD170" s="47"/>
-      <c r="AE170" s="47"/>
-      <c r="AF170" s="47"/>
-      <c r="AG170" s="47"/>
-      <c r="AH170" s="47"/>
-      <c r="AI170" s="47"/>
+      <c r="A170" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B170" s="52" t="s">
+        <v>230</v>
+      </c>
+      <c r="C170" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D170" s="50"/>
+      <c r="E170" s="50"/>
+      <c r="F170" s="50"/>
+      <c r="G170" s="50"/>
+      <c r="H170" s="50"/>
+      <c r="I170" s="50"/>
+      <c r="J170" s="50"/>
+      <c r="K170" s="50"/>
+      <c r="L170" s="50"/>
+      <c r="M170" s="50"/>
+      <c r="N170" s="50"/>
+      <c r="O170" s="50"/>
+      <c r="P170" s="50"/>
+      <c r="Q170" s="50"/>
+      <c r="R170" s="50"/>
+      <c r="S170" s="50"/>
+      <c r="T170" s="50" t="s">
+        <v>416</v>
+      </c>
+      <c r="U170" s="50"/>
+      <c r="V170" s="50"/>
+      <c r="W170" s="50"/>
+      <c r="X170" s="50"/>
+      <c r="Y170" s="50"/>
+      <c r="Z170" s="50"/>
+      <c r="AA170" s="50"/>
+      <c r="AB170" s="50"/>
+      <c r="AC170" s="50"/>
+      <c r="AD170" s="50"/>
+      <c r="AE170" s="50"/>
+      <c r="AF170" s="50"/>
+      <c r="AG170" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH170" s="50"/>
+      <c r="AI170" s="50"/>
     </row>
     <row r="171" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B171" s="44"/>
-      <c r="C171" s="45"/>
-      <c r="D171" s="46"/>
-      <c r="E171" s="46"/>
-      <c r="F171" s="46"/>
-      <c r="G171" s="46"/>
-      <c r="H171" s="46"/>
-      <c r="I171" s="47"/>
-      <c r="J171" s="47"/>
-      <c r="K171" s="47"/>
-      <c r="L171" s="47"/>
-      <c r="M171" s="45"/>
-      <c r="N171" s="45"/>
-      <c r="O171" s="45"/>
-      <c r="P171" s="45"/>
-      <c r="Q171" s="45"/>
-      <c r="R171" s="45"/>
-      <c r="S171" s="45"/>
-      <c r="T171" s="45"/>
-      <c r="U171" s="47"/>
-      <c r="V171" s="45"/>
-      <c r="W171" s="47"/>
-      <c r="X171" s="47"/>
-      <c r="Y171" s="47"/>
-      <c r="Z171" s="47"/>
-      <c r="AA171" s="47"/>
-      <c r="AB171" s="47"/>
-      <c r="AC171" s="47"/>
-      <c r="AD171" s="47"/>
-      <c r="AE171" s="47"/>
-      <c r="AF171" s="47"/>
-      <c r="AG171" s="47"/>
-      <c r="AH171" s="47"/>
-      <c r="AI171" s="47"/>
+      <c r="A171" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B171" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="C171" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D171" s="50"/>
+      <c r="E171" s="50"/>
+      <c r="F171" s="50"/>
+      <c r="G171" s="50"/>
+      <c r="H171" s="50"/>
+      <c r="I171" s="50"/>
+      <c r="J171" s="50"/>
+      <c r="K171" s="50"/>
+      <c r="L171" s="50"/>
+      <c r="M171" s="50"/>
+      <c r="N171" s="50"/>
+      <c r="O171" s="50"/>
+      <c r="P171" s="50"/>
+      <c r="Q171" s="50"/>
+      <c r="R171" s="50"/>
+      <c r="S171" s="50"/>
+      <c r="T171" s="50" t="s">
+        <v>417</v>
+      </c>
+      <c r="U171" s="50"/>
+      <c r="V171" s="50"/>
+      <c r="W171" s="50"/>
+      <c r="X171" s="50"/>
+      <c r="Y171" s="50"/>
+      <c r="Z171" s="50"/>
+      <c r="AA171" s="50"/>
+      <c r="AB171" s="50"/>
+      <c r="AC171" s="50"/>
+      <c r="AD171" s="50"/>
+      <c r="AE171" s="50"/>
+      <c r="AF171" s="50"/>
+      <c r="AG171" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH171" s="50"/>
+      <c r="AI171" s="50"/>
     </row>
     <row r="172" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A172" s="31"/>
-      <c r="B172" s="31"/>
-      <c r="C172" s="31"/>
-      <c r="E172" s="31"/>
-      <c r="F172" s="31"/>
-      <c r="AE172" s="31"/>
-      <c r="AF172" s="31"/>
-      <c r="AG172" s="31"/>
-      <c r="AH172" s="31"/>
-      <c r="AI172" s="31"/>
+      <c r="A172" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B172" s="52" t="s">
+        <v>232</v>
+      </c>
+      <c r="C172" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D172" s="50"/>
+      <c r="E172" s="50"/>
+      <c r="F172" s="50"/>
+      <c r="G172" s="50"/>
+      <c r="H172" s="50"/>
+      <c r="I172" s="50"/>
+      <c r="J172" s="50"/>
+      <c r="K172" s="50"/>
+      <c r="L172" s="50"/>
+      <c r="M172" s="50"/>
+      <c r="N172" s="50"/>
+      <c r="O172" s="50"/>
+      <c r="P172" s="50"/>
+      <c r="Q172" s="50"/>
+      <c r="R172" s="50"/>
+      <c r="S172" s="50"/>
+      <c r="T172" s="50" t="s">
+        <v>418</v>
+      </c>
+      <c r="U172" s="50"/>
+      <c r="V172" s="50"/>
+      <c r="W172" s="50"/>
+      <c r="X172" s="50"/>
+      <c r="Y172" s="50"/>
+      <c r="Z172" s="50"/>
+      <c r="AA172" s="50"/>
+      <c r="AB172" s="50"/>
+      <c r="AC172" s="50"/>
+      <c r="AD172" s="50"/>
+      <c r="AE172" s="50"/>
+      <c r="AF172" s="50"/>
+      <c r="AG172" s="51" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH172" s="50"/>
+      <c r="AI172" s="50"/>
     </row>
     <row r="173" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B173" s="49" t="s">
-        <v>48</v>
+        <v>78</v>
+      </c>
+      <c r="B173" s="52" t="s">
+        <v>233</v>
       </c>
       <c r="C173" s="50" t="s">
         <v>45</v>
@@ -9773,9 +9731,7 @@
       <c r="H173" s="50"/>
       <c r="I173" s="50"/>
       <c r="J173" s="50"/>
-      <c r="K173" s="51" t="s">
-        <v>50</v>
-      </c>
+      <c r="K173" s="50"/>
       <c r="L173" s="50"/>
       <c r="M173" s="50"/>
       <c r="N173" s="50"/>
@@ -9784,7 +9740,9 @@
       <c r="Q173" s="50"/>
       <c r="R173" s="50"/>
       <c r="S173" s="50"/>
-      <c r="T173" s="50"/>
+      <c r="T173" s="50" t="s">
+        <v>419</v>
+      </c>
       <c r="U173" s="50"/>
       <c r="V173" s="50"/>
       <c r="W173" s="50"/>
@@ -9795,11 +9753,11 @@
       <c r="AB173" s="50"/>
       <c r="AC173" s="50"/>
       <c r="AD173" s="50"/>
-      <c r="AE173" s="51" t="s">
-        <v>50</v>
-      </c>
+      <c r="AE173" s="50"/>
       <c r="AF173" s="50"/>
-      <c r="AG173" s="50"/>
+      <c r="AG173" s="51" t="s">
+        <v>143</v>
+      </c>
       <c r="AH173" s="50"/>
       <c r="AI173" s="50"/>
     </row>
@@ -9808,7 +9766,7 @@
         <v>78</v>
       </c>
       <c r="B174" s="52" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C174" s="50" t="s">
         <v>45</v>
@@ -9830,7 +9788,7 @@
       <c r="R174" s="50"/>
       <c r="S174" s="50"/>
       <c r="T174" s="50" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="U174" s="50"/>
       <c r="V174" s="50"/>
@@ -9845,7 +9803,7 @@
       <c r="AE174" s="50"/>
       <c r="AF174" s="50"/>
       <c r="AG174" s="51" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="AH174" s="50"/>
       <c r="AI174" s="50"/>
@@ -9855,7 +9813,7 @@
         <v>78</v>
       </c>
       <c r="B175" s="52" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="C175" s="50" t="s">
         <v>45</v>
@@ -9877,7 +9835,7 @@
       <c r="R175" s="50"/>
       <c r="S175" s="50"/>
       <c r="T175" s="50" t="s">
-        <v>161</v>
+        <v>421</v>
       </c>
       <c r="U175" s="50"/>
       <c r="V175" s="50"/>
@@ -9892,7 +9850,7 @@
       <c r="AE175" s="50"/>
       <c r="AF175" s="50"/>
       <c r="AG175" s="51" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="AH175" s="50"/>
       <c r="AI175" s="50"/>
@@ -9902,7 +9860,7 @@
         <v>78</v>
       </c>
       <c r="B176" s="52" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C176" s="50" t="s">
         <v>45</v>
@@ -9924,7 +9882,7 @@
       <c r="R176" s="50"/>
       <c r="S176" s="50"/>
       <c r="T176" s="50" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="U176" s="50"/>
       <c r="V176" s="50"/>
@@ -9939,7 +9897,7 @@
       <c r="AE176" s="50"/>
       <c r="AF176" s="50"/>
       <c r="AG176" s="51" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="AH176" s="50"/>
       <c r="AI176" s="50"/>
@@ -9949,7 +9907,7 @@
         <v>78</v>
       </c>
       <c r="B177" s="52" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C177" s="50" t="s">
         <v>45</v>
@@ -9971,7 +9929,7 @@
       <c r="R177" s="50"/>
       <c r="S177" s="50"/>
       <c r="T177" s="50" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="U177" s="50"/>
       <c r="V177" s="50"/>
@@ -9986,7 +9944,7 @@
       <c r="AE177" s="50"/>
       <c r="AF177" s="50"/>
       <c r="AG177" s="51" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="AH177" s="50"/>
       <c r="AI177" s="50"/>
@@ -9996,7 +9954,7 @@
         <v>78</v>
       </c>
       <c r="B178" s="52" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
       <c r="C178" s="50" t="s">
         <v>45</v>
@@ -10018,7 +9976,7 @@
       <c r="R178" s="50"/>
       <c r="S178" s="50"/>
       <c r="T178" s="50" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="U178" s="50"/>
       <c r="V178" s="50"/>
@@ -10033,64 +9991,60 @@
       <c r="AE178" s="50"/>
       <c r="AF178" s="50"/>
       <c r="AG178" s="51" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="AH178" s="50"/>
       <c r="AI178" s="50"/>
     </row>
     <row r="179" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B179" s="52" t="s">
-        <v>233</v>
+      <c r="A179" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B179" s="53" t="s">
+        <v>186</v>
       </c>
       <c r="C179" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D179" s="50"/>
-      <c r="E179" s="50"/>
-      <c r="F179" s="50"/>
-      <c r="G179" s="50"/>
-      <c r="H179" s="50"/>
-      <c r="I179" s="50"/>
-      <c r="J179" s="50"/>
-      <c r="K179" s="50"/>
-      <c r="L179" s="50"/>
-      <c r="M179" s="50"/>
-      <c r="N179" s="50"/>
-      <c r="O179" s="50"/>
-      <c r="P179" s="50"/>
-      <c r="Q179" s="50"/>
-      <c r="R179" s="50"/>
-      <c r="S179" s="50"/>
-      <c r="T179" s="50" t="s">
-        <v>433</v>
-      </c>
-      <c r="U179" s="50"/>
-      <c r="V179" s="50"/>
-      <c r="W179" s="50"/>
-      <c r="X179" s="50"/>
-      <c r="Y179" s="50"/>
-      <c r="Z179" s="50"/>
-      <c r="AA179" s="50"/>
-      <c r="AB179" s="50"/>
-      <c r="AC179" s="50"/>
-      <c r="AD179" s="50"/>
-      <c r="AE179" s="50"/>
-      <c r="AF179" s="50"/>
-      <c r="AG179" s="51" t="s">
-        <v>143</v>
-      </c>
-      <c r="AH179" s="50"/>
-      <c r="AI179" s="50"/>
+      <c r="D179" s="51"/>
+      <c r="E179" s="51"/>
+      <c r="F179" s="51"/>
+      <c r="G179" s="51"/>
+      <c r="H179" s="51"/>
+      <c r="I179" s="51"/>
+      <c r="J179" s="51"/>
+      <c r="K179" s="51"/>
+      <c r="L179" s="51"/>
+      <c r="M179" s="51"/>
+      <c r="N179" s="51"/>
+      <c r="O179" s="51"/>
+      <c r="P179" s="51"/>
+      <c r="Q179" s="51"/>
+      <c r="R179" s="51"/>
+      <c r="S179" s="51"/>
+      <c r="T179" s="51"/>
+      <c r="U179" s="51"/>
+      <c r="V179" s="51"/>
+      <c r="W179" s="51"/>
+      <c r="X179" s="51"/>
+      <c r="Y179" s="51"/>
+      <c r="Z179" s="51"/>
+      <c r="AA179" s="51"/>
+      <c r="AB179" s="51"/>
+      <c r="AC179" s="51"/>
+      <c r="AD179" s="51"/>
+      <c r="AE179" s="51"/>
+      <c r="AF179" s="51"/>
+      <c r="AG179" s="51"/>
+      <c r="AH179" s="51"/>
+      <c r="AI179" s="51"/>
     </row>
     <row r="180" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="49" t="s">
         <v>78</v>
       </c>
       <c r="B180" s="52" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="C180" s="50" t="s">
         <v>45</v>
@@ -10111,8 +10065,8 @@
       <c r="Q180" s="50"/>
       <c r="R180" s="50"/>
       <c r="S180" s="50"/>
-      <c r="T180" s="50" t="s">
-        <v>434</v>
+      <c r="T180" s="51" t="s">
+        <v>190</v>
       </c>
       <c r="U180" s="50"/>
       <c r="V180" s="50"/>
@@ -10127,7 +10081,7 @@
       <c r="AE180" s="50"/>
       <c r="AF180" s="50"/>
       <c r="AG180" s="51" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="AH180" s="50"/>
       <c r="AI180" s="50"/>
@@ -10137,7 +10091,7 @@
         <v>78</v>
       </c>
       <c r="B181" s="52" t="s">
-        <v>235</v>
+        <v>192</v>
       </c>
       <c r="C181" s="50" t="s">
         <v>45</v>
@@ -10158,8 +10112,8 @@
       <c r="Q181" s="50"/>
       <c r="R181" s="50"/>
       <c r="S181" s="50"/>
-      <c r="T181" s="50" t="s">
-        <v>435</v>
+      <c r="T181" s="51" t="s">
+        <v>193</v>
       </c>
       <c r="U181" s="50"/>
       <c r="V181" s="50"/>
@@ -10174,7 +10128,7 @@
       <c r="AE181" s="50"/>
       <c r="AF181" s="50"/>
       <c r="AG181" s="51" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="AH181" s="50"/>
       <c r="AI181" s="50"/>
@@ -10184,7 +10138,7 @@
         <v>78</v>
       </c>
       <c r="B182" s="52" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="C182" s="50" t="s">
         <v>45</v>
@@ -10205,8 +10159,8 @@
       <c r="Q182" s="50"/>
       <c r="R182" s="50"/>
       <c r="S182" s="50"/>
-      <c r="T182" s="50" t="s">
-        <v>436</v>
+      <c r="T182" s="51" t="s">
+        <v>195</v>
       </c>
       <c r="U182" s="50"/>
       <c r="V182" s="50"/>
@@ -10221,7 +10175,7 @@
       <c r="AE182" s="50"/>
       <c r="AF182" s="50"/>
       <c r="AG182" s="51" t="s">
-        <v>163</v>
+        <v>196</v>
       </c>
       <c r="AH182" s="50"/>
       <c r="AI182" s="50"/>
@@ -10231,7 +10185,7 @@
         <v>78</v>
       </c>
       <c r="B183" s="52" t="s">
-        <v>237</v>
+        <v>197</v>
       </c>
       <c r="C183" s="50" t="s">
         <v>45</v>
@@ -10252,8 +10206,8 @@
       <c r="Q183" s="50"/>
       <c r="R183" s="50"/>
       <c r="S183" s="50"/>
-      <c r="T183" s="50" t="s">
-        <v>437</v>
+      <c r="T183" s="51" t="s">
+        <v>198</v>
       </c>
       <c r="U183" s="50"/>
       <c r="V183" s="50"/>
@@ -10268,7 +10222,7 @@
       <c r="AE183" s="50"/>
       <c r="AF183" s="50"/>
       <c r="AG183" s="51" t="s">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="AH183" s="50"/>
       <c r="AI183" s="50"/>
@@ -10278,7 +10232,7 @@
         <v>78</v>
       </c>
       <c r="B184" s="52" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="C184" s="50" t="s">
         <v>45</v>
@@ -10299,8 +10253,8 @@
       <c r="Q184" s="50"/>
       <c r="R184" s="50"/>
       <c r="S184" s="50"/>
-      <c r="T184" s="50" t="s">
-        <v>438</v>
+      <c r="T184" s="51" t="s">
+        <v>200</v>
       </c>
       <c r="U184" s="50"/>
       <c r="V184" s="50"/>
@@ -10315,21 +10269,19 @@
       <c r="AE184" s="50"/>
       <c r="AF184" s="50"/>
       <c r="AG184" s="51" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AH184" s="50"/>
       <c r="AI184" s="50"/>
     </row>
     <row r="185" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="53" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B185" s="53" t="s">
         <v>186</v>
       </c>
-      <c r="C185" s="50" t="s">
-        <v>45</v>
-      </c>
+      <c r="C185" s="51"/>
       <c r="D185" s="51"/>
       <c r="E185" s="51"/>
       <c r="F185" s="51"/>
@@ -10364,328 +10316,52 @@
       <c r="AI185" s="51"/>
     </row>
     <row r="186" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B186" s="52" t="s">
-        <v>189</v>
-      </c>
-      <c r="C186" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D186" s="50"/>
-      <c r="E186" s="50"/>
-      <c r="F186" s="50"/>
-      <c r="G186" s="50"/>
-      <c r="H186" s="50"/>
-      <c r="I186" s="50"/>
-      <c r="J186" s="50"/>
-      <c r="K186" s="50"/>
-      <c r="L186" s="50"/>
-      <c r="M186" s="50"/>
-      <c r="N186" s="50"/>
-      <c r="O186" s="50"/>
-      <c r="P186" s="50"/>
-      <c r="Q186" s="50"/>
-      <c r="R186" s="50"/>
-      <c r="S186" s="50"/>
-      <c r="T186" s="51" t="s">
-        <v>190</v>
-      </c>
-      <c r="U186" s="50"/>
-      <c r="V186" s="50"/>
-      <c r="W186" s="50"/>
-      <c r="X186" s="50"/>
-      <c r="Y186" s="50"/>
-      <c r="Z186" s="50"/>
-      <c r="AA186" s="50"/>
-      <c r="AB186" s="50"/>
-      <c r="AC186" s="50"/>
-      <c r="AD186" s="50"/>
-      <c r="AE186" s="50"/>
-      <c r="AF186" s="50"/>
-      <c r="AG186" s="51" t="s">
-        <v>191</v>
-      </c>
-      <c r="AH186" s="50"/>
-      <c r="AI186" s="50"/>
-    </row>
-    <row r="187" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B187" s="52" t="s">
-        <v>192</v>
-      </c>
-      <c r="C187" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D187" s="50"/>
-      <c r="E187" s="50"/>
-      <c r="F187" s="50"/>
-      <c r="G187" s="50"/>
-      <c r="H187" s="50"/>
-      <c r="I187" s="50"/>
-      <c r="J187" s="50"/>
-      <c r="K187" s="50"/>
-      <c r="L187" s="50"/>
-      <c r="M187" s="50"/>
-      <c r="N187" s="50"/>
-      <c r="O187" s="50"/>
-      <c r="P187" s="50"/>
-      <c r="Q187" s="50"/>
-      <c r="R187" s="50"/>
-      <c r="S187" s="50"/>
-      <c r="T187" s="51" t="s">
-        <v>193</v>
-      </c>
-      <c r="U187" s="50"/>
-      <c r="V187" s="50"/>
-      <c r="W187" s="50"/>
-      <c r="X187" s="50"/>
-      <c r="Y187" s="50"/>
-      <c r="Z187" s="50"/>
-      <c r="AA187" s="50"/>
-      <c r="AB187" s="50"/>
-      <c r="AC187" s="50"/>
-      <c r="AD187" s="50"/>
-      <c r="AE187" s="50"/>
-      <c r="AF187" s="50"/>
-      <c r="AG187" s="51" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH187" s="50"/>
-      <c r="AI187" s="50"/>
-    </row>
-    <row r="188" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B188" s="52" t="s">
-        <v>194</v>
-      </c>
-      <c r="C188" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D188" s="50"/>
-      <c r="E188" s="50"/>
-      <c r="F188" s="50"/>
-      <c r="G188" s="50"/>
-      <c r="H188" s="50"/>
-      <c r="I188" s="50"/>
-      <c r="J188" s="50"/>
-      <c r="K188" s="50"/>
-      <c r="L188" s="50"/>
-      <c r="M188" s="50"/>
-      <c r="N188" s="50"/>
-      <c r="O188" s="50"/>
-      <c r="P188" s="50"/>
-      <c r="Q188" s="50"/>
-      <c r="R188" s="50"/>
-      <c r="S188" s="50"/>
-      <c r="T188" s="51" t="s">
-        <v>195</v>
-      </c>
-      <c r="U188" s="50"/>
-      <c r="V188" s="50"/>
-      <c r="W188" s="50"/>
-      <c r="X188" s="50"/>
-      <c r="Y188" s="50"/>
-      <c r="Z188" s="50"/>
-      <c r="AA188" s="50"/>
-      <c r="AB188" s="50"/>
-      <c r="AC188" s="50"/>
-      <c r="AD188" s="50"/>
-      <c r="AE188" s="50"/>
-      <c r="AF188" s="50"/>
-      <c r="AG188" s="51" t="s">
-        <v>196</v>
-      </c>
-      <c r="AH188" s="50"/>
-      <c r="AI188" s="50"/>
-    </row>
-    <row r="189" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B189" s="52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C189" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D189" s="50"/>
-      <c r="E189" s="50"/>
-      <c r="F189" s="50"/>
-      <c r="G189" s="50"/>
-      <c r="H189" s="50"/>
-      <c r="I189" s="50"/>
-      <c r="J189" s="50"/>
-      <c r="K189" s="50"/>
-      <c r="L189" s="50"/>
-      <c r="M189" s="50"/>
-      <c r="N189" s="50"/>
-      <c r="O189" s="50"/>
-      <c r="P189" s="50"/>
-      <c r="Q189" s="50"/>
-      <c r="R189" s="50"/>
-      <c r="S189" s="50"/>
-      <c r="T189" s="51" t="s">
-        <v>198</v>
-      </c>
-      <c r="U189" s="50"/>
-      <c r="V189" s="50"/>
-      <c r="W189" s="50"/>
-      <c r="X189" s="50"/>
-      <c r="Y189" s="50"/>
-      <c r="Z189" s="50"/>
-      <c r="AA189" s="50"/>
-      <c r="AB189" s="50"/>
-      <c r="AC189" s="50"/>
-      <c r="AD189" s="50"/>
-      <c r="AE189" s="50"/>
-      <c r="AF189" s="50"/>
-      <c r="AG189" s="51" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH189" s="50"/>
-      <c r="AI189" s="50"/>
-    </row>
-    <row r="190" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A190" s="49" t="s">
-        <v>78</v>
-      </c>
-      <c r="B190" s="52" t="s">
-        <v>199</v>
-      </c>
-      <c r="C190" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="D190" s="50"/>
-      <c r="E190" s="50"/>
-      <c r="F190" s="50"/>
-      <c r="G190" s="50"/>
-      <c r="H190" s="50"/>
-      <c r="I190" s="50"/>
-      <c r="J190" s="50"/>
-      <c r="K190" s="50"/>
-      <c r="L190" s="50"/>
-      <c r="M190" s="50"/>
-      <c r="N190" s="50"/>
-      <c r="O190" s="50"/>
-      <c r="P190" s="50"/>
-      <c r="Q190" s="50"/>
-      <c r="R190" s="50"/>
-      <c r="S190" s="50"/>
-      <c r="T190" s="51" t="s">
-        <v>200</v>
-      </c>
-      <c r="U190" s="50"/>
-      <c r="V190" s="50"/>
-      <c r="W190" s="50"/>
-      <c r="X190" s="50"/>
-      <c r="Y190" s="50"/>
-      <c r="Z190" s="50"/>
-      <c r="AA190" s="50"/>
-      <c r="AB190" s="50"/>
-      <c r="AC190" s="50"/>
-      <c r="AD190" s="50"/>
-      <c r="AE190" s="50"/>
-      <c r="AF190" s="50"/>
-      <c r="AG190" s="51" t="s">
-        <v>201</v>
-      </c>
-      <c r="AH190" s="50"/>
-      <c r="AI190" s="50"/>
-    </row>
-    <row r="191" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="53" t="s">
+      <c r="A186" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="B191" s="53" t="s">
-        <v>186</v>
-      </c>
-      <c r="C191" s="51"/>
-      <c r="D191" s="51"/>
-      <c r="E191" s="51"/>
-      <c r="F191" s="51"/>
-      <c r="G191" s="51"/>
-      <c r="H191" s="51"/>
-      <c r="I191" s="51"/>
-      <c r="J191" s="51"/>
-      <c r="K191" s="51"/>
-      <c r="L191" s="51"/>
-      <c r="M191" s="51"/>
-      <c r="N191" s="51"/>
-      <c r="O191" s="51"/>
-      <c r="P191" s="51"/>
-      <c r="Q191" s="51"/>
-      <c r="R191" s="51"/>
-      <c r="S191" s="51"/>
-      <c r="T191" s="51"/>
-      <c r="U191" s="51"/>
-      <c r="V191" s="51"/>
-      <c r="W191" s="51"/>
-      <c r="X191" s="51"/>
-      <c r="Y191" s="51"/>
-      <c r="Z191" s="51"/>
-      <c r="AA191" s="51"/>
-      <c r="AB191" s="51"/>
-      <c r="AC191" s="51"/>
-      <c r="AD191" s="51"/>
-      <c r="AE191" s="51"/>
-      <c r="AF191" s="51"/>
-      <c r="AG191" s="51"/>
-      <c r="AH191" s="51"/>
-      <c r="AI191" s="51"/>
-    </row>
-    <row r="192" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="53" t="s">
-        <v>68</v>
-      </c>
-      <c r="B192" s="53" t="s">
+      <c r="B186" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C192" s="51"/>
-      <c r="D192" s="51"/>
-      <c r="E192" s="51"/>
-      <c r="F192" s="51"/>
-      <c r="G192" s="51"/>
-      <c r="H192" s="51"/>
-      <c r="I192" s="51"/>
-      <c r="J192" s="51"/>
-      <c r="K192" s="51"/>
-      <c r="L192" s="51"/>
-      <c r="M192" s="51"/>
-      <c r="N192" s="51"/>
-      <c r="O192" s="51"/>
-      <c r="P192" s="51"/>
-      <c r="Q192" s="51"/>
-      <c r="R192" s="51"/>
-      <c r="S192" s="51"/>
-      <c r="T192" s="51"/>
-      <c r="U192" s="51"/>
-      <c r="V192" s="51"/>
-      <c r="W192" s="51"/>
-      <c r="X192" s="51"/>
-      <c r="Y192" s="51"/>
-      <c r="Z192" s="51"/>
-      <c r="AA192" s="51"/>
-      <c r="AB192" s="51"/>
-      <c r="AC192" s="51"/>
-      <c r="AD192" s="51"/>
-      <c r="AE192" s="51"/>
-      <c r="AF192" s="51"/>
-      <c r="AG192" s="51"/>
-      <c r="AH192" s="51"/>
-      <c r="AI192" s="51"/>
+      <c r="C186" s="51"/>
+      <c r="D186" s="51"/>
+      <c r="E186" s="51"/>
+      <c r="F186" s="51"/>
+      <c r="G186" s="51"/>
+      <c r="H186" s="51"/>
+      <c r="I186" s="51"/>
+      <c r="J186" s="51"/>
+      <c r="K186" s="51"/>
+      <c r="L186" s="51"/>
+      <c r="M186" s="51"/>
+      <c r="N186" s="51"/>
+      <c r="O186" s="51"/>
+      <c r="P186" s="51"/>
+      <c r="Q186" s="51"/>
+      <c r="R186" s="51"/>
+      <c r="S186" s="51"/>
+      <c r="T186" s="51"/>
+      <c r="U186" s="51"/>
+      <c r="V186" s="51"/>
+      <c r="W186" s="51"/>
+      <c r="X186" s="51"/>
+      <c r="Y186" s="51"/>
+      <c r="Z186" s="51"/>
+      <c r="AA186" s="51"/>
+      <c r="AB186" s="51"/>
+      <c r="AC186" s="51"/>
+      <c r="AD186" s="51"/>
+      <c r="AE186" s="51"/>
+      <c r="AF186" s="51"/>
+      <c r="AG186" s="51"/>
+      <c r="AH186" s="51"/>
+      <c r="AI186" s="51"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="A92:A116 A118:A122 A124:A171 A17:A24">
+    <dataValidation type="list" allowBlank="1" sqref="A92:A116 A118:A122 A17:A24 A124:A165">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="I16 J17:J24 I25:I28 D29:E29 I30:I192 E2:F15">
+    <dataValidation type="list" allowBlank="1" sqref="I16 J17:J24 I25:I28 D29:E29 E2:F15 I30:I186">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10701,7 +10377,7 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -10785,10 +10461,10 @@
         <v>240</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="D4" s="19"/>
       <c r="E4" s="19"/>
@@ -10809,10 +10485,10 @@
         <v>240</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>563</v>
+        <v>548</v>
       </c>
       <c r="D5" s="19"/>
       <c r="E5" s="19"/>
@@ -10857,10 +10533,10 @@
         <v>240</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>532</v>
+        <v>517</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -11046,7 +10722,7 @@
     </row>
     <row r="15" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>180</v>
@@ -11070,7 +10746,7 @@
     </row>
     <row r="16" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B16" s="18" t="s">
         <v>182</v>
@@ -11094,7 +10770,7 @@
     </row>
     <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B17" s="18" t="s">
         <v>264</v>
@@ -11118,7 +10794,7 @@
     </row>
     <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>518</v>
+        <v>503</v>
       </c>
       <c r="B18" s="18" t="s">
         <v>265</v>
@@ -11214,79 +10890,79 @@
     </row>
     <row r="22" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>539</v>
+        <v>524</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>542</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
-        <v>538</v>
+        <v>523</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>541</v>
+        <v>526</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>544</v>
+        <v>529</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="59" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="B25" s="60" t="s">
-        <v>549</v>
+        <v>534</v>
       </c>
       <c r="C25" s="61" t="s">
-        <v>550</v>
+        <v>535</v>
       </c>
     </row>
     <row r="26" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="59" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="B26" s="60" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="C26" s="61" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="59" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="B27" s="60" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="C27" s="61" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="59" t="s">
-        <v>548</v>
+        <v>533</v>
       </c>
       <c r="B28" s="60" t="s">
         <v>115</v>
       </c>
       <c r="C28" s="61" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11310,7 +10986,7 @@
   </sheetPr>
   <dimension ref="A1:Z2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -11367,14 +11043,14 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">NOW()</f>
-        <v>44135.521256828702</v>
+        <v>44135.531073958336</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>43</v>

--- a/forms/app/hbc_followup.xlsx
+++ b/forms/app/hbc_followup.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="410">
   <si>
     <t>list_name</t>
   </si>
@@ -623,12 +623,6 @@
     <t>Hospitalization required?</t>
   </si>
   <si>
-    <t>ICU (intensive care unit) admission required</t>
-  </si>
-  <si>
-    <t>Acute respiratory distress syndrome (ARDS)</t>
-  </si>
-  <si>
     <t>Pneumonia by chest X-ray</t>
   </si>
   <si>
@@ -638,9 +632,6 @@
     <t>icu</t>
   </si>
   <si>
-    <t>ards</t>
-  </si>
-  <si>
     <t>pneumonia</t>
   </si>
   <si>
@@ -1236,6 +1227,39 @@
   </si>
   <si>
     <t>Please specify the date you are making this referral</t>
+  </si>
+  <si>
+    <t>hospitalised</t>
+  </si>
+  <si>
+    <t>${hospitalisation} = 'yes'</t>
+  </si>
+  <si>
+    <t>first_admission_date</t>
+  </si>
+  <si>
+    <t>First date of admission to hospital</t>
+  </si>
+  <si>
+    <t>${patient_name} admitted to hospital?</t>
+  </si>
+  <si>
+    <t>Did ${patient_name} receive care in an intensive care unit (ICU)?</t>
+  </si>
+  <si>
+    <t>select_one yes_no_un</t>
+  </si>
+  <si>
+    <t>Did ${patient_name} receive ventilation?</t>
+  </si>
+  <si>
+    <t>ventilation</t>
+  </si>
+  <si>
+    <t>emo</t>
+  </si>
+  <si>
+    <t>Did ${patient_name} receive extracorporeal membrane oxygenation?</t>
   </si>
 </sst>
 </file>
@@ -1914,13 +1938,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ148"/>
+  <dimension ref="A1:AJ151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C89" sqref="C89"/>
+      <selection pane="bottomRight" activeCell="D70" sqref="D70:D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2166,7 +2190,7 @@
         <v>162</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D6" s="57"/>
       <c r="E6" s="57"/>
@@ -2255,10 +2279,10 @@
         <v>39</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C8" s="57" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D8" s="57"/>
       <c r="E8" s="57"/>
@@ -2335,10 +2359,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D10" s="57"/>
       <c r="E10" s="57"/>
@@ -2381,10 +2405,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
@@ -2674,7 +2698,7 @@
         <v>95</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C19" s="60" t="s">
         <v>35</v>
@@ -2687,7 +2711,7 @@
       <c r="I19" s="60"/>
       <c r="J19" s="60"/>
       <c r="K19" s="60" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L19" s="60"/>
       <c r="M19" s="60"/>
@@ -2720,7 +2744,7 @@
         <v>95</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C20" s="60" t="s">
         <v>35</v>
@@ -2733,7 +2757,7 @@
       <c r="I20" s="60"/>
       <c r="J20" s="60"/>
       <c r="K20" s="60" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L20" s="60"/>
       <c r="M20" s="60"/>
@@ -2765,7 +2789,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C21" s="60" t="s">
         <v>35</v>
@@ -2778,7 +2802,7 @@
       <c r="I21" s="60"/>
       <c r="J21" s="60"/>
       <c r="K21" s="38" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="L21" s="60"/>
       <c r="M21" s="60"/>
@@ -2810,7 +2834,7 @@
         <v>95</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C22" s="60" t="s">
         <v>35</v>
@@ -2823,7 +2847,7 @@
       <c r="I22" s="60"/>
       <c r="J22" s="60"/>
       <c r="K22" s="60" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L22" s="60"/>
       <c r="M22" s="60"/>
@@ -2884,7 +2908,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C24" s="64" t="s">
         <v>35</v>
@@ -2893,7 +2917,7 @@
       <c r="E24" s="65"/>
       <c r="F24" s="66"/>
       <c r="G24" s="66" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -2918,13 +2942,13 @@
     </row>
     <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="67" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B25" s="67" t="s">
+        <v>351</v>
+      </c>
+      <c r="C25" s="64" t="s">
         <v>354</v>
-      </c>
-      <c r="C25" s="64" t="s">
-        <v>357</v>
       </c>
       <c r="D25" s="66"/>
       <c r="E25" s="66"/>
@@ -2953,13 +2977,13 @@
     </row>
     <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D26" s="66"/>
       <c r="E26" s="66"/>
@@ -2988,13 +3012,13 @@
     </row>
     <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
@@ -3023,19 +3047,19 @@
     </row>
     <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
       <c r="F28" s="66"/>
       <c r="G28" s="64" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
@@ -3060,13 +3084,13 @@
     </row>
     <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D29" s="66"/>
       <c r="E29" s="66"/>
@@ -3095,13 +3119,13 @@
     </row>
     <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D30" s="66"/>
       <c r="E30" s="66"/>
@@ -3133,7 +3157,7 @@
         <v>63</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C31" s="66"/>
       <c r="D31" s="66"/>
@@ -3195,7 +3219,7 @@
         <v>192</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>35</v>
@@ -3229,13 +3253,13 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B34" s="50" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C34" s="40" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D34" s="40" t="s">
         <v>56</v>
@@ -3269,7 +3293,7 @@
         <v>193</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C35" s="51"/>
       <c r="D35" s="40"/>
@@ -3331,15 +3355,15 @@
         <v>192</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="43" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G37" s="43" t="s">
         <v>38</v>
@@ -3370,10 +3394,10 @@
         <v>167</v>
       </c>
       <c r="B38" s="50" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>56</v>
@@ -3407,15 +3431,15 @@
         <v>191</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
       <c r="F39" s="40" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
@@ -3441,18 +3465,18 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
       <c r="F40" s="40" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
@@ -3478,18 +3502,18 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B41" s="50" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
       <c r="F41" s="40" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
@@ -3518,7 +3542,7 @@
         <v>193</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C42" s="51"/>
       <c r="D42" s="40"/>
@@ -3580,7 +3604,7 @@
         <v>192</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C44" s="42" t="s">
         <v>35</v>
@@ -3588,7 +3612,7 @@
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="43" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G44" s="43" t="s">
         <v>38</v>
@@ -3619,10 +3643,10 @@
         <v>167</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>56</v>
@@ -3653,18 +3677,18 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D46" s="40"/>
       <c r="E46" s="40"/>
       <c r="F46" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
@@ -3690,18 +3714,18 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D47" s="40"/>
       <c r="E47" s="40"/>
       <c r="F47" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G47" s="40"/>
       <c r="H47" s="40"/>
@@ -3730,15 +3754,15 @@
         <v>191</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D48" s="40"/>
       <c r="E48" s="40"/>
       <c r="F48" s="40" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="G48" s="40"/>
       <c r="H48" s="40"/>
@@ -3767,7 +3791,7 @@
         <v>193</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C49" s="51"/>
       <c r="D49" s="40"/>
@@ -3837,7 +3861,7 @@
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="43" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G51" s="43" t="s">
         <v>38</v>
@@ -3868,10 +3892,10 @@
         <v>167</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D52" s="40" t="s">
         <v>56</v>
@@ -3915,7 +3939,7 @@
       </c>
       <c r="E53" s="40"/>
       <c r="F53" s="40" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
@@ -3941,18 +3965,18 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="50" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B54" s="50" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C54" s="40" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D54" s="40"/>
       <c r="E54" s="40"/>
       <c r="F54" s="40" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
@@ -3991,7 +4015,7 @@
       </c>
       <c r="E55" s="40"/>
       <c r="F55" s="40" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
@@ -4030,7 +4054,7 @@
       </c>
       <c r="E56" s="40"/>
       <c r="F56" s="40" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G56" s="40"/>
       <c r="H56" s="40"/>
@@ -4069,7 +4093,7 @@
       </c>
       <c r="E57" s="40"/>
       <c r="F57" s="40" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G57" s="40"/>
       <c r="H57" s="40"/>
@@ -4108,7 +4132,7 @@
       </c>
       <c r="E58" s="40"/>
       <c r="F58" s="40" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G58" s="40"/>
       <c r="H58" s="40"/>
@@ -4147,7 +4171,7 @@
       </c>
       <c r="E59" s="40"/>
       <c r="F59" s="40" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G59" s="40"/>
       <c r="H59" s="40"/>
@@ -4186,7 +4210,7 @@
       </c>
       <c r="E60" s="40"/>
       <c r="F60" s="40" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
@@ -4225,7 +4249,7 @@
       </c>
       <c r="E61" s="40"/>
       <c r="F61" s="40" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G61" s="40"/>
       <c r="H61" s="40"/>
@@ -4264,7 +4288,7 @@
       </c>
       <c r="E62" s="40"/>
       <c r="F62" s="40" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G62" s="40"/>
       <c r="H62" s="40"/>
@@ -4303,7 +4327,7 @@
       </c>
       <c r="E63" s="40"/>
       <c r="F63" s="40" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G63" s="40"/>
       <c r="H63" s="40"/>
@@ -4342,7 +4366,7 @@
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="40" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G64" s="40"/>
       <c r="H64" s="40"/>
@@ -4381,7 +4405,7 @@
       </c>
       <c r="E65" s="40"/>
       <c r="F65" s="40" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G65" s="40"/>
       <c r="H65" s="40"/>
@@ -4509,7 +4533,7 @@
       <c r="D69" s="40"/>
       <c r="E69" s="40"/>
       <c r="F69" s="43" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G69" s="40" t="s">
         <v>38</v>
@@ -4540,12 +4564,14 @@
         <v>167</v>
       </c>
       <c r="B70" s="50" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C70" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="D70" s="40"/>
+      <c r="D70" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E70" s="40"/>
       <c r="F70" s="40"/>
       <c r="G70" s="40"/>
@@ -4572,17 +4598,21 @@
     </row>
     <row r="71" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="50" t="s">
-        <v>167</v>
+        <v>405</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>201</v>
+        <v>399</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="D71" s="40"/>
+        <v>403</v>
+      </c>
+      <c r="D71" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E71" s="40"/>
-      <c r="F71" s="55"/>
+      <c r="F71" s="40" t="s">
+        <v>400</v>
+      </c>
       <c r="G71" s="40"/>
       <c r="H71" s="40"/>
       <c r="I71" s="40"/>
@@ -4607,17 +4637,21 @@
     </row>
     <row r="72" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="50" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>202</v>
+        <v>401</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>198</v>
-      </c>
-      <c r="D72" s="40"/>
+        <v>402</v>
+      </c>
+      <c r="D72" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E72" s="40"/>
-      <c r="F72" s="55"/>
+      <c r="F72" s="40" t="s">
+        <v>400</v>
+      </c>
       <c r="G72" s="40"/>
       <c r="H72" s="40"/>
       <c r="I72" s="40"/>
@@ -4642,15 +4676,17 @@
     </row>
     <row r="73" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="50" t="s">
-        <v>167</v>
+        <v>405</v>
       </c>
       <c r="B73" s="50" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>199</v>
-      </c>
-      <c r="D73" s="40"/>
+        <v>404</v>
+      </c>
+      <c r="D73" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E73" s="40"/>
       <c r="F73" s="55"/>
       <c r="G73" s="40"/>
@@ -4676,16 +4712,20 @@
       <c r="AA73" s="41"/>
     </row>
     <row r="74" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="42" t="s">
-        <v>193</v>
-      </c>
-      <c r="B74" s="42" t="s">
-        <v>194</v>
-      </c>
-      <c r="C74" s="42"/>
-      <c r="D74" s="40"/>
+      <c r="A74" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="B74" s="50" t="s">
+        <v>407</v>
+      </c>
+      <c r="C74" s="40" t="s">
+        <v>406</v>
+      </c>
+      <c r="D74" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E74" s="40"/>
-      <c r="F74" s="40"/>
+      <c r="F74" s="55"/>
       <c r="G74" s="40"/>
       <c r="H74" s="40"/>
       <c r="I74" s="40"/>
@@ -4708,13 +4748,21 @@
       <c r="Z74" s="41"/>
       <c r="AA74" s="41"/>
     </row>
-    <row r="75" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="53"/>
-      <c r="B75" s="53"/>
-      <c r="C75" s="53"/>
-      <c r="D75" s="40"/>
+    <row r="75" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="B75" s="50" t="s">
+        <v>408</v>
+      </c>
+      <c r="C75" s="40" t="s">
+        <v>409</v>
+      </c>
+      <c r="D75" s="40" t="s">
+        <v>56</v>
+      </c>
       <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
+      <c r="F75" s="55"/>
       <c r="G75" s="40"/>
       <c r="H75" s="40"/>
       <c r="I75" s="40"/>
@@ -4737,168 +4785,128 @@
       <c r="Z75" s="41"/>
       <c r="AA75" s="41"/>
     </row>
+    <row r="76" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B76" s="50" t="s">
+        <v>200</v>
+      </c>
+      <c r="C76" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="D76" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="E76" s="40"/>
+      <c r="F76" s="55"/>
+      <c r="G76" s="40"/>
+      <c r="H76" s="40"/>
+      <c r="I76" s="40"/>
+      <c r="J76" s="40"/>
+      <c r="K76" s="40"/>
+      <c r="L76" s="40"/>
+      <c r="M76" s="40"/>
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="41"/>
+      <c r="T76" s="41"/>
+      <c r="U76" s="41"/>
+      <c r="V76" s="41"/>
+      <c r="W76" s="41"/>
+      <c r="X76" s="41"/>
+      <c r="Y76" s="41"/>
+      <c r="Z76" s="41"/>
+      <c r="AA76" s="41"/>
+    </row>
     <row r="77" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="73" t="s">
-        <v>32</v>
-      </c>
-      <c r="B77" s="73" t="s">
-        <v>302</v>
-      </c>
-      <c r="C77" s="51" t="s">
-        <v>303</v>
-      </c>
+      <c r="A77" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" s="42"/>
       <c r="D77" s="40"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55" t="s">
-        <v>293</v>
-      </c>
-      <c r="G77" s="40" t="s">
-        <v>38</v>
-      </c>
+      <c r="E77" s="40"/>
+      <c r="F77" s="40"/>
+      <c r="G77" s="40"/>
       <c r="H77" s="40"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="55"/>
-      <c r="K77" s="55"/>
-      <c r="L77" s="51"/>
-      <c r="M77" s="51"/>
-      <c r="N77" s="51"/>
-      <c r="O77" s="51"/>
-      <c r="P77" s="51"/>
-      <c r="Q77" s="51"/>
-      <c r="R77" s="51"/>
-      <c r="S77" s="51"/>
-      <c r="T77" s="51"/>
-      <c r="U77" s="55"/>
-      <c r="V77" s="51"/>
-      <c r="W77" s="55"/>
-      <c r="X77" s="55"/>
-      <c r="Y77" s="55"/>
-      <c r="Z77" s="55"/>
-      <c r="AA77" s="55"/>
-      <c r="AB77" s="55"/>
-      <c r="AC77" s="55"/>
-      <c r="AD77" s="55"/>
-      <c r="AE77" s="55"/>
-      <c r="AF77" s="55"/>
-      <c r="AG77" s="55"/>
-      <c r="AH77" s="55"/>
-      <c r="AI77" s="55"/>
-    </row>
-    <row r="78" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="73" t="s">
-        <v>191</v>
-      </c>
-      <c r="B78" s="73" t="s">
-        <v>304</v>
-      </c>
-      <c r="C78" s="51" t="s">
-        <v>305</v>
-      </c>
+      <c r="I77" s="40"/>
+      <c r="J77" s="40"/>
+      <c r="K77" s="40"/>
+      <c r="L77" s="40"/>
+      <c r="M77" s="40"/>
+      <c r="N77" s="40"/>
+      <c r="O77" s="40"/>
+      <c r="P77" s="40"/>
+      <c r="Q77" s="40"/>
+      <c r="R77" s="40"/>
+      <c r="S77" s="41"/>
+      <c r="T77" s="41"/>
+      <c r="U77" s="41"/>
+      <c r="V77" s="41"/>
+      <c r="W77" s="41"/>
+      <c r="X77" s="41"/>
+      <c r="Y77" s="41"/>
+      <c r="Z77" s="41"/>
+      <c r="AA77" s="41"/>
+    </row>
+    <row r="78" spans="1:35" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="53"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="53"/>
       <c r="D78" s="40"/>
-      <c r="E78" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F78" s="55"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="40"/>
       <c r="G78" s="40"/>
       <c r="H78" s="40"/>
-      <c r="I78" s="51" t="s">
-        <v>306</v>
-      </c>
-      <c r="J78" s="55"/>
-      <c r="K78" s="55"/>
-      <c r="L78" s="51"/>
-      <c r="M78" s="51"/>
-      <c r="N78" s="51"/>
-      <c r="O78" s="51"/>
-      <c r="P78" s="51"/>
-      <c r="Q78" s="51"/>
-      <c r="R78" s="51"/>
-      <c r="S78" s="51"/>
-      <c r="T78" s="51"/>
-      <c r="U78" s="55"/>
-      <c r="V78" s="51"/>
-      <c r="W78" s="55"/>
-      <c r="X78" s="55"/>
-      <c r="Y78" s="55"/>
-      <c r="Z78" s="55"/>
-      <c r="AA78" s="55"/>
-      <c r="AB78" s="55"/>
-      <c r="AC78" s="55"/>
-      <c r="AD78" s="55"/>
-      <c r="AE78" s="55"/>
-      <c r="AF78" s="55"/>
-      <c r="AG78" s="55"/>
-      <c r="AH78" s="55"/>
-      <c r="AI78" s="55"/>
-    </row>
-    <row r="79" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="73" t="s">
-        <v>307</v>
-      </c>
-      <c r="B79" s="73" t="s">
-        <v>308</v>
-      </c>
-      <c r="C79" s="51" t="s">
-        <v>309</v>
-      </c>
-      <c r="D79" s="40"/>
-      <c r="E79" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="40"/>
-      <c r="H79" s="40"/>
-      <c r="I79" s="55"/>
-      <c r="J79" s="55"/>
-      <c r="K79" s="55"/>
-      <c r="L79" s="55"/>
-      <c r="M79" s="51"/>
-      <c r="N79" s="51"/>
-      <c r="O79" s="51"/>
-      <c r="P79" s="51"/>
-      <c r="Q79" s="51"/>
-      <c r="R79" s="51"/>
-      <c r="S79" s="51"/>
-      <c r="T79" s="51"/>
-      <c r="U79" s="55"/>
-      <c r="V79" s="51"/>
-      <c r="W79" s="55"/>
-      <c r="X79" s="55"/>
-      <c r="Y79" s="55"/>
-      <c r="Z79" s="55"/>
-      <c r="AA79" s="55"/>
-      <c r="AB79" s="55"/>
-      <c r="AC79" s="55"/>
-      <c r="AD79" s="55"/>
-      <c r="AE79" s="55"/>
-      <c r="AF79" s="55"/>
-      <c r="AG79" s="55"/>
-      <c r="AH79" s="55"/>
-      <c r="AI79" s="55"/>
+      <c r="I78" s="40"/>
+      <c r="J78" s="40"/>
+      <c r="K78" s="40"/>
+      <c r="L78" s="40"/>
+      <c r="M78" s="40"/>
+      <c r="N78" s="40"/>
+      <c r="O78" s="40"/>
+      <c r="P78" s="40"/>
+      <c r="Q78" s="40"/>
+      <c r="R78" s="40"/>
+      <c r="S78" s="41"/>
+      <c r="T78" s="41"/>
+      <c r="U78" s="41"/>
+      <c r="V78" s="41"/>
+      <c r="W78" s="41"/>
+      <c r="X78" s="41"/>
+      <c r="Y78" s="41"/>
+      <c r="Z78" s="41"/>
+      <c r="AA78" s="41"/>
     </row>
     <row r="80" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="73" t="s">
-        <v>310</v>
+        <v>32</v>
       </c>
       <c r="B80" s="73" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D80" s="40"/>
-      <c r="E80" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="F80" s="55"/>
-      <c r="G80" s="40"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55" t="s">
+        <v>290</v>
+      </c>
+      <c r="G80" s="40" t="s">
+        <v>38</v>
+      </c>
       <c r="H80" s="40"/>
-      <c r="I80" s="55" t="s">
-        <v>313</v>
-      </c>
+      <c r="I80" s="55"/>
       <c r="J80" s="55"/>
       <c r="K80" s="55"/>
-      <c r="L80" s="55"/>
+      <c r="L80" s="51"/>
       <c r="M80" s="51"/>
       <c r="N80" s="51"/>
       <c r="O80" s="51"/>
@@ -4925,23 +4933,27 @@
     </row>
     <row r="81" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="73" t="s">
-        <v>244</v>
+        <v>191</v>
       </c>
       <c r="B81" s="73" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>315</v>
+        <v>302</v>
       </c>
       <c r="D81" s="40"/>
-      <c r="E81" s="55"/>
+      <c r="E81" s="55" t="s">
+        <v>56</v>
+      </c>
       <c r="F81" s="55"/>
       <c r="G81" s="40"/>
       <c r="H81" s="40"/>
-      <c r="I81" s="55"/>
+      <c r="I81" s="51" t="s">
+        <v>303</v>
+      </c>
       <c r="J81" s="55"/>
       <c r="K81" s="55"/>
-      <c r="L81" s="55"/>
+      <c r="L81" s="51"/>
       <c r="M81" s="51"/>
       <c r="N81" s="51"/>
       <c r="O81" s="51"/>
@@ -4967,36 +4979,36 @@
       <c r="AI81" s="55"/>
     </row>
     <row r="82" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="B82" s="74" t="s">
-        <v>317</v>
-      </c>
-      <c r="C82" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55" t="s">
-        <v>316</v>
-      </c>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
+      <c r="A82" s="73" t="s">
+        <v>304</v>
+      </c>
+      <c r="B82" s="73" t="s">
+        <v>305</v>
+      </c>
+      <c r="C82" s="51" t="s">
+        <v>306</v>
+      </c>
+      <c r="D82" s="40"/>
+      <c r="E82" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F82" s="55"/>
+      <c r="G82" s="40"/>
+      <c r="H82" s="40"/>
       <c r="I82" s="55"/>
-      <c r="J82" s="75"/>
+      <c r="J82" s="55"/>
       <c r="K82" s="55"/>
       <c r="L82" s="55"/>
-      <c r="M82" s="55"/>
-      <c r="N82" s="55"/>
-      <c r="O82" s="75"/>
-      <c r="P82" s="55"/>
-      <c r="Q82" s="55"/>
-      <c r="R82" s="55"/>
-      <c r="S82" s="55"/>
-      <c r="T82" s="55"/>
+      <c r="M82" s="51"/>
+      <c r="N82" s="51"/>
+      <c r="O82" s="51"/>
+      <c r="P82" s="51"/>
+      <c r="Q82" s="51"/>
+      <c r="R82" s="51"/>
+      <c r="S82" s="51"/>
+      <c r="T82" s="51"/>
       <c r="U82" s="55"/>
-      <c r="V82" s="55"/>
+      <c r="V82" s="51"/>
       <c r="W82" s="55"/>
       <c r="X82" s="55"/>
       <c r="Y82" s="55"/>
@@ -5005,92 +5017,88 @@
       <c r="AB82" s="55"/>
       <c r="AC82" s="55"/>
       <c r="AD82" s="55"/>
-      <c r="AE82" s="55" t="s">
-        <v>39</v>
-      </c>
+      <c r="AE82" s="55"/>
       <c r="AF82" s="55"/>
       <c r="AG82" s="55"/>
-      <c r="AH82" s="76" t="s">
-        <v>318</v>
-      </c>
+      <c r="AH82" s="55"/>
       <c r="AI82" s="55"/>
     </row>
     <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="B83" s="74" t="s">
-        <v>319</v>
-      </c>
-      <c r="C83" s="75" t="s">
-        <v>35</v>
-      </c>
-      <c r="D83" s="55"/>
-      <c r="E83" s="75"/>
+      <c r="A83" s="73" t="s">
+        <v>307</v>
+      </c>
+      <c r="B83" s="73" t="s">
+        <v>308</v>
+      </c>
+      <c r="C83" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="D83" s="40"/>
+      <c r="E83" s="55" t="s">
+        <v>57</v>
+      </c>
       <c r="F83" s="55"/>
-      <c r="G83" s="55"/>
-      <c r="H83" s="55"/>
-      <c r="I83" s="75"/>
-      <c r="J83" s="75"/>
-      <c r="K83" s="75" t="s">
-        <v>320</v>
-      </c>
-      <c r="L83" s="75"/>
-      <c r="M83" s="75"/>
-      <c r="N83" s="55"/>
-      <c r="O83" s="55"/>
-      <c r="P83" s="55"/>
-      <c r="Q83" s="55"/>
-      <c r="R83" s="55"/>
-      <c r="S83" s="55"/>
-      <c r="T83" s="75"/>
-      <c r="U83" s="75"/>
-      <c r="V83" s="75"/>
-      <c r="W83" s="75"/>
-      <c r="X83" s="75"/>
-      <c r="Y83" s="75"/>
-      <c r="Z83" s="75"/>
-      <c r="AA83" s="75"/>
-      <c r="AB83" s="75"/>
-      <c r="AC83" s="75"/>
-      <c r="AD83" s="75"/>
-      <c r="AE83" s="75"/>
-      <c r="AF83" s="75"/>
-      <c r="AG83" s="75"/>
-      <c r="AH83" s="75"/>
-      <c r="AI83" s="75"/>
+      <c r="G83" s="40"/>
+      <c r="H83" s="40"/>
+      <c r="I83" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="J83" s="55"/>
+      <c r="K83" s="55"/>
+      <c r="L83" s="55"/>
+      <c r="M83" s="51"/>
+      <c r="N83" s="51"/>
+      <c r="O83" s="51"/>
+      <c r="P83" s="51"/>
+      <c r="Q83" s="51"/>
+      <c r="R83" s="51"/>
+      <c r="S83" s="51"/>
+      <c r="T83" s="51"/>
+      <c r="U83" s="55"/>
+      <c r="V83" s="51"/>
+      <c r="W83" s="55"/>
+      <c r="X83" s="55"/>
+      <c r="Y83" s="55"/>
+      <c r="Z83" s="55"/>
+      <c r="AA83" s="55"/>
+      <c r="AB83" s="55"/>
+      <c r="AC83" s="55"/>
+      <c r="AD83" s="55"/>
+      <c r="AE83" s="55"/>
+      <c r="AF83" s="55"/>
+      <c r="AG83" s="55"/>
+      <c r="AH83" s="55"/>
+      <c r="AI83" s="55"/>
     </row>
     <row r="84" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="74" t="s">
-        <v>95</v>
-      </c>
-      <c r="B84" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="C84" s="75" t="s">
-        <v>321</v>
-      </c>
-      <c r="D84" s="55"/>
+      <c r="A84" s="73" t="s">
+        <v>241</v>
+      </c>
+      <c r="B84" s="73" t="s">
+        <v>311</v>
+      </c>
+      <c r="C84" s="51" t="s">
+        <v>312</v>
+      </c>
+      <c r="D84" s="40"/>
       <c r="E84" s="55"/>
       <c r="F84" s="55"/>
-      <c r="G84" s="55"/>
-      <c r="H84" s="55"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
       <c r="I84" s="55"/>
       <c r="J84" s="55"/>
-      <c r="K84" s="75" t="s">
-        <v>322</v>
-      </c>
+      <c r="K84" s="55"/>
       <c r="L84" s="55"/>
-      <c r="M84" s="55"/>
-      <c r="N84" s="55"/>
-      <c r="O84" s="55"/>
-      <c r="P84" s="55"/>
-      <c r="Q84" s="55"/>
-      <c r="R84" s="55"/>
-      <c r="S84" s="55"/>
-      <c r="T84" s="75"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="51"/>
+      <c r="O84" s="51"/>
+      <c r="P84" s="51"/>
+      <c r="Q84" s="51"/>
+      <c r="R84" s="51"/>
+      <c r="S84" s="51"/>
+      <c r="T84" s="51"/>
       <c r="U84" s="55"/>
-      <c r="V84" s="55"/>
+      <c r="V84" s="51"/>
       <c r="W84" s="55"/>
       <c r="X84" s="55"/>
       <c r="Y84" s="55"/>
@@ -5107,55 +5115,59 @@
     </row>
     <row r="85" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="74" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B85" s="74" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="C85" s="75" t="s">
         <v>35</v>
       </c>
       <c r="D85" s="55"/>
       <c r="E85" s="55"/>
-      <c r="F85" s="55"/>
+      <c r="F85" s="55" t="s">
+        <v>313</v>
+      </c>
       <c r="G85" s="55"/>
       <c r="H85" s="55"/>
       <c r="I85" s="55"/>
-      <c r="J85" s="55"/>
-      <c r="K85" s="75" t="s">
-        <v>324</v>
-      </c>
+      <c r="J85" s="75"/>
+      <c r="K85" s="55"/>
       <c r="L85" s="55"/>
       <c r="M85" s="55"/>
       <c r="N85" s="55"/>
-      <c r="O85" s="55"/>
+      <c r="O85" s="75"/>
       <c r="P85" s="55"/>
       <c r="Q85" s="55"/>
       <c r="R85" s="55"/>
       <c r="S85" s="55"/>
-      <c r="T85" s="75"/>
-      <c r="U85" s="75"/>
-      <c r="V85" s="75"/>
-      <c r="W85" s="75"/>
-      <c r="X85" s="75"/>
-      <c r="Y85" s="75"/>
-      <c r="Z85" s="75"/>
-      <c r="AA85" s="75"/>
-      <c r="AB85" s="75"/>
-      <c r="AC85" s="75"/>
-      <c r="AD85" s="75"/>
-      <c r="AE85" s="75"/>
-      <c r="AF85" s="75"/>
-      <c r="AG85" s="75"/>
-      <c r="AH85" s="75"/>
-      <c r="AI85" s="75"/>
+      <c r="T85" s="55"/>
+      <c r="U85" s="55"/>
+      <c r="V85" s="55"/>
+      <c r="W85" s="55"/>
+      <c r="X85" s="55"/>
+      <c r="Y85" s="55"/>
+      <c r="Z85" s="55"/>
+      <c r="AA85" s="55"/>
+      <c r="AB85" s="55"/>
+      <c r="AC85" s="55"/>
+      <c r="AD85" s="55"/>
+      <c r="AE85" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF85" s="55"/>
+      <c r="AG85" s="55"/>
+      <c r="AH85" s="76" t="s">
+        <v>315</v>
+      </c>
+      <c r="AI85" s="55"/>
     </row>
     <row r="86" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="74" t="s">
         <v>95</v>
       </c>
       <c r="B86" s="74" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="C86" s="75" t="s">
         <v>35</v>
@@ -5168,16 +5180,16 @@
       <c r="I86" s="75"/>
       <c r="J86" s="75"/>
       <c r="K86" s="75" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="L86" s="75"/>
       <c r="M86" s="75"/>
-      <c r="N86" s="75"/>
-      <c r="O86" s="75"/>
-      <c r="P86" s="75"/>
-      <c r="Q86" s="75"/>
-      <c r="R86" s="75"/>
-      <c r="S86" s="75"/>
+      <c r="N86" s="55"/>
+      <c r="O86" s="55"/>
+      <c r="P86" s="55"/>
+      <c r="Q86" s="55"/>
+      <c r="R86" s="55"/>
+      <c r="S86" s="55"/>
       <c r="T86" s="75"/>
       <c r="U86" s="75"/>
       <c r="V86" s="75"/>
@@ -5197,13 +5209,13 @@
     </row>
     <row r="87" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="74" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B87" s="74" t="s">
-        <v>327</v>
+        <v>1</v>
       </c>
       <c r="C87" s="75" t="s">
-        <v>35</v>
+        <v>318</v>
       </c>
       <c r="D87" s="55"/>
       <c r="E87" s="55"/>
@@ -5212,7 +5224,9 @@
       <c r="H87" s="55"/>
       <c r="I87" s="55"/>
       <c r="J87" s="55"/>
-      <c r="K87" s="55"/>
+      <c r="K87" s="75" t="s">
+        <v>319</v>
+      </c>
       <c r="L87" s="55"/>
       <c r="M87" s="55"/>
       <c r="N87" s="55"/>
@@ -5221,7 +5235,7 @@
       <c r="Q87" s="55"/>
       <c r="R87" s="55"/>
       <c r="S87" s="55"/>
-      <c r="T87" s="55"/>
+      <c r="T87" s="75"/>
       <c r="U87" s="55"/>
       <c r="V87" s="55"/>
       <c r="W87" s="55"/>
@@ -5243,29 +5257,29 @@
         <v>95</v>
       </c>
       <c r="B88" s="74" t="s">
-        <v>48</v>
+        <v>320</v>
       </c>
       <c r="C88" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="D88" s="75"/>
-      <c r="E88" s="75"/>
-      <c r="F88" s="75"/>
-      <c r="G88" s="75"/>
-      <c r="H88" s="75"/>
-      <c r="I88" s="75"/>
-      <c r="J88" s="75"/>
+      <c r="D88" s="55"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="55"/>
+      <c r="H88" s="55"/>
+      <c r="I88" s="55"/>
+      <c r="J88" s="55"/>
       <c r="K88" s="75" t="s">
-        <v>328</v>
-      </c>
-      <c r="L88" s="75"/>
-      <c r="M88" s="75"/>
-      <c r="N88" s="75"/>
-      <c r="O88" s="75"/>
-      <c r="P88" s="75"/>
-      <c r="Q88" s="75"/>
-      <c r="R88" s="75"/>
-      <c r="S88" s="75"/>
+        <v>321</v>
+      </c>
+      <c r="L88" s="55"/>
+      <c r="M88" s="55"/>
+      <c r="N88" s="55"/>
+      <c r="O88" s="55"/>
+      <c r="P88" s="55"/>
+      <c r="Q88" s="55"/>
+      <c r="R88" s="55"/>
+      <c r="S88" s="55"/>
       <c r="T88" s="75"/>
       <c r="U88" s="75"/>
       <c r="V88" s="75"/>
@@ -5288,20 +5302,20 @@
         <v>95</v>
       </c>
       <c r="B89" s="74" t="s">
-        <v>164</v>
+        <v>322</v>
       </c>
       <c r="C89" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="D89" s="75"/>
+      <c r="D89" s="55"/>
       <c r="E89" s="75"/>
-      <c r="F89" s="75"/>
-      <c r="G89" s="75"/>
-      <c r="H89" s="75"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="55"/>
+      <c r="H89" s="55"/>
       <c r="I89" s="75"/>
       <c r="J89" s="75"/>
       <c r="K89" s="75" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="L89" s="75"/>
       <c r="M89" s="75"/>
@@ -5333,7 +5347,7 @@
         <v>32</v>
       </c>
       <c r="B90" s="74" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="C90" s="75" t="s">
         <v>35</v>
@@ -5376,97 +5390,97 @@
         <v>95</v>
       </c>
       <c r="B91" s="74" t="s">
-        <v>331</v>
+        <v>48</v>
       </c>
       <c r="C91" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="D91" s="55"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="55"/>
-      <c r="J91" s="55"/>
+      <c r="D91" s="75"/>
+      <c r="E91" s="75"/>
+      <c r="F91" s="75"/>
+      <c r="G91" s="75"/>
+      <c r="H91" s="75"/>
+      <c r="I91" s="75"/>
+      <c r="J91" s="75"/>
       <c r="K91" s="75" t="s">
-        <v>332</v>
-      </c>
-      <c r="L91" s="55"/>
-      <c r="M91" s="55"/>
-      <c r="N91" s="55"/>
-      <c r="O91" s="55"/>
-      <c r="P91" s="55"/>
-      <c r="Q91" s="55"/>
-      <c r="R91" s="55"/>
-      <c r="S91" s="55"/>
+        <v>325</v>
+      </c>
+      <c r="L91" s="75"/>
+      <c r="M91" s="75"/>
+      <c r="N91" s="75"/>
+      <c r="O91" s="75"/>
+      <c r="P91" s="75"/>
+      <c r="Q91" s="75"/>
+      <c r="R91" s="75"/>
+      <c r="S91" s="75"/>
       <c r="T91" s="75"/>
-      <c r="U91" s="55"/>
-      <c r="V91" s="55"/>
-      <c r="W91" s="55"/>
-      <c r="X91" s="55"/>
-      <c r="Y91" s="55"/>
-      <c r="Z91" s="55"/>
-      <c r="AA91" s="55"/>
-      <c r="AB91" s="55"/>
-      <c r="AC91" s="55"/>
-      <c r="AD91" s="55"/>
-      <c r="AE91" s="55"/>
-      <c r="AF91" s="55"/>
-      <c r="AG91" s="55"/>
-      <c r="AH91" s="55"/>
-      <c r="AI91" s="55"/>
+      <c r="U91" s="75"/>
+      <c r="V91" s="75"/>
+      <c r="W91" s="75"/>
+      <c r="X91" s="75"/>
+      <c r="Y91" s="75"/>
+      <c r="Z91" s="75"/>
+      <c r="AA91" s="75"/>
+      <c r="AB91" s="75"/>
+      <c r="AC91" s="75"/>
+      <c r="AD91" s="75"/>
+      <c r="AE91" s="75"/>
+      <c r="AF91" s="75"/>
+      <c r="AG91" s="75"/>
+      <c r="AH91" s="75"/>
+      <c r="AI91" s="75"/>
     </row>
     <row r="92" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="74" t="s">
         <v>95</v>
       </c>
       <c r="B92" s="74" t="s">
-        <v>333</v>
+        <v>164</v>
       </c>
       <c r="C92" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="D92" s="55"/>
-      <c r="E92" s="55"/>
-      <c r="F92" s="55"/>
-      <c r="G92" s="55"/>
-      <c r="H92" s="55"/>
-      <c r="I92" s="55"/>
-      <c r="J92" s="55"/>
+      <c r="D92" s="75"/>
+      <c r="E92" s="75"/>
+      <c r="F92" s="75"/>
+      <c r="G92" s="75"/>
+      <c r="H92" s="75"/>
+      <c r="I92" s="75"/>
+      <c r="J92" s="75"/>
       <c r="K92" s="75" t="s">
-        <v>334</v>
-      </c>
-      <c r="L92" s="55"/>
-      <c r="M92" s="55"/>
-      <c r="N92" s="55"/>
-      <c r="O92" s="55"/>
-      <c r="P92" s="55"/>
-      <c r="Q92" s="55"/>
-      <c r="R92" s="55"/>
-      <c r="S92" s="55"/>
+        <v>326</v>
+      </c>
+      <c r="L92" s="75"/>
+      <c r="M92" s="75"/>
+      <c r="N92" s="75"/>
+      <c r="O92" s="75"/>
+      <c r="P92" s="75"/>
+      <c r="Q92" s="75"/>
+      <c r="R92" s="75"/>
+      <c r="S92" s="75"/>
       <c r="T92" s="75"/>
-      <c r="U92" s="55"/>
-      <c r="V92" s="55"/>
-      <c r="W92" s="55"/>
-      <c r="X92" s="55"/>
-      <c r="Y92" s="55"/>
-      <c r="Z92" s="55"/>
-      <c r="AA92" s="55"/>
-      <c r="AB92" s="55"/>
-      <c r="AC92" s="55"/>
-      <c r="AD92" s="55"/>
-      <c r="AE92" s="55"/>
-      <c r="AF92" s="55"/>
-      <c r="AG92" s="55"/>
-      <c r="AH92" s="55"/>
-      <c r="AI92" s="55"/>
+      <c r="U92" s="75"/>
+      <c r="V92" s="75"/>
+      <c r="W92" s="75"/>
+      <c r="X92" s="75"/>
+      <c r="Y92" s="75"/>
+      <c r="Z92" s="75"/>
+      <c r="AA92" s="75"/>
+      <c r="AB92" s="75"/>
+      <c r="AC92" s="75"/>
+      <c r="AD92" s="75"/>
+      <c r="AE92" s="75"/>
+      <c r="AF92" s="75"/>
+      <c r="AG92" s="75"/>
+      <c r="AH92" s="75"/>
+      <c r="AI92" s="75"/>
     </row>
     <row r="93" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="74" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B93" s="74" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C93" s="75" t="s">
         <v>35</v>
@@ -5478,9 +5492,7 @@
       <c r="H93" s="55"/>
       <c r="I93" s="55"/>
       <c r="J93" s="55"/>
-      <c r="K93" s="75" t="s">
-        <v>336</v>
-      </c>
+      <c r="K93" s="55"/>
       <c r="L93" s="55"/>
       <c r="M93" s="55"/>
       <c r="N93" s="55"/>
@@ -5489,7 +5501,7 @@
       <c r="Q93" s="55"/>
       <c r="R93" s="55"/>
       <c r="S93" s="55"/>
-      <c r="T93" s="75"/>
+      <c r="T93" s="55"/>
       <c r="U93" s="55"/>
       <c r="V93" s="55"/>
       <c r="W93" s="55"/>
@@ -5511,52 +5523,56 @@
         <v>95</v>
       </c>
       <c r="B94" s="74" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="C94" s="75" t="s">
         <v>35</v>
       </c>
       <c r="D94" s="55"/>
-      <c r="E94" s="75"/>
+      <c r="E94" s="55"/>
       <c r="F94" s="55"/>
       <c r="G94" s="55"/>
       <c r="H94" s="55"/>
-      <c r="I94" s="75"/>
-      <c r="J94" s="75"/>
+      <c r="I94" s="55"/>
+      <c r="J94" s="55"/>
       <c r="K94" s="75" t="s">
-        <v>338</v>
-      </c>
-      <c r="L94" s="75"/>
-      <c r="M94" s="75"/>
-      <c r="N94" s="75"/>
-      <c r="O94" s="75"/>
-      <c r="P94" s="75"/>
-      <c r="Q94" s="75"/>
-      <c r="R94" s="75"/>
-      <c r="S94" s="75"/>
+        <v>329</v>
+      </c>
+      <c r="L94" s="55"/>
+      <c r="M94" s="55"/>
+      <c r="N94" s="55"/>
+      <c r="O94" s="55"/>
+      <c r="P94" s="55"/>
+      <c r="Q94" s="55"/>
+      <c r="R94" s="55"/>
+      <c r="S94" s="55"/>
       <c r="T94" s="75"/>
-      <c r="U94" s="75"/>
-      <c r="V94" s="75"/>
-      <c r="W94" s="75"/>
-      <c r="X94" s="75"/>
-      <c r="Y94" s="75"/>
-      <c r="Z94" s="75"/>
-      <c r="AA94" s="75"/>
-      <c r="AB94" s="75"/>
-      <c r="AC94" s="75"/>
-      <c r="AD94" s="75"/>
-      <c r="AE94" s="75"/>
-      <c r="AF94" s="75"/>
-      <c r="AG94" s="75"/>
-      <c r="AH94" s="75"/>
-      <c r="AI94" s="75"/>
+      <c r="U94" s="55"/>
+      <c r="V94" s="55"/>
+      <c r="W94" s="55"/>
+      <c r="X94" s="55"/>
+      <c r="Y94" s="55"/>
+      <c r="Z94" s="55"/>
+      <c r="AA94" s="55"/>
+      <c r="AB94" s="55"/>
+      <c r="AC94" s="55"/>
+      <c r="AD94" s="55"/>
+      <c r="AE94" s="55"/>
+      <c r="AF94" s="55"/>
+      <c r="AG94" s="55"/>
+      <c r="AH94" s="55"/>
+      <c r="AI94" s="55"/>
     </row>
     <row r="95" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="B95" s="74"/>
-      <c r="C95" s="55"/>
+        <v>95</v>
+      </c>
+      <c r="B95" s="74" t="s">
+        <v>330</v>
+      </c>
+      <c r="C95" s="75" t="s">
+        <v>35</v>
+      </c>
       <c r="D95" s="55"/>
       <c r="E95" s="55"/>
       <c r="F95" s="55"/>
@@ -5564,7 +5580,9 @@
       <c r="H95" s="55"/>
       <c r="I95" s="55"/>
       <c r="J95" s="55"/>
-      <c r="K95" s="55"/>
+      <c r="K95" s="75" t="s">
+        <v>331</v>
+      </c>
       <c r="L95" s="55"/>
       <c r="M95" s="55"/>
       <c r="N95" s="55"/>
@@ -5573,7 +5591,7 @@
       <c r="Q95" s="55"/>
       <c r="R95" s="55"/>
       <c r="S95" s="55"/>
-      <c r="T95" s="55"/>
+      <c r="T95" s="75"/>
       <c r="U95" s="55"/>
       <c r="V95" s="55"/>
       <c r="W95" s="55"/>
@@ -5592,10 +5610,14 @@
     </row>
     <row r="96" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="B96" s="74"/>
-      <c r="C96" s="55"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="74" t="s">
+        <v>332</v>
+      </c>
+      <c r="C96" s="75" t="s">
+        <v>35</v>
+      </c>
       <c r="D96" s="55"/>
       <c r="E96" s="55"/>
       <c r="F96" s="55"/>
@@ -5603,7 +5625,9 @@
       <c r="H96" s="55"/>
       <c r="I96" s="55"/>
       <c r="J96" s="55"/>
-      <c r="K96" s="55"/>
+      <c r="K96" s="75" t="s">
+        <v>333</v>
+      </c>
       <c r="L96" s="55"/>
       <c r="M96" s="55"/>
       <c r="N96" s="55"/>
@@ -5612,7 +5636,7 @@
       <c r="Q96" s="55"/>
       <c r="R96" s="55"/>
       <c r="S96" s="55"/>
-      <c r="T96" s="55"/>
+      <c r="T96" s="75"/>
       <c r="U96" s="55"/>
       <c r="V96" s="55"/>
       <c r="W96" s="55"/>
@@ -5631,53 +5655,55 @@
     </row>
     <row r="97" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="B97" s="74"/>
-      <c r="C97" s="55"/>
+        <v>95</v>
+      </c>
+      <c r="B97" s="74" t="s">
+        <v>334</v>
+      </c>
+      <c r="C97" s="75" t="s">
+        <v>35</v>
+      </c>
       <c r="D97" s="55"/>
-      <c r="E97" s="55"/>
+      <c r="E97" s="75"/>
       <c r="F97" s="55"/>
       <c r="G97" s="55"/>
       <c r="H97" s="55"/>
-      <c r="I97" s="55"/>
-      <c r="J97" s="55"/>
-      <c r="K97" s="55"/>
-      <c r="L97" s="55"/>
-      <c r="M97" s="55"/>
-      <c r="N97" s="55"/>
-      <c r="O97" s="55"/>
-      <c r="P97" s="55"/>
-      <c r="Q97" s="55"/>
-      <c r="R97" s="55"/>
-      <c r="S97" s="55"/>
-      <c r="T97" s="55"/>
-      <c r="U97" s="55"/>
-      <c r="V97" s="55"/>
-      <c r="W97" s="55"/>
-      <c r="X97" s="55"/>
-      <c r="Y97" s="55"/>
-      <c r="Z97" s="55"/>
-      <c r="AA97" s="55"/>
-      <c r="AB97" s="55"/>
-      <c r="AC97" s="55"/>
-      <c r="AD97" s="55"/>
-      <c r="AE97" s="55"/>
-      <c r="AF97" s="55"/>
-      <c r="AG97" s="55"/>
-      <c r="AH97" s="55"/>
-      <c r="AI97" s="55"/>
+      <c r="I97" s="75"/>
+      <c r="J97" s="75"/>
+      <c r="K97" s="75" t="s">
+        <v>335</v>
+      </c>
+      <c r="L97" s="75"/>
+      <c r="M97" s="75"/>
+      <c r="N97" s="75"/>
+      <c r="O97" s="75"/>
+      <c r="P97" s="75"/>
+      <c r="Q97" s="75"/>
+      <c r="R97" s="75"/>
+      <c r="S97" s="75"/>
+      <c r="T97" s="75"/>
+      <c r="U97" s="75"/>
+      <c r="V97" s="75"/>
+      <c r="W97" s="75"/>
+      <c r="X97" s="75"/>
+      <c r="Y97" s="75"/>
+      <c r="Z97" s="75"/>
+      <c r="AA97" s="75"/>
+      <c r="AB97" s="75"/>
+      <c r="AC97" s="75"/>
+      <c r="AD97" s="75"/>
+      <c r="AE97" s="75"/>
+      <c r="AF97" s="75"/>
+      <c r="AG97" s="75"/>
+      <c r="AH97" s="75"/>
+      <c r="AI97" s="75"/>
     </row>
     <row r="98" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="B98" s="77" t="s">
-        <v>339</v>
-      </c>
-      <c r="C98" s="55" t="s">
-        <v>35</v>
-      </c>
+      <c r="A98" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="74"/>
+      <c r="C98" s="55"/>
       <c r="D98" s="55"/>
       <c r="E98" s="55"/>
       <c r="F98" s="55"/>
@@ -5685,9 +5711,7 @@
       <c r="H98" s="55"/>
       <c r="I98" s="55"/>
       <c r="J98" s="55"/>
-      <c r="K98" s="55" t="s">
-        <v>340</v>
-      </c>
+      <c r="K98" s="55"/>
       <c r="L98" s="55"/>
       <c r="M98" s="55"/>
       <c r="N98" s="55"/>
@@ -5714,30 +5738,30 @@
       <c r="AI98" s="55"/>
     </row>
     <row r="99" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="73" t="s">
+      <c r="A99" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B99" s="73"/>
-      <c r="C99" s="51"/>
-      <c r="D99" s="40"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="55"/>
+      <c r="D99" s="55"/>
       <c r="E99" s="55"/>
-      <c r="F99" s="40"/>
-      <c r="G99" s="40"/>
-      <c r="H99" s="40"/>
+      <c r="F99" s="55"/>
+      <c r="G99" s="55"/>
+      <c r="H99" s="55"/>
       <c r="I99" s="55"/>
       <c r="J99" s="55"/>
       <c r="K99" s="55"/>
       <c r="L99" s="55"/>
-      <c r="M99" s="51"/>
-      <c r="N99" s="51"/>
-      <c r="O99" s="51"/>
-      <c r="P99" s="51"/>
-      <c r="Q99" s="51"/>
-      <c r="R99" s="51"/>
-      <c r="S99" s="51"/>
-      <c r="T99" s="51"/>
+      <c r="M99" s="55"/>
+      <c r="N99" s="55"/>
+      <c r="O99" s="55"/>
+      <c r="P99" s="55"/>
+      <c r="Q99" s="55"/>
+      <c r="R99" s="55"/>
+      <c r="S99" s="55"/>
+      <c r="T99" s="55"/>
       <c r="U99" s="55"/>
-      <c r="V99" s="51"/>
+      <c r="V99" s="55"/>
       <c r="W99" s="55"/>
       <c r="X99" s="55"/>
       <c r="Y99" s="55"/>
@@ -5752,207 +5776,197 @@
       <c r="AH99" s="55"/>
       <c r="AI99" s="55"/>
     </row>
-    <row r="100" spans="1:35" s="78" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="54"/>
-      <c r="B100" s="54"/>
-      <c r="C100" s="54"/>
-      <c r="D100" s="53"/>
-      <c r="E100" s="81"/>
-      <c r="F100" s="53"/>
-      <c r="G100" s="53"/>
-      <c r="H100" s="53"/>
-      <c r="I100" s="81"/>
-      <c r="J100" s="81"/>
-      <c r="K100" s="81"/>
-      <c r="L100" s="81"/>
-      <c r="M100" s="54"/>
-      <c r="N100" s="54"/>
-      <c r="O100" s="54"/>
-      <c r="P100" s="54"/>
-      <c r="Q100" s="54"/>
-      <c r="R100" s="54"/>
-      <c r="S100" s="54"/>
-      <c r="T100" s="54"/>
-      <c r="U100" s="81"/>
-      <c r="V100" s="54"/>
-      <c r="W100" s="81"/>
-      <c r="X100" s="81"/>
-      <c r="Y100" s="81"/>
-      <c r="Z100" s="81"/>
-      <c r="AA100" s="81"/>
-      <c r="AB100" s="81"/>
-      <c r="AC100" s="81"/>
-      <c r="AD100" s="81"/>
-      <c r="AE100" s="81"/>
-      <c r="AF100" s="81"/>
-      <c r="AG100" s="81"/>
-      <c r="AH100" s="81"/>
-      <c r="AI100" s="81"/>
+    <row r="100" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B100" s="74"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="55"/>
+      <c r="E100" s="55"/>
+      <c r="F100" s="55"/>
+      <c r="G100" s="55"/>
+      <c r="H100" s="55"/>
+      <c r="I100" s="55"/>
+      <c r="J100" s="55"/>
+      <c r="K100" s="55"/>
+      <c r="L100" s="55"/>
+      <c r="M100" s="55"/>
+      <c r="N100" s="55"/>
+      <c r="O100" s="55"/>
+      <c r="P100" s="55"/>
+      <c r="Q100" s="55"/>
+      <c r="R100" s="55"/>
+      <c r="S100" s="55"/>
+      <c r="T100" s="55"/>
+      <c r="U100" s="55"/>
+      <c r="V100" s="55"/>
+      <c r="W100" s="55"/>
+      <c r="X100" s="55"/>
+      <c r="Y100" s="55"/>
+      <c r="Z100" s="55"/>
+      <c r="AA100" s="55"/>
+      <c r="AB100" s="55"/>
+      <c r="AC100" s="55"/>
+      <c r="AD100" s="55"/>
+      <c r="AE100" s="55"/>
+      <c r="AF100" s="55"/>
+      <c r="AG100" s="55"/>
+      <c r="AH100" s="55"/>
+      <c r="AI100" s="55"/>
+    </row>
+    <row r="101" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="77" t="s">
+        <v>95</v>
+      </c>
+      <c r="B101" s="77" t="s">
+        <v>336</v>
+      </c>
+      <c r="C101" s="55" t="s">
+        <v>35</v>
+      </c>
+      <c r="D101" s="55"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="55"/>
+      <c r="H101" s="55"/>
+      <c r="I101" s="55"/>
+      <c r="J101" s="55"/>
+      <c r="K101" s="55" t="s">
+        <v>337</v>
+      </c>
+      <c r="L101" s="55"/>
+      <c r="M101" s="55"/>
+      <c r="N101" s="55"/>
+      <c r="O101" s="55"/>
+      <c r="P101" s="55"/>
+      <c r="Q101" s="55"/>
+      <c r="R101" s="55"/>
+      <c r="S101" s="55"/>
+      <c r="T101" s="55"/>
+      <c r="U101" s="55"/>
+      <c r="V101" s="55"/>
+      <c r="W101" s="55"/>
+      <c r="X101" s="55"/>
+      <c r="Y101" s="55"/>
+      <c r="Z101" s="55"/>
+      <c r="AA101" s="55"/>
+      <c r="AB101" s="55"/>
+      <c r="AC101" s="55"/>
+      <c r="AD101" s="55"/>
+      <c r="AE101" s="55"/>
+      <c r="AF101" s="55"/>
+      <c r="AG101" s="55"/>
+      <c r="AH101" s="55"/>
+      <c r="AI101" s="55"/>
     </row>
     <row r="102" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="B102" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="C102" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="D102" s="65"/>
-      <c r="E102" s="65"/>
-      <c r="F102" s="66"/>
-      <c r="G102" s="66" t="s">
-        <v>243</v>
-      </c>
-      <c r="H102" s="65"/>
-      <c r="I102" s="66"/>
-      <c r="J102" s="66"/>
-      <c r="K102" s="66"/>
-      <c r="L102" s="66"/>
-      <c r="M102" s="64"/>
-      <c r="N102" s="64"/>
-      <c r="O102" s="64"/>
-      <c r="P102" s="64"/>
-      <c r="Q102" s="64"/>
-      <c r="R102" s="64"/>
-      <c r="S102" s="64"/>
-      <c r="T102" s="64"/>
-      <c r="U102" s="66"/>
-      <c r="V102" s="64"/>
-      <c r="W102" s="66"/>
-      <c r="X102" s="66"/>
-      <c r="Y102" s="66"/>
-      <c r="Z102" s="66"/>
-      <c r="AA102" s="66"/>
-      <c r="AB102" s="66"/>
-      <c r="AC102" s="66"/>
-      <c r="AD102" s="66"/>
-      <c r="AE102" s="66" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF102" s="66"/>
-      <c r="AG102" s="66"/>
-      <c r="AH102" s="66"/>
-      <c r="AI102" s="66"/>
-    </row>
-    <row r="103" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="67" t="s">
-        <v>244</v>
-      </c>
-      <c r="B103" s="67" t="s">
-        <v>245</v>
-      </c>
-      <c r="C103" s="64" t="s">
-        <v>246</v>
-      </c>
-      <c r="D103" s="66"/>
-      <c r="E103" s="66"/>
-      <c r="F103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="66"/>
-      <c r="J103" s="66"/>
-      <c r="K103" s="66"/>
-      <c r="L103" s="66"/>
-      <c r="M103" s="66"/>
-      <c r="N103" s="66"/>
-      <c r="O103" s="66"/>
-      <c r="P103" s="66"/>
-      <c r="Q103" s="66"/>
-      <c r="R103" s="66"/>
-      <c r="S103" s="66"/>
-      <c r="T103" s="66"/>
-      <c r="U103" s="66"/>
-      <c r="V103" s="66"/>
-      <c r="W103" s="66"/>
-      <c r="X103" s="66"/>
-      <c r="Y103" s="66"/>
-      <c r="Z103" s="66"/>
-      <c r="AA103" s="66"/>
-      <c r="AB103" s="66"/>
-      <c r="AC103" s="66"/>
-      <c r="AD103" s="66"/>
-      <c r="AE103" s="66"/>
-      <c r="AF103" s="66"/>
-      <c r="AG103" s="66"/>
-      <c r="AH103" s="66"/>
-      <c r="AI103" s="66"/>
-    </row>
-    <row r="104" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="B104" s="63" t="s">
-        <v>247</v>
-      </c>
-      <c r="C104" s="64" t="s">
-        <v>248</v>
-      </c>
-      <c r="D104" s="66"/>
-      <c r="E104" s="66"/>
-      <c r="F104" s="66"/>
-      <c r="G104" s="64" t="s">
-        <v>249</v>
-      </c>
-      <c r="H104" s="66"/>
-      <c r="I104" s="66"/>
-      <c r="J104" s="66"/>
-      <c r="K104" s="64"/>
-      <c r="L104" s="66"/>
-      <c r="M104" s="66"/>
-      <c r="N104" s="66"/>
-      <c r="O104" s="66"/>
-      <c r="P104" s="66"/>
-      <c r="Q104" s="66"/>
-      <c r="R104" s="66"/>
-      <c r="S104" s="66"/>
-      <c r="T104" s="66"/>
-      <c r="U104" s="66"/>
-      <c r="V104" s="66"/>
-      <c r="W104" s="66"/>
-      <c r="X104" s="66"/>
-      <c r="Y104" s="66"/>
-      <c r="Z104" s="66"/>
-      <c r="AA104" s="66"/>
-      <c r="AB104" s="66"/>
-      <c r="AC104" s="66"/>
-      <c r="AD104" s="66"/>
-      <c r="AE104" s="66"/>
-      <c r="AF104" s="66"/>
-      <c r="AG104" s="66"/>
-      <c r="AH104" s="66"/>
-      <c r="AI104" s="66"/>
+      <c r="A102" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B102" s="73"/>
+      <c r="C102" s="51"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="40"/>
+      <c r="G102" s="40"/>
+      <c r="H102" s="40"/>
+      <c r="I102" s="55"/>
+      <c r="J102" s="55"/>
+      <c r="K102" s="55"/>
+      <c r="L102" s="55"/>
+      <c r="M102" s="51"/>
+      <c r="N102" s="51"/>
+      <c r="O102" s="51"/>
+      <c r="P102" s="51"/>
+      <c r="Q102" s="51"/>
+      <c r="R102" s="51"/>
+      <c r="S102" s="51"/>
+      <c r="T102" s="51"/>
+      <c r="U102" s="55"/>
+      <c r="V102" s="51"/>
+      <c r="W102" s="55"/>
+      <c r="X102" s="55"/>
+      <c r="Y102" s="55"/>
+      <c r="Z102" s="55"/>
+      <c r="AA102" s="55"/>
+      <c r="AB102" s="55"/>
+      <c r="AC102" s="55"/>
+      <c r="AD102" s="55"/>
+      <c r="AE102" s="55"/>
+      <c r="AF102" s="55"/>
+      <c r="AG102" s="55"/>
+      <c r="AH102" s="55"/>
+      <c r="AI102" s="55"/>
+    </row>
+    <row r="103" spans="1:35" s="78" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="54"/>
+      <c r="B103" s="54"/>
+      <c r="C103" s="54"/>
+      <c r="D103" s="53"/>
+      <c r="E103" s="81"/>
+      <c r="F103" s="53"/>
+      <c r="G103" s="53"/>
+      <c r="H103" s="53"/>
+      <c r="I103" s="81"/>
+      <c r="J103" s="81"/>
+      <c r="K103" s="81"/>
+      <c r="L103" s="81"/>
+      <c r="M103" s="54"/>
+      <c r="N103" s="54"/>
+      <c r="O103" s="54"/>
+      <c r="P103" s="54"/>
+      <c r="Q103" s="54"/>
+      <c r="R103" s="54"/>
+      <c r="S103" s="54"/>
+      <c r="T103" s="54"/>
+      <c r="U103" s="81"/>
+      <c r="V103" s="54"/>
+      <c r="W103" s="81"/>
+      <c r="X103" s="81"/>
+      <c r="Y103" s="81"/>
+      <c r="Z103" s="81"/>
+      <c r="AA103" s="81"/>
+      <c r="AB103" s="81"/>
+      <c r="AC103" s="81"/>
+      <c r="AD103" s="81"/>
+      <c r="AE103" s="81"/>
+      <c r="AF103" s="81"/>
+      <c r="AG103" s="81"/>
+      <c r="AH103" s="81"/>
+      <c r="AI103" s="81"/>
     </row>
     <row r="105" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="63" t="s">
-        <v>244</v>
+        <v>32</v>
       </c>
       <c r="B105" s="63" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C105" s="64" t="s">
-        <v>251</v>
-      </c>
-      <c r="D105" s="66"/>
-      <c r="E105" s="66"/>
+        <v>35</v>
+      </c>
+      <c r="D105" s="65"/>
+      <c r="E105" s="65"/>
       <c r="F105" s="66"/>
-      <c r="G105" s="64"/>
-      <c r="H105" s="66"/>
+      <c r="G105" s="66" t="s">
+        <v>240</v>
+      </c>
+      <c r="H105" s="65"/>
       <c r="I105" s="66"/>
       <c r="J105" s="66"/>
-      <c r="K105" s="64"/>
+      <c r="K105" s="66"/>
       <c r="L105" s="66"/>
-      <c r="M105" s="66"/>
-      <c r="N105" s="66"/>
-      <c r="O105" s="66"/>
-      <c r="P105" s="66"/>
-      <c r="Q105" s="66"/>
-      <c r="R105" s="66"/>
-      <c r="S105" s="66"/>
-      <c r="T105" s="66"/>
+      <c r="M105" s="64"/>
+      <c r="N105" s="64"/>
+      <c r="O105" s="64"/>
+      <c r="P105" s="64"/>
+      <c r="Q105" s="64"/>
+      <c r="R105" s="64"/>
+      <c r="S105" s="64"/>
+      <c r="T105" s="64"/>
       <c r="U105" s="66"/>
-      <c r="V105" s="66"/>
+      <c r="V105" s="64"/>
       <c r="W105" s="66"/>
       <c r="X105" s="66"/>
       <c r="Y105" s="66"/>
@@ -5961,32 +5975,32 @@
       <c r="AB105" s="66"/>
       <c r="AC105" s="66"/>
       <c r="AD105" s="66"/>
-      <c r="AE105" s="66"/>
+      <c r="AE105" s="66" t="s">
+        <v>39</v>
+      </c>
       <c r="AF105" s="66"/>
       <c r="AG105" s="66"/>
       <c r="AH105" s="66"/>
       <c r="AI105" s="66"/>
     </row>
     <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="B106" s="63" t="s">
-        <v>252</v>
+      <c r="A106" s="67" t="s">
+        <v>241</v>
+      </c>
+      <c r="B106" s="67" t="s">
+        <v>242</v>
       </c>
       <c r="C106" s="64" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D106" s="66"/>
       <c r="E106" s="66"/>
       <c r="F106" s="66"/>
-      <c r="G106" s="64" t="s">
-        <v>249</v>
-      </c>
+      <c r="G106" s="66"/>
       <c r="H106" s="66"/>
       <c r="I106" s="66"/>
       <c r="J106" s="66"/>
-      <c r="K106" s="64"/>
+      <c r="K106" s="66"/>
       <c r="L106" s="66"/>
       <c r="M106" s="66"/>
       <c r="N106" s="66"/>
@@ -6014,23 +6028,23 @@
     </row>
     <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="B107" s="63" t="s">
         <v>244</v>
       </c>
-      <c r="B107" s="63" t="s">
-        <v>254</v>
-      </c>
-      <c r="C107" s="66" t="s">
-        <v>255</v>
+      <c r="C107" s="64" t="s">
+        <v>245</v>
       </c>
       <c r="D107" s="66"/>
       <c r="E107" s="66"/>
-      <c r="F107" s="65"/>
+      <c r="F107" s="66"/>
       <c r="G107" s="64" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="H107" s="66"/>
       <c r="I107" s="66"/>
-      <c r="J107" s="65"/>
+      <c r="J107" s="66"/>
       <c r="K107" s="64"/>
       <c r="L107" s="66"/>
       <c r="M107" s="66"/>
@@ -6059,37 +6073,33 @@
     </row>
     <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B108" s="63" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C108" s="64" t="s">
-        <v>258</v>
-      </c>
-      <c r="D108" s="65"/>
-      <c r="E108" s="65"/>
-      <c r="F108" s="64" t="s">
-        <v>292</v>
-      </c>
-      <c r="G108" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="H108" s="65"/>
+        <v>248</v>
+      </c>
+      <c r="D108" s="66"/>
+      <c r="E108" s="66"/>
+      <c r="F108" s="66"/>
+      <c r="G108" s="64"/>
+      <c r="H108" s="66"/>
       <c r="I108" s="66"/>
-      <c r="J108" s="64"/>
-      <c r="K108" s="66"/>
+      <c r="J108" s="66"/>
+      <c r="K108" s="64"/>
       <c r="L108" s="66"/>
-      <c r="M108" s="64"/>
-      <c r="N108" s="64"/>
-      <c r="O108" s="64"/>
-      <c r="P108" s="64"/>
-      <c r="Q108" s="64"/>
-      <c r="R108" s="64"/>
-      <c r="S108" s="64"/>
-      <c r="T108" s="64"/>
+      <c r="M108" s="66"/>
+      <c r="N108" s="66"/>
+      <c r="O108" s="66"/>
+      <c r="P108" s="66"/>
+      <c r="Q108" s="66"/>
+      <c r="R108" s="66"/>
+      <c r="S108" s="66"/>
+      <c r="T108" s="66"/>
       <c r="U108" s="66"/>
-      <c r="V108" s="64"/>
+      <c r="V108" s="66"/>
       <c r="W108" s="66"/>
       <c r="X108" s="66"/>
       <c r="Y108" s="66"/>
@@ -6106,37 +6116,35 @@
     </row>
     <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B109" s="63" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="C109" s="64" t="s">
-        <v>261</v>
-      </c>
-      <c r="D109" s="65"/>
-      <c r="E109" s="65"/>
-      <c r="F109" s="64" t="s">
-        <v>293</v>
-      </c>
-      <c r="G109" s="66" t="s">
-        <v>259</v>
-      </c>
-      <c r="H109" s="65"/>
+        <v>250</v>
+      </c>
+      <c r="D109" s="66"/>
+      <c r="E109" s="66"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="64" t="s">
+        <v>246</v>
+      </c>
+      <c r="H109" s="66"/>
       <c r="I109" s="66"/>
-      <c r="J109" s="64"/>
-      <c r="K109" s="66"/>
+      <c r="J109" s="66"/>
+      <c r="K109" s="64"/>
       <c r="L109" s="66"/>
-      <c r="M109" s="64"/>
-      <c r="N109" s="64"/>
-      <c r="O109" s="64"/>
-      <c r="P109" s="64"/>
-      <c r="Q109" s="64"/>
-      <c r="R109" s="64"/>
-      <c r="S109" s="64"/>
-      <c r="T109" s="64"/>
+      <c r="M109" s="66"/>
+      <c r="N109" s="66"/>
+      <c r="O109" s="66"/>
+      <c r="P109" s="66"/>
+      <c r="Q109" s="66"/>
+      <c r="R109" s="66"/>
+      <c r="S109" s="66"/>
+      <c r="T109" s="66"/>
       <c r="U109" s="66"/>
-      <c r="V109" s="64"/>
+      <c r="V109" s="66"/>
       <c r="W109" s="66"/>
       <c r="X109" s="66"/>
       <c r="Y109" s="66"/>
@@ -6153,25 +6161,23 @@
     </row>
     <row r="110" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B110" s="63" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="C110" s="66" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="D110" s="66"/>
       <c r="E110" s="66"/>
-      <c r="F110" s="64" t="s">
-        <v>293</v>
-      </c>
+      <c r="F110" s="65"/>
       <c r="G110" s="64" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="H110" s="66"/>
       <c r="I110" s="66"/>
-      <c r="J110" s="64"/>
+      <c r="J110" s="65"/>
       <c r="K110" s="64"/>
       <c r="L110" s="66"/>
       <c r="M110" s="66"/>
@@ -6200,21 +6206,21 @@
     </row>
     <row r="111" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B111" s="63" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C111" s="64" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="D111" s="65"/>
       <c r="E111" s="65"/>
       <c r="F111" s="64" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="G111" s="66" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H111" s="65"/>
       <c r="I111" s="66"/>
@@ -6247,21 +6253,21 @@
     </row>
     <row r="112" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B112" s="63" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C112" s="64" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="D112" s="65"/>
       <c r="E112" s="65"/>
       <c r="F112" s="64" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G112" s="66" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H112" s="65"/>
       <c r="I112" s="66"/>
@@ -6294,37 +6300,37 @@
     </row>
     <row r="113" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B113" s="63" t="s">
-        <v>268</v>
-      </c>
-      <c r="C113" s="64" t="s">
-        <v>269</v>
-      </c>
-      <c r="D113" s="65"/>
-      <c r="E113" s="65"/>
+        <v>259</v>
+      </c>
+      <c r="C113" s="66" t="s">
+        <v>260</v>
+      </c>
+      <c r="D113" s="66"/>
+      <c r="E113" s="66"/>
       <c r="F113" s="64" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G113" s="64" t="s">
-        <v>256</v>
-      </c>
-      <c r="H113" s="65"/>
+        <v>253</v>
+      </c>
+      <c r="H113" s="66"/>
       <c r="I113" s="66"/>
       <c r="J113" s="64"/>
       <c r="K113" s="64"/>
       <c r="L113" s="66"/>
-      <c r="M113" s="64"/>
-      <c r="N113" s="64"/>
-      <c r="O113" s="64"/>
-      <c r="P113" s="64"/>
-      <c r="Q113" s="64"/>
-      <c r="R113" s="64"/>
-      <c r="S113" s="64"/>
-      <c r="T113" s="64"/>
+      <c r="M113" s="66"/>
+      <c r="N113" s="66"/>
+      <c r="O113" s="66"/>
+      <c r="P113" s="66"/>
+      <c r="Q113" s="66"/>
+      <c r="R113" s="66"/>
+      <c r="S113" s="66"/>
+      <c r="T113" s="66"/>
       <c r="U113" s="66"/>
-      <c r="V113" s="64"/>
+      <c r="V113" s="66"/>
       <c r="W113" s="66"/>
       <c r="X113" s="66"/>
       <c r="Y113" s="66"/>
@@ -6341,37 +6347,37 @@
     </row>
     <row r="114" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B114" s="63" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C114" s="64" t="s">
-        <v>271</v>
-      </c>
-      <c r="D114" s="66"/>
-      <c r="E114" s="66"/>
+        <v>262</v>
+      </c>
+      <c r="D114" s="65"/>
+      <c r="E114" s="65"/>
       <c r="F114" s="64" t="s">
-        <v>241</v>
-      </c>
-      <c r="G114" s="64" t="s">
-        <v>259</v>
-      </c>
-      <c r="H114" s="66"/>
+        <v>290</v>
+      </c>
+      <c r="G114" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="H114" s="65"/>
       <c r="I114" s="66"/>
       <c r="J114" s="64"/>
-      <c r="K114" s="64"/>
+      <c r="K114" s="66"/>
       <c r="L114" s="66"/>
-      <c r="M114" s="66"/>
-      <c r="N114" s="66"/>
-      <c r="O114" s="66"/>
-      <c r="P114" s="66"/>
-      <c r="Q114" s="66"/>
-      <c r="R114" s="66"/>
-      <c r="S114" s="66"/>
-      <c r="T114" s="66"/>
+      <c r="M114" s="64"/>
+      <c r="N114" s="64"/>
+      <c r="O114" s="64"/>
+      <c r="P114" s="64"/>
+      <c r="Q114" s="64"/>
+      <c r="R114" s="64"/>
+      <c r="S114" s="64"/>
+      <c r="T114" s="64"/>
       <c r="U114" s="66"/>
-      <c r="V114" s="66"/>
+      <c r="V114" s="64"/>
       <c r="W114" s="66"/>
       <c r="X114" s="66"/>
       <c r="Y114" s="66"/>
@@ -6388,37 +6394,37 @@
     </row>
     <row r="115" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B115" s="63" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C115" s="64" t="s">
-        <v>273</v>
-      </c>
-      <c r="D115" s="66"/>
-      <c r="E115" s="66"/>
+        <v>264</v>
+      </c>
+      <c r="D115" s="65"/>
+      <c r="E115" s="65"/>
       <c r="F115" s="64" t="s">
-        <v>295</v>
-      </c>
-      <c r="G115" s="64" t="s">
-        <v>259</v>
-      </c>
-      <c r="H115" s="66"/>
+        <v>290</v>
+      </c>
+      <c r="G115" s="66" t="s">
+        <v>256</v>
+      </c>
+      <c r="H115" s="65"/>
       <c r="I115" s="66"/>
       <c r="J115" s="64"/>
-      <c r="K115" s="64"/>
+      <c r="K115" s="66"/>
       <c r="L115" s="66"/>
-      <c r="M115" s="66"/>
-      <c r="N115" s="66"/>
-      <c r="O115" s="66"/>
-      <c r="P115" s="66"/>
-      <c r="Q115" s="66"/>
-      <c r="R115" s="66"/>
-      <c r="S115" s="66"/>
-      <c r="T115" s="66"/>
+      <c r="M115" s="64"/>
+      <c r="N115" s="64"/>
+      <c r="O115" s="64"/>
+      <c r="P115" s="64"/>
+      <c r="Q115" s="64"/>
+      <c r="R115" s="64"/>
+      <c r="S115" s="64"/>
+      <c r="T115" s="64"/>
       <c r="U115" s="66"/>
-      <c r="V115" s="66"/>
+      <c r="V115" s="64"/>
       <c r="W115" s="66"/>
       <c r="X115" s="66"/>
       <c r="Y115" s="66"/>
@@ -6435,37 +6441,37 @@
     </row>
     <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B116" s="63" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C116" s="64" t="s">
-        <v>275</v>
-      </c>
-      <c r="D116" s="66"/>
-      <c r="E116" s="66"/>
+        <v>266</v>
+      </c>
+      <c r="D116" s="65"/>
+      <c r="E116" s="65"/>
       <c r="F116" s="64" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="G116" s="64" t="s">
-        <v>259</v>
-      </c>
-      <c r="H116" s="66"/>
+        <v>253</v>
+      </c>
+      <c r="H116" s="65"/>
       <c r="I116" s="66"/>
       <c r="J116" s="64"/>
       <c r="K116" s="64"/>
       <c r="L116" s="66"/>
-      <c r="M116" s="66"/>
-      <c r="N116" s="66"/>
-      <c r="O116" s="66"/>
-      <c r="P116" s="66"/>
-      <c r="Q116" s="66"/>
-      <c r="R116" s="66"/>
-      <c r="S116" s="66"/>
-      <c r="T116" s="66"/>
+      <c r="M116" s="64"/>
+      <c r="N116" s="64"/>
+      <c r="O116" s="64"/>
+      <c r="P116" s="64"/>
+      <c r="Q116" s="64"/>
+      <c r="R116" s="64"/>
+      <c r="S116" s="64"/>
+      <c r="T116" s="64"/>
       <c r="U116" s="66"/>
-      <c r="V116" s="66"/>
+      <c r="V116" s="64"/>
       <c r="W116" s="66"/>
       <c r="X116" s="66"/>
       <c r="Y116" s="66"/>
@@ -6482,21 +6488,21 @@
     </row>
     <row r="117" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B117" s="63" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C117" s="64" t="s">
-        <v>176</v>
+        <v>268</v>
       </c>
       <c r="D117" s="66"/>
       <c r="E117" s="66"/>
       <c r="F117" s="64" t="s">
-        <v>297</v>
+        <v>238</v>
       </c>
       <c r="G117" s="64" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H117" s="66"/>
       <c r="I117" s="66"/>
@@ -6529,21 +6535,21 @@
     </row>
     <row r="118" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B118" s="63" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C118" s="64" t="s">
-        <v>178</v>
+        <v>270</v>
       </c>
       <c r="D118" s="66"/>
       <c r="E118" s="66"/>
       <c r="F118" s="64" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G118" s="64" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H118" s="66"/>
       <c r="I118" s="66"/>
@@ -6576,21 +6582,21 @@
     </row>
     <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B119" s="63" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="C119" s="64" t="s">
-        <v>180</v>
+        <v>272</v>
       </c>
       <c r="D119" s="66"/>
       <c r="E119" s="66"/>
       <c r="F119" s="64" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="G119" s="64" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H119" s="66"/>
       <c r="I119" s="66"/>
@@ -6623,21 +6629,21 @@
     </row>
     <row r="120" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B120" s="63" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="C120" s="64" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D120" s="66"/>
       <c r="E120" s="66"/>
       <c r="F120" s="64" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G120" s="64" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H120" s="66"/>
       <c r="I120" s="66"/>
@@ -6670,21 +6676,21 @@
     </row>
     <row r="121" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B121" s="63" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C121" s="64" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D121" s="66"/>
       <c r="E121" s="66"/>
       <c r="F121" s="64" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="G121" s="64" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H121" s="66"/>
       <c r="I121" s="66"/>
@@ -6717,21 +6723,21 @@
     </row>
     <row r="122" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B122" s="63" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="C122" s="64" t="s">
-        <v>282</v>
+        <v>180</v>
       </c>
       <c r="D122" s="66"/>
       <c r="E122" s="66"/>
       <c r="F122" s="64" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G122" s="64" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H122" s="66"/>
       <c r="I122" s="66"/>
@@ -6764,21 +6770,21 @@
     </row>
     <row r="123" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B123" s="63" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C123" s="64" t="s">
-        <v>284</v>
+        <v>182</v>
       </c>
       <c r="D123" s="66"/>
       <c r="E123" s="66"/>
       <c r="F123" s="64" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G123" s="64" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="H123" s="66"/>
       <c r="I123" s="66"/>
@@ -6811,20 +6817,22 @@
     </row>
     <row r="124" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B124" s="63" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="C124" s="64" t="s">
-        <v>287</v>
+        <v>184</v>
       </c>
       <c r="D124" s="66"/>
       <c r="E124" s="66"/>
       <c r="F124" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="G124" s="64"/>
+        <v>298</v>
+      </c>
+      <c r="G124" s="64" t="s">
+        <v>256</v>
+      </c>
       <c r="H124" s="66"/>
       <c r="I124" s="66"/>
       <c r="J124" s="64"/>
@@ -6856,20 +6864,22 @@
     </row>
     <row r="125" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B125" s="63" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C125" s="64" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="D125" s="66"/>
       <c r="E125" s="66"/>
       <c r="F125" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="G125" s="64"/>
+        <v>291</v>
+      </c>
+      <c r="G125" s="64" t="s">
+        <v>256</v>
+      </c>
       <c r="H125" s="66"/>
       <c r="I125" s="66"/>
       <c r="J125" s="64"/>
@@ -6901,20 +6911,22 @@
     </row>
     <row r="126" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="63" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B126" s="63" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C126" s="64" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D126" s="66"/>
       <c r="E126" s="66"/>
       <c r="F126" s="64" t="s">
-        <v>294</v>
-      </c>
-      <c r="G126" s="64"/>
+        <v>291</v>
+      </c>
+      <c r="G126" s="64" t="s">
+        <v>282</v>
+      </c>
       <c r="H126" s="66"/>
       <c r="I126" s="66"/>
       <c r="J126" s="64"/>
@@ -6946,29 +6958,35 @@
     </row>
     <row r="127" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="B127" s="63"/>
-      <c r="C127" s="64"/>
-      <c r="D127" s="65"/>
-      <c r="E127" s="65"/>
-      <c r="F127" s="66"/>
-      <c r="G127" s="66"/>
-      <c r="H127" s="65"/>
+        <v>241</v>
+      </c>
+      <c r="B127" s="63" t="s">
+        <v>283</v>
+      </c>
+      <c r="C127" s="64" t="s">
+        <v>284</v>
+      </c>
+      <c r="D127" s="66"/>
+      <c r="E127" s="66"/>
+      <c r="F127" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="G127" s="64"/>
+      <c r="H127" s="66"/>
       <c r="I127" s="66"/>
-      <c r="J127" s="66"/>
-      <c r="K127" s="66"/>
+      <c r="J127" s="64"/>
+      <c r="K127" s="64"/>
       <c r="L127" s="66"/>
-      <c r="M127" s="64"/>
-      <c r="N127" s="64"/>
-      <c r="O127" s="64"/>
-      <c r="P127" s="64"/>
-      <c r="Q127" s="64"/>
-      <c r="R127" s="64"/>
-      <c r="S127" s="64"/>
-      <c r="T127" s="64"/>
+      <c r="M127" s="66"/>
+      <c r="N127" s="66"/>
+      <c r="O127" s="66"/>
+      <c r="P127" s="66"/>
+      <c r="Q127" s="66"/>
+      <c r="R127" s="66"/>
+      <c r="S127" s="66"/>
+      <c r="T127" s="66"/>
       <c r="U127" s="66"/>
-      <c r="V127" s="64"/>
+      <c r="V127" s="66"/>
       <c r="W127" s="66"/>
       <c r="X127" s="66"/>
       <c r="Y127" s="66"/>
@@ -6984,139 +7002,157 @@
       <c r="AI127" s="66"/>
     </row>
     <row r="128" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="35"/>
-      <c r="B128" s="35"/>
-      <c r="C128" s="35"/>
-      <c r="E128" s="35"/>
-      <c r="AE128" s="35"/>
-      <c r="AF128" s="35"/>
-      <c r="AG128" s="35"/>
-      <c r="AH128" s="35"/>
-      <c r="AI128" s="35"/>
+      <c r="A128" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="B128" s="63" t="s">
+        <v>285</v>
+      </c>
+      <c r="C128" s="64" t="s">
+        <v>286</v>
+      </c>
+      <c r="D128" s="66"/>
+      <c r="E128" s="66"/>
+      <c r="F128" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="G128" s="64"/>
+      <c r="H128" s="66"/>
+      <c r="I128" s="66"/>
+      <c r="J128" s="64"/>
+      <c r="K128" s="64"/>
+      <c r="L128" s="66"/>
+      <c r="M128" s="66"/>
+      <c r="N128" s="66"/>
+      <c r="O128" s="66"/>
+      <c r="P128" s="66"/>
+      <c r="Q128" s="66"/>
+      <c r="R128" s="66"/>
+      <c r="S128" s="66"/>
+      <c r="T128" s="66"/>
+      <c r="U128" s="66"/>
+      <c r="V128" s="66"/>
+      <c r="W128" s="66"/>
+      <c r="X128" s="66"/>
+      <c r="Y128" s="66"/>
+      <c r="Z128" s="66"/>
+      <c r="AA128" s="66"/>
+      <c r="AB128" s="66"/>
+      <c r="AC128" s="66"/>
+      <c r="AD128" s="66"/>
+      <c r="AE128" s="66"/>
+      <c r="AF128" s="66"/>
+      <c r="AG128" s="66"/>
+      <c r="AH128" s="66"/>
+      <c r="AI128" s="66"/>
     </row>
     <row r="129" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="68"/>
-      <c r="B129" s="68"/>
-      <c r="C129" s="69"/>
-      <c r="D129" s="69"/>
-      <c r="E129" s="69"/>
-      <c r="F129" s="69"/>
-      <c r="G129" s="70"/>
-      <c r="H129" s="69"/>
-      <c r="I129" s="69"/>
-      <c r="J129" s="69"/>
-      <c r="K129" s="70"/>
-      <c r="L129" s="69"/>
-      <c r="M129" s="69"/>
-      <c r="N129" s="69"/>
-      <c r="O129" s="69"/>
-      <c r="P129" s="69"/>
-      <c r="Q129" s="69"/>
-      <c r="R129" s="69"/>
-      <c r="S129" s="69"/>
-      <c r="T129" s="69"/>
-      <c r="U129" s="69"/>
-      <c r="V129" s="69"/>
-      <c r="W129" s="69"/>
-      <c r="X129" s="69"/>
-      <c r="Y129" s="69"/>
-      <c r="Z129" s="69"/>
-      <c r="AA129" s="69"/>
-      <c r="AB129" s="69"/>
-      <c r="AC129" s="69"/>
-      <c r="AD129" s="69"/>
-      <c r="AE129" s="70"/>
-      <c r="AF129" s="69"/>
-      <c r="AG129" s="69"/>
-      <c r="AH129" s="69"/>
-      <c r="AI129" s="69"/>
+      <c r="A129" s="63" t="s">
+        <v>241</v>
+      </c>
+      <c r="B129" s="63" t="s">
+        <v>287</v>
+      </c>
+      <c r="C129" s="64" t="s">
+        <v>288</v>
+      </c>
+      <c r="D129" s="66"/>
+      <c r="E129" s="66"/>
+      <c r="F129" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="G129" s="64"/>
+      <c r="H129" s="66"/>
+      <c r="I129" s="66"/>
+      <c r="J129" s="64"/>
+      <c r="K129" s="64"/>
+      <c r="L129" s="66"/>
+      <c r="M129" s="66"/>
+      <c r="N129" s="66"/>
+      <c r="O129" s="66"/>
+      <c r="P129" s="66"/>
+      <c r="Q129" s="66"/>
+      <c r="R129" s="66"/>
+      <c r="S129" s="66"/>
+      <c r="T129" s="66"/>
+      <c r="U129" s="66"/>
+      <c r="V129" s="66"/>
+      <c r="W129" s="66"/>
+      <c r="X129" s="66"/>
+      <c r="Y129" s="66"/>
+      <c r="Z129" s="66"/>
+      <c r="AA129" s="66"/>
+      <c r="AB129" s="66"/>
+      <c r="AC129" s="66"/>
+      <c r="AD129" s="66"/>
+      <c r="AE129" s="66"/>
+      <c r="AF129" s="66"/>
+      <c r="AG129" s="66"/>
+      <c r="AH129" s="66"/>
+      <c r="AI129" s="66"/>
     </row>
     <row r="130" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="68"/>
-      <c r="B130" s="71"/>
-      <c r="C130" s="69"/>
-      <c r="D130" s="69"/>
-      <c r="E130" s="69"/>
-      <c r="F130" s="69"/>
-      <c r="G130" s="69"/>
-      <c r="H130" s="69"/>
-      <c r="I130" s="69"/>
-      <c r="J130" s="69"/>
-      <c r="K130" s="69"/>
-      <c r="L130" s="69"/>
-      <c r="M130" s="69"/>
-      <c r="N130" s="69"/>
-      <c r="O130" s="69"/>
-      <c r="P130" s="69"/>
-      <c r="Q130" s="69"/>
-      <c r="R130" s="69"/>
-      <c r="S130" s="69"/>
-      <c r="T130" s="69"/>
-      <c r="U130" s="69"/>
-      <c r="V130" s="69"/>
-      <c r="W130" s="69"/>
-      <c r="X130" s="69"/>
-      <c r="Y130" s="69"/>
-      <c r="Z130" s="69"/>
-      <c r="AA130" s="69"/>
-      <c r="AB130" s="69"/>
-      <c r="AC130" s="69"/>
-      <c r="AD130" s="69"/>
-      <c r="AE130" s="69"/>
-      <c r="AF130" s="69"/>
-      <c r="AG130" s="70"/>
-      <c r="AH130" s="69"/>
-      <c r="AI130" s="69"/>
+      <c r="A130" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="B130" s="63"/>
+      <c r="C130" s="64"/>
+      <c r="D130" s="65"/>
+      <c r="E130" s="65"/>
+      <c r="F130" s="66"/>
+      <c r="G130" s="66"/>
+      <c r="H130" s="65"/>
+      <c r="I130" s="66"/>
+      <c r="J130" s="66"/>
+      <c r="K130" s="66"/>
+      <c r="L130" s="66"/>
+      <c r="M130" s="64"/>
+      <c r="N130" s="64"/>
+      <c r="O130" s="64"/>
+      <c r="P130" s="64"/>
+      <c r="Q130" s="64"/>
+      <c r="R130" s="64"/>
+      <c r="S130" s="64"/>
+      <c r="T130" s="64"/>
+      <c r="U130" s="66"/>
+      <c r="V130" s="64"/>
+      <c r="W130" s="66"/>
+      <c r="X130" s="66"/>
+      <c r="Y130" s="66"/>
+      <c r="Z130" s="66"/>
+      <c r="AA130" s="66"/>
+      <c r="AB130" s="66"/>
+      <c r="AC130" s="66"/>
+      <c r="AD130" s="66"/>
+      <c r="AE130" s="66"/>
+      <c r="AF130" s="66"/>
+      <c r="AG130" s="66"/>
+      <c r="AH130" s="66"/>
+      <c r="AI130" s="66"/>
     </row>
     <row r="131" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="68"/>
-      <c r="B131" s="71"/>
-      <c r="C131" s="69"/>
-      <c r="D131" s="69"/>
-      <c r="E131" s="69"/>
-      <c r="F131" s="69"/>
-      <c r="G131" s="69"/>
-      <c r="H131" s="69"/>
-      <c r="I131" s="69"/>
-      <c r="J131" s="69"/>
-      <c r="K131" s="69"/>
-      <c r="L131" s="69"/>
-      <c r="M131" s="69"/>
-      <c r="N131" s="69"/>
-      <c r="O131" s="69"/>
-      <c r="P131" s="69"/>
-      <c r="Q131" s="69"/>
-      <c r="R131" s="69"/>
-      <c r="S131" s="69"/>
-      <c r="T131" s="69"/>
-      <c r="U131" s="69"/>
-      <c r="V131" s="69"/>
-      <c r="W131" s="69"/>
-      <c r="X131" s="69"/>
-      <c r="Y131" s="69"/>
-      <c r="Z131" s="69"/>
-      <c r="AA131" s="69"/>
-      <c r="AB131" s="69"/>
-      <c r="AC131" s="69"/>
-      <c r="AD131" s="69"/>
-      <c r="AE131" s="69"/>
-      <c r="AF131" s="69"/>
-      <c r="AG131" s="70"/>
-      <c r="AH131" s="69"/>
-      <c r="AI131" s="69"/>
+      <c r="A131" s="35"/>
+      <c r="B131" s="35"/>
+      <c r="C131" s="35"/>
+      <c r="E131" s="35"/>
+      <c r="AE131" s="35"/>
+      <c r="AF131" s="35"/>
+      <c r="AG131" s="35"/>
+      <c r="AH131" s="35"/>
+      <c r="AI131" s="35"/>
     </row>
     <row r="132" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="68"/>
-      <c r="B132" s="71"/>
+      <c r="B132" s="68"/>
       <c r="C132" s="69"/>
       <c r="D132" s="69"/>
       <c r="E132" s="69"/>
       <c r="F132" s="69"/>
-      <c r="G132" s="69"/>
+      <c r="G132" s="70"/>
       <c r="H132" s="69"/>
       <c r="I132" s="69"/>
       <c r="J132" s="69"/>
-      <c r="K132" s="69"/>
+      <c r="K132" s="70"/>
       <c r="L132" s="69"/>
       <c r="M132" s="69"/>
       <c r="N132" s="69"/>
@@ -7136,9 +7172,9 @@
       <c r="AB132" s="69"/>
       <c r="AC132" s="69"/>
       <c r="AD132" s="69"/>
-      <c r="AE132" s="69"/>
+      <c r="AE132" s="70"/>
       <c r="AF132" s="69"/>
-      <c r="AG132" s="70"/>
+      <c r="AG132" s="69"/>
       <c r="AH132" s="69"/>
       <c r="AI132" s="69"/>
     </row>
@@ -7439,41 +7475,41 @@
       <c r="AI140" s="69"/>
     </row>
     <row r="141" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="72"/>
-      <c r="B141" s="72"/>
+      <c r="A141" s="68"/>
+      <c r="B141" s="71"/>
       <c r="C141" s="69"/>
-      <c r="D141" s="70"/>
-      <c r="E141" s="70"/>
-      <c r="F141" s="70"/>
-      <c r="G141" s="70"/>
-      <c r="H141" s="70"/>
-      <c r="I141" s="70"/>
-      <c r="J141" s="70"/>
-      <c r="K141" s="70"/>
-      <c r="L141" s="70"/>
-      <c r="M141" s="70"/>
-      <c r="N141" s="70"/>
-      <c r="O141" s="70"/>
-      <c r="P141" s="70"/>
-      <c r="Q141" s="70"/>
-      <c r="R141" s="70"/>
-      <c r="S141" s="70"/>
-      <c r="T141" s="70"/>
-      <c r="U141" s="70"/>
-      <c r="V141" s="70"/>
-      <c r="W141" s="70"/>
-      <c r="X141" s="70"/>
-      <c r="Y141" s="70"/>
-      <c r="Z141" s="70"/>
-      <c r="AA141" s="70"/>
-      <c r="AB141" s="70"/>
-      <c r="AC141" s="70"/>
-      <c r="AD141" s="70"/>
-      <c r="AE141" s="70"/>
-      <c r="AF141" s="70"/>
+      <c r="D141" s="69"/>
+      <c r="E141" s="69"/>
+      <c r="F141" s="69"/>
+      <c r="G141" s="69"/>
+      <c r="H141" s="69"/>
+      <c r="I141" s="69"/>
+      <c r="J141" s="69"/>
+      <c r="K141" s="69"/>
+      <c r="L141" s="69"/>
+      <c r="M141" s="69"/>
+      <c r="N141" s="69"/>
+      <c r="O141" s="69"/>
+      <c r="P141" s="69"/>
+      <c r="Q141" s="69"/>
+      <c r="R141" s="69"/>
+      <c r="S141" s="69"/>
+      <c r="T141" s="69"/>
+      <c r="U141" s="69"/>
+      <c r="V141" s="69"/>
+      <c r="W141" s="69"/>
+      <c r="X141" s="69"/>
+      <c r="Y141" s="69"/>
+      <c r="Z141" s="69"/>
+      <c r="AA141" s="69"/>
+      <c r="AB141" s="69"/>
+      <c r="AC141" s="69"/>
+      <c r="AD141" s="69"/>
+      <c r="AE141" s="69"/>
+      <c r="AF141" s="69"/>
       <c r="AG141" s="70"/>
-      <c r="AH141" s="70"/>
-      <c r="AI141" s="70"/>
+      <c r="AH141" s="69"/>
+      <c r="AI141" s="69"/>
     </row>
     <row r="142" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="68"/>
@@ -7495,7 +7531,7 @@
       <c r="Q142" s="69"/>
       <c r="R142" s="69"/>
       <c r="S142" s="69"/>
-      <c r="T142" s="70"/>
+      <c r="T142" s="69"/>
       <c r="U142" s="69"/>
       <c r="V142" s="69"/>
       <c r="W142" s="69"/>
@@ -7532,7 +7568,7 @@
       <c r="Q143" s="69"/>
       <c r="R143" s="69"/>
       <c r="S143" s="69"/>
-      <c r="T143" s="70"/>
+      <c r="T143" s="69"/>
       <c r="U143" s="69"/>
       <c r="V143" s="69"/>
       <c r="W143" s="69"/>
@@ -7550,41 +7586,41 @@
       <c r="AI143" s="69"/>
     </row>
     <row r="144" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="68"/>
-      <c r="B144" s="71"/>
+      <c r="A144" s="72"/>
+      <c r="B144" s="72"/>
       <c r="C144" s="69"/>
-      <c r="D144" s="69"/>
-      <c r="E144" s="69"/>
-      <c r="F144" s="69"/>
-      <c r="G144" s="69"/>
-      <c r="H144" s="69"/>
-      <c r="I144" s="69"/>
-      <c r="J144" s="69"/>
-      <c r="K144" s="69"/>
-      <c r="L144" s="69"/>
-      <c r="M144" s="69"/>
-      <c r="N144" s="69"/>
-      <c r="O144" s="69"/>
-      <c r="P144" s="69"/>
-      <c r="Q144" s="69"/>
-      <c r="R144" s="69"/>
-      <c r="S144" s="69"/>
+      <c r="D144" s="70"/>
+      <c r="E144" s="70"/>
+      <c r="F144" s="70"/>
+      <c r="G144" s="70"/>
+      <c r="H144" s="70"/>
+      <c r="I144" s="70"/>
+      <c r="J144" s="70"/>
+      <c r="K144" s="70"/>
+      <c r="L144" s="70"/>
+      <c r="M144" s="70"/>
+      <c r="N144" s="70"/>
+      <c r="O144" s="70"/>
+      <c r="P144" s="70"/>
+      <c r="Q144" s="70"/>
+      <c r="R144" s="70"/>
+      <c r="S144" s="70"/>
       <c r="T144" s="70"/>
-      <c r="U144" s="69"/>
-      <c r="V144" s="69"/>
-      <c r="W144" s="69"/>
-      <c r="X144" s="69"/>
-      <c r="Y144" s="69"/>
-      <c r="Z144" s="69"/>
-      <c r="AA144" s="69"/>
-      <c r="AB144" s="69"/>
-      <c r="AC144" s="69"/>
-      <c r="AD144" s="69"/>
-      <c r="AE144" s="69"/>
-      <c r="AF144" s="69"/>
+      <c r="U144" s="70"/>
+      <c r="V144" s="70"/>
+      <c r="W144" s="70"/>
+      <c r="X144" s="70"/>
+      <c r="Y144" s="70"/>
+      <c r="Z144" s="70"/>
+      <c r="AA144" s="70"/>
+      <c r="AB144" s="70"/>
+      <c r="AC144" s="70"/>
+      <c r="AD144" s="70"/>
+      <c r="AE144" s="70"/>
+      <c r="AF144" s="70"/>
       <c r="AG144" s="70"/>
-      <c r="AH144" s="69"/>
-      <c r="AI144" s="69"/>
+      <c r="AH144" s="70"/>
+      <c r="AI144" s="70"/>
     </row>
     <row r="145" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="68"/>
@@ -7661,89 +7697,200 @@
       <c r="AI146" s="69"/>
     </row>
     <row r="147" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="72"/>
-      <c r="B147" s="72"/>
-      <c r="C147" s="70"/>
-      <c r="D147" s="70"/>
-      <c r="E147" s="70"/>
-      <c r="F147" s="70"/>
-      <c r="G147" s="70"/>
-      <c r="H147" s="70"/>
-      <c r="I147" s="70"/>
-      <c r="J147" s="70"/>
-      <c r="K147" s="70"/>
-      <c r="L147" s="70"/>
-      <c r="M147" s="70"/>
-      <c r="N147" s="70"/>
-      <c r="O147" s="70"/>
-      <c r="P147" s="70"/>
-      <c r="Q147" s="70"/>
-      <c r="R147" s="70"/>
-      <c r="S147" s="70"/>
+      <c r="A147" s="68"/>
+      <c r="B147" s="71"/>
+      <c r="C147" s="69"/>
+      <c r="D147" s="69"/>
+      <c r="E147" s="69"/>
+      <c r="F147" s="69"/>
+      <c r="G147" s="69"/>
+      <c r="H147" s="69"/>
+      <c r="I147" s="69"/>
+      <c r="J147" s="69"/>
+      <c r="K147" s="69"/>
+      <c r="L147" s="69"/>
+      <c r="M147" s="69"/>
+      <c r="N147" s="69"/>
+      <c r="O147" s="69"/>
+      <c r="P147" s="69"/>
+      <c r="Q147" s="69"/>
+      <c r="R147" s="69"/>
+      <c r="S147" s="69"/>
       <c r="T147" s="70"/>
-      <c r="U147" s="70"/>
-      <c r="V147" s="70"/>
-      <c r="W147" s="70"/>
-      <c r="X147" s="70"/>
-      <c r="Y147" s="70"/>
-      <c r="Z147" s="70"/>
-      <c r="AA147" s="70"/>
-      <c r="AB147" s="70"/>
-      <c r="AC147" s="70"/>
-      <c r="AD147" s="70"/>
-      <c r="AE147" s="70"/>
-      <c r="AF147" s="70"/>
+      <c r="U147" s="69"/>
+      <c r="V147" s="69"/>
+      <c r="W147" s="69"/>
+      <c r="X147" s="69"/>
+      <c r="Y147" s="69"/>
+      <c r="Z147" s="69"/>
+      <c r="AA147" s="69"/>
+      <c r="AB147" s="69"/>
+      <c r="AC147" s="69"/>
+      <c r="AD147" s="69"/>
+      <c r="AE147" s="69"/>
+      <c r="AF147" s="69"/>
       <c r="AG147" s="70"/>
-      <c r="AH147" s="70"/>
-      <c r="AI147" s="70"/>
+      <c r="AH147" s="69"/>
+      <c r="AI147" s="69"/>
     </row>
     <row r="148" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="72"/>
-      <c r="B148" s="72"/>
-      <c r="C148" s="70"/>
-      <c r="D148" s="70"/>
-      <c r="E148" s="70"/>
-      <c r="F148" s="70"/>
-      <c r="G148" s="70"/>
-      <c r="H148" s="70"/>
-      <c r="I148" s="70"/>
-      <c r="J148" s="70"/>
-      <c r="K148" s="70"/>
-      <c r="L148" s="70"/>
-      <c r="M148" s="70"/>
-      <c r="N148" s="70"/>
-      <c r="O148" s="70"/>
-      <c r="P148" s="70"/>
-      <c r="Q148" s="70"/>
-      <c r="R148" s="70"/>
-      <c r="S148" s="70"/>
+      <c r="A148" s="68"/>
+      <c r="B148" s="71"/>
+      <c r="C148" s="69"/>
+      <c r="D148" s="69"/>
+      <c r="E148" s="69"/>
+      <c r="F148" s="69"/>
+      <c r="G148" s="69"/>
+      <c r="H148" s="69"/>
+      <c r="I148" s="69"/>
+      <c r="J148" s="69"/>
+      <c r="K148" s="69"/>
+      <c r="L148" s="69"/>
+      <c r="M148" s="69"/>
+      <c r="N148" s="69"/>
+      <c r="O148" s="69"/>
+      <c r="P148" s="69"/>
+      <c r="Q148" s="69"/>
+      <c r="R148" s="69"/>
+      <c r="S148" s="69"/>
       <c r="T148" s="70"/>
-      <c r="U148" s="70"/>
-      <c r="V148" s="70"/>
-      <c r="W148" s="70"/>
-      <c r="X148" s="70"/>
-      <c r="Y148" s="70"/>
-      <c r="Z148" s="70"/>
-      <c r="AA148" s="70"/>
-      <c r="AB148" s="70"/>
-      <c r="AC148" s="70"/>
-      <c r="AD148" s="70"/>
-      <c r="AE148" s="70"/>
-      <c r="AF148" s="70"/>
+      <c r="U148" s="69"/>
+      <c r="V148" s="69"/>
+      <c r="W148" s="69"/>
+      <c r="X148" s="69"/>
+      <c r="Y148" s="69"/>
+      <c r="Z148" s="69"/>
+      <c r="AA148" s="69"/>
+      <c r="AB148" s="69"/>
+      <c r="AC148" s="69"/>
+      <c r="AD148" s="69"/>
+      <c r="AE148" s="69"/>
+      <c r="AF148" s="69"/>
       <c r="AG148" s="70"/>
-      <c r="AH148" s="70"/>
-      <c r="AI148" s="70"/>
+      <c r="AH148" s="69"/>
+      <c r="AI148" s="69"/>
+    </row>
+    <row r="149" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="68"/>
+      <c r="B149" s="71"/>
+      <c r="C149" s="69"/>
+      <c r="D149" s="69"/>
+      <c r="E149" s="69"/>
+      <c r="F149" s="69"/>
+      <c r="G149" s="69"/>
+      <c r="H149" s="69"/>
+      <c r="I149" s="69"/>
+      <c r="J149" s="69"/>
+      <c r="K149" s="69"/>
+      <c r="L149" s="69"/>
+      <c r="M149" s="69"/>
+      <c r="N149" s="69"/>
+      <c r="O149" s="69"/>
+      <c r="P149" s="69"/>
+      <c r="Q149" s="69"/>
+      <c r="R149" s="69"/>
+      <c r="S149" s="69"/>
+      <c r="T149" s="70"/>
+      <c r="U149" s="69"/>
+      <c r="V149" s="69"/>
+      <c r="W149" s="69"/>
+      <c r="X149" s="69"/>
+      <c r="Y149" s="69"/>
+      <c r="Z149" s="69"/>
+      <c r="AA149" s="69"/>
+      <c r="AB149" s="69"/>
+      <c r="AC149" s="69"/>
+      <c r="AD149" s="69"/>
+      <c r="AE149" s="69"/>
+      <c r="AF149" s="69"/>
+      <c r="AG149" s="70"/>
+      <c r="AH149" s="69"/>
+      <c r="AI149" s="69"/>
+    </row>
+    <row r="150" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="72"/>
+      <c r="B150" s="72"/>
+      <c r="C150" s="70"/>
+      <c r="D150" s="70"/>
+      <c r="E150" s="70"/>
+      <c r="F150" s="70"/>
+      <c r="G150" s="70"/>
+      <c r="H150" s="70"/>
+      <c r="I150" s="70"/>
+      <c r="J150" s="70"/>
+      <c r="K150" s="70"/>
+      <c r="L150" s="70"/>
+      <c r="M150" s="70"/>
+      <c r="N150" s="70"/>
+      <c r="O150" s="70"/>
+      <c r="P150" s="70"/>
+      <c r="Q150" s="70"/>
+      <c r="R150" s="70"/>
+      <c r="S150" s="70"/>
+      <c r="T150" s="70"/>
+      <c r="U150" s="70"/>
+      <c r="V150" s="70"/>
+      <c r="W150" s="70"/>
+      <c r="X150" s="70"/>
+      <c r="Y150" s="70"/>
+      <c r="Z150" s="70"/>
+      <c r="AA150" s="70"/>
+      <c r="AB150" s="70"/>
+      <c r="AC150" s="70"/>
+      <c r="AD150" s="70"/>
+      <c r="AE150" s="70"/>
+      <c r="AF150" s="70"/>
+      <c r="AG150" s="70"/>
+      <c r="AH150" s="70"/>
+      <c r="AI150" s="70"/>
+    </row>
+    <row r="151" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="72"/>
+      <c r="B151" s="72"/>
+      <c r="C151" s="70"/>
+      <c r="D151" s="70"/>
+      <c r="E151" s="70"/>
+      <c r="F151" s="70"/>
+      <c r="G151" s="70"/>
+      <c r="H151" s="70"/>
+      <c r="I151" s="70"/>
+      <c r="J151" s="70"/>
+      <c r="K151" s="70"/>
+      <c r="L151" s="70"/>
+      <c r="M151" s="70"/>
+      <c r="N151" s="70"/>
+      <c r="O151" s="70"/>
+      <c r="P151" s="70"/>
+      <c r="Q151" s="70"/>
+      <c r="R151" s="70"/>
+      <c r="S151" s="70"/>
+      <c r="T151" s="70"/>
+      <c r="U151" s="70"/>
+      <c r="V151" s="70"/>
+      <c r="W151" s="70"/>
+      <c r="X151" s="70"/>
+      <c r="Y151" s="70"/>
+      <c r="Z151" s="70"/>
+      <c r="AA151" s="70"/>
+      <c r="AB151" s="70"/>
+      <c r="AC151" s="70"/>
+      <c r="AD151" s="70"/>
+      <c r="AE151" s="70"/>
+      <c r="AF151" s="70"/>
+      <c r="AG151" s="70"/>
+      <c r="AH151" s="70"/>
+      <c r="AI151" s="70"/>
     </row>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F18 E77:E100 I102:I148 I81:I100 D23:E23 D32:E75 I77">
+    <dataValidation type="list" allowBlank="1" sqref="E9:F9 E2:F5 E12:F18 E80:E103 I105:I151 I84:I103 D23:E23 I80 D32:E78">
       <formula1>"yes,no"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" sqref="J6:J8 J10:J11 J19:J22">
       <formula1>"yes,no"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A102:A127 A77:A100 A24:A31">
+    <dataValidation type="list" allowBlank="1" sqref="A105:A130 A80:A103 A24:A31">
       <formula1>"note,select_one,select_multiple,date,time,calculate,integer,text,decimal,acknowledge,dateTime,image,range,begin group,end group,hidden,db:person,db:clinic,db:health_center,db:district_hospital,string"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7831,7 +7978,7 @@
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>56</v>
@@ -7842,7 +7989,7 @@
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>57</v>
@@ -7853,112 +8000,112 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>210</v>
-      </c>
       <c r="C8" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B9" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>215</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B10" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>216</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="B11" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="C11" s="21" t="s">
         <v>217</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>99</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" s="62" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="62" t="s">
         <v>233</v>
-      </c>
-      <c r="B13" s="62" t="s">
-        <v>235</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="62" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B14" s="62" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="52" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B15" s="52" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
@@ -7985,13 +8132,13 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
+        <v>338</v>
+      </c>
+      <c r="B16" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="B16" s="52" t="s">
-        <v>344</v>
-      </c>
       <c r="C16" s="52" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D16" s="52"/>
       <c r="E16" s="52"/>
@@ -8018,7 +8165,7 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>53</v>
@@ -8051,68 +8198,68 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>151</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>153</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>376</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>379</v>
-      </c>
       <c r="C20" s="21" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>385</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>388</v>
-      </c>
       <c r="C22" s="21" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8512,17 +8659,17 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44136.64214502315</v>
+        <v>44136.689991203704</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>29</v>

--- a/forms/app/hbc_followup.xlsx
+++ b/forms/app/hbc_followup.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="411">
   <si>
     <t>list_name</t>
   </si>
@@ -1260,6 +1260,9 @@
   </si>
   <si>
     <t>Did ${patient_name} receive extracorporeal membrane oxygenation?</t>
+  </si>
+  <si>
+    <t>additional_results_</t>
   </si>
 </sst>
 </file>
@@ -1941,10 +1944,10 @@
   <dimension ref="A1:AJ151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D70" sqref="D70:D76"/>
+      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3355,7 +3358,7 @@
         <v>192</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="C37" s="42" t="s">
         <v>366</v>
@@ -3542,7 +3545,7 @@
         <v>193</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>365</v>
+        <v>410</v>
       </c>
       <c r="C42" s="51"/>
       <c r="D42" s="40"/>
@@ -8666,7 +8669,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44136.689991203704</v>
+        <v>44136.703801736112</v>
       </c>
       <c r="D2" s="79" t="s">
         <v>345</v>

--- a/forms/app/hbc_followup.xlsx
+++ b/forms/app/hbc_followup.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="412">
   <si>
     <t>list_name</t>
   </si>
@@ -1094,21 +1094,12 @@
     <t>floor(decimal-date-time(today())) - decimal-date-time(../inputs/contact/form_date)</t>
   </si>
   <si>
-    <t>&lt;h4 style="text-align:center;"&gt;${patient_name} has been &lt;b&gt;receiving home based care for ${days_isolated} days&lt;/b&gt;.&lt;/h4&gt;</t>
-  </si>
-  <si>
     <t>covid_note</t>
   </si>
   <si>
-    <t>${patient_name} is &lt;b&gt; confirmed to have COVID-19 &lt;/b&gt;</t>
-  </si>
-  <si>
     <t>symptoms_note</t>
   </si>
   <si>
-    <t>${patient_name} began experiencing symptoms &lt;b&gt; ${days_since_symptoms_onset} days ago</t>
-  </si>
-  <si>
     <t>last_test_result_note</t>
   </si>
   <si>
@@ -1241,9 +1232,6 @@
     <t>First date of admission to hospital</t>
   </si>
   <si>
-    <t>${patient_name} admitted to hospital?</t>
-  </si>
-  <si>
     <t>Did ${patient_name} receive care in an intensive care unit (ICU)?</t>
   </si>
   <si>
@@ -1263,6 +1251,21 @@
   </si>
   <si>
     <t>additional_results_</t>
+  </si>
+  <si>
+    <t>&lt;h4 style="text-align:left;"&gt;${patient_name} has been &lt;b&gt;receiving home based care for ${days_isolated} days&lt;/b&gt;.&lt;/h4&gt;</t>
+  </si>
+  <si>
+    <t>${patient_name} began experiencing symptoms for &lt;b&gt; ${days_since_symptoms_onset} days ago</t>
+  </si>
+  <si>
+    <t>${patient_name} is &lt;b&gt;  lab confirmed to have COVID-19 &lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>Is ${patient_name} admitted to hospital?</t>
+  </si>
+  <si>
+    <t>${hospitalised} = 'yes'</t>
   </si>
 </sst>
 </file>
@@ -1944,10 +1947,10 @@
   <dimension ref="A1:AJ151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B42" sqref="B42"/>
+      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2951,7 +2954,7 @@
         <v>351</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>354</v>
+        <v>407</v>
       </c>
       <c r="D25" s="66"/>
       <c r="E25" s="66"/>
@@ -2983,10 +2986,10 @@
         <v>241</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="D26" s="66"/>
       <c r="E26" s="66"/>
@@ -3018,10 +3021,10 @@
         <v>241</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
@@ -3053,17 +3056,15 @@
         <v>241</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
       <c r="F28" s="66"/>
-      <c r="G28" s="64" t="s">
-        <v>253</v>
-      </c>
+      <c r="G28" s="64"/>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
       <c r="J28" s="40"/>
@@ -3090,10 +3091,10 @@
         <v>241</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D29" s="66"/>
       <c r="E29" s="66"/>
@@ -3125,10 +3126,10 @@
         <v>241</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D30" s="66"/>
       <c r="E30" s="66"/>
@@ -3358,10 +3359,10 @@
         <v>192</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
@@ -3397,10 +3398,10 @@
         <v>167</v>
       </c>
       <c r="B38" s="50" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C38" s="40" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>56</v>
@@ -3434,15 +3435,15 @@
         <v>191</v>
       </c>
       <c r="B39" s="50" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C39" s="40" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
       <c r="F39" s="40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
@@ -3468,18 +3469,18 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
       <c r="F40" s="40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
@@ -3505,18 +3506,18 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B41" s="50" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C41" s="40" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
       <c r="F41" s="40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
@@ -3545,7 +3546,7 @@
         <v>193</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C42" s="51"/>
       <c r="D42" s="40"/>
@@ -3607,7 +3608,7 @@
         <v>192</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C44" s="42" t="s">
         <v>35</v>
@@ -3646,10 +3647,10 @@
         <v>167</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>56</v>
@@ -3683,15 +3684,15 @@
         <v>203</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D46" s="40"/>
       <c r="E46" s="40"/>
       <c r="F46" s="40" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
@@ -3720,15 +3721,15 @@
         <v>203</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D47" s="40"/>
       <c r="E47" s="40"/>
       <c r="F47" s="40" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G47" s="40"/>
       <c r="H47" s="40"/>
@@ -3757,15 +3758,15 @@
         <v>191</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D48" s="40"/>
       <c r="E48" s="40"/>
       <c r="F48" s="40" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G48" s="40"/>
       <c r="H48" s="40"/>
@@ -3794,7 +3795,7 @@
         <v>193</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C49" s="51"/>
       <c r="D49" s="40"/>
@@ -4601,20 +4602,20 @@
     </row>
     <row r="71" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="50" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="D71" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E71" s="40"/>
       <c r="F71" s="40" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G71" s="40"/>
       <c r="H71" s="40"/>
@@ -4643,17 +4644,17 @@
         <v>191</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D72" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E72" s="40"/>
       <c r="F72" s="40" t="s">
-        <v>400</v>
+        <v>411</v>
       </c>
       <c r="G72" s="40"/>
       <c r="H72" s="40"/>
@@ -4679,13 +4680,13 @@
     </row>
     <row r="73" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="50" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B73" s="50" t="s">
         <v>199</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>56</v>
@@ -4716,13 +4717,13 @@
     </row>
     <row r="74" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="50" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B74" s="50" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C74" s="40" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>56</v>
@@ -4753,13 +4754,13 @@
     </row>
     <row r="75" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="50" t="s">
+        <v>401</v>
+      </c>
+      <c r="B75" s="50" t="s">
+        <v>404</v>
+      </c>
+      <c r="C75" s="40" t="s">
         <v>405</v>
-      </c>
-      <c r="B75" s="50" t="s">
-        <v>408</v>
-      </c>
-      <c r="C75" s="40" t="s">
-        <v>409</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>56</v>
@@ -8201,68 +8202,68 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>151</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>153</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B20" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="B20" s="20" t="s">
-        <v>376</v>
-      </c>
       <c r="C20" s="21" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>382</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>385</v>
-      </c>
       <c r="C22" s="21" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8669,7 +8670,7 @@
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44136.703801736112</v>
+        <v>44136.728289004626</v>
       </c>
       <c r="D2" s="79" t="s">
         <v>345</v>

--- a/forms/app/hbc_followup.xlsx
+++ b/forms/app/hbc_followup.xlsx
@@ -623,9 +623,6 @@
     <t>Hospitalization required?</t>
   </si>
   <si>
-    <t>Pneumonia by chest X-ray</t>
-  </si>
-  <si>
     <t>hospitalisation</t>
   </si>
   <si>
@@ -743,9 +740,6 @@
     <t>symptom_existence</t>
   </si>
   <si>
-    <t>Has patient had symptoms</t>
-  </si>
-  <si>
     <t>${fever} = 'yes'</t>
   </si>
   <si>
@@ -1266,6 +1260,12 @@
   </si>
   <si>
     <t>${hospitalised} = 'yes'</t>
+  </si>
+  <si>
+    <t>Has ${patient_name} had symptoms</t>
+  </si>
+  <si>
+    <t>Did ${patient_name} receive Pneumonia by chest X-ray</t>
   </si>
 </sst>
 </file>
@@ -1947,10 +1947,10 @@
   <dimension ref="A1:AJ151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C57" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomRight" activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2196,7 +2196,7 @@
         <v>162</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D6" s="57"/>
       <c r="E6" s="57"/>
@@ -2285,10 +2285,10 @@
         <v>39</v>
       </c>
       <c r="B8" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>219</v>
-      </c>
-      <c r="C8" s="57" t="s">
-        <v>220</v>
       </c>
       <c r="D8" s="57"/>
       <c r="E8" s="57"/>
@@ -2365,10 +2365,10 @@
         <v>39</v>
       </c>
       <c r="B10" s="56" t="s">
+        <v>220</v>
+      </c>
+      <c r="C10" s="57" t="s">
         <v>221</v>
-      </c>
-      <c r="C10" s="57" t="s">
-        <v>222</v>
       </c>
       <c r="D10" s="57"/>
       <c r="E10" s="57"/>
@@ -2411,10 +2411,10 @@
         <v>39</v>
       </c>
       <c r="B11" s="56" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="57" t="s">
         <v>223</v>
-      </c>
-      <c r="C11" s="57" t="s">
-        <v>224</v>
       </c>
       <c r="D11" s="57"/>
       <c r="E11" s="57"/>
@@ -2704,7 +2704,7 @@
         <v>95</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C19" s="60" t="s">
         <v>35</v>
@@ -2717,7 +2717,7 @@
       <c r="I19" s="60"/>
       <c r="J19" s="60"/>
       <c r="K19" s="60" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="L19" s="60"/>
       <c r="M19" s="60"/>
@@ -2750,7 +2750,7 @@
         <v>95</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C20" s="60" t="s">
         <v>35</v>
@@ -2763,7 +2763,7 @@
       <c r="I20" s="60"/>
       <c r="J20" s="60"/>
       <c r="K20" s="60" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L20" s="60"/>
       <c r="M20" s="60"/>
@@ -2795,7 +2795,7 @@
         <v>95</v>
       </c>
       <c r="B21" s="59" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C21" s="60" t="s">
         <v>35</v>
@@ -2808,7 +2808,7 @@
       <c r="I21" s="60"/>
       <c r="J21" s="60"/>
       <c r="K21" s="38" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="L21" s="60"/>
       <c r="M21" s="60"/>
@@ -2840,7 +2840,7 @@
         <v>95</v>
       </c>
       <c r="B22" s="59" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C22" s="60" t="s">
         <v>35</v>
@@ -2853,7 +2853,7 @@
       <c r="I22" s="60"/>
       <c r="J22" s="60"/>
       <c r="K22" s="60" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="L22" s="60"/>
       <c r="M22" s="60"/>
@@ -2914,7 +2914,7 @@
         <v>32</v>
       </c>
       <c r="B24" s="63" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C24" s="64" t="s">
         <v>35</v>
@@ -2923,7 +2923,7 @@
       <c r="E24" s="65"/>
       <c r="F24" s="66"/>
       <c r="G24" s="66" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
@@ -2948,13 +2948,13 @@
     </row>
     <row r="25" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="67" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C25" s="64" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D25" s="66"/>
       <c r="E25" s="66"/>
@@ -2983,13 +2983,13 @@
     </row>
     <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B26" s="63" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D26" s="66"/>
       <c r="E26" s="66"/>
@@ -3018,13 +3018,13 @@
     </row>
     <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B27" s="63" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C27" s="64" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D27" s="66"/>
       <c r="E27" s="66"/>
@@ -3053,13 +3053,13 @@
     </row>
     <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B28" s="63" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C28" s="64" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D28" s="66"/>
       <c r="E28" s="66"/>
@@ -3088,13 +3088,13 @@
     </row>
     <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B29" s="63" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C29" s="66" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D29" s="66"/>
       <c r="E29" s="66"/>
@@ -3123,13 +3123,13 @@
     </row>
     <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B30" s="63" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C30" s="66" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D30" s="66"/>
       <c r="E30" s="66"/>
@@ -3161,7 +3161,7 @@
         <v>63</v>
       </c>
       <c r="B31" s="63" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C31" s="66"/>
       <c r="D31" s="66"/>
@@ -3223,7 +3223,7 @@
         <v>192</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C33" s="42" t="s">
         <v>35</v>
@@ -3257,13 +3257,13 @@
     </row>
     <row r="34" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
+        <v>228</v>
+      </c>
+      <c r="B34" s="50" t="s">
         <v>229</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="C34" s="40" t="s">
         <v>230</v>
-      </c>
-      <c r="C34" s="40" t="s">
-        <v>231</v>
       </c>
       <c r="D34" s="40" t="s">
         <v>56</v>
@@ -3297,7 +3297,7 @@
         <v>193</v>
       </c>
       <c r="B35" s="42" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C35" s="51"/>
       <c r="D35" s="40"/>
@@ -3359,15 +3359,15 @@
         <v>192</v>
       </c>
       <c r="B37" s="42" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
       <c r="F37" s="43" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G37" s="43" t="s">
         <v>38</v>
@@ -3398,10 +3398,10 @@
         <v>167</v>
       </c>
       <c r="B38" s="50" t="s">
+        <v>360</v>
+      </c>
+      <c r="C38" s="40" t="s">
         <v>362</v>
-      </c>
-      <c r="C38" s="40" t="s">
-        <v>364</v>
       </c>
       <c r="D38" s="40" t="s">
         <v>56</v>
@@ -3435,15 +3435,15 @@
         <v>191</v>
       </c>
       <c r="B39" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="C39" s="40" t="s">
         <v>365</v>
-      </c>
-      <c r="C39" s="40" t="s">
-        <v>367</v>
       </c>
       <c r="D39" s="40"/>
       <c r="E39" s="40"/>
       <c r="F39" s="40" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G39" s="40"/>
       <c r="H39" s="40"/>
@@ -3469,18 +3469,18 @@
     </row>
     <row r="40" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="50" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B40" s="50" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C40" s="40" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D40" s="40"/>
       <c r="E40" s="40"/>
       <c r="F40" s="40" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
@@ -3506,18 +3506,18 @@
     </row>
     <row r="41" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="50" t="s">
+        <v>374</v>
+      </c>
+      <c r="B41" s="50" t="s">
+        <v>375</v>
+      </c>
+      <c r="C41" s="40" t="s">
         <v>376</v>
-      </c>
-      <c r="B41" s="50" t="s">
-        <v>377</v>
-      </c>
-      <c r="C41" s="40" t="s">
-        <v>378</v>
       </c>
       <c r="D41" s="40"/>
       <c r="E41" s="40"/>
       <c r="F41" s="40" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G41" s="40"/>
       <c r="H41" s="40"/>
@@ -3546,7 +3546,7 @@
         <v>193</v>
       </c>
       <c r="B42" s="42" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C42" s="51"/>
       <c r="D42" s="40"/>
@@ -3608,7 +3608,7 @@
         <v>192</v>
       </c>
       <c r="B44" s="42" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C44" s="42" t="s">
         <v>35</v>
@@ -3616,7 +3616,7 @@
       <c r="D44" s="43"/>
       <c r="E44" s="43"/>
       <c r="F44" s="43" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G44" s="43" t="s">
         <v>38</v>
@@ -3647,10 +3647,10 @@
         <v>167</v>
       </c>
       <c r="B45" s="50" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C45" s="40" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D45" s="40" t="s">
         <v>56</v>
@@ -3681,18 +3681,18 @@
     </row>
     <row r="46" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B46" s="50" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C46" s="40" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D46" s="40"/>
       <c r="E46" s="40"/>
       <c r="F46" s="40" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
@@ -3718,18 +3718,18 @@
     </row>
     <row r="47" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B47" s="50" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C47" s="40" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="D47" s="40"/>
       <c r="E47" s="40"/>
       <c r="F47" s="40" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G47" s="40"/>
       <c r="H47" s="40"/>
@@ -3758,15 +3758,15 @@
         <v>191</v>
       </c>
       <c r="B48" s="50" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C48" s="40" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D48" s="40"/>
       <c r="E48" s="40"/>
       <c r="F48" s="40" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G48" s="40"/>
       <c r="H48" s="40"/>
@@ -3795,7 +3795,7 @@
         <v>193</v>
       </c>
       <c r="B49" s="42" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="C49" s="51"/>
       <c r="D49" s="40"/>
@@ -3865,7 +3865,7 @@
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="43" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G51" s="43" t="s">
         <v>38</v>
@@ -3896,10 +3896,10 @@
         <v>167</v>
       </c>
       <c r="B52" s="50" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C52" s="40" t="s">
-        <v>237</v>
+        <v>410</v>
       </c>
       <c r="D52" s="40" t="s">
         <v>56</v>
@@ -3943,7 +3943,7 @@
       </c>
       <c r="E53" s="40"/>
       <c r="F53" s="40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G53" s="40"/>
       <c r="H53" s="40"/>
@@ -3969,18 +3969,18 @@
     </row>
     <row r="54" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="50" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" s="50" t="s">
         <v>209</v>
       </c>
-      <c r="B54" s="50" t="s">
-        <v>210</v>
-      </c>
       <c r="C54" s="40" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D54" s="40"/>
       <c r="E54" s="40"/>
       <c r="F54" s="40" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G54" s="40"/>
       <c r="H54" s="40"/>
@@ -4019,7 +4019,7 @@
       </c>
       <c r="E55" s="40"/>
       <c r="F55" s="40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
@@ -4058,7 +4058,7 @@
       </c>
       <c r="E56" s="40"/>
       <c r="F56" s="40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G56" s="40"/>
       <c r="H56" s="40"/>
@@ -4097,7 +4097,7 @@
       </c>
       <c r="E57" s="40"/>
       <c r="F57" s="40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G57" s="40"/>
       <c r="H57" s="40"/>
@@ -4136,7 +4136,7 @@
       </c>
       <c r="E58" s="40"/>
       <c r="F58" s="40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G58" s="40"/>
       <c r="H58" s="40"/>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="E59" s="40"/>
       <c r="F59" s="40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G59" s="40"/>
       <c r="H59" s="40"/>
@@ -4214,7 +4214,7 @@
       </c>
       <c r="E60" s="40"/>
       <c r="F60" s="40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G60" s="40"/>
       <c r="H60" s="40"/>
@@ -4253,7 +4253,7 @@
       </c>
       <c r="E61" s="40"/>
       <c r="F61" s="40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G61" s="40"/>
       <c r="H61" s="40"/>
@@ -4292,7 +4292,7 @@
       </c>
       <c r="E62" s="40"/>
       <c r="F62" s="40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G62" s="40"/>
       <c r="H62" s="40"/>
@@ -4331,7 +4331,7 @@
       </c>
       <c r="E63" s="40"/>
       <c r="F63" s="40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G63" s="40"/>
       <c r="H63" s="40"/>
@@ -4370,7 +4370,7 @@
       </c>
       <c r="E64" s="40"/>
       <c r="F64" s="40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G64" s="40"/>
       <c r="H64" s="40"/>
@@ -4409,7 +4409,7 @@
       </c>
       <c r="E65" s="40"/>
       <c r="F65" s="40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G65" s="40"/>
       <c r="H65" s="40"/>
@@ -4537,7 +4537,7 @@
       <c r="D69" s="40"/>
       <c r="E69" s="40"/>
       <c r="F69" s="43" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G69" s="40" t="s">
         <v>38</v>
@@ -4568,7 +4568,7 @@
         <v>167</v>
       </c>
       <c r="B70" s="50" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C70" s="40" t="s">
         <v>196</v>
@@ -4602,20 +4602,20 @@
     </row>
     <row r="71" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="50" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B71" s="50" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C71" s="40" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D71" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E71" s="40"/>
       <c r="F71" s="40" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="G71" s="40"/>
       <c r="H71" s="40"/>
@@ -4644,17 +4644,17 @@
         <v>191</v>
       </c>
       <c r="B72" s="50" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C72" s="40" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="D72" s="40" t="s">
         <v>56</v>
       </c>
       <c r="E72" s="40"/>
       <c r="F72" s="40" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G72" s="40"/>
       <c r="H72" s="40"/>
@@ -4680,13 +4680,13 @@
     </row>
     <row r="73" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="50" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B73" s="50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C73" s="40" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D73" s="40" t="s">
         <v>56</v>
@@ -4717,13 +4717,13 @@
     </row>
     <row r="74" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="50" t="s">
+        <v>399</v>
+      </c>
+      <c r="B74" s="50" t="s">
         <v>401</v>
       </c>
-      <c r="B74" s="50" t="s">
-        <v>403</v>
-      </c>
       <c r="C74" s="40" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D74" s="40" t="s">
         <v>56</v>
@@ -4754,13 +4754,13 @@
     </row>
     <row r="75" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="50" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B75" s="50" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C75" s="40" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D75" s="40" t="s">
         <v>56</v>
@@ -4794,10 +4794,10 @@
         <v>167</v>
       </c>
       <c r="B76" s="50" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C76" s="40" t="s">
-        <v>197</v>
+        <v>411</v>
       </c>
       <c r="D76" s="40" t="s">
         <v>56</v>
@@ -4893,15 +4893,15 @@
         <v>32</v>
       </c>
       <c r="B80" s="73" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C80" s="51" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D80" s="40"/>
       <c r="E80" s="55"/>
       <c r="F80" s="55" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G80" s="40" t="s">
         <v>38</v>
@@ -4940,10 +4940,10 @@
         <v>191</v>
       </c>
       <c r="B81" s="73" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C81" s="51" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D81" s="40"/>
       <c r="E81" s="55" t="s">
@@ -4953,7 +4953,7 @@
       <c r="G81" s="40"/>
       <c r="H81" s="40"/>
       <c r="I81" s="51" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J81" s="55"/>
       <c r="K81" s="55"/>
@@ -4984,13 +4984,13 @@
     </row>
     <row r="82" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="73" t="s">
+        <v>302</v>
+      </c>
+      <c r="B82" s="73" t="s">
+        <v>303</v>
+      </c>
+      <c r="C82" s="51" t="s">
         <v>304</v>
-      </c>
-      <c r="B82" s="73" t="s">
-        <v>305</v>
-      </c>
-      <c r="C82" s="51" t="s">
-        <v>306</v>
       </c>
       <c r="D82" s="40"/>
       <c r="E82" s="55" t="s">
@@ -5029,13 +5029,13 @@
     </row>
     <row r="83" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="73" t="s">
+        <v>305</v>
+      </c>
+      <c r="B83" s="73" t="s">
+        <v>306</v>
+      </c>
+      <c r="C83" s="51" t="s">
         <v>307</v>
-      </c>
-      <c r="B83" s="73" t="s">
-        <v>308</v>
-      </c>
-      <c r="C83" s="51" t="s">
-        <v>309</v>
       </c>
       <c r="D83" s="40"/>
       <c r="E83" s="55" t="s">
@@ -5045,7 +5045,7 @@
       <c r="G83" s="40"/>
       <c r="H83" s="40"/>
       <c r="I83" s="55" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J83" s="55"/>
       <c r="K83" s="55"/>
@@ -5076,13 +5076,13 @@
     </row>
     <row r="84" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="73" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B84" s="73" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C84" s="51" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D84" s="40"/>
       <c r="E84" s="55"/>
@@ -5122,7 +5122,7 @@
         <v>32</v>
       </c>
       <c r="B85" s="74" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C85" s="75" t="s">
         <v>35</v>
@@ -5130,7 +5130,7 @@
       <c r="D85" s="55"/>
       <c r="E85" s="55"/>
       <c r="F85" s="55" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G85" s="55"/>
       <c r="H85" s="55"/>
@@ -5162,7 +5162,7 @@
       <c r="AF85" s="55"/>
       <c r="AG85" s="55"/>
       <c r="AH85" s="76" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AI85" s="55"/>
     </row>
@@ -5171,7 +5171,7 @@
         <v>95</v>
       </c>
       <c r="B86" s="74" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C86" s="75" t="s">
         <v>35</v>
@@ -5184,7 +5184,7 @@
       <c r="I86" s="75"/>
       <c r="J86" s="75"/>
       <c r="K86" s="75" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L86" s="75"/>
       <c r="M86" s="75"/>
@@ -5219,7 +5219,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="75" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D87" s="55"/>
       <c r="E87" s="55"/>
@@ -5229,7 +5229,7 @@
       <c r="I87" s="55"/>
       <c r="J87" s="55"/>
       <c r="K87" s="75" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="L87" s="55"/>
       <c r="M87" s="55"/>
@@ -5261,7 +5261,7 @@
         <v>95</v>
       </c>
       <c r="B88" s="74" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C88" s="75" t="s">
         <v>35</v>
@@ -5274,7 +5274,7 @@
       <c r="I88" s="55"/>
       <c r="J88" s="55"/>
       <c r="K88" s="75" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L88" s="55"/>
       <c r="M88" s="55"/>
@@ -5306,7 +5306,7 @@
         <v>95</v>
       </c>
       <c r="B89" s="74" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C89" s="75" t="s">
         <v>35</v>
@@ -5319,7 +5319,7 @@
       <c r="I89" s="75"/>
       <c r="J89" s="75"/>
       <c r="K89" s="75" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="L89" s="75"/>
       <c r="M89" s="75"/>
@@ -5351,7 +5351,7 @@
         <v>32</v>
       </c>
       <c r="B90" s="74" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C90" s="75" t="s">
         <v>35</v>
@@ -5407,7 +5407,7 @@
       <c r="I91" s="75"/>
       <c r="J91" s="75"/>
       <c r="K91" s="75" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="L91" s="75"/>
       <c r="M91" s="75"/>
@@ -5452,7 +5452,7 @@
       <c r="I92" s="75"/>
       <c r="J92" s="75"/>
       <c r="K92" s="75" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L92" s="75"/>
       <c r="M92" s="75"/>
@@ -5484,7 +5484,7 @@
         <v>32</v>
       </c>
       <c r="B93" s="74" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C93" s="75" t="s">
         <v>35</v>
@@ -5527,7 +5527,7 @@
         <v>95</v>
       </c>
       <c r="B94" s="74" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C94" s="75" t="s">
         <v>35</v>
@@ -5540,7 +5540,7 @@
       <c r="I94" s="55"/>
       <c r="J94" s="55"/>
       <c r="K94" s="75" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="L94" s="55"/>
       <c r="M94" s="55"/>
@@ -5572,7 +5572,7 @@
         <v>95</v>
       </c>
       <c r="B95" s="74" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C95" s="75" t="s">
         <v>35</v>
@@ -5585,7 +5585,7 @@
       <c r="I95" s="55"/>
       <c r="J95" s="55"/>
       <c r="K95" s="75" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="L95" s="55"/>
       <c r="M95" s="55"/>
@@ -5617,7 +5617,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="74" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C96" s="75" t="s">
         <v>35</v>
@@ -5630,7 +5630,7 @@
       <c r="I96" s="55"/>
       <c r="J96" s="55"/>
       <c r="K96" s="75" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="L96" s="55"/>
       <c r="M96" s="55"/>
@@ -5662,7 +5662,7 @@
         <v>95</v>
       </c>
       <c r="B97" s="74" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C97" s="75" t="s">
         <v>35</v>
@@ -5675,7 +5675,7 @@
       <c r="I97" s="75"/>
       <c r="J97" s="75"/>
       <c r="K97" s="75" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="L97" s="75"/>
       <c r="M97" s="75"/>
@@ -5824,7 +5824,7 @@
         <v>95</v>
       </c>
       <c r="B101" s="77" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C101" s="55" t="s">
         <v>35</v>
@@ -5837,7 +5837,7 @@
       <c r="I101" s="55"/>
       <c r="J101" s="55"/>
       <c r="K101" s="55" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="L101" s="55"/>
       <c r="M101" s="55"/>
@@ -5945,7 +5945,7 @@
         <v>32</v>
       </c>
       <c r="B105" s="63" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C105" s="64" t="s">
         <v>35</v>
@@ -5954,7 +5954,7 @@
       <c r="E105" s="65"/>
       <c r="F105" s="66"/>
       <c r="G105" s="66" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H105" s="65"/>
       <c r="I105" s="66"/>
@@ -5989,13 +5989,13 @@
     </row>
     <row r="106" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="67" t="s">
+        <v>239</v>
+      </c>
+      <c r="B106" s="67" t="s">
+        <v>240</v>
+      </c>
+      <c r="C106" s="64" t="s">
         <v>241</v>
-      </c>
-      <c r="B106" s="67" t="s">
-        <v>242</v>
-      </c>
-      <c r="C106" s="64" t="s">
-        <v>243</v>
       </c>
       <c r="D106" s="66"/>
       <c r="E106" s="66"/>
@@ -6032,19 +6032,19 @@
     </row>
     <row r="107" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B107" s="63" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C107" s="64" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D107" s="66"/>
       <c r="E107" s="66"/>
       <c r="F107" s="66"/>
       <c r="G107" s="64" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H107" s="66"/>
       <c r="I107" s="66"/>
@@ -6077,13 +6077,13 @@
     </row>
     <row r="108" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B108" s="63" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C108" s="64" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D108" s="66"/>
       <c r="E108" s="66"/>
@@ -6120,19 +6120,19 @@
     </row>
     <row r="109" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B109" s="63" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C109" s="64" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D109" s="66"/>
       <c r="E109" s="66"/>
       <c r="F109" s="66"/>
       <c r="G109" s="64" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="H109" s="66"/>
       <c r="I109" s="66"/>
@@ -6165,19 +6165,19 @@
     </row>
     <row r="110" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B110" s="63" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C110" s="66" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D110" s="66"/>
       <c r="E110" s="66"/>
       <c r="F110" s="65"/>
       <c r="G110" s="64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H110" s="66"/>
       <c r="I110" s="66"/>
@@ -6210,21 +6210,21 @@
     </row>
     <row r="111" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B111" s="63" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C111" s="64" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D111" s="65"/>
       <c r="E111" s="65"/>
       <c r="F111" s="64" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G111" s="66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H111" s="65"/>
       <c r="I111" s="66"/>
@@ -6257,21 +6257,21 @@
     </row>
     <row r="112" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B112" s="63" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C112" s="64" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D112" s="65"/>
       <c r="E112" s="65"/>
       <c r="F112" s="64" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G112" s="66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H112" s="65"/>
       <c r="I112" s="66"/>
@@ -6304,21 +6304,21 @@
     </row>
     <row r="113" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B113" s="63" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C113" s="66" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D113" s="66"/>
       <c r="E113" s="66"/>
       <c r="F113" s="64" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G113" s="64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H113" s="66"/>
       <c r="I113" s="66"/>
@@ -6351,21 +6351,21 @@
     </row>
     <row r="114" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B114" s="63" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C114" s="64" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D114" s="65"/>
       <c r="E114" s="65"/>
       <c r="F114" s="64" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G114" s="66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H114" s="65"/>
       <c r="I114" s="66"/>
@@ -6398,21 +6398,21 @@
     </row>
     <row r="115" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B115" s="63" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C115" s="64" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D115" s="65"/>
       <c r="E115" s="65"/>
       <c r="F115" s="64" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G115" s="66" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H115" s="65"/>
       <c r="I115" s="66"/>
@@ -6445,21 +6445,21 @@
     </row>
     <row r="116" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B116" s="63" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C116" s="64" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D116" s="65"/>
       <c r="E116" s="65"/>
       <c r="F116" s="64" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G116" s="64" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H116" s="65"/>
       <c r="I116" s="66"/>
@@ -6492,21 +6492,21 @@
     </row>
     <row r="117" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B117" s="63" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C117" s="64" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D117" s="66"/>
       <c r="E117" s="66"/>
       <c r="F117" s="64" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G117" s="64" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H117" s="66"/>
       <c r="I117" s="66"/>
@@ -6539,21 +6539,21 @@
     </row>
     <row r="118" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B118" s="63" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C118" s="64" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D118" s="66"/>
       <c r="E118" s="66"/>
       <c r="F118" s="64" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G118" s="64" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H118" s="66"/>
       <c r="I118" s="66"/>
@@ -6586,21 +6586,21 @@
     </row>
     <row r="119" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B119" s="63" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C119" s="64" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D119" s="66"/>
       <c r="E119" s="66"/>
       <c r="F119" s="64" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G119" s="64" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H119" s="66"/>
       <c r="I119" s="66"/>
@@ -6633,10 +6633,10 @@
     </row>
     <row r="120" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B120" s="63" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C120" s="64" t="s">
         <v>176</v>
@@ -6644,10 +6644,10 @@
       <c r="D120" s="66"/>
       <c r="E120" s="66"/>
       <c r="F120" s="64" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G120" s="64" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H120" s="66"/>
       <c r="I120" s="66"/>
@@ -6680,10 +6680,10 @@
     </row>
     <row r="121" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B121" s="63" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C121" s="64" t="s">
         <v>178</v>
@@ -6691,10 +6691,10 @@
       <c r="D121" s="66"/>
       <c r="E121" s="66"/>
       <c r="F121" s="64" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G121" s="64" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H121" s="66"/>
       <c r="I121" s="66"/>
@@ -6727,10 +6727,10 @@
     </row>
     <row r="122" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B122" s="63" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C122" s="64" t="s">
         <v>180</v>
@@ -6738,10 +6738,10 @@
       <c r="D122" s="66"/>
       <c r="E122" s="66"/>
       <c r="F122" s="64" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G122" s="64" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H122" s="66"/>
       <c r="I122" s="66"/>
@@ -6774,10 +6774,10 @@
     </row>
     <row r="123" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B123" s="63" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C123" s="64" t="s">
         <v>182</v>
@@ -6785,10 +6785,10 @@
       <c r="D123" s="66"/>
       <c r="E123" s="66"/>
       <c r="F123" s="64" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G123" s="64" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H123" s="66"/>
       <c r="I123" s="66"/>
@@ -6821,10 +6821,10 @@
     </row>
     <row r="124" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B124" s="63" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C124" s="64" t="s">
         <v>184</v>
@@ -6832,10 +6832,10 @@
       <c r="D124" s="66"/>
       <c r="E124" s="66"/>
       <c r="F124" s="64" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G124" s="64" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H124" s="66"/>
       <c r="I124" s="66"/>
@@ -6868,21 +6868,21 @@
     </row>
     <row r="125" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B125" s="63" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C125" s="64" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D125" s="66"/>
       <c r="E125" s="66"/>
       <c r="F125" s="64" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G125" s="64" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H125" s="66"/>
       <c r="I125" s="66"/>
@@ -6915,21 +6915,21 @@
     </row>
     <row r="126" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B126" s="63" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C126" s="64" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D126" s="66"/>
       <c r="E126" s="66"/>
       <c r="F126" s="64" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G126" s="64" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H126" s="66"/>
       <c r="I126" s="66"/>
@@ -6962,18 +6962,18 @@
     </row>
     <row r="127" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B127" s="63" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C127" s="64" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D127" s="66"/>
       <c r="E127" s="66"/>
       <c r="F127" s="64" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G127" s="64"/>
       <c r="H127" s="66"/>
@@ -7007,18 +7007,18 @@
     </row>
     <row r="128" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B128" s="63" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C128" s="64" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D128" s="66"/>
       <c r="E128" s="66"/>
       <c r="F128" s="64" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G128" s="64"/>
       <c r="H128" s="66"/>
@@ -7052,18 +7052,18 @@
     </row>
     <row r="129" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="63" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B129" s="63" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C129" s="64" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D129" s="66"/>
       <c r="E129" s="66"/>
       <c r="F129" s="64" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G129" s="64"/>
       <c r="H129" s="66"/>
@@ -7982,7 +7982,7 @@
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B4" s="25" t="s">
         <v>56</v>
@@ -7993,7 +7993,7 @@
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B5" s="25" t="s">
         <v>57</v>
@@ -8004,112 +8004,112 @@
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="C7" s="15" t="s">
         <v>205</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B8" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>207</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B9" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>212</v>
-      </c>
       <c r="C9" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>99</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B13" s="62" t="s">
+        <v>231</v>
+      </c>
+      <c r="C13" s="62" t="s">
         <v>232</v>
-      </c>
-      <c r="C13" s="62" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="62" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B14" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="C14" s="62" t="s">
         <v>234</v>
-      </c>
-      <c r="C14" s="62" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="52" t="s">
+        <v>336</v>
+      </c>
+      <c r="B15" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="C15" s="52" t="s">
         <v>338</v>
-      </c>
-      <c r="B15" s="52" t="s">
-        <v>339</v>
-      </c>
-      <c r="C15" s="52" t="s">
-        <v>340</v>
       </c>
       <c r="D15" s="52"/>
       <c r="E15" s="52"/>
@@ -8136,13 +8136,13 @@
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="52" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B16" s="52" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D16" s="52"/>
       <c r="E16" s="52"/>
@@ -8169,7 +8169,7 @@
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B17" s="52" t="s">
         <v>53</v>
@@ -8202,68 +8202,68 @@
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>151</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>153</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>379</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>380</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C23" s="21" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8663,17 +8663,17 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="49" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B2" s="49" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C2" s="7">
         <f ca="1">NOW()</f>
-        <v>44136.728289004626</v>
+        <v>44136.7414943287</v>
       </c>
       <c r="D2" s="79" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E2" s="8" t="s">
         <v>29</v>
